--- a/finviz_data.xlsx
+++ b/finviz_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
           <t>https://finviz.com/news/142393/after-gaining-394-billion-in-market-cap-in-3-days-is-apple-stock-on-its-way-to-joining-nvidia-and-microsoft-in-the-4-trillion-club</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F2" t="inlineStr">
@@ -578,7 +578,7 @@
           <t>https://finviz.com/news/142391/dont-make-this-common-investing-mistake-when-buying-sp-500-stocks-at-all-time-highs</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F3" t="inlineStr">
@@ -644,7 +644,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/trump-unprecedented-potentially-unconstitutional-deal-110000020.html</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F4" t="inlineStr">
@@ -670,7 +670,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-special-treatment-trump-110000802.html</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F5" t="inlineStr">
@@ -696,7 +696,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/meta-spends-more-guarding-mark-100300414.html</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F6" t="inlineStr">
@@ -722,7 +722,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/91630ab4-07a9-3a15-85c5-0f54a7bfd2f5/chipmakers-nvidia-and-amd-to.html</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F7" t="inlineStr">
@@ -748,7 +748,7 @@
           <t>https://finviz.com/news/142382/5-brilliant-quantum-computing-stocks-to-buy-right-now</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F8" t="inlineStr">
@@ -807,7 +807,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/race-sovereign-ai-intensifying-know-154054977.html</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F9" t="inlineStr">
@@ -833,7 +833,7 @@
           <t>https://finviz.com/news/142380/5-top-artificial-intelligence-stocks-to-buy-in-august</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F10" t="inlineStr">
@@ -916,7 +916,7 @@
           <t>https://finviz.com/news/142379/double-the-disruption-the-3-best-stocks-to-buy-now-to-profit-from-both-ai-and-quantum-computing</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F11" t="inlineStr">
@@ -981,7 +981,7 @@
           <t>https://finviz.com/news/142377/did-nvidia-make-a-mistake-by-selling-soundhound-ai-stock-the-answer-might-surprise-you</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F12" t="inlineStr">
@@ -1062,7 +1062,7 @@
           <t>https://finviz.com/news/142361/if-i-could-only-buy-and-hold-a-single-stock-this-would-be-it</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F13" t="inlineStr">
@@ -1129,7 +1129,7 @@
           <t>https://finviz.comhttps://www.digitimes.com/news/a20250814PD235/repon-ai-server-growth-demand-shipments.html</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F14" t="inlineStr">
@@ -1155,7 +1155,7 @@
           <t>https://finviz.comhttps://www.digitimes.com/news/a20250814VL206/nvidia-rubin-ai-chip-amd-launch.html</t>
         </is>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F15" t="inlineStr">
@@ -1181,7 +1181,7 @@
           <t>https://finviz.com/news/142292/nvidia-nvda-stock-gets-bullish-call-amid-us-china-chip-agreement-reports</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F16" t="inlineStr">
@@ -1221,7 +1221,7 @@
           <t>https://finviz.com/news/142300/5-unstoppable-ten-titans-growth-stocks-to-buy-now-and-hold-through-at-least-2030</t>
         </is>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F17" t="inlineStr">
@@ -1303,7 +1303,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-agree-15-export-220517787.html</t>
         </is>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F18" t="inlineStr">
@@ -1329,7 +1329,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-scores-500-million-ipo-214706278.html</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F19" t="inlineStr">
@@ -1355,7 +1355,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/6dc7f034-8f61-3b3d-955d-3a50b01945af/trump-wants-to-make-intel.html</t>
         </is>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F20" t="inlineStr">
@@ -1381,7 +1381,7 @@
           <t>https://finviz.comhttps://www.investors.com/research/ibd-stock-analysis/micron-stock-ai-data-centers-space-exploration?mod=IBD_FV</t>
         </is>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F21" t="inlineStr">
@@ -1407,7 +1407,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/75569d9b-a755-3b40-9ffe-1dc6015936fc/dear-marvell-stock-fans%2C-mark.html</t>
         </is>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F22" t="inlineStr">
@@ -1433,7 +1433,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/874808b0-c2be-37fa-8f9b-749d586597da/billionaire-fund-manager.html</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F23" t="inlineStr">
@@ -1459,7 +1459,7 @@
           <t>https://finviz.com/news/142198/jim-cramer-insists-there-are-no-backdoors-in-nvidia-corporation-nvdas-chips</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F24" t="inlineStr">
@@ -1503,7 +1503,7 @@
           <t>https://finviz.com/news/142196/if-youd-invested-500-in-the-trade-desk-stock-5-years-ago-heres-how-much-youd-have-today</t>
         </is>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F25" t="inlineStr">
@@ -1562,7 +1562,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/intc-intel-jumps-reports-white-175929817.html</t>
         </is>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F26" t="inlineStr">
@@ -1588,7 +1588,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/billionaire-family-offices-join-berkshire-173329643.html</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F27" t="inlineStr">
@@ -1614,7 +1614,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvda-chip-stocks-tumbles-tariff-173136118.html</t>
         </is>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F28" t="inlineStr">
@@ -1640,7 +1640,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/3d8524f4-7f7e-33fb-afb8-e423bcd7c678/billionaire-george-soros.html</t>
         </is>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F29" t="inlineStr">
@@ -1666,7 +1666,7 @@
           <t>https://finviz.com/news/142176/quantum-stocks-q2-2025-are-d-wave-ionq-rigetti-funding-the-future</t>
         </is>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F30" t="inlineStr">
@@ -1716,7 +1716,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-price-targets-raised-165957508.html</t>
         </is>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F31" t="inlineStr">
@@ -1742,7 +1742,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-ceo-jensen-huang-cashes-165832406.html</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F32" t="inlineStr">
@@ -1768,7 +1768,7 @@
           <t>https://finviz.com/news/142162/iren-limited-an-ai-crypto-and-cloud-computing-stock</t>
         </is>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F33" t="inlineStr">
@@ -1818,7 +1818,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/trump-aides-create-loyalty-list-162746725.html</t>
         </is>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F34" t="inlineStr">
@@ -1844,7 +1844,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/politics-beats-the-market-in-trumps-pay-for-play-chip-scheme-f57ef41d?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F35" t="inlineStr">
@@ -1870,7 +1870,7 @@
           <t>https://finviz.comhttps://www.wsj.com/tech/intels-move-toward-nationalization-wont-workat-least-for-the-long-haul-de403b16?mod=wsj_FV</t>
         </is>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F36" t="inlineStr">
@@ -1896,7 +1896,7 @@
           <t>https://finviz.com/news/142097/the-zacks-analyst-blog-highlights-intel-nvidia-amd-and-cadence-design-systems</t>
         </is>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F37" t="inlineStr">
@@ -1974,7 +1974,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/0a04f585-44f3-32cd-ac0a-41894f4d485f/china-is-pushing-back-against.html</t>
         </is>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F38" t="inlineStr">
@@ -2000,7 +2000,7 @@
           <t>https://finviz.com/news/142031/what-amd-and-nvidia-shareholders-should-know-about-recent-china-updates</t>
         </is>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F39" t="inlineStr">
@@ -2044,7 +2044,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/lee-ainslies-strategic-moves-closer-150531631.html</t>
         </is>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F40" t="inlineStr">
@@ -2070,7 +2070,7 @@
           <t>https://finviz.com/news/142053/zacks-investment-ideas-feature-highlights-fabrinet-nvidia-and-amazon</t>
         </is>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F41" t="inlineStr">
@@ -2136,7 +2136,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-slips-amid-chip-tariff.html</t>
         </is>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F42" t="inlineStr">
@@ -2162,7 +2162,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/why-would-trump-and-intel-want-to-work-together-opening-bid-top-takeaway-143409334.html</t>
         </is>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F43" t="inlineStr">
@@ -2188,7 +2188,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/trump-intel-stake-too-big-fail-b66594d9?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F44" t="inlineStr">
@@ -2214,7 +2214,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/bc-most-active-stocks-143017539.html</t>
         </is>
       </c>
-      <c r="E45" s="3" t="n">
+      <c r="E45" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F45" t="inlineStr">
@@ -2240,7 +2240,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/b679bc58-8e47-301a-a02f-a9a04f93cf32/trump-says-tariff-rate-on.html</t>
         </is>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F46" t="inlineStr">
@@ -2266,7 +2266,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-stock-stutters.-big.html</t>
         </is>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F47" t="inlineStr">
@@ -2292,7 +2292,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/dow-scales-record-high-hopes-134625792.html</t>
         </is>
       </c>
-      <c r="E48" s="3" t="n">
+      <c r="E48" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F48" t="inlineStr">
@@ -2318,7 +2318,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/best-semiconductor-etfs-2025-top-125500125.html</t>
         </is>
       </c>
-      <c r="E49" s="3" t="n">
+      <c r="E49" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F49" t="inlineStr">
@@ -2344,7 +2344,7 @@
           <t>https://finviz.comhttps://www.marketwatch.com/story/20-stocks-in-the-s-p-500-that-are-high-achievers-this-earnings-season-17b99522?mod=mw_FV</t>
         </is>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="E50" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F50" t="inlineStr">
@@ -2370,7 +2370,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/best-equal-weight-index-funds-212855779.html</t>
         </is>
       </c>
-      <c r="E51" s="3" t="n">
+      <c r="E51" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F51" t="inlineStr">
@@ -2396,7 +2396,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/proshares-launches-first-etf-target-123000712.html</t>
         </is>
       </c>
-      <c r="E52" s="3" t="n">
+      <c r="E52" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F52" t="inlineStr">
@@ -2422,7 +2422,7 @@
           <t>https://finviz.com/news/141764/could-buying-nvidia-today-set-you-up-for-life</t>
         </is>
       </c>
-      <c r="E53" s="3" t="n">
+      <c r="E53" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F53" t="inlineStr">
@@ -2483,7 +2483,7 @@
           <t>https://finviz.com/news/141745/what-amd-coreweave-and-nvidia-stock-investors-should-know-about-recent-updates</t>
         </is>
       </c>
-      <c r="E54" s="3" t="n">
+      <c r="E54" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F54" t="inlineStr">
@@ -2527,7 +2527,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/3-ai-chip-stocks-best-110017626.html</t>
         </is>
       </c>
-      <c r="E55" s="3" t="n">
+      <c r="E55" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F55" t="inlineStr">
@@ -2553,7 +2553,7 @@
           <t>https://finviz.com/news/141703/these-were-the-5-biggest-companies-in-2019-and-here-are-the-5-biggest-companies-now</t>
         </is>
       </c>
-      <c r="E56" s="3" t="n">
+      <c r="E56" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F56" t="inlineStr">
@@ -2649,7 +2649,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/analysis-trumps-attack-goldman-could-100301764.html</t>
         </is>
       </c>
-      <c r="E57" s="3" t="n">
+      <c r="E57" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F57" t="inlineStr">
@@ -2675,7 +2675,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/megacaps-keep-rising-heres-valuation-100019975.html</t>
         </is>
       </c>
-      <c r="E58" s="3" t="n">
+      <c r="E58" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F58" t="inlineStr">
@@ -2701,7 +2701,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/ai-exacerbates-tech-divide-smaller-093000902.html</t>
         </is>
       </c>
-      <c r="E59" s="3" t="n">
+      <c r="E59" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F59" t="inlineStr">
@@ -2727,7 +2727,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/coreweave-ipo-investors-sitting-big-092712253.html</t>
         </is>
       </c>
-      <c r="E60" s="3" t="n">
+      <c r="E60" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F60" t="inlineStr">
@@ -2753,7 +2753,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/taiwan-raises-2025-gdp-growth-091247191.html</t>
         </is>
       </c>
-      <c r="E61" s="3" t="n">
+      <c r="E61" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F61" t="inlineStr">
@@ -2779,7 +2779,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/nvidia-stock-price-soros-ai-aebccfaf?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E62" s="3" t="n">
+      <c r="E62" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F62" t="inlineStr">
@@ -2805,7 +2805,7 @@
           <t>https://finviz.com/news/141527/where-will-navitas-semiconductor-stock-be-in-3-years</t>
         </is>
       </c>
-      <c r="E63" s="3" t="n">
+      <c r="E63" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F63" t="inlineStr">
@@ -2902,7 +2902,7 @@
           <t>https://finviz.com/news/141519/should-you-buy-nvidia-stock-before-aug-27-wall-street-has-a-compelling-answer</t>
         </is>
       </c>
-      <c r="E64" s="3" t="n">
+      <c r="E64" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F64" t="inlineStr">
@@ -2965,7 +2965,7 @@
           <t>https://finviz.com/news/141515/nvidia-palantir-and-amd-have-a-nearly-13-billion-warning-for-wall-street-but-are-you-paying-attention</t>
         </is>
       </c>
-      <c r="E65" s="3" t="n">
+      <c r="E65" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F65" t="inlineStr">
@@ -3053,7 +3053,7 @@
           <t>https://finviz.com/news/141501/william-blair-maintains-outperform-rating-on-nvidia-nvda</t>
         </is>
       </c>
-      <c r="E66" s="3" t="n">
+      <c r="E66" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F66" t="inlineStr">
@@ -3094,7 +3094,7 @@
           <t>https://finviz.com/news/141486/jim-cramer-discusses-nvidia-return-to-china-market</t>
         </is>
       </c>
-      <c r="E67" s="3" t="n">
+      <c r="E67" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F67" t="inlineStr">
@@ -3136,7 +3136,7 @@
           <t>https://finviz.com/news/141475/dell-nvidia-elastic-partner-to-enhance-ai-data-platform</t>
         </is>
       </c>
-      <c r="E68" s="3" t="n">
+      <c r="E68" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F68" t="inlineStr">
@@ -3179,7 +3179,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/tech-energy-healthcare-stocks-markets-cf964dda?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E69" s="3" t="n">
+      <c r="E69" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F69" t="inlineStr">
@@ -3205,7 +3205,7 @@
           <t>https://finviz.comhttps://www.marketwatch.com/story/soros-appaloosa-boost-their-holdings-in-this-mag-7-stock-amid-ai-spending-boom-514807d8?mod=mw_FV</t>
         </is>
       </c>
-      <c r="E70" s="3" t="n">
+      <c r="E70" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F70" t="inlineStr">
@@ -3231,7 +3231,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/hedge-funds-shift-bets-double-233524300.html</t>
         </is>
       </c>
-      <c r="E71" s="3" t="n">
+      <c r="E71" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F71" t="inlineStr">
@@ -3257,7 +3257,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-growth-fund-inc-220600993.html</t>
         </is>
       </c>
-      <c r="E72" s="3" t="n">
+      <c r="E72" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F72" t="inlineStr">
@@ -3283,7 +3283,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-equity-fund-july-220600509.html</t>
         </is>
       </c>
-      <c r="E73" s="3" t="n">
+      <c r="E73" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F73" t="inlineStr">
@@ -3309,7 +3309,7 @@
           <t>https://finviz.comhttps://www.investors.com/news/technology/ai-stocks-score-price-target-hikes-strong-server-sales?mod=IBD_FV</t>
         </is>
       </c>
-      <c r="E74" s="3" t="n">
+      <c r="E74" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F74" t="inlineStr">
@@ -3335,7 +3335,7 @@
           <t>https://finviz.comhttps://www.youtube.com/watch?v=c7YoYkKtCfk</t>
         </is>
       </c>
-      <c r="E75" s="3" t="n">
+      <c r="E75" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F75" t="inlineStr">
@@ -3361,7 +3361,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/65c5a297-973e-3cab-8341-10bc5e0b35e7/strategy-pushed-%E2%80%98deceptive%E2%80%99.html</t>
         </is>
       </c>
-      <c r="E76" s="3" t="n">
+      <c r="E76" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F76" t="inlineStr">
@@ -3387,7 +3387,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/intel-stock-surges-on-report-trump-administration-mulls-taking-stake-in-company-204003673.html</t>
         </is>
       </c>
-      <c r="E77" s="3" t="n">
+      <c r="E77" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F77" t="inlineStr">
@@ -3413,7 +3413,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/us-weighs-taking-stake-intel-195356266.html</t>
         </is>
       </c>
-      <c r="E78" s="3" t="n">
+      <c r="E78" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F78" t="inlineStr">
@@ -3439,7 +3439,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-and.html</t>
         </is>
       </c>
-      <c r="E79" s="3" t="n">
+      <c r="E79" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F79" t="inlineStr">
@@ -3465,7 +3465,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/ken-fishers-strategic-moves-oracle-190218225.html</t>
         </is>
       </c>
-      <c r="E80" s="3" t="n">
+      <c r="E80" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F80" t="inlineStr">
@@ -3491,7 +3491,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/kevin-oleary-says-nvidia-amd-190100564.html</t>
         </is>
       </c>
-      <c r="E81" s="3" t="n">
+      <c r="E81" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F81" t="inlineStr">
@@ -3517,7 +3517,7 @@
           <t>https://finviz.com/news/141119/should-you-buy-intel-stock-after-president-trumps-ceo-praise</t>
         </is>
       </c>
-      <c r="E82" s="3" t="n">
+      <c r="E82" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F82" t="inlineStr">
@@ -3569,7 +3569,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-ai-rally-c963a7b1?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E83" s="3" t="n">
+      <c r="E83" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F83" t="inlineStr">
@@ -3595,7 +3595,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-market-8d1a1a8e?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E84" s="3" t="n">
+      <c r="E84" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F84" t="inlineStr">
@@ -3621,7 +3621,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-nasdaq.html</t>
         </is>
       </c>
-      <c r="E85" s="3" t="n">
+      <c r="E85" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F85" t="inlineStr">
@@ -3647,7 +3647,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/wedbush-nvidia-amd-china-ai-175410596.html</t>
         </is>
       </c>
-      <c r="E86" s="3" t="n">
+      <c r="E86" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F86" t="inlineStr">
@@ -3673,7 +3673,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-hits-6-8b-valuation-174027502.html</t>
         </is>
       </c>
-      <c r="E87" s="3" t="n">
+      <c r="E87" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F87" t="inlineStr">
@@ -3699,7 +3699,7 @@
           <t>https://finviz.com/news/141052/if-you-bought-100-shares-of-applied-digital-at-its-ipo-heres-how-much-money-youd-have-now</t>
         </is>
       </c>
-      <c r="E88" s="3" t="n">
+      <c r="E88" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F88" t="inlineStr">
@@ -3753,7 +3753,7 @@
           <t>https://finviz.com/news/141056/ciscos-q4-earnings-beat-estimates-revenues-rise-yy-shares-down</t>
         </is>
       </c>
-      <c r="E89" s="3" t="n">
+      <c r="E89" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F89" t="inlineStr">
@@ -3815,7 +3815,7 @@
           <t>https://finviz.com/news/140962/deeply-undervalued-micron-technologies-stock-isnt-pricing-in-ai</t>
         </is>
       </c>
-      <c r="E90" s="3" t="n">
+      <c r="E90" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F90" t="inlineStr">
@@ -3871,7 +3871,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down%3B.html</t>
         </is>
       </c>
-      <c r="E91" s="3" t="n">
+      <c r="E91" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F91" t="inlineStr">
@@ -3897,7 +3897,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/ai-startup-cohere-valued-6-160547472.html</t>
         </is>
       </c>
-      <c r="E92" s="3" t="n">
+      <c r="E92" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F92" t="inlineStr">
@@ -3923,7 +3923,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/chatgpt-everything-know-ai-powered-172758212.html</t>
         </is>
       </c>
-      <c r="E93" s="3" t="n">
+      <c r="E93" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F93" t="inlineStr">
@@ -3949,7 +3949,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/1d8b2777-f870-30ca-8bb3-1de5b2863222/nvidia-stock-edges-up..html</t>
         </is>
       </c>
-      <c r="E94" s="3" t="n">
+      <c r="E94" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F94" t="inlineStr">
@@ -3975,7 +3975,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/mizuho-raises-nvidia-amd-price-145813757.html</t>
         </is>
       </c>
-      <c r="E95" s="3" t="n">
+      <c r="E95" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F95" t="inlineStr">
@@ -4001,7 +4001,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down.html</t>
         </is>
       </c>
-      <c r="E96" s="3" t="n">
+      <c r="E96" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F96" t="inlineStr">
@@ -4027,7 +4027,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/ef1babbd-1d07-344e-8bc2-3141eea3690d/after-earnings%2C-pair-cisco.html</t>
         </is>
       </c>
-      <c r="E97" s="3" t="n">
+      <c r="E97" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F97" t="inlineStr">
@@ -4053,7 +4053,7 @@
           <t>https://finviz.comhttps://www.marketwatch.com/story/the-entire-stock-market-is-being-carried-by-these-four-ai-stocks-6e69fbbd?mod=mw_FV</t>
         </is>
       </c>
-      <c r="E98" s="3" t="n">
+      <c r="E98" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F98" t="inlineStr">
@@ -4079,7 +4079,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/happens-stocks-ai-loses-momentum-143020646.html</t>
         </is>
       </c>
-      <c r="E99" s="3" t="n">
+      <c r="E99" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F99" t="inlineStr">
@@ -4105,7 +4105,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/bc-most-active-stocks-143016001.html</t>
         </is>
       </c>
-      <c r="E100" s="3" t="n">
+      <c r="E100" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F100" t="inlineStr">
@@ -4131,7 +4131,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/longpoint-asset-management-inc-opens-143000148.html</t>
         </is>
       </c>
-      <c r="E101" s="3" t="n">
+      <c r="E101" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F101" t="inlineStr">
@@ -4141,6 +4141,3666 @@
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45885.52152777778</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>The 7 Booming Industries You've Probably Never Thought About  But They're Making People Rich</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/7-booming-industries-youve-probably-163109255.html</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45885.29791666667</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>After Gaining $394 Billion in Market Cap in 3 Days, Is Apple Stock on Its Way to Joining Nvidia and Microsoft in the $4 Trillion Club?</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142393/after-gaining-394-billion-in-market-cap-in-3-days-is-apple-stock-on-its-way-to-joining-nvidia-and-microsoft-in-the-4-trillion-club</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Apple’s U.S. manufacturing investment could lower its tariff expense.
+The company’s results are improving, but growth is still sluggish.
+Apple needs to justify its lofty valuation with AI-related product upgrades that are well-received by its diverse user base.
+After closing at $202.69 per share on Aug. 5, Apple (NASDAQ: AAPL) stock soared a staggering 13% in just three days to finish Aug. 8 at $229.09 per share.
+The move pole-vaulted the tech giant's market cap to $3.404 trillion -- a whopping $394 billion gain. That's like creating a company the size of Home Depot out of thin air.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+After languishing for most of the year, let's determine if Apple has what it takes to join Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT) in the $4 trillion market cap club, and if the growth stock is a buy now.
+Image source: Getty Images.
+Apple's sudden pop came in response to its $100 billion manufacturing program. Announced last week, the program will create American jobs and onshore some of Apple's complex supply chain.
+Due to Apple CEO Tim Cook's visit to the White House and Apple's manufacturing commitment, President Trump said that Apple would be 100% exempt from a specific tariff on imported semiconductors. The potential for Apple to reduce its costly tariff expense, and maybe even get government support for its onshoring efforts, is undoubtedly a boon for the company's near-term prospects.
+Apple isn't the only mega-cap company that is trying to work with the current administration on tariffs. On Monday, reports indicated that Nvidia made a deal with President Trump, allowing the chipmaker to resume exporting its H20 chips in exchange for giving the U.S. government 15% of its revenue from China. The H20 is a scaled-down version of Nvidia's most advanced chips, which are custom-built for Chinese markets to comply with trade restrictions. The current administration intends to retain certain tariffs, but it also appears willing to negotiate deals with big businesses.
+Apple's manufacturing news is positive, based on the near-term impact of tariffs. The investment could help Apple reduce its sensitivity to trade tensions and geopolitical risk. However, it's unclear how it impacts Apple's long-term investment thesis. Apple has mastered the art of managing a global supply chain to achieve cost advantages and boost its profit margins. Onshoring some of its supply chain could lead to higher costs.
+However, Apple has yet to make a meaningful splash in artificial intelligence (AI) -- which is one of the main reasons why the tech giant has been lagging behind the performance of other, more defined AI winners like Nvidia and Microsoft.
+In Apple's defense, the company has built on Apple Intelligence and released a new design update called Liquid Glass. Overall, the market is not impressed with the company's AI efforts, considering how sluggish Apple's growth has been in recent years.
+Apple has heavily relied on its high-margin services segment and stock buybacks to drive earnings to offset weak results from its product segment. Apple's services, which include iCloud, Apple Music, and Apple TV+, have been the standout for years now. But Apple's bottom line depends more on key products, like iPhone, Mac, iPad, and wearables.
+Investors breathed a sigh of relief after Apple's latest quarter -- the third quarter of fiscal 2025 -- which showed a significant improvement in its product segment. Revenue grew 10% and diluted earnings per share (EPS) jumped 12% including double-digit growth in iPhone, Mac, and services. Despite the solid quarter, Apple's net income has slightly declined over the last three years, so its earnings are only up due to buybacks. But the stock price has gone up substantially, which has made Apple relatively expensive.
+Apple's results are headed in the right direction, but the valuation is far from cheap. In fact, Apple's forward price-to-earnings (P/E) ratio, which is the stock price divided by analyst consensus EPS estimates over the next 12 months, is higher than its five-year and 10-year median P/E ratios. Even if Apple performs as expected and the stock price doesn't move for a year, it will still be relatively expensive.
+AAPL PE Ratio data by YCharts.
+Apple is taking the right approach to integrating AI across its product suite. Apple's competitive advantages are its design, user-friendly products, seamless integration of software and hardware, and comprehensive product offerings for consumers and businesses. In other words, the everyday usefulness of Apple's AI features is the most important performance indicator.
+Investors who agree with Apple's deliberate approach to AI may still want to consider buying the stock now, despite the premium valuation. However, given how pricey Apple is, its road to $4 trillion in market cap will likely need to come from earnings growth rather than valuation expansion.
+With a market cap of $3.418 trillion at the time of this writing, Apple would have to jump 17% to cross $4 trillion. It could certainly grow earnings by that much in a year or two. And if investors like what the company is doing with AI, it could maintain its higher-than-historical valuation.
+All told, I expect Apple to cross $4 trillion in market cap by the end of 2026 -- but investors shouldn't expect the company to get there overnight -- even after adding $392 billion in market cap in just three days.
+Before you buy stock in Apple, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Apple wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Apple, Home Depot, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.
+| 1 hour | |
+| 1 hour | |
+| 3 hours | |
+| 4 hours | |
+| 6 hours | |
+| 6 hours | |
+| 6 hours | |
+| 7 hours | |
+| 7 hours | |
+| 7 hours | |
+| 8 hours | |
+| 8 hours | |
+| 8 hours | |
+| 9 hours | |
+| 9 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Apples U.S. manufacturing investment could lower its tariff expense. The companys results are improving, but growth is still sluggish. Apple needs to justify its lofty valuation with AI related product upgrades that are well received by its diverse user base. After closing at $202.69 per share on Aug. 5, Apple (NASDAQ: AAPL) stock soared a staggering 13% in just three days to finish Aug. 8 at $229.09 per share. The move pole vaulted the tech giant's market cap to $3.404 trillion a whopping $394 billion gain. That's like creating a company the size of Home Depot out of thin air. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More After languishing for most of the year, let's determine if Apple has what it takes to join Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT) in the $4 trillion market cap club, and if the growth stock is a buy now. Image source: Getty Images. Apple's sudden pop came in response to its $100 billion manufacturing program. Announced last week, the program will create American jobs and onshore some of Apple's complex supply chain. Due to Apple CEO Tim Cook's visit to the White House and Apple's manufacturing commitment, President Trump said that Apple would be 100% exempt from a specific tariff on imported semiconductors. The potential for Apple to reduce its costly tariff expense, and maybe even get government support for its onshoring efforts, is undoubtedly a boon for the company's near term prospects. Apple isn't the only mega cap company that is trying to work with the current administration on tariffs. On Monday, reports indicated that Nvidia made a deal with President Trump, allowing the chipmaker to resume exporting its H20 chips in exchange for giving the U.S. government 15% of its revenue from China. The H20 is a scaled down version of Nvidia's most advanced chips, which are custom built for Chinese markets to comply with trade restrictions. The current administration intends to retain certain tariffs, but it also appears willing to negotiate deals with big businesses. Apple's manufacturing news is positive, based on the near term impact of tariffs. The investment could help Apple reduce its sensitivity to trade tensions and geopolitical risk. However, it's unclear how it impacts Apple's long term investment thesis. Apple has mastered the art of managing a global supply chain to achieve cost advantages and boost its profit margins. Onshoring some of its supply chain could lead to higher costs. However, Apple has yet to make a meaningful splash in artificial intelligence (AI) which is one of the main reasons why the tech giant has been lagging behind the performance of other, more defined AI winners like Nvidia and Microsoft. In Apple's defense, the company has built on Apple Intelligence and released a new design update called Liquid Glass. Overall, the market is not impressed with the company's AI efforts, considering how sluggish Apple's growth has been in recent years. Apple has heavily relied on its high margin services segment and stock buybacks to drive earnings to offset weak results from its product segment. Apple's services, which include iCloud, Apple Music, and Apple TV+, have been the standout for years now. But Apple's bottom line depends more on key products, like iPhone, Mac, iPad, and wearables. Investors breathed a sigh of relief after Apple's latest quarter the third quarter of fiscal 2025 which showed a significant improvement in its product segment. Revenue grew 10% and diluted earnings per share (EPS) jumped 12% including double digit growth in iPhone, Mac, and services. Despite the solid quarter, Apple's net income has slightly declined over the last three years, so its earnings are only up due to buybacks. But the stock price has gone up substantially, which has made Apple relatively expensive. Apple's results are headed in the right direction, but the valuation is far from cheap. In fact, Apple's forward price to earnings (P/E) ratio, which is the stock price divided by analyst consensus EPS estimates over the next 12 months, is higher than its five year and 10 year median P/E ratios. Even if Apple performs as expected and the stock price doesn't move for a year, it will still be relatively expensive. AAPL PE Ratio data by YCharts. Apple is taking the right approach to integrating AI across its product suite. Apple's competitive advantages are its design, user friendly products, seamless integration of software and hardware, and comprehensive product offerings for consumers and businesses. In other words, the everyday usefulness of Apple's AI features is the most important performance indicator. Investors who agree with Apple's deliberate approach to AI may still want to consider buying the stock now, despite the premium valuation. However, given how pricey Apple is, its road to $4 trillion in market cap will likely need to come from earnings growth rather than valuation expansion. With a market cap of $3.418 trillion at the time of this writing, Apple would have to jump 17% to cross $4 trillion. It could certainly grow earnings by that much in a year or two. And if investors like what the company is doing with AI, it could maintain its higher than historical valuation. All told, I expect Apple to cross $4 trillion in market cap by the end of 2026 but investors shouldn't expect the company to get there overnight even after adding $392 billion in market cap in just three days. Before you buy stock in Apple, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Apple wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Apple, Home Depot, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. 1 hour 1 hour 3 hours 4 hours 6 hours 6 hours 6 hours 7 hours 7 hours 7 hours 8 hours 8 hours 8 hours 9 hours 9 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45885.29513888889</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Don't Make This Common Investing Mistake When Buying S&amp;P 500 Stocks at All-Time Highs</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142391/dont-make-this-common-investing-mistake-when-buying-sp-500-stocks-at-all-time-highs</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Key Points
+Buying stocks at all-time highs goes against the instinct to get a good value.
+Over the long term, earnings drive stock prices higher or lower.
+Nvidia and Microsoft are examples of companies with stock prices that have gone up because the fundamentals have improved.
+At the time of this writing, the S&amp;P 500 (SNPINDEX: ^GSPC) is less than half a percentage point off its all-time high. With a 9.7% year-to-date gain, the index is on track to have another solid year, despite a brutal sell-off earlier this spring.
+The S&amp;P 500 is now up over threefold in the last decade and more than 50% in the last three years -- which may make some investors hesitant to buy stocks at all-time highs. Here's the best way to approach investing in the stock market at elevated levels, including a major mistake worth avoiding.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Stocks aren't like consumer goods
+One of the most common mistakes when investing in a stock after a major run-up is assuming it's expensive, just because its price is higher.
+Stocks represent partial ownership in businesses and aren't commodities or household goods. If the cost of a Toyota Camry suddenly jumped to double that of the Honda Accord, then Camry sales would likely plummet, as many buyers would view the Camry as overpriced.
+Stocks don't work like that. They aren't products with set specifications and design elements, but evolve as the business evolves. Sometimes, a business can reinvent itself, leading its stock price to surge for all the right reasons. Two examples of this dynamic hiding in plain sight are Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT).
+Transformational growth
+Nvidia was founded in the early 1990s to create 3D graphics for the gaming and multimedia markets. Recently, the company's data center segment has surpassed its gaming and professional visualization segment.
+In Nvidia's most recent quarter -- the first quarter fiscal 2026 -- data center revenue made up 88.7% of total revenue. The company may have started as a gaming company, but it's something entirely different today.
+Valuing Nvidia based on what it was rather than where it's going would have made the stock look expensive at any point over the last few years. So far, Nvidia has backed up the torrid ascent of its stock price with earnings growth, and there's reason to believe that can continue.
+Microsoft hasn't undergone as dramatic a transformation as Nvidia. The core applications that make up the Microsoft 365 software suite are nothing new, and Microsoft's cloud computing platform Azure has been a major player in the space for over a decade. However, the company's revenue growth rate and profit margin are on another level -- which is driving its surging stock price.
+Microsoft is achieving these incredible results largely due to growing demand for Azure and the company's integration of artificial intelligence (AI) across its business, from legacy software to cloud, Azure OpenAI, gaming, electronics, and more. It has leveraged AI to enhance its products and services, and that's driving margin growth.
+Like Nvidia, Microsoft is a good example of a stock at an all-time high because the underlying business is doing well and is expected to continue doing well.
+Balancing quality and valuations
+When a major index like the S&amp;P 500 is near an all-time high and coming off an extended period of outsized gains, the market is viewed as expensive. However, it doesn't mean that all stocks are overvalued.
+There are plenty of S&amp;P 500 components at multiyear lows, and there are many that may have run up too far, too fast, to where their valuations are getting separated from fundamentals. The key is to stick with the companies that can justify their valuations because they have proven business models, impeccable growth prospects, or a combination of the two.
+Buying stocks like Nvidia and Microsoft after their massive gains isn't a bad idea, but only if you believe the results are here to stay and can be built upon.
+Nvidia and Microsoft make up a combined 14.6% of the S&amp;P 500. Throw in the rest of the "Ten Titans" -- Apple, Amazon, Alphabet, Meta Platforms, Broadcom, Tesla, Oracle, and Netflix -- and that's 39% of the index. Investing in the S&amp;P 500 at an all-time high inherently means that you believe the companies leading the index are still good buys.
+The higher the valuation of a stock or exchange-traded fund (ETF), the more conviction you need to justify paying a premium. If there's a terrific company on sale, you don't need that much to go right to make a solid investment case.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Key Points Buying stocks at all time highs goes against the instinct to get a good value. Over the long term, earnings drive stock prices higher or lower. Nvidia and Microsoft are examples of companies with stock prices that have gone up because the fundamentals have improved. At the time of this writing, the S&amp;P 500 (SNPINDEX: ^GSPC) is less than half a percentage point off its all time high. With a 9.7% year to date gain, the index is on track to have another solid year, despite a brutal sell off earlier this spring. The S&amp;P 500 is now up over threefold in the last decade and more than 50% in the last three years which may make some investors hesitant to buy stocks at all time highs. Here's the best way to approach investing in the stock market at elevated levels, including a major mistake worth avoiding. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Stocks aren't like consumer goods One of the most common mistakes when investing in a stock after a major run up is assuming it's expensive, just because its price is higher. Stocks represent partial ownership in businesses and aren't commodities or household goods. If the cost of a Toyota Camry suddenly jumped to double that of the Honda Accord, then Camry sales would likely plummet, as many buyers would view the Camry as overpriced. Stocks don't work like that. They aren't products with set specifications and design elements, but evolve as the business evolves. Sometimes, a business can reinvent itself, leading its stock price to surge for all the right reasons. Two examples of this dynamic hiding in plain sight are Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT). Transformational growth Nvidia was founded in the early 1990s to create 3D graphics for the gaming and multimedia markets. Recently, the company's data center segment has surpassed its gaming and professional visualization segment. In Nvidia's most recent quarter the first quarter fiscal 2026 data center revenue made up 88.7% of total revenue. The company may have started as a gaming company, but it's something entirely different today. Valuing Nvidia based on what it was rather than where it's going would have made the stock look expensive at any point over the last few years. So far, Nvidia has backed up the torrid ascent of its stock price with earnings growth, and there's reason to believe that can continue. Microsoft hasn't undergone as dramatic a transformation as Nvidia. The core applications that make up the Microsoft 365 software suite are nothing new, and Microsoft's cloud computing platform Azure has been a major player in the space for over a decade. However, the company's revenue growth rate and profit margin are on another level which is driving its surging stock price. Microsoft is achieving these incredible results largely due to growing demand for Azure and the company's integration of artificial intelligence (AI) across its business, from legacy software to cloud, Azure OpenAI, gaming, electronics, and more. It has leveraged AI to enhance its products and services, and that's driving margin growth. Like Nvidia, Microsoft is a good example of a stock at an all time high because the underlying business is doing well and is expected to continue doing well. Balancing quality and valuations When a major index like the S&amp;P 500 is near an all time high and coming off an extended period of outsized gains, the market is viewed as expensive. However, it doesn't mean that all stocks are overvalued. There are plenty of S&amp;P 500 components at multiyear lows, and there are many that may have run up too far, too fast, to where their valuations are getting separated from fundamentals. The key is to stick with the companies that can justify their valuations because they have proven business models, impeccable growth prospects, or a combination of the two. Buying stocks like Nvidia and Microsoft after their massive gains isn't a bad idea, but only if you believe the results are here to stay and can be built upon. Nvidia and Microsoft make up a combined 14.6% of the S&amp;P 500. Throw in the rest of the "Ten Titans" Apple, Amazon, Alphabet, Meta Platforms, Broadcom, Tesla, Oracle, and Netflix and that's 39% of the index. Investing in the S&amp;P 500 at an all time high inherently means that you believe the companies leading the index are still good buys. The higher the valuation of a stock or exchange traded fund (ETF), the more conviction you need to justify paying a premium. If there's a terrific company on sale, you don't need that much to go right to make a solid investment case. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45885.29166666666</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Trumps unprecedented, potentially unconstitutional deal with Nvidia and AMD, explained: Alexander Hamilton would approve</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/trump-unprecedented-potentially-unconstitutional-deal-110000020.html</t>
+        </is>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45885.29166666666</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Nvidia and AMDs special treatment from Trump is shaking up an already tangled global chip supply chain</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-special-treatment-trump-110000802.html</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45885.25208333333</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Meta spends more guarding Mark Zuckerberg than Apple, Nvidia, Microsoft, Amazon, and Alphabet do for their own CEOscombined</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/meta-spends-more-guarding-mark-100300414.html</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45885.24513888889</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Chipmakers Nvidia and AMD to pay 15% of China revenue to US government</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/91630ab4-07a9-3a15-85c5-0f54a7bfd2f5/chipmakers-nvidia-and-amd-to.html</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45885.21319444444</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>5 Brilliant Quantum Computing Stocks to Buy Right Now</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142382/5-brilliant-quantum-computing-stocks-to-buy-right-now</t>
+        </is>
+      </c>
+      <c r="E109" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Key Points
+Some of the legacy tech giants are participating in quantum computing.
+That is one great way to bridge the gap between AI and quantum technology.
+But quantum computing pure plays could provide massive upside if they work out.
+Quantum computing isn't an easy area to invest in right now. Most companies agree that 2030 will be a turning point for the industry and commercially viable quantum computers will be available then. That's still a ways off, and investors need to be careful not to get in too early; otherwise, there could be a significant opportunity cost that would be incurred by investing in quantum computing instead of other possible areas.
+Still, I think there could be a huge opportunity if you invest in the right quantum computing stocks right now. I've got five stocks that can be purchased in a group that ensures investors get exposure to quantum computing as well as current market trends, and I think it's highly likely that this cohort outperforms the market over the next few years.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Legacy tech players
+Quantum computing isn't an industry reserved for start-ups; some of the biggest names in tech are also investing in this technology. Two of the biggest are Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) and Microsoft (NASDAQ: MSFT). Both of these companies are developing their own quantum computing chip in-house, which could result in massive profits down the road if each develops a viable quantum computing solution.
+Both companies will use quantum computing for themselves, but will also offer it to clients through their respective cloud computing services. Right now, the big growth drivers for cloud computing are the migration of traditional workloads and artificial intelligence, but quantum computing could provide another growth driver. Microsoft's CEO stated that he believes quantum computing will be the next accelerator in the cloud, which could mean further growth for both Alphabet and Microsoft.
+Another legacy tech player that will benefit is Nvidia (NASDAQ: NVDA). While Nvidia isn't directly developing quantum processing units, it's helping quantum computing players take a hybrid computing approach between traditional and quantum computing methods. It's also developing a quantum-focused version of its CUDA software, which helped it establish dominance in the traditional computing landscape.
+All three of these companies are excelling in the AI-driven market, but also have long-term investments ongoing in the quantum world. By investing in these three today, investors can ensure they have exposure to both current and emerging trends. But there are also a few pure plays that look intriguing.
+Quantum computing pure plays
+I also like adding picks like IonQ (NYSE: IONQ) and D-Wave Quantum (NYSE: QBTS) into this basket, because it gives investors the massive upside of a pure-play quantum computing company. These two aren't very big companies, but if they make quantum computing viable, they could turn into huge winners for investors.
+While some may argue these two are due to be outspent and outclassed by competitors like Alphabet and Microsoft, they are actually taking a different approach to quantum computing entirely.
+Most quantum computing competitors like Alphabet and Microsoft are using a superconducting approach for their chips. However, IonQ is using a trapped ion technique, and D-Wave is using a quantum annealing approach. All three of these approaches have their use cases, but it will be some time before investors know which is the best.
+By having exposure to all three, investors have the best chance to make a profit in this emerging industry. Although we're still a few years out from quantum computing relevance, I think owning a basket of legacy and emerging players is a smart way to ensure investors make a great profit.
+Should you invest $1,000 in IonQ right now?
+Before you buy stock in IonQ, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and IonQ wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keithen Drury has positions in Alphabet and Nvidia. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Key Points Some of the legacy tech giants are participating in quantum computing. That is one great way to bridge the gap between AI and quantum technology. But quantum computing pure plays could provide massive upside if they work out. Quantum computing isn't an easy area to invest in right now. Most companies agree that 2030 will be a turning point for the industry and commercially viable quantum computers will be available then. That's still a ways off, and investors need to be careful not to get in too early; otherwise, there could be a significant opportunity cost that would be incurred by investing in quantum computing instead of other possible areas. Still, I think there could be a huge opportunity if you invest in the right quantum computing stocks right now. I've got five stocks that can be purchased in a group that ensures investors get exposure to quantum computing as well as current market trends, and I think it's highly likely that this cohort outperforms the market over the next few years. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Legacy tech players Quantum computing isn't an industry reserved for start ups; some of the biggest names in tech are also investing in this technology. Two of the biggest are Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) and Microsoft (NASDAQ: MSFT). Both of these companies are developing their own quantum computing chip in house, which could result in massive profits down the road if each develops a viable quantum computing solution. Both companies will use quantum computing for themselves, but will also offer it to clients through their respective cloud computing services. Right now, the big growth drivers for cloud computing are the migration of traditional workloads and artificial intelligence, but quantum computing could provide another growth driver. Microsoft's CEO stated that he believes quantum computing will be the next accelerator in the cloud, which could mean further growth for both Alphabet and Microsoft. Another legacy tech player that will benefit is Nvidia (NASDAQ: NVDA). While Nvidia isn't directly developing quantum processing units, it's helping quantum computing players take a hybrid computing approach between traditional and quantum computing methods. It's also developing a quantum focused version of its CUDA software, which helped it establish dominance in the traditional computing landscape. All three of these companies are excelling in the AI driven market, but also have long term investments ongoing in the quantum world. By investing in these three today, investors can ensure they have exposure to both current and emerging trends. But there are also a few pure plays that look intriguing. Quantum computing pure plays I also like adding picks like IonQ (NYSE: IONQ) and D Wave Quantum (NYSE: QBTS) into this basket, because it gives investors the massive upside of a pure play quantum computing company. These two aren't very big companies, but if they make quantum computing viable, they could turn into huge winners for investors. While some may argue these two are due to be outspent and outclassed by competitors like Alphabet and Microsoft, they are actually taking a different approach to quantum computing entirely. Most quantum computing competitors like Alphabet and Microsoft are using a superconducting approach for their chips. However, IonQ is using a trapped ion technique, and D Wave is using a quantum annealing approach. All three of these approaches have their use cases, but it will be some time before investors know which is the best. By having exposure to all three, investors have the best chance to make a profit in this emerging industry. Although we're still a few years out from quantum computing relevance, I think owning a basket of legacy and emerging players is a smart way to ensure investors make a great profit. Should you invest $1,000 in IonQ right now? Before you buy stock in IonQ, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and IonQ wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keithen Drury has positions in Alphabet and Nvidia. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45885.20902777778</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>The race for sovereign AI is intensifying. Heres what you need to know</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/race-sovereign-ai-intensifying-know-154054977.html</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45885.20138888889</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>5 Top Artificial Intelligence Stocks to Buy in August</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142380/5-top-artificial-intelligence-stocks-to-buy-in-august</t>
+        </is>
+      </c>
+      <c r="E111" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Nvidia and Broadcom are AI infrastructure leaders.
+Palantir's AI platform is driving huge growth for the company.
+Alphabet and GitLab are two AI stocks that are still cheap.
+Artificial intelligence (AI) continues to be reshaping the world we live in, which can be both exciting and scary. It's also reshaping the stock market, and it is certainly an area you want to invest in.
+Let's look at the stocks of five AI leaders that would make top stock buys this month.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+Image source: Getty Images.
+Nvidia (NASDAQ: NVDA) remains the king of AI infrastructure. Its graphics processing units (GPUs) power most AI workloads worldwide, and in the first quarter, it commanded an astonishing 92% of the GPU market. What really sets it apart is its CUDA software platform, which it planted into universities and research labs years before AI went mainstream. That early push created a generation of developers trained on its tools and libraries built on top of its platform, building a moat that rivals struggle to cross.
+Nvidia has also accelerated its product cycle, planning new chip launches annually to stay ahead of the competition. Its growth opportunities also go beyond data centers, with the automotive market another big opportunity, thanks to the rise of self-driving and robotaxis.
+Nvidia's mix of market dominance, software moat, and expansion into new markets keeps it firmly at the center of AI.
+Palantir Technologies (NASDAQ: PLTR) started as a critical analytics partner to U.S. government agencies but is now making its mark in commercial markets. Its Artificial Intelligence Platform (AIP) integrates data from numerous sources into an "ontology," allowing AI models to produce clear, actionable results.
+AIP is essentially becoming an AI operating system, making it a vital platform as companies begin to use AI in their operations. The strength of AIP could be seen in its Q2 results, as the company's U.S. commercial revenue surged 93%, while its total deal value more than doubled and its customer base climbed 43%.
+Given the breadth of use cases across very different industries that AIP can handle, Palantir has a long runway of growth in front of it. The company has continued to see accelerating revenue growth, and the best part is that many of its customers are still in their early stages of usage.
+As an essential component of the emerging AI economy, Palantir has the potential to grow into one of the largest companies in the world.
+Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG) is proving that AI can strengthen its core businesses. Search has gained momentum with AI Overviews, which is now being used by over 2 billion people a month, helping drive a 12% year-over-year increase in search revenue last quarter. Google Cloud is another major beneficiary of AI, with its revenue jumping 32% and operating profit more than doubling in Q2, thanks to strong AI demand on its Vertex platform.
+Another area that is often overlooked is Alphabet's Tensor Processing Units (TPUs). As inference performance per dollar starts becoming one of the most important factors in running AI models, Alphabet has a nice advantage with its custom chips.
+In addition to search and cloud computing, Alphabet is also seeing solid contributions from its other businesses. YouTube ad revenue grew 13% last quarter, with Shorts leading the way. Meanwhile, Waymo is picking up steam, rolling out its robotaxi services to new cities across the U.S.
+From a valuation perspective, Alphabet is one of the most attractive AI stocks in the market, trading at a forward P/E just over 20. This makes it a must-own stock.
+Rather than competing directly with Nvidia with GPUs, chipmaker Broadcom (NASDAQ: AVGO) is playing to its strengths in AI networking and custom chip design. Its Ethernet switches and other networking components are critical for moving vast amounts of data between AI clusters. Demand here is booming, with its AI networking revenue up 70% in Q1.
+The real prize, though, may be its work on custom application-specific integrated circuits (ASICs). Broadcom helped develop Alphabet's TPUs and is now designing chips for multiple hyperscalers (companies with massive data centers), with management estimating its top three customers alone could represent a $60 billion to $90 billion opportunity in fiscal 2027.
+Its recent acquisition of VMware adds another growth lever, with its Cloud Foundation platform helping enterprises manage AI workloads across hybrid cloud environments. Between its leadership in data center networking components, custom chip expertise, and virtualization software, Broadcom is becoming one of the most important players in AI infrastructure.
+GitLab (NASDAQ: GTLB) is evolving from a code repository into a full-fledged AI-powered software development platform. Its GitLab 18 release brought more than 30 upgrades, including Duo Agent, which can automate testing, deployment, security, and monitoring. That's important, because developers spend only a fraction of their time writing code. Automating the rest of the workflow can dramatically increase productivity.
+GitLab has delivered steady 25%-plus revenue growth since going public, with Q1 sales rising 27% year over year. The value of its platform in an AI-driven development world opens the door to a possible shift from seat-based to consumption-based pricing, which could drive revenue even higher. With AI changing how software is built, GitLab's end-to-end approach positions it as a key player in enterprise software development.
+As investors worry about the impact of AI on software, GitLab's stock has fallen to a very attractive valuation of a forward price-to-sales (P/S) ratio of 7 times the 2025 analyst estimates.
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Geoffrey Seiler has positions in Alphabet and GitLab. The Motley Fool has positions in and recommends Alphabet, GitLab, Nvidia, and Palantir Technologies. The Motley Fool recommends Broadcom. The Motley Fool has a disclosure policy.
+| 1 hour | |
+| 1 hour | |
+| 4 hours | |
+| 6 hours | |
+| 6 hours | |
+| 6 hours | |
+| 7 hours | |
+| 7 hours | |
+| 7 hours | |
+| 7 hours | |
+| 8 hours | |
+| 8 hours | |
+| 8 hours | |
+| 8 hours | |
+| 9 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Nvidia and Broadcom are AI infrastructure leaders. Palantir's AI platform is driving huge growth for the company. Alphabet and GitLab are two AI stocks that are still cheap. Artificial intelligence (AI) continues to be reshaping the world we live in, which can be both exciting and scary. It's also reshaping the stock market, and it is certainly an area you want to invest in. Let's look at the stocks of five AI leaders that would make top stock buys this month. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More Image source: Getty Images. Nvidia (NASDAQ: NVDA) remains the king of AI infrastructure. Its graphics processing units (GPUs) power most AI workloads worldwide, and in the first quarter, it commanded an astonishing 92% of the GPU market. What really sets it apart is its CUDA software platform, which it planted into universities and research labs years before AI went mainstream. That early push created a generation of developers trained on its tools and libraries built on top of its platform, building a moat that rivals struggle to cross. Nvidia has also accelerated its product cycle, planning new chip launches annually to stay ahead of the competition. Its growth opportunities also go beyond data centers, with the automotive market another big opportunity, thanks to the rise of self driving and robotaxis. Nvidia's mix of market dominance, software moat, and expansion into new markets keeps it firmly at the center of AI. Palantir Technologies (NASDAQ: PLTR) started as a critical analytics partner to U.S. government agencies but is now making its mark in commercial markets. Its Artificial Intelligence Platform (AIP) integrates data from numerous sources into an "ontology," allowing AI models to produce clear, actionable results. AIP is essentially becoming an AI operating system, making it a vital platform as companies begin to use AI in their operations. The strength of AIP could be seen in its Q2 results, as the company's U.S. commercial revenue surged 93%, while its total deal value more than doubled and its customer base climbed 43%. Given the breadth of use cases across very different industries that AIP can handle, Palantir has a long runway of growth in front of it. The company has continued to see accelerating revenue growth, and the best part is that many of its customers are still in their early stages of usage. As an essential component of the emerging AI economy, Palantir has the potential to grow into one of the largest companies in the world. Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG) is proving that AI can strengthen its core businesses. Search has gained momentum with AI Overviews, which is now being used by over 2 billion people a month, helping drive a 12% year over year increase in search revenue last quarter. Google Cloud is another major beneficiary of AI, with its revenue jumping 32% and operating profit more than doubling in Q2, thanks to strong AI demand on its Vertex platform. Another area that is often overlooked is Alphabet's Tensor Processing Units (TPUs). As inference performance per dollar starts becoming one of the most important factors in running AI models, Alphabet has a nice advantage with its custom chips. In addition to search and cloud computing, Alphabet is also seeing solid contributions from its other businesses. YouTube ad revenue grew 13% last quarter, with Shorts leading the way. Meanwhile, Waymo is picking up steam, rolling out its robotaxi services to new cities across the U.S. From a valuation perspective, Alphabet is one of the most attractive AI stocks in the market, trading at a forward P/E just over 20. This makes it a must own stock. Rather than competing directly with Nvidia with GPUs, chipmaker Broadcom (NASDAQ: AVGO) is playing to its strengths in AI networking and custom chip design. Its Ethernet switches and other networking components are critical for moving vast amounts of data between AI clusters. Demand here is booming, with its AI networking revenue up 70% in Q1. The real prize, though, may be its work on custom application specific integrated circuits (ASICs). Broadcom helped develop Alphabet's TPUs and is now designing chips for multiple hyperscalers (companies with massive data centers), with management estimating its top three customers alone could represent a $60 billion to $90 billion opportunity in fiscal 2027. Its recent acquisition of VMware adds another growth lever, with its Cloud Foundation platform helping enterprises manage AI workloads across hybrid cloud environments. Between its leadership in data center networking components, custom chip expertise, and virtualization software, Broadcom is becoming one of the most important players in AI infrastructure. GitLab (NASDAQ: GTLB) is evolving from a code repository into a full fledged AI powered software development platform. Its GitLab 18 release brought more than 30 upgrades, including Duo Agent, which can automate testing, deployment, security, and monitoring. That's important, because developers spend only a fraction of their time writing code. Automating the rest of the workflow can dramatically increase productivity. GitLab has delivered steady 25% plus revenue growth since going public, with Q1 sales rising 27% year over year. The value of its platform in an AI driven development world opens the door to a possible shift from seat based to consumption based pricing, which could drive revenue even higher. With AI changing how software is built, GitLab's end to end approach positions it as a key player in enterprise software development. As investors worry about the impact of AI on software, GitLab's stock has fallen to a very attractive valuation of a forward price to sales (P/S) ratio of 7 times the 2025 analyst estimates. Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Geoffrey Seiler has positions in Alphabet and GitLab. The Motley Fool has positions in and recommends Alphabet, GitLab, Nvidia, and Palantir Technologies. The Motley Fool recommends Broadcom. The Motley Fool has a disclosure policy. 1 hour 1 hour 4 hours 6 hours 6 hours 6 hours 7 hours 7 hours 7 hours 7 hours 8 hours 8 hours 8 hours 8 hours 9 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45885.19722222222</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Double the Disruption: The 3 Best Stocks to Buy Now to Profit From Both AI and Quantum Computing</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142379/double-the-disruption-the-3-best-stocks-to-buy-now-to-profit-from-both-ai-and-quantum-computing</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Key Points
+Alphabet has multiple ways to profit from AI and has achieved two key quantum computing milestones.
+Microsoft has integrated AI throughout its software and might have developed the "transistor for the quantum age."
+Nvidia is a critical player in AI and is positioning itself to be a big winner in quantum computing.
+Disruption isn't a dirty word for investors. Sure, some companies can fade away as their businesses are rendered obsolete by new technologies. However, others flourish and make smart investors a lot of money over time.
+I believe we're currently in the early stages of two massive disruptions. Artificial intelligence (AI) holds the potential to transform our world in too many ways to count. Quantum computing could accelerate AI advances while also revolutionizing finance, healthcare, logistics, and more.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+Although these are distinct disruptive technologies, you don't have to invest in them separately. Here are my picks for the three best stocks to buy now to profit from both AI and quantum computing.
+Image source: Getty Images.
+1. Alphabet
+Google parent Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) has been a pioneer in AI for years. The company developed the "T" (transformers) in ChatGPT. Its 2014 acquisition of DeepMind was, in retrospect, a pivotal move. Today, Google Gemini Pro ranks among the world's most powerful large language models (LLMs).
+Alphabet has multiple ways to profit from AI. Google Cloud is the fastest-growing major cloud services provider thanks to a massive AI tailwind. Google Search and YouTube use AI to boost ad revenue. Waymo is a leader in autonomous ride-hailing (robotaxis).
+But the company is also a major player in quantum computing. Google Quantum AI (note that both disruptive technologies are in the unit's name) has already notched two key quantum computing milestones. Its Sycamore chip achieved quantum supremacy (solving a problem in relatively short order that would take the most powerful classical computer an exceptionally long time) in 2019. The unit made a giant leap in quantum error correction (reducing errors by increasing the cubits) in 2023.
+I think it's a good bet that Alphabet will be one of the biggest winners in both AI and quantum computing over the long run. But this stock isn't a highly risky bet, in my view. The company is on track to generate close to $400 billion in revenue and more than $100 billion in profits this year.
+2. Microsoft
+Microsoft (NASDAQ: MSFT) arguably struck one of the best deals in business history by partnering with ChatGPT creator OpenAI back in 2022. The longtime technology giant has integrated OpenAI's AI models throughout its software suite.
+Like Alphabet, Microsoft is poised to benefit as organizations build and deploy AI applications in the cloud. Its Azure is the second-largest cloud services platform, behind only Amazon Web Services (AWS).
+Also like Alphabet, Microsoft is investing heavily in quantum computing. Earlier this year, the company introduced its Majorana 1 quantum chip, which uses a new type of material called a topoconductor. Microsoft thinks that topoconductors will pave the way for highly scalable, powerful quantum computers.
+Microsoft technical fellow Chetan Nayak believes that topoconductors might be the "transistor for the quantum age." If he's right, the company that dominated the PC software market could also dominate the quantum computing market.
+3. Nvidia
+Which company is the most essential player in AI today? There's a strong argument that it's Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs) remain in a league of their own in powering AI systems.
+Nvidia's customers include Alphabet and Microsoft, both of which use its GPUs extensively in their cloud platforms. And while rivals are trying desperately to knock Nvidia off its perch, the company's fast-paced development of new AI chips seems likely to keep it on top for years to come.
+However, Nvidia isn't developing quantum computers. How is investing in it a smart way to profit from both AI and quantum computing? The company is trying to make it easier for others to advance their quantum computing efforts through its NVIDIA Accelerated Quantum Computing (NVAQC) Research Center. Nvidia is also pairing its GPUs with quantum chips for a hybrid quantum-classical computing approach.
+Back in the gold rush days, the providers of picks and shovels often made more money than the gold miners themselves. Nvidia is positioning itself to be the pick-and-shovel investment of the quantum computing era.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keith Speights has positions in Alphabet and Microsoft. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Key Points Alphabet has multiple ways to profit from AI and has achieved two key quantum computing milestones. Microsoft has integrated AI throughout its software and might have developed the "transistor for the quantum age." Nvidia is a critical player in AI and is positioning itself to be a big winner in quantum computing. Disruption isn't a dirty word for investors. Sure, some companies can fade away as their businesses are rendered obsolete by new technologies. However, others flourish and make smart investors a lot of money over time. I believe we're currently in the early stages of two massive disruptions. Artificial intelligence (AI) holds the potential to transform our world in too many ways to count. Quantum computing could accelerate AI advances while also revolutionizing finance, healthcare, logistics, and more. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More Although these are distinct disruptive technologies, you don't have to invest in them separately. Here are my picks for the three best stocks to buy now to profit from both AI and quantum computing. Image source: Getty Images. 1. Alphabet Google parent Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) has been a pioneer in AI for years. The company developed the "T" (transformers) in ChatGPT. Its 2014 acquisition of DeepMind was, in retrospect, a pivotal move. Today, Google Gemini Pro ranks among the world's most powerful large language models (LLMs). Alphabet has multiple ways to profit from AI. Google Cloud is the fastest growing major cloud services provider thanks to a massive AI tailwind. Google Search and YouTube use AI to boost ad revenue. Waymo is a leader in autonomous ride hailing (robotaxis). But the company is also a major player in quantum computing. Google Quantum AI (note that both disruptive technologies are in the unit's name) has already notched two key quantum computing milestones. Its Sycamore chip achieved quantum supremacy (solving a problem in relatively short order that would take the most powerful classical computer an exceptionally long time) in 2019. The unit made a giant leap in quantum error correction (reducing errors by increasing the cubits) in 2023. I think it's a good bet that Alphabet will be one of the biggest winners in both AI and quantum computing over the long run. But this stock isn't a highly risky bet, in my view. The company is on track to generate close to $400 billion in revenue and more than $100 billion in profits this year. 2. Microsoft Microsoft (NASDAQ: MSFT) arguably struck one of the best deals in business history by partnering with ChatGPT creator OpenAI back in 2022. The longtime technology giant has integrated OpenAI's AI models throughout its software suite. Like Alphabet, Microsoft is poised to benefit as organizations build and deploy AI applications in the cloud. Its Azure is the second largest cloud services platform, behind only Amazon Web Services (AWS). Also like Alphabet, Microsoft is investing heavily in quantum computing. Earlier this year, the company introduced its Majorana 1 quantum chip, which uses a new type of material called a topoconductor. Microsoft thinks that topoconductors will pave the way for highly scalable, powerful quantum computers. Microsoft technical fellow Chetan Nayak believes that topoconductors might be the "transistor for the quantum age." If he's right, the company that dominated the PC software market could also dominate the quantum computing market. 3. Nvidia Which company is the most essential player in AI today? There's a strong argument that it's Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs) remain in a league of their own in powering AI systems. Nvidia's customers include Alphabet and Microsoft, both of which use its GPUs extensively in their cloud platforms. And while rivals are trying desperately to knock Nvidia off its perch, the company's fast paced development of new AI chips seems likely to keep it on top for years to come. However, Nvidia isn't developing quantum computers. How is investing in it a smart way to profit from both AI and quantum computing? The company is trying to make it easier for others to advance their quantum computing efforts through its NVIDIA Accelerated Quantum Computing (NVAQC) Research Center. Nvidia is also pairing its GPUs with quantum chips for a hybrid quantum classical computing approach. Back in the gold rush days, the providers of picks and shovels often made more money than the gold miners themselves. Nvidia is positioning itself to be the pick and shovel investment of the quantum computing era. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keith Speights has positions in Alphabet and Microsoft. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45885.18333333333</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Did Nvidia Make a Mistake by Selling SoundHound AI Stock? The Answer Might Surprise You.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142377/did-nvidia-make-a-mistake-by-selling-soundhound-ai-stock-the-answer-might-surprise-you</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+SoundHound AI stock is generating blistering revenue growth right now, as some of the world's biggest brands adopt its conversational artificial intelligence software.
+Nvidia used to be a SoundHound shareholder, but the chip giant sold its entire stake towards the end of 2024.
+SoundHound stock is soaring right now, but that doesn't mean Nvidia made the wrong move.
+Nvidia (NASDAQ: NVDA) has become the world's largest company on the back of surging demand for its data center chips, which are the gold standard for developing artificial intelligence (AI) models. The chip giant occasionally puts its vast financial resources to work by investing in other AI companies, and SoundHound AI (NASDAQ: SOUN) was one of them.
+SoundHound is a specialist in conversational AI technologies, and its customers include some of the world's biggest brands. Nvidia first revealed its stake in the company in a 13-F filing with the Securities and Exchange Commission in February 2024, but the chipmaker had sold its entire position by December.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+SoundHound's revenue tripled during its most recent quarter, and its stock is up by a whopping 40% in the past month alone. Did Nvidia make a mistake by dumping its position? Read on for the surprising answer.
+Image source: Getty Images.
+SoundHound's conversational AI applications are popular in a variety of industries, but they are experiencing particularly high demand in quick-service restaurant chains and with automotive brands that want to include a powerful AI assistant in their new vehicles.
+In the restaurant space, SoundHound's Voice AI technology can accept customer orders autonomously in-store, over the phone, and in the drive-thru. It can also answer queries from employees, whether they need help making menu items or need clarity on a particular store policy. Chains like Chipotle, Krispy Kreme, and Papa John's are just a few of SoundHound's customers.
+In the automotive industry, companies like Hyundai and Stellantis (Chrysler, Jeep, and Dodge) are using SoundHound's Chat AI software in their latest vehicles. It can give drivers information about the weather, stocks, and everything in between with a simple voice command, and manufacturers can customize its personality to suit their brand.
+Last August, SoundHound acquired another conversational AI specialist called Amelia. The joint companies recently launched a new platform called Amelia 7, which allows businesses to create custom AI agents that can assist customers with their inquiries or even help employees troubleshoot technical issues. Of course, these agents can be controlled entirely with voice commands.
+SoundHound generated a record $42.6 million in total revenue during the second quarter of 2025 (ended June 30), which was a blistering 217% increase from the year-ago period.
+The strong result gave management the confidence to increase its full-year revenue guidance for 2025 from $167 million to $169 million (at the midpoint of the forecast range), which would be a 99% increase compared to 2024. That would mark an acceleration from the 85% growth SoundHound generated last year, highlighting the significant momentum in its business.
+But that growth is coming at a significant cost, because SoundHound continues to burn truckloads of cash. It lost $74.7 million on a generally accepted accounting principles (GAAP) basis during the second quarter, which was twice as much as it lost in the year-ago period.
+SoundHound did suffer a one-off, $31 million hit to its bottom line from a liability associated with one of its acquisitions during the quarter, but even after stripping it out -- along with every other one-off and non-cash expense -- the company still lost $11.8 million.
+SoundHound has a solid balance sheet with $230 million in cash on hand and no debt, so it can sustain losses of that size for the foreseeable future. However, the company will eventually have to prioritize profitability, or else it might need to raise capital, which could dilute existing shareholders. Cost cuts would almost certainly dent SoundHound's revenue growth, which is something for investors to keep in mind.
+Nvidia never told investors why it sold SoundHound stock, but if I had to speculate, I think its valuation likely had something to do with the decision. Its price-to-sales (P/S) ratio is trading at an eye-popping level of 48.6, which is more than a 50% premium to Nvidia's P/S ratio of 29.9.
+It was even more expensive when Nvidia sold it toward the end of 2024, because its P/S ratio was hovering near 100.
+SOUN PS Ratio data by YCharts
+SoundHound will quickly grow into its current valuation if its revenue continues to increase at such a blistering pace, but the financial results of companies in the early stages of commercialization are notoriously unpredictable, so there's no guarantee it will. Moreover, Nvidia is one of the highest quality companies in the world with a track record of success that spans decades, a rock-solid balance sheet, and surging profits, so I don't think SoundHound deserves to trade at a premium to the chip giant.
+Nvidia held 1.73 million SoundHound shares, which would've been worth around $27.7 million at the current price of $16. Given the chip giant's market cap of $4.4 trillion, a total loss would've been a mere rounding error. However, holding a stock with such a steep valuation opens the door to substantial downside if the underlying company falters, so I don't think Nvidia made a mistake by closing its position.
+Before you buy stock in SoundHound AI, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and SoundHound AI wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Anthony Di Pizio has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Chipotle Mexican Grill and Nvidia. The Motley Fool recommends the following options: short September 2025 $60 calls on Chipotle Mexican Grill. The Motley Fool has a disclosure policy.
+| 1 hour | |
+| 1 hour | |
+| 6 hours | |
+| 6 hours | |
+| 6 hours | |
+| 7 hours | |
+| 7 hours | |
+| 7 hours | |
+| 8 hours | |
+| 8 hours | |
+| 8 hours | |
+| 9 hours | |
+| 9 hours | |
+| 9 hours | |
+| 10 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>SoundHound AI stock is generating blistering revenue growth right now, as some of the world's biggest brands adopt its conversational artificial intelligence software. Nvidia used to be a SoundHound shareholder, but the chip giant sold its entire stake towards the end of 2024. SoundHound stock is soaring right now, but that doesn't mean Nvidia made the wrong move. Nvidia (NASDAQ: NVDA) has become the world's largest company on the back of surging demand for its data center chips, which are the gold standard for developing artificial intelligence (AI) models. The chip giant occasionally puts its vast financial resources to work by investing in other AI companies, and SoundHound AI (NASDAQ: SOUN) was one of them. SoundHound is a specialist in conversational AI technologies, and its customers include some of the world's biggest brands. Nvidia first revealed its stake in the company in a 13 F filing with the Securities and Exchange Commission in February 2024, but the chipmaker had sold its entire position by December. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue SoundHound's revenue tripled during its most recent quarter, and its stock is up by a whopping 40% in the past month alone. Did Nvidia make a mistake by dumping its position? Read on for the surprising answer. Image source: Getty Images. SoundHound's conversational AI applications are popular in a variety of industries, but they are experiencing particularly high demand in quick service restaurant chains and with automotive brands that want to include a powerful AI assistant in their new vehicles. In the restaurant space, SoundHound's Voice AI technology can accept customer orders autonomously in store, over the phone, and in the drive thru. It can also answer queries from employees, whether they need help making menu items or need clarity on a particular store policy. Chains like Chipotle, Krispy Kreme, and Papa John's are just a few of SoundHound's customers. In the automotive industry, companies like Hyundai and Stellantis (Chrysler, Jeep, and Dodge) are using SoundHound's Chat AI software in their latest vehicles. It can give drivers information about the weather, stocks, and everything in between with a simple voice command, and manufacturers can customize its personality to suit their brand. Last August, SoundHound acquired another conversational AI specialist called Amelia. The joint companies recently launched a new platform called Amelia 7, which allows businesses to create custom AI agents that can assist customers with their inquiries or even help employees troubleshoot technical issues. Of course, these agents can be controlled entirely with voice commands. SoundHound generated a record $42.6 million in total revenue during the second quarter of 2025 (ended June 30), which was a blistering 217% increase from the year ago period. The strong result gave management the confidence to increase its full year revenue guidance for 2025 from $167 million to $169 million (at the midpoint of the forecast range), which would be a 99% increase compared to 2024. That would mark an acceleration from the 85% growth SoundHound generated last year, highlighting the significant momentum in its business. But that growth is coming at a significant cost, because SoundHound continues to burn truckloads of cash. It lost $74.7 million on a generally accepted accounting principles (GAAP) basis during the second quarter, which was twice as much as it lost in the year ago period. SoundHound did suffer a one off, $31 million hit to its bottom line from a liability associated with one of its acquisitions during the quarter, but even after stripping it out along with every other one off and non cash expense the company still lost $11.8 million. SoundHound has a solid balance sheet with $230 million in cash on hand and no debt, so it can sustain losses of that size for the foreseeable future. However, the company will eventually have to prioritize profitability, or else it might need to raise capital, which could dilute existing shareholders. Cost cuts would almost certainly dent SoundHound's revenue growth, which is something for investors to keep in mind. Nvidia never told investors why it sold SoundHound stock, but if I had to speculate, I think its valuation likely had something to do with the decision. Its price to sales (P/S) ratio is trading at an eye popping level of 48.6, which is more than a 50% premium to Nvidia's P/S ratio of 29.9. It was even more expensive when Nvidia sold it toward the end of 2024, because its P/S ratio was hovering near 100. SOUN PS Ratio data by YCharts SoundHound will quickly grow into its current valuation if its revenue continues to increase at such a blistering pace, but the financial results of companies in the early stages of commercialization are notoriously unpredictable, so there's no guarantee it will. Moreover, Nvidia is one of the highest quality companies in the world with a track record of success that spans decades, a rock solid balance sheet, and surging profits, so I don't think SoundHound deserves to trade at a premium to the chip giant. Nvidia held 1.73 million SoundHound shares, which would've been worth around $27.7 million at the current price of $16. Given the chip giant's market cap of $4.4 trillion, a total loss would've been a mere rounding error. However, holding a stock with such a steep valuation opens the door to substantial downside if the underlying company falters, so I don't think Nvidia made a mistake by closing its position. Before you buy stock in SoundHound AI, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and SoundHound AI wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Anthony Di Pizio has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Chipotle Mexican Grill and Nvidia. The Motley Fool recommends the following options: short September 2025 $60 calls on Chipotle Mexican Grill. The Motley Fool has a disclosure policy. 1 hour 1 hour 6 hours 6 hours 6 hours 7 hours 7 hours 7 hours 8 hours 8 hours 8 hours 9 hours 9 hours 9 hours 10 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45885.12638888889</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>If I Could Only Buy and Hold a Single Stock, This Would Be It</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142361/if-i-could-only-buy-and-hold-a-single-stock-this-would-be-it</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Key Points
+I'm a long-term buy-and-hold investor, and my portfolio is filled with dozens of growth stocks.
+If I had to pick just a single stock, it would have to be Nvidia.
+The company checks many of the boxes of a successful investment and trades for an attractive valuation.
+Let's address the elephant in the room: The idea of buying and holding just one stock is something I would never do, and frankly, the thought seems absurd to me. My portfolio is composed of dozens of stocks, as it provides me with a level of safety and diversification that lets me sleep at night. Even if one of my largest positions falls 30% or 40% (and they have), my entire portfolio only loses between 1% and 2%. I can't imagine a scenario where I would limit myself to one stock, and I recommend building a portfolio of 15 to 20 stocks at a minimum.
+That said, and purely as a thought exercise, if I were to hold only one stock, it would have to meet certain criteria. I would want a company that is an industry leader, with a large addressable market and a long track record of performance. I would want to own a company that's a proven leader -- a business fueled by innovation, strong secular tailwinds, and a history of financial success.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+If I could only buy and hold a single stock, Nvidia (NASDAQ: NVDA) would have to be it.
+Image source: Getty Images.
+Checks all the right boxes
+There's certainly a lot to like about Nvidia, and it checks all the right boxes. The company has long been a leader in the video game market, as its graphics processing units (GPUs) are the top choice among hardcore and casual gamers alike. Nvidia is the undisputed leader in the discrete desktop GPU space, controlling 92% of the market, according to data compiled by Jon Peddie Research.
+Nvidia was also able to capitalize on the advent of artificial intelligence (AI), as its GPUs are equally adept at ferrying data around the ether at lightning speeds. As a result, the company also leads the data center GPU space -- where most AI processing takes place -- with a dominant 92% of the market, according to IoT Analytics.
+AI has been the driving force behind Nvidia's performance over the past few years, but this wasn't simply luck. CEO Jensen Huang saw the writing on the wall back in 2013 and focused the company's research and development efforts on AI, which positioned Nvidia for future success.
+This spirit of innovation has kept the company well ahead of would-be rivals. In its fiscal 2025 (ended Jan. 26), Nvidia spent $13 billion on research and development (R&amp;D) -- roughly 10% of its total revenue -- to maintain its competitive advantage. The company continues to explore emerging opportunities, including quantum computing, agentic AI, robotics, automation, self-driving cars, and more.
+It's easy to see why Nvidia is investing heavily as it looks toward the future. The opportunity represented by AI alone is vast, but there's no consensus. Global management consulting firm McKinsey &amp; Company estimates that generative AI could add between $2.6 trillion and $4.4 trillion to the global economy over the coming decade. The estimate from Big Four accounting firm PwC is much higher, clocking in at $15.7 trillion between now and 2030.
+This helps to illustrate the size of the opportunity Nvidia has in its sights.
+The numbers are compelling
+Nvidia has already been reaping the rewards of the AI revolution, and it's difficult to overstate the scale of its success. The results of the past two fiscal years help provide context:
+- In fiscal 2024 (ended Jan. 28, 2024), Nvidia's record revenue of $60.9 billion climbed 126%, while its adjusted earnings per share (EPS) of $12.96 surged 288%.
+- In fiscal 2025 (ended Jan. 26, 2025), Nvidia's record revenue of $130.5 billion jumped 114%, while adjusted EPS of $2.99 soared 130%.
+In its 2026 first quarter, Nvidia's revenue of $44 billion climbed 69% year over year and 12% quarter over quarter. Earnings per share, adjusted for a one-time charge related to its chip sales to China, came in at $0.96, rising 62%. While that's notable in its own right, it becomes even more impressive when viewed against the backdrop of triple-digit comps.
+Management believes the company's growth streak will continue. For the second quarter, Nvidia is forecasting revenue of $45 billion, or growth of about 50%. However, given the company's history of issuing conservative guidance, the actual results will likely be higher.
+This history of financial success has propelled a meteoric rise in the stock price, which has gained 1,130% since early 2023, and has helped Nvidia become the world's first $4 trillion company, when measured by market cap.
+While the company's performance over the past few years has been nothing less than stunning, its track record is much longer. Over the past decade, Nvidia's stock has soared more than 30,000% (not a typo), driven higher by its consistently strong operational and financial results.
+There's also the matter of Nvidia's valuation. Despite the company's growth trajectory and history of success, the stock is selling for roughly 30 times next year's earnings, an attractive multiple given the magnitude of the opportunity.
+Taken together, its industry leadership, track record of innovations, visionary CEO, and large and growing market opportunity create a persuasive argument for owning Nvidia stock. Add to that the company's stunning financial performance and reasonable valuation, and it's easy to see why Nvidia would be the one stock to own if I could own just one.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Key Points I'm a long term buy and hold investor, and my portfolio is filled with dozens of growth stocks. If I had to pick just a single stock, it would have to be Nvidia. The company checks many of the boxes of a successful investment and trades for an attractive valuation. Let's address the elephant in the room: The idea of buying and holding just one stock is something I would never do, and frankly, the thought seems absurd to me. My portfolio is composed of dozens of stocks, as it provides me with a level of safety and diversification that lets me sleep at night. Even if one of my largest positions falls 30% or 40% (and they have), my entire portfolio only loses between 1% and 2%. I can't imagine a scenario where I would limit myself to one stock, and I recommend building a portfolio of 15 to 20 stocks at a minimum. That said, and purely as a thought exercise, if I were to hold only one stock, it would have to meet certain criteria. I would want a company that is an industry leader, with a large addressable market and a long track record of performance. I would want to own a company that's a proven leader a business fueled by innovation, strong secular tailwinds, and a history of financial success. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More If I could only buy and hold a single stock, Nvidia (NASDAQ: NVDA) would have to be it. Image source: Getty Images. Checks all the right boxes There's certainly a lot to like about Nvidia, and it checks all the right boxes. The company has long been a leader in the video game market, as its graphics processing units (GPUs) are the top choice among hardcore and casual gamers alike. Nvidia is the undisputed leader in the discrete desktop GPU space, controlling 92% of the market, according to data compiled by Jon Peddie Research. Nvidia was also able to capitalize on the advent of artificial intelligence (AI), as its GPUs are equally adept at ferrying data around the ether at lightning speeds. As a result, the company also leads the data center GPU space where most AI processing takes place with a dominant 92% of the market, according to IoT Analytics. AI has been the driving force behind Nvidia's performance over the past few years, but this wasn't simply luck. CEO Jensen Huang saw the writing on the wall back in 2013 and focused the company's research and development efforts on AI, which positioned Nvidia for future success. This spirit of innovation has kept the company well ahead of would be rivals. In its fiscal 2025 (ended Jan. 26), Nvidia spent $13 billion on research and development (R&amp;D) roughly 10% of its total revenue to maintain its competitive advantage. The company continues to explore emerging opportunities, including quantum computing, agentic AI, robotics, automation, self driving cars, and more. It's easy to see why Nvidia is investing heavily as it looks toward the future. The opportunity represented by AI alone is vast, but there's no consensus. Global management consulting firm McKinsey &amp; Company estimates that generative AI could add between $2.6 trillion and $4.4 trillion to the global economy over the coming decade. The estimate from Big Four accounting firm PwC is much higher, clocking in at $15.7 trillion between now and 2030. This helps to illustrate the size of the opportunity Nvidia has in its sights. The numbers are compelling Nvidia has already been reaping the rewards of the AI revolution, and it's difficult to overstate the scale of its success. The results of the past two fiscal years help provide context: In fiscal 2024 (ended Jan. 28, 2024), Nvidia's record revenue of $60.9 billion climbed 126%, while its adjusted earnings per share (EPS) of $12.96 surged 288%. In fiscal 2025 (ended Jan. 26, 2025), Nvidia's record revenue of $130.5 billion jumped 114%, while adjusted EPS of $2.99 soared 130%. In its 2026 first quarter, Nvidia's revenue of $44 billion climbed 69% year over year and 12% quarter over quarter. Earnings per share, adjusted for a one time charge related to its chip sales to China, came in at $0.96, rising 62%. While that's notable in its own right, it becomes even more impressive when viewed against the backdrop of triple digit comps. Management believes the company's growth streak will continue. For the second quarter, Nvidia is forecasting revenue of $45 billion, or growth of about 50%. However, given the company's history of issuing conservative guidance, the actual results will likely be higher. This history of financial success has propelled a meteoric rise in the stock price, which has gained 1,130% since early 2023, and has helped Nvidia become the world's first $4 trillion company, when measured by market cap. While the company's performance over the past few years has been nothing less than stunning, its track record is much longer. Over the past decade, Nvidia's stock has soared more than 30,000% (not a typo), driven higher by its consistently strong operational and financial results. There's also the matter of Nvidia's valuation. Despite the company's growth trajectory and history of success, the stock is selling for roughly 30 times next year's earnings, an attractive multiple given the magnitude of the opportunity. Taken together, its industry leadership, track record of innovations, visionary CEO, and large and growing market opportunity create a persuasive argument for owning Nvidia stock. Add to that the company's stunning financial performance and reasonable valuation, and it's easy to see why Nvidia would be the one stock to own if I could own just one. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45885.02361111111</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Repon expects AI server demand to drive growth in 2H25 despite currency and tax challenges</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.digitimes.com/news/a20250814PD235/repon-ai-server-growth-demand-shipments.html</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45885.02291666667</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Nvidia reportedly confirms Rubin AI chip launch timeline as AMD reveals 2026 server challenge</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.digitimes.com/news/a20250814VL206/nvidia-rubin-ai-chip-amd-launch.html</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45884.79583333333</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>NVIDIA (NVDA) Stock Gets Bullish Call Amid U.S.-China Chip Agreement Reports</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142292/nvidia-nvda-stock-gets-bullish-call-amid-us-china-chip-agreement-reports</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the AI Stocks Investors Are Watching Closely. On August 12, Bank of America reiterated the stock as “Buy.” The firm said that it is sticking with the stock after reports of a favorable deal for Nvidia to receive chip export licenses.
+“Busy period of interactions between the US Government (USG)/White House (WH) and major US chipmakers. The critical nature of semis is likely to enhance these interactions that will continue to be both positive and a headwind/source of volatility. Recent news involves: 15% potential tax/levy on sales of specific AI chips in return for China approvals: a net positive and we maintain Buys on NVDA, AMD.”
+Analysts on Wall Street currently have a consensus “Buy” rating on the stock. The average price target of $190 implies a 5.10% upside; however, the Street-high target of $250 implies an upside of 38%.
+NVIDIA Corporation (NASDAQ:NVDA) specializes in AI-driven solutions, offering platforms for data centers, self-driving cars, robotics, and cloud services.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 10 AI Stocks Investors Are Watching Closely and 10 AI Stocks Analysts Are Watching Closely.
+Disclosure: None.</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the AI Stocks Investors Are Watching Closely. On August 12, Bank of America reiterated the stock as Buy. The firm said that it is sticking with the stock after reports of a favorable deal for Nvidia to receive chip export licenses. Busy period of interactions between the US Government (USG)/White House (WH) and major US chipmakers. The critical nature of semis is likely to enhance these interactions that will continue to be both positive and a headwind/source of volatility. Recent news involves: 15% potential tax/levy on sales of specific AI chips in return for China approvals: a net positive and we maintain Buys on NVDA, AMD. Analysts on Wall Street currently have a consensus Buy rating on the stock. The average price target of $190 implies a 5.10% upside; however, the Street high target of $250 implies an upside of 38%. NVIDIA Corporation (NASDAQ:NVDA) specializes in AI driven solutions, offering platforms for data centers, self driving cars, robotics, and cloud services. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 10 AI Stocks Investors Are Watching Closely and 10 AI Stocks Analysts Are Watching Closely. Disclosure: None.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45884.79513888889</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>5 Unstoppable "Ten Titans" Growth Stocks to Buy Now and Hold Through at Least 2030</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142300/5-unstoppable-ten-titans-growth-stocks-to-buy-now-and-hold-through-at-least-2030</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+The "Ten Titans" offer a more comprehensive list of top growth stocks than the "Magnificent Seven."
+Nvidia and Broadcom provide the building blocks of AI infrastructure.
+Microsoft, Alphabet, and Oracle are three exciting plays in cloud computing.
+The "Ten Titans" are the largest growth-focused U.S. companies by market cap -- consisting of Nvidia (NASDAQ: NVDA), Microsoft (NASDAQ: MSFT), Apple, Amazon, Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG), Meta Platforms, Broadcom (NASDAQ: AVGO), Tesla, Oracle (NYSE: ORCL), and Netflix.
+Combined, they make up over 37% of the S&amp;P 500, showcasing the top-heavy nature of the index and how just a handful of companies can move the market.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+If I could only buy and hold half of the Ten Titans through 2030, I'd go with Nvidia, Broadcom, Microsoft, Oracle, and Alphabet. Here's what separates these growth stocks from the rest of the pack.
+Image source: Getty Images.
+Nvidia and Broadcom both play crucial roles in the buildout of artificial intelligence (AI).
+Nvidia's graphics processing units, CUDA software platform, and associated infrastructure provide a full-scale AI ecosystem for data centers. Orders continue to pour in for Nvidia's chips as big tech companies ramp up capital expenditures to support AI models.
+Broadcom makes application-specific integrated circuits, which are AI accelerators that can perform specific functions. The company's latest customer accelerator (XPU) is its 3.5D eXtreme Dimension System in Package, which drastically cuts down on power consumption and boosts efficiency between components -- all within a smaller package size. Broadcom offers compute, memory, network, and packaging capabilities, giving customers a vertically integrated solution for AI at scale.
+Broadcom has a highly differentiated networking and infrastructure software business. In addition to AI accelerators, its semiconductor segment also offers a variety of solutions for enterprise clients, like broadband, wireless, storage, and more.
+Microsoft, Alphabet, and Oracle offer three distinctly different ways to invest in cloud computing.
+Microsoft Azure is the No. 2 cloud player behind Amazon Web Services. Azure is Microsoft's fastest-growing segment -- capitalizing on AI demand through cloud offerings specifically geared toward handling AI workloads. But what separates Microsoft from other cloud plays is the strength of the rest of its business. Copilot for Azure, the Microsoft 365 software suite, and GitHub continue to grow their active user base. Microsoft's revenue growth has accelerated, and profit margins are at their highest level in over a decade -- driving Microsoft's surging stock price.
+Alphabet's Google Cloud doesn't have as much market share as Azure, but it is growing quickly and becoming more profitable. But unlike Microsoft, where cloud is the centerpiece of the investment thesis, Google Cloud doesn't contribute nearly as much to Alphabet's bottom line as other services -- namely Google Search and YouTube.
+Alphabet stock has roared higher in recent months, but it's still arguably the best value of the Ten Titans.
+TSLA PE Ratio (Forward) data by YCharts
+While Google Search could see disruption from rival information resources like ChatGPT, it's worth noting that Google Gemini has gained significant traction in recent quarters -- showing Alphabet's ability to adapt.
+Oracle Cloud Infrastructure (OCI) is arguably the most exciting play in cloud computing right now. OCI is thriving due to its flexible structure, which leans on Oracle's established database ecosystem. It is best paired with Oracle databases and applications, with certain services not available on other clouds.
+Instead of going toe-to-toe with the "big three" cloud providers, Oracle partners with them by combining its database services with the AWS, Azure, and Google Cloud infrastructure. All told, Oracle is a top play in cloud computing because it offers its own vertically integrated suite of solutions, but also stands to benefit from the overall growth of the industry through its partnerships.
+Nvidia, Broadcom, Microsoft, Alphabet, and Oracle have all been phenomenal stocks -- crushing the S&amp;P 500 over the last five years. With the exception of Alphabet, outsized gains have made valuations expensive based on their trailing and forward earnings estimates, which may deter some investors from approaching these names.
+However, folks who are looking for top companies to buy and hold through at least 2030 will care more about where a company will be years from now than the next few quarters. The advantage of a longer investment time horizon is that you can give a company time to grow into its valuation. Nvidia, Broadcom, and Oracle are some of the most expensive of the Ten Titans, but they also have the most attractive runways for growth. Meanwhile, Microsoft and Alphabet have more reasonable valuations and multiple levers to pull for growing earnings for years to come.
+There are valid cases for buying all of the Ten Titans, but Nvidia, Broadcom, Microsoft, Alphabet, and Oracle truly stand out as the best of the best for long-term investors.
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.
+| 1 hour | |
+| 4 hours | |
+| 4 hours | |
+| 6 hours | |
+| 6 hours | |
+| 6 hours | |
+| 6 hours | |
+| 7 hours | |
+| 7 hours | |
+| 7 hours | |
+| 7 hours | |
+| 8 hours | |
+| 8 hours | |
+| 8 hours | |
+| 9 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>The "Ten Titans" offer a more comprehensive list of top growth stocks than the "Magnificent Seven." Nvidia and Broadcom provide the building blocks of AI infrastructure. Microsoft, Alphabet, and Oracle are three exciting plays in cloud computing. The "Ten Titans" are the largest growth focused U.S. companies by market cap consisting of Nvidia (NASDAQ: NVDA), Microsoft (NASDAQ: MSFT), Apple, Amazon, Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG), Meta Platforms, Broadcom (NASDAQ: AVGO), Tesla, Oracle (NYSE: ORCL), and Netflix. Combined, they make up over 37% of the S&amp;P 500, showcasing the top heavy nature of the index and how just a handful of companies can move the market. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue If I could only buy and hold half of the Ten Titans through 2030, I'd go with Nvidia, Broadcom, Microsoft, Oracle, and Alphabet. Here's what separates these growth stocks from the rest of the pack. Image source: Getty Images. Nvidia and Broadcom both play crucial roles in the buildout of artificial intelligence (AI). Nvidia's graphics processing units, CUDA software platform, and associated infrastructure provide a full scale AI ecosystem for data centers. Orders continue to pour in for Nvidia's chips as big tech companies ramp up capital expenditures to support AI models. Broadcom makes application specific integrated circuits, which are AI accelerators that can perform specific functions. The company's latest customer accelerator (XPU) is its 3.5D eXtreme Dimension System in Package, which drastically cuts down on power consumption and boosts efficiency between components all within a smaller package size. Broadcom offers compute, memory, network, and packaging capabilities, giving customers a vertically integrated solution for AI at scale. Broadcom has a highly differentiated networking and infrastructure software business. In addition to AI accelerators, its semiconductor segment also offers a variety of solutions for enterprise clients, like broadband, wireless, storage, and more. Microsoft, Alphabet, and Oracle offer three distinctly different ways to invest in cloud computing. Microsoft Azure is the No. 2 cloud player behind Amazon Web Services. Azure is Microsoft's fastest growing segment capitalizing on AI demand through cloud offerings specifically geared toward handling AI workloads. But what separates Microsoft from other cloud plays is the strength of the rest of its business. Copilot for Azure, the Microsoft 365 software suite, and GitHub continue to grow their active user base. Microsoft's revenue growth has accelerated, and profit margins are at their highest level in over a decade driving Microsoft's surging stock price. Alphabet's Google Cloud doesn't have as much market share as Azure, but it is growing quickly and becoming more profitable. But unlike Microsoft, where cloud is the centerpiece of the investment thesis, Google Cloud doesn't contribute nearly as much to Alphabet's bottom line as other services namely Google Search and YouTube. Alphabet stock has roared higher in recent months, but it's still arguably the best value of the Ten Titans. TSLA PE Ratio (Forward) data by YCharts While Google Search could see disruption from rival information resources like ChatGPT, it's worth noting that Google Gemini has gained significant traction in recent quarters showing Alphabet's ability to adapt. Oracle Cloud Infrastructure (OCI) is arguably the most exciting play in cloud computing right now. OCI is thriving due to its flexible structure, which leans on Oracle's established database ecosystem. It is best paired with Oracle databases and applications, with certain services not available on other clouds. Instead of going toe to toe with the "big three" cloud providers, Oracle partners with them by combining its database services with the AWS, Azure, and Google Cloud infrastructure. All told, Oracle is a top play in cloud computing because it offers its own vertically integrated suite of solutions, but also stands to benefit from the overall growth of the industry through its partnerships. Nvidia, Broadcom, Microsoft, Alphabet, and Oracle have all been phenomenal stocks crushing the S&amp;P 500 over the last five years. With the exception of Alphabet, outsized gains have made valuations expensive based on their trailing and forward earnings estimates, which may deter some investors from approaching these names. However, folks who are looking for top companies to buy and hold through at least 2030 will care more about where a company will be years from now than the next few quarters. The advantage of a longer investment time horizon is that you can give a company time to grow into its valuation. Nvidia, Broadcom, and Oracle are some of the most expensive of the Ten Titans, but they also have the most attractive runways for growth. Meanwhile, Microsoft and Alphabet have more reasonable valuations and multiple levers to pull for growing earnings for years to come. There are valid cases for buying all of the Ten Titans, but Nvidia, Broadcom, Microsoft, Alphabet, and Oracle truly stand out as the best of the best for long term investors. Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. 1 hour 4 hours 4 hours 6 hours 6 hours 6 hours 6 hours 7 hours 7 hours 7 hours 7 hours 8 hours 8 hours 8 hours 9 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45884.75347222222</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Nvidia, AMD Agree to 15% Export Levy on China AI Chips</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-agree-15-export-220517787.html</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45884.74097222222</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Cohere Scores $500 Million as IPO Talk Heats Up</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-scores-500-million-ipo-214706278.html</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45884.67777777778</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Trump Wants To Make Intel Great Again. What That Means For TSMC.</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/6dc7f034-8f61-3b3d-955d-3a50b01945af/trump-wants-to-make-intel.html</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45884.66666666666</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Insatiable Demand For AI Data Centers - And Space - Fuels This Stock</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.investors.com/research/ibd-stock-analysis/micron-stock-ai-data-centers-space-exploration?mod=IBD_FV</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45884.61666666667</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Dear Marvell Stock Fans, Mark Your Calendars for August 28</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/75569d9b-a755-3b40-9ffe-1dc6015936fc/dear-marvell-stock-fans%2C-mark.html</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45884.61597222222</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Billionaire fund manager doubles down on Nvidia, partner in AI stack shift</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/874808b0-c2be-37fa-8f9b-749d586597da/billionaire-fund-manager.html</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45884.60555555556</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Jim Cramer Insists There Are No Backdoors In NVIDIA Corporation (NVDA)'s Chips</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142198/jim-cramer-insists-there-are-no-backdoors-in-nvidia-corporation-nvdas-chips</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>We recently published 10 Stocks Jim Cramer Discussed As He Questioned Official Data. NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed.
+The latest controversy surrounding NVIDIA Corporation (NASDAQ:NVDA) involves reports claiming that the Chinese government is asking local companies not to rely on the firm’s chips. These concerns stem from worries about potential backdoors and about becoming too reliant on American hardware. Cramer discussed the reports in detail:
+“[On reports of Chinese authorities looking to stop companies from buying the H20 AI GPUs] They can go open, they can have Jensen Huang go over there and have him rip open one of those things. There’s nothing. I mean, look you either trust Jensen or you don’t. I trust Jensen just because he has to give the government 15%. I mean he has said, listen we don’t have tracking. So, therefore, I am a believer in him. I don’t want to actually believe, believe it or not, the PRC. I actually don’t know if the PRC is all that reliable. Not like the BLS, I mean it’s different. BLS doesn’t have a chance, they’re very strapped, they’re tired, they’re poor, they’re huddled masses. . .but this, you know why this is not right? Because they don’t have anything that’s as good as the H20. If you wanna go do something that’s like on one of these versions of Intel, that got Pat Gelsinger fired. . . .
+“Yes you can [run inferences on it] and what I’m telling you is that the government was very hot to get these. So now the government’s not because they’re tracking, there is no tracking. There’s no tracking. We can believe their nonsense but there’s no tracking. I’ve heard all day, well because of the tracking. Okay so Jensen Huang is. therefore what? He’s clueless?
+Photo by
+Javier Esteban on
+Unsplash
+“[On The Information’s report saying Chinese big tech has been told by the government to not buy NVIDIA chips] I rely on The Information, you’re [David Faber] a legendary Wall Street funny man.They got you out of NVIDIA, as much as I got you into NVIDIA, they got you out of NVIDIA. Who has the cards? . . .I’m trying to get people to say, maybe before I sell NVIDIA because of all these different stories, maybe the stories maybe propaganda? I think we have every right to question, in a period where The Information has attacked NVIDIA twice. They’ll say we didn’t attack, we reported. Perhaps our reporting was not as strong. That’s okay. You can say whatever you want in this business and that’s exactly the problem.”
+While we acknowledge the potential of NVDA as an investment, our conviction lies in the belief that some AI stocks hold greater promise for delivering higher returns and have limited downside risk. If you are looking for an extremely cheap AI stock that is also a major beneficiary of Trump tariffs and onshoring, see our free report on the best short-term AI stock.
+READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>We recently published 10 Stocks Jim Cramer Discussed As He Questioned Official Data. NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed. The latest controversy surrounding NVIDIA Corporation (NASDAQ:NVDA) involves reports claiming that the Chinese government is asking local companies not to rely on the firms chips. These concerns stem from worries about potential backdoors and about becoming too reliant on American hardware. Cramer discussed the reports in detail: [On reports of Chinese authorities looking to stop companies from buying the H20 AI GPUs] They can go open, they can have Jensen Huang go over there and have him rip open one of those things. Theres nothing. I mean, look you either trust Jensen or you dont. I trust Jensen just because he has to give the government 15%. I mean he has said, listen we dont have tracking. So, therefore, I am a believer in him. I dont want to actually believe, believe it or not, the PRC. I actually dont know if the PRC is all that reliable. Not like the BLS, I mean its different. BLS doesnt have a chance, theyre very strapped, theyre tired, theyre poor, theyre huddled masses. . .but this, you know why this is not right? Because they dont have anything thats as good as the H20. If you wanna go do something thats like on one of these versions of Intel, that got Pat Gelsinger fired. . . . Yes you can [run inferences on it] and what Im telling you is that the government was very hot to get these. So now the governments not because theyre tracking, there is no tracking. Theres no tracking. We can believe their nonsense but theres no tracking. Ive heard all day, well because of the tracking. Okay so Jensen Huang is. therefore what? Hes clueless? Photo by Javier Esteban on Unsplash [On The Informations report saying Chinese big tech has been told by the government to not buy NVIDIA chips] I rely on The Information, youre [David Faber] a legendary Wall Street funny man.They got you out of NVIDIA, as much as I got you into NVIDIA, they got you out of NVIDIA. Who has the cards? . . .Im trying to get people to say, maybe before I sell NVIDIA because of all these different stories, maybe the stories maybe propaganda? I think we have every right to question, in a period where The Information has attacked NVIDIA twice. Theyll say we didnt attack, we reported. Perhaps our reporting was not as strong. Thats okay. You can say whatever you want in this business and thats exactly the problem. While we acknowledge the potential of NVDA as an investment, our conviction lies in the belief that some AI stocks hold greater promise for delivering higher returns and have limited downside risk. If you are looking for an extremely cheap AI stock that is also a major beneficiary of Trump tariffs and onshoring, see our free report on the best short term AI stock. READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45884.59097222222</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>If You'd Invested $500 in The Trade Desk Stock 5 Years Ago, Here's How Much You'd Have Today</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142196/if-youd-invested-500-in-the-trade-desk-stock-5-years-ago-heres-how-much-youd-have-today</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Key Points
+The Trade Desk's stock is pretty much back where it was five years ago.
+The business results are strong, but forward-looking guidance points to a modest slowdown.
+At 9 times sales, The Trade Desk trades at a fraction of its former nosebleed valuations while maintaining strong fundamentals.
+Digital advertising veteran The Trade Desk (NASDAQ: TTD) used to be hot stuff. In early December 2024, the stock had posted a market-stomping 156% gain in two years. The stock traded at market-darling valuation multiples such as 134 times free cash flow and 30 times sales. The Trade Desk made mighty Nvidia's (NASDAQ: NVDA) stock look affordable by comparison.
+But things have changed.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+The Trade Desk's recent earnings reports have been robust, but they were accompanied by a sobering market analysis and modest forward-looking guidance. The brutal market reaction wiped out several years of The Trade Desk's investor gains.
+So if you invested $500 in The Trade Desk five years ago, that position would be worth just $576 today:
+TTD Total Return Level data by YCharts
+The S&amp;P 500 (SNPINDEX: ^GSPC) market index more than doubled over the same period, in terms of total returns. That's an above-average compound annual growth rate (CAGR) of 15.6% versus The Trade Desk's anemic 2.9%.
+Image source: Getty Images.
+Silver lining of the reality check
+These days, you can buy The Trade Desk's stock at a less outrageous valuation of 33 times free cash flow and 9 times sales. If the stock price doubled today, the shares would still carry lower valuation multiples than Nvidia's 62 times free cash flow and 30 times sales.
+Mind you, The Trade Desk is still far from a deep-discount value stock. These multiples are appropriate for a fast-growing business addressing a large target market.
+And I would argue that The Trade Desk fits that description. Its sales have been soaring for years, and free cash flows are richer than ever:
+TTD Revenue (TTM) data by YCharts
+The company's near-term outlook has been less bullish in recent quarters, but management still expects roughly 14% sales growth in the third-quarter report. This growth story is far from over. The 2025 stock price cuts simply made this top-notch company more affordable.
+Should you invest $1,000 in The Trade Desk right now?
+Before you buy stock in The Trade Desk, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and The Trade Desk wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Anders Bylund has positions in Nvidia and The Trade Desk. The Motley Fool has positions in and recommends Nvidia and The Trade Desk. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Key Points The Trade Desk's stock is pretty much back where it was five years ago. The business results are strong, but forward looking guidance points to a modest slowdown. At 9 times sales, The Trade Desk trades at a fraction of its former nosebleed valuations while maintaining strong fundamentals. Digital advertising veteran The Trade Desk (NASDAQ: TTD) used to be hot stuff. In early December 2024, the stock had posted a market stomping 156% gain in two years. The stock traded at market darling valuation multiples such as 134 times free cash flow and 30 times sales. The Trade Desk made mighty Nvidia's (NASDAQ: NVDA) stock look affordable by comparison. But things have changed. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue The Trade Desk's recent earnings reports have been robust, but they were accompanied by a sobering market analysis and modest forward looking guidance. The brutal market reaction wiped out several years of The Trade Desk's investor gains. So if you invested $500 in The Trade Desk five years ago, that position would be worth just $576 today: TTD Total Return Level data by YCharts The S&amp;P 500 (SNPINDEX: ^GSPC) market index more than doubled over the same period, in terms of total returns. That's an above average compound annual growth rate (CAGR) of 15.6% versus The Trade Desk's anemic 2.9%. Image source: Getty Images. Silver lining of the reality check These days, you can buy The Trade Desk's stock at a less outrageous valuation of 33 times free cash flow and 9 times sales. If the stock price doubled today, the shares would still carry lower valuation multiples than Nvidia's 62 times free cash flow and 30 times sales. Mind you, The Trade Desk is still far from a deep discount value stock. These multiples are appropriate for a fast growing business addressing a large target market. And I would argue that The Trade Desk fits that description. Its sales have been soaring for years, and free cash flows are richer than ever: TTD Revenue (TTM) data by YCharts The company's near term outlook has been less bullish in recent quarters, but management still expects roughly 14% sales growth in the third quarter report. This growth story is far from over. The 2025 stock price cuts simply made this top notch company more affordable. Should you invest $1,000 in The Trade Desk right now? Before you buy stock in The Trade Desk, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and The Trade Desk wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Anders Bylund has positions in Nvidia and The Trade Desk. The Motley Fool has positions in and recommends Nvidia and The Trade Desk. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45884.58263888889</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>INTC: Intel Jumps on Reports of White House Investment in Ohio Factory</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/intc-intel-jumps-reports-white-175929817.html</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45884.56458333333</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Billionaire Family Offices Join Berkshires UnitedHealth Bet</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/billionaire-family-offices-join-berkshire-173329643.html</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45884.56319444445</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>NVDA: Chip Stocks Tumbles After Tariff Warning Triggers Sector Selloff</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvda-chip-stocks-tumbles-tariff-173136118.html</t>
+        </is>
+      </c>
+      <c r="E129" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45884.55347222222</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Billionaire George Soros supercharges Nvidia stake, loads up on AI plays</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/3d8524f4-7f7e-33fb-afb8-e423bcd7c678/billionaire-george-soros.html</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45884.54166666666</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Quantum Stocks Q2 2025: Are D-Wave, IonQ &amp; Rigetti Funding the Future?</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142176/quantum-stocks-q2-2025-are-d-wave-ionq-rigetti-funding-the-future</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>As second-quarter 2025 earnings rolled in, three pure-play quantum computing companies, D-Wave Quantum QBTS, Rigetti Computing RGTI and IonQ IONQ, offered a snapshot of an industry that moves at light speed but still sees profitability as a distant horizon. The trio’s results revealed a common storyline, strong sales, bigger losses and huge cash reserves to fund the next big step in quantum computing.
+D-Wave
+D-Wave Quantum’s second-quarter 2025 revenues rose 42% year over year, driven by Advantage2 quantum processing unit sales, including the system installed at Julich Supercomputing Center earlier this year. The company expanded its customer base with contracts from GE Vernova, Nikon and NTT DOCOMO, and strengthened global ties through partnerships in South Korea.
+Technological progress included an open-source PyTorch toolkit and quantum-assisted image generation demos. Collaborating with NASA’s Jet Propulsion Laboratory on advanced cryogenic packaging, D-Wave aims to accelerate its push toward a 100,000-qubit system, reinforcing its leadership in annealing quantum computing while broadening its international footprint.
+Financially, the company ended the quarter with a record $819.3 million in cash—an over 1,900% year-over-year increase driven by a $400 million at-the-market equity raise, warrant exercises and credit facility proceeds. Gross profit grew 42%, while adjusted EBITDA loss widened 44% year over year due to higher operating expenses from aggressive R&amp;D and market expansion efforts. With strong liquidity, an expanding enterprise pipeline and parallel development in both annealing and gate-model architectures, D-Wave signaled that it is prepared to invest heavily in scaling technology and pursuing strategic acquisitions, while maintaining its ambition to be the first independent public quantum computing firm to achieve sustained profitability.
+IonQ
+IonQ delivered a standout second-quarter 2025, with revenues coming in 15% above the top end of guidance, reflecting accelerating commercial traction across quantum computing and networking. The company’s momentum was underpinned by high-profile partnerships, including a landmark $22 million deal to build America’s first commercial quantum hub with utility leader EPB, and a 20x performance speed-up in quantum-accelerated drug development alongside AstraZeneca AZN, AWS and NVIDIA NVDA. However, the aggressive push into R&amp;D, strategic acquisitions and talent expansion incurred steep costs. IonQ reported a net loss of $177.5 million and an adjusted EBITDA loss of $36.5 million for the quarter.
+Despite being in the red, IonQ now commands one of the strongest balance sheets in the quantum sector, closing a $1 billion equity investment, priced at a premium that boosted its pro forma cash position to $1.6 billion as of July 2025. This war chest gives the company ample runway to execute on its roadmap, including integrating Oxford Ionics’ ion-trap-on-a-chip technology and scaling toward 800 logical qubits by 2027 and 80,000 by 2030. With acquisitions like Lightsynq and Capella expanding its reach into photonic interconnects and space-based quantum key distribution, IonQ is positioning itself to lead the next leap in computing power while fortifying its role in the future quantum Internet.
+Rigetti
+Rigetti Computing’s second-quarter 2025 revenues reflected sequential growth but declined year over year due to the expiration of the U.S. National Quantum Initiative and delays in its reauthorization. Gross margin narrowed to 31% from 64% a year earlier, primarily due to revenue mix and lower-margin development contracts. The company incurred an operating loss and a net loss in the quarter, the latter impacted by non-cash losses tied to changes in derivative warrant and earn-out liabilities.
+Management reiterated that hitting technology milestones remains central to its long-term profitability path, with Quantum Advantage targeted in roughly four years through scaling qubit counts, improving gate fidelity and advancing error correction.
+On a positive note, the company’s balance sheet is notably fortified, following the completion of a $350 million equity raise during the quarter, bringing total cash, cash equivalents and available-for-sale investments to $571.6 million as of June 30, 2025, with no debt. This sizable war chest provides ample runway to fund R&amp;D, scale commercial operations and potentially pursue strategic collaborations or acquisitions. Rigetti intends to leverage its proprietary chiplet-based superconducting qubit technology to reach a 100-plus qubit system with 99.5% median two-qubit gate fidelity by year-end 2025, an important step on the roadmap toward fault tolerance and eventual commercial-grade quantum computing profitability.
+Conclusion
+Taken together, revenues are rising and technology is advancing, but cash burn is heavy and profitability is far off for these three stocks. In this race, massive cash reserves are the fuel, and the first one to deliver scalable, commercially viable quantum systems will be the winner.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+AstraZeneca PLC (AZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report IonQ, Inc. (IONQ): Free Stock Analysis Report Rigetti Computing, Inc. (RGTI): Free Stock Analysis Report D-Wave Quantum Inc. (QBTS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>As second quarter 2025 earnings rolled in, three pure play quantum computing companies, D Wave Quantum QBTS, Rigetti Computing RGTI and IonQ IONQ, offered a snapshot of an industry that moves at light speed but still sees profitability as a distant horizon. The trios results revealed a common storyline, strong sales, bigger losses and huge cash reserves to fund the next big step in quantum computing. D Wave D Wave Quantums second quarter 2025 revenues rose 42% year over year, driven by Advantage2 quantum processing unit sales, including the system installed at Julich Supercomputing Center earlier this year. The company expanded its customer base with contracts from GE Vernova, Nikon and NTT DOCOMO, and strengthened global ties through partnerships in South Korea. Technological progress included an open source PyTorch toolkit and quantum assisted image generation demos. Collaborating with NASAs Jet Propulsion Laboratory on advanced cryogenic packaging, D Wave aims to accelerate its push toward a 100,000 qubit system, reinforcing its leadership in annealing quantum computing while broadening its international footprint. Financially, the company ended the quarter with a record $819.3 million in cashan over 1,900% year over year increase driven by a $400 million at the market equity raise, warrant exercises and credit facility proceeds. Gross profit grew 42%, while adjusted EBITDA loss widened 44% year over year due to higher operating expenses from aggressive R&amp;D and market expansion efforts. With strong liquidity, an expanding enterprise pipeline and parallel development in both annealing and gate model architectures, D Wave signaled that it is prepared to invest heavily in scaling technology and pursuing strategic acquisitions, while maintaining its ambition to be the first independent public quantum computing firm to achieve sustained profitability. IonQ IonQ delivered a standout second quarter 2025, with revenues coming in 15% above the top end of guidance, reflecting accelerating commercial traction across quantum computing and networking. The companys momentum was underpinned by high profile partnerships, including a landmark $22 million deal to build Americas first commercial quantum hub with utility leader EPB, and a 20x performance speed up in quantum accelerated drug development alongside AstraZeneca AZN, AWS and NVIDIA NVDA. However, the aggressive push into R&amp;D, strategic acquisitions and talent expansion incurred steep costs. IonQ reported a net loss of $177.5 million and an adjusted EBITDA loss of $36.5 million for the quarter. Despite being in the red, IonQ now commands one of the strongest balance sheets in the quantum sector, closing a $1 billion equity investment, priced at a premium that boosted its pro forma cash position to $1.6 billion as of July 2025. This war chest gives the company ample runway to execute on its roadmap, including integrating Oxford Ionics ion trap on a chip technology and scaling toward 800 logical qubits by 2027 and 80,000 by 2030. With acquisitions like Lightsynq and Capella expanding its reach into photonic interconnects and space based quantum key distribution, IonQ is positioning itself to lead the next leap in computing power while fortifying its role in the future quantum Internet. Rigetti Rigetti Computings second quarter 2025 revenues reflected sequential growth but declined year over year due to the expiration of the U.S. National Quantum Initiative and delays in its reauthorization. Gross margin narrowed to 31% from 64% a year earlier, primarily due to revenue mix and lower margin development contracts. The company incurred an operating loss and a net loss in the quarter, the latter impacted by non cash losses tied to changes in derivative warrant and earn out liabilities. Management reiterated that hitting technology milestones remains central to its long term profitability path, with Quantum Advantage targeted in roughly four years through scaling qubit counts, improving gate fidelity and advancing error correction. On a positive note, the companys balance sheet is notably fortified, following the completion of a $350 million equity raise during the quarter, bringing total cash, cash equivalents and available for sale investments to $571.6 million as of June 30, 2025, with no debt. This sizable war chest provides ample runway to fund R&amp;D, scale commercial operations and potentially pursue strategic collaborations or acquisitions. Rigetti intends to leverage its proprietary chiplet based superconducting qubit technology to reach a 100 plus qubit system with 99.5% median two qubit gate fidelity by year end 2025, an important step on the roadmap toward fault tolerance and eventual commercial grade quantum computing profitability. Conclusion Taken together, revenues are rising and technology is advancing, but cash burn is heavy and profitability is far off for these three stocks. In this race, massive cash reserves are the fuel, and the first one to deliver scalable, commercially viable quantum systems will be the winner. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report AstraZeneca PLC (AZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report IonQ, Inc. (IONQ): Free Stock Analysis Report Rigetti Computing, Inc. (RGTI): Free Stock Analysis Report D Wave Quantum Inc. (QBTS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45884.54097222222</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Nvidia, AMD Price Targets Raised As AI Demand Keeps Roaring</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-price-targets-raised-165957508.html</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45884.54027777778</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Nvidia CEO Jensen Huang Cashes In as Stock Runs Hot</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-ceo-jensen-huang-cashes-165832406.html</t>
+        </is>
+      </c>
+      <c r="E133" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45884.52013888889</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Iren Limited: An AI, Crypto and Cloud Computing Stock</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142162/iren-limited-an-ai-crypto-and-cloud-computing-stock</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Every so often, I come across a stock in my research that checks nearly every box I look for: innovation, growth, strong fundamentals, and technical momentum. Iren Limited (IREN) is one of those rare finds. The company sits at the intersection of three of the most exciting technology trends, artificial intelligence, cryptocurrency, and cloud computing, while also boasting a top Zacks Rank, a reasonable valuation, and strong price momentum.
+While 2025 has been volatile for the stock, IREN has proven resilient, climbing an impressive 93% year-to-date. The recent price action suggests a period of healthy consolidation, setting the stage for a potential breakout to new highs.
+Iren Limited operates next-generation, vertically integrated data centers built for AI, crypto mining, and high-performance cloud workloads entirely powered by renewable energy. Founded in 2018 and headquartered in Sydney, Iren operates large-scale, grid-connected facilities across North America, delivering scalable, energy efficient compute infrastructure in the rapidly growing AI and blockchain space.
+While stocks like Nvidia (NVDA) and Vertiv (VRT) are well known ways to invest in the AI space, these companies are mammoth compared to Iren. For investors looking to play the trend in a considerably smaller market cap than Nvidia and Vertiv, Iren Limited may be worth considering.
+Image Source: Zacks Investment ResearchShares of IREN Appear Fundamentally Robust
+Iren Limited has a lot going for it from a fundamental perspective. Over the past two months, analysts have made substantial upward revisions to the company’s earnings forecasts. Current quarter estimates have been raised by 31%, while FY25 projections have surged 134%, earning the stock a Zacks Rank #2 (Buy) rating.
+Revenue growth expectations are equally impressive. Sales are projected to soar 173% this year to roughly $515 million, and then climb another 86% next year to approach $960 million. This pace of expansion underscores the company’s ability to capitalize on its positioning in AI, crypto, and cloud computing.
+Even with such explosive growth on the horizon, IREN trades at a forward earnings multiple of just 16.6x, a valuation that looks very attractive given its momentum, earnings revisions, and sector tailwinds.
+Image Source: Zacks Investment ResearchIren Limited Stock Poised to Break Out
+The technical setup for IREN is extremely compelling. After a powerful rally off its April lows, climbing more than 250%, the stock has spent the past six weeks forming a large, orderly consolidation pattern. This kind of pause often serves as the launchpad for the next leg higher in a strong trend.
+Currently, shares are hovering just beneath a key resistance level around $19.15. A decisive move and close above that threshold would confirm a technical breakout, potentially triggering fresh momentum buying and fueling another major bull run. With the stock’s strong underlying trend and favorable fundamental backdrop, a breakout could set the stage for significant upside in the weeks ahead.
+Image Source: TradingViewShould Investors Buy Shares in IREN?
+In a market where giants like Nvidia and Vertiv dominate the AI and data center headlines, Iren Limited offers a smaller, faster-growing player with explosive upside potential. Its unique combination of renewable powered, high-performance compute infrastructure positions it to capture growth across AI, crypto, and cloud computing without the valuation premium of its larger peers.
+With upward trending earnings revisions, massive projected revenue growth, a reasonable valuation, and a textbook technical setup on the verge of a breakout, IREN is emerging as a high conviction idea for growth-oriented investors. If the stock can push through resistance, the next leg higher could be substantial.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+NVIDIA Corporation (NVDA): Free Stock Analysis Report Vertiv Holdings Co. (VRT): Free Stock Analysis Report IREN Limited (IREN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Every so often, I come across a stock in my research that checks nearly every box I look for: innovation, growth, strong fundamentals, and technical momentum. Iren Limited (IREN) is one of those rare finds. The company sits at the intersection of three of the most exciting technology trends, artificial intelligence, cryptocurrency, and cloud computing, while also boasting a top Zacks Rank, a reasonable valuation, and strong price momentum. While 2025 has been volatile for the stock, IREN has proven resilient, climbing an impressive 93% year to date. The recent price action suggests a period of healthy consolidation, setting the stage for a potential breakout to new highs. Iren Limited operates next generation, vertically integrated data centers built for AI, crypto mining, and high performance cloud workloads entirely powered by renewable energy. Founded in 2018 and headquartered in Sydney, Iren operates large scale, grid connected facilities across North America, delivering scalable, energy efficient compute infrastructure in the rapidly growing AI and blockchain space. While stocks like Nvidia (NVDA) and Vertiv (VRT) are well known ways to invest in the AI space, these companies are mammoth compared to Iren. For investors looking to play the trend in a considerably smaller market cap than Nvidia and Vertiv, Iren Limited may be worth considering. Image Source: Zacks Investment ResearchShares of IREN Appear Fundamentally Robust Iren Limited has a lot going for it from a fundamental perspective. Over the past two months, analysts have made substantial upward revisions to the companys earnings forecasts. Current quarter estimates have been raised by 31%, while FY25 projections have surged 134%, earning the stock a Zacks Rank #2 (Buy) rating. Revenue growth expectations are equally impressive. Sales are projected to soar 173% this year to roughly $515 million, and then climb another 86% next year to approach $960 million. This pace of expansion underscores the companys ability to capitalize on its positioning in AI, crypto, and cloud computing. Even with such explosive growth on the horizon, IREN trades at a forward earnings multiple of just 16.6x, a valuation that looks very attractive given its momentum, earnings revisions, and sector tailwinds. Image Source: Zacks Investment ResearchIren Limited Stock Poised to Break Out The technical setup for IREN is extremely compelling. After a powerful rally off its April lows, climbing more than 250%, the stock has spent the past six weeks forming a large, orderly consolidation pattern. This kind of pause often serves as the launchpad for the next leg higher in a strong trend. Currently, shares are hovering just beneath a key resistance level around $19.15. A decisive move and close above that threshold would confirm a technical breakout, potentially triggering fresh momentum buying and fueling another major bull run. With the stocks strong underlying trend and favorable fundamental backdrop, a breakout could set the stage for significant upside in the weeks ahead. Image Source: TradingViewShould Investors Buy Shares in IREN? In a market where giants like Nvidia and Vertiv dominate the AI and data center headlines, Iren Limited offers a smaller, faster growing player with explosive upside potential. Its unique combination of renewable powered, high performance compute infrastructure positions it to capture growth across AI, crypto, and cloud computing without the valuation premium of its larger peers. With upward trending earnings revisions, massive projected revenue growth, a reasonable valuation, and a textbook technical setup on the verge of a breakout, IREN is emerging as a high conviction idea for growth oriented investors. If the stock can push through resistance, the next leg higher could be substantial. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report NVIDIA Corporation (NVDA): Free Stock Analysis Report Vertiv Holdings Co. (VRT): Free Stock Analysis Report IREN Limited (IREN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45884.51875</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Trump Aides Create Loyalty List Ranking Corporations by Support</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/trump-aides-create-loyalty-list-162746725.html</t>
+        </is>
+      </c>
+      <c r="E135" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45884.50347222222</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Politics Beats the Market in Trump's Pay-for-Play Chip Scheme</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/politics-beats-the-market-in-trumps-pay-for-play-chip-scheme-f57ef41d?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45884.50347222222</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Intel's Move Toward Nationalization Won't Work-at Least for the Long Haul</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.wsj.com/tech/intels-move-toward-nationalization-wont-workat-least-for-the-long-haul-de403b16?mod=wsj_FV</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45884.48611111111</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>The Zacks Analyst Blog Highlights Intel, NVIDIA, AMD and Cadence Design Systems</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142097/the-zacks-analyst-blog-highlights-intel-nvidia-amd-and-cadence-design-systems</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Chicago, IL – August 15, 2025 – Zacks.com announces the list of stocks featured in the Analyst Blog. Every day the Zacks Equity Research analysts discuss the latest news and events impacting stocks and the financial markets. Stocks recently featured in the blog include: Intel Corp. INTC, NVIDIA Corp. NVDA, Advanced Micro Devices, Inc. AMD and Cadence Design Systems, Inc. CDNS.
+Here are highlights from Thursday’s Analyst Blog:
+Intel Corp. has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corp. and Advanced Micro Devices, Inc. in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trump's inconsistent stance on Intel CEO has drawn investors' interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Let's see –
+Last month, Cadence Design Systems, Inc. acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intel's current CEO, Lip-Bu Tan, was leading Cadence.
+Trump learned of Cotton's letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cotton's letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals.
+In reaction, Trump commended Tan's achievements, referring to his success and ascent as an "amazing story." Trump also endorsed Tan's leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Let's not forget, Tan is a well-known venture capitalist, respected for his expertise in the semiconductor industry.
+Intel's business has been struggling for quite some time. Despite Tan's initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year-ago levels.
+Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. It's worse than the $2.8 billion loss that the segment posted a year ago.
+Intel's gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short-term investments accounted for only $21.2 billion.
+However, under Tan's strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio.
+Intel is planning to provide a full-stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node.
+While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the company's business. In time, the semiconductor giant has the potential to regain its former glory.
+Trump's support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intel's price-to-book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future.
+However, new investors should remain passive and watch for meaningful progress. This is because it's too early to predict the potential success of Tan's initiatives, and Intel's financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of today's Zacks Rank #1 (Strong Buy) stocks here.
+Free: Instant Access to Zacks' Market-Crushing Strategies
+Since 2000, our top stock-picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year.
+Today you can tap into those powerful strategies – and the high-potential stocks they uncover – free. No strings attached.
+Get all the details here &gt;&gt;
+Media Contact
+Zacks Investment Research
+800-767-3771 ext. 9339
+https://www.zacks.com
+Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit https://www.zacks.com/performance for information about the performance numbers displayed in this press release.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+This article originally published on Zacks Investment Research (zacks.com).
+| 1 hour | |
+| 6 hours | |
+| 6 hours | |
+| 7 hours | |
+| 7 hours | |
+| 7 hours | |
+| 7 hours | |
+| 8 hours | |
+| 8 hours | |
+| 8 hours | |
+| 9 hours | |
+| 9 hours | |
+| 9 hours | |
+| 9 hours | |
+| 10 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Chicago, IL August 15, 2025 Zacks.com announces the list of stocks featured in the Analyst Blog. Every day the Zacks Equity Research analysts discuss the latest news and events impacting stocks and the financial markets. Stocks recently featured in the blog include: Intel Corp. INTC, NVIDIA Corp. NVDA, Advanced Micro Devices, Inc. AMD and Cadence Design Systems, Inc. CDNS. Here are highlights from Thursdays Analyst Blog: Intel Corp. has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corp. and Advanced Micro Devices, Inc. in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trump's inconsistent stance on Intel CEO has drawn investors' interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Let's see Last month, Cadence Design Systems, Inc. acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intel's current CEO, Lip Bu Tan, was leading Cadence. Trump learned of Cotton's letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cotton's letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals. In reaction, Trump commended Tan's achievements, referring to his success and ascent as an "amazing story." Trump also endorsed Tan's leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Let's not forget, Tan is a well known venture capitalist, respected for his expertise in the semiconductor industry. Intel's business has been struggling for quite some time. Despite Tan's initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year ago levels. Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. It's worse than the $2.8 billion loss that the segment posted a year ago. Intel's gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short term investments accounted for only $21.2 billion. However, under Tan's strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio. Intel is planning to provide a full stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node. While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the company's business. In time, the semiconductor giant has the potential to regain its former glory. Trump's support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intel's price to book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future. However, new investors should remain passive and watch for meaningful progress. This is because it's too early to predict the potential success of Tan's initiatives, and Intel's financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of today's Zacks Rank #1 (Strong Buy) stocks here. Free: Instant Access to Zacks' Market Crushing Strategies Since 2000, our top stock picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year. Today you can tap into those powerful strategies and the high potential stocks they uncover free. No strings attached. Get all the details here &gt;&gt; Media Contact Zacks Investment Research 800 767 3771 ext. 9339 Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit for information about the performance numbers displayed in this press release. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report This article originally published on Zacks Investment Research (zacks.com). 1 hour 6 hours 6 hours 7 hours 7 hours 7 hours 7 hours 8 hours 8 hours 8 hours 9 hours 9 hours 9 hours 9 hours 10 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45884.47916666666</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>China is Pushing Back Against Biggest Firms Using Nvidia Chips Despite Trump Clearing H20 AI Chips for Export</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/0a04f585-44f3-32cd-ac0a-41894f4d485f/china-is-pushing-back-against.html</t>
+        </is>
+      </c>
+      <c r="E139" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45884.46944444445</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>What AMD and Nvidia Shareholders Should Know About Recent China Updates</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142031/what-amd-and-nvidia-shareholders-should-know-about-recent-china-updates</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA) and Advanced Micro Devices (NASDAQ: AMD). To learn more, check out the short video, consider subscribing, and click the special offer link below.
+*Stock prices used were the after-market prices of Aug. 12, 2025. The video was published on Aug. 12, 2025.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Jose Najarro has positions in Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA) and Advanced Micro Devices (NASDAQ: AMD). To learn more, check out the short video, consider subscribing, and click the special offer link below. Stock prices used were the after market prices of Aug. 12, 2025. The video was published on Aug. 12, 2025. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Jose Najarro has positions in Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45884.46180555555</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Lee Ainslie's Strategic Moves: A Closer Look at The Walt Disney Co's 2.81% Portfolio Impact</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/lee-ainslies-strategic-moves-closer-150531631.html</t>
+        </is>
+      </c>
+      <c r="E141" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45884.45763888889</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Zacks Investment Ideas feature highlights: Fabrinet, Nvidia and Amazon</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142053/zacks-investment-ideas-feature-highlights-fabrinet-nvidia-and-amazon</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>For Immediate Release
+Chicago, IL – August 15, 2025– Today, Zacks Investment Ideas feature highlights Fabrinet FN, Nvidia NVDA and Amazon AMZN.
+Buy This Soaring Tech Stock Before Earnings for AI Growth
+Fabrinet stock has skyrocketed 95% since early April to trade at all-time highs heading into its fourth-quarter fiscal 2025 earnings release on Monday, August 18.
+FN helps big tech companies, including Nvidia, by making small, precision parts used across AI data centers, telecom, and beyond. Artificial intelligence powerhouse Nvidia is one of Fabrinet's largest clients, and it's growing its relationship with Amazon.
+The leading provider of advanced optical packaging tripled the Tech sector over the last 15 years as Wall Street gravitated toward Fabrinet's steady top-line growth in a critical, behind-the-scenes industry.
+The Bull Case for Under-the-Radar Tech Stock FN
+Fabrinet's portfolio enables other tech companies to make the small, complex parts they need for their products. In technical terms, FN is a leader in advanced optical packaging and precision optical, electro-mechanical, and electronic manufacturing services for original equipment manufacturers of complex products.
+More broadly, FN is a behind-the-scenes technology standout growing more critical by the day as AI hyperscalers and others race to build more data centers. For instance, some of Fabrinet's technologies play critical roles in sending information at lightning speeds in data centers, enabling AI programs to run smoothly.
+The company said earlier this year that demand for its datacenter interconnect products is strong and it's confident in the long-term upside across Fabrinet's datacom segment. FN averaged 13% revenue growth in the past five years. More importantly, its GAAP earnings exploded to the tune of 28% average expansion in the last four years.
+Nvidia is one of Fabrinet's largest clients, with the graphics chip powerhouse reportedly accounting for roughly 35% of Fabrinet's FY24 revenue. Fabrinet manufactures critical optical components and networking cables for NVIDIA's AI data center operations, including high-speed transceivers and interconnects used in AI clusters.
+Networking equipment giant Cisco Systems and optical components standout Lumentum are two of FN's other most important clients. On top of all that, Fabrinet and Amazon entered into an agreement in March for Amazon to buy warrants to purchase up to 381,922 shares of Fabrinet at $208.4826 per share. The deal incentivizes Fabrinet to deepen its role within Amazon's supply chain to help support the growth of AMZN's AI infrastructure.
+Fabrinet's direct connection to Nvidia and Amazon should help support long-term growth as both companies fuel the AI arms race. Plus, Fabrinet is a well-run company with a stellar balance sheet, holding more cash and equivalents ($951 million) than total liabilities ($712 million).
+Looking ahead, Fabrinet is projected to grow its FY25 (period ending in June 2025) revenue by 18% and 17% in FY26, reaching $3.95 billion—up from $2.88 billion in FY24.
+The company's consensus earnings estimates have jumped since its Q3 FY25 release, helping FN earn a Zacks Rank #2 (Buy). Fabrinet is expected to grow its adjusted earnings by 15% in FY25 and 18% in FY26.
+Buy Tech Stock FN Before Earnings, Or Wait for a Pullback?
+Fabrinet stock more than tripled the Zacks Tech sector over the last 15 years, soaring 2,660%. This run includes a 1,650% charge over the past 10 years to blow away Tech's 375% and Amazon's 745%.
+The stock has soared alongside the market, charging nearly 100% higher off its April lows to trade right near its recent peaks. The run took Fabrinet from some of its most oversold RSI levels over the past decade to some of its most overbought.
+FN appears rather overheated in the short run and due to possibly test its 21-week moving average. The stock is also trading at an all-time high at 32X forward 12-month earnings.
+This backdrop means that some investors might want to wait for Fabrinet's next pullback before they buy the behind-the-scenes AI stock. Others could decide to dive in as the bulls drive the stock market higher, and buy more FN stock the next time it fades.
+Free: Instant Access to Zacks' Market-Crushing Strategies
+Since 2000, our top stock-picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year.
+Today you can tap into those powerful strategies – and the high-potential stocks they uncover – free. No strings attached.
+Get all the details here &gt;&gt;
+Media Contact
+Zacks Investment Research
+800-767-3771 ext. 9339
+[email protected]
+https://www.zacks.com
+Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit https://www.zacks.com/performancefor information about the performance numbers displayed in this press release.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Amazon.com, Inc. (AMZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Fabrinet (FN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>For Immediate Release Chicago, IL August 15, 2025 Today, Zacks Investment Ideas feature highlights Fabrinet FN, Nvidia NVDA and Amazon AMZN. Buy This Soaring Tech Stock Before Earnings for AI Growth Fabrinet stock has skyrocketed 95% since early April to trade at all time highs heading into its fourth quarter fiscal 2025 earnings release on Monday, August 18. FN helps big tech companies, including Nvidia, by making small, precision parts used across AI data centers, telecom, and beyond. Artificial intelligence powerhouse Nvidia is one of Fabrinet's largest clients, and it's growing its relationship with Amazon. The leading provider of advanced optical packaging tripled the Tech sector over the last 15 years as Wall Street gravitated toward Fabrinet's steady top line growth in a critical, behind the scenes industry. The Bull Case for Under the Radar Tech Stock FN Fabrinet's portfolio enables other tech companies to make the small, complex parts they need for their products. In technical terms, FN is a leader in advanced optical packaging and precision optical, electro mechanical, and electronic manufacturing services for original equipment manufacturers of complex products. More broadly, FN is a behind the scenes technology standout growing more critical by the day as AI hyperscalers and others race to build more data centers. For instance, some of Fabrinet's technologies play critical roles in sending information at lightning speeds in data centers, enabling AI programs to run smoothly. The company said earlier this year that demand for its datacenter interconnect products is strong and it's confident in the long term upside across Fabrinet's datacom segment. FN averaged 13% revenue growth in the past five years. More importantly, its GAAP earnings exploded to the tune of 28% average expansion in the last four years. Nvidia is one of Fabrinet's largest clients, with the graphics chip powerhouse reportedly accounting for roughly 35% of Fabrinet's FY24 revenue. Fabrinet manufactures critical optical components and networking cables for NVIDIA's AI data center operations, including high speed transceivers and interconnects used in AI clusters. Networking equipment giant Cisco Systems and optical components standout Lumentum are two of FN's other most important clients. On top of all that, Fabrinet and Amazon entered into an agreement in March for Amazon to buy warrants to purchase up to 381,922 shares of Fabrinet at $208.4826 per share. The deal incentivizes Fabrinet to deepen its role within Amazon's supply chain to help support the growth of AMZN's AI infrastructure. Fabrinet's direct connection to Nvidia and Amazon should help support long term growth as both companies fuel the AI arms race. Plus, Fabrinet is a well run company with a stellar balance sheet, holding more cash and equivalents ($951 million) than total liabilities ($712 million). Looking ahead, Fabrinet is projected to grow its FY25 (period ending in June 2025) revenue by 18% and 17% in FY26, reaching $3.95 billionup from $2.88 billion in FY24. The company's consensus earnings estimates have jumped since its Q3 FY25 release, helping FN earn a Zacks Rank #2 (Buy). Fabrinet is expected to grow its adjusted earnings by 15% in FY25 and 18% in FY26. Buy Tech Stock FN Before Earnings, Or Wait for a Pullback? Fabrinet stock more than tripled the Zacks Tech sector over the last 15 years, soaring 2,660%. This run includes a 1,650% charge over the past 10 years to blow away Tech's 375% and Amazon's 745%. The stock has soared alongside the market, charging nearly 100% higher off its April lows to trade right near its recent peaks. The run took Fabrinet from some of its most oversold RSI levels over the past decade to some of its most overbought. FN appears rather overheated in the short run and due to possibly test its 21 week moving average. The stock is also trading at an all time high at 32X forward 12 month earnings. This backdrop means that some investors might want to wait for Fabrinet's next pullback before they buy the behind the scenes AI stock. Others could decide to dive in as the bulls drive the stock market higher, and buy more FN stock the next time it fades. Free: Instant Access to Zacks' Market Crushing Strategies Since 2000, our top stock picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year. Today you can tap into those powerful strategies and the high potential stocks they uncover free. No strings attached. Get all the details here &gt;&gt; Media Contact Zacks Investment Research 800 767 3771 ext. 9339 [email protected] Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit information about the performance numbers displayed in this press release. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report Amazon.com, Inc. (AMZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Fabrinet (FN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45884.45763888889</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Nvidia Slips Amid Chip Tariff Talk. Big Funds Are Piling Into the Stock.</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-slips-amid-chip-tariff.html</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45884.44027777778</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Why would Trump and Intel want to work together: Opening Bid top takeaway</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/why-would-trump-and-intel-want-to-work-together-opening-bid-top-takeaway-143409334.html</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45884.43958333333</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>A Trump Intel Stake Could Make National Security the New 'Too Big to Fail'</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/trump-intel-stake-too-big-fail-b66594d9?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45884.4375</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>BC-Most Active Stocks</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/bc-most-active-stocks-143017539.html</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45884.43680555555</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Trump Says Tariff Rate on Semiconductors Could Reach 300%. Nvidia and AMD Stocks Fall.</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/b679bc58-8e47-301a-a02f-a9a04f93cf32/trump-says-tariff-rate-on.html</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45884.4125</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Stutters. Big Funds Are Piling Into the AI Chip Maker.</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-stock-stutters.-big.html</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45884.40694444445</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Dow scales record high on hopes of Fed rate cuts, trade deals</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/dow-scales-record-high-hopes-134625792.html</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45884.37152777778</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Best semiconductor ETFs in 2025: Top chip companies for your portfolio</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/best-semiconductor-etfs-2025-top-125500125.html</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45884.36944444444</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>20 stocks in the S&amp;P 500 that are high achievers this earnings season</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.marketwatch.com/story/20-stocks-in-the-s-p-500-that-are-high-achievers-this-earnings-season-17b99522?mod=mw_FV</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45884.36805555555</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Best equal-weight index funds</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/best-equal-weight-index-funds-212855779.html</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45884.35416666666</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ProShares Launches First ETF to Target 2x Daily Returns of Nasdaq-100 Top 30 Index</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/proshares-launches-first-etf-target-123000712.html</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45884.34722222222</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Could Buying Nvidia Today Set You Up for Life?</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141764/could-buying-nvidia-today-set-you-up-for-life</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Key Points
+Nvidia is riding a massive wave of AI success.
+With its massive lead and a $2 trillion AI data center market still developing, there's likely more gains ahead for Nvidia's stock.
+But don't expect the same returns that Nvidia had over the past few years.
+The artificial intelligence (AI) boom that has occurred over the past few years has elevated chip designer Nvidia (NASDAQ: NVDA) from a good investment into an amazing one, as its share price spiked over 900%.
+With gains of that magnitude, it's logical to wonder whether Nvidia stock can keep the momentum going and set investors up for life, or if the stock has run its course. Here's why Nvidia is a hands-down fantastic stock to own, but why it's also unlikely to set you up for life at this point.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Nvidia still has room to run
+Many technology companies are chasing after AI glory right now, but Nvidia is one of the only companies that can benefit no matter who wins the AI race. Nvidia's processors lead the pack in AI data center market share -- with up to 95% by some estimates. This means that as large tech companies invest hundreds of billions of dollars into building AI data centers, Nvidia's processors are almost always chosen to go in them.
+That's resulted in mammoth-sized revenue gains for the company, including a 126% and 114% increase over the past two years. And there could be more growth on the way. Tech giants aren't finished investing in their AI infrastructure, and an estimated $2 trillion could be spent on AI data centers over the next four years.
+Nvidia is also expanding into related markets, including enterprise AI software, and could benefit from the burgeoning autonomous vehicle market, both of which could help extend its growth runway. Given the continued and large investments in AI by major tech companies and Nvidia's lead in providing semiconductors to them all, there isn't currently much to worry about concerning Nvidia's core business.
+But duplicating Nvidia's recent gains will be nearly impossible
+While Nvidia certainly has more room to continue selling its processors to tech companies as they build their AI infrastructure, at some point, this initial surge in spending will subside. We're already a few years into companies creating chatbots, AI agents, and other cloud-based AI tools. Like any new major tech trend, there's typically a first wave of big investments before an eventual tapering off.
+While no one knows when that will happen or to what extent, it likely means that Nvidia's astronomical gains over the past few years won't be replicated. The likelihood that Nvidia could continue doubling its sales for several more consecutive years at this point is unrealistic, given that its fiscal 2025 revenue was nearly $131 billion.
+For example, analysts' consensus estimate for Nvidia's sales growth for 2026 is 54% to $250 billion and 25% growth in 2027. That's still a very impressive revenue increase, but it's not anywhere near the recent growth Nvidia has experienced.
+It's also important to point out that Nvidia's rapid stock-price growth over the past few years means that its shares are likely priced for perfection. A sales or earnings miss at this point, even if it's not technically a bad quarter, could cause the stock to fall based on sky-high expectations.
+Nvidia probably won't set you up for life, but don't ignore it
+While Nvidia isn't likely to set you up for life if you buy the stock now, ignoring this AI leader would be a mistake. The company is still in a leading position in AI processors at a time when AI is still in the early innings.
+That's why buying the stock could still be a wise move. Just don't expect another 900% share-price gain over the next three years.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Chris Neiger has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Key Points Nvidia is riding a massive wave of AI success. With its massive lead and a $2 trillion AI data center market still developing, there's likely more gains ahead for Nvidia's stock. But don't expect the same returns that Nvidia had over the past few years. The artificial intelligence (AI) boom that has occurred over the past few years has elevated chip designer Nvidia (NASDAQ: NVDA) from a good investment into an amazing one, as its share price spiked over 900%. With gains of that magnitude, it's logical to wonder whether Nvidia stock can keep the momentum going and set investors up for life, or if the stock has run its course. Here's why Nvidia is a hands down fantastic stock to own, but why it's also unlikely to set you up for life at this point. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Nvidia still has room to run Many technology companies are chasing after AI glory right now, but Nvidia is one of the only companies that can benefit no matter who wins the AI race. Nvidia's processors lead the pack in AI data center market share with up to 95% by some estimates. This means that as large tech companies invest hundreds of billions of dollars into building AI data centers, Nvidia's processors are almost always chosen to go in them. That's resulted in mammoth sized revenue gains for the company, including a 126% and 114% increase over the past two years. And there could be more growth on the way. Tech giants aren't finished investing in their AI infrastructure, and an estimated $2 trillion could be spent on AI data centers over the next four years. Nvidia is also expanding into related markets, including enterprise AI software, and could benefit from the burgeoning autonomous vehicle market, both of which could help extend its growth runway. Given the continued and large investments in AI by major tech companies and Nvidia's lead in providing semiconductors to them all, there isn't currently much to worry about concerning Nvidia's core business. But duplicating Nvidia's recent gains will be nearly impossible While Nvidia certainly has more room to continue selling its processors to tech companies as they build their AI infrastructure, at some point, this initial surge in spending will subside. We're already a few years into companies creating chatbots, AI agents, and other cloud based AI tools. Like any new major tech trend, there's typically a first wave of big investments before an eventual tapering off. While no one knows when that will happen or to what extent, it likely means that Nvidia's astronomical gains over the past few years won't be replicated. The likelihood that Nvidia could continue doubling its sales for several more consecutive years at this point is unrealistic, given that its fiscal 2025 revenue was nearly $131 billion. For example, analysts' consensus estimate for Nvidia's sales growth for 2026 is 54% to $250 billion and 25% growth in 2027. That's still a very impressive revenue increase, but it's not anywhere near the recent growth Nvidia has experienced. It's also important to point out that Nvidia's rapid stock price growth over the past few years means that its shares are likely priced for perfection. A sales or earnings miss at this point, even if it's not technically a bad quarter, could cause the stock to fall based on sky high expectations. Nvidia probably won't set you up for life, but don't ignore it While Nvidia isn't likely to set you up for life if you buy the stock now, ignoring this AI leader would be a mistake. The company is still in a leading position in AI processors at a time when AI is still in the early innings. That's why buying the stock could still be a wise move. Just don't expect another 900% share price gain over the next three years. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Chris Neiger has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45884.33333333334</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>What AMD, CoreWeave, and Nvidia Stock Investors Should Know About Recent Updates</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141745/what-amd-coreweave-and-nvidia-stock-investors-should-know-about-recent-updates</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA), Advanced Micro Devices (NASDAQ: AMD), and CoreWeave (NASDAQ: CRWV). To learn more, check out the short video, consider subscribing, and click the special offer link below.
+*Stock prices used were the after-market prices of Aug. 13, 2025. The video was published on Aug. 13, 2025.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Jose Najarro has positions in Advanced Micro Devices, CoreWeave, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices and Nvidia. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA), Advanced Micro Devices (NASDAQ: AMD), and CoreWeave (NASDAQ: CRWV). To learn more, check out the short video, consider subscribing, and click the special offer link below. Stock prices used were the after market prices of Aug. 13, 2025. The video was published on Aug. 13, 2025. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Jose Najarro has positions in Advanced Micro Devices, CoreWeave, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices and Nvidia. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45884.29166666666</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>3 AI chip stocks that are best positioned right now</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/3-ai-chip-stocks-best-110017626.html</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45884.29166666666</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>These Were the 5 Biggest Companies in 2019, and Here Are the 5 Biggest Companies Now</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141703/these-were-the-5-biggest-companies-in-2019-and-here-are-the-5-biggest-companies-now</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Key Points
+The largest companies in 2019 represented a motley mix of tech, consumer, and financials.
+Four out of the five biggest companies today, though, are all tech giants.
+This shift reflects the changing global landscape and companies making breakthroughs.
+Businesses evolve with global trends, technological advancements, and shifts in consumer preferences. The change is sometimes so rapid that it takes only a few years for emerging companies to become global titans.
+That's what happened between 2019 and now. While some corporate giants have retained their positions as the largest companies, one company that wasn't even in the top 20 in 2019 has catapulted to the top spot today.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+The five biggest companies in 2019
+| Company |
+Market capitalization (03/31/2019) |
+|
+Microsoft (NASDAQ: MSFT)
+|
+$905 billion |
+|
+Apple (NASDAQ: AAPL)
+|
+$896 billion |
+|
+Amazon (NASDAQ: AMZN)
+|
+$875 billion |
+|
+Alphabet (NASDAQ: GOOG)(NASDAQ: GOOGL)
+|
+$817 billion |
+|
+Berkshire Hathaway (NYSE: BRK.A)(NYSE: BRK.B)
+|
+$494 billion |
+Data source: PricewaterhouseCoopers (PwC) global top 100 companies report, 2019.
+Tech evidently ruled in 2019, but the tech supremacy that the world has witnessed since has been nothing short of spectacular. Artificial intelligence (AI) has rocked the world, with one company absolutely crushing it.
+The five biggest companies in 2025
+| Company |
+Market capitalization (08/13/2025) |
+|
+Nvidia (NASDAQ: NVDA)
+|
+$4.43 trillion |
+| Microsoft |
+$3.89 trillion |
+| Apple |
+$3.46 trillion |
+| Alphabet |
+$2.44 trillion |
+| Amazon |
+$2.39 trillion |
+Data source: Yahoo! Finance.
+Apple's flagship iPhones, high-margin services segment, and diversification into wearables have added tremendous value to its business since 2019.
+Amazon's growth since 2019, meanwhile, has been driven by its leadership in e-commerce and aggressive expansion of cloud services through Amazon Web Services (AWS). AWS is the world's largest cloud computing platform today.
+Cloud has also been a key growth driver for Alphabet and Microsoft since 2019. Yet, none of these companies have achieved what Nvidia has in six years.
+NVDA Market Cap data by YCharts
+Nvidia's unstoppable growth in AI has pushed its market cap by 4,000% since 2019 to over $4 trillion. That makes Nvidia the world's most valuable company today.
+In the world of investing, tracking the largest companies isn't just about market capitalization, though. It reveals the dynamic forces shaping global markets, and which companies are positioning themselves to stay relevant in the long run.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Neha Chamaria has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Berkshire Hathaway, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Key Points The largest companies in 2019 represented a motley mix of tech, consumer, and financials. Four out of the five biggest companies today, though, are all tech giants. This shift reflects the changing global landscape and companies making breakthroughs. Businesses evolve with global trends, technological advancements, and shifts in consumer preferences. The change is sometimes so rapid that it takes only a few years for emerging companies to become global titans. That's what happened between 2019 and now. While some corporate giants have retained their positions as the largest companies, one company that wasn't even in the top 20 in 2019 has catapulted to the top spot today. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. The five biggest companies in 2019 Company Market capitalization (03/31/2019) Microsoft (NASDAQ: MSFT) $905 billion Apple (NASDAQ: AAPL) $896 billion Amazon (NASDAQ: AMZN) $875 billion Alphabet (NASDAQ: GOOG)(NASDAQ: GOOGL) $817 billion Berkshire Hathaway (NYSE: BRK.A)(NYSE: BRK.B) $494 billion Data source: PricewaterhouseCoopers (PwC) global top 100 companies report, 2019. Tech evidently ruled in 2019, but the tech supremacy that the world has witnessed since has been nothing short of spectacular. Artificial intelligence (AI) has rocked the world, with one company absolutely crushing it. The five biggest companies in 2025 Company Market capitalization (08/13/2025) Nvidia (NASDAQ: NVDA) $4.43 trillion Microsoft $3.89 trillion Apple $3.46 trillion Alphabet $2.44 trillion Amazon $2.39 trillion Data source: Yahoo! Finance. Apple's flagship iPhones, high margin services segment, and diversification into wearables have added tremendous value to its business since 2019. Amazon's growth since 2019, meanwhile, has been driven by its leadership in e commerce and aggressive expansion of cloud services through Amazon Web Services (AWS). AWS is the world's largest cloud computing platform today. Cloud has also been a key growth driver for Alphabet and Microsoft since 2019. Yet, none of these companies have achieved what Nvidia has in six years. NVDA Market Cap data by YCharts Nvidia's unstoppable growth in AI has pushed its market cap by 4,000% since 2019 to over $4 trillion. That makes Nvidia the world's most valuable company today. In the world of investing, tracking the largest companies isn't just about market capitalization, though. It reveals the dynamic forces shaping global markets, and which companies are positioning themselves to stay relevant in the long run. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Neha Chamaria has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Berkshire Hathaway, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45884.25208333333</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Analysis-Trump's attack on Goldman could prompt watering down of Wall Street's independent analysis</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/analysis-trumps-attack-goldman-could-100301764.html</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45884.25</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Can megacaps keep rising? Here's what valuation metrics tell us</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/megacaps-keep-rising-heres-valuation-100019975.html</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45884.22916666666</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>AI Exacerbates Tech Divide With Smaller Stocks Languishing</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/ai-exacerbates-tech-divide-smaller-093000902.html</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45884.22708333333</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>CoreWeave IPO Investors Sitting on Big Gains Get Chance to Sell</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/coreweave-ipo-investors-sitting-big-092712253.html</t>
+        </is>
+      </c>
+      <c r="E161" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45884.21666666667</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Taiwan raises 2025 GDP growth forecast, cautious about 2026 outlook on US tariffs</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/taiwan-raises-2025-gdp-growth-091247191.html</t>
+        </is>
+      </c>
+      <c r="E162" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45884.21458333333</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Wavers. Big Funds Are Piling Into the AI Chip Maker.</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/nvidia-stock-price-soros-ai-aebccfaf?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45884.17291666667</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Where Will Navitas Semiconductor Stock Be in 3 Years?</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141527/where-will-navitas-semiconductor-stock-be-in-3-years</t>
+        </is>
+      </c>
+      <c r="E164" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Navitas’ stock trades about 70% below its all-time high.
+It faces challenging macro headwinds.
+Its stock looks expensive relative to its growth potential.
+Navitas Semiconductor (NASDAQ: NVTS), a producer of gallium nitride (GaN) and silicon carbide (SiC) chips, took its investors on a wild ride after it went public by merging with a special purpose acquisition company (SPAC) on Oct. 21, 2021. Its stock opened at $13, soared to a record high of $22.19 a month later, but sank to an all-time low of $1.52 on April 4, 2025. Like many other SPAC-backed start-ups, Navitas disappointed its investors by missing its own growth forecasts and racking up steep losses.
+Today, Navitas' stock trades just above $7 a share. It bounced back as its new AI data center partnership with Nvidia (NASDAQ: NVDA) attracted a stampede of bulls and squeezed out the bears. But could Navitas' stock generate even bigger gains and set fresh highs over the next three years?
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+GaN and SiC power chips are faster, more power-efficient, and can operate at higher temperatures and voltages than traditional silicon chips. That makes them well-suited for mobile fast chargers, electric vehicle (EV) chargers, laptop adapters, data center power supplies, solar inverters, industrial motor drives, and energy storage solutions.
+Navitas generates most of its revenue from its GaNFast Power ICs, which bundle together switching, sensing, control, and security features on a single chip. It expanded into the SiC market through its acquisition of GeneSiC, which mainly supplies SiC power chips for the EV and data center markets, in 2022. Its major customers now include Dell Technologies (NYSE: DELL), which uses GaN/SiC chips in its laptop chargers; the Chinese automaker Changan, which uses its GaN ICs in its on-board EV chargers; and Nvidia, which selected its 800 V HVDC architecture to support its AI workloads at its data centers earlier this year.
+Navitas is a fabless chipmaker that outsources its manufacturing to third-party foundries. That capital-light model enables it to focus on developing new chips instead of spending a lot of money on upgrading its plants. That sets it apart from Wolfspeed (NYSE: WOLF), the SiC and GaN chipmaker, which filed for bankruptcy this June after failing to balance the costs of running its own foundries with its soaring debt levels.
+Before Navitas went public, it claimed it would grow its annual revenue from $12 million in 2020 to $308 million in 2024. It also expected to achieve a positive adjusted earnings before interest, taxes, depreciation, and amortization (EBITDA) by 2023. But here's what actually happened over the past three years.
+|
+Metric |
+2022 |
+2023 |
+2024 |
+|---|---|---|---|
+|
+Revenue |
+$37.9 million |
+$79.5 million |
+$83.3 million |
+|
+Revenue Growth |
+60% |
+109% |
+5% |
+|
+Adjusted EBITDA |
+($32.9 million) |
+($19.3 million) |
+($27.8 million) |
+Data source: Navitas, Marketscreener.
+In 2024, Navitas' growth stalled out as the macro headwinds disrupted its orders from its EV, solar, and industrial customers. It also ended a key distribution deal for its SiC products, and it generated more sales from its lower-margin GaN chips instead of its higher-margin SiC chips. That pressure, along with its rising R&amp;D expenses, caused it to remain deeply unprofitable on a generally accepted accounting principles (GAAP) basis as its adjusted EBITDA stayed negative.
+Over the next few years, Navitas' data center deal with Nvidia -- which will be ramped up in 2026 and expanded in 2027 -- could significantly boost its revenue. It should also benefit from the growing adoption of GaN and SiC chips in EV chargers, laptop chargers, and other electronic devices. However, the tariffs against China and its intentional retreat from its lower-margin (but higher revenue) mobile markets could offset those tailwinds and throttle its overall growth.
+Based on those expectations, analysts expect Navitas' revenue to grow at a CAGR of 7% from 2024 to 2027 -- but its adjusted EBITDA should stay negative by the final year. And with an enterprise value of $1.27 billion, it still looks expensive at 26 times this year's sales.
+Navitas' valuations are likely being inflated by its deal with Nvidia. Expectations for lower interest rates are amplifying those gains by driving more investors toward speculative stocks again. Those higher valuations could cap its gains over the next three years.
+If Navitas matches analysts' expectations, grows its revenue by another 7% in 2028, and trades at a more reasonable 10 times its forward sales, its stock price would actually decline 7% to roughly $6.10 and reduce its enterprise value to $1.1 billion. Therefore, its stock could underperform the market until it stabilizes its core businesses. But over the long term, Navitas could still be a good long-term play on GaN and SiC chips as they displace traditional silicon chips.
+Before you buy stock in Navitas Semiconductor, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Navitas Semiconductor wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Leo Sun has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool recommends Wolfspeed. The Motley Fool has a disclosure policy.
+| 1 hour | |
+| 6 hours | |
+| 6 hours | |
+| 7 hours | |
+| 7 hours | |
+| 7 hours | |
+| 8 hours | |
+| 8 hours | |
+| 9 hours | |
+| 9 hours | |
+| 9 hours | |
+| 9 hours | |
+| 11 hours | |
+| 13 hours | |
+| 13 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Navitas stock trades about 70% below its all time high. It faces challenging macro headwinds. Its stock looks expensive relative to its growth potential. Navitas Semiconductor (NASDAQ: NVTS), a producer of gallium nitride (GaN) and silicon carbide (SiC) chips, took its investors on a wild ride after it went public by merging with a special purpose acquisition company (SPAC) on Oct. 21, 2021. Its stock opened at $13, soared to a record high of $22.19 a month later, but sank to an all time low of $1.52 on April 4, 2025. Like many other SPAC backed start ups, Navitas disappointed its investors by missing its own growth forecasts and racking up steep losses. Today, Navitas' stock trades just above $7 a share. It bounced back as its new AI data center partnership with Nvidia (NASDAQ: NVDA) attracted a stampede of bulls and squeezed out the bears. But could Navitas' stock generate even bigger gains and set fresh highs over the next three years? Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. GaN and SiC power chips are faster, more power efficient, and can operate at higher temperatures and voltages than traditional silicon chips. That makes them well suited for mobile fast chargers, electric vehicle (EV) chargers, laptop adapters, data center power supplies, solar inverters, industrial motor drives, and energy storage solutions. Navitas generates most of its revenue from its GaNFast Power ICs, which bundle together switching, sensing, control, and security features on a single chip. It expanded into the SiC market through its acquisition of GeneSiC, which mainly supplies SiC power chips for the EV and data center markets, in 2022. Its major customers now include Dell Technologies (NYSE: DELL), which uses GaN/SiC chips in its laptop chargers; the Chinese automaker Changan, which uses its GaN ICs in its on board EV chargers; and Nvidia, which selected its 800 V HVDC architecture to support its AI workloads at its data centers earlier this year. Navitas is a fabless chipmaker that outsources its manufacturing to third party foundries. That capital light model enables it to focus on developing new chips instead of spending a lot of money on upgrading its plants. That sets it apart from Wolfspeed (NYSE: WOLF), the SiC and GaN chipmaker, which filed for bankruptcy this June after failing to balance the costs of running its own foundries with its soaring debt levels. Before Navitas went public, it claimed it would grow its annual revenue from $12 million in 2020 to $308 million in 2024. It also expected to achieve a positive adjusted earnings before interest, taxes, depreciation, and amortization (EBITDA) by 2023. But here's what actually happened over the past three years. Metric 2022 2023 2024 Revenue $37.9 million $79.5 million $83.3 million Revenue Growth 60% 109% 5% Adjusted EBITDA ($32.9 million) ($19.3 million) ($27.8 million) Data source: Navitas, Marketscreener. In 2024, Navitas' growth stalled out as the macro headwinds disrupted its orders from its EV, solar, and industrial customers. It also ended a key distribution deal for its SiC products, and it generated more sales from its lower margin GaN chips instead of its higher margin SiC chips. That pressure, along with its rising R&amp;D expenses, caused it to remain deeply unprofitable on a generally accepted accounting principles (GAAP) basis as its adjusted EBITDA stayed negative. Over the next few years, Navitas' data center deal with Nvidia which will be ramped up in 2026 and expanded in 2027 could significantly boost its revenue. It should also benefit from the growing adoption of GaN and SiC chips in EV chargers, laptop chargers, and other electronic devices. However, the tariffs against China and its intentional retreat from its lower margin (but higher revenue) mobile markets could offset those tailwinds and throttle its overall growth. Based on those expectations, analysts expect Navitas' revenue to grow at a CAGR of 7% from 2024 to 2027 but its adjusted EBITDA should stay negative by the final year. And with an enterprise value of $1.27 billion, it still looks expensive at 26 times this year's sales. Navitas' valuations are likely being inflated by its deal with Nvidia. Expectations for lower interest rates are amplifying those gains by driving more investors toward speculative stocks again. Those higher valuations could cap its gains over the next three years. If Navitas matches analysts' expectations, grows its revenue by another 7% in 2028, and trades at a more reasonable 10 times its forward sales, its stock price would actually decline 7% to roughly $6.10 and reduce its enterprise value to $1.1 billion. Therefore, its stock could underperform the market until it stabilizes its core businesses. But over the long term, Navitas could still be a good long term play on GaN and SiC chips as they displace traditional silicon chips. Before you buy stock in Navitas Semiconductor, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Navitas Semiconductor wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Leo Sun has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool recommends Wolfspeed. The Motley Fool has a disclosure policy. 1 hour 6 hours 6 hours 7 hours 7 hours 7 hours 8 hours 8 hours 9 hours 9 hours 9 hours 9 hours 11 hours 13 hours 13 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45884.15069444444</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Should You Buy Nvidia Stock Before Aug. 27? Wall Street Has a Compelling Answer</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141519/should-you-buy-nvidia-stock-before-aug-27-wall-street-has-a-compelling-answer</t>
+        </is>
+      </c>
+      <c r="E165" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Key Points
+Investors will be on the edge of their seats when Nvidia releases its quarterly financial report later this month.
+Despite being the world's largest company, Wall Street is becoming even more bullish on the chipmaker.
+Nvidia's Blackwell processor and the resumption of sales to China could spark the stock's next run higher.
+The most profound change in the tech landscape in recent memory comes courtesy of advancements in artificial intelligence (AI). These next-generation algorithms are being applied to a dizzying number of new use cases, but they require an extraordinary amount of computational horsepower.
+Arguably, the biggest beneficiary of this secular tailwind has been Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs), which were pioneered to create lifelike images in video games, proved equally adept at providing the lightning-fast speeds necessary for AI training and inference. The explosive demand for Nvidia's AI chips has fueled the company's meteoric rise. Since the dawn of AI in early 2023, Nvidia stock has climbed a heady 1,140% (as of this writing), turning the company into the de facto poster child for AI.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Nvidia has a lot riding on its second quarter financial results, which are scheduled to be released after the market closes on Aug. 27. Heading into this critical report, let's look at recent developments, what Wall Street is saying, and what investors can expect.
+Image source: Getty Images.
+Paint by numbers
+After two consecutive years of triple-digit revenue and profit growth, Nvidia's growth rate has inevitably slowed, but the results are impressive nonetheless.
+In the company's fiscal 2026 first quarter (ended April 27), the results were enviable by any standard. Nvidia delivered record revenue of $44.1 billion, up 69% year over year, while its adjusted earnings per share (EPS) of $0.81 climbed 33%.
+The profit picture requires context, however. Early in Q1, the Trump Administration issued a moratorium on H20 chip sales to China (which has since been lifted). Nvidia took a $4.5 billion charge for the affected inventory. If not for this one-time charge, adjusted EPS of $0.96 would have jumped 62%. The profits in accordance with generally accepted accounting principles (GAAP) were also solidt, increasing 27% to $0.76.
+Estimates vary regarding the impact of resuming chip sales to China. Stifel analyst Ruben Roy cited pent-up demand fueling $19.5 billion in H20 chip sales this year. Analysts' consensus estimates had previously pegged Nvidia's fiscal 2026 revenue at $201 billion, so resuming sales to China could potentially boost revenue by 10%, though the final tally will depend on the availability of manufacturing capacity.
+The biggest growth driver for Nvidia is sales of the company's AI-centric Blackwell architecture. In the first quarter, CFO Colette Kress noted that the Blackwell ramp had expanded to "all customer categories," making it "the fastest ramp in company history."
+Nvidia's strong record of innovation has kept the company at the forefront of the AI revolution, and it appears that won't be changing anytime soon.
+What Wall Street is saying right now
+Ahead of Nvidia's important report later this month, Wall Street is increasingly bullish. Analysts' consensus estimates are calling for revenue of $45.75 billion, or growth of about 53%, resulting in EPS of $1.00, an increase of 47%. Nvidia has a remarkable track record of consistently beating its own expectations and those of Wall Street, so the consensus could well be conservative.
+Of the 65 analysts who offered an opinion in August, 89% rate Nvidia stock a buy or strong buy, and only one recommends selling. The average price target of $187 suggests modest upside of about 3%.
+One of the more bullish takes comes courtesy of Loop Capital analyst John Donovan. He maintained a buy rating on the stock and recently increased his price target to $250, or potential upside for investors of 38%. The analyst cites channel checks with cloud providers, which suggest an ongoing surge in demand. He goes on to suggest that the market for data center GPUs could soar to $2 trillion by 2028. As the industry leader, Nvidia is well-positioned to benefit from the trend.
+Finally, there's the subject of valuation. Nvidia stock is currently selling for roughly 31 times next year's earnings. While that's a slight premium, it's worth considering the context. Nvidia's revenue has soared 832% over the past five years (as of this writing), while its net income has risen 1,310%. This has fueled a stock price surge of 1,490%. The ability to consistently generate market beating returns, particularly gains of that magnitude, is rare. This helps to illustrate why Nvidia is deserving of a premium.
+Wall Street's position is clear. Nvidia stock is a buy. We'll know more after the company reports its Q2 results after the market close on Wednesday, Aug. 27.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Key Points Investors will be on the edge of their seats when Nvidia releases its quarterly financial report later this month. Despite being the world's largest company, Wall Street is becoming even more bullish on the chipmaker. Nvidia's Blackwell processor and the resumption of sales to China could spark the stock's next run higher. The most profound change in the tech landscape in recent memory comes courtesy of advancements in artificial intelligence (AI). These next generation algorithms are being applied to a dizzying number of new use cases, but they require an extraordinary amount of computational horsepower. Arguably, the biggest beneficiary of this secular tailwind has been Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs), which were pioneered to create lifelike images in video games, proved equally adept at providing the lightning fast speeds necessary for AI training and inference. The explosive demand for Nvidia's AI chips has fueled the company's meteoric rise. Since the dawn of AI in early 2023, Nvidia stock has climbed a heady 1,140% (as of this writing), turning the company into the de facto poster child for AI. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Nvidia has a lot riding on its second quarter financial results, which are scheduled to be released after the market closes on Aug. 27. Heading into this critical report, let's look at recent developments, what Wall Street is saying, and what investors can expect. Image source: Getty Images. Paint by numbers After two consecutive years of triple digit revenue and profit growth, Nvidia's growth rate has inevitably slowed, but the results are impressive nonetheless. In the company's fiscal 2026 first quarter (ended April 27), the results were enviable by any standard. Nvidia delivered record revenue of $44.1 billion, up 69% year over year, while its adjusted earnings per share (EPS) of $0.81 climbed 33%. The profit picture requires context, however. Early in Q1, the Trump Administration issued a moratorium on H20 chip sales to China (which has since been lifted). Nvidia took a $4.5 billion charge for the affected inventory. If not for this one time charge, adjusted EPS of $0.96 would have jumped 62%. The profits in accordance with generally accepted accounting principles (GAAP) were also solidt, increasing 27% to $0.76. Estimates vary regarding the impact of resuming chip sales to China. Stifel analyst Ruben Roy cited pent up demand fueling $19.5 billion in H20 chip sales this year. Analysts' consensus estimates had previously pegged Nvidia's fiscal 2026 revenue at $201 billion, so resuming sales to China could potentially boost revenue by 10%, though the final tally will depend on the availability of manufacturing capacity. The biggest growth driver for Nvidia is sales of the company's AI centric Blackwell architecture. In the first quarter, CFO Colette Kress noted that the Blackwell ramp had expanded to "all customer categories," making it "the fastest ramp in company history." Nvidia's strong record of innovation has kept the company at the forefront of the AI revolution, and it appears that won't be changing anytime soon. What Wall Street is saying right now Ahead of Nvidia's important report later this month, Wall Street is increasingly bullish. Analysts' consensus estimates are calling for revenue of $45.75 billion, or growth of about 53%, resulting in EPS of $1.00, an increase of 47%. Nvidia has a remarkable track record of consistently beating its own expectations and those of Wall Street, so the consensus could well be conservative. Of the 65 analysts who offered an opinion in August, 89% rate Nvidia stock a buy or strong buy, and only one recommends selling. The average price target of $187 suggests modest upside of about 3%. One of the more bullish takes comes courtesy of Loop Capital analyst John Donovan. He maintained a buy rating on the stock and recently increased his price target to $250, or potential upside for investors of 38%. The analyst cites channel checks with cloud providers, which suggest an ongoing surge in demand. He goes on to suggest that the market for data center GPUs could soar to $2 trillion by 2028. As the industry leader, Nvidia is well positioned to benefit from the trend. Finally, there's the subject of valuation. Nvidia stock is currently selling for roughly 31 times next year's earnings. While that's a slight premium, it's worth considering the context. Nvidia's revenue has soared 832% over the past five years (as of this writing), while its net income has risen 1,310%. This has fueled a stock price surge of 1,490%. The ability to consistently generate market beating returns, particularly gains of that magnitude, is rare. This helps to illustrate why Nvidia is deserving of a premium. Wall Street's position is clear. Nvidia stock is a buy. We'll know more after the company reports its Q2 results after the market close on Wednesday, Aug. 27. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45884.12916666667</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Nvidia, Palantir, and AMD Have a Nearly $13 Billion Warning for Wall Street -- but Are You Paying Attention?</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141515/nvidia-palantir-and-amd-have-a-nearly-13-billion-warning-for-wall-street-but-are-you-paying-attention</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Competitive advantages, along with insatiable demand for artificial intelligence (AI) hardware and software, have sent shares of Nvidia, Palantir Technologies, and Advanced Micro Devices soaring.
+On a combined basis, insiders at Nvidia, Palantir, and AMD have made just four purchases of their respective company's stock spanning five years.
+Historical precedent poses a big problem for some of Wall Street's hottest AI stocks.
+Roughly 30 years ago, the advent and proliferation of the internet began positively altering the growth arc for corporate America. The internet offered businesses new ways to interact with prospective and existing clients, as well as market their products. For decades, investors have been waiting for the next technological leap forward, and the artificial intelligence (AI) revolution looks to be it.
+The combination of increased productivity and consumption-side effects associated with the rise of AI is expected to increase global gross domestic product by $15.7 trillion come 2030, according to analysts at PwC. This sky-high addressable market is the primary reason we've witnessed Wall Street's AI darlings -- Nvidia (NASDAQ: NVDA), Palantir Technologies (NASDAQ: PLTR), and Advanced Micro Devices (NASDAQ: AMD), which is commonly known as "AMD" -- soar since 2023 began.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Nvidia's Hopper (H100) and Blackwell graphics processing units (GPUs) account for the bulk of the GPUs deployed in AI-accelerated data centers. Meanwhile, production for AMD's Instinct series AI-accelerating chips is expanding, with the expectation that it'll carve out a healthy share of the AI-GPU market for enterprise data centers.
+As for Palantir, its AI- and machine learning-powered software-as-a-service Gotham and Foundry platforms offer sustainable moats. Federal governments turn to Gotham for military mission planning and execution, along with data collection and analysis. Meanwhile, Foundry is a subscription-driven platform for businesses looking to make sense of their big data and streamline/automate their operations.
+While their respective share price appreciation indicates everything is going great for Nvidia, Palantir, and AMD, all three companies have, collectively, offered up a nearly $13 billion warning to Wall Street. The real question is: Are you, or any other investors, heeding this warning?
+There are a number of potential headwinds that can come into play for AI stocks over the coming quarters and years, some of which I'll touch on a bit later. However, one of the more front-and-center concerns has to do with the how corporate insiders have approached their company's stock.
+Here's the good news: Thanks to required Form 4 filings with the Securities and Exchange Commission, investors have the ability to track the purchasing and selling activity of executives and board members. This activity details the buying and selling of common stock, as well as options activity.
+When it comes to Nvidia, Palantir, and AMD, there's been a very clear trend over the last five years (note: Palantir's initial public offering was Sept. 30, 2020): insider selling.
+Over the trailing-five-year period, net selling activity has totaled:
+Collectively, the insiders of these three highly influential AI businesses have sold north of $12.9 billion worth of their common stock over the trailing half-decade.
+However, insider selling isn't as cut-and-dried as it might appear on the surface. This is to say there are a lot of reasons insiders might sell their company's stock -- and they're not all nefarious.
+For instance, most executives receive stock-based compensation and/or options. Options are required to be exercised within a certain time frame, otherwise they expire worthless. With some executives receiving the lion's share of their compensation in stock or options, they have to sell their company's stock to cover their federal and/or state tax bill. The key point here is that not all insider selling is necessarily bad.
+But at the same time, there's only one reason executives and board members purchase their company's stock: they expect it to head higher. Over the trailing five-year period, executives and board members have made exactly one purchase at Nvidia, one purchase at Palantir, and two purchases at AMD.
+The takeaway here is simple: if insiders at Nvidia, Palantir, and AMD aren't willing to purchase their own company's stock, why should everyday investors believe these three stocks still offer significant upside?
+Image source: Getty Images.
+Unfortunately, this nearly $13 billion warning isn't the only worry for investors. Historical precedent is a multipronged headwind that has the potential to meaningfully drag down AI stock valuations.
+To preface the following discussion, history is never guaranteed to repeat on Wall Street. If there was an indicator that concretely guaranteed short-term directional moves in stocks, you can rest assured that everyone would be using it by now.
+Nevertheless, there are historical events and metrics that have flawlessly correlated with directional moves for the S&amp;P 500 and Wall Street's other major indexes in the past. It's these correlations that suggest Nvidia, Palantir, and AMD could be in a world of trouble.
+For example, every game-changing innovation since (and including) the advent of the internet in the mid-1990s has endured a bubble-bursting event fairly early in its expansion. This long line of hyped innovations navigating their way through bubbles signals that investors consistently overestimate the utility and early stage adoption of new technologies.
+Although spending on AI infrastructure has been robust, as Nvidia's and AMD's operating results suggest, most businesses have yet to optimize their AI solutions or generate a positive return on their AI investments. It's unlikely that artificial intelligence will avoid the fate of previous next-big-thing trends.
+The other area where historical precedent comes into play is valuations. Though AMD's valuation isn't egregiously high, the same can't be said for Nvidia or Palantir, which are butting heads with history.
+Before the bursting of the dot-com bubble a quarter of a century ago, businesses on the leading edge of the internet revolution consistently peaked at around 30 to 40 times trailing-12-month sales. As of this writing on Aug. 12, Nvidia is tipping the scales at a price-to-sales (P/S) ratio of nearly 31, while Palantir's P/S ratio is 137, which is the highest I've ever witnessed for a megacap company in 27 years of investing.
+While both companies offer competitive advantages that are worthy of valuation premiums, history is quite clear that extended premiums of this magnitude aren't sustainable over the long run.
+Between persistent insider selling, a virtual lack of insider buying, and mounting historical headwinds, the risk-versus-reward pendulum for Nvidia, Palantir, and AMD has undeniably swung toward "risk."
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Sean Williams has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Advanced Micro Devices, Nvidia, and Palantir Technologies. The Motley Fool has a disclosure policy.
+| 1 hour | |
+| 1 hour | |
+| 6 hours | |
+| 6 hours | |
+| 7 hours | |
+| 7 hours | |
+| 7 hours | |
+| 8 hours | |
+| 8 hours | |
+| 8 hours | |
+| 9 hours | |
+| 9 hours | |
+| 9 hours | |
+| 9 hours | |
+| 10 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Competitive advantages, along with insatiable demand for artificial intelligence (AI) hardware and software, have sent shares of Nvidia, Palantir Technologies, and Advanced Micro Devices soaring. On a combined basis, insiders at Nvidia, Palantir, and AMD have made just four purchases of their respective company's stock spanning five years. Historical precedent poses a big problem for some of Wall Street's hottest AI stocks. Roughly 30 years ago, the advent and proliferation of the internet began positively altering the growth arc for corporate America. The internet offered businesses new ways to interact with prospective and existing clients, as well as market their products. For decades, investors have been waiting for the next technological leap forward, and the artificial intelligence (AI) revolution looks to be it. The combination of increased productivity and consumption side effects associated with the rise of AI is expected to increase global gross domestic product by $15.7 trillion come 2030, according to analysts at PwC. This sky high addressable market is the primary reason we've witnessed Wall Street's AI darlings Nvidia (NASDAQ: NVDA), Palantir Technologies (NASDAQ: PLTR), and Advanced Micro Devices (NASDAQ: AMD), which is commonly known as "AMD" soar since 2023 began. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Nvidia's Hopper (H100) and Blackwell graphics processing units (GPUs) account for the bulk of the GPUs deployed in AI accelerated data centers. Meanwhile, production for AMD's Instinct series AI accelerating chips is expanding, with the expectation that it'll carve out a healthy share of the AI GPU market for enterprise data centers. As for Palantir, its AI and machine learning powered software as a service Gotham and Foundry platforms offer sustainable moats. Federal governments turn to Gotham for military mission planning and execution, along with data collection and analysis. Meanwhile, Foundry is a subscription driven platform for businesses looking to make sense of their big data and streamline/automate their operations. While their respective share price appreciation indicates everything is going great for Nvidia, Palantir, and AMD, all three companies have, collectively, offered up a nearly $13 billion warning to Wall Street. The real question is: Are you, or any other investors, heeding this warning? There are a number of potential headwinds that can come into play for AI stocks over the coming quarters and years, some of which I'll touch on a bit later. However, one of the more front and center concerns has to do with the how corporate insiders have approached their company's stock. Here's the good news: Thanks to required Form 4 filings with the Securities and Exchange Commission, investors have the ability to track the purchasing and selling activity of executives and board members. This activity details the buying and selling of common stock, as well as options activity. When it comes to Nvidia, Palantir, and AMD, there's been a very clear trend over the last five years (note: Palantir's initial public offering was Sept. 30, 2020): insider selling. Over the trailing five year period, net selling activity has totaled: Collectively, the insiders of these three highly influential AI businesses have sold north of $12.9 billion worth of their common stock over the trailing half decade. However, insider selling isn't as cut and dried as it might appear on the surface. This is to say there are a lot of reasons insiders might sell their company's stock and they're not all nefarious. For instance, most executives receive stock based compensation and/or options. Options are required to be exercised within a certain time frame, otherwise they expire worthless. With some executives receiving the lion's share of their compensation in stock or options, they have to sell their company's stock to cover their federal and/or state tax bill. The key point here is that not all insider selling is necessarily bad. But at the same time, there's only one reason executives and board members purchase their company's stock: they expect it to head higher. Over the trailing five year period, executives and board members have made exactly one purchase at Nvidia, one purchase at Palantir, and two purchases at AMD. The takeaway here is simple: if insiders at Nvidia, Palantir, and AMD aren't willing to purchase their own company's stock, why should everyday investors believe these three stocks still offer significant upside? Image source: Getty Images. Unfortunately, this nearly $13 billion warning isn't the only worry for investors. Historical precedent is a multipronged headwind that has the potential to meaningfully drag down AI stock valuations. To preface the following discussion, history is never guaranteed to repeat on Wall Street. If there was an indicator that concretely guaranteed short term directional moves in stocks, you can rest assured that everyone would be using it by now. Nevertheless, there are historical events and metrics that have flawlessly correlated with directional moves for the S&amp;P 500 and Wall Street's other major indexes in the past. It's these correlations that suggest Nvidia, Palantir, and AMD could be in a world of trouble. For example, every game changing innovation since (and including) the advent of the internet in the mid 1990s has endured a bubble bursting event fairly early in its expansion. This long line of hyped innovations navigating their way through bubbles signals that investors consistently overestimate the utility and early stage adoption of new technologies. Although spending on AI infrastructure has been robust, as Nvidia's and AMD's operating results suggest, most businesses have yet to optimize their AI solutions or generate a positive return on their AI investments. It's unlikely that artificial intelligence will avoid the fate of previous next big thing trends. The other area where historical precedent comes into play is valuations. Though AMD's valuation isn't egregiously high, the same can't be said for Nvidia or Palantir, which are butting heads with history. Before the bursting of the dot com bubble a quarter of a century ago, businesses on the leading edge of the internet revolution consistently peaked at around 30 to 40 times trailing 12 month sales. As of this writing on Aug. 12, Nvidia is tipping the scales at a price to sales (P/S) ratio of nearly 31, while Palantir's P/S ratio is 137, which is the highest I've ever witnessed for a megacap company in 27 years of investing. While both companies offer competitive advantages that are worthy of valuation premiums, history is quite clear that extended premiums of this magnitude aren't sustainable over the long run. Between persistent insider selling, a virtual lack of insider buying, and mounting historical headwinds, the risk versus reward pendulum for Nvidia, Palantir, and AMD has undeniably swung toward "risk." Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Sean Williams has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Advanced Micro Devices, Nvidia, and Palantir Technologies. The Motley Fool has a disclosure policy. 1 hour 1 hour 6 hours 6 hours 7 hours 7 hours 7 hours 8 hours 8 hours 8 hours 9 hours 9 hours 9 hours 9 hours 10 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45884.12638888889</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>William Blair Maintains Outperform Rating on Nvidia (NVDA)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141501/william-blair-maintains-outperform-rating-on-nvidia-nvda</t>
+        </is>
+      </c>
+      <c r="E167" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the 11 Best Revenue Growth Stocks to Buy Now. On July 15, William Blair reiterated an Outperform rating on NVIDIA Corporation (NASDAQ:NVDA) while noting that the company could see potential earnings upside from renewed access to the China market.
+William Blair sees an opportunity for NVIDIA Corporation (NASDAQ:NVDA) to increase its EPS for fiscal year 2026 by an additional $0.30. This is based on the idea that the company will see about $20 billion in revenue from China for the full year.
+In the first quarter, NVIDIA Corporation (NASDAQ:NVDA) made $5.5 billion in revenue from the China market. William Blair expects another $14.5 billion in revenue from China, concentrated in the second half of fiscal 2026.
+The investment firm also highlighted potential gross margin tailwinds in the second half as NVIDIA Corporation (NASDAQ:NVDA) might sell H20 chips that were previously written off with a low cost of goods sold. This could help the company achieve its target of a mid-70% gross margin on a non-GAAP basis.
+NVIDIA Corporation (NASDAQ:NVDA) is an American multinational technology company that is known for its graphics processing units (GPUs), AI hardware and software, and high-performance computing (HPC) solutions.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you’re looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 12 Best Performing AI Stocks So Far in 2025 and 14 Best Aggressive Growth Stocks to Buy According to Analysts.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the 11 Best Revenue Growth Stocks to Buy Now. On July 15, William Blair reiterated an Outperform rating on NVIDIA Corporation (NASDAQ:NVDA) while noting that the company could see potential earnings upside from renewed access to the China market. William Blair sees an opportunity for NVIDIA Corporation (NASDAQ:NVDA) to increase its EPS for fiscal year 2026 by an additional $0.30. This is based on the idea that the company will see about $20 billion in revenue from China for the full year. In the first quarter, NVIDIA Corporation (NASDAQ:NVDA) made $5.5 billion in revenue from the China market. William Blair expects another $14.5 billion in revenue from China, concentrated in the second half of fiscal 2026. The investment firm also highlighted potential gross margin tailwinds in the second half as NVIDIA Corporation (NASDAQ:NVDA) might sell H20 chips that were previously written off with a low cost of goods sold. This could help the company achieve its target of a mid 70% gross margin on a non GAAP basis. NVIDIA Corporation (NASDAQ:NVDA) is an American multinational technology company that is known for its graphics processing units (GPUs), AI hardware and software, and high performance computing (HPC) solutions. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If youre looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 12 Best Performing AI Stocks So Far in 2025 and 14 Best Aggressive Growth Stocks to Buy According to Analysts. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45884.12013888889</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Jim Cramer Discusses NVIDIA Return to China Market</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141486/jim-cramer-discusses-nvidia-return-to-china-market</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed. Cramer discussed the company’s business with China during the episode. He said:
+“This morning, we learned that the US government is planning to take a 15% cut on all the AI chips that these two companies are currently selling to China. For NVIDIA, that means a 15% cut on the H20, which was their cutting-edge chip for AI a few years ago, something they were previously banned from selling in the PRC. The president then said that NVIDIA might be getting approval to sell a next-generation chip to the Chinese, something, wow, more like their current version, Blackwell, except it won’t have as much computing power. We didn’t expect that Blackwell could be allowed in China. This was a big deal that the market completely just ignored. That was a mistake. President had asked for 20% cut of revenues, but NVIDIA CEO Jensen Huang bargained him down to 15%. That was good…
+The cost of shareholders for the NVIDIA deal, as we told investing club members today, NVIDIA was selling about $8 billion worth of chips to China every quarter prior to the previous export restriction. A 15% haircut would equate to a little more than $1 billion per quarter or about $5 billion per year. Hey, that’s a big number for most companies, but not for NVIDIA. They were desperate to get this China business back by any means necessary…
+From the perspective of big business, this is a great deal. Under the previous export controls, NVIDIA and AMD couldn’t sell these ships to China at all. If they can get that business back in exchange for a 15% cut, that’s a win for their shareholders.”
+NVDA Headquarters Courtesy of NVIDIA
+NVIDIA Corporation (NASDAQ:NVDA) designs GPUs, AI platforms, cloud services, and software for gaming, professional visualization, data centers, automotive, and robotics applications.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed. Cramer discussed the companys business with China during the episode. He said: This morning, we learned that the US government is planning to take a 15% cut on all the AI chips that these two companies are currently selling to China. For NVIDIA, that means a 15% cut on the H20, which was their cutting edge chip for AI a few years ago, something they were previously banned from selling in the PRC. The president then said that NVIDIA might be getting approval to sell a next generation chip to the Chinese, something, wow, more like their current version, Blackwell, except it wont have as much computing power. We didnt expect that Blackwell could be allowed in China. This was a big deal that the market completely just ignored. That was a mistake. President had asked for 20% cut of revenues, but NVIDIA CEO Jensen Huang bargained him down to 15%. That was good The cost of shareholders for the NVIDIA deal, as we told investing club members today, NVIDIA was selling about $8 billion worth of chips to China every quarter prior to the previous export restriction. A 15% haircut would equate to a little more than $1 billion per quarter or about $5 billion per year. Hey, thats a big number for most companies, but not for NVIDIA. They were desperate to get this China business back by any means necessary From the perspective of big business, this is a great deal. Under the previous export controls, NVIDIA and AMD couldnt sell these ships to China at all. If they can get that business back in exchange for a 15% cut, thats a win for their shareholders. NVDA Headquarters Courtesy of NVIDIA NVIDIA Corporation (NASDAQ:NVDA) designs GPUs, AI platforms, cloud services, and software for gaming, professional visualization, data centers, automotive, and robotics applications. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45884.11875</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Dell, NVIDIA, Elastic Partner to Enhance AI Data Platform</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141475/dell-nvidia-elastic-partner-to-enhance-ai-data-platform</t>
+        </is>
+      </c>
+      <c r="E169" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the best high-volume stocks to invest in. On August 12, Dell Technologies Inc. (NYSE:DELL) announced a partnership with NVIDIA and Elastic (NYSE:ESTC) to enhance its AI Data Platform, which is designed to help enterprises build and scale AI workloads.
+The platform is intended to accelerate workflows and break down data silos and integrates Dell PowerEdge R7725 servers, which are equipped with Nvidia’s RTX PRO 6000 Blackwell Server Edition GPUs for high-performance AI workloads. This hardware will become globally available later in the year. The collaboration also brings in Elastic’s Elasticsearch technology to enable natural language and vector search capabilities.
+A close-up of a colorful high-end graphics card being plugged in to a gaming computer.
+Furthermore, Nvidia’s Omniverse libraries and AI models will be used to streamline searches within large 3D asset libraries. Vrashank Jain, a product director at Dell, noted that this collaboration will provide a shortcut to greater AI-based efficiency that companies crave.
+NVIDIA Corporation (NASDAQ:NVDA) is a computing infrastructure company that provides graphics and compute &amp; networking solutions internationally
+Dell Technologies Inc. (NYSE:DELL) designs, develops, manufactures, markets, sells, and supports various comprehensive and integrated solutions, products, and services internationally.
+Elastic (NYSE:ESTC) is a search AI company that provides software platforms to run in hybrid, public, or private clouds and multi-cloud environments internationally.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you’re looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the best high volume stocks to invest in. On August 12, Dell Technologies Inc. (NYSE:DELL) announced a partnership with NVIDIA and Elastic (NYSE:ESTC) to enhance its AI Data Platform, which is designed to help enterprises build and scale AI workloads. The platform is intended to accelerate workflows and break down data silos and integrates Dell PowerEdge R7725 servers, which are equipped with Nvidias RTX PRO 6000 Blackwell Server Edition GPUs for high performance AI workloads. This hardware will become globally available later in the year. The collaboration also brings in Elastics Elasticsearch technology to enable natural language and vector search capabilities. A close up of a colorful high end graphics card being plugged in to a gaming computer. Furthermore, Nvidias Omniverse libraries and AI models will be used to streamline searches within large 3D asset libraries. Vrashank Jain, a product director at Dell, noted that this collaboration will provide a shortcut to greater AI based efficiency that companies crave. NVIDIA Corporation (NASDAQ:NVDA) is a computing infrastructure company that provides graphics and compute &amp; networking solutions internationally Dell Technologies Inc. (NYSE:DELL) designs, develops, manufactures, markets, sells, and supports various comprehensive and integrated solutions, products, and services internationally. Elastic (NYSE:ESTC) is a search AI company that provides software platforms to run in hybrid, public, or private clouds and multi cloud environments internationally. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If youre looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45884.0625</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>As Tech Stocks Rally, Risk Rises. Why Energy and Healthcare Could Be Options.</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/tech-energy-healthcare-stocks-markets-cf964dda?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E170" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45883.84652777778</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Soros, Appaloosa boost their Nvidia stake. They also bought this beaten-down stock, and it's rallying.</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.marketwatch.com/story/soros-appaloosa-boost-their-holdings-in-this-mag-7-stock-amid-ai-spending-boom-514807d8?mod=mw_FV</t>
+        </is>
+      </c>
+      <c r="E171" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45883.81597222222</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Hedge funds shift bets to double down on Big Tech amid AI boom</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/hedge-funds-shift-bets-double-233524300.html</t>
+        </is>
+      </c>
+      <c r="E172" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45883.75416666667</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Liberty All-Star® Growth Fund, Inc. July 2025 Monthly Update</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-growth-fund-inc-220600993.html</t>
+        </is>
+      </c>
+      <c r="E173" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45883.75416666667</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Liberty All-Star® Equity Fund July 2025 Monthly Update</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-equity-fund-july-220600509.html</t>
+        </is>
+      </c>
+      <c r="E174" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45883.72083333333</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Nvidia, AMD, Other AI Stocks Score Price-Target Hikes Amid Strong AI Server Demand</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.investors.com/news/technology/ai-stocks-score-price-target-hikes-strong-server-sales?mod=IBD_FV</t>
+        </is>
+      </c>
+      <c r="E175" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45883.70763888889</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Nvidia's one of the cheaper AI names out there, says Bernstein's Stacy Rasgon</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.youtube.com/watch?v=c7YoYkKtCfk</t>
+        </is>
+      </c>
+      <c r="E176" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45883.69444444445</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Strategy Pushed Deceptive Comparison to Apple and NVIDIA, Wall Street Veteran Says</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/65c5a297-973e-3cab-8341-10bc5e0b35e7/strategy-pushed-%E2%80%98deceptive%E2%80%99.html</t>
+        </is>
+      </c>
+      <c r="E177" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45883.69444444445</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Intel stock surges on report Trump administration mulls taking stake in company</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/intel-stock-surges-on-report-trump-administration-mulls-taking-stake-in-company-204003673.html</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45883.66180555556</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Trump weighs taking stake in Intel, Bloomberg News reports</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/us-weighs-taking-stake-intel-195356266.html</t>
+        </is>
+      </c>
+      <c r="E179" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45883.63541666666</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Dow And Nasdaq Edge Lower As AI Stock Coherent Hits 3 Sell Signals; 3 Growth Stocks Set Up Entries (Live)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-and.html</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45883.62638888889</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Ken Fisher's Strategic Moves: Oracle Corp Sees Significant Reduction</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/ken-fishers-strategic-moves-oracle-190218225.html</t>
+        </is>
+      </c>
+      <c r="E181" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45883.62569444445</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Kevin O'Leary Says Nvidia, AMD Still Win Under Trump China Plan Despite 15% 'Form Of Blackmail' Levy</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/kevin-oleary-says-nvidia-amd-190100564.html</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45883.625</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Should You Buy Intel Stock After President Trump's CEO Praise?</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141119/should-you-buy-intel-stock-after-president-trumps-ceo-praise</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Intel Corporation INTC has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corporation NVDA and Advanced Micro Devices, Inc. AMD in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trump’s inconsistent stance on Intel CEO has drawn investors’ interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Let’s see –
+Trump’s Admiration for Tan – What it Means for INTC Investors
+Last month, Cadence Design Systems, Inc. CDNS acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intel’s current CEO, Lip-Bu Tan, was leading Cadence.
+Trump learned of Cotton’s letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cotton’s letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals.
+In reaction, Trump commended Tan's achievements, referring to his success and ascent as an “amazing story.” Trump also endorsed Tan’s leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Let’s not forget, Tan is a well-known venture capitalist, respected for his expertise in the semiconductor industry.
+Is a Turnaround for Intel Probable Soon?
+Intel’s business has been struggling for quite some time. Despite Tan’s initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year-ago levels.
+Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. It’s worse than the $2.8 billion loss that the segment posted a year ago.
+Intel’s gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short-term investments accounted for only $21.2 billion.
+However, under Tan’s strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio.
+Intel is planning to provide a full-stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node.
+While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the company’s business. In time, the semiconductor giant has the potential to regain its former glory.
+Should You Buy INTC Stock Now or Wait a While?
+Trump’s support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intel’s price-to-book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future.
+Image Source: Zacks Investment Research
+However, new investors should remain passive and watch for meaningful progress. This is because it’s too early to predict the potential success of Tan’s initiatives, and Intel’s financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of today’s Zacks Rank #1 (Strong Buy) stocks here.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Intel Corporation (INTC): Free Stock Analysis Report Advanced Micro Devices, Inc. (AMD): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Cadence Design Systems, Inc. (CDNS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Intel Corporation INTC has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corporation NVDA and Advanced Micro Devices, Inc. AMD in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trumps inconsistent stance on Intel CEO has drawn investors interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Lets see Trumps Admiration for Tan What it Means for INTC Investors Last month, Cadence Design Systems, Inc. CDNS acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intels current CEO, Lip Bu Tan, was leading Cadence. Trump learned of Cottons letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cottons letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals. In reaction, Trump commended Tan's achievements, referring to his success and ascent as an amazing story. Trump also endorsed Tans leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Lets not forget, Tan is a well known venture capitalist, respected for his expertise in the semiconductor industry. Is a Turnaround for Intel Probable Soon? Intels business has been struggling for quite some time. Despite Tans initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year ago levels. Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. Its worse than the $2.8 billion loss that the segment posted a year ago. Intels gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short term investments accounted for only $21.2 billion. However, under Tans strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio. Intel is planning to provide a full stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node. While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the companys business. In time, the semiconductor giant has the potential to regain its former glory. Should You Buy INTC Stock Now or Wait a While? Trumps support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intels price to book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future. Image Source: Zacks Investment Research However, new investors should remain passive and watch for meaningful progress. This is because its too early to predict the potential success of Tans initiatives, and Intels financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of todays Zacks Rank #1 (Strong Buy) stocks here. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report Intel Corporation (INTC): Free Stock Analysis Report Advanced Micro Devices, Inc. (AMD): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Cadence Design Systems, Inc. (CDNS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45883.62152777778</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Big Tech's AI Rally Remains Strong. The Economy Can Chug Along Even Without It.</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-ai-rally-c963a7b1?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E184" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45883.5875</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Money Is Rotating Away From Big Tech Stocks. It's a Good Sign.</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-market-8d1a1a8e?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E185" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45883.58472222222</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Nasdaq Edges Up; AI Stock Coherent Hits 3 Sell Signals As Coach Parent Tapestry Tests 50-Day (Live)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-nasdaq.html</t>
+        </is>
+      </c>
+      <c r="E186" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45883.57916666667</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Wedbush: Nvidia, AMD China AI Deal a 'Bullish Catalyst' for Big Tech</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/wedbush-nvidia-amd-china-ai-175410596.html</t>
+        </is>
+      </c>
+      <c r="E187" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45883.56944444445</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Cohere hits a $6.8B valuation as investors AMD, Nvidia, and Salesforce double down</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-hits-6-8b-valuation-174027502.html</t>
+        </is>
+      </c>
+      <c r="E188" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45883.56597222222</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>If You Bought 100 Shares of Applied Digital at Its IPO, Here's How Much Money You'd Have Now</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141052/if-you-bought-100-shares-of-applied-digital-at-its-ipo-heres-how-much-money-youd-have-now</t>
+        </is>
+      </c>
+      <c r="E189" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Key Points
+Applied Digital had its initial public offering in April 2022 and was initially focused on blockchain and cryptocurrency mining operations.
+The company's strengths in processing hardware allowed it to easily pivot into the AI data center space.
+Applied Digital has delivered strong post-IPO gains, and the company recently scored some big wins.
+Applied Digital (NASDAQ: APLD) stock had its initial public offering (IPO) in April 2022, although the company was known as Applied Blockchain at the time of its public debut. The company's share price has seen some big swings in the intervening years, but it has also delivered big wins for patient investors.
+Applied Digital stock closed out its first day of trading after its IPO priced at $4.85 per share. A purchase of 100 shares at that price would have been equivalent to an investment of $485.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Compared to Applied Digital's stock price at market close on the day of its public debut, the company's share price is now up roughly 205%. That means that an investor who purchased 100 shares of the company's stock at its IPO would now be sitting on a position worth roughly $1,480. Read on for a closer look at the data center specialist's big performance drivers across the stretch and what's on the horizon for the business.
+How did Applied Digital stock deliver big gains -- and what comes next?
+Applied Digital got its start as a company that was focused on blockchain and cryptocurrency mining operations. Luckily for the company, the key graphics processing unit (GPU) hardware that is useful for mining cryptocurrencies is also at the heart of processing for artificial intelligence (AI) model training.
+With the AI revolution gaining steam in recent years, Applied Digital stock has seen a strong uptick in bullish momentum. Applied Digital stock also saw big gains in November 2024 in conjunction with news that Nvidia had taken an investment position in the company. While the company's share price has seen high levels of volatility since its public debut, shares are up roughly 282% over the last year of trading.
+Applied Digital stock has recently seen big gains thanks to news that CoreWeave has opted to exercise an option that it had to expand data center licensing through the company. With CoreWeave ramping up its data center utilization, Applied Digital's growth outlook has become much stronger.
+Should you invest $1,000 in Applied Digital right now?
+Before you buy stock in Applied Digital, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Applied Digital wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keith Noonan has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Key Points Applied Digital had its initial public offering in April 2022 and was initially focused on blockchain and cryptocurrency mining operations. The company's strengths in processing hardware allowed it to easily pivot into the AI data center space. Applied Digital has delivered strong post IPO gains, and the company recently scored some big wins. Applied Digital (NASDAQ: APLD) stock had its initial public offering (IPO) in April 2022, although the company was known as Applied Blockchain at the time of its public debut. The company's share price has seen some big swings in the intervening years, but it has also delivered big wins for patient investors. Applied Digital stock closed out its first day of trading after its IPO priced at $4.85 per share. A purchase of 100 shares at that price would have been equivalent to an investment of $485. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Compared to Applied Digital's stock price at market close on the day of its public debut, the company's share price is now up roughly 205%. That means that an investor who purchased 100 shares of the company's stock at its IPO would now be sitting on a position worth roughly $1,480. Read on for a closer look at the data center specialist's big performance drivers across the stretch and what's on the horizon for the business. How did Applied Digital stock deliver big gains and what comes next? Applied Digital got its start as a company that was focused on blockchain and cryptocurrency mining operations. Luckily for the company, the key graphics processing unit (GPU) hardware that is useful for mining cryptocurrencies is also at the heart of processing for artificial intelligence (AI) model training. With the AI revolution gaining steam in recent years, Applied Digital stock has seen a strong uptick in bullish momentum. Applied Digital stock also saw big gains in November 2024 in conjunction with news that Nvidia had taken an investment position in the company. While the company's share price has seen high levels of volatility since its public debut, shares are up roughly 282% over the last year of trading. Applied Digital stock has recently seen big gains thanks to news that CoreWeave has opted to exercise an option that it had to expand data center licensing through the company. With CoreWeave ramping up its data center utilization, Applied Digital's growth outlook has become much stronger. Should you invest $1,000 in Applied Digital right now? Before you buy stock in Applied Digital, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Applied Digital wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keith Noonan has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45883.54166666666</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Cisco's Q4 Earnings Beat Estimates, Revenues Rise Y/Y, Shares Down</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141056/ciscos-q4-earnings-beat-estimates-revenues-rise-yy-shares-down</t>
+        </is>
+      </c>
+      <c r="E190" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Cisco Systems CSCO reported fourth-quarter fiscal 2025 non-GAAP earnings of 99 cents per share, beating the Zacks Consensus Estimate by 2.06%. The figure increased 13.8% year over year.
+Revenues of $14.67 billion surpassed the Zacks Consensus Estimate by 0.47%. The top line increased 7.6% year over year. Total Annual Recurring Revenues (ARR) were $31.1 billion, up 5% with product ARR growth of 8%.
+Cisco shares were down 0.63% at the time of writing this article. In the year-to-date (YTD) period, CSCO shares have appreciated 18.9%, outperforming the Zacks Computer &amp; Technology sector’s return of 14.6% but underperforming peers, including Broadcom AVGO and Arista Networks ANET. YTD, Broadcom and Arista Networks have returned 32.9% and 24.8%, respectively.
+Arista Networks reported strong second-quarter 2025 earnings of 73 cents per share, beating the Zacks Consensus Estimate by 12.3%. Broadcom is set to report third-quarter fiscal 2025 results on Sept. 4, with revenues expected to grow 21% year over year to $15.8 billion.
+Cisco Systems, Inc. Price, Consensus and EPS Surprise
+Cisco Systems, Inc. price-consensus-eps-surprise-chart | Cisco Systems, Inc. Quote
+CSCO’s Q4 Top-Line Details
+Revenues from Networking in the fourth quarter of fiscal 2025 were $7.63 billion, up 12% on a year-over-year basis. Security revenues were $1.95 billion, up 9% year over year. Collaboration revenues were $1.04 billion, up 2% year over year. Observability revenues were $259 million, up 4% year over year.
+Total Product revenues in the fourth quarter of fiscal 2025 were $10.89 billion, comprising 74.2% of Cisco’s total revenues. On a year-over-year basis, product revenues increased 10%. Service Revenues were $3.79 billion, comprising 25.8% of Cisco’s total revenues and flat on a year-over-year basis.
+Region-wise, the Americas’ revenues increased 9% year over year to $8.82 billion. EMEA (Europe, Middle East and Africa) revenues climbed 4% year over year to $3.65 billion. APJC (Asia Pacific Japan China) revenues climbed 7% year over year to $2.21 billion.
+In the fourth quarter of fiscal 2025, AI Infrastructure orders from webscale customers exceeded $800 million, bringing the total revenues to $2 billion in fiscal 2025, double the management’s original expectation.
+Cisco is benefiting from its partnership with NVIDIA NVDA. Integration of Cisco Nexus switches with NVIDIA's Spectrum-X architecture is offering low latency, high-speed networking for AI clusters driving enterprise AI orders. The Cisco Secure AI factory with NVIDIA provides a trusted blueprint for building secure AI-ready data centers for enterprises, sovereign cloud providers and newly emerging Neocloud providers.
+CSCO’s Q4 Operating Details
+Fourth-quarter fiscal 2025 non-GAAP gross margin was 68.4%, which expanded 40 basis points (bps) year over year. On a non-GAAP basis, the product gross margin increased 160 bps on a year-over-year basis to 50.1%. Service gross margin decreased 120 bps to 18.3%.
+In the fourth quarter of fiscal 2025, Cisco reported total non-GAAP operating expenses of $5 billion, up 3.6% year over year. As a percentage of revenues, operating expenses declined 130 bps.
+Consequently, CSCO reported a non-GAAP operating income of $5.03 billion, up 13.3% year over year. Operating margin expanded 170 bps year over year to 34.3%.
+CSCO’s Balance Sheet Details
+As of July 26, 2025, cash and cash equivalents and investments totaled $16.1 billion, which increased from $15.6 billion as of April 26, 2025.
+Total debt was $28.1 billion as of July 26, 2025, compared with $29.2 billion as of April 26, 2025.
+The remaining performance obligations (RPO) at the end of the fourth quarter of fiscal 2025 were $43.5 billion, up 6%, with 50% of the amount to be recognized as revenues over the following 12 months. Product RPO was up 8%, and services RPO was up 5%.
+In the fourth quarter of fiscal 2025, CSCO returned $2.9 billion to stockholders through share buybacks ($1.3 billion) and dividends ($1.6 billion).
+CSCO Offers Positive Guidance
+For the first quarter of fiscal 2026, Cisco expects non-GAAP earnings between 97 cents per share and 99 cents per share.
+Revenues are expected to be in the range of $14.65 billion-$14.85 billion.
+Non-GAAP gross margins are expected to be between 67.5% and 68.5%. Non-GAAP operating margin is anticipated to be between 33% and 34%.
+For fiscal 2026, Cisco expects non-GAAP earnings between $4 per share and $4.06 per share. This Zacks Rank #2 (Buy) company expects revenues between $59 billion and $60 billion. You can see the complete list of today’s Zacks #1 Rank (Strong Buy) stocks here.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Cisco Systems, Inc. (CSCO): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Broadcom Inc. (AVGO): Free Stock Analysis Report Arista Networks, Inc. (ANET): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Cisco Systems CSCO reported fourth quarter fiscal 2025 non GAAP earnings of 99 cents per share, beating the Zacks Consensus Estimate by 2.06%. The figure increased 13.8% year over year. Revenues of $14.67 billion surpassed the Zacks Consensus Estimate by 0.47%. The top line increased 7.6% year over year. Total Annual Recurring Revenues (ARR) were $31.1 billion, up 5% with product ARR growth of 8%. Cisco shares were down 0.63% at the time of writing this article. In the year to date (YTD) period, CSCO shares have appreciated 18.9%, outperforming the Zacks Computer &amp; Technology sectors return of 14.6% but underperforming peers, including Broadcom AVGO and Arista Networks ANET. YTD, Broadcom and Arista Networks have returned 32.9% and 24.8%, respectively. Arista Networks reported strong second quarter 2025 earnings of 73 cents per share, beating the Zacks Consensus Estimate by 12.3%. Broadcom is set to report third quarter fiscal 2025 results on Sept. 4, with revenues expected to grow 21% year over year to $15.8 billion. Cisco Systems, Inc. Price, Consensus and EPS Surprise Cisco Systems, Inc. price consensus eps surprise chart Cisco Systems, Inc. Quote CSCOs Q4 Top Line Details Revenues from Networking in the fourth quarter of fiscal 2025 were $7.63 billion, up 12% on a year over year basis. Security revenues were $1.95 billion, up 9% year over year. Collaboration revenues were $1.04 billion, up 2% year over year. Observability revenues were $259 million, up 4% year over year. Total Product revenues in the fourth quarter of fiscal 2025 were $10.89 billion, comprising 74.2% of Ciscos total revenues. On a year over year basis, product revenues increased 10%. Service Revenues were $3.79 billion, comprising 25.8% of Ciscos total revenues and flat on a year over year basis. Region wise, the Americas revenues increased 9% year over year to $8.82 billion. EMEA (Europe, Middle East and Africa) revenues climbed 4% year over year to $3.65 billion. APJC (Asia Pacific Japan China) revenues climbed 7% year over year to $2.21 billion. In the fourth quarter of fiscal 2025, AI Infrastructure orders from webscale customers exceeded $800 million, bringing the total revenues to $2 billion in fiscal 2025, double the managements original expectation. Cisco is benefiting from its partnership with NVIDIA NVDA. Integration of Cisco Nexus switches with NVIDIA's Spectrum X architecture is offering low latency, high speed networking for AI clusters driving enterprise AI orders. The Cisco Secure AI factory with NVIDIA provides a trusted blueprint for building secure AI ready data centers for enterprises, sovereign cloud providers and newly emerging Neocloud providers. CSCOs Q4 Operating Details Fourth quarter fiscal 2025 non GAAP gross margin was 68.4%, which expanded 40 basis points (bps) year over year. On a non GAAP basis, the product gross margin increased 160 bps on a year over year basis to 50.1%. Service gross margin decreased 120 bps to 18.3%. In the fourth quarter of fiscal 2025, Cisco reported total non GAAP operating expenses of $5 billion, up 3.6% year over year. As a percentage of revenues, operating expenses declined 130 bps. Consequently, CSCO reported a non GAAP operating income of $5.03 billion, up 13.3% year over year. Operating margin expanded 170 bps year over year to 34.3%. CSCOs Balance Sheet Details As of July 26, 2025, cash and cash equivalents and investments totaled $16.1 billion, which increased from $15.6 billion as of April 26, 2025. Total debt was $28.1 billion as of July 26, 2025, compared with $29.2 billion as of April 26, 2025. The remaining performance obligations (RPO) at the end of the fourth quarter of fiscal 2025 were $43.5 billion, up 6%, with 50% of the amount to be recognized as revenues over the following 12 months. Product RPO was up 8%, and services RPO was up 5%. In the fourth quarter of fiscal 2025, CSCO returned $2.9 billion to stockholders through share buybacks ($1.3 billion) and dividends ($1.6 billion). CSCO Offers Positive Guidance For the first quarter of fiscal 2026, Cisco expects non GAAP earnings between 97 cents per share and 99 cents per share. Revenues are expected to be in the range of $14.65 billion $14.85 billion. Non GAAP gross margins are expected to be between 67.5% and 68.5%. Non GAAP operating margin is anticipated to be between 33% and 34%. For fiscal 2026, Cisco expects non GAAP earnings between $4 per share and $4.06 per share. This Zacks Rank #2 (Buy) company expects revenues between $59 billion and $60 billion. You can see the complete list of todays Zacks #1 Rank (Strong Buy) stocks here. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report Cisco Systems, Inc. (CSCO): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Broadcom Inc. (AVGO): Free Stock Analysis Report Arista Networks, Inc. (ANET): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45883.52777777778</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Deeply Undervalued, Micron Technologies Stock Isn't Pricing in AI</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/140962/deeply-undervalued-micron-technologies-stock-isnt-pricing-in-ai</t>
+        </is>
+      </c>
+      <c r="E191" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Micron Technologies' (NASDAQ: MU) stock is in rebound mode as of mid-August and will likely continue higher because its market has yet to price in the long-term impact of AI. AI is a memory-intensive technology, and its needs are expected to grow exponentially with each upcoming generation.
+Not only is Micron’s technology in demand from both leading GPU manufacturers, but the market dynamic is set up for accelerated demand in 2026.
+Advanced Micro Devices (NASDAQ: AMD) AI-focused GPUs have significantly more memory than NVIDIA’s (NASDAQ: NVDA) designs and are expected to begin gaining share in 2026. AMD’s new, rack-scale capability will underpin the share gains and, by extension, demand for Micron HBM4 technology.
+The estimates regarding the GPU market and outlook vary from source to source, but they generally agree that GPU needs will grow at a solid, double-digit CAGR for the next five to ten years.
+Regarding Micron and its value, assuming the 15 times P/E valuation it is running in mid-August is fair value, the stock presents a deep value to long-term buy-and-hold investors.
+The consensus forecast reported by MarketBeat puts this stock at only 8x earnings within two years, suggesting the potential for a nearly triple-digit stock price increase. Assuming the long-term forecasts are too low, and they are, the value deepens.
+Micron’s Growth Outlook Underpinned by AI… and Market Normalization
+Not only is AI underpinning Micron’s long-term outlook, but normalization within legacy end markets is also in play. While YOY contraction persisted in some segments in FQ3, all produced sequential strength and are expected to return to growth in Q4 or early in the subsequent fiscal year.
+This provides a solid foundation for the DRAM business, which includes the data center (more than 50% of the revenue in Q3) and HBM markets. HBM sales grew more than 50% sequentially in Q3 from Q2, driving the data center business to more than double, and the guidance was also strong.
+The company forecasts another high 30% growth pace and is expected to outpace its target by the analysts.
+The analysts' trends are robust, including numerous revenue and earnings forecast adjustments that forecast Micron's strength. MarketBeat reveals that 21 of 23 analysts issuing revenue and earnings forecasts, or more than 90%, have lifted their quarterly forecasts, setting a high expectation bar.
+The consensus as of mid-August is significantly higher than the company’s guidance, with the revision trend leading to an above-consensus result. A consensus-beating result is a bullish market catalyst and likely to send the stock higher.
+The stock price outlook is equally robust. MarketBeat tracks 26 analysts with current ratings, most of which were refreshed following the FQ3 release. The trends include upgrades, firming sentiment, and price target revisions that lead to the high-end range.
+The consensus forecasts a 15% upside that may be achieved before the upcoming FQ4 release, while the high-end range adds 35%. At the same time, commentaries focused on volume and pricing strength, a favorable demand/inventory environment, and an expectation for sustained improvement.
+Micron Stock Is Poised to Move Higher
+Micron’s stock price action in mid-August confirms the rebound and uptrend that began in April and gained momentum with the Q3 release. The August action has the market poised to set a new long-term high, opening the door to another sustained updraft in the stock price.
+The market could rise by as much as $20 in the near term and over $60 in the longer term, matching the rallies that preceded the breakout. Micron’s stock price is headed to the $150 to $190 range in this scenario, enough to push the market to record high levels at the top of the analysts' range.
+Before you make your next trade, you'll want to hear this.
+MarketBeat keeps track of Wall Street's top-rated and best performing research analysts and the stocks they recommend to their clients on a daily basis.
+Our team has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and none of the big name stocks were on the list.
+They believe these five stocks are the five best companies for investors to buy now...
+See The Five Stocks Here
+The article "Deeply Undervalued, Micron Technologies Stock Isn’t Pricing in AI" first appeared on MarketBeat.</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Micron Technologies' (NASDAQ: MU) stock is in rebound mode as of mid August and will likely continue higher because its market has yet to price in the long term impact of AI. AI is a memory intensive technology, and its needs are expected to grow exponentially with each upcoming generation. Not only is Microns technology in demand from both leading GPU manufacturers, but the market dynamic is set up for accelerated demand in 2026. Advanced Micro Devices (NASDAQ: AMD) AI focused GPUs have significantly more memory than NVIDIAs (NASDAQ: NVDA) designs and are expected to begin gaining share in 2026. AMDs new, rack scale capability will underpin the share gains and, by extension, demand for Micron HBM4 technology. The estimates regarding the GPU market and outlook vary from source to source, but they generally agree that GPU needs will grow at a solid, double digit CAGR for the next five to ten years. Regarding Micron and its value, assuming the 15 times P/E valuation it is running in mid August is fair value, the stock presents a deep value to long term buy and hold investors. The consensus forecast reported by MarketBeat puts this stock at only 8x earnings within two years, suggesting the potential for a nearly triple digit stock price increase. Assuming the long term forecasts are too low, and they are, the value deepens. Microns Growth Outlook Underpinned by AI and Market Normalization Not only is AI underpinning Microns long term outlook, but normalization within legacy end markets is also in play. While YOY contraction persisted in some segments in FQ3, all produced sequential strength and are expected to return to growth in Q4 or early in the subsequent fiscal year. This provides a solid foundation for the DRAM business, which includes the data center (more than 50% of the revenue in Q3) and HBM markets. HBM sales grew more than 50% sequentially in Q3 from Q2, driving the data center business to more than double, and the guidance was also strong. The company forecasts another high 30% growth pace and is expected to outpace its target by the analysts. The analysts' trends are robust, including numerous revenue and earnings forecast adjustments that forecast Micron's strength. MarketBeat reveals that 21 of 23 analysts issuing revenue and earnings forecasts, or more than 90%, have lifted their quarterly forecasts, setting a high expectation bar. The consensus as of mid August is significantly higher than the companys guidance, with the revision trend leading to an above consensus result. A consensus beating result is a bullish market catalyst and likely to send the stock higher. The stock price outlook is equally robust. MarketBeat tracks 26 analysts with current ratings, most of which were refreshed following the FQ3 release. The trends include upgrades, firming sentiment, and price target revisions that lead to the high end range. The consensus forecasts a 15% upside that may be achieved before the upcoming FQ4 release, while the high end range adds 35%. At the same time, commentaries focused on volume and pricing strength, a favorable demand/inventory environment, and an expectation for sustained improvement. Micron Stock Is Poised to Move Higher Microns stock price action in mid August confirms the rebound and uptrend that began in April and gained momentum with the Q3 release. The August action has the market poised to set a new long term high, opening the door to another sustained updraft in the stock price. The market could rise by as much as $20 in the near term and over $60 in the longer term, matching the rallies that preceded the breakout. Microns stock price is headed to the $150 to $190 range in this scenario, enough to push the market to record high levels at the top of the analysts' range. Before you make your next trade, you'll want to hear this. MarketBeat keeps track of Wall Street's top rated and best performing research analysts and the stocks they recommend to their clients on a daily basis. Our team has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and none of the big name stocks were on the list. They believe these five stocks are the five best companies for investors to buy now... See The Five Stocks Here The article "Deeply Undervalued, Micron Technologies Stock Isnt Pricing in AI" first appeared on MarketBeat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45883.51944444444</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Dow Down; AI Stock Coherent Delivers 3 Sell Signals; Coach Owner Tapestry Gets Support At Key Level (Live)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down%3B.html</t>
+        </is>
+      </c>
+      <c r="E192" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45883.50347222222</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>AI startup Cohere valued at $6.8 billion in latest fundraise, appoints new executives</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/ai-startup-cohere-valued-6-160547472.html</t>
+        </is>
+      </c>
+      <c r="E193" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45883.49305555555</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ChatGPT: Everything you need to know about the AI-powered chatbot</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/chatgpt-everything-know-ai-powered-172758212.html</t>
+        </is>
+      </c>
+      <c r="E194" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45883.47708333333</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Edges Up. Foxconn Has Good News on AI Server Demand.</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/1d8b2777-f870-30ca-8bb3-1de5b2863222/nvidia-stock-edges-up..html</t>
+        </is>
+      </c>
+      <c r="E195" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45883.45694444444</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Mizuho Raises Nvidia and AMD Price Targets To $205 On AI-Server Boom</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/mizuho-raises-nvidia-amd-price-145813757.html</t>
+        </is>
+      </c>
+      <c r="E196" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45883.45277777778</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Dow Down Mildly On Hot PPI Inflation; AI Stock Coherent Dives After Quarterly Update (Live Coverage)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down.html</t>
+        </is>
+      </c>
+      <c r="E197" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45883.45138888889</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>After Earnings, Pair Cisco with This Other Chip Stock for Maximum Results</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/ef1babbd-1d07-344e-8bc2-3141eea3690d/after-earnings%2C-pair-cisco.html</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45883.44513888889</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>The entire stock market is being carried by these four AI stocks</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.marketwatch.com/story/the-entire-stock-market-is-being-carried-by-these-four-ai-stocks-6e69fbbd?mod=mw_FV</t>
+        </is>
+      </c>
+      <c r="E199" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45883.4375</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>What happens to stocks if AI loses momentum?</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/happens-stocks-ai-loses-momentum-143020646.html</t>
+        </is>
+      </c>
+      <c r="E200" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45883.4375</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>BC-Most Active Stocks</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/bc-most-active-stocks-143016001.html</t>
+        </is>
+      </c>
+      <c r="E201" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/finviz_data.xlsx
+++ b/finviz_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4157,7 +4157,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/7-booming-industries-youve-probably-163109255.html</t>
         </is>
       </c>
-      <c r="E102" s="3" t="n">
+      <c r="E102" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F102" t="inlineStr">
@@ -4183,7 +4183,7 @@
           <t>https://finviz.com/news/142393/after-gaining-394-billion-in-market-cap-in-3-days-is-apple-stock-on-its-way-to-joining-nvidia-and-microsoft-in-the-4-trillion-club</t>
         </is>
       </c>
-      <c r="E103" s="3" t="n">
+      <c r="E103" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F103" t="inlineStr">
@@ -4264,7 +4264,7 @@
           <t>https://finviz.com/news/142391/dont-make-this-common-investing-mistake-when-buying-sp-500-stocks-at-all-time-highs</t>
         </is>
       </c>
-      <c r="E104" s="3" t="n">
+      <c r="E104" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F104" t="inlineStr">
@@ -4330,7 +4330,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/trump-unprecedented-potentially-unconstitutional-deal-110000020.html</t>
         </is>
       </c>
-      <c r="E105" s="3" t="n">
+      <c r="E105" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F105" t="inlineStr">
@@ -4356,7 +4356,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-special-treatment-trump-110000802.html</t>
         </is>
       </c>
-      <c r="E106" s="3" t="n">
+      <c r="E106" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F106" t="inlineStr">
@@ -4382,7 +4382,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/meta-spends-more-guarding-mark-100300414.html</t>
         </is>
       </c>
-      <c r="E107" s="3" t="n">
+      <c r="E107" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F107" t="inlineStr">
@@ -4408,7 +4408,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/91630ab4-07a9-3a15-85c5-0f54a7bfd2f5/chipmakers-nvidia-and-amd-to.html</t>
         </is>
       </c>
-      <c r="E108" s="3" t="n">
+      <c r="E108" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F108" t="inlineStr">
@@ -4434,7 +4434,7 @@
           <t>https://finviz.com/news/142382/5-brilliant-quantum-computing-stocks-to-buy-right-now</t>
         </is>
       </c>
-      <c r="E109" s="3" t="n">
+      <c r="E109" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F109" t="inlineStr">
@@ -4493,7 +4493,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/race-sovereign-ai-intensifying-know-154054977.html</t>
         </is>
       </c>
-      <c r="E110" s="3" t="n">
+      <c r="E110" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F110" t="inlineStr">
@@ -4519,7 +4519,7 @@
           <t>https://finviz.com/news/142380/5-top-artificial-intelligence-stocks-to-buy-in-august</t>
         </is>
       </c>
-      <c r="E111" s="3" t="n">
+      <c r="E111" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F111" t="inlineStr">
@@ -4602,7 +4602,7 @@
           <t>https://finviz.com/news/142379/double-the-disruption-the-3-best-stocks-to-buy-now-to-profit-from-both-ai-and-quantum-computing</t>
         </is>
       </c>
-      <c r="E112" s="3" t="n">
+      <c r="E112" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F112" t="inlineStr">
@@ -4667,7 +4667,7 @@
           <t>https://finviz.com/news/142377/did-nvidia-make-a-mistake-by-selling-soundhound-ai-stock-the-answer-might-surprise-you</t>
         </is>
       </c>
-      <c r="E113" s="3" t="n">
+      <c r="E113" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F113" t="inlineStr">
@@ -4748,7 +4748,7 @@
           <t>https://finviz.com/news/142361/if-i-could-only-buy-and-hold-a-single-stock-this-would-be-it</t>
         </is>
       </c>
-      <c r="E114" s="3" t="n">
+      <c r="E114" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F114" t="inlineStr">
@@ -4815,7 +4815,7 @@
           <t>https://finviz.comhttps://www.digitimes.com/news/a20250814PD235/repon-ai-server-growth-demand-shipments.html</t>
         </is>
       </c>
-      <c r="E115" s="3" t="n">
+      <c r="E115" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F115" t="inlineStr">
@@ -4841,7 +4841,7 @@
           <t>https://finviz.comhttps://www.digitimes.com/news/a20250814VL206/nvidia-rubin-ai-chip-amd-launch.html</t>
         </is>
       </c>
-      <c r="E116" s="3" t="n">
+      <c r="E116" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F116" t="inlineStr">
@@ -4867,7 +4867,7 @@
           <t>https://finviz.com/news/142292/nvidia-nvda-stock-gets-bullish-call-amid-us-china-chip-agreement-reports</t>
         </is>
       </c>
-      <c r="E117" s="3" t="n">
+      <c r="E117" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F117" t="inlineStr">
@@ -4907,7 +4907,7 @@
           <t>https://finviz.com/news/142300/5-unstoppable-ten-titans-growth-stocks-to-buy-now-and-hold-through-at-least-2030</t>
         </is>
       </c>
-      <c r="E118" s="3" t="n">
+      <c r="E118" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F118" t="inlineStr">
@@ -4989,7 +4989,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-agree-15-export-220517787.html</t>
         </is>
       </c>
-      <c r="E119" s="3" t="n">
+      <c r="E119" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F119" t="inlineStr">
@@ -5015,7 +5015,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-scores-500-million-ipo-214706278.html</t>
         </is>
       </c>
-      <c r="E120" s="3" t="n">
+      <c r="E120" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F120" t="inlineStr">
@@ -5041,7 +5041,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/6dc7f034-8f61-3b3d-955d-3a50b01945af/trump-wants-to-make-intel.html</t>
         </is>
       </c>
-      <c r="E121" s="3" t="n">
+      <c r="E121" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F121" t="inlineStr">
@@ -5067,7 +5067,7 @@
           <t>https://finviz.comhttps://www.investors.com/research/ibd-stock-analysis/micron-stock-ai-data-centers-space-exploration?mod=IBD_FV</t>
         </is>
       </c>
-      <c r="E122" s="3" t="n">
+      <c r="E122" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F122" t="inlineStr">
@@ -5093,7 +5093,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/75569d9b-a755-3b40-9ffe-1dc6015936fc/dear-marvell-stock-fans%2C-mark.html</t>
         </is>
       </c>
-      <c r="E123" s="3" t="n">
+      <c r="E123" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F123" t="inlineStr">
@@ -5119,7 +5119,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/874808b0-c2be-37fa-8f9b-749d586597da/billionaire-fund-manager.html</t>
         </is>
       </c>
-      <c r="E124" s="3" t="n">
+      <c r="E124" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F124" t="inlineStr">
@@ -5145,7 +5145,7 @@
           <t>https://finviz.com/news/142198/jim-cramer-insists-there-are-no-backdoors-in-nvidia-corporation-nvdas-chips</t>
         </is>
       </c>
-      <c r="E125" s="3" t="n">
+      <c r="E125" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F125" t="inlineStr">
@@ -5189,7 +5189,7 @@
           <t>https://finviz.com/news/142196/if-youd-invested-500-in-the-trade-desk-stock-5-years-ago-heres-how-much-youd-have-today</t>
         </is>
       </c>
-      <c r="E126" s="3" t="n">
+      <c r="E126" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F126" t="inlineStr">
@@ -5248,7 +5248,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/intc-intel-jumps-reports-white-175929817.html</t>
         </is>
       </c>
-      <c r="E127" s="3" t="n">
+      <c r="E127" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F127" t="inlineStr">
@@ -5274,7 +5274,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/billionaire-family-offices-join-berkshire-173329643.html</t>
         </is>
       </c>
-      <c r="E128" s="3" t="n">
+      <c r="E128" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F128" t="inlineStr">
@@ -5300,7 +5300,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvda-chip-stocks-tumbles-tariff-173136118.html</t>
         </is>
       </c>
-      <c r="E129" s="3" t="n">
+      <c r="E129" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F129" t="inlineStr">
@@ -5326,7 +5326,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/3d8524f4-7f7e-33fb-afb8-e423bcd7c678/billionaire-george-soros.html</t>
         </is>
       </c>
-      <c r="E130" s="3" t="n">
+      <c r="E130" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F130" t="inlineStr">
@@ -5352,7 +5352,7 @@
           <t>https://finviz.com/news/142176/quantum-stocks-q2-2025-are-d-wave-ionq-rigetti-funding-the-future</t>
         </is>
       </c>
-      <c r="E131" s="3" t="n">
+      <c r="E131" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F131" t="inlineStr">
@@ -5402,7 +5402,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-price-targets-raised-165957508.html</t>
         </is>
       </c>
-      <c r="E132" s="3" t="n">
+      <c r="E132" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F132" t="inlineStr">
@@ -5428,7 +5428,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-ceo-jensen-huang-cashes-165832406.html</t>
         </is>
       </c>
-      <c r="E133" s="3" t="n">
+      <c r="E133" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F133" t="inlineStr">
@@ -5454,7 +5454,7 @@
           <t>https://finviz.com/news/142162/iren-limited-an-ai-crypto-and-cloud-computing-stock</t>
         </is>
       </c>
-      <c r="E134" s="3" t="n">
+      <c r="E134" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F134" t="inlineStr">
@@ -5504,7 +5504,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/trump-aides-create-loyalty-list-162746725.html</t>
         </is>
       </c>
-      <c r="E135" s="3" t="n">
+      <c r="E135" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F135" t="inlineStr">
@@ -5530,7 +5530,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/politics-beats-the-market-in-trumps-pay-for-play-chip-scheme-f57ef41d?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E136" s="3" t="n">
+      <c r="E136" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F136" t="inlineStr">
@@ -5556,7 +5556,7 @@
           <t>https://finviz.comhttps://www.wsj.com/tech/intels-move-toward-nationalization-wont-workat-least-for-the-long-haul-de403b16?mod=wsj_FV</t>
         </is>
       </c>
-      <c r="E137" s="3" t="n">
+      <c r="E137" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F137" t="inlineStr">
@@ -5582,7 +5582,7 @@
           <t>https://finviz.com/news/142097/the-zacks-analyst-blog-highlights-intel-nvidia-amd-and-cadence-design-systems</t>
         </is>
       </c>
-      <c r="E138" s="3" t="n">
+      <c r="E138" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F138" t="inlineStr">
@@ -5660,7 +5660,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/0a04f585-44f3-32cd-ac0a-41894f4d485f/china-is-pushing-back-against.html</t>
         </is>
       </c>
-      <c r="E139" s="3" t="n">
+      <c r="E139" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F139" t="inlineStr">
@@ -5686,7 +5686,7 @@
           <t>https://finviz.com/news/142031/what-amd-and-nvidia-shareholders-should-know-about-recent-china-updates</t>
         </is>
       </c>
-      <c r="E140" s="3" t="n">
+      <c r="E140" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F140" t="inlineStr">
@@ -5730,7 +5730,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/lee-ainslies-strategic-moves-closer-150531631.html</t>
         </is>
       </c>
-      <c r="E141" s="3" t="n">
+      <c r="E141" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F141" t="inlineStr">
@@ -5756,7 +5756,7 @@
           <t>https://finviz.com/news/142053/zacks-investment-ideas-feature-highlights-fabrinet-nvidia-and-amazon</t>
         </is>
       </c>
-      <c r="E142" s="3" t="n">
+      <c r="E142" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F142" t="inlineStr">
@@ -5822,7 +5822,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-slips-amid-chip-tariff.html</t>
         </is>
       </c>
-      <c r="E143" s="3" t="n">
+      <c r="E143" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F143" t="inlineStr">
@@ -5848,7 +5848,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/why-would-trump-and-intel-want-to-work-together-opening-bid-top-takeaway-143409334.html</t>
         </is>
       </c>
-      <c r="E144" s="3" t="n">
+      <c r="E144" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F144" t="inlineStr">
@@ -5874,7 +5874,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/trump-intel-stake-too-big-fail-b66594d9?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E145" s="3" t="n">
+      <c r="E145" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F145" t="inlineStr">
@@ -5900,7 +5900,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/bc-most-active-stocks-143017539.html</t>
         </is>
       </c>
-      <c r="E146" s="3" t="n">
+      <c r="E146" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F146" t="inlineStr">
@@ -5926,7 +5926,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/b679bc58-8e47-301a-a02f-a9a04f93cf32/trump-says-tariff-rate-on.html</t>
         </is>
       </c>
-      <c r="E147" s="3" t="n">
+      <c r="E147" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F147" t="inlineStr">
@@ -5952,7 +5952,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-stock-stutters.-big.html</t>
         </is>
       </c>
-      <c r="E148" s="3" t="n">
+      <c r="E148" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F148" t="inlineStr">
@@ -5978,7 +5978,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/dow-scales-record-high-hopes-134625792.html</t>
         </is>
       </c>
-      <c r="E149" s="3" t="n">
+      <c r="E149" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F149" t="inlineStr">
@@ -6004,7 +6004,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/best-semiconductor-etfs-2025-top-125500125.html</t>
         </is>
       </c>
-      <c r="E150" s="3" t="n">
+      <c r="E150" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F150" t="inlineStr">
@@ -6030,7 +6030,7 @@
           <t>https://finviz.comhttps://www.marketwatch.com/story/20-stocks-in-the-s-p-500-that-are-high-achievers-this-earnings-season-17b99522?mod=mw_FV</t>
         </is>
       </c>
-      <c r="E151" s="3" t="n">
+      <c r="E151" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F151" t="inlineStr">
@@ -6056,7 +6056,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/best-equal-weight-index-funds-212855779.html</t>
         </is>
       </c>
-      <c r="E152" s="3" t="n">
+      <c r="E152" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F152" t="inlineStr">
@@ -6082,7 +6082,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/proshares-launches-first-etf-target-123000712.html</t>
         </is>
       </c>
-      <c r="E153" s="3" t="n">
+      <c r="E153" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F153" t="inlineStr">
@@ -6108,7 +6108,7 @@
           <t>https://finviz.com/news/141764/could-buying-nvidia-today-set-you-up-for-life</t>
         </is>
       </c>
-      <c r="E154" s="3" t="n">
+      <c r="E154" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F154" t="inlineStr">
@@ -6169,7 +6169,7 @@
           <t>https://finviz.com/news/141745/what-amd-coreweave-and-nvidia-stock-investors-should-know-about-recent-updates</t>
         </is>
       </c>
-      <c r="E155" s="3" t="n">
+      <c r="E155" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F155" t="inlineStr">
@@ -6213,7 +6213,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/3-ai-chip-stocks-best-110017626.html</t>
         </is>
       </c>
-      <c r="E156" s="3" t="n">
+      <c r="E156" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F156" t="inlineStr">
@@ -6239,7 +6239,7 @@
           <t>https://finviz.com/news/141703/these-were-the-5-biggest-companies-in-2019-and-here-are-the-5-biggest-companies-now</t>
         </is>
       </c>
-      <c r="E157" s="3" t="n">
+      <c r="E157" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F157" t="inlineStr">
@@ -6335,7 +6335,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/analysis-trumps-attack-goldman-could-100301764.html</t>
         </is>
       </c>
-      <c r="E158" s="3" t="n">
+      <c r="E158" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F158" t="inlineStr">
@@ -6361,7 +6361,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/megacaps-keep-rising-heres-valuation-100019975.html</t>
         </is>
       </c>
-      <c r="E159" s="3" t="n">
+      <c r="E159" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F159" t="inlineStr">
@@ -6387,7 +6387,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/ai-exacerbates-tech-divide-smaller-093000902.html</t>
         </is>
       </c>
-      <c r="E160" s="3" t="n">
+      <c r="E160" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F160" t="inlineStr">
@@ -6413,7 +6413,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/coreweave-ipo-investors-sitting-big-092712253.html</t>
         </is>
       </c>
-      <c r="E161" s="3" t="n">
+      <c r="E161" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F161" t="inlineStr">
@@ -6439,7 +6439,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/taiwan-raises-2025-gdp-growth-091247191.html</t>
         </is>
       </c>
-      <c r="E162" s="3" t="n">
+      <c r="E162" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F162" t="inlineStr">
@@ -6465,7 +6465,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/nvidia-stock-price-soros-ai-aebccfaf?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E163" s="3" t="n">
+      <c r="E163" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F163" t="inlineStr">
@@ -6491,7 +6491,7 @@
           <t>https://finviz.com/news/141527/where-will-navitas-semiconductor-stock-be-in-3-years</t>
         </is>
       </c>
-      <c r="E164" s="3" t="n">
+      <c r="E164" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F164" t="inlineStr">
@@ -6588,7 +6588,7 @@
           <t>https://finviz.com/news/141519/should-you-buy-nvidia-stock-before-aug-27-wall-street-has-a-compelling-answer</t>
         </is>
       </c>
-      <c r="E165" s="3" t="n">
+      <c r="E165" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F165" t="inlineStr">
@@ -6651,7 +6651,7 @@
           <t>https://finviz.com/news/141515/nvidia-palantir-and-amd-have-a-nearly-13-billion-warning-for-wall-street-but-are-you-paying-attention</t>
         </is>
       </c>
-      <c r="E166" s="3" t="n">
+      <c r="E166" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F166" t="inlineStr">
@@ -6739,7 +6739,7 @@
           <t>https://finviz.com/news/141501/william-blair-maintains-outperform-rating-on-nvidia-nvda</t>
         </is>
       </c>
-      <c r="E167" s="3" t="n">
+      <c r="E167" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F167" t="inlineStr">
@@ -6780,7 +6780,7 @@
           <t>https://finviz.com/news/141486/jim-cramer-discusses-nvidia-return-to-china-market</t>
         </is>
       </c>
-      <c r="E168" s="3" t="n">
+      <c r="E168" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F168" t="inlineStr">
@@ -6822,7 +6822,7 @@
           <t>https://finviz.com/news/141475/dell-nvidia-elastic-partner-to-enhance-ai-data-platform</t>
         </is>
       </c>
-      <c r="E169" s="3" t="n">
+      <c r="E169" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F169" t="inlineStr">
@@ -6865,7 +6865,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/tech-energy-healthcare-stocks-markets-cf964dda?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E170" s="3" t="n">
+      <c r="E170" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F170" t="inlineStr">
@@ -6891,7 +6891,7 @@
           <t>https://finviz.comhttps://www.marketwatch.com/story/soros-appaloosa-boost-their-holdings-in-this-mag-7-stock-amid-ai-spending-boom-514807d8?mod=mw_FV</t>
         </is>
       </c>
-      <c r="E171" s="3" t="n">
+      <c r="E171" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F171" t="inlineStr">
@@ -6917,7 +6917,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/hedge-funds-shift-bets-double-233524300.html</t>
         </is>
       </c>
-      <c r="E172" s="3" t="n">
+      <c r="E172" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F172" t="inlineStr">
@@ -6943,7 +6943,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-growth-fund-inc-220600993.html</t>
         </is>
       </c>
-      <c r="E173" s="3" t="n">
+      <c r="E173" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F173" t="inlineStr">
@@ -6969,7 +6969,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-equity-fund-july-220600509.html</t>
         </is>
       </c>
-      <c r="E174" s="3" t="n">
+      <c r="E174" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F174" t="inlineStr">
@@ -6995,7 +6995,7 @@
           <t>https://finviz.comhttps://www.investors.com/news/technology/ai-stocks-score-price-target-hikes-strong-server-sales?mod=IBD_FV</t>
         </is>
       </c>
-      <c r="E175" s="3" t="n">
+      <c r="E175" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F175" t="inlineStr">
@@ -7021,7 +7021,7 @@
           <t>https://finviz.comhttps://www.youtube.com/watch?v=c7YoYkKtCfk</t>
         </is>
       </c>
-      <c r="E176" s="3" t="n">
+      <c r="E176" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F176" t="inlineStr">
@@ -7047,7 +7047,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/65c5a297-973e-3cab-8341-10bc5e0b35e7/strategy-pushed-%E2%80%98deceptive%E2%80%99.html</t>
         </is>
       </c>
-      <c r="E177" s="3" t="n">
+      <c r="E177" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F177" t="inlineStr">
@@ -7073,7 +7073,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/intel-stock-surges-on-report-trump-administration-mulls-taking-stake-in-company-204003673.html</t>
         </is>
       </c>
-      <c r="E178" s="3" t="n">
+      <c r="E178" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F178" t="inlineStr">
@@ -7099,7 +7099,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/us-weighs-taking-stake-intel-195356266.html</t>
         </is>
       </c>
-      <c r="E179" s="3" t="n">
+      <c r="E179" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F179" t="inlineStr">
@@ -7125,7 +7125,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-and.html</t>
         </is>
       </c>
-      <c r="E180" s="3" t="n">
+      <c r="E180" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F180" t="inlineStr">
@@ -7151,7 +7151,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/ken-fishers-strategic-moves-oracle-190218225.html</t>
         </is>
       </c>
-      <c r="E181" s="3" t="n">
+      <c r="E181" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F181" t="inlineStr">
@@ -7177,7 +7177,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/kevin-oleary-says-nvidia-amd-190100564.html</t>
         </is>
       </c>
-      <c r="E182" s="3" t="n">
+      <c r="E182" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F182" t="inlineStr">
@@ -7203,7 +7203,7 @@
           <t>https://finviz.com/news/141119/should-you-buy-intel-stock-after-president-trumps-ceo-praise</t>
         </is>
       </c>
-      <c r="E183" s="3" t="n">
+      <c r="E183" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F183" t="inlineStr">
@@ -7255,7 +7255,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-ai-rally-c963a7b1?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E184" s="3" t="n">
+      <c r="E184" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F184" t="inlineStr">
@@ -7281,7 +7281,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-market-8d1a1a8e?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E185" s="3" t="n">
+      <c r="E185" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F185" t="inlineStr">
@@ -7307,7 +7307,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-nasdaq.html</t>
         </is>
       </c>
-      <c r="E186" s="3" t="n">
+      <c r="E186" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F186" t="inlineStr">
@@ -7333,7 +7333,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/wedbush-nvidia-amd-china-ai-175410596.html</t>
         </is>
       </c>
-      <c r="E187" s="3" t="n">
+      <c r="E187" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F187" t="inlineStr">
@@ -7359,7 +7359,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-hits-6-8b-valuation-174027502.html</t>
         </is>
       </c>
-      <c r="E188" s="3" t="n">
+      <c r="E188" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F188" t="inlineStr">
@@ -7385,7 +7385,7 @@
           <t>https://finviz.com/news/141052/if-you-bought-100-shares-of-applied-digital-at-its-ipo-heres-how-much-money-youd-have-now</t>
         </is>
       </c>
-      <c r="E189" s="3" t="n">
+      <c r="E189" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F189" t="inlineStr">
@@ -7439,7 +7439,7 @@
           <t>https://finviz.com/news/141056/ciscos-q4-earnings-beat-estimates-revenues-rise-yy-shares-down</t>
         </is>
       </c>
-      <c r="E190" s="3" t="n">
+      <c r="E190" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F190" t="inlineStr">
@@ -7501,7 +7501,7 @@
           <t>https://finviz.com/news/140962/deeply-undervalued-micron-technologies-stock-isnt-pricing-in-ai</t>
         </is>
       </c>
-      <c r="E191" s="3" t="n">
+      <c r="E191" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F191" t="inlineStr">
@@ -7557,7 +7557,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down%3B.html</t>
         </is>
       </c>
-      <c r="E192" s="3" t="n">
+      <c r="E192" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F192" t="inlineStr">
@@ -7583,7 +7583,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/ai-startup-cohere-valued-6-160547472.html</t>
         </is>
       </c>
-      <c r="E193" s="3" t="n">
+      <c r="E193" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F193" t="inlineStr">
@@ -7609,7 +7609,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/chatgpt-everything-know-ai-powered-172758212.html</t>
         </is>
       </c>
-      <c r="E194" s="3" t="n">
+      <c r="E194" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F194" t="inlineStr">
@@ -7635,7 +7635,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/1d8b2777-f870-30ca-8bb3-1de5b2863222/nvidia-stock-edges-up..html</t>
         </is>
       </c>
-      <c r="E195" s="3" t="n">
+      <c r="E195" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F195" t="inlineStr">
@@ -7661,7 +7661,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/mizuho-raises-nvidia-amd-price-145813757.html</t>
         </is>
       </c>
-      <c r="E196" s="3" t="n">
+      <c r="E196" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F196" t="inlineStr">
@@ -7687,7 +7687,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down.html</t>
         </is>
       </c>
-      <c r="E197" s="3" t="n">
+      <c r="E197" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F197" t="inlineStr">
@@ -7713,7 +7713,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/ef1babbd-1d07-344e-8bc2-3141eea3690d/after-earnings%2C-pair-cisco.html</t>
         </is>
       </c>
-      <c r="E198" s="3" t="n">
+      <c r="E198" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F198" t="inlineStr">
@@ -7739,7 +7739,7 @@
           <t>https://finviz.comhttps://www.marketwatch.com/story/the-entire-stock-market-is-being-carried-by-these-four-ai-stocks-6e69fbbd?mod=mw_FV</t>
         </is>
       </c>
-      <c r="E199" s="3" t="n">
+      <c r="E199" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F199" t="inlineStr">
@@ -7765,7 +7765,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/happens-stocks-ai-loses-momentum-143020646.html</t>
         </is>
       </c>
-      <c r="E200" s="3" t="n">
+      <c r="E200" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F200" t="inlineStr">
@@ -7791,7 +7791,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/bc-most-active-stocks-143016001.html</t>
         </is>
       </c>
-      <c r="E201" s="3" t="n">
+      <c r="E201" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F201" t="inlineStr">
@@ -7801,6 +7801,3705 @@
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45886.76041666666</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>5 Artificial Intelligence (AI) Stocks to Buy and Hold for the Next Decade</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142428/5-artificial-intelligence-ai-stocks-to-buy-and-hold-for-the-next-decade</t>
+        </is>
+      </c>
+      <c r="E202" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Key Points
+Nvidia and Taiwan Semiconductor are slated to profit from the huge AI computing power buildout.
+Meta Platforms and Alphabet are using AI to improve advertising.
+Amazon's cloud computing division is seeing strong AI demand.
+The best investing strategies involve buying great companies and holding them over long periods to let them be, which has yielded impressive returns if you picked the right businesses.
+Among the top performers over the past decade have been Nvidia (NASDAQ: NVDA), Taiwan Semiconductor Manufacturing (NYSE: TSM), Amazon (NASDAQ: AMZN), Meta Platforms (NASDAQ: META), and Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL). I removed Nvidia from the chart below because it's up over 30,000% in the past decade, which skews the graph, but the other four have also done phenomenally well.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+TSM data by YCharts.
+The "worst" performer of the remaining four has been Alphabet, with its stock rising nearly five times in value.
+These five stocks have had a strong run over the past decade, but I still believe they are excellent picks for the next decade, mainly due to the proliferation of artificial intelligence (AI). They are at the top of my list right now, and I think buying shares with the mindset of holding for the next decade is a wise investment strategy.
+Image source: Getty Images.
+Nvidia and Taiwan Semiconductor are providing AI computing power
+All five of these stocks are benefiting in various ways from the AI race.
+Nvidia makes graphics processing units (GPUs), which are currently the most popular computing hardware for running and training AI models. It owns this market, and its dominance has allowed it to become the world's largest company.
+There's still a huge AI computing demand that hasn't been met, which bodes well for Nvidia's future. Because of this, it remains one of the best stocks to buy and hold over the next decade.
+Taiwan Semiconductor (TSMC for short) is a manufacturer that produces chips for many of the major players in AI, including Nvidia. These companies don't have chip production capabilities, so they farm that work out to TSMC, which has earned its reputation for being the best foundry in the world through continuous innovation and impressive yields. There are few challengers to its supremacy, and this position will help it continue to be a market-crushing stock for the foreseeable future.
+Nvidia and Taiwan Semiconductor are seeing huge growth right now because they're providing the computing power necessary for AI. The next three are also benefiting and will likely see even more success over the next decade.
+More AI applications will rise over the next few years
+At first glance, Amazon doesn't seem like much of an AI company. However, it has large exposure through its cloud computing wing, Amazon Web Services (AWS), which is the largest cloud computing provider.
+It's seeing strong demand for increased computing capacity for AI workloads. With this demand expected to rapidly increase over the next decade, this bodes well for AWS, which makes up the majority of Amazon's profits, helping drive the stock to new heights.
+Meta Platforms is developing its own in-house generative AI model, Llama. It has several uses for it, but the biggest is maintaining its role at the top of the social media world.
+Meta owns two of the biggest social media platforms, Facebook and Instagram, which generate most of their money through ad revenue. The company has integrated AI tools into its ad services and has already seen an uptick in interaction and conversion rates. This effect will become even greater as generative AI technologies improve, making Meta a strong stock pick for the next decade.
+Lastly is Alphabet. Many think Alphabet will be displaced by AI because it gets the majority of its revenue through Google Search, which is seen as a target for AI disruption. However, that hasn't happened yet, and Google Search continues to get larger, with revenue rising 12% in the second quarter.
+Part of its success can be attributed to the rise of its Search Overviews, which are a hybrid between a traditional search engine and generative AI. This feature has become popular and could be enough to keep Google on top in search, allowing it to achieve new heights over the next decade.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $668,155!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,106,071!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,070% — a market-crushing outperformance compared to 184% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keithen Drury has positions in Alphabet, Amazon, Meta Platforms, Nvidia, and Taiwan Semiconductor Manufacturing. The Motley Fool has positions in and recommends Alphabet, Amazon, Meta Platforms, Nvidia, and Taiwan Semiconductor Manufacturing. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Key Points Nvidia and Taiwan Semiconductor are slated to profit from the huge AI computing power buildout. Meta Platforms and Alphabet are using AI to improve advertising. Amazon's cloud computing division is seeing strong AI demand. The best investing strategies involve buying great companies and holding them over long periods to let them be, which has yielded impressive returns if you picked the right businesses. Among the top performers over the past decade have been Nvidia (NASDAQ: NVDA), Taiwan Semiconductor Manufacturing (NYSE: TSM), Amazon (NASDAQ: AMZN), Meta Platforms (NASDAQ: META), and Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL). I removed Nvidia from the chart below because it's up over 30,000% in the past decade, which skews the graph, but the other four have also done phenomenally well. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More TSM data by YCharts. The "worst" performer of the remaining four has been Alphabet, with its stock rising nearly five times in value. These five stocks have had a strong run over the past decade, but I still believe they are excellent picks for the next decade, mainly due to the proliferation of artificial intelligence (AI). They are at the top of my list right now, and I think buying shares with the mindset of holding for the next decade is a wise investment strategy. Image source: Getty Images. Nvidia and Taiwan Semiconductor are providing AI computing power All five of these stocks are benefiting in various ways from the AI race. Nvidia makes graphics processing units (GPUs), which are currently the most popular computing hardware for running and training AI models. It owns this market, and its dominance has allowed it to become the world's largest company. There's still a huge AI computing demand that hasn't been met, which bodes well for Nvidia's future. Because of this, it remains one of the best stocks to buy and hold over the next decade. Taiwan Semiconductor (TSMC for short) is a manufacturer that produces chips for many of the major players in AI, including Nvidia. These companies don't have chip production capabilities, so they farm that work out to TSMC, which has earned its reputation for being the best foundry in the world through continuous innovation and impressive yields. There are few challengers to its supremacy, and this position will help it continue to be a market crushing stock for the foreseeable future. Nvidia and Taiwan Semiconductor are seeing huge growth right now because they're providing the computing power necessary for AI. The next three are also benefiting and will likely see even more success over the next decade. More AI applications will rise over the next few years At first glance, Amazon doesn't seem like much of an AI company. However, it has large exposure through its cloud computing wing, Amazon Web Services (AWS), which is the largest cloud computing provider. It's seeing strong demand for increased computing capacity for AI workloads. With this demand expected to rapidly increase over the next decade, this bodes well for AWS, which makes up the majority of Amazon's profits, helping drive the stock to new heights. Meta Platforms is developing its own in house generative AI model, Llama. It has several uses for it, but the biggest is maintaining its role at the top of the social media world. Meta owns two of the biggest social media platforms, Facebook and Instagram, which generate most of their money through ad revenue. The company has integrated AI tools into its ad services and has already seen an uptick in interaction and conversion rates. This effect will become even greater as generative AI technologies improve, making Meta a strong stock pick for the next decade. Lastly is Alphabet. Many think Alphabet will be displaced by AI because it gets the majority of its revenue through Google Search, which is seen as a target for AI disruption. However, that hasn't happened yet, and Google Search continues to get larger, with revenue rising 12% in the second quarter. Part of its success can be attributed to the rise of its Search Overviews, which are a hybrid between a traditional search engine and generative AI. This feature has become popular and could be enough to keep Google on top in search, allowing it to achieve new heights over the next decade. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $668,155! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,106,071! Now, its worth noting Stock Advisors total average return is 1,070% a market crushing outperformance compared to 184% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keithen Drury has positions in Alphabet, Amazon, Meta Platforms, Nvidia, and Taiwan Semiconductor Manufacturing. The Motley Fool has positions in and recommends Alphabet, Amazon, Meta Platforms, Nvidia, and Taiwan Semiconductor Manufacturing. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45886.58333333334</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Retail trading trends: Top names investors are buying</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/retail-trading-trends-top-names-180016299.html</t>
+        </is>
+      </c>
+      <c r="E203" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45886.52152777778</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>The 7 Booming Industries You've Probably Never Thought About  But They're Making People Rich</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/7-booming-industries-youve-probably-163109255.html</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45886.29791666667</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>After Gaining $394 Billion in Market Cap in 3 Days, Is Apple Stock on Its Way to Joining Nvidia and Microsoft in the $4 Trillion Club?</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142393/after-gaining-394-billion-in-market-cap-in-3-days-is-apple-stock-on-its-way-to-joining-nvidia-and-microsoft-in-the-4-trillion-club</t>
+        </is>
+      </c>
+      <c r="E205" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Apple’s U.S. manufacturing investment could lower its tariff expense.
+The company’s results are improving, but growth is still sluggish.
+Apple needs to justify its lofty valuation with AI-related product upgrades that are well-received by its diverse user base.
+After closing at $202.69 per share on Aug. 5, Apple (NASDAQ: AAPL) stock soared a staggering 13% in just three days to finish Aug. 8 at $229.09 per share.
+The move pole-vaulted the tech giant's market cap to $3.404 trillion -- a whopping $394 billion gain. That's like creating a company the size of Home Depot out of thin air.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+After languishing for most of the year, let's determine if Apple has what it takes to join Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT) in the $4 trillion market cap club, and if the growth stock is a buy now.
+Image source: Getty Images.
+Apple's sudden pop came in response to its $100 billion manufacturing program. Announced last week, the program will create American jobs and onshore some of Apple's complex supply chain.
+Due to Apple CEO Tim Cook's visit to the White House and Apple's manufacturing commitment, President Trump said that Apple would be 100% exempt from a specific tariff on imported semiconductors. The potential for Apple to reduce its costly tariff expense, and maybe even get government support for its onshoring efforts, is undoubtedly a boon for the company's near-term prospects.
+Apple isn't the only mega-cap company that is trying to work with the current administration on tariffs. On Monday, reports indicated that Nvidia made a deal with President Trump, allowing the chipmaker to resume exporting its H20 chips in exchange for giving the U.S. government 15% of its revenue from China. The H20 is a scaled-down version of Nvidia's most advanced chips, which are custom-built for Chinese markets to comply with trade restrictions. The current administration intends to retain certain tariffs, but it also appears willing to negotiate deals with big businesses.
+Apple's manufacturing news is positive, based on the near-term impact of tariffs. The investment could help Apple reduce its sensitivity to trade tensions and geopolitical risk. However, it's unclear how it impacts Apple's long-term investment thesis. Apple has mastered the art of managing a global supply chain to achieve cost advantages and boost its profit margins. Onshoring some of its supply chain could lead to higher costs.
+However, Apple has yet to make a meaningful splash in artificial intelligence (AI) -- which is one of the main reasons why the tech giant has been lagging behind the performance of other, more defined AI winners like Nvidia and Microsoft.
+In Apple's defense, the company has built on Apple Intelligence and released a new design update called Liquid Glass. Overall, the market is not impressed with the company's AI efforts, considering how sluggish Apple's growth has been in recent years.
+Apple has heavily relied on its high-margin services segment and stock buybacks to drive earnings to offset weak results from its product segment. Apple's services, which include iCloud, Apple Music, and Apple TV+, have been the standout for years now. But Apple's bottom line depends more on key products, like iPhone, Mac, iPad, and wearables.
+Investors breathed a sigh of relief after Apple's latest quarter -- the third quarter of fiscal 2025 -- which showed a significant improvement in its product segment. Revenue grew 10% and diluted earnings per share (EPS) jumped 12% including double-digit growth in iPhone, Mac, and services. Despite the solid quarter, Apple's net income has slightly declined over the last three years, so its earnings are only up due to buybacks. But the stock price has gone up substantially, which has made Apple relatively expensive.
+Apple's results are headed in the right direction, but the valuation is far from cheap. In fact, Apple's forward price-to-earnings (P/E) ratio, which is the stock price divided by analyst consensus EPS estimates over the next 12 months, is higher than its five-year and 10-year median P/E ratios. Even if Apple performs as expected and the stock price doesn't move for a year, it will still be relatively expensive.
+AAPL PE Ratio data by YCharts.
+Apple is taking the right approach to integrating AI across its product suite. Apple's competitive advantages are its design, user-friendly products, seamless integration of software and hardware, and comprehensive product offerings for consumers and businesses. In other words, the everyday usefulness of Apple's AI features is the most important performance indicator.
+Investors who agree with Apple's deliberate approach to AI may still want to consider buying the stock now, despite the premium valuation. However, given how pricey Apple is, its road to $4 trillion in market cap will likely need to come from earnings growth rather than valuation expansion.
+With a market cap of $3.418 trillion at the time of this writing, Apple would have to jump 17% to cross $4 trillion. It could certainly grow earnings by that much in a year or two. And if investors like what the company is doing with AI, it could maintain its higher-than-historical valuation.
+All told, I expect Apple to cross $4 trillion in market cap by the end of 2026 -- but investors shouldn't expect the company to get there overnight -- even after adding $392 billion in market cap in just three days.
+Before you buy stock in Apple, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Apple wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Apple, Home Depot, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.
+| 2 hours | |
+| 2 hours | |
+| 4 hours | |
+| 6 hours | |
+| 8 hours | |
+| 8 hours | |
+| 10 hours | |
+| 11 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 14 hours | |
+| 14 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Apples U.S. manufacturing investment could lower its tariff expense. The companys results are improving, but growth is still sluggish. Apple needs to justify its lofty valuation with AI related product upgrades that are well received by its diverse user base. After closing at $202.69 per share on Aug. 5, Apple (NASDAQ: AAPL) stock soared a staggering 13% in just three days to finish Aug. 8 at $229.09 per share. The move pole vaulted the tech giant's market cap to $3.404 trillion a whopping $394 billion gain. That's like creating a company the size of Home Depot out of thin air. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More After languishing for most of the year, let's determine if Apple has what it takes to join Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT) in the $4 trillion market cap club, and if the growth stock is a buy now. Image source: Getty Images. Apple's sudden pop came in response to its $100 billion manufacturing program. Announced last week, the program will create American jobs and onshore some of Apple's complex supply chain. Due to Apple CEO Tim Cook's visit to the White House and Apple's manufacturing commitment, President Trump said that Apple would be 100% exempt from a specific tariff on imported semiconductors. The potential for Apple to reduce its costly tariff expense, and maybe even get government support for its onshoring efforts, is undoubtedly a boon for the company's near term prospects. Apple isn't the only mega cap company that is trying to work with the current administration on tariffs. On Monday, reports indicated that Nvidia made a deal with President Trump, allowing the chipmaker to resume exporting its H20 chips in exchange for giving the U.S. government 15% of its revenue from China. The H20 is a scaled down version of Nvidia's most advanced chips, which are custom built for Chinese markets to comply with trade restrictions. The current administration intends to retain certain tariffs, but it also appears willing to negotiate deals with big businesses. Apple's manufacturing news is positive, based on the near term impact of tariffs. The investment could help Apple reduce its sensitivity to trade tensions and geopolitical risk. However, it's unclear how it impacts Apple's long term investment thesis. Apple has mastered the art of managing a global supply chain to achieve cost advantages and boost its profit margins. Onshoring some of its supply chain could lead to higher costs. However, Apple has yet to make a meaningful splash in artificial intelligence (AI) which is one of the main reasons why the tech giant has been lagging behind the performance of other, more defined AI winners like Nvidia and Microsoft. In Apple's defense, the company has built on Apple Intelligence and released a new design update called Liquid Glass. Overall, the market is not impressed with the company's AI efforts, considering how sluggish Apple's growth has been in recent years. Apple has heavily relied on its high margin services segment and stock buybacks to drive earnings to offset weak results from its product segment. Apple's services, which include iCloud, Apple Music, and Apple TV+, have been the standout for years now. But Apple's bottom line depends more on key products, like iPhone, Mac, iPad, and wearables. Investors breathed a sigh of relief after Apple's latest quarter the third quarter of fiscal 2025 which showed a significant improvement in its product segment. Revenue grew 10% and diluted earnings per share (EPS) jumped 12% including double digit growth in iPhone, Mac, and services. Despite the solid quarter, Apple's net income has slightly declined over the last three years, so its earnings are only up due to buybacks. But the stock price has gone up substantially, which has made Apple relatively expensive. Apple's results are headed in the right direction, but the valuation is far from cheap. In fact, Apple's forward price to earnings (P/E) ratio, which is the stock price divided by analyst consensus EPS estimates over the next 12 months, is higher than its five year and 10 year median P/E ratios. Even if Apple performs as expected and the stock price doesn't move for a year, it will still be relatively expensive. AAPL PE Ratio data by YCharts. Apple is taking the right approach to integrating AI across its product suite. Apple's competitive advantages are its design, user friendly products, seamless integration of software and hardware, and comprehensive product offerings for consumers and businesses. In other words, the everyday usefulness of Apple's AI features is the most important performance indicator. Investors who agree with Apple's deliberate approach to AI may still want to consider buying the stock now, despite the premium valuation. However, given how pricey Apple is, its road to $4 trillion in market cap will likely need to come from earnings growth rather than valuation expansion. With a market cap of $3.418 trillion at the time of this writing, Apple would have to jump 17% to cross $4 trillion. It could certainly grow earnings by that much in a year or two. And if investors like what the company is doing with AI, it could maintain its higher than historical valuation. All told, I expect Apple to cross $4 trillion in market cap by the end of 2026 but investors shouldn't expect the company to get there overnight even after adding $392 billion in market cap in just three days. Before you buy stock in Apple, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Apple wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Apple, Home Depot, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. 2 hours 2 hours 4 hours 6 hours 8 hours 8 hours 10 hours 11 hours 13 hours 13 hours 13 hours 13 hours 13 hours 14 hours 14 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45886.29513888889</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Don't Make This Common Investing Mistake When Buying S&amp;P 500 Stocks at All-Time Highs</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142391/dont-make-this-common-investing-mistake-when-buying-sp-500-stocks-at-all-time-highs</t>
+        </is>
+      </c>
+      <c r="E206" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Key Points
+Buying stocks at all-time highs goes against the instinct to get a good value.
+Over the long term, earnings drive stock prices higher or lower.
+Nvidia and Microsoft are examples of companies with stock prices that have gone up because the fundamentals have improved.
+At the time of this writing, the S&amp;P 500 (SNPINDEX: ^GSPC) is less than half a percentage point off its all-time high. With a 9.7% year-to-date gain, the index is on track to have another solid year, despite a brutal sell-off earlier this spring.
+The S&amp;P 500 is now up over threefold in the last decade and more than 50% in the last three years -- which may make some investors hesitant to buy stocks at all-time highs. Here's the best way to approach investing in the stock market at elevated levels, including a major mistake worth avoiding.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Stocks aren't like consumer goods
+One of the most common mistakes when investing in a stock after a major run-up is assuming it's expensive, just because its price is higher.
+Stocks represent partial ownership in businesses and aren't commodities or household goods. If the cost of a Toyota Camry suddenly jumped to double that of the Honda Accord, then Camry sales would likely plummet, as many buyers would view the Camry as overpriced.
+Stocks don't work like that. They aren't products with set specifications and design elements, but evolve as the business evolves. Sometimes, a business can reinvent itself, leading its stock price to surge for all the right reasons. Two examples of this dynamic hiding in plain sight are Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT).
+Transformational growth
+Nvidia was founded in the early 1990s to create 3D graphics for the gaming and multimedia markets. Recently, the company's data center segment has surpassed its gaming and professional visualization segment.
+In Nvidia's most recent quarter -- the first quarter fiscal 2026 -- data center revenue made up 88.7% of total revenue. The company may have started as a gaming company, but it's something entirely different today.
+Valuing Nvidia based on what it was rather than where it's going would have made the stock look expensive at any point over the last few years. So far, Nvidia has backed up the torrid ascent of its stock price with earnings growth, and there's reason to believe that can continue.
+Microsoft hasn't undergone as dramatic a transformation as Nvidia. The core applications that make up the Microsoft 365 software suite are nothing new, and Microsoft's cloud computing platform Azure has been a major player in the space for over a decade. However, the company's revenue growth rate and profit margin are on another level -- which is driving its surging stock price.
+Microsoft is achieving these incredible results largely due to growing demand for Azure and the company's integration of artificial intelligence (AI) across its business, from legacy software to cloud, Azure OpenAI, gaming, electronics, and more. It has leveraged AI to enhance its products and services, and that's driving margin growth.
+Like Nvidia, Microsoft is a good example of a stock at an all-time high because the underlying business is doing well and is expected to continue doing well.
+Balancing quality and valuations
+When a major index like the S&amp;P 500 is near an all-time high and coming off an extended period of outsized gains, the market is viewed as expensive. However, it doesn't mean that all stocks are overvalued.
+There are plenty of S&amp;P 500 components at multiyear lows, and there are many that may have run up too far, too fast, to where their valuations are getting separated from fundamentals. The key is to stick with the companies that can justify their valuations because they have proven business models, impeccable growth prospects, or a combination of the two.
+Buying stocks like Nvidia and Microsoft after their massive gains isn't a bad idea, but only if you believe the results are here to stay and can be built upon.
+Nvidia and Microsoft make up a combined 14.6% of the S&amp;P 500. Throw in the rest of the "Ten Titans" -- Apple, Amazon, Alphabet, Meta Platforms, Broadcom, Tesla, Oracle, and Netflix -- and that's 39% of the index. Investing in the S&amp;P 500 at an all-time high inherently means that you believe the companies leading the index are still good buys.
+The higher the valuation of a stock or exchange-traded fund (ETF), the more conviction you need to justify paying a premium. If there's a terrific company on sale, you don't need that much to go right to make a solid investment case.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Key Points Buying stocks at all time highs goes against the instinct to get a good value. Over the long term, earnings drive stock prices higher or lower. Nvidia and Microsoft are examples of companies with stock prices that have gone up because the fundamentals have improved. At the time of this writing, the S&amp;P 500 (SNPINDEX: ^GSPC) is less than half a percentage point off its all time high. With a 9.7% year to date gain, the index is on track to have another solid year, despite a brutal sell off earlier this spring. The S&amp;P 500 is now up over threefold in the last decade and more than 50% in the last three years which may make some investors hesitant to buy stocks at all time highs. Here's the best way to approach investing in the stock market at elevated levels, including a major mistake worth avoiding. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Stocks aren't like consumer goods One of the most common mistakes when investing in a stock after a major run up is assuming it's expensive, just because its price is higher. Stocks represent partial ownership in businesses and aren't commodities or household goods. If the cost of a Toyota Camry suddenly jumped to double that of the Honda Accord, then Camry sales would likely plummet, as many buyers would view the Camry as overpriced. Stocks don't work like that. They aren't products with set specifications and design elements, but evolve as the business evolves. Sometimes, a business can reinvent itself, leading its stock price to surge for all the right reasons. Two examples of this dynamic hiding in plain sight are Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT). Transformational growth Nvidia was founded in the early 1990s to create 3D graphics for the gaming and multimedia markets. Recently, the company's data center segment has surpassed its gaming and professional visualization segment. In Nvidia's most recent quarter the first quarter fiscal 2026 data center revenue made up 88.7% of total revenue. The company may have started as a gaming company, but it's something entirely different today. Valuing Nvidia based on what it was rather than where it's going would have made the stock look expensive at any point over the last few years. So far, Nvidia has backed up the torrid ascent of its stock price with earnings growth, and there's reason to believe that can continue. Microsoft hasn't undergone as dramatic a transformation as Nvidia. The core applications that make up the Microsoft 365 software suite are nothing new, and Microsoft's cloud computing platform Azure has been a major player in the space for over a decade. However, the company's revenue growth rate and profit margin are on another level which is driving its surging stock price. Microsoft is achieving these incredible results largely due to growing demand for Azure and the company's integration of artificial intelligence (AI) across its business, from legacy software to cloud, Azure OpenAI, gaming, electronics, and more. It has leveraged AI to enhance its products and services, and that's driving margin growth. Like Nvidia, Microsoft is a good example of a stock at an all time high because the underlying business is doing well and is expected to continue doing well. Balancing quality and valuations When a major index like the S&amp;P 500 is near an all time high and coming off an extended period of outsized gains, the market is viewed as expensive. However, it doesn't mean that all stocks are overvalued. There are plenty of S&amp;P 500 components at multiyear lows, and there are many that may have run up too far, too fast, to where their valuations are getting separated from fundamentals. The key is to stick with the companies that can justify their valuations because they have proven business models, impeccable growth prospects, or a combination of the two. Buying stocks like Nvidia and Microsoft after their massive gains isn't a bad idea, but only if you believe the results are here to stay and can be built upon. Nvidia and Microsoft make up a combined 14.6% of the S&amp;P 500. Throw in the rest of the "Ten Titans" Apple, Amazon, Alphabet, Meta Platforms, Broadcom, Tesla, Oracle, and Netflix and that's 39% of the index. Investing in the S&amp;P 500 at an all time high inherently means that you believe the companies leading the index are still good buys. The higher the valuation of a stock or exchange traded fund (ETF), the more conviction you need to justify paying a premium. If there's a terrific company on sale, you don't need that much to go right to make a solid investment case. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45886.29166666666</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Trumps unprecedented, potentially unconstitutional deal with Nvidia and AMD, explained: Alexander Hamilton would approve</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/trump-unprecedented-potentially-unconstitutional-deal-110000020.html</t>
+        </is>
+      </c>
+      <c r="E207" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45886.29166666666</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Nvidia and AMDs special treatment from Trump is shaking up an already tangled global chip supply chain</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-special-treatment-trump-110000802.html</t>
+        </is>
+      </c>
+      <c r="E208" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45886.25208333333</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Meta spends more guarding Mark Zuckerberg than Apple, Nvidia, Microsoft, Amazon, and Alphabet do for their own CEOscombined</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/meta-spends-more-guarding-mark-100300414.html</t>
+        </is>
+      </c>
+      <c r="E209" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45886.24513888889</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Chipmakers Nvidia and AMD to pay 15% of China revenue to US government</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/91630ab4-07a9-3a15-85c5-0f54a7bfd2f5/chipmakers-nvidia-and-amd-to.html</t>
+        </is>
+      </c>
+      <c r="E210" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45886.21319444444</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>5 Brilliant Quantum Computing Stocks to Buy Right Now</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142382/5-brilliant-quantum-computing-stocks-to-buy-right-now</t>
+        </is>
+      </c>
+      <c r="E211" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Key Points
+Some of the legacy tech giants are participating in quantum computing.
+That is one great way to bridge the gap between AI and quantum technology.
+But quantum computing pure plays could provide massive upside if they work out.
+Quantum computing isn't an easy area to invest in right now. Most companies agree that 2030 will be a turning point for the industry and commercially viable quantum computers will be available then. That's still a ways off, and investors need to be careful not to get in too early; otherwise, there could be a significant opportunity cost that would be incurred by investing in quantum computing instead of other possible areas.
+Still, I think there could be a huge opportunity if you invest in the right quantum computing stocks right now. I've got five stocks that can be purchased in a group that ensures investors get exposure to quantum computing as well as current market trends, and I think it's highly likely that this cohort outperforms the market over the next few years.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Legacy tech players
+Quantum computing isn't an industry reserved for start-ups; some of the biggest names in tech are also investing in this technology. Two of the biggest are Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) and Microsoft (NASDAQ: MSFT). Both of these companies are developing their own quantum computing chip in-house, which could result in massive profits down the road if each develops a viable quantum computing solution.
+Both companies will use quantum computing for themselves, but will also offer it to clients through their respective cloud computing services. Right now, the big growth drivers for cloud computing are the migration of traditional workloads and artificial intelligence, but quantum computing could provide another growth driver. Microsoft's CEO stated that he believes quantum computing will be the next accelerator in the cloud, which could mean further growth for both Alphabet and Microsoft.
+Another legacy tech player that will benefit is Nvidia (NASDAQ: NVDA). While Nvidia isn't directly developing quantum processing units, it's helping quantum computing players take a hybrid computing approach between traditional and quantum computing methods. It's also developing a quantum-focused version of its CUDA software, which helped it establish dominance in the traditional computing landscape.
+All three of these companies are excelling in the AI-driven market, but also have long-term investments ongoing in the quantum world. By investing in these three today, investors can ensure they have exposure to both current and emerging trends. But there are also a few pure plays that look intriguing.
+Quantum computing pure plays
+I also like adding picks like IonQ (NYSE: IONQ) and D-Wave Quantum (NYSE: QBTS) into this basket, because it gives investors the massive upside of a pure-play quantum computing company. These two aren't very big companies, but if they make quantum computing viable, they could turn into huge winners for investors.
+While some may argue these two are due to be outspent and outclassed by competitors like Alphabet and Microsoft, they are actually taking a different approach to quantum computing entirely.
+Most quantum computing competitors like Alphabet and Microsoft are using a superconducting approach for their chips. However, IonQ is using a trapped ion technique, and D-Wave is using a quantum annealing approach. All three of these approaches have their use cases, but it will be some time before investors know which is the best.
+By having exposure to all three, investors have the best chance to make a profit in this emerging industry. Although we're still a few years out from quantum computing relevance, I think owning a basket of legacy and emerging players is a smart way to ensure investors make a great profit.
+Should you invest $1,000 in IonQ right now?
+Before you buy stock in IonQ, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and IonQ wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keithen Drury has positions in Alphabet and Nvidia. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Key Points Some of the legacy tech giants are participating in quantum computing. That is one great way to bridge the gap between AI and quantum technology. But quantum computing pure plays could provide massive upside if they work out. Quantum computing isn't an easy area to invest in right now. Most companies agree that 2030 will be a turning point for the industry and commercially viable quantum computers will be available then. That's still a ways off, and investors need to be careful not to get in too early; otherwise, there could be a significant opportunity cost that would be incurred by investing in quantum computing instead of other possible areas. Still, I think there could be a huge opportunity if you invest in the right quantum computing stocks right now. I've got five stocks that can be purchased in a group that ensures investors get exposure to quantum computing as well as current market trends, and I think it's highly likely that this cohort outperforms the market over the next few years. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Legacy tech players Quantum computing isn't an industry reserved for start ups; some of the biggest names in tech are also investing in this technology. Two of the biggest are Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) and Microsoft (NASDAQ: MSFT). Both of these companies are developing their own quantum computing chip in house, which could result in massive profits down the road if each develops a viable quantum computing solution. Both companies will use quantum computing for themselves, but will also offer it to clients through their respective cloud computing services. Right now, the big growth drivers for cloud computing are the migration of traditional workloads and artificial intelligence, but quantum computing could provide another growth driver. Microsoft's CEO stated that he believes quantum computing will be the next accelerator in the cloud, which could mean further growth for both Alphabet and Microsoft. Another legacy tech player that will benefit is Nvidia (NASDAQ: NVDA). While Nvidia isn't directly developing quantum processing units, it's helping quantum computing players take a hybrid computing approach between traditional and quantum computing methods. It's also developing a quantum focused version of its CUDA software, which helped it establish dominance in the traditional computing landscape. All three of these companies are excelling in the AI driven market, but also have long term investments ongoing in the quantum world. By investing in these three today, investors can ensure they have exposure to both current and emerging trends. But there are also a few pure plays that look intriguing. Quantum computing pure plays I also like adding picks like IonQ (NYSE: IONQ) and D Wave Quantum (NYSE: QBTS) into this basket, because it gives investors the massive upside of a pure play quantum computing company. These two aren't very big companies, but if they make quantum computing viable, they could turn into huge winners for investors. While some may argue these two are due to be outspent and outclassed by competitors like Alphabet and Microsoft, they are actually taking a different approach to quantum computing entirely. Most quantum computing competitors like Alphabet and Microsoft are using a superconducting approach for their chips. However, IonQ is using a trapped ion technique, and D Wave is using a quantum annealing approach. All three of these approaches have their use cases, but it will be some time before investors know which is the best. By having exposure to all three, investors have the best chance to make a profit in this emerging industry. Although we're still a few years out from quantum computing relevance, I think owning a basket of legacy and emerging players is a smart way to ensure investors make a great profit. Should you invest $1,000 in IonQ right now? Before you buy stock in IonQ, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and IonQ wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keithen Drury has positions in Alphabet and Nvidia. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45886.20902777778</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>The race for sovereign AI is intensifying. Heres what you need to know</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/race-sovereign-ai-intensifying-know-154054977.html</t>
+        </is>
+      </c>
+      <c r="E212" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45886.20138888889</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>5 Top Artificial Intelligence Stocks to Buy in August</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142380/5-top-artificial-intelligence-stocks-to-buy-in-august</t>
+        </is>
+      </c>
+      <c r="E213" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Nvidia and Broadcom are AI infrastructure leaders.
+Palantir's AI platform is driving huge growth for the company.
+Alphabet and GitLab are two AI stocks that are still cheap.
+Artificial intelligence (AI) continues to be reshaping the world we live in, which can be both exciting and scary. It's also reshaping the stock market, and it is certainly an area you want to invest in.
+Let's look at the stocks of five AI leaders that would make top stock buys this month.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+Image source: Getty Images.
+Nvidia (NASDAQ: NVDA) remains the king of AI infrastructure. Its graphics processing units (GPUs) power most AI workloads worldwide, and in the first quarter, it commanded an astonishing 92% of the GPU market. What really sets it apart is its CUDA software platform, which it planted into universities and research labs years before AI went mainstream. That early push created a generation of developers trained on its tools and libraries built on top of its platform, building a moat that rivals struggle to cross.
+Nvidia has also accelerated its product cycle, planning new chip launches annually to stay ahead of the competition. Its growth opportunities also go beyond data centers, with the automotive market another big opportunity, thanks to the rise of self-driving and robotaxis.
+Nvidia's mix of market dominance, software moat, and expansion into new markets keeps it firmly at the center of AI.
+Palantir Technologies (NASDAQ: PLTR) started as a critical analytics partner to U.S. government agencies but is now making its mark in commercial markets. Its Artificial Intelligence Platform (AIP) integrates data from numerous sources into an "ontology," allowing AI models to produce clear, actionable results.
+AIP is essentially becoming an AI operating system, making it a vital platform as companies begin to use AI in their operations. The strength of AIP could be seen in its Q2 results, as the company's U.S. commercial revenue surged 93%, while its total deal value more than doubled and its customer base climbed 43%.
+Given the breadth of use cases across very different industries that AIP can handle, Palantir has a long runway of growth in front of it. The company has continued to see accelerating revenue growth, and the best part is that many of its customers are still in their early stages of usage.
+As an essential component of the emerging AI economy, Palantir has the potential to grow into one of the largest companies in the world.
+Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG) is proving that AI can strengthen its core businesses. Search has gained momentum with AI Overviews, which is now being used by over 2 billion people a month, helping drive a 12% year-over-year increase in search revenue last quarter. Google Cloud is another major beneficiary of AI, with its revenue jumping 32% and operating profit more than doubling in Q2, thanks to strong AI demand on its Vertex platform.
+Another area that is often overlooked is Alphabet's Tensor Processing Units (TPUs). As inference performance per dollar starts becoming one of the most important factors in running AI models, Alphabet has a nice advantage with its custom chips.
+In addition to search and cloud computing, Alphabet is also seeing solid contributions from its other businesses. YouTube ad revenue grew 13% last quarter, with Shorts leading the way. Meanwhile, Waymo is picking up steam, rolling out its robotaxi services to new cities across the U.S.
+From a valuation perspective, Alphabet is one of the most attractive AI stocks in the market, trading at a forward P/E just over 20. This makes it a must-own stock.
+Rather than competing directly with Nvidia with GPUs, chipmaker Broadcom (NASDAQ: AVGO) is playing to its strengths in AI networking and custom chip design. Its Ethernet switches and other networking components are critical for moving vast amounts of data between AI clusters. Demand here is booming, with its AI networking revenue up 70% in Q1.
+The real prize, though, may be its work on custom application-specific integrated circuits (ASICs). Broadcom helped develop Alphabet's TPUs and is now designing chips for multiple hyperscalers (companies with massive data centers), with management estimating its top three customers alone could represent a $60 billion to $90 billion opportunity in fiscal 2027.
+Its recent acquisition of VMware adds another growth lever, with its Cloud Foundation platform helping enterprises manage AI workloads across hybrid cloud environments. Between its leadership in data center networking components, custom chip expertise, and virtualization software, Broadcom is becoming one of the most important players in AI infrastructure.
+GitLab (NASDAQ: GTLB) is evolving from a code repository into a full-fledged AI-powered software development platform. Its GitLab 18 release brought more than 30 upgrades, including Duo Agent, which can automate testing, deployment, security, and monitoring. That's important, because developers spend only a fraction of their time writing code. Automating the rest of the workflow can dramatically increase productivity.
+GitLab has delivered steady 25%-plus revenue growth since going public, with Q1 sales rising 27% year over year. The value of its platform in an AI-driven development world opens the door to a possible shift from seat-based to consumption-based pricing, which could drive revenue even higher. With AI changing how software is built, GitLab's end-to-end approach positions it as a key player in enterprise software development.
+As investors worry about the impact of AI on software, GitLab's stock has fallen to a very attractive valuation of a forward price-to-sales (P/S) ratio of 7 times the 2025 analyst estimates.
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Geoffrey Seiler has positions in Alphabet and GitLab. The Motley Fool has positions in and recommends Alphabet, GitLab, Nvidia, and Palantir Technologies. The Motley Fool recommends Broadcom. The Motley Fool has a disclosure policy.
+| 2 hours | |
+| 2 hours | |
+| 4 hours | |
+| 5 hours | |
+| 6 hours | |
+| 8 hours | |
+| 8 hours | |
+| 10 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 14 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Nvidia and Broadcom are AI infrastructure leaders. Palantir's AI platform is driving huge growth for the company. Alphabet and GitLab are two AI stocks that are still cheap. Artificial intelligence (AI) continues to be reshaping the world we live in, which can be both exciting and scary. It's also reshaping the stock market, and it is certainly an area you want to invest in. Let's look at the stocks of five AI leaders that would make top stock buys this month. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More Image source: Getty Images. Nvidia (NASDAQ: NVDA) remains the king of AI infrastructure. Its graphics processing units (GPUs) power most AI workloads worldwide, and in the first quarter, it commanded an astonishing 92% of the GPU market. What really sets it apart is its CUDA software platform, which it planted into universities and research labs years before AI went mainstream. That early push created a generation of developers trained on its tools and libraries built on top of its platform, building a moat that rivals struggle to cross. Nvidia has also accelerated its product cycle, planning new chip launches annually to stay ahead of the competition. Its growth opportunities also go beyond data centers, with the automotive market another big opportunity, thanks to the rise of self driving and robotaxis. Nvidia's mix of market dominance, software moat, and expansion into new markets keeps it firmly at the center of AI. Palantir Technologies (NASDAQ: PLTR) started as a critical analytics partner to U.S. government agencies but is now making its mark in commercial markets. Its Artificial Intelligence Platform (AIP) integrates data from numerous sources into an "ontology," allowing AI models to produce clear, actionable results. AIP is essentially becoming an AI operating system, making it a vital platform as companies begin to use AI in their operations. The strength of AIP could be seen in its Q2 results, as the company's U.S. commercial revenue surged 93%, while its total deal value more than doubled and its customer base climbed 43%. Given the breadth of use cases across very different industries that AIP can handle, Palantir has a long runway of growth in front of it. The company has continued to see accelerating revenue growth, and the best part is that many of its customers are still in their early stages of usage. As an essential component of the emerging AI economy, Palantir has the potential to grow into one of the largest companies in the world. Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG) is proving that AI can strengthen its core businesses. Search has gained momentum with AI Overviews, which is now being used by over 2 billion people a month, helping drive a 12% year over year increase in search revenue last quarter. Google Cloud is another major beneficiary of AI, with its revenue jumping 32% and operating profit more than doubling in Q2, thanks to strong AI demand on its Vertex platform. Another area that is often overlooked is Alphabet's Tensor Processing Units (TPUs). As inference performance per dollar starts becoming one of the most important factors in running AI models, Alphabet has a nice advantage with its custom chips. In addition to search and cloud computing, Alphabet is also seeing solid contributions from its other businesses. YouTube ad revenue grew 13% last quarter, with Shorts leading the way. Meanwhile, Waymo is picking up steam, rolling out its robotaxi services to new cities across the U.S. From a valuation perspective, Alphabet is one of the most attractive AI stocks in the market, trading at a forward P/E just over 20. This makes it a must own stock. Rather than competing directly with Nvidia with GPUs, chipmaker Broadcom (NASDAQ: AVGO) is playing to its strengths in AI networking and custom chip design. Its Ethernet switches and other networking components are critical for moving vast amounts of data between AI clusters. Demand here is booming, with its AI networking revenue up 70% in Q1. The real prize, though, may be its work on custom application specific integrated circuits (ASICs). Broadcom helped develop Alphabet's TPUs and is now designing chips for multiple hyperscalers (companies with massive data centers), with management estimating its top three customers alone could represent a $60 billion to $90 billion opportunity in fiscal 2027. Its recent acquisition of VMware adds another growth lever, with its Cloud Foundation platform helping enterprises manage AI workloads across hybrid cloud environments. Between its leadership in data center networking components, custom chip expertise, and virtualization software, Broadcom is becoming one of the most important players in AI infrastructure. GitLab (NASDAQ: GTLB) is evolving from a code repository into a full fledged AI powered software development platform. Its GitLab 18 release brought more than 30 upgrades, including Duo Agent, which can automate testing, deployment, security, and monitoring. That's important, because developers spend only a fraction of their time writing code. Automating the rest of the workflow can dramatically increase productivity. GitLab has delivered steady 25% plus revenue growth since going public, with Q1 sales rising 27% year over year. The value of its platform in an AI driven development world opens the door to a possible shift from seat based to consumption based pricing, which could drive revenue even higher. With AI changing how software is built, GitLab's end to end approach positions it as a key player in enterprise software development. As investors worry about the impact of AI on software, GitLab's stock has fallen to a very attractive valuation of a forward price to sales (P/S) ratio of 7 times the 2025 analyst estimates. Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Geoffrey Seiler has positions in Alphabet and GitLab. The Motley Fool has positions in and recommends Alphabet, GitLab, Nvidia, and Palantir Technologies. The Motley Fool recommends Broadcom. The Motley Fool has a disclosure policy. 2 hours 2 hours 4 hours 5 hours 6 hours 8 hours 8 hours 10 hours 13 hours 13 hours 13 hours 13 hours 13 hours 13 hours 14 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45886.19722222222</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Double the Disruption: The 3 Best Stocks to Buy Now to Profit From Both AI and Quantum Computing</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142379/double-the-disruption-the-3-best-stocks-to-buy-now-to-profit-from-both-ai-and-quantum-computing</t>
+        </is>
+      </c>
+      <c r="E214" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Key Points
+Alphabet has multiple ways to profit from AI and has achieved two key quantum computing milestones.
+Microsoft has integrated AI throughout its software and might have developed the "transistor for the quantum age."
+Nvidia is a critical player in AI and is positioning itself to be a big winner in quantum computing.
+Disruption isn't a dirty word for investors. Sure, some companies can fade away as their businesses are rendered obsolete by new technologies. However, others flourish and make smart investors a lot of money over time.
+I believe we're currently in the early stages of two massive disruptions. Artificial intelligence (AI) holds the potential to transform our world in too many ways to count. Quantum computing could accelerate AI advances while also revolutionizing finance, healthcare, logistics, and more.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+Although these are distinct disruptive technologies, you don't have to invest in them separately. Here are my picks for the three best stocks to buy now to profit from both AI and quantum computing.
+Image source: Getty Images.
+1. Alphabet
+Google parent Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) has been a pioneer in AI for years. The company developed the "T" (transformers) in ChatGPT. Its 2014 acquisition of DeepMind was, in retrospect, a pivotal move. Today, Google Gemini Pro ranks among the world's most powerful large language models (LLMs).
+Alphabet has multiple ways to profit from AI. Google Cloud is the fastest-growing major cloud services provider thanks to a massive AI tailwind. Google Search and YouTube use AI to boost ad revenue. Waymo is a leader in autonomous ride-hailing (robotaxis).
+But the company is also a major player in quantum computing. Google Quantum AI (note that both disruptive technologies are in the unit's name) has already notched two key quantum computing milestones. Its Sycamore chip achieved quantum supremacy (solving a problem in relatively short order that would take the most powerful classical computer an exceptionally long time) in 2019. The unit made a giant leap in quantum error correction (reducing errors by increasing the cubits) in 2023.
+I think it's a good bet that Alphabet will be one of the biggest winners in both AI and quantum computing over the long run. But this stock isn't a highly risky bet, in my view. The company is on track to generate close to $400 billion in revenue and more than $100 billion in profits this year.
+2. Microsoft
+Microsoft (NASDAQ: MSFT) arguably struck one of the best deals in business history by partnering with ChatGPT creator OpenAI back in 2022. The longtime technology giant has integrated OpenAI's AI models throughout its software suite.
+Like Alphabet, Microsoft is poised to benefit as organizations build and deploy AI applications in the cloud. Its Azure is the second-largest cloud services platform, behind only Amazon Web Services (AWS).
+Also like Alphabet, Microsoft is investing heavily in quantum computing. Earlier this year, the company introduced its Majorana 1 quantum chip, which uses a new type of material called a topoconductor. Microsoft thinks that topoconductors will pave the way for highly scalable, powerful quantum computers.
+Microsoft technical fellow Chetan Nayak believes that topoconductors might be the "transistor for the quantum age." If he's right, the company that dominated the PC software market could also dominate the quantum computing market.
+3. Nvidia
+Which company is the most essential player in AI today? There's a strong argument that it's Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs) remain in a league of their own in powering AI systems.
+Nvidia's customers include Alphabet and Microsoft, both of which use its GPUs extensively in their cloud platforms. And while rivals are trying desperately to knock Nvidia off its perch, the company's fast-paced development of new AI chips seems likely to keep it on top for years to come.
+However, Nvidia isn't developing quantum computers. How is investing in it a smart way to profit from both AI and quantum computing? The company is trying to make it easier for others to advance their quantum computing efforts through its NVIDIA Accelerated Quantum Computing (NVAQC) Research Center. Nvidia is also pairing its GPUs with quantum chips for a hybrid quantum-classical computing approach.
+Back in the gold rush days, the providers of picks and shovels often made more money than the gold miners themselves. Nvidia is positioning itself to be the pick-and-shovel investment of the quantum computing era.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keith Speights has positions in Alphabet and Microsoft. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Key Points Alphabet has multiple ways to profit from AI and has achieved two key quantum computing milestones. Microsoft has integrated AI throughout its software and might have developed the "transistor for the quantum age." Nvidia is a critical player in AI and is positioning itself to be a big winner in quantum computing. Disruption isn't a dirty word for investors. Sure, some companies can fade away as their businesses are rendered obsolete by new technologies. However, others flourish and make smart investors a lot of money over time. I believe we're currently in the early stages of two massive disruptions. Artificial intelligence (AI) holds the potential to transform our world in too many ways to count. Quantum computing could accelerate AI advances while also revolutionizing finance, healthcare, logistics, and more. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More Although these are distinct disruptive technologies, you don't have to invest in them separately. Here are my picks for the three best stocks to buy now to profit from both AI and quantum computing. Image source: Getty Images. 1. Alphabet Google parent Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) has been a pioneer in AI for years. The company developed the "T" (transformers) in ChatGPT. Its 2014 acquisition of DeepMind was, in retrospect, a pivotal move. Today, Google Gemini Pro ranks among the world's most powerful large language models (LLMs). Alphabet has multiple ways to profit from AI. Google Cloud is the fastest growing major cloud services provider thanks to a massive AI tailwind. Google Search and YouTube use AI to boost ad revenue. Waymo is a leader in autonomous ride hailing (robotaxis). But the company is also a major player in quantum computing. Google Quantum AI (note that both disruptive technologies are in the unit's name) has already notched two key quantum computing milestones. Its Sycamore chip achieved quantum supremacy (solving a problem in relatively short order that would take the most powerful classical computer an exceptionally long time) in 2019. The unit made a giant leap in quantum error correction (reducing errors by increasing the cubits) in 2023. I think it's a good bet that Alphabet will be one of the biggest winners in both AI and quantum computing over the long run. But this stock isn't a highly risky bet, in my view. The company is on track to generate close to $400 billion in revenue and more than $100 billion in profits this year. 2. Microsoft Microsoft (NASDAQ: MSFT) arguably struck one of the best deals in business history by partnering with ChatGPT creator OpenAI back in 2022. The longtime technology giant has integrated OpenAI's AI models throughout its software suite. Like Alphabet, Microsoft is poised to benefit as organizations build and deploy AI applications in the cloud. Its Azure is the second largest cloud services platform, behind only Amazon Web Services (AWS). Also like Alphabet, Microsoft is investing heavily in quantum computing. Earlier this year, the company introduced its Majorana 1 quantum chip, which uses a new type of material called a topoconductor. Microsoft thinks that topoconductors will pave the way for highly scalable, powerful quantum computers. Microsoft technical fellow Chetan Nayak believes that topoconductors might be the "transistor for the quantum age." If he's right, the company that dominated the PC software market could also dominate the quantum computing market. 3. Nvidia Which company is the most essential player in AI today? There's a strong argument that it's Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs) remain in a league of their own in powering AI systems. Nvidia's customers include Alphabet and Microsoft, both of which use its GPUs extensively in their cloud platforms. And while rivals are trying desperately to knock Nvidia off its perch, the company's fast paced development of new AI chips seems likely to keep it on top for years to come. However, Nvidia isn't developing quantum computers. How is investing in it a smart way to profit from both AI and quantum computing? The company is trying to make it easier for others to advance their quantum computing efforts through its NVIDIA Accelerated Quantum Computing (NVAQC) Research Center. Nvidia is also pairing its GPUs with quantum chips for a hybrid quantum classical computing approach. Back in the gold rush days, the providers of picks and shovels often made more money than the gold miners themselves. Nvidia is positioning itself to be the pick and shovel investment of the quantum computing era. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keith Speights has positions in Alphabet and Microsoft. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45886.18333333333</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Did Nvidia Make a Mistake by Selling SoundHound AI Stock? The Answer Might Surprise You.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142377/did-nvidia-make-a-mistake-by-selling-soundhound-ai-stock-the-answer-might-surprise-you</t>
+        </is>
+      </c>
+      <c r="E215" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+SoundHound AI stock is generating blistering revenue growth right now, as some of the world's biggest brands adopt its conversational artificial intelligence software.
+Nvidia used to be a SoundHound shareholder, but the chip giant sold its entire stake towards the end of 2024.
+SoundHound stock is soaring right now, but that doesn't mean Nvidia made the wrong move.
+Nvidia (NASDAQ: NVDA) has become the world's largest company on the back of surging demand for its data center chips, which are the gold standard for developing artificial intelligence (AI) models. The chip giant occasionally puts its vast financial resources to work by investing in other AI companies, and SoundHound AI (NASDAQ: SOUN) was one of them.
+SoundHound is a specialist in conversational AI technologies, and its customers include some of the world's biggest brands. Nvidia first revealed its stake in the company in a 13-F filing with the Securities and Exchange Commission in February 2024, but the chipmaker had sold its entire position by December.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+SoundHound's revenue tripled during its most recent quarter, and its stock is up by a whopping 40% in the past month alone. Did Nvidia make a mistake by dumping its position? Read on for the surprising answer.
+Image source: Getty Images.
+SoundHound's conversational AI applications are popular in a variety of industries, but they are experiencing particularly high demand in quick-service restaurant chains and with automotive brands that want to include a powerful AI assistant in their new vehicles.
+In the restaurant space, SoundHound's Voice AI technology can accept customer orders autonomously in-store, over the phone, and in the drive-thru. It can also answer queries from employees, whether they need help making menu items or need clarity on a particular store policy. Chains like Chipotle, Krispy Kreme, and Papa John's are just a few of SoundHound's customers.
+In the automotive industry, companies like Hyundai and Stellantis (Chrysler, Jeep, and Dodge) are using SoundHound's Chat AI software in their latest vehicles. It can give drivers information about the weather, stocks, and everything in between with a simple voice command, and manufacturers can customize its personality to suit their brand.
+Last August, SoundHound acquired another conversational AI specialist called Amelia. The joint companies recently launched a new platform called Amelia 7, which allows businesses to create custom AI agents that can assist customers with their inquiries or even help employees troubleshoot technical issues. Of course, these agents can be controlled entirely with voice commands.
+SoundHound generated a record $42.6 million in total revenue during the second quarter of 2025 (ended June 30), which was a blistering 217% increase from the year-ago period.
+The strong result gave management the confidence to increase its full-year revenue guidance for 2025 from $167 million to $169 million (at the midpoint of the forecast range), which would be a 99% increase compared to 2024. That would mark an acceleration from the 85% growth SoundHound generated last year, highlighting the significant momentum in its business.
+But that growth is coming at a significant cost, because SoundHound continues to burn truckloads of cash. It lost $74.7 million on a generally accepted accounting principles (GAAP) basis during the second quarter, which was twice as much as it lost in the year-ago period.
+SoundHound did suffer a one-off, $31 million hit to its bottom line from a liability associated with one of its acquisitions during the quarter, but even after stripping it out -- along with every other one-off and non-cash expense -- the company still lost $11.8 million.
+SoundHound has a solid balance sheet with $230 million in cash on hand and no debt, so it can sustain losses of that size for the foreseeable future. However, the company will eventually have to prioritize profitability, or else it might need to raise capital, which could dilute existing shareholders. Cost cuts would almost certainly dent SoundHound's revenue growth, which is something for investors to keep in mind.
+Nvidia never told investors why it sold SoundHound stock, but if I had to speculate, I think its valuation likely had something to do with the decision. Its price-to-sales (P/S) ratio is trading at an eye-popping level of 48.6, which is more than a 50% premium to Nvidia's P/S ratio of 29.9.
+It was even more expensive when Nvidia sold it toward the end of 2024, because its P/S ratio was hovering near 100.
+SOUN PS Ratio data by YCharts
+SoundHound will quickly grow into its current valuation if its revenue continues to increase at such a blistering pace, but the financial results of companies in the early stages of commercialization are notoriously unpredictable, so there's no guarantee it will. Moreover, Nvidia is one of the highest quality companies in the world with a track record of success that spans decades, a rock-solid balance sheet, and surging profits, so I don't think SoundHound deserves to trade at a premium to the chip giant.
+Nvidia held 1.73 million SoundHound shares, which would've been worth around $27.7 million at the current price of $16. Given the chip giant's market cap of $4.4 trillion, a total loss would've been a mere rounding error. However, holding a stock with such a steep valuation opens the door to substantial downside if the underlying company falters, so I don't think Nvidia made a mistake by closing its position.
+Before you buy stock in SoundHound AI, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and SoundHound AI wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Anthony Di Pizio has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Chipotle Mexican Grill and Nvidia. The Motley Fool recommends the following options: short September 2025 $60 calls on Chipotle Mexican Grill. The Motley Fool has a disclosure policy.
+| 2 hours | |
+| 6 hours | |
+| 7 hours | |
+| 8 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 14 hours | |
+| 14 hours | |
+| 15 hours | |
+| 15 hours | |
+| 15 hours | |
+| 16 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>SoundHound AI stock is generating blistering revenue growth right now, as some of the world's biggest brands adopt its conversational artificial intelligence software. Nvidia used to be a SoundHound shareholder, but the chip giant sold its entire stake towards the end of 2024. SoundHound stock is soaring right now, but that doesn't mean Nvidia made the wrong move. Nvidia (NASDAQ: NVDA) has become the world's largest company on the back of surging demand for its data center chips, which are the gold standard for developing artificial intelligence (AI) models. The chip giant occasionally puts its vast financial resources to work by investing in other AI companies, and SoundHound AI (NASDAQ: SOUN) was one of them. SoundHound is a specialist in conversational AI technologies, and its customers include some of the world's biggest brands. Nvidia first revealed its stake in the company in a 13 F filing with the Securities and Exchange Commission in February 2024, but the chipmaker had sold its entire position by December. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue SoundHound's revenue tripled during its most recent quarter, and its stock is up by a whopping 40% in the past month alone. Did Nvidia make a mistake by dumping its position? Read on for the surprising answer. Image source: Getty Images. SoundHound's conversational AI applications are popular in a variety of industries, but they are experiencing particularly high demand in quick service restaurant chains and with automotive brands that want to include a powerful AI assistant in their new vehicles. In the restaurant space, SoundHound's Voice AI technology can accept customer orders autonomously in store, over the phone, and in the drive thru. It can also answer queries from employees, whether they need help making menu items or need clarity on a particular store policy. Chains like Chipotle, Krispy Kreme, and Papa John's are just a few of SoundHound's customers. In the automotive industry, companies like Hyundai and Stellantis (Chrysler, Jeep, and Dodge) are using SoundHound's Chat AI software in their latest vehicles. It can give drivers information about the weather, stocks, and everything in between with a simple voice command, and manufacturers can customize its personality to suit their brand. Last August, SoundHound acquired another conversational AI specialist called Amelia. The joint companies recently launched a new platform called Amelia 7, which allows businesses to create custom AI agents that can assist customers with their inquiries or even help employees troubleshoot technical issues. Of course, these agents can be controlled entirely with voice commands. SoundHound generated a record $42.6 million in total revenue during the second quarter of 2025 (ended June 30), which was a blistering 217% increase from the year ago period. The strong result gave management the confidence to increase its full year revenue guidance for 2025 from $167 million to $169 million (at the midpoint of the forecast range), which would be a 99% increase compared to 2024. That would mark an acceleration from the 85% growth SoundHound generated last year, highlighting the significant momentum in its business. But that growth is coming at a significant cost, because SoundHound continues to burn truckloads of cash. It lost $74.7 million on a generally accepted accounting principles (GAAP) basis during the second quarter, which was twice as much as it lost in the year ago period. SoundHound did suffer a one off, $31 million hit to its bottom line from a liability associated with one of its acquisitions during the quarter, but even after stripping it out along with every other one off and non cash expense the company still lost $11.8 million. SoundHound has a solid balance sheet with $230 million in cash on hand and no debt, so it can sustain losses of that size for the foreseeable future. However, the company will eventually have to prioritize profitability, or else it might need to raise capital, which could dilute existing shareholders. Cost cuts would almost certainly dent SoundHound's revenue growth, which is something for investors to keep in mind. Nvidia never told investors why it sold SoundHound stock, but if I had to speculate, I think its valuation likely had something to do with the decision. Its price to sales (P/S) ratio is trading at an eye popping level of 48.6, which is more than a 50% premium to Nvidia's P/S ratio of 29.9. It was even more expensive when Nvidia sold it toward the end of 2024, because its P/S ratio was hovering near 100. SOUN PS Ratio data by YCharts SoundHound will quickly grow into its current valuation if its revenue continues to increase at such a blistering pace, but the financial results of companies in the early stages of commercialization are notoriously unpredictable, so there's no guarantee it will. Moreover, Nvidia is one of the highest quality companies in the world with a track record of success that spans decades, a rock solid balance sheet, and surging profits, so I don't think SoundHound deserves to trade at a premium to the chip giant. Nvidia held 1.73 million SoundHound shares, which would've been worth around $27.7 million at the current price of $16. Given the chip giant's market cap of $4.4 trillion, a total loss would've been a mere rounding error. However, holding a stock with such a steep valuation opens the door to substantial downside if the underlying company falters, so I don't think Nvidia made a mistake by closing its position. Before you buy stock in SoundHound AI, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and SoundHound AI wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Anthony Di Pizio has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Chipotle Mexican Grill and Nvidia. The Motley Fool recommends the following options: short September 2025 $60 calls on Chipotle Mexican Grill. The Motley Fool has a disclosure policy. 2 hours 6 hours 7 hours 8 hours 13 hours 13 hours 13 hours 13 hours 13 hours 14 hours 14 hours 15 hours 15 hours 15 hours 16 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45886.12638888889</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>If I Could Only Buy and Hold a Single Stock, This Would Be It</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142361/if-i-could-only-buy-and-hold-a-single-stock-this-would-be-it</t>
+        </is>
+      </c>
+      <c r="E216" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Key Points
+I'm a long-term buy-and-hold investor, and my portfolio is filled with dozens of growth stocks.
+If I had to pick just a single stock, it would have to be Nvidia.
+The company checks many of the boxes of a successful investment and trades for an attractive valuation.
+Let's address the elephant in the room: The idea of buying and holding just one stock is something I would never do, and frankly, the thought seems absurd to me. My portfolio is composed of dozens of stocks, as it provides me with a level of safety and diversification that lets me sleep at night. Even if one of my largest positions falls 30% or 40% (and they have), my entire portfolio only loses between 1% and 2%. I can't imagine a scenario where I would limit myself to one stock, and I recommend building a portfolio of 15 to 20 stocks at a minimum.
+That said, and purely as a thought exercise, if I were to hold only one stock, it would have to meet certain criteria. I would want a company that is an industry leader, with a large addressable market and a long track record of performance. I would want to own a company that's a proven leader -- a business fueled by innovation, strong secular tailwinds, and a history of financial success.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+If I could only buy and hold a single stock, Nvidia (NASDAQ: NVDA) would have to be it.
+Image source: Getty Images.
+Checks all the right boxes
+There's certainly a lot to like about Nvidia, and it checks all the right boxes. The company has long been a leader in the video game market, as its graphics processing units (GPUs) are the top choice among hardcore and casual gamers alike. Nvidia is the undisputed leader in the discrete desktop GPU space, controlling 92% of the market, according to data compiled by Jon Peddie Research.
+Nvidia was also able to capitalize on the advent of artificial intelligence (AI), as its GPUs are equally adept at ferrying data around the ether at lightning speeds. As a result, the company also leads the data center GPU space -- where most AI processing takes place -- with a dominant 92% of the market, according to IoT Analytics.
+AI has been the driving force behind Nvidia's performance over the past few years, but this wasn't simply luck. CEO Jensen Huang saw the writing on the wall back in 2013 and focused the company's research and development efforts on AI, which positioned Nvidia for future success.
+This spirit of innovation has kept the company well ahead of would-be rivals. In its fiscal 2025 (ended Jan. 26), Nvidia spent $13 billion on research and development (R&amp;D) -- roughly 10% of its total revenue -- to maintain its competitive advantage. The company continues to explore emerging opportunities, including quantum computing, agentic AI, robotics, automation, self-driving cars, and more.
+It's easy to see why Nvidia is investing heavily as it looks toward the future. The opportunity represented by AI alone is vast, but there's no consensus. Global management consulting firm McKinsey &amp; Company estimates that generative AI could add between $2.6 trillion and $4.4 trillion to the global economy over the coming decade. The estimate from Big Four accounting firm PwC is much higher, clocking in at $15.7 trillion between now and 2030.
+This helps to illustrate the size of the opportunity Nvidia has in its sights.
+The numbers are compelling
+Nvidia has already been reaping the rewards of the AI revolution, and it's difficult to overstate the scale of its success. The results of the past two fiscal years help provide context:
+- In fiscal 2024 (ended Jan. 28, 2024), Nvidia's record revenue of $60.9 billion climbed 126%, while its adjusted earnings per share (EPS) of $12.96 surged 288%.
+- In fiscal 2025 (ended Jan. 26, 2025), Nvidia's record revenue of $130.5 billion jumped 114%, while adjusted EPS of $2.99 soared 130%.
+In its 2026 first quarter, Nvidia's revenue of $44 billion climbed 69% year over year and 12% quarter over quarter. Earnings per share, adjusted for a one-time charge related to its chip sales to China, came in at $0.96, rising 62%. While that's notable in its own right, it becomes even more impressive when viewed against the backdrop of triple-digit comps.
+Management believes the company's growth streak will continue. For the second quarter, Nvidia is forecasting revenue of $45 billion, or growth of about 50%. However, given the company's history of issuing conservative guidance, the actual results will likely be higher.
+This history of financial success has propelled a meteoric rise in the stock price, which has gained 1,130% since early 2023, and has helped Nvidia become the world's first $4 trillion company, when measured by market cap.
+While the company's performance over the past few years has been nothing less than stunning, its track record is much longer. Over the past decade, Nvidia's stock has soared more than 30,000% (not a typo), driven higher by its consistently strong operational and financial results.
+There's also the matter of Nvidia's valuation. Despite the company's growth trajectory and history of success, the stock is selling for roughly 30 times next year's earnings, an attractive multiple given the magnitude of the opportunity.
+Taken together, its industry leadership, track record of innovations, visionary CEO, and large and growing market opportunity create a persuasive argument for owning Nvidia stock. Add to that the company's stunning financial performance and reasonable valuation, and it's easy to see why Nvidia would be the one stock to own if I could own just one.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Key Points I'm a long term buy and hold investor, and my portfolio is filled with dozens of growth stocks. If I had to pick just a single stock, it would have to be Nvidia. The company checks many of the boxes of a successful investment and trades for an attractive valuation. Let's address the elephant in the room: The idea of buying and holding just one stock is something I would never do, and frankly, the thought seems absurd to me. My portfolio is composed of dozens of stocks, as it provides me with a level of safety and diversification that lets me sleep at night. Even if one of my largest positions falls 30% or 40% (and they have), my entire portfolio only loses between 1% and 2%. I can't imagine a scenario where I would limit myself to one stock, and I recommend building a portfolio of 15 to 20 stocks at a minimum. That said, and purely as a thought exercise, if I were to hold only one stock, it would have to meet certain criteria. I would want a company that is an industry leader, with a large addressable market and a long track record of performance. I would want to own a company that's a proven leader a business fueled by innovation, strong secular tailwinds, and a history of financial success. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More If I could only buy and hold a single stock, Nvidia (NASDAQ: NVDA) would have to be it. Image source: Getty Images. Checks all the right boxes There's certainly a lot to like about Nvidia, and it checks all the right boxes. The company has long been a leader in the video game market, as its graphics processing units (GPUs) are the top choice among hardcore and casual gamers alike. Nvidia is the undisputed leader in the discrete desktop GPU space, controlling 92% of the market, according to data compiled by Jon Peddie Research. Nvidia was also able to capitalize on the advent of artificial intelligence (AI), as its GPUs are equally adept at ferrying data around the ether at lightning speeds. As a result, the company also leads the data center GPU space where most AI processing takes place with a dominant 92% of the market, according to IoT Analytics. AI has been the driving force behind Nvidia's performance over the past few years, but this wasn't simply luck. CEO Jensen Huang saw the writing on the wall back in 2013 and focused the company's research and development efforts on AI, which positioned Nvidia for future success. This spirit of innovation has kept the company well ahead of would be rivals. In its fiscal 2025 (ended Jan. 26), Nvidia spent $13 billion on research and development (R&amp;D) roughly 10% of its total revenue to maintain its competitive advantage. The company continues to explore emerging opportunities, including quantum computing, agentic AI, robotics, automation, self driving cars, and more. It's easy to see why Nvidia is investing heavily as it looks toward the future. The opportunity represented by AI alone is vast, but there's no consensus. Global management consulting firm McKinsey &amp; Company estimates that generative AI could add between $2.6 trillion and $4.4 trillion to the global economy over the coming decade. The estimate from Big Four accounting firm PwC is much higher, clocking in at $15.7 trillion between now and 2030. This helps to illustrate the size of the opportunity Nvidia has in its sights. The numbers are compelling Nvidia has already been reaping the rewards of the AI revolution, and it's difficult to overstate the scale of its success. The results of the past two fiscal years help provide context: In fiscal 2024 (ended Jan. 28, 2024), Nvidia's record revenue of $60.9 billion climbed 126%, while its adjusted earnings per share (EPS) of $12.96 surged 288%. In fiscal 2025 (ended Jan. 26, 2025), Nvidia's record revenue of $130.5 billion jumped 114%, while adjusted EPS of $2.99 soared 130%. In its 2026 first quarter, Nvidia's revenue of $44 billion climbed 69% year over year and 12% quarter over quarter. Earnings per share, adjusted for a one time charge related to its chip sales to China, came in at $0.96, rising 62%. While that's notable in its own right, it becomes even more impressive when viewed against the backdrop of triple digit comps. Management believes the company's growth streak will continue. For the second quarter, Nvidia is forecasting revenue of $45 billion, or growth of about 50%. However, given the company's history of issuing conservative guidance, the actual results will likely be higher. This history of financial success has propelled a meteoric rise in the stock price, which has gained 1,130% since early 2023, and has helped Nvidia become the world's first $4 trillion company, when measured by market cap. While the company's performance over the past few years has been nothing less than stunning, its track record is much longer. Over the past decade, Nvidia's stock has soared more than 30,000% (not a typo), driven higher by its consistently strong operational and financial results. There's also the matter of Nvidia's valuation. Despite the company's growth trajectory and history of success, the stock is selling for roughly 30 times next year's earnings, an attractive multiple given the magnitude of the opportunity. Taken together, its industry leadership, track record of innovations, visionary CEO, and large and growing market opportunity create a persuasive argument for owning Nvidia stock. Add to that the company's stunning financial performance and reasonable valuation, and it's easy to see why Nvidia would be the one stock to own if I could own just one. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45886.02361111111</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Repon expects AI server demand to drive growth in 2H25 despite currency and tax challenges</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.digitimes.com/news/a20250814PD235/repon-ai-server-growth-demand-shipments.html</t>
+        </is>
+      </c>
+      <c r="E217" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45886.02291666667</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Nvidia reportedly confirms Rubin AI chip launch timeline as AMD reveals 2026 server challenge</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.digitimes.com/news/a20250814VL206/nvidia-rubin-ai-chip-amd-launch.html</t>
+        </is>
+      </c>
+      <c r="E218" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45884.79583333333</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>NVIDIA (NVDA) Stock Gets Bullish Call Amid U.S.-China Chip Agreement Reports</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142292/nvidia-nvda-stock-gets-bullish-call-amid-us-china-chip-agreement-reports</t>
+        </is>
+      </c>
+      <c r="E219" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the AI Stocks Investors Are Watching Closely. On August 12, Bank of America reiterated the stock as “Buy.” The firm said that it is sticking with the stock after reports of a favorable deal for Nvidia to receive chip export licenses.
+“Busy period of interactions between the US Government (USG)/White House (WH) and major US chipmakers. The critical nature of semis is likely to enhance these interactions that will continue to be both positive and a headwind/source of volatility. Recent news involves: 15% potential tax/levy on sales of specific AI chips in return for China approvals: a net positive and we maintain Buys on NVDA, AMD.”
+Analysts on Wall Street currently have a consensus “Buy” rating on the stock. The average price target of $190 implies a 5.10% upside; however, the Street-high target of $250 implies an upside of 38%.
+NVIDIA Corporation (NASDAQ:NVDA) specializes in AI-driven solutions, offering platforms for data centers, self-driving cars, robotics, and cloud services.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 10 AI Stocks Investors Are Watching Closely and 10 AI Stocks Analysts Are Watching Closely.
+Disclosure: None.</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the AI Stocks Investors Are Watching Closely. On August 12, Bank of America reiterated the stock as Buy. The firm said that it is sticking with the stock after reports of a favorable deal for Nvidia to receive chip export licenses. Busy period of interactions between the US Government (USG)/White House (WH) and major US chipmakers. The critical nature of semis is likely to enhance these interactions that will continue to be both positive and a headwind/source of volatility. Recent news involves: 15% potential tax/levy on sales of specific AI chips in return for China approvals: a net positive and we maintain Buys on NVDA, AMD. Analysts on Wall Street currently have a consensus Buy rating on the stock. The average price target of $190 implies a 5.10% upside; however, the Street high target of $250 implies an upside of 38%. NVIDIA Corporation (NASDAQ:NVDA) specializes in AI driven solutions, offering platforms for data centers, self driving cars, robotics, and cloud services. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 10 AI Stocks Investors Are Watching Closely and 10 AI Stocks Analysts Are Watching Closely. Disclosure: None.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45884.79513888889</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>5 Unstoppable "Ten Titans" Growth Stocks to Buy Now and Hold Through at Least 2030</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142300/5-unstoppable-ten-titans-growth-stocks-to-buy-now-and-hold-through-at-least-2030</t>
+        </is>
+      </c>
+      <c r="E220" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+The "Ten Titans" offer a more comprehensive list of top growth stocks than the "Magnificent Seven."
+Nvidia and Broadcom provide the building blocks of AI infrastructure.
+Microsoft, Alphabet, and Oracle are three exciting plays in cloud computing.
+The "Ten Titans" are the largest growth-focused U.S. companies by market cap -- consisting of Nvidia (NASDAQ: NVDA), Microsoft (NASDAQ: MSFT), Apple, Amazon, Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG), Meta Platforms, Broadcom (NASDAQ: AVGO), Tesla, Oracle (NYSE: ORCL), and Netflix.
+Combined, they make up over 37% of the S&amp;P 500, showcasing the top-heavy nature of the index and how just a handful of companies can move the market.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+If I could only buy and hold half of the Ten Titans through 2030, I'd go with Nvidia, Broadcom, Microsoft, Oracle, and Alphabet. Here's what separates these growth stocks from the rest of the pack.
+Image source: Getty Images.
+Nvidia and Broadcom both play crucial roles in the buildout of artificial intelligence (AI).
+Nvidia's graphics processing units, CUDA software platform, and associated infrastructure provide a full-scale AI ecosystem for data centers. Orders continue to pour in for Nvidia's chips as big tech companies ramp up capital expenditures to support AI models.
+Broadcom makes application-specific integrated circuits, which are AI accelerators that can perform specific functions. The company's latest customer accelerator (XPU) is its 3.5D eXtreme Dimension System in Package, which drastically cuts down on power consumption and boosts efficiency between components -- all within a smaller package size. Broadcom offers compute, memory, network, and packaging capabilities, giving customers a vertically integrated solution for AI at scale.
+Broadcom has a highly differentiated networking and infrastructure software business. In addition to AI accelerators, its semiconductor segment also offers a variety of solutions for enterprise clients, like broadband, wireless, storage, and more.
+Microsoft, Alphabet, and Oracle offer three distinctly different ways to invest in cloud computing.
+Microsoft Azure is the No. 2 cloud player behind Amazon Web Services. Azure is Microsoft's fastest-growing segment -- capitalizing on AI demand through cloud offerings specifically geared toward handling AI workloads. But what separates Microsoft from other cloud plays is the strength of the rest of its business. Copilot for Azure, the Microsoft 365 software suite, and GitHub continue to grow their active user base. Microsoft's revenue growth has accelerated, and profit margins are at their highest level in over a decade -- driving Microsoft's surging stock price.
+Alphabet's Google Cloud doesn't have as much market share as Azure, but it is growing quickly and becoming more profitable. But unlike Microsoft, where cloud is the centerpiece of the investment thesis, Google Cloud doesn't contribute nearly as much to Alphabet's bottom line as other services -- namely Google Search and YouTube.
+Alphabet stock has roared higher in recent months, but it's still arguably the best value of the Ten Titans.
+TSLA PE Ratio (Forward) data by YCharts
+While Google Search could see disruption from rival information resources like ChatGPT, it's worth noting that Google Gemini has gained significant traction in recent quarters -- showing Alphabet's ability to adapt.
+Oracle Cloud Infrastructure (OCI) is arguably the most exciting play in cloud computing right now. OCI is thriving due to its flexible structure, which leans on Oracle's established database ecosystem. It is best paired with Oracle databases and applications, with certain services not available on other clouds.
+Instead of going toe-to-toe with the "big three" cloud providers, Oracle partners with them by combining its database services with the AWS, Azure, and Google Cloud infrastructure. All told, Oracle is a top play in cloud computing because it offers its own vertically integrated suite of solutions, but also stands to benefit from the overall growth of the industry through its partnerships.
+Nvidia, Broadcom, Microsoft, Alphabet, and Oracle have all been phenomenal stocks -- crushing the S&amp;P 500 over the last five years. With the exception of Alphabet, outsized gains have made valuations expensive based on their trailing and forward earnings estimates, which may deter some investors from approaching these names.
+However, folks who are looking for top companies to buy and hold through at least 2030 will care more about where a company will be years from now than the next few quarters. The advantage of a longer investment time horizon is that you can give a company time to grow into its valuation. Nvidia, Broadcom, and Oracle are some of the most expensive of the Ten Titans, but they also have the most attractive runways for growth. Meanwhile, Microsoft and Alphabet have more reasonable valuations and multiple levers to pull for growing earnings for years to come.
+There are valid cases for buying all of the Ten Titans, but Nvidia, Broadcom, Microsoft, Alphabet, and Oracle truly stand out as the best of the best for long-term investors.
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.
+| 2 hours | |
+| 4 hours | |
+| 6 hours | |
+| 8 hours | |
+| 10 hours | |
+| 11 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 14 hours | |
+| 14 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>The "Ten Titans" offer a more comprehensive list of top growth stocks than the "Magnificent Seven." Nvidia and Broadcom provide the building blocks of AI infrastructure. Microsoft, Alphabet, and Oracle are three exciting plays in cloud computing. The "Ten Titans" are the largest growth focused U.S. companies by market cap consisting of Nvidia (NASDAQ: NVDA), Microsoft (NASDAQ: MSFT), Apple, Amazon, Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG), Meta Platforms, Broadcom (NASDAQ: AVGO), Tesla, Oracle (NYSE: ORCL), and Netflix. Combined, they make up over 37% of the S&amp;P 500, showcasing the top heavy nature of the index and how just a handful of companies can move the market. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue If I could only buy and hold half of the Ten Titans through 2030, I'd go with Nvidia, Broadcom, Microsoft, Oracle, and Alphabet. Here's what separates these growth stocks from the rest of the pack. Image source: Getty Images. Nvidia and Broadcom both play crucial roles in the buildout of artificial intelligence (AI). Nvidia's graphics processing units, CUDA software platform, and associated infrastructure provide a full scale AI ecosystem for data centers. Orders continue to pour in for Nvidia's chips as big tech companies ramp up capital expenditures to support AI models. Broadcom makes application specific integrated circuits, which are AI accelerators that can perform specific functions. The company's latest customer accelerator (XPU) is its 3.5D eXtreme Dimension System in Package, which drastically cuts down on power consumption and boosts efficiency between components all within a smaller package size. Broadcom offers compute, memory, network, and packaging capabilities, giving customers a vertically integrated solution for AI at scale. Broadcom has a highly differentiated networking and infrastructure software business. In addition to AI accelerators, its semiconductor segment also offers a variety of solutions for enterprise clients, like broadband, wireless, storage, and more. Microsoft, Alphabet, and Oracle offer three distinctly different ways to invest in cloud computing. Microsoft Azure is the No. 2 cloud player behind Amazon Web Services. Azure is Microsoft's fastest growing segment capitalizing on AI demand through cloud offerings specifically geared toward handling AI workloads. But what separates Microsoft from other cloud plays is the strength of the rest of its business. Copilot for Azure, the Microsoft 365 software suite, and GitHub continue to grow their active user base. Microsoft's revenue growth has accelerated, and profit margins are at their highest level in over a decade driving Microsoft's surging stock price. Alphabet's Google Cloud doesn't have as much market share as Azure, but it is growing quickly and becoming more profitable. But unlike Microsoft, where cloud is the centerpiece of the investment thesis, Google Cloud doesn't contribute nearly as much to Alphabet's bottom line as other services namely Google Search and YouTube. Alphabet stock has roared higher in recent months, but it's still arguably the best value of the Ten Titans. TSLA PE Ratio (Forward) data by YCharts While Google Search could see disruption from rival information resources like ChatGPT, it's worth noting that Google Gemini has gained significant traction in recent quarters showing Alphabet's ability to adapt. Oracle Cloud Infrastructure (OCI) is arguably the most exciting play in cloud computing right now. OCI is thriving due to its flexible structure, which leans on Oracle's established database ecosystem. It is best paired with Oracle databases and applications, with certain services not available on other clouds. Instead of going toe to toe with the "big three" cloud providers, Oracle partners with them by combining its database services with the AWS, Azure, and Google Cloud infrastructure. All told, Oracle is a top play in cloud computing because it offers its own vertically integrated suite of solutions, but also stands to benefit from the overall growth of the industry through its partnerships. Nvidia, Broadcom, Microsoft, Alphabet, and Oracle have all been phenomenal stocks crushing the S&amp;P 500 over the last five years. With the exception of Alphabet, outsized gains have made valuations expensive based on their trailing and forward earnings estimates, which may deter some investors from approaching these names. However, folks who are looking for top companies to buy and hold through at least 2030 will care more about where a company will be years from now than the next few quarters. The advantage of a longer investment time horizon is that you can give a company time to grow into its valuation. Nvidia, Broadcom, and Oracle are some of the most expensive of the Ten Titans, but they also have the most attractive runways for growth. Meanwhile, Microsoft and Alphabet have more reasonable valuations and multiple levers to pull for growing earnings for years to come. There are valid cases for buying all of the Ten Titans, but Nvidia, Broadcom, Microsoft, Alphabet, and Oracle truly stand out as the best of the best for long term investors. Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. 2 hours 4 hours 6 hours 8 hours 10 hours 11 hours 13 hours 13 hours 13 hours 13 hours 13 hours 13 hours 13 hours 14 hours 14 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45884.75347222222</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Nvidia, AMD Agree to 15% Export Levy on China AI Chips</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-agree-15-export-220517787.html</t>
+        </is>
+      </c>
+      <c r="E221" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45884.74097222222</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Cohere Scores $500 Million as IPO Talk Heats Up</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-scores-500-million-ipo-214706278.html</t>
+        </is>
+      </c>
+      <c r="E222" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45884.67777777778</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Trump Wants To Make Intel Great Again. What That Means For TSMC.</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/6dc7f034-8f61-3b3d-955d-3a50b01945af/trump-wants-to-make-intel.html</t>
+        </is>
+      </c>
+      <c r="E223" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45884.66666666666</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Insatiable Demand For AI Data Centers - And Space - Fuels This Stock</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.investors.com/research/ibd-stock-analysis/micron-stock-ai-data-centers-space-exploration?mod=IBD_FV</t>
+        </is>
+      </c>
+      <c r="E224" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45884.61666666667</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Dear Marvell Stock Fans, Mark Your Calendars for August 28</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/75569d9b-a755-3b40-9ffe-1dc6015936fc/dear-marvell-stock-fans%2C-mark.html</t>
+        </is>
+      </c>
+      <c r="E225" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45884.61597222222</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Billionaire fund manager doubles down on Nvidia, partner in AI stack shift</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/874808b0-c2be-37fa-8f9b-749d586597da/billionaire-fund-manager.html</t>
+        </is>
+      </c>
+      <c r="E226" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45884.60555555556</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Jim Cramer Insists There Are No Backdoors In NVIDIA Corporation (NVDA)'s Chips</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142198/jim-cramer-insists-there-are-no-backdoors-in-nvidia-corporation-nvdas-chips</t>
+        </is>
+      </c>
+      <c r="E227" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>We recently published 10 Stocks Jim Cramer Discussed As He Questioned Official Data. NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed.
+The latest controversy surrounding NVIDIA Corporation (NASDAQ:NVDA) involves reports claiming that the Chinese government is asking local companies not to rely on the firm’s chips. These concerns stem from worries about potential backdoors and about becoming too reliant on American hardware. Cramer discussed the reports in detail:
+“[On reports of Chinese authorities looking to stop companies from buying the H20 AI GPUs] They can go open, they can have Jensen Huang go over there and have him rip open one of those things. There’s nothing. I mean, look you either trust Jensen or you don’t. I trust Jensen just because he has to give the government 15%. I mean he has said, listen we don’t have tracking. So, therefore, I am a believer in him. I don’t want to actually believe, believe it or not, the PRC. I actually don’t know if the PRC is all that reliable. Not like the BLS, I mean it’s different. BLS doesn’t have a chance, they’re very strapped, they’re tired, they’re poor, they’re huddled masses. . .but this, you know why this is not right? Because they don’t have anything that’s as good as the H20. If you wanna go do something that’s like on one of these versions of Intel, that got Pat Gelsinger fired. . . .
+“Yes you can [run inferences on it] and what I’m telling you is that the government was very hot to get these. So now the government’s not because they’re tracking, there is no tracking. There’s no tracking. We can believe their nonsense but there’s no tracking. I’ve heard all day, well because of the tracking. Okay so Jensen Huang is. therefore what? He’s clueless?
+Photo by
+Javier Esteban on
+Unsplash
+“[On The Information’s report saying Chinese big tech has been told by the government to not buy NVIDIA chips] I rely on The Information, you’re [David Faber] a legendary Wall Street funny man.They got you out of NVIDIA, as much as I got you into NVIDIA, they got you out of NVIDIA. Who has the cards? . . .I’m trying to get people to say, maybe before I sell NVIDIA because of all these different stories, maybe the stories maybe propaganda? I think we have every right to question, in a period where The Information has attacked NVIDIA twice. They’ll say we didn’t attack, we reported. Perhaps our reporting was not as strong. That’s okay. You can say whatever you want in this business and that’s exactly the problem.”
+While we acknowledge the potential of NVDA as an investment, our conviction lies in the belief that some AI stocks hold greater promise for delivering higher returns and have limited downside risk. If you are looking for an extremely cheap AI stock that is also a major beneficiary of Trump tariffs and onshoring, see our free report on the best short-term AI stock.
+READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>We recently published 10 Stocks Jim Cramer Discussed As He Questioned Official Data. NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed. The latest controversy surrounding NVIDIA Corporation (NASDAQ:NVDA) involves reports claiming that the Chinese government is asking local companies not to rely on the firms chips. These concerns stem from worries about potential backdoors and about becoming too reliant on American hardware. Cramer discussed the reports in detail: [On reports of Chinese authorities looking to stop companies from buying the H20 AI GPUs] They can go open, they can have Jensen Huang go over there and have him rip open one of those things. Theres nothing. I mean, look you either trust Jensen or you dont. I trust Jensen just because he has to give the government 15%. I mean he has said, listen we dont have tracking. So, therefore, I am a believer in him. I dont want to actually believe, believe it or not, the PRC. I actually dont know if the PRC is all that reliable. Not like the BLS, I mean its different. BLS doesnt have a chance, theyre very strapped, theyre tired, theyre poor, theyre huddled masses. . .but this, you know why this is not right? Because they dont have anything thats as good as the H20. If you wanna go do something thats like on one of these versions of Intel, that got Pat Gelsinger fired. . . . Yes you can [run inferences on it] and what Im telling you is that the government was very hot to get these. So now the governments not because theyre tracking, there is no tracking. Theres no tracking. We can believe their nonsense but theres no tracking. Ive heard all day, well because of the tracking. Okay so Jensen Huang is. therefore what? Hes clueless? Photo by Javier Esteban on Unsplash [On The Informations report saying Chinese big tech has been told by the government to not buy NVIDIA chips] I rely on The Information, youre [David Faber] a legendary Wall Street funny man.They got you out of NVIDIA, as much as I got you into NVIDIA, they got you out of NVIDIA. Who has the cards? . . .Im trying to get people to say, maybe before I sell NVIDIA because of all these different stories, maybe the stories maybe propaganda? I think we have every right to question, in a period where The Information has attacked NVIDIA twice. Theyll say we didnt attack, we reported. Perhaps our reporting was not as strong. Thats okay. You can say whatever you want in this business and thats exactly the problem. While we acknowledge the potential of NVDA as an investment, our conviction lies in the belief that some AI stocks hold greater promise for delivering higher returns and have limited downside risk. If you are looking for an extremely cheap AI stock that is also a major beneficiary of Trump tariffs and onshoring, see our free report on the best short term AI stock. READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45884.59097222222</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>If You'd Invested $500 in The Trade Desk Stock 5 Years Ago, Here's How Much You'd Have Today</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142196/if-youd-invested-500-in-the-trade-desk-stock-5-years-ago-heres-how-much-youd-have-today</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Key Points
+The Trade Desk's stock is pretty much back where it was five years ago.
+The business results are strong, but forward-looking guidance points to a modest slowdown.
+At 9 times sales, The Trade Desk trades at a fraction of its former nosebleed valuations while maintaining strong fundamentals.
+Digital advertising veteran The Trade Desk (NASDAQ: TTD) used to be hot stuff. In early December 2024, the stock had posted a market-stomping 156% gain in two years. The stock traded at market-darling valuation multiples such as 134 times free cash flow and 30 times sales. The Trade Desk made mighty Nvidia's (NASDAQ: NVDA) stock look affordable by comparison.
+But things have changed.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+The Trade Desk's recent earnings reports have been robust, but they were accompanied by a sobering market analysis and modest forward-looking guidance. The brutal market reaction wiped out several years of The Trade Desk's investor gains.
+So if you invested $500 in The Trade Desk five years ago, that position would be worth just $576 today:
+TTD Total Return Level data by YCharts
+The S&amp;P 500 (SNPINDEX: ^GSPC) market index more than doubled over the same period, in terms of total returns. That's an above-average compound annual growth rate (CAGR) of 15.6% versus The Trade Desk's anemic 2.9%.
+Image source: Getty Images.
+Silver lining of the reality check
+These days, you can buy The Trade Desk's stock at a less outrageous valuation of 33 times free cash flow and 9 times sales. If the stock price doubled today, the shares would still carry lower valuation multiples than Nvidia's 62 times free cash flow and 30 times sales.
+Mind you, The Trade Desk is still far from a deep-discount value stock. These multiples are appropriate for a fast-growing business addressing a large target market.
+And I would argue that The Trade Desk fits that description. Its sales have been soaring for years, and free cash flows are richer than ever:
+TTD Revenue (TTM) data by YCharts
+The company's near-term outlook has been less bullish in recent quarters, but management still expects roughly 14% sales growth in the third-quarter report. This growth story is far from over. The 2025 stock price cuts simply made this top-notch company more affordable.
+Should you invest $1,000 in The Trade Desk right now?
+Before you buy stock in The Trade Desk, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and The Trade Desk wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Anders Bylund has positions in Nvidia and The Trade Desk. The Motley Fool has positions in and recommends Nvidia and The Trade Desk. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Key Points The Trade Desk's stock is pretty much back where it was five years ago. The business results are strong, but forward looking guidance points to a modest slowdown. At 9 times sales, The Trade Desk trades at a fraction of its former nosebleed valuations while maintaining strong fundamentals. Digital advertising veteran The Trade Desk (NASDAQ: TTD) used to be hot stuff. In early December 2024, the stock had posted a market stomping 156% gain in two years. The stock traded at market darling valuation multiples such as 134 times free cash flow and 30 times sales. The Trade Desk made mighty Nvidia's (NASDAQ: NVDA) stock look affordable by comparison. But things have changed. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue The Trade Desk's recent earnings reports have been robust, but they were accompanied by a sobering market analysis and modest forward looking guidance. The brutal market reaction wiped out several years of The Trade Desk's investor gains. So if you invested $500 in The Trade Desk five years ago, that position would be worth just $576 today: TTD Total Return Level data by YCharts The S&amp;P 500 (SNPINDEX: ^GSPC) market index more than doubled over the same period, in terms of total returns. That's an above average compound annual growth rate (CAGR) of 15.6% versus The Trade Desk's anemic 2.9%. Image source: Getty Images. Silver lining of the reality check These days, you can buy The Trade Desk's stock at a less outrageous valuation of 33 times free cash flow and 9 times sales. If the stock price doubled today, the shares would still carry lower valuation multiples than Nvidia's 62 times free cash flow and 30 times sales. Mind you, The Trade Desk is still far from a deep discount value stock. These multiples are appropriate for a fast growing business addressing a large target market. And I would argue that The Trade Desk fits that description. Its sales have been soaring for years, and free cash flows are richer than ever: TTD Revenue (TTM) data by YCharts The company's near term outlook has been less bullish in recent quarters, but management still expects roughly 14% sales growth in the third quarter report. This growth story is far from over. The 2025 stock price cuts simply made this top notch company more affordable. Should you invest $1,000 in The Trade Desk right now? Before you buy stock in The Trade Desk, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and The Trade Desk wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Anders Bylund has positions in Nvidia and The Trade Desk. The Motley Fool has positions in and recommends Nvidia and The Trade Desk. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45884.58263888889</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>INTC: Intel Jumps on Reports of White House Investment in Ohio Factory</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/intc-intel-jumps-reports-white-175929817.html</t>
+        </is>
+      </c>
+      <c r="E229" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45884.56458333333</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Billionaire Family Offices Join Berkshires UnitedHealth Bet</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/billionaire-family-offices-join-berkshire-173329643.html</t>
+        </is>
+      </c>
+      <c r="E230" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45884.56319444445</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>NVDA: Chip Stocks Tumbles After Tariff Warning Triggers Sector Selloff</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvda-chip-stocks-tumbles-tariff-173136118.html</t>
+        </is>
+      </c>
+      <c r="E231" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45884.55347222222</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Billionaire George Soros supercharges Nvidia stake, loads up on AI plays</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/3d8524f4-7f7e-33fb-afb8-e423bcd7c678/billionaire-george-soros.html</t>
+        </is>
+      </c>
+      <c r="E232" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45884.54166666666</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Quantum Stocks Q2 2025: Are D-Wave, IonQ &amp; Rigetti Funding the Future?</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142176/quantum-stocks-q2-2025-are-d-wave-ionq-rigetti-funding-the-future</t>
+        </is>
+      </c>
+      <c r="E233" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>As second-quarter 2025 earnings rolled in, three pure-play quantum computing companies, D-Wave Quantum QBTS, Rigetti Computing RGTI and IonQ IONQ, offered a snapshot of an industry that moves at light speed but still sees profitability as a distant horizon. The trio’s results revealed a common storyline, strong sales, bigger losses and huge cash reserves to fund the next big step in quantum computing.
+D-Wave
+D-Wave Quantum’s second-quarter 2025 revenues rose 42% year over year, driven by Advantage2 quantum processing unit sales, including the system installed at Julich Supercomputing Center earlier this year. The company expanded its customer base with contracts from GE Vernova, Nikon and NTT DOCOMO, and strengthened global ties through partnerships in South Korea.
+Technological progress included an open-source PyTorch toolkit and quantum-assisted image generation demos. Collaborating with NASA’s Jet Propulsion Laboratory on advanced cryogenic packaging, D-Wave aims to accelerate its push toward a 100,000-qubit system, reinforcing its leadership in annealing quantum computing while broadening its international footprint.
+Financially, the company ended the quarter with a record $819.3 million in cash—an over 1,900% year-over-year increase driven by a $400 million at-the-market equity raise, warrant exercises and credit facility proceeds. Gross profit grew 42%, while adjusted EBITDA loss widened 44% year over year due to higher operating expenses from aggressive R&amp;D and market expansion efforts. With strong liquidity, an expanding enterprise pipeline and parallel development in both annealing and gate-model architectures, D-Wave signaled that it is prepared to invest heavily in scaling technology and pursuing strategic acquisitions, while maintaining its ambition to be the first independent public quantum computing firm to achieve sustained profitability.
+IonQ
+IonQ delivered a standout second-quarter 2025, with revenues coming in 15% above the top end of guidance, reflecting accelerating commercial traction across quantum computing and networking. The company’s momentum was underpinned by high-profile partnerships, including a landmark $22 million deal to build America’s first commercial quantum hub with utility leader EPB, and a 20x performance speed-up in quantum-accelerated drug development alongside AstraZeneca AZN, AWS and NVIDIA NVDA. However, the aggressive push into R&amp;D, strategic acquisitions and talent expansion incurred steep costs. IonQ reported a net loss of $177.5 million and an adjusted EBITDA loss of $36.5 million for the quarter.
+Despite being in the red, IonQ now commands one of the strongest balance sheets in the quantum sector, closing a $1 billion equity investment, priced at a premium that boosted its pro forma cash position to $1.6 billion as of July 2025. This war chest gives the company ample runway to execute on its roadmap, including integrating Oxford Ionics’ ion-trap-on-a-chip technology and scaling toward 800 logical qubits by 2027 and 80,000 by 2030. With acquisitions like Lightsynq and Capella expanding its reach into photonic interconnects and space-based quantum key distribution, IonQ is positioning itself to lead the next leap in computing power while fortifying its role in the future quantum Internet.
+Rigetti
+Rigetti Computing’s second-quarter 2025 revenues reflected sequential growth but declined year over year due to the expiration of the U.S. National Quantum Initiative and delays in its reauthorization. Gross margin narrowed to 31% from 64% a year earlier, primarily due to revenue mix and lower-margin development contracts. The company incurred an operating loss and a net loss in the quarter, the latter impacted by non-cash losses tied to changes in derivative warrant and earn-out liabilities.
+Management reiterated that hitting technology milestones remains central to its long-term profitability path, with Quantum Advantage targeted in roughly four years through scaling qubit counts, improving gate fidelity and advancing error correction.
+On a positive note, the company’s balance sheet is notably fortified, following the completion of a $350 million equity raise during the quarter, bringing total cash, cash equivalents and available-for-sale investments to $571.6 million as of June 30, 2025, with no debt. This sizable war chest provides ample runway to fund R&amp;D, scale commercial operations and potentially pursue strategic collaborations or acquisitions. Rigetti intends to leverage its proprietary chiplet-based superconducting qubit technology to reach a 100-plus qubit system with 99.5% median two-qubit gate fidelity by year-end 2025, an important step on the roadmap toward fault tolerance and eventual commercial-grade quantum computing profitability.
+Conclusion
+Taken together, revenues are rising and technology is advancing, but cash burn is heavy and profitability is far off for these three stocks. In this race, massive cash reserves are the fuel, and the first one to deliver scalable, commercially viable quantum systems will be the winner.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+AstraZeneca PLC (AZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report IonQ, Inc. (IONQ): Free Stock Analysis Report Rigetti Computing, Inc. (RGTI): Free Stock Analysis Report D-Wave Quantum Inc. (QBTS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>As second quarter 2025 earnings rolled in, three pure play quantum computing companies, D Wave Quantum QBTS, Rigetti Computing RGTI and IonQ IONQ, offered a snapshot of an industry that moves at light speed but still sees profitability as a distant horizon. The trios results revealed a common storyline, strong sales, bigger losses and huge cash reserves to fund the next big step in quantum computing. D Wave D Wave Quantums second quarter 2025 revenues rose 42% year over year, driven by Advantage2 quantum processing unit sales, including the system installed at Julich Supercomputing Center earlier this year. The company expanded its customer base with contracts from GE Vernova, Nikon and NTT DOCOMO, and strengthened global ties through partnerships in South Korea. Technological progress included an open source PyTorch toolkit and quantum assisted image generation demos. Collaborating with NASAs Jet Propulsion Laboratory on advanced cryogenic packaging, D Wave aims to accelerate its push toward a 100,000 qubit system, reinforcing its leadership in annealing quantum computing while broadening its international footprint. Financially, the company ended the quarter with a record $819.3 million in cashan over 1,900% year over year increase driven by a $400 million at the market equity raise, warrant exercises and credit facility proceeds. Gross profit grew 42%, while adjusted EBITDA loss widened 44% year over year due to higher operating expenses from aggressive R&amp;D and market expansion efforts. With strong liquidity, an expanding enterprise pipeline and parallel development in both annealing and gate model architectures, D Wave signaled that it is prepared to invest heavily in scaling technology and pursuing strategic acquisitions, while maintaining its ambition to be the first independent public quantum computing firm to achieve sustained profitability. IonQ IonQ delivered a standout second quarter 2025, with revenues coming in 15% above the top end of guidance, reflecting accelerating commercial traction across quantum computing and networking. The companys momentum was underpinned by high profile partnerships, including a landmark $22 million deal to build Americas first commercial quantum hub with utility leader EPB, and a 20x performance speed up in quantum accelerated drug development alongside AstraZeneca AZN, AWS and NVIDIA NVDA. However, the aggressive push into R&amp;D, strategic acquisitions and talent expansion incurred steep costs. IonQ reported a net loss of $177.5 million and an adjusted EBITDA loss of $36.5 million for the quarter. Despite being in the red, IonQ now commands one of the strongest balance sheets in the quantum sector, closing a $1 billion equity investment, priced at a premium that boosted its pro forma cash position to $1.6 billion as of July 2025. This war chest gives the company ample runway to execute on its roadmap, including integrating Oxford Ionics ion trap on a chip technology and scaling toward 800 logical qubits by 2027 and 80,000 by 2030. With acquisitions like Lightsynq and Capella expanding its reach into photonic interconnects and space based quantum key distribution, IonQ is positioning itself to lead the next leap in computing power while fortifying its role in the future quantum Internet. Rigetti Rigetti Computings second quarter 2025 revenues reflected sequential growth but declined year over year due to the expiration of the U.S. National Quantum Initiative and delays in its reauthorization. Gross margin narrowed to 31% from 64% a year earlier, primarily due to revenue mix and lower margin development contracts. The company incurred an operating loss and a net loss in the quarter, the latter impacted by non cash losses tied to changes in derivative warrant and earn out liabilities. Management reiterated that hitting technology milestones remains central to its long term profitability path, with Quantum Advantage targeted in roughly four years through scaling qubit counts, improving gate fidelity and advancing error correction. On a positive note, the companys balance sheet is notably fortified, following the completion of a $350 million equity raise during the quarter, bringing total cash, cash equivalents and available for sale investments to $571.6 million as of June 30, 2025, with no debt. This sizable war chest provides ample runway to fund R&amp;D, scale commercial operations and potentially pursue strategic collaborations or acquisitions. Rigetti intends to leverage its proprietary chiplet based superconducting qubit technology to reach a 100 plus qubit system with 99.5% median two qubit gate fidelity by year end 2025, an important step on the roadmap toward fault tolerance and eventual commercial grade quantum computing profitability. Conclusion Taken together, revenues are rising and technology is advancing, but cash burn is heavy and profitability is far off for these three stocks. In this race, massive cash reserves are the fuel, and the first one to deliver scalable, commercially viable quantum systems will be the winner. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report AstraZeneca PLC (AZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report IonQ, Inc. (IONQ): Free Stock Analysis Report Rigetti Computing, Inc. (RGTI): Free Stock Analysis Report D Wave Quantum Inc. (QBTS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45884.54097222222</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Nvidia, AMD Price Targets Raised As AI Demand Keeps Roaring</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-price-targets-raised-165957508.html</t>
+        </is>
+      </c>
+      <c r="E234" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45884.54027777778</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Nvidia CEO Jensen Huang Cashes In as Stock Runs Hot</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-ceo-jensen-huang-cashes-165832406.html</t>
+        </is>
+      </c>
+      <c r="E235" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45884.52013888889</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Iren Limited: An AI, Crypto and Cloud Computing Stock</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142162/iren-limited-an-ai-crypto-and-cloud-computing-stock</t>
+        </is>
+      </c>
+      <c r="E236" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Every so often, I come across a stock in my research that checks nearly every box I look for: innovation, growth, strong fundamentals, and technical momentum. Iren Limited (IREN) is one of those rare finds. The company sits at the intersection of three of the most exciting technology trends, artificial intelligence, cryptocurrency, and cloud computing, while also boasting a top Zacks Rank, a reasonable valuation, and strong price momentum.
+While 2025 has been volatile for the stock, IREN has proven resilient, climbing an impressive 93% year-to-date. The recent price action suggests a period of healthy consolidation, setting the stage for a potential breakout to new highs.
+Iren Limited operates next-generation, vertically integrated data centers built for AI, crypto mining, and high-performance cloud workloads entirely powered by renewable energy. Founded in 2018 and headquartered in Sydney, Iren operates large-scale, grid-connected facilities across North America, delivering scalable, energy efficient compute infrastructure in the rapidly growing AI and blockchain space.
+While stocks like Nvidia (NVDA) and Vertiv (VRT) are well known ways to invest in the AI space, these companies are mammoth compared to Iren. For investors looking to play the trend in a considerably smaller market cap than Nvidia and Vertiv, Iren Limited may be worth considering.
+Image Source: Zacks Investment ResearchShares of IREN Appear Fundamentally Robust
+Iren Limited has a lot going for it from a fundamental perspective. Over the past two months, analysts have made substantial upward revisions to the company’s earnings forecasts. Current quarter estimates have been raised by 31%, while FY25 projections have surged 134%, earning the stock a Zacks Rank #2 (Buy) rating.
+Revenue growth expectations are equally impressive. Sales are projected to soar 173% this year to roughly $515 million, and then climb another 86% next year to approach $960 million. This pace of expansion underscores the company’s ability to capitalize on its positioning in AI, crypto, and cloud computing.
+Even with such explosive growth on the horizon, IREN trades at a forward earnings multiple of just 16.6x, a valuation that looks very attractive given its momentum, earnings revisions, and sector tailwinds.
+Image Source: Zacks Investment ResearchIren Limited Stock Poised to Break Out
+The technical setup for IREN is extremely compelling. After a powerful rally off its April lows, climbing more than 250%, the stock has spent the past six weeks forming a large, orderly consolidation pattern. This kind of pause often serves as the launchpad for the next leg higher in a strong trend.
+Currently, shares are hovering just beneath a key resistance level around $19.15. A decisive move and close above that threshold would confirm a technical breakout, potentially triggering fresh momentum buying and fueling another major bull run. With the stock’s strong underlying trend and favorable fundamental backdrop, a breakout could set the stage for significant upside in the weeks ahead.
+Image Source: TradingViewShould Investors Buy Shares in IREN?
+In a market where giants like Nvidia and Vertiv dominate the AI and data center headlines, Iren Limited offers a smaller, faster-growing player with explosive upside potential. Its unique combination of renewable powered, high-performance compute infrastructure positions it to capture growth across AI, crypto, and cloud computing without the valuation premium of its larger peers.
+With upward trending earnings revisions, massive projected revenue growth, a reasonable valuation, and a textbook technical setup on the verge of a breakout, IREN is emerging as a high conviction idea for growth-oriented investors. If the stock can push through resistance, the next leg higher could be substantial.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+NVIDIA Corporation (NVDA): Free Stock Analysis Report Vertiv Holdings Co. (VRT): Free Stock Analysis Report IREN Limited (IREN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Every so often, I come across a stock in my research that checks nearly every box I look for: innovation, growth, strong fundamentals, and technical momentum. Iren Limited (IREN) is one of those rare finds. The company sits at the intersection of three of the most exciting technology trends, artificial intelligence, cryptocurrency, and cloud computing, while also boasting a top Zacks Rank, a reasonable valuation, and strong price momentum. While 2025 has been volatile for the stock, IREN has proven resilient, climbing an impressive 93% year to date. The recent price action suggests a period of healthy consolidation, setting the stage for a potential breakout to new highs. Iren Limited operates next generation, vertically integrated data centers built for AI, crypto mining, and high performance cloud workloads entirely powered by renewable energy. Founded in 2018 and headquartered in Sydney, Iren operates large scale, grid connected facilities across North America, delivering scalable, energy efficient compute infrastructure in the rapidly growing AI and blockchain space. While stocks like Nvidia (NVDA) and Vertiv (VRT) are well known ways to invest in the AI space, these companies are mammoth compared to Iren. For investors looking to play the trend in a considerably smaller market cap than Nvidia and Vertiv, Iren Limited may be worth considering. Image Source: Zacks Investment ResearchShares of IREN Appear Fundamentally Robust Iren Limited has a lot going for it from a fundamental perspective. Over the past two months, analysts have made substantial upward revisions to the companys earnings forecasts. Current quarter estimates have been raised by 31%, while FY25 projections have surged 134%, earning the stock a Zacks Rank #2 (Buy) rating. Revenue growth expectations are equally impressive. Sales are projected to soar 173% this year to roughly $515 million, and then climb another 86% next year to approach $960 million. This pace of expansion underscores the companys ability to capitalize on its positioning in AI, crypto, and cloud computing. Even with such explosive growth on the horizon, IREN trades at a forward earnings multiple of just 16.6x, a valuation that looks very attractive given its momentum, earnings revisions, and sector tailwinds. Image Source: Zacks Investment ResearchIren Limited Stock Poised to Break Out The technical setup for IREN is extremely compelling. After a powerful rally off its April lows, climbing more than 250%, the stock has spent the past six weeks forming a large, orderly consolidation pattern. This kind of pause often serves as the launchpad for the next leg higher in a strong trend. Currently, shares are hovering just beneath a key resistance level around $19.15. A decisive move and close above that threshold would confirm a technical breakout, potentially triggering fresh momentum buying and fueling another major bull run. With the stocks strong underlying trend and favorable fundamental backdrop, a breakout could set the stage for significant upside in the weeks ahead. Image Source: TradingViewShould Investors Buy Shares in IREN? In a market where giants like Nvidia and Vertiv dominate the AI and data center headlines, Iren Limited offers a smaller, faster growing player with explosive upside potential. Its unique combination of renewable powered, high performance compute infrastructure positions it to capture growth across AI, crypto, and cloud computing without the valuation premium of its larger peers. With upward trending earnings revisions, massive projected revenue growth, a reasonable valuation, and a textbook technical setup on the verge of a breakout, IREN is emerging as a high conviction idea for growth oriented investors. If the stock can push through resistance, the next leg higher could be substantial. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report NVIDIA Corporation (NVDA): Free Stock Analysis Report Vertiv Holdings Co. (VRT): Free Stock Analysis Report IREN Limited (IREN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45884.51875</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Trump aides create loyalty list ranking corporations by support</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/trump-aides-create-loyalty-list-162746725.html</t>
+        </is>
+      </c>
+      <c r="E237" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45884.50347222222</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Politics Beats the Market in Trump's Pay-for-Play Chip Scheme</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/politics-beats-the-market-in-trumps-pay-for-play-chip-scheme-f57ef41d?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E238" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45884.50347222222</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Intel's Move Toward Nationalization Won't Work-at Least for the Long Haul</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.wsj.com/tech/intels-move-toward-nationalization-wont-workat-least-for-the-long-haul-de403b16?mod=wsj_FV</t>
+        </is>
+      </c>
+      <c r="E239" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45884.48611111111</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>The Zacks Analyst Blog Highlights Intel, NVIDIA, AMD and Cadence Design Systems</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142097/the-zacks-analyst-blog-highlights-intel-nvidia-amd-and-cadence-design-systems</t>
+        </is>
+      </c>
+      <c r="E240" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Chicago, IL – August 15, 2025 – Zacks.com announces the list of stocks featured in the Analyst Blog. Every day the Zacks Equity Research analysts discuss the latest news and events impacting stocks and the financial markets. Stocks recently featured in the blog include: Intel Corp. INTC, NVIDIA Corp. NVDA, Advanced Micro Devices, Inc. AMD and Cadence Design Systems, Inc. CDNS.
+Here are highlights from Thursday’s Analyst Blog:
+Intel Corp. has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corp. and Advanced Micro Devices, Inc. in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trump's inconsistent stance on Intel CEO has drawn investors' interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Let's see –
+Last month, Cadence Design Systems, Inc. acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intel's current CEO, Lip-Bu Tan, was leading Cadence.
+Trump learned of Cotton's letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cotton's letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals.
+In reaction, Trump commended Tan's achievements, referring to his success and ascent as an "amazing story." Trump also endorsed Tan's leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Let's not forget, Tan is a well-known venture capitalist, respected for his expertise in the semiconductor industry.
+Intel's business has been struggling for quite some time. Despite Tan's initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year-ago levels.
+Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. It's worse than the $2.8 billion loss that the segment posted a year ago.
+Intel's gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short-term investments accounted for only $21.2 billion.
+However, under Tan's strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio.
+Intel is planning to provide a full-stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node.
+While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the company's business. In time, the semiconductor giant has the potential to regain its former glory.
+Trump's support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intel's price-to-book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future.
+However, new investors should remain passive and watch for meaningful progress. This is because it's too early to predict the potential success of Tan's initiatives, and Intel's financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of today's Zacks Rank #1 (Strong Buy) stocks here.
+Free: Instant Access to Zacks' Market-Crushing Strategies
+Since 2000, our top stock-picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year.
+Today you can tap into those powerful strategies – and the high-potential stocks they uncover – free. No strings attached.
+Get all the details here &gt;&gt;
+Media Contact
+Zacks Investment Research
+800-767-3771 ext. 9339
+https://www.zacks.com
+Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit https://www.zacks.com/performance for information about the performance numbers displayed in this press release.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+This article originally published on Zacks Investment Research (zacks.com).
+| 2 hours | |
+| 6 hours | |
+| 8 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 14 hours | |
+| 14 hours | |
+| 15 hours | |
+| 15 hours | |
+| 15 hours | |
+| 15 hours | |
+| 16 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Chicago, IL August 15, 2025 Zacks.com announces the list of stocks featured in the Analyst Blog. Every day the Zacks Equity Research analysts discuss the latest news and events impacting stocks and the financial markets. Stocks recently featured in the blog include: Intel Corp. INTC, NVIDIA Corp. NVDA, Advanced Micro Devices, Inc. AMD and Cadence Design Systems, Inc. CDNS. Here are highlights from Thursdays Analyst Blog: Intel Corp. has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corp. and Advanced Micro Devices, Inc. in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trump's inconsistent stance on Intel CEO has drawn investors' interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Let's see Last month, Cadence Design Systems, Inc. acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intel's current CEO, Lip Bu Tan, was leading Cadence. Trump learned of Cotton's letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cotton's letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals. In reaction, Trump commended Tan's achievements, referring to his success and ascent as an "amazing story." Trump also endorsed Tan's leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Let's not forget, Tan is a well known venture capitalist, respected for his expertise in the semiconductor industry. Intel's business has been struggling for quite some time. Despite Tan's initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year ago levels. Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. It's worse than the $2.8 billion loss that the segment posted a year ago. Intel's gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short term investments accounted for only $21.2 billion. However, under Tan's strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio. Intel is planning to provide a full stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node. While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the company's business. In time, the semiconductor giant has the potential to regain its former glory. Trump's support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intel's price to book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future. However, new investors should remain passive and watch for meaningful progress. This is because it's too early to predict the potential success of Tan's initiatives, and Intel's financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of today's Zacks Rank #1 (Strong Buy) stocks here. Free: Instant Access to Zacks' Market Crushing Strategies Since 2000, our top stock picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year. Today you can tap into those powerful strategies and the high potential stocks they uncover free. No strings attached. Get all the details here &gt;&gt; Media Contact Zacks Investment Research 800 767 3771 ext. 9339 Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit for information about the performance numbers displayed in this press release. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report This article originally published on Zacks Investment Research (zacks.com). 2 hours 6 hours 8 hours 13 hours 13 hours 13 hours 13 hours 13 hours 14 hours 14 hours 15 hours 15 hours 15 hours 15 hours 16 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45884.47916666666</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>China is Pushing Back Against Biggest Firms Using Nvidia Chips Despite Trump Clearing H20 AI Chips for Export</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/0a04f585-44f3-32cd-ac0a-41894f4d485f/china-is-pushing-back-against.html</t>
+        </is>
+      </c>
+      <c r="E241" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45884.46944444445</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>What AMD and Nvidia Shareholders Should Know About Recent China Updates</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142031/what-amd-and-nvidia-shareholders-should-know-about-recent-china-updates</t>
+        </is>
+      </c>
+      <c r="E242" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA) and Advanced Micro Devices (NASDAQ: AMD). To learn more, check out the short video, consider subscribing, and click the special offer link below.
+*Stock prices used were the after-market prices of Aug. 12, 2025. The video was published on Aug. 12, 2025.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Jose Najarro has positions in Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA) and Advanced Micro Devices (NASDAQ: AMD). To learn more, check out the short video, consider subscribing, and click the special offer link below. Stock prices used were the after market prices of Aug. 12, 2025. The video was published on Aug. 12, 2025. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Jose Najarro has positions in Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45884.46180555555</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Lee Ainslie's Strategic Moves: A Closer Look at The Walt Disney Co's 2.81% Portfolio Impact</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/lee-ainslies-strategic-moves-closer-150531631.html</t>
+        </is>
+      </c>
+      <c r="E243" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45884.45763888889</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Zacks Investment Ideas feature highlights: Fabrinet, Nvidia and Amazon</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142053/zacks-investment-ideas-feature-highlights-fabrinet-nvidia-and-amazon</t>
+        </is>
+      </c>
+      <c r="E244" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>For Immediate Release
+Chicago, IL – August 15, 2025– Today, Zacks Investment Ideas feature highlights Fabrinet FN, Nvidia NVDA and Amazon AMZN.
+Buy This Soaring Tech Stock Before Earnings for AI Growth
+Fabrinet stock has skyrocketed 95% since early April to trade at all-time highs heading into its fourth-quarter fiscal 2025 earnings release on Monday, August 18.
+FN helps big tech companies, including Nvidia, by making small, precision parts used across AI data centers, telecom, and beyond. Artificial intelligence powerhouse Nvidia is one of Fabrinet's largest clients, and it's growing its relationship with Amazon.
+The leading provider of advanced optical packaging tripled the Tech sector over the last 15 years as Wall Street gravitated toward Fabrinet's steady top-line growth in a critical, behind-the-scenes industry.
+The Bull Case for Under-the-Radar Tech Stock FN
+Fabrinet's portfolio enables other tech companies to make the small, complex parts they need for their products. In technical terms, FN is a leader in advanced optical packaging and precision optical, electro-mechanical, and electronic manufacturing services for original equipment manufacturers of complex products.
+More broadly, FN is a behind-the-scenes technology standout growing more critical by the day as AI hyperscalers and others race to build more data centers. For instance, some of Fabrinet's technologies play critical roles in sending information at lightning speeds in data centers, enabling AI programs to run smoothly.
+The company said earlier this year that demand for its datacenter interconnect products is strong and it's confident in the long-term upside across Fabrinet's datacom segment. FN averaged 13% revenue growth in the past five years. More importantly, its GAAP earnings exploded to the tune of 28% average expansion in the last four years.
+Nvidia is one of Fabrinet's largest clients, with the graphics chip powerhouse reportedly accounting for roughly 35% of Fabrinet's FY24 revenue. Fabrinet manufactures critical optical components and networking cables for NVIDIA's AI data center operations, including high-speed transceivers and interconnects used in AI clusters.
+Networking equipment giant Cisco Systems and optical components standout Lumentum are two of FN's other most important clients. On top of all that, Fabrinet and Amazon entered into an agreement in March for Amazon to buy warrants to purchase up to 381,922 shares of Fabrinet at $208.4826 per share. The deal incentivizes Fabrinet to deepen its role within Amazon's supply chain to help support the growth of AMZN's AI infrastructure.
+Fabrinet's direct connection to Nvidia and Amazon should help support long-term growth as both companies fuel the AI arms race. Plus, Fabrinet is a well-run company with a stellar balance sheet, holding more cash and equivalents ($951 million) than total liabilities ($712 million).
+Looking ahead, Fabrinet is projected to grow its FY25 (period ending in June 2025) revenue by 18% and 17% in FY26, reaching $3.95 billion—up from $2.88 billion in FY24.
+The company's consensus earnings estimates have jumped since its Q3 FY25 release, helping FN earn a Zacks Rank #2 (Buy). Fabrinet is expected to grow its adjusted earnings by 15% in FY25 and 18% in FY26.
+Buy Tech Stock FN Before Earnings, Or Wait for a Pullback?
+Fabrinet stock more than tripled the Zacks Tech sector over the last 15 years, soaring 2,660%. This run includes a 1,650% charge over the past 10 years to blow away Tech's 375% and Amazon's 745%.
+The stock has soared alongside the market, charging nearly 100% higher off its April lows to trade right near its recent peaks. The run took Fabrinet from some of its most oversold RSI levels over the past decade to some of its most overbought.
+FN appears rather overheated in the short run and due to possibly test its 21-week moving average. The stock is also trading at an all-time high at 32X forward 12-month earnings.
+This backdrop means that some investors might want to wait for Fabrinet's next pullback before they buy the behind-the-scenes AI stock. Others could decide to dive in as the bulls drive the stock market higher, and buy more FN stock the next time it fades.
+Free: Instant Access to Zacks' Market-Crushing Strategies
+Since 2000, our top stock-picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year.
+Today you can tap into those powerful strategies – and the high-potential stocks they uncover – free. No strings attached.
+Get all the details here &gt;&gt;
+Media Contact
+Zacks Investment Research
+800-767-3771 ext. 9339
+[email protected]
+https://www.zacks.com
+Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit https://www.zacks.com/performancefor information about the performance numbers displayed in this press release.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Amazon.com, Inc. (AMZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Fabrinet (FN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>For Immediate Release Chicago, IL August 15, 2025 Today, Zacks Investment Ideas feature highlights Fabrinet FN, Nvidia NVDA and Amazon AMZN. Buy This Soaring Tech Stock Before Earnings for AI Growth Fabrinet stock has skyrocketed 95% since early April to trade at all time highs heading into its fourth quarter fiscal 2025 earnings release on Monday, August 18. FN helps big tech companies, including Nvidia, by making small, precision parts used across AI data centers, telecom, and beyond. Artificial intelligence powerhouse Nvidia is one of Fabrinet's largest clients, and it's growing its relationship with Amazon. The leading provider of advanced optical packaging tripled the Tech sector over the last 15 years as Wall Street gravitated toward Fabrinet's steady top line growth in a critical, behind the scenes industry. The Bull Case for Under the Radar Tech Stock FN Fabrinet's portfolio enables other tech companies to make the small, complex parts they need for their products. In technical terms, FN is a leader in advanced optical packaging and precision optical, electro mechanical, and electronic manufacturing services for original equipment manufacturers of complex products. More broadly, FN is a behind the scenes technology standout growing more critical by the day as AI hyperscalers and others race to build more data centers. For instance, some of Fabrinet's technologies play critical roles in sending information at lightning speeds in data centers, enabling AI programs to run smoothly. The company said earlier this year that demand for its datacenter interconnect products is strong and it's confident in the long term upside across Fabrinet's datacom segment. FN averaged 13% revenue growth in the past five years. More importantly, its GAAP earnings exploded to the tune of 28% average expansion in the last four years. Nvidia is one of Fabrinet's largest clients, with the graphics chip powerhouse reportedly accounting for roughly 35% of Fabrinet's FY24 revenue. Fabrinet manufactures critical optical components and networking cables for NVIDIA's AI data center operations, including high speed transceivers and interconnects used in AI clusters. Networking equipment giant Cisco Systems and optical components standout Lumentum are two of FN's other most important clients. On top of all that, Fabrinet and Amazon entered into an agreement in March for Amazon to buy warrants to purchase up to 381,922 shares of Fabrinet at $208.4826 per share. The deal incentivizes Fabrinet to deepen its role within Amazon's supply chain to help support the growth of AMZN's AI infrastructure. Fabrinet's direct connection to Nvidia and Amazon should help support long term growth as both companies fuel the AI arms race. Plus, Fabrinet is a well run company with a stellar balance sheet, holding more cash and equivalents ($951 million) than total liabilities ($712 million). Looking ahead, Fabrinet is projected to grow its FY25 (period ending in June 2025) revenue by 18% and 17% in FY26, reaching $3.95 billionup from $2.88 billion in FY24. The company's consensus earnings estimates have jumped since its Q3 FY25 release, helping FN earn a Zacks Rank #2 (Buy). Fabrinet is expected to grow its adjusted earnings by 15% in FY25 and 18% in FY26. Buy Tech Stock FN Before Earnings, Or Wait for a Pullback? Fabrinet stock more than tripled the Zacks Tech sector over the last 15 years, soaring 2,660%. This run includes a 1,650% charge over the past 10 years to blow away Tech's 375% and Amazon's 745%. The stock has soared alongside the market, charging nearly 100% higher off its April lows to trade right near its recent peaks. The run took Fabrinet from some of its most oversold RSI levels over the past decade to some of its most overbought. FN appears rather overheated in the short run and due to possibly test its 21 week moving average. The stock is also trading at an all time high at 32X forward 12 month earnings. This backdrop means that some investors might want to wait for Fabrinet's next pullback before they buy the behind the scenes AI stock. Others could decide to dive in as the bulls drive the stock market higher, and buy more FN stock the next time it fades. Free: Instant Access to Zacks' Market Crushing Strategies Since 2000, our top stock picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year. Today you can tap into those powerful strategies and the high potential stocks they uncover free. No strings attached. Get all the details here &gt;&gt; Media Contact Zacks Investment Research 800 767 3771 ext. 9339 [email protected] Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit information about the performance numbers displayed in this press release. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report Amazon.com, Inc. (AMZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Fabrinet (FN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45884.45763888889</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Nvidia Slips Amid Chip Tariff Talk. Big Funds Are Piling Into the Stock.</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-slips-amid-chip-tariff.html</t>
+        </is>
+      </c>
+      <c r="E245" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45884.44027777778</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Why would Trump and Intel want to work together: Opening Bid top takeaway</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/why-would-trump-and-intel-want-to-work-together-opening-bid-top-takeaway-143409334.html</t>
+        </is>
+      </c>
+      <c r="E246" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45884.43958333333</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>A Trump Intel Stake Could Make National Security the New 'Too Big to Fail'</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/trump-intel-stake-too-big-fail-b66594d9?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E247" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45884.4375</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>BC-Most Active Stocks</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/bc-most-active-stocks-143017539.html</t>
+        </is>
+      </c>
+      <c r="E248" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45884.43680555555</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Trump Says Tariff Rate on Semiconductors Could Reach 300%. Nvidia and AMD Stocks Fall.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/b679bc58-8e47-301a-a02f-a9a04f93cf32/trump-says-tariff-rate-on.html</t>
+        </is>
+      </c>
+      <c r="E249" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45884.4125</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Stutters. Big Funds Are Piling Into the AI Chip Maker.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-stock-stutters.-big.html</t>
+        </is>
+      </c>
+      <c r="E250" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45884.40694444445</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Dow scales record high on hopes of Fed rate cuts, trade deals</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/dow-scales-record-high-hopes-134625792.html</t>
+        </is>
+      </c>
+      <c r="E251" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45884.37152777778</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Best semiconductor ETFs in 2025: Top chip companies for your portfolio</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/best-semiconductor-etfs-2025-top-125500125.html</t>
+        </is>
+      </c>
+      <c r="E252" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45884.36944444444</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>20 stocks in the S&amp;P 500 that are high achievers this earnings season</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.marketwatch.com/story/20-stocks-in-the-s-p-500-that-are-high-achievers-this-earnings-season-17b99522?mod=mw_FV</t>
+        </is>
+      </c>
+      <c r="E253" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45884.36805555555</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Best equal-weight index funds</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/best-equal-weight-index-funds-212855779.html</t>
+        </is>
+      </c>
+      <c r="E254" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45884.35416666666</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>ProShares Launches First ETF to Target 2x Daily Returns of Nasdaq-100 Top 30 Index</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/proshares-launches-first-etf-target-123000712.html</t>
+        </is>
+      </c>
+      <c r="E255" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45884.34722222222</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Could Buying Nvidia Today Set You Up for Life?</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141764/could-buying-nvidia-today-set-you-up-for-life</t>
+        </is>
+      </c>
+      <c r="E256" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Key Points
+Nvidia is riding a massive wave of AI success.
+With its massive lead and a $2 trillion AI data center market still developing, there's likely more gains ahead for Nvidia's stock.
+But don't expect the same returns that Nvidia had over the past few years.
+The artificial intelligence (AI) boom that has occurred over the past few years has elevated chip designer Nvidia (NASDAQ: NVDA) from a good investment into an amazing one, as its share price spiked over 900%.
+With gains of that magnitude, it's logical to wonder whether Nvidia stock can keep the momentum going and set investors up for life, or if the stock has run its course. Here's why Nvidia is a hands-down fantastic stock to own, but why it's also unlikely to set you up for life at this point.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Nvidia still has room to run
+Many technology companies are chasing after AI glory right now, but Nvidia is one of the only companies that can benefit no matter who wins the AI race. Nvidia's processors lead the pack in AI data center market share -- with up to 95% by some estimates. This means that as large tech companies invest hundreds of billions of dollars into building AI data centers, Nvidia's processors are almost always chosen to go in them.
+That's resulted in mammoth-sized revenue gains for the company, including a 126% and 114% increase over the past two years. And there could be more growth on the way. Tech giants aren't finished investing in their AI infrastructure, and an estimated $2 trillion could be spent on AI data centers over the next four years.
+Nvidia is also expanding into related markets, including enterprise AI software, and could benefit from the burgeoning autonomous vehicle market, both of which could help extend its growth runway. Given the continued and large investments in AI by major tech companies and Nvidia's lead in providing semiconductors to them all, there isn't currently much to worry about concerning Nvidia's core business.
+But duplicating Nvidia's recent gains will be nearly impossible
+While Nvidia certainly has more room to continue selling its processors to tech companies as they build their AI infrastructure, at some point, this initial surge in spending will subside. We're already a few years into companies creating chatbots, AI agents, and other cloud-based AI tools. Like any new major tech trend, there's typically a first wave of big investments before an eventual tapering off.
+While no one knows when that will happen or to what extent, it likely means that Nvidia's astronomical gains over the past few years won't be replicated. The likelihood that Nvidia could continue doubling its sales for several more consecutive years at this point is unrealistic, given that its fiscal 2025 revenue was nearly $131 billion.
+For example, analysts' consensus estimate for Nvidia's sales growth for 2026 is 54% to $250 billion and 25% growth in 2027. That's still a very impressive revenue increase, but it's not anywhere near the recent growth Nvidia has experienced.
+It's also important to point out that Nvidia's rapid stock-price growth over the past few years means that its shares are likely priced for perfection. A sales or earnings miss at this point, even if it's not technically a bad quarter, could cause the stock to fall based on sky-high expectations.
+Nvidia probably won't set you up for life, but don't ignore it
+While Nvidia isn't likely to set you up for life if you buy the stock now, ignoring this AI leader would be a mistake. The company is still in a leading position in AI processors at a time when AI is still in the early innings.
+That's why buying the stock could still be a wise move. Just don't expect another 900% share-price gain over the next three years.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Chris Neiger has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Key Points Nvidia is riding a massive wave of AI success. With its massive lead and a $2 trillion AI data center market still developing, there's likely more gains ahead for Nvidia's stock. But don't expect the same returns that Nvidia had over the past few years. The artificial intelligence (AI) boom that has occurred over the past few years has elevated chip designer Nvidia (NASDAQ: NVDA) from a good investment into an amazing one, as its share price spiked over 900%. With gains of that magnitude, it's logical to wonder whether Nvidia stock can keep the momentum going and set investors up for life, or if the stock has run its course. Here's why Nvidia is a hands down fantastic stock to own, but why it's also unlikely to set you up for life at this point. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Nvidia still has room to run Many technology companies are chasing after AI glory right now, but Nvidia is one of the only companies that can benefit no matter who wins the AI race. Nvidia's processors lead the pack in AI data center market share with up to 95% by some estimates. This means that as large tech companies invest hundreds of billions of dollars into building AI data centers, Nvidia's processors are almost always chosen to go in them. That's resulted in mammoth sized revenue gains for the company, including a 126% and 114% increase over the past two years. And there could be more growth on the way. Tech giants aren't finished investing in their AI infrastructure, and an estimated $2 trillion could be spent on AI data centers over the next four years. Nvidia is also expanding into related markets, including enterprise AI software, and could benefit from the burgeoning autonomous vehicle market, both of which could help extend its growth runway. Given the continued and large investments in AI by major tech companies and Nvidia's lead in providing semiconductors to them all, there isn't currently much to worry about concerning Nvidia's core business. But duplicating Nvidia's recent gains will be nearly impossible While Nvidia certainly has more room to continue selling its processors to tech companies as they build their AI infrastructure, at some point, this initial surge in spending will subside. We're already a few years into companies creating chatbots, AI agents, and other cloud based AI tools. Like any new major tech trend, there's typically a first wave of big investments before an eventual tapering off. While no one knows when that will happen or to what extent, it likely means that Nvidia's astronomical gains over the past few years won't be replicated. The likelihood that Nvidia could continue doubling its sales for several more consecutive years at this point is unrealistic, given that its fiscal 2025 revenue was nearly $131 billion. For example, analysts' consensus estimate for Nvidia's sales growth for 2026 is 54% to $250 billion and 25% growth in 2027. That's still a very impressive revenue increase, but it's not anywhere near the recent growth Nvidia has experienced. It's also important to point out that Nvidia's rapid stock price growth over the past few years means that its shares are likely priced for perfection. A sales or earnings miss at this point, even if it's not technically a bad quarter, could cause the stock to fall based on sky high expectations. Nvidia probably won't set you up for life, but don't ignore it While Nvidia isn't likely to set you up for life if you buy the stock now, ignoring this AI leader would be a mistake. The company is still in a leading position in AI processors at a time when AI is still in the early innings. That's why buying the stock could still be a wise move. Just don't expect another 900% share price gain over the next three years. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Chris Neiger has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45884.33333333334</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>What AMD, CoreWeave, and Nvidia Stock Investors Should Know About Recent Updates</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141745/what-amd-coreweave-and-nvidia-stock-investors-should-know-about-recent-updates</t>
+        </is>
+      </c>
+      <c r="E257" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA), Advanced Micro Devices (NASDAQ: AMD), and CoreWeave (NASDAQ: CRWV). To learn more, check out the short video, consider subscribing, and click the special offer link below.
+*Stock prices used were the after-market prices of Aug. 13, 2025. The video was published on Aug. 13, 2025.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Jose Najarro has positions in Advanced Micro Devices, CoreWeave, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices and Nvidia. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA), Advanced Micro Devices (NASDAQ: AMD), and CoreWeave (NASDAQ: CRWV). To learn more, check out the short video, consider subscribing, and click the special offer link below. Stock prices used were the after market prices of Aug. 13, 2025. The video was published on Aug. 13, 2025. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Jose Najarro has positions in Advanced Micro Devices, CoreWeave, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices and Nvidia. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45884.29166666666</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>3 AI chip stocks that are best positioned right now</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/3-ai-chip-stocks-best-110017626.html</t>
+        </is>
+      </c>
+      <c r="E258" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45884.29166666666</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>These Were the 5 Biggest Companies in 2019, and Here Are the 5 Biggest Companies Now</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141703/these-were-the-5-biggest-companies-in-2019-and-here-are-the-5-biggest-companies-now</t>
+        </is>
+      </c>
+      <c r="E259" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Key Points
+The largest companies in 2019 represented a motley mix of tech, consumer, and financials.
+Four out of the five biggest companies today, though, are all tech giants.
+This shift reflects the changing global landscape and companies making breakthroughs.
+Businesses evolve with global trends, technological advancements, and shifts in consumer preferences. The change is sometimes so rapid that it takes only a few years for emerging companies to become global titans.
+That's what happened between 2019 and now. While some corporate giants have retained their positions as the largest companies, one company that wasn't even in the top 20 in 2019 has catapulted to the top spot today.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+The five biggest companies in 2019
+| Company |
+Market capitalization (03/31/2019) |
+|
+Microsoft (NASDAQ: MSFT)
+|
+$905 billion |
+|
+Apple (NASDAQ: AAPL)
+|
+$896 billion |
+|
+Amazon (NASDAQ: AMZN)
+|
+$875 billion |
+|
+Alphabet (NASDAQ: GOOG)(NASDAQ: GOOGL)
+|
+$817 billion |
+|
+Berkshire Hathaway (NYSE: BRK.A)(NYSE: BRK.B)
+|
+$494 billion |
+Data source: PricewaterhouseCoopers (PwC) global top 100 companies report, 2019.
+Tech evidently ruled in 2019, but the tech supremacy that the world has witnessed since has been nothing short of spectacular. Artificial intelligence (AI) has rocked the world, with one company absolutely crushing it.
+The five biggest companies in 2025
+| Company |
+Market capitalization (08/13/2025) |
+|
+Nvidia (NASDAQ: NVDA)
+|
+$4.43 trillion |
+| Microsoft |
+$3.89 trillion |
+| Apple |
+$3.46 trillion |
+| Alphabet |
+$2.44 trillion |
+| Amazon |
+$2.39 trillion |
+Data source: Yahoo! Finance.
+Apple's flagship iPhones, high-margin services segment, and diversification into wearables have added tremendous value to its business since 2019.
+Amazon's growth since 2019, meanwhile, has been driven by its leadership in e-commerce and aggressive expansion of cloud services through Amazon Web Services (AWS). AWS is the world's largest cloud computing platform today.
+Cloud has also been a key growth driver for Alphabet and Microsoft since 2019. Yet, none of these companies have achieved what Nvidia has in six years.
+NVDA Market Cap data by YCharts
+Nvidia's unstoppable growth in AI has pushed its market cap by 4,000% since 2019 to over $4 trillion. That makes Nvidia the world's most valuable company today.
+In the world of investing, tracking the largest companies isn't just about market capitalization, though. It reveals the dynamic forces shaping global markets, and which companies are positioning themselves to stay relevant in the long run.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Neha Chamaria has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Berkshire Hathaway, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Key Points The largest companies in 2019 represented a motley mix of tech, consumer, and financials. Four out of the five biggest companies today, though, are all tech giants. This shift reflects the changing global landscape and companies making breakthroughs. Businesses evolve with global trends, technological advancements, and shifts in consumer preferences. The change is sometimes so rapid that it takes only a few years for emerging companies to become global titans. That's what happened between 2019 and now. While some corporate giants have retained their positions as the largest companies, one company that wasn't even in the top 20 in 2019 has catapulted to the top spot today. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. The five biggest companies in 2019 Company Market capitalization (03/31/2019) Microsoft (NASDAQ: MSFT) $905 billion Apple (NASDAQ: AAPL) $896 billion Amazon (NASDAQ: AMZN) $875 billion Alphabet (NASDAQ: GOOG)(NASDAQ: GOOGL) $817 billion Berkshire Hathaway (NYSE: BRK.A)(NYSE: BRK.B) $494 billion Data source: PricewaterhouseCoopers (PwC) global top 100 companies report, 2019. Tech evidently ruled in 2019, but the tech supremacy that the world has witnessed since has been nothing short of spectacular. Artificial intelligence (AI) has rocked the world, with one company absolutely crushing it. The five biggest companies in 2025 Company Market capitalization (08/13/2025) Nvidia (NASDAQ: NVDA) $4.43 trillion Microsoft $3.89 trillion Apple $3.46 trillion Alphabet $2.44 trillion Amazon $2.39 trillion Data source: Yahoo! Finance. Apple's flagship iPhones, high margin services segment, and diversification into wearables have added tremendous value to its business since 2019. Amazon's growth since 2019, meanwhile, has been driven by its leadership in e commerce and aggressive expansion of cloud services through Amazon Web Services (AWS). AWS is the world's largest cloud computing platform today. Cloud has also been a key growth driver for Alphabet and Microsoft since 2019. Yet, none of these companies have achieved what Nvidia has in six years. NVDA Market Cap data by YCharts Nvidia's unstoppable growth in AI has pushed its market cap by 4,000% since 2019 to over $4 trillion. That makes Nvidia the world's most valuable company today. In the world of investing, tracking the largest companies isn't just about market capitalization, though. It reveals the dynamic forces shaping global markets, and which companies are positioning themselves to stay relevant in the long run. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Neha Chamaria has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Berkshire Hathaway, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45884.25208333333</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Analysis-Trump's attack on Goldman could prompt watering down of Wall Street's independent analysis</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/analysis-trumps-attack-goldman-could-100301764.html</t>
+        </is>
+      </c>
+      <c r="E260" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45884.25</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Can megacaps keep rising? Here's what valuation metrics tell us</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/megacaps-keep-rising-heres-valuation-100019975.html</t>
+        </is>
+      </c>
+      <c r="E261" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45884.22916666666</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>AI Exacerbates Tech Divide With Smaller Stocks Languishing</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/ai-exacerbates-tech-divide-smaller-093000902.html</t>
+        </is>
+      </c>
+      <c r="E262" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45884.22708333333</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>CoreWeave IPO Investors Sitting on Big Gains Get Chance to Sell</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/coreweave-ipo-investors-sitting-big-092712253.html</t>
+        </is>
+      </c>
+      <c r="E263" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45884.21666666667</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Taiwan raises 2025 GDP growth forecast, cautious about 2026 outlook on US tariffs</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/taiwan-raises-2025-gdp-growth-091247191.html</t>
+        </is>
+      </c>
+      <c r="E264" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45884.21458333333</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Wavers. Big Funds Are Piling Into the AI Chip Maker.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/nvidia-stock-price-soros-ai-aebccfaf?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E265" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45884.17291666667</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Where Will Navitas Semiconductor Stock Be in 3 Years?</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141527/where-will-navitas-semiconductor-stock-be-in-3-years</t>
+        </is>
+      </c>
+      <c r="E266" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Key Points
+Navitas’ stock trades about 70% below its all-time high.
+It faces challenging macro headwinds.
+Its stock looks expensive relative to its growth potential.
+Navitas Semiconductor (NASDAQ: NVTS), a producer of gallium nitride (GaN) and silicon carbide (SiC) chips, took its investors on a wild ride after it went public by merging with a special purpose acquisition company (SPAC) on Oct. 21, 2021. Its stock opened at $13, soared to a record high of $22.19 a month later, but sank to an all-time low of $1.52 on April 4, 2025. Like many other SPAC-backed start-ups, Navitas disappointed its investors by missing its own growth forecasts and racking up steep losses.
+Today, Navitas' stock trades just above $7 a share. It bounced back as its new AI data center partnership with Nvidia (NASDAQ: NVDA) attracted a stampede of bulls and squeezed out the bears. But could Navitas' stock generate even bigger gains and set fresh highs over the next three years?
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+What happened over the past three years?
+GaN and SiC power chips are faster, more power-efficient, and can operate at higher temperatures and voltages than traditional silicon chips. That makes them well-suited for mobile fast chargers, electric vehicle (EV) chargers, laptop adapters, data center power supplies, solar inverters, industrial motor drives, and energy storage solutions.
+Navitas generates most of its revenue from its GaNFast Power ICs, which bundle together switching, sensing, control, and security features on a single chip. It expanded into the SiC market through its acquisition of GeneSiC, which mainly supplies SiC power chips for the EV and data center markets, in 2022. Its major customers now include Dell Technologies (NYSE: DELL), which uses GaN/SiC chips in its laptop chargers; the Chinese automaker Changan, which uses its GaN ICs in its on-board EV chargers; and Nvidia, which selected its 800 V HVDC architecture to support its AI workloads at its data centers earlier this year.
+Navitas is a fabless chipmaker that outsources its manufacturing to third-party foundries. That capital-light model enables it to focus on developing new chips instead of spending a lot of money on upgrading its plants. That sets it apart from Wolfspeed (NYSE: WOLF), the SiC and GaN chipmaker, which filed for bankruptcy this June after failing to balance the costs of running its own foundries with its soaring debt levels.
+Before Navitas went public, it claimed it would grow its annual revenue from $12 million in 2020 to $308 million in 2024. It also expected to achieve a positive adjusted earnings before interest, taxes, depreciation, and amortization (EBITDA) by 2023. But here's what actually happened over the past three years.
+|
+Metric
+|
+2022
+|
+2023
+|
+2024
+|
+|
+Revenue
+|
+$37.9 million
+|
+$79.5 million
+|
+$83.3 million
+|
+|
+Revenue Growth
+|
+60%
+|
+109%
+|
+5%
+|
+|
+Adjusted EBITDA
+|
+($32.9 million)
+|
+($19.3 million)
+|
+($27.8 million)
+|
+Data source: Navitas, Marketscreener.
+In 2024, Navitas' growth stalled out as the macro headwinds disrupted its orders from its EV, solar, and industrial customers. It also ended a key distribution deal for its SiC products, and it generated more sales from its lower-margin GaN chips instead of its higher-margin SiC chips. That pressure, along with its rising R&amp;D expenses, caused it to remain deeply unprofitable on a generally accepted accounting principles (GAAP) basis as its adjusted EBITDA stayed negative.
+What will happen to Navitas over the next three years?
+Over the next few years, Navitas' data center deal with Nvidia -- which will be ramped up in 2026 and expanded in 2027 -- could significantly boost its revenue. It should also benefit from the growing adoption of GaN and SiC chips in EV chargers, laptop chargers, and other electronic devices. However, the tariffs against China and its intentional retreat from its lower-margin (but higher revenue) mobile markets could offset those tailwinds and throttle its overall growth.
+Based on those expectations, analysts expect Navitas' revenue to grow at a CAGR of 7% from 2024 to 2027 -- but its adjusted EBITDA should stay negative by the final year. And with an enterprise value of $1.27 billion, it still looks expensive at 26 times this year's sales.
+Navitas' valuations are likely being inflated by its deal with Nvidia. Expectations for lower interest rates are amplifying those gains by driving more investors toward speculative stocks again. Those higher valuations could cap its gains over the next three years.
+If Navitas matches analysts' expectations, grows its revenue by another 7% in 2028, and trades at a more reasonable 10 times its forward sales, its stock price would actually decline 7% to roughly $6.10 and reduce its enterprise value to $1.1 billion. Therefore, its stock could underperform the market until it stabilizes its core businesses. But over the long term, Navitas could still be a good long-term play on GaN and SiC chips as they displace traditional silicon chips.
+Should you invest $1,000 in Navitas Semiconductor right now?
+Before you buy stock in Navitas Semiconductor, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Navitas Semiconductor wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Leo Sun has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool recommends Wolfspeed. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Key Points Navitas stock trades about 70% below its all time high. It faces challenging macro headwinds. Its stock looks expensive relative to its growth potential. Navitas Semiconductor (NASDAQ: NVTS), a producer of gallium nitride (GaN) and silicon carbide (SiC) chips, took its investors on a wild ride after it went public by merging with a special purpose acquisition company (SPAC) on Oct. 21, 2021. Its stock opened at $13, soared to a record high of $22.19 a month later, but sank to an all time low of $1.52 on April 4, 2025. Like many other SPAC backed start ups, Navitas disappointed its investors by missing its own growth forecasts and racking up steep losses. Today, Navitas' stock trades just above $7 a share. It bounced back as its new AI data center partnership with Nvidia (NASDAQ: NVDA) attracted a stampede of bulls and squeezed out the bears. But could Navitas' stock generate even bigger gains and set fresh highs over the next three years? Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. What happened over the past three years? GaN and SiC power chips are faster, more power efficient, and can operate at higher temperatures and voltages than traditional silicon chips. That makes them well suited for mobile fast chargers, electric vehicle (EV) chargers, laptop adapters, data center power supplies, solar inverters, industrial motor drives, and energy storage solutions. Navitas generates most of its revenue from its GaNFast Power ICs, which bundle together switching, sensing, control, and security features on a single chip. It expanded into the SiC market through its acquisition of GeneSiC, which mainly supplies SiC power chips for the EV and data center markets, in 2022. Its major customers now include Dell Technologies (NYSE: DELL), which uses GaN/SiC chips in its laptop chargers; the Chinese automaker Changan, which uses its GaN ICs in its on board EV chargers; and Nvidia, which selected its 800 V HVDC architecture to support its AI workloads at its data centers earlier this year. Navitas is a fabless chipmaker that outsources its manufacturing to third party foundries. That capital light model enables it to focus on developing new chips instead of spending a lot of money on upgrading its plants. That sets it apart from Wolfspeed (NYSE: WOLF), the SiC and GaN chipmaker, which filed for bankruptcy this June after failing to balance the costs of running its own foundries with its soaring debt levels. Before Navitas went public, it claimed it would grow its annual revenue from $12 million in 2020 to $308 million in 2024. It also expected to achieve a positive adjusted earnings before interest, taxes, depreciation, and amortization (EBITDA) by 2023. But here's what actually happened over the past three years. Metric 2022 2023 2024 Revenue $37.9 million $79.5 million $83.3 million Revenue Growth 60% 109% 5% Adjusted EBITDA ($32.9 million) ($19.3 million) ($27.8 million) Data source: Navitas, Marketscreener. In 2024, Navitas' growth stalled out as the macro headwinds disrupted its orders from its EV, solar, and industrial customers. It also ended a key distribution deal for its SiC products, and it generated more sales from its lower margin GaN chips instead of its higher margin SiC chips. That pressure, along with its rising R&amp;D expenses, caused it to remain deeply unprofitable on a generally accepted accounting principles (GAAP) basis as its adjusted EBITDA stayed negative. What will happen to Navitas over the next three years? Over the next few years, Navitas' data center deal with Nvidia which will be ramped up in 2026 and expanded in 2027 could significantly boost its revenue. It should also benefit from the growing adoption of GaN and SiC chips in EV chargers, laptop chargers, and other electronic devices. However, the tariffs against China and its intentional retreat from its lower margin (but higher revenue) mobile markets could offset those tailwinds and throttle its overall growth. Based on those expectations, analysts expect Navitas' revenue to grow at a CAGR of 7% from 2024 to 2027 but its adjusted EBITDA should stay negative by the final year. And with an enterprise value of $1.27 billion, it still looks expensive at 26 times this year's sales. Navitas' valuations are likely being inflated by its deal with Nvidia. Expectations for lower interest rates are amplifying those gains by driving more investors toward speculative stocks again. Those higher valuations could cap its gains over the next three years. If Navitas matches analysts' expectations, grows its revenue by another 7% in 2028, and trades at a more reasonable 10 times its forward sales, its stock price would actually decline 7% to roughly $6.10 and reduce its enterprise value to $1.1 billion. Therefore, its stock could underperform the market until it stabilizes its core businesses. But over the long term, Navitas could still be a good long term play on GaN and SiC chips as they displace traditional silicon chips. Should you invest $1,000 in Navitas Semiconductor right now? Before you buy stock in Navitas Semiconductor, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Navitas Semiconductor wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Leo Sun has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool recommends Wolfspeed. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45884.15069444444</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Should You Buy Nvidia Stock Before Aug. 27? Wall Street Has a Compelling Answer</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141519/should-you-buy-nvidia-stock-before-aug-27-wall-street-has-a-compelling-answer</t>
+        </is>
+      </c>
+      <c r="E267" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Key Points
+Investors will be on the edge of their seats when Nvidia releases its quarterly financial report later this month.
+Despite being the world's largest company, Wall Street is becoming even more bullish on the chipmaker.
+Nvidia's Blackwell processor and the resumption of sales to China could spark the stock's next run higher.
+The most profound change in the tech landscape in recent memory comes courtesy of advancements in artificial intelligence (AI). These next-generation algorithms are being applied to a dizzying number of new use cases, but they require an extraordinary amount of computational horsepower.
+Arguably, the biggest beneficiary of this secular tailwind has been Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs), which were pioneered to create lifelike images in video games, proved equally adept at providing the lightning-fast speeds necessary for AI training and inference. The explosive demand for Nvidia's AI chips has fueled the company's meteoric rise. Since the dawn of AI in early 2023, Nvidia stock has climbed a heady 1,140% (as of this writing), turning the company into the de facto poster child for AI.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Nvidia has a lot riding on its second quarter financial results, which are scheduled to be released after the market closes on Aug. 27. Heading into this critical report, let's look at recent developments, what Wall Street is saying, and what investors can expect.
+Image source: Getty Images.
+Paint by numbers
+After two consecutive years of triple-digit revenue and profit growth, Nvidia's growth rate has inevitably slowed, but the results are impressive nonetheless.
+In the company's fiscal 2026 first quarter (ended April 27), the results were enviable by any standard. Nvidia delivered record revenue of $44.1 billion, up 69% year over year, while its adjusted earnings per share (EPS) of $0.81 climbed 33%.
+The profit picture requires context, however. Early in Q1, the Trump Administration issued a moratorium on H20 chip sales to China (which has since been lifted). Nvidia took a $4.5 billion charge for the affected inventory. If not for this one-time charge, adjusted EPS of $0.96 would have jumped 62%. The profits in accordance with generally accepted accounting principles (GAAP) were also solidt, increasing 27% to $0.76.
+Estimates vary regarding the impact of resuming chip sales to China. Stifel analyst Ruben Roy cited pent-up demand fueling $19.5 billion in H20 chip sales this year. Analysts' consensus estimates had previously pegged Nvidia's fiscal 2026 revenue at $201 billion, so resuming sales to China could potentially boost revenue by 10%, though the final tally will depend on the availability of manufacturing capacity.
+The biggest growth driver for Nvidia is sales of the company's AI-centric Blackwell architecture. In the first quarter, CFO Colette Kress noted that the Blackwell ramp had expanded to "all customer categories," making it "the fastest ramp in company history."
+Nvidia's strong record of innovation has kept the company at the forefront of the AI revolution, and it appears that won't be changing anytime soon.
+What Wall Street is saying right now
+Ahead of Nvidia's important report later this month, Wall Street is increasingly bullish. Analysts' consensus estimates are calling for revenue of $45.75 billion, or growth of about 53%, resulting in EPS of $1.00, an increase of 47%. Nvidia has a remarkable track record of consistently beating its own expectations and those of Wall Street, so the consensus could well be conservative.
+Of the 65 analysts who offered an opinion in August, 89% rate Nvidia stock a buy or strong buy, and only one recommends selling. The average price target of $187 suggests modest upside of about 3%.
+One of the more bullish takes comes courtesy of Loop Capital analyst John Donovan. He maintained a buy rating on the stock and recently increased his price target to $250, or potential upside for investors of 38%. The analyst cites channel checks with cloud providers, which suggest an ongoing surge in demand. He goes on to suggest that the market for data center GPUs could soar to $2 trillion by 2028. As the industry leader, Nvidia is well-positioned to benefit from the trend.
+Finally, there's the subject of valuation. Nvidia stock is currently selling for roughly 31 times next year's earnings. While that's a slight premium, it's worth considering the context. Nvidia's revenue has soared 832% over the past five years (as of this writing), while its net income has risen 1,310%. This has fueled a stock price surge of 1,490%. The ability to consistently generate market beating returns, particularly gains of that magnitude, is rare. This helps to illustrate why Nvidia is deserving of a premium.
+Wall Street's position is clear. Nvidia stock is a buy. We'll know more after the company reports its Q2 results after the market close on Wednesday, Aug. 27.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Key Points Investors will be on the edge of their seats when Nvidia releases its quarterly financial report later this month. Despite being the world's largest company, Wall Street is becoming even more bullish on the chipmaker. Nvidia's Blackwell processor and the resumption of sales to China could spark the stock's next run higher. The most profound change in the tech landscape in recent memory comes courtesy of advancements in artificial intelligence (AI). These next generation algorithms are being applied to a dizzying number of new use cases, but they require an extraordinary amount of computational horsepower. Arguably, the biggest beneficiary of this secular tailwind has been Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs), which were pioneered to create lifelike images in video games, proved equally adept at providing the lightning fast speeds necessary for AI training and inference. The explosive demand for Nvidia's AI chips has fueled the company's meteoric rise. Since the dawn of AI in early 2023, Nvidia stock has climbed a heady 1,140% (as of this writing), turning the company into the de facto poster child for AI. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Nvidia has a lot riding on its second quarter financial results, which are scheduled to be released after the market closes on Aug. 27. Heading into this critical report, let's look at recent developments, what Wall Street is saying, and what investors can expect. Image source: Getty Images. Paint by numbers After two consecutive years of triple digit revenue and profit growth, Nvidia's growth rate has inevitably slowed, but the results are impressive nonetheless. In the company's fiscal 2026 first quarter (ended April 27), the results were enviable by any standard. Nvidia delivered record revenue of $44.1 billion, up 69% year over year, while its adjusted earnings per share (EPS) of $0.81 climbed 33%. The profit picture requires context, however. Early in Q1, the Trump Administration issued a moratorium on H20 chip sales to China (which has since been lifted). Nvidia took a $4.5 billion charge for the affected inventory. If not for this one time charge, adjusted EPS of $0.96 would have jumped 62%. The profits in accordance with generally accepted accounting principles (GAAP) were also solidt, increasing 27% to $0.76. Estimates vary regarding the impact of resuming chip sales to China. Stifel analyst Ruben Roy cited pent up demand fueling $19.5 billion in H20 chip sales this year. Analysts' consensus estimates had previously pegged Nvidia's fiscal 2026 revenue at $201 billion, so resuming sales to China could potentially boost revenue by 10%, though the final tally will depend on the availability of manufacturing capacity. The biggest growth driver for Nvidia is sales of the company's AI centric Blackwell architecture. In the first quarter, CFO Colette Kress noted that the Blackwell ramp had expanded to "all customer categories," making it "the fastest ramp in company history." Nvidia's strong record of innovation has kept the company at the forefront of the AI revolution, and it appears that won't be changing anytime soon. What Wall Street is saying right now Ahead of Nvidia's important report later this month, Wall Street is increasingly bullish. Analysts' consensus estimates are calling for revenue of $45.75 billion, or growth of about 53%, resulting in EPS of $1.00, an increase of 47%. Nvidia has a remarkable track record of consistently beating its own expectations and those of Wall Street, so the consensus could well be conservative. Of the 65 analysts who offered an opinion in August, 89% rate Nvidia stock a buy or strong buy, and only one recommends selling. The average price target of $187 suggests modest upside of about 3%. One of the more bullish takes comes courtesy of Loop Capital analyst John Donovan. He maintained a buy rating on the stock and recently increased his price target to $250, or potential upside for investors of 38%. The analyst cites channel checks with cloud providers, which suggest an ongoing surge in demand. He goes on to suggest that the market for data center GPUs could soar to $2 trillion by 2028. As the industry leader, Nvidia is well positioned to benefit from the trend. Finally, there's the subject of valuation. Nvidia stock is currently selling for roughly 31 times next year's earnings. While that's a slight premium, it's worth considering the context. Nvidia's revenue has soared 832% over the past five years (as of this writing), while its net income has risen 1,310%. This has fueled a stock price surge of 1,490%. The ability to consistently generate market beating returns, particularly gains of that magnitude, is rare. This helps to illustrate why Nvidia is deserving of a premium. Wall Street's position is clear. Nvidia stock is a buy. We'll know more after the company reports its Q2 results after the market close on Wednesday, Aug. 27. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45884.12916666667</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Nvidia, Palantir, and AMD Have a Nearly $13 Billion Warning for Wall Street -- but Are You Paying Attention?</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141515/nvidia-palantir-and-amd-have-a-nearly-13-billion-warning-for-wall-street-but-are-you-paying-attention</t>
+        </is>
+      </c>
+      <c r="E268" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Competitive advantages, along with insatiable demand for artificial intelligence (AI) hardware and software, have sent shares of Nvidia, Palantir Technologies, and Advanced Micro Devices soaring.
+On a combined basis, insiders at Nvidia, Palantir, and AMD have made just four purchases of their respective company's stock spanning five years.
+Historical precedent poses a big problem for some of Wall Street's hottest AI stocks.
+Roughly 30 years ago, the advent and proliferation of the internet began positively altering the growth arc for corporate America. The internet offered businesses new ways to interact with prospective and existing clients, as well as market their products. For decades, investors have been waiting for the next technological leap forward, and the artificial intelligence (AI) revolution looks to be it.
+The combination of increased productivity and consumption-side effects associated with the rise of AI is expected to increase global gross domestic product by $15.7 trillion come 2030, according to analysts at PwC. This sky-high addressable market is the primary reason we've witnessed Wall Street's AI darlings -- Nvidia (NASDAQ: NVDA), Palantir Technologies (NASDAQ: PLTR), and Advanced Micro Devices (NASDAQ: AMD), which is commonly known as "AMD" -- soar since 2023 began.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Nvidia's Hopper (H100) and Blackwell graphics processing units (GPUs) account for the bulk of the GPUs deployed in AI-accelerated data centers. Meanwhile, production for AMD's Instinct series AI-accelerating chips is expanding, with the expectation that it'll carve out a healthy share of the AI-GPU market for enterprise data centers.
+As for Palantir, its AI- and machine learning-powered software-as-a-service Gotham and Foundry platforms offer sustainable moats. Federal governments turn to Gotham for military mission planning and execution, along with data collection and analysis. Meanwhile, Foundry is a subscription-driven platform for businesses looking to make sense of their big data and streamline/automate their operations.
+While their respective share price appreciation indicates everything is going great for Nvidia, Palantir, and AMD, all three companies have, collectively, offered up a nearly $13 billion warning to Wall Street. The real question is: Are you, or any other investors, heeding this warning?
+There are a number of potential headwinds that can come into play for AI stocks over the coming quarters and years, some of which I'll touch on a bit later. However, one of the more front-and-center concerns has to do with the how corporate insiders have approached their company's stock.
+Here's the good news: Thanks to required Form 4 filings with the Securities and Exchange Commission, investors have the ability to track the purchasing and selling activity of executives and board members. This activity details the buying and selling of common stock, as well as options activity.
+When it comes to Nvidia, Palantir, and AMD, there's been a very clear trend over the last five years (note: Palantir's initial public offering was Sept. 30, 2020): insider selling.
+Over the trailing-five-year period, net selling activity has totaled:
+Collectively, the insiders of these three highly influential AI businesses have sold north of $12.9 billion worth of their common stock over the trailing half-decade.
+However, insider selling isn't as cut-and-dried as it might appear on the surface. This is to say there are a lot of reasons insiders might sell their company's stock -- and they're not all nefarious.
+For instance, most executives receive stock-based compensation and/or options. Options are required to be exercised within a certain time frame, otherwise they expire worthless. With some executives receiving the lion's share of their compensation in stock or options, they have to sell their company's stock to cover their federal and/or state tax bill. The key point here is that not all insider selling is necessarily bad.
+But at the same time, there's only one reason executives and board members purchase their company's stock: they expect it to head higher. Over the trailing five-year period, executives and board members have made exactly one purchase at Nvidia, one purchase at Palantir, and two purchases at AMD.
+The takeaway here is simple: if insiders at Nvidia, Palantir, and AMD aren't willing to purchase their own company's stock, why should everyday investors believe these three stocks still offer significant upside?
+Image source: Getty Images.
+Unfortunately, this nearly $13 billion warning isn't the only worry for investors. Historical precedent is a multipronged headwind that has the potential to meaningfully drag down AI stock valuations.
+To preface the following discussion, history is never guaranteed to repeat on Wall Street. If there was an indicator that concretely guaranteed short-term directional moves in stocks, you can rest assured that everyone would be using it by now.
+Nevertheless, there are historical events and metrics that have flawlessly correlated with directional moves for the S&amp;P 500 and Wall Street's other major indexes in the past. It's these correlations that suggest Nvidia, Palantir, and AMD could be in a world of trouble.
+For example, every game-changing innovation since (and including) the advent of the internet in the mid-1990s has endured a bubble-bursting event fairly early in its expansion. This long line of hyped innovations navigating their way through bubbles signals that investors consistently overestimate the utility and early stage adoption of new technologies.
+Although spending on AI infrastructure has been robust, as Nvidia's and AMD's operating results suggest, most businesses have yet to optimize their AI solutions or generate a positive return on their AI investments. It's unlikely that artificial intelligence will avoid the fate of previous next-big-thing trends.
+The other area where historical precedent comes into play is valuations. Though AMD's valuation isn't egregiously high, the same can't be said for Nvidia or Palantir, which are butting heads with history.
+Before the bursting of the dot-com bubble a quarter of a century ago, businesses on the leading edge of the internet revolution consistently peaked at around 30 to 40 times trailing-12-month sales. As of this writing on Aug. 12, Nvidia is tipping the scales at a price-to-sales (P/S) ratio of nearly 31, while Palantir's P/S ratio is 137, which is the highest I've ever witnessed for a megacap company in 27 years of investing.
+While both companies offer competitive advantages that are worthy of valuation premiums, history is quite clear that extended premiums of this magnitude aren't sustainable over the long run.
+Between persistent insider selling, a virtual lack of insider buying, and mounting historical headwinds, the risk-versus-reward pendulum for Nvidia, Palantir, and AMD has undeniably swung toward "risk."
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Sean Williams has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Advanced Micro Devices, Nvidia, and Palantir Technologies. The Motley Fool has a disclosure policy.
+| 2 hours | |
+| 2 hours | |
+| 5 hours | |
+| 6 hours | |
+| 8 hours | |
+| 8 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 13 hours | |
+| 14 hours | |
+| 14 hours | |
+| 14 hours | |
+| 15 hours | |
+| 15 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Competitive advantages, along with insatiable demand for artificial intelligence (AI) hardware and software, have sent shares of Nvidia, Palantir Technologies, and Advanced Micro Devices soaring. On a combined basis, insiders at Nvidia, Palantir, and AMD have made just four purchases of their respective company's stock spanning five years. Historical precedent poses a big problem for some of Wall Street's hottest AI stocks. Roughly 30 years ago, the advent and proliferation of the internet began positively altering the growth arc for corporate America. The internet offered businesses new ways to interact with prospective and existing clients, as well as market their products. For decades, investors have been waiting for the next technological leap forward, and the artificial intelligence (AI) revolution looks to be it. The combination of increased productivity and consumption side effects associated with the rise of AI is expected to increase global gross domestic product by $15.7 trillion come 2030, according to analysts at PwC. This sky high addressable market is the primary reason we've witnessed Wall Street's AI darlings Nvidia (NASDAQ: NVDA), Palantir Technologies (NASDAQ: PLTR), and Advanced Micro Devices (NASDAQ: AMD), which is commonly known as "AMD" soar since 2023 began. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Nvidia's Hopper (H100) and Blackwell graphics processing units (GPUs) account for the bulk of the GPUs deployed in AI accelerated data centers. Meanwhile, production for AMD's Instinct series AI accelerating chips is expanding, with the expectation that it'll carve out a healthy share of the AI GPU market for enterprise data centers. As for Palantir, its AI and machine learning powered software as a service Gotham and Foundry platforms offer sustainable moats. Federal governments turn to Gotham for military mission planning and execution, along with data collection and analysis. Meanwhile, Foundry is a subscription driven platform for businesses looking to make sense of their big data and streamline/automate their operations. While their respective share price appreciation indicates everything is going great for Nvidia, Palantir, and AMD, all three companies have, collectively, offered up a nearly $13 billion warning to Wall Street. The real question is: Are you, or any other investors, heeding this warning? There are a number of potential headwinds that can come into play for AI stocks over the coming quarters and years, some of which I'll touch on a bit later. However, one of the more front and center concerns has to do with the how corporate insiders have approached their company's stock. Here's the good news: Thanks to required Form 4 filings with the Securities and Exchange Commission, investors have the ability to track the purchasing and selling activity of executives and board members. This activity details the buying and selling of common stock, as well as options activity. When it comes to Nvidia, Palantir, and AMD, there's been a very clear trend over the last five years (note: Palantir's initial public offering was Sept. 30, 2020): insider selling. Over the trailing five year period, net selling activity has totaled: Collectively, the insiders of these three highly influential AI businesses have sold north of $12.9 billion worth of their common stock over the trailing half decade. However, insider selling isn't as cut and dried as it might appear on the surface. This is to say there are a lot of reasons insiders might sell their company's stock and they're not all nefarious. For instance, most executives receive stock based compensation and/or options. Options are required to be exercised within a certain time frame, otherwise they expire worthless. With some executives receiving the lion's share of their compensation in stock or options, they have to sell their company's stock to cover their federal and/or state tax bill. The key point here is that not all insider selling is necessarily bad. But at the same time, there's only one reason executives and board members purchase their company's stock: they expect it to head higher. Over the trailing five year period, executives and board members have made exactly one purchase at Nvidia, one purchase at Palantir, and two purchases at AMD. The takeaway here is simple: if insiders at Nvidia, Palantir, and AMD aren't willing to purchase their own company's stock, why should everyday investors believe these three stocks still offer significant upside? Image source: Getty Images. Unfortunately, this nearly $13 billion warning isn't the only worry for investors. Historical precedent is a multipronged headwind that has the potential to meaningfully drag down AI stock valuations. To preface the following discussion, history is never guaranteed to repeat on Wall Street. If there was an indicator that concretely guaranteed short term directional moves in stocks, you can rest assured that everyone would be using it by now. Nevertheless, there are historical events and metrics that have flawlessly correlated with directional moves for the S&amp;P 500 and Wall Street's other major indexes in the past. It's these correlations that suggest Nvidia, Palantir, and AMD could be in a world of trouble. For example, every game changing innovation since (and including) the advent of the internet in the mid 1990s has endured a bubble bursting event fairly early in its expansion. This long line of hyped innovations navigating their way through bubbles signals that investors consistently overestimate the utility and early stage adoption of new technologies. Although spending on AI infrastructure has been robust, as Nvidia's and AMD's operating results suggest, most businesses have yet to optimize their AI solutions or generate a positive return on their AI investments. It's unlikely that artificial intelligence will avoid the fate of previous next big thing trends. The other area where historical precedent comes into play is valuations. Though AMD's valuation isn't egregiously high, the same can't be said for Nvidia or Palantir, which are butting heads with history. Before the bursting of the dot com bubble a quarter of a century ago, businesses on the leading edge of the internet revolution consistently peaked at around 30 to 40 times trailing 12 month sales. As of this writing on Aug. 12, Nvidia is tipping the scales at a price to sales (P/S) ratio of nearly 31, while Palantir's P/S ratio is 137, which is the highest I've ever witnessed for a megacap company in 27 years of investing. While both companies offer competitive advantages that are worthy of valuation premiums, history is quite clear that extended premiums of this magnitude aren't sustainable over the long run. Between persistent insider selling, a virtual lack of insider buying, and mounting historical headwinds, the risk versus reward pendulum for Nvidia, Palantir, and AMD has undeniably swung toward "risk." Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Sean Williams has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Advanced Micro Devices, Nvidia, and Palantir Technologies. The Motley Fool has a disclosure policy. 2 hours 2 hours 5 hours 6 hours 8 hours 8 hours 13 hours 13 hours 13 hours 13 hours 14 hours 14 hours 14 hours 15 hours 15 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45884.12638888889</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>William Blair Maintains Outperform Rating on Nvidia (NVDA)</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141501/william-blair-maintains-outperform-rating-on-nvidia-nvda</t>
+        </is>
+      </c>
+      <c r="E269" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the 11 Best Revenue Growth Stocks to Buy Now. On July 15, William Blair reiterated an Outperform rating on NVIDIA Corporation (NASDAQ:NVDA) while noting that the company could see potential earnings upside from renewed access to the China market.
+William Blair sees an opportunity for NVIDIA Corporation (NASDAQ:NVDA) to increase its EPS for fiscal year 2026 by an additional $0.30. This is based on the idea that the company will see about $20 billion in revenue from China for the full year.
+In the first quarter, NVIDIA Corporation (NASDAQ:NVDA) made $5.5 billion in revenue from the China market. William Blair expects another $14.5 billion in revenue from China, concentrated in the second half of fiscal 2026.
+The investment firm also highlighted potential gross margin tailwinds in the second half as NVIDIA Corporation (NASDAQ:NVDA) might sell H20 chips that were previously written off with a low cost of goods sold. This could help the company achieve its target of a mid-70% gross margin on a non-GAAP basis.
+NVIDIA Corporation (NASDAQ:NVDA) is an American multinational technology company that is known for its graphics processing units (GPUs), AI hardware and software, and high-performance computing (HPC) solutions.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you’re looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 12 Best Performing AI Stocks So Far in 2025 and 14 Best Aggressive Growth Stocks to Buy According to Analysts.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the 11 Best Revenue Growth Stocks to Buy Now. On July 15, William Blair reiterated an Outperform rating on NVIDIA Corporation (NASDAQ:NVDA) while noting that the company could see potential earnings upside from renewed access to the China market. William Blair sees an opportunity for NVIDIA Corporation (NASDAQ:NVDA) to increase its EPS for fiscal year 2026 by an additional $0.30. This is based on the idea that the company will see about $20 billion in revenue from China for the full year. In the first quarter, NVIDIA Corporation (NASDAQ:NVDA) made $5.5 billion in revenue from the China market. William Blair expects another $14.5 billion in revenue from China, concentrated in the second half of fiscal 2026. The investment firm also highlighted potential gross margin tailwinds in the second half as NVIDIA Corporation (NASDAQ:NVDA) might sell H20 chips that were previously written off with a low cost of goods sold. This could help the company achieve its target of a mid 70% gross margin on a non GAAP basis. NVIDIA Corporation (NASDAQ:NVDA) is an American multinational technology company that is known for its graphics processing units (GPUs), AI hardware and software, and high performance computing (HPC) solutions. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If youre looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 12 Best Performing AI Stocks So Far in 2025 and 14 Best Aggressive Growth Stocks to Buy According to Analysts. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45884.12013888889</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Jim Cramer Discusses NVIDIA Return to China Market</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141486/jim-cramer-discusses-nvidia-return-to-china-market</t>
+        </is>
+      </c>
+      <c r="E270" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed. Cramer discussed the company’s business with China during the episode. He said:
+“This morning, we learned that the US government is planning to take a 15% cut on all the AI chips that these two companies are currently selling to China. For NVIDIA, that means a 15% cut on the H20, which was their cutting-edge chip for AI a few years ago, something they were previously banned from selling in the PRC. The president then said that NVIDIA might be getting approval to sell a next-generation chip to the Chinese, something, wow, more like their current version, Blackwell, except it won’t have as much computing power. We didn’t expect that Blackwell could be allowed in China. This was a big deal that the market completely just ignored. That was a mistake. President had asked for 20% cut of revenues, but NVIDIA CEO Jensen Huang bargained him down to 15%. That was good…
+The cost of shareholders for the NVIDIA deal, as we told investing club members today, NVIDIA was selling about $8 billion worth of chips to China every quarter prior to the previous export restriction. A 15% haircut would equate to a little more than $1 billion per quarter or about $5 billion per year. Hey, that’s a big number for most companies, but not for NVIDIA. They were desperate to get this China business back by any means necessary…
+From the perspective of big business, this is a great deal. Under the previous export controls, NVIDIA and AMD couldn’t sell these ships to China at all. If they can get that business back in exchange for a 15% cut, that’s a win for their shareholders.”
+NVDA Headquarters Courtesy of NVIDIA
+NVIDIA Corporation (NASDAQ:NVDA) designs GPUs, AI platforms, cloud services, and software for gaming, professional visualization, data centers, automotive, and robotics applications.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed. Cramer discussed the companys business with China during the episode. He said: This morning, we learned that the US government is planning to take a 15% cut on all the AI chips that these two companies are currently selling to China. For NVIDIA, that means a 15% cut on the H20, which was their cutting edge chip for AI a few years ago, something they were previously banned from selling in the PRC. The president then said that NVIDIA might be getting approval to sell a next generation chip to the Chinese, something, wow, more like their current version, Blackwell, except it wont have as much computing power. We didnt expect that Blackwell could be allowed in China. This was a big deal that the market completely just ignored. That was a mistake. President had asked for 20% cut of revenues, but NVIDIA CEO Jensen Huang bargained him down to 15%. That was good The cost of shareholders for the NVIDIA deal, as we told investing club members today, NVIDIA was selling about $8 billion worth of chips to China every quarter prior to the previous export restriction. A 15% haircut would equate to a little more than $1 billion per quarter or about $5 billion per year. Hey, thats a big number for most companies, but not for NVIDIA. They were desperate to get this China business back by any means necessary From the perspective of big business, this is a great deal. Under the previous export controls, NVIDIA and AMD couldnt sell these ships to China at all. If they can get that business back in exchange for a 15% cut, thats a win for their shareholders. NVDA Headquarters Courtesy of NVIDIA NVIDIA Corporation (NASDAQ:NVDA) designs GPUs, AI platforms, cloud services, and software for gaming, professional visualization, data centers, automotive, and robotics applications. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45884.11875</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Dell, NVIDIA, Elastic Partner to Enhance AI Data Platform</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141475/dell-nvidia-elastic-partner-to-enhance-ai-data-platform</t>
+        </is>
+      </c>
+      <c r="E271" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the best high-volume stocks to invest in. On August 12, Dell Technologies Inc. (NYSE:DELL) announced a partnership with NVIDIA and Elastic (NYSE:ESTC) to enhance its AI Data Platform, which is designed to help enterprises build and scale AI workloads.
+The platform is intended to accelerate workflows and break down data silos and integrates Dell PowerEdge R7725 servers, which are equipped with Nvidia’s RTX PRO 6000 Blackwell Server Edition GPUs for high-performance AI workloads. This hardware will become globally available later in the year. The collaboration also brings in Elastic’s Elasticsearch technology to enable natural language and vector search capabilities.
+A close-up of a colorful high-end graphics card being plugged in to a gaming computer.
+Furthermore, Nvidia’s Omniverse libraries and AI models will be used to streamline searches within large 3D asset libraries. Vrashank Jain, a product director at Dell, noted that this collaboration will provide a shortcut to greater AI-based efficiency that companies crave.
+NVIDIA Corporation (NASDAQ:NVDA) is a computing infrastructure company that provides graphics and compute &amp; networking solutions internationally
+Dell Technologies Inc. (NYSE:DELL) designs, develops, manufactures, markets, sells, and supports various comprehensive and integrated solutions, products, and services internationally.
+Elastic (NYSE:ESTC) is a search AI company that provides software platforms to run in hybrid, public, or private clouds and multi-cloud environments internationally.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you’re looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the best high volume stocks to invest in. On August 12, Dell Technologies Inc. (NYSE:DELL) announced a partnership with NVIDIA and Elastic (NYSE:ESTC) to enhance its AI Data Platform, which is designed to help enterprises build and scale AI workloads. The platform is intended to accelerate workflows and break down data silos and integrates Dell PowerEdge R7725 servers, which are equipped with Nvidias RTX PRO 6000 Blackwell Server Edition GPUs for high performance AI workloads. This hardware will become globally available later in the year. The collaboration also brings in Elastics Elasticsearch technology to enable natural language and vector search capabilities. A close up of a colorful high end graphics card being plugged in to a gaming computer. Furthermore, Nvidias Omniverse libraries and AI models will be used to streamline searches within large 3D asset libraries. Vrashank Jain, a product director at Dell, noted that this collaboration will provide a shortcut to greater AI based efficiency that companies crave. NVIDIA Corporation (NASDAQ:NVDA) is a computing infrastructure company that provides graphics and compute &amp; networking solutions internationally Dell Technologies Inc. (NYSE:DELL) designs, develops, manufactures, markets, sells, and supports various comprehensive and integrated solutions, products, and services internationally. Elastic (NYSE:ESTC) is a search AI company that provides software platforms to run in hybrid, public, or private clouds and multi cloud environments internationally. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If youre looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45884.0625</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>As Tech Stocks Rally, Risk Rises. Why Energy and Healthcare Could Be Options.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/tech-energy-healthcare-stocks-markets-cf964dda?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E272" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45883.84652777778</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Soros, Appaloosa boost their Nvidia stake. They also bought this beaten-down stock, and it's rallying.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.marketwatch.com/story/soros-appaloosa-boost-their-holdings-in-this-mag-7-stock-amid-ai-spending-boom-514807d8?mod=mw_FV</t>
+        </is>
+      </c>
+      <c r="E273" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45883.81597222222</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Hedge funds shift bets to double down on Big Tech amid AI boom</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/hedge-funds-shift-bets-double-233524300.html</t>
+        </is>
+      </c>
+      <c r="E274" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45883.75416666667</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Liberty All-Star® Growth Fund, Inc. July 2025 Monthly Update</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-growth-fund-inc-220600993.html</t>
+        </is>
+      </c>
+      <c r="E275" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45883.75416666667</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Liberty All-Star® Equity Fund July 2025 Monthly Update</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-equity-fund-july-220600509.html</t>
+        </is>
+      </c>
+      <c r="E276" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45883.72083333333</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Nvidia, AMD, Other AI Stocks Score Price-Target Hikes Amid Strong AI Server Demand</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.investors.com/news/technology/ai-stocks-score-price-target-hikes-strong-server-sales?mod=IBD_FV</t>
+        </is>
+      </c>
+      <c r="E277" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45883.70763888889</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Nvidia's one of the cheaper AI names out there, says Bernstein's Stacy Rasgon</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.youtube.com/watch?v=c7YoYkKtCfk</t>
+        </is>
+      </c>
+      <c r="E278" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45883.69444444445</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Strategy Pushed Deceptive Comparison to Apple and NVIDIA, Wall Street Veteran Says</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/65c5a297-973e-3cab-8341-10bc5e0b35e7/strategy-pushed-%E2%80%98deceptive%E2%80%99.html</t>
+        </is>
+      </c>
+      <c r="E279" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45883.69444444445</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Intel stock surges on report Trump administration mulls taking stake in company</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/intel-stock-surges-on-report-trump-administration-mulls-taking-stake-in-company-204003673.html</t>
+        </is>
+      </c>
+      <c r="E280" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45883.66180555556</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Trump weighs taking stake in Intel, Bloomberg News reports</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/us-weighs-taking-stake-intel-195356266.html</t>
+        </is>
+      </c>
+      <c r="E281" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45883.63541666666</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Dow And Nasdaq Edge Lower As AI Stock Coherent Hits 3 Sell Signals; 3 Growth Stocks Set Up Entries (Live)</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-and.html</t>
+        </is>
+      </c>
+      <c r="E282" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45883.62638888889</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Ken Fisher's Strategic Moves: Oracle Corp Sees Significant Reduction</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/ken-fishers-strategic-moves-oracle-190218225.html</t>
+        </is>
+      </c>
+      <c r="E283" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45883.62569444445</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Kevin O'Leary Says Nvidia, AMD Still Win Under Trump China Plan Despite 15% 'Form Of Blackmail' Levy</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/kevin-oleary-says-nvidia-amd-190100564.html</t>
+        </is>
+      </c>
+      <c r="E284" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45883.625</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Should You Buy Intel Stock After President Trump's CEO Praise?</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141119/should-you-buy-intel-stock-after-president-trumps-ceo-praise</t>
+        </is>
+      </c>
+      <c r="E285" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Intel Corporation INTC has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corporation NVDA and Advanced Micro Devices, Inc. AMD in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trump’s inconsistent stance on Intel CEO has drawn investors’ interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Let’s see –
+Trump’s Admiration for Tan – What it Means for INTC Investors
+Last month, Cadence Design Systems, Inc. CDNS acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intel’s current CEO, Lip-Bu Tan, was leading Cadence.
+Trump learned of Cotton’s letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cotton’s letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals.
+In reaction, Trump commended Tan's achievements, referring to his success and ascent as an “amazing story.” Trump also endorsed Tan’s leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Let’s not forget, Tan is a well-known venture capitalist, respected for his expertise in the semiconductor industry.
+Is a Turnaround for Intel Probable Soon?
+Intel’s business has been struggling for quite some time. Despite Tan’s initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year-ago levels.
+Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. It’s worse than the $2.8 billion loss that the segment posted a year ago.
+Intel’s gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short-term investments accounted for only $21.2 billion.
+However, under Tan’s strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio.
+Intel is planning to provide a full-stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node.
+While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the company’s business. In time, the semiconductor giant has the potential to regain its former glory.
+Should You Buy INTC Stock Now or Wait a While?
+Trump’s support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intel’s price-to-book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future.
+Image Source: Zacks Investment Research
+However, new investors should remain passive and watch for meaningful progress. This is because it’s too early to predict the potential success of Tan’s initiatives, and Intel’s financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of today’s Zacks Rank #1 (Strong Buy) stocks here.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Intel Corporation (INTC): Free Stock Analysis Report Advanced Micro Devices, Inc. (AMD): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Cadence Design Systems, Inc. (CDNS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Intel Corporation INTC has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corporation NVDA and Advanced Micro Devices, Inc. AMD in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trumps inconsistent stance on Intel CEO has drawn investors interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Lets see Trumps Admiration for Tan What it Means for INTC Investors Last month, Cadence Design Systems, Inc. CDNS acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intels current CEO, Lip Bu Tan, was leading Cadence. Trump learned of Cottons letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cottons letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals. In reaction, Trump commended Tan's achievements, referring to his success and ascent as an amazing story. Trump also endorsed Tans leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Lets not forget, Tan is a well known venture capitalist, respected for his expertise in the semiconductor industry. Is a Turnaround for Intel Probable Soon? Intels business has been struggling for quite some time. Despite Tans initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year ago levels. Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. Its worse than the $2.8 billion loss that the segment posted a year ago. Intels gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short term investments accounted for only $21.2 billion. However, under Tans strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio. Intel is planning to provide a full stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node. While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the companys business. In time, the semiconductor giant has the potential to regain its former glory. Should You Buy INTC Stock Now or Wait a While? Trumps support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intels price to book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future. Image Source: Zacks Investment Research However, new investors should remain passive and watch for meaningful progress. This is because its too early to predict the potential success of Tans initiatives, and Intels financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of todays Zacks Rank #1 (Strong Buy) stocks here. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report Intel Corporation (INTC): Free Stock Analysis Report Advanced Micro Devices, Inc. (AMD): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Cadence Design Systems, Inc. (CDNS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45883.62152777778</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Big Tech's AI Rally Remains Strong. The Economy Can Chug Along Even Without It.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-ai-rally-c963a7b1?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E286" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45883.5875</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Money Is Rotating Away From Big Tech Stocks. It's a Good Sign.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-market-8d1a1a8e?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E287" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45883.58472222222</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Nasdaq Edges Up; AI Stock Coherent Hits 3 Sell Signals As Coach Parent Tapestry Tests 50-Day (Live)</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-nasdaq.html</t>
+        </is>
+      </c>
+      <c r="E288" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45883.57916666667</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Wedbush: Nvidia, AMD China AI Deal a 'Bullish Catalyst' for Big Tech</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/wedbush-nvidia-amd-china-ai-175410596.html</t>
+        </is>
+      </c>
+      <c r="E289" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45883.56944444445</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Cohere hits a $6.8B valuation as investors AMD, Nvidia, and Salesforce double down</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-hits-6-8b-valuation-174027502.html</t>
+        </is>
+      </c>
+      <c r="E290" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45883.56597222222</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>If You Bought 100 Shares of Applied Digital at Its IPO, Here's How Much Money You'd Have Now</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141052/if-you-bought-100-shares-of-applied-digital-at-its-ipo-heres-how-much-money-youd-have-now</t>
+        </is>
+      </c>
+      <c r="E291" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Key Points
+Applied Digital had its initial public offering in April 2022 and was initially focused on blockchain and cryptocurrency mining operations.
+The company's strengths in processing hardware allowed it to easily pivot into the AI data center space.
+Applied Digital has delivered strong post-IPO gains, and the company recently scored some big wins.
+Applied Digital (NASDAQ: APLD) stock had its initial public offering (IPO) in April 2022, although the company was known as Applied Blockchain at the time of its public debut. The company's share price has seen some big swings in the intervening years, but it has also delivered big wins for patient investors.
+Applied Digital stock closed out its first day of trading after its IPO priced at $4.85 per share. A purchase of 100 shares at that price would have been equivalent to an investment of $485.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Compared to Applied Digital's stock price at market close on the day of its public debut, the company's share price is now up roughly 205%. That means that an investor who purchased 100 shares of the company's stock at its IPO would now be sitting on a position worth roughly $1,480. Read on for a closer look at the data center specialist's big performance drivers across the stretch and what's on the horizon for the business.
+How did Applied Digital stock deliver big gains -- and what comes next?
+Applied Digital got its start as a company that was focused on blockchain and cryptocurrency mining operations. Luckily for the company, the key graphics processing unit (GPU) hardware that is useful for mining cryptocurrencies is also at the heart of processing for artificial intelligence (AI) model training.
+With the AI revolution gaining steam in recent years, Applied Digital stock has seen a strong uptick in bullish momentum. Applied Digital stock also saw big gains in November 2024 in conjunction with news that Nvidia had taken an investment position in the company. While the company's share price has seen high levels of volatility since its public debut, shares are up roughly 282% over the last year of trading.
+Applied Digital stock has recently seen big gains thanks to news that CoreWeave has opted to exercise an option that it had to expand data center licensing through the company. With CoreWeave ramping up its data center utilization, Applied Digital's growth outlook has become much stronger.
+Should you invest $1,000 in Applied Digital right now?
+Before you buy stock in Applied Digital, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Applied Digital wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keith Noonan has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Key Points Applied Digital had its initial public offering in April 2022 and was initially focused on blockchain and cryptocurrency mining operations. The company's strengths in processing hardware allowed it to easily pivot into the AI data center space. Applied Digital has delivered strong post IPO gains, and the company recently scored some big wins. Applied Digital (NASDAQ: APLD) stock had its initial public offering (IPO) in April 2022, although the company was known as Applied Blockchain at the time of its public debut. The company's share price has seen some big swings in the intervening years, but it has also delivered big wins for patient investors. Applied Digital stock closed out its first day of trading after its IPO priced at $4.85 per share. A purchase of 100 shares at that price would have been equivalent to an investment of $485. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Compared to Applied Digital's stock price at market close on the day of its public debut, the company's share price is now up roughly 205%. That means that an investor who purchased 100 shares of the company's stock at its IPO would now be sitting on a position worth roughly $1,480. Read on for a closer look at the data center specialist's big performance drivers across the stretch and what's on the horizon for the business. How did Applied Digital stock deliver big gains and what comes next? Applied Digital got its start as a company that was focused on blockchain and cryptocurrency mining operations. Luckily for the company, the key graphics processing unit (GPU) hardware that is useful for mining cryptocurrencies is also at the heart of processing for artificial intelligence (AI) model training. With the AI revolution gaining steam in recent years, Applied Digital stock has seen a strong uptick in bullish momentum. Applied Digital stock also saw big gains in November 2024 in conjunction with news that Nvidia had taken an investment position in the company. While the company's share price has seen high levels of volatility since its public debut, shares are up roughly 282% over the last year of trading. Applied Digital stock has recently seen big gains thanks to news that CoreWeave has opted to exercise an option that it had to expand data center licensing through the company. With CoreWeave ramping up its data center utilization, Applied Digital's growth outlook has become much stronger. Should you invest $1,000 in Applied Digital right now? Before you buy stock in Applied Digital, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Applied Digital wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keith Noonan has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45883.54166666666</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Cisco's Q4 Earnings Beat Estimates, Revenues Rise Y/Y, Shares Down</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141056/ciscos-q4-earnings-beat-estimates-revenues-rise-yy-shares-down</t>
+        </is>
+      </c>
+      <c r="E292" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Cisco Systems CSCO reported fourth-quarter fiscal 2025 non-GAAP earnings of 99 cents per share, beating the Zacks Consensus Estimate by 2.06%. The figure increased 13.8% year over year.
+Revenues of $14.67 billion surpassed the Zacks Consensus Estimate by 0.47%. The top line increased 7.6% year over year. Total Annual Recurring Revenues (ARR) were $31.1 billion, up 5% with product ARR growth of 8%.
+Cisco shares were down 0.63% at the time of writing this article. In the year-to-date (YTD) period, CSCO shares have appreciated 18.9%, outperforming the Zacks Computer &amp; Technology sector’s return of 14.6% but underperforming peers, including Broadcom AVGO and Arista Networks ANET. YTD, Broadcom and Arista Networks have returned 32.9% and 24.8%, respectively.
+Arista Networks reported strong second-quarter 2025 earnings of 73 cents per share, beating the Zacks Consensus Estimate by 12.3%. Broadcom is set to report third-quarter fiscal 2025 results on Sept. 4, with revenues expected to grow 21% year over year to $15.8 billion.
+Cisco Systems, Inc. Price, Consensus and EPS Surprise
+Cisco Systems, Inc. price-consensus-eps-surprise-chart | Cisco Systems, Inc. Quote
+CSCO’s Q4 Top-Line Details
+Revenues from Networking in the fourth quarter of fiscal 2025 were $7.63 billion, up 12% on a year-over-year basis. Security revenues were $1.95 billion, up 9% year over year. Collaboration revenues were $1.04 billion, up 2% year over year. Observability revenues were $259 million, up 4% year over year.
+Total Product revenues in the fourth quarter of fiscal 2025 were $10.89 billion, comprising 74.2% of Cisco’s total revenues. On a year-over-year basis, product revenues increased 10%. Service Revenues were $3.79 billion, comprising 25.8% of Cisco’s total revenues and flat on a year-over-year basis.
+Region-wise, the Americas’ revenues increased 9% year over year to $8.82 billion. EMEA (Europe, Middle East and Africa) revenues climbed 4% year over year to $3.65 billion. APJC (Asia Pacific Japan China) revenues climbed 7% year over year to $2.21 billion.
+In the fourth quarter of fiscal 2025, AI Infrastructure orders from webscale customers exceeded $800 million, bringing the total revenues to $2 billion in fiscal 2025, double the management’s original expectation.
+Cisco is benefiting from its partnership with NVIDIA NVDA. Integration of Cisco Nexus switches with NVIDIA's Spectrum-X architecture is offering low latency, high-speed networking for AI clusters driving enterprise AI orders. The Cisco Secure AI factory with NVIDIA provides a trusted blueprint for building secure AI-ready data centers for enterprises, sovereign cloud providers and newly emerging Neocloud providers.
+CSCO’s Q4 Operating Details
+Fourth-quarter fiscal 2025 non-GAAP gross margin was 68.4%, which expanded 40 basis points (bps) year over year. On a non-GAAP basis, the product gross margin increased 160 bps on a year-over-year basis to 50.1%. Service gross margin decreased 120 bps to 18.3%.
+In the fourth quarter of fiscal 2025, Cisco reported total non-GAAP operating expenses of $5 billion, up 3.6% year over year. As a percentage of revenues, operating expenses declined 130 bps.
+Consequently, CSCO reported a non-GAAP operating income of $5.03 billion, up 13.3% year over year. Operating margin expanded 170 bps year over year to 34.3%.
+CSCO’s Balance Sheet Details
+As of July 26, 2025, cash and cash equivalents and investments totaled $16.1 billion, which increased from $15.6 billion as of April 26, 2025.
+Total debt was $28.1 billion as of July 26, 2025, compared with $29.2 billion as of April 26, 2025.
+The remaining performance obligations (RPO) at the end of the fourth quarter of fiscal 2025 were $43.5 billion, up 6%, with 50% of the amount to be recognized as revenues over the following 12 months. Product RPO was up 8%, and services RPO was up 5%.
+In the fourth quarter of fiscal 2025, CSCO returned $2.9 billion to stockholders through share buybacks ($1.3 billion) and dividends ($1.6 billion).
+CSCO Offers Positive Guidance
+For the first quarter of fiscal 2026, Cisco expects non-GAAP earnings between 97 cents per share and 99 cents per share.
+Revenues are expected to be in the range of $14.65 billion-$14.85 billion.
+Non-GAAP gross margins are expected to be between 67.5% and 68.5%. Non-GAAP operating margin is anticipated to be between 33% and 34%.
+For fiscal 2026, Cisco expects non-GAAP earnings between $4 per share and $4.06 per share. This Zacks Rank #2 (Buy) company expects revenues between $59 billion and $60 billion. You can see the complete list of today’s Zacks #1 Rank (Strong Buy) stocks here.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Cisco Systems, Inc. (CSCO): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Broadcom Inc. (AVGO): Free Stock Analysis Report Arista Networks, Inc. (ANET): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Cisco Systems CSCO reported fourth quarter fiscal 2025 non GAAP earnings of 99 cents per share, beating the Zacks Consensus Estimate by 2.06%. The figure increased 13.8% year over year. Revenues of $14.67 billion surpassed the Zacks Consensus Estimate by 0.47%. The top line increased 7.6% year over year. Total Annual Recurring Revenues (ARR) were $31.1 billion, up 5% with product ARR growth of 8%. Cisco shares were down 0.63% at the time of writing this article. In the year to date (YTD) period, CSCO shares have appreciated 18.9%, outperforming the Zacks Computer &amp; Technology sectors return of 14.6% but underperforming peers, including Broadcom AVGO and Arista Networks ANET. YTD, Broadcom and Arista Networks have returned 32.9% and 24.8%, respectively. Arista Networks reported strong second quarter 2025 earnings of 73 cents per share, beating the Zacks Consensus Estimate by 12.3%. Broadcom is set to report third quarter fiscal 2025 results on Sept. 4, with revenues expected to grow 21% year over year to $15.8 billion. Cisco Systems, Inc. Price, Consensus and EPS Surprise Cisco Systems, Inc. price consensus eps surprise chart Cisco Systems, Inc. Quote CSCOs Q4 Top Line Details Revenues from Networking in the fourth quarter of fiscal 2025 were $7.63 billion, up 12% on a year over year basis. Security revenues were $1.95 billion, up 9% year over year. Collaboration revenues were $1.04 billion, up 2% year over year. Observability revenues were $259 million, up 4% year over year. Total Product revenues in the fourth quarter of fiscal 2025 were $10.89 billion, comprising 74.2% of Ciscos total revenues. On a year over year basis, product revenues increased 10%. Service Revenues were $3.79 billion, comprising 25.8% of Ciscos total revenues and flat on a year over year basis. Region wise, the Americas revenues increased 9% year over year to $8.82 billion. EMEA (Europe, Middle East and Africa) revenues climbed 4% year over year to $3.65 billion. APJC (Asia Pacific Japan China) revenues climbed 7% year over year to $2.21 billion. In the fourth quarter of fiscal 2025, AI Infrastructure orders from webscale customers exceeded $800 million, bringing the total revenues to $2 billion in fiscal 2025, double the managements original expectation. Cisco is benefiting from its partnership with NVIDIA NVDA. Integration of Cisco Nexus switches with NVIDIA's Spectrum X architecture is offering low latency, high speed networking for AI clusters driving enterprise AI orders. The Cisco Secure AI factory with NVIDIA provides a trusted blueprint for building secure AI ready data centers for enterprises, sovereign cloud providers and newly emerging Neocloud providers. CSCOs Q4 Operating Details Fourth quarter fiscal 2025 non GAAP gross margin was 68.4%, which expanded 40 basis points (bps) year over year. On a non GAAP basis, the product gross margin increased 160 bps on a year over year basis to 50.1%. Service gross margin decreased 120 bps to 18.3%. In the fourth quarter of fiscal 2025, Cisco reported total non GAAP operating expenses of $5 billion, up 3.6% year over year. As a percentage of revenues, operating expenses declined 130 bps. Consequently, CSCO reported a non GAAP operating income of $5.03 billion, up 13.3% year over year. Operating margin expanded 170 bps year over year to 34.3%. CSCOs Balance Sheet Details As of July 26, 2025, cash and cash equivalents and investments totaled $16.1 billion, which increased from $15.6 billion as of April 26, 2025. Total debt was $28.1 billion as of July 26, 2025, compared with $29.2 billion as of April 26, 2025. The remaining performance obligations (RPO) at the end of the fourth quarter of fiscal 2025 were $43.5 billion, up 6%, with 50% of the amount to be recognized as revenues over the following 12 months. Product RPO was up 8%, and services RPO was up 5%. In the fourth quarter of fiscal 2025, CSCO returned $2.9 billion to stockholders through share buybacks ($1.3 billion) and dividends ($1.6 billion). CSCO Offers Positive Guidance For the first quarter of fiscal 2026, Cisco expects non GAAP earnings between 97 cents per share and 99 cents per share. Revenues are expected to be in the range of $14.65 billion $14.85 billion. Non GAAP gross margins are expected to be between 67.5% and 68.5%. Non GAAP operating margin is anticipated to be between 33% and 34%. For fiscal 2026, Cisco expects non GAAP earnings between $4 per share and $4.06 per share. This Zacks Rank #2 (Buy) company expects revenues between $59 billion and $60 billion. You can see the complete list of todays Zacks #1 Rank (Strong Buy) stocks here. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report Cisco Systems, Inc. (CSCO): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Broadcom Inc. (AVGO): Free Stock Analysis Report Arista Networks, Inc. (ANET): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45883.52777777778</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Deeply Undervalued, Micron Technologies Stock Isn't Pricing in AI</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/140962/deeply-undervalued-micron-technologies-stock-isnt-pricing-in-ai</t>
+        </is>
+      </c>
+      <c r="E293" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Micron Technologies' (NASDAQ: MU) stock is in rebound mode as of mid-August and will likely continue higher because its market has yet to price in the long-term impact of AI. AI is a memory-intensive technology, and its needs are expected to grow exponentially with each upcoming generation.
+Not only is Micron’s technology in demand from both leading GPU manufacturers, but the market dynamic is set up for accelerated demand in 2026.
+Advanced Micro Devices (NASDAQ: AMD) AI-focused GPUs have significantly more memory than NVIDIA’s (NASDAQ: NVDA) designs and are expected to begin gaining share in 2026. AMD’s new, rack-scale capability will underpin the share gains and, by extension, demand for Micron HBM4 technology.
+The estimates regarding the GPU market and outlook vary from source to source, but they generally agree that GPU needs will grow at a solid, double-digit CAGR for the next five to ten years.
+Regarding Micron and its value, assuming the 15 times P/E valuation it is running in mid-August is fair value, the stock presents a deep value to long-term buy-and-hold investors.
+The consensus forecast reported by MarketBeat puts this stock at only 8x earnings within two years, suggesting the potential for a nearly triple-digit stock price increase. Assuming the long-term forecasts are too low, and they are, the value deepens.
+Micron’s Growth Outlook Underpinned by AI… and Market Normalization
+Not only is AI underpinning Micron’s long-term outlook, but normalization within legacy end markets is also in play. While YOY contraction persisted in some segments in FQ3, all produced sequential strength and are expected to return to growth in Q4 or early in the subsequent fiscal year.
+This provides a solid foundation for the DRAM business, which includes the data center (more than 50% of the revenue in Q3) and HBM markets. HBM sales grew more than 50% sequentially in Q3 from Q2, driving the data center business to more than double, and the guidance was also strong.
+The company forecasts another high 30% growth pace and is expected to outpace its target by the analysts.
+The analysts' trends are robust, including numerous revenue and earnings forecast adjustments that forecast Micron's strength. MarketBeat reveals that 21 of 23 analysts issuing revenue and earnings forecasts, or more than 90%, have lifted their quarterly forecasts, setting a high expectation bar.
+The consensus as of mid-August is significantly higher than the company’s guidance, with the revision trend leading to an above-consensus result. A consensus-beating result is a bullish market catalyst and likely to send the stock higher.
+The stock price outlook is equally robust. MarketBeat tracks 26 analysts with current ratings, most of which were refreshed following the FQ3 release. The trends include upgrades, firming sentiment, and price target revisions that lead to the high-end range.
+The consensus forecasts a 15% upside that may be achieved before the upcoming FQ4 release, while the high-end range adds 35%. At the same time, commentaries focused on volume and pricing strength, a favorable demand/inventory environment, and an expectation for sustained improvement.
+Micron Stock Is Poised to Move Higher
+Micron’s stock price action in mid-August confirms the rebound and uptrend that began in April and gained momentum with the Q3 release. The August action has the market poised to set a new long-term high, opening the door to another sustained updraft in the stock price.
+The market could rise by as much as $20 in the near term and over $60 in the longer term, matching the rallies that preceded the breakout. Micron’s stock price is headed to the $150 to $190 range in this scenario, enough to push the market to record high levels at the top of the analysts' range.
+Before you make your next trade, you'll want to hear this.
+MarketBeat keeps track of Wall Street's top-rated and best performing research analysts and the stocks they recommend to their clients on a daily basis.
+Our team has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and none of the big name stocks were on the list.
+They believe these five stocks are the five best companies for investors to buy now...
+See The Five Stocks Here
+The article "Deeply Undervalued, Micron Technologies Stock Isn’t Pricing in AI" first appeared on MarketBeat.</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Micron Technologies' (NASDAQ: MU) stock is in rebound mode as of mid August and will likely continue higher because its market has yet to price in the long term impact of AI. AI is a memory intensive technology, and its needs are expected to grow exponentially with each upcoming generation. Not only is Microns technology in demand from both leading GPU manufacturers, but the market dynamic is set up for accelerated demand in 2026. Advanced Micro Devices (NASDAQ: AMD) AI focused GPUs have significantly more memory than NVIDIAs (NASDAQ: NVDA) designs and are expected to begin gaining share in 2026. AMDs new, rack scale capability will underpin the share gains and, by extension, demand for Micron HBM4 technology. The estimates regarding the GPU market and outlook vary from source to source, but they generally agree that GPU needs will grow at a solid, double digit CAGR for the next five to ten years. Regarding Micron and its value, assuming the 15 times P/E valuation it is running in mid August is fair value, the stock presents a deep value to long term buy and hold investors. The consensus forecast reported by MarketBeat puts this stock at only 8x earnings within two years, suggesting the potential for a nearly triple digit stock price increase. Assuming the long term forecasts are too low, and they are, the value deepens. Microns Growth Outlook Underpinned by AI and Market Normalization Not only is AI underpinning Microns long term outlook, but normalization within legacy end markets is also in play. While YOY contraction persisted in some segments in FQ3, all produced sequential strength and are expected to return to growth in Q4 or early in the subsequent fiscal year. This provides a solid foundation for the DRAM business, which includes the data center (more than 50% of the revenue in Q3) and HBM markets. HBM sales grew more than 50% sequentially in Q3 from Q2, driving the data center business to more than double, and the guidance was also strong. The company forecasts another high 30% growth pace and is expected to outpace its target by the analysts. The analysts' trends are robust, including numerous revenue and earnings forecast adjustments that forecast Micron's strength. MarketBeat reveals that 21 of 23 analysts issuing revenue and earnings forecasts, or more than 90%, have lifted their quarterly forecasts, setting a high expectation bar. The consensus as of mid August is significantly higher than the companys guidance, with the revision trend leading to an above consensus result. A consensus beating result is a bullish market catalyst and likely to send the stock higher. The stock price outlook is equally robust. MarketBeat tracks 26 analysts with current ratings, most of which were refreshed following the FQ3 release. The trends include upgrades, firming sentiment, and price target revisions that lead to the high end range. The consensus forecasts a 15% upside that may be achieved before the upcoming FQ4 release, while the high end range adds 35%. At the same time, commentaries focused on volume and pricing strength, a favorable demand/inventory environment, and an expectation for sustained improvement. Micron Stock Is Poised to Move Higher Microns stock price action in mid August confirms the rebound and uptrend that began in April and gained momentum with the Q3 release. The August action has the market poised to set a new long term high, opening the door to another sustained updraft in the stock price. The market could rise by as much as $20 in the near term and over $60 in the longer term, matching the rallies that preceded the breakout. Microns stock price is headed to the $150 to $190 range in this scenario, enough to push the market to record high levels at the top of the analysts' range. Before you make your next trade, you'll want to hear this. MarketBeat keeps track of Wall Street's top rated and best performing research analysts and the stocks they recommend to their clients on a daily basis. Our team has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and none of the big name stocks were on the list. They believe these five stocks are the five best companies for investors to buy now... See The Five Stocks Here The article "Deeply Undervalued, Micron Technologies Stock Isnt Pricing in AI" first appeared on MarketBeat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45883.51944444444</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Dow Down; AI Stock Coherent Delivers 3 Sell Signals; Coach Owner Tapestry Gets Support At Key Level (Live)</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down%3B.html</t>
+        </is>
+      </c>
+      <c r="E294" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45883.50347222222</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>AI startup Cohere valued at $6.8 billion in latest fundraise, appoints new executives</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/ai-startup-cohere-valued-6-160547472.html</t>
+        </is>
+      </c>
+      <c r="E295" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45883.49305555555</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>ChatGPT: Everything you need to know about the AI-powered chatbot</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/chatgpt-everything-know-ai-powered-172758212.html</t>
+        </is>
+      </c>
+      <c r="E296" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45883.47708333333</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Edges Up. Foxconn Has Good News on AI Server Demand.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/1d8b2777-f870-30ca-8bb3-1de5b2863222/nvidia-stock-edges-up..html</t>
+        </is>
+      </c>
+      <c r="E297" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45883.45694444444</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Mizuho Raises Nvidia and AMD Price Targets To $205 On AI-Server Boom</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/mizuho-raises-nvidia-amd-price-145813757.html</t>
+        </is>
+      </c>
+      <c r="E298" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45883.45277777778</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Dow Down Mildly On Hot PPI Inflation; AI Stock Coherent Dives After Quarterly Update (Live Coverage)</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down.html</t>
+        </is>
+      </c>
+      <c r="E299" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45883.45138888889</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>After Earnings, Pair Cisco with This Other Chip Stock for Maximum Results</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/ef1babbd-1d07-344e-8bc2-3141eea3690d/after-earnings%2C-pair-cisco.html</t>
+        </is>
+      </c>
+      <c r="E300" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45883.44513888889</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>The entire stock market is being carried by these four AI stocks</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.marketwatch.com/story/the-entire-stock-market-is-being-carried-by-these-four-ai-stocks-6e69fbbd?mod=mw_FV</t>
+        </is>
+      </c>
+      <c r="E301" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/finviz_data.xlsx
+++ b/finviz_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H301"/>
+  <dimension ref="A1:H401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7817,7 +7817,7 @@
           <t>https://finviz.com/news/142428/5-artificial-intelligence-ai-stocks-to-buy-and-hold-for-the-next-decade</t>
         </is>
       </c>
-      <c r="E202" s="3" t="n">
+      <c r="E202" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F202" t="inlineStr">
@@ -7882,7 +7882,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/retail-trading-trends-top-names-180016299.html</t>
         </is>
       </c>
-      <c r="E203" s="3" t="n">
+      <c r="E203" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F203" t="inlineStr">
@@ -7908,7 +7908,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/7-booming-industries-youve-probably-163109255.html</t>
         </is>
       </c>
-      <c r="E204" s="3" t="n">
+      <c r="E204" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F204" t="inlineStr">
@@ -7934,7 +7934,7 @@
           <t>https://finviz.com/news/142393/after-gaining-394-billion-in-market-cap-in-3-days-is-apple-stock-on-its-way-to-joining-nvidia-and-microsoft-in-the-4-trillion-club</t>
         </is>
       </c>
-      <c r="E205" s="3" t="n">
+      <c r="E205" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F205" t="inlineStr">
@@ -8015,7 +8015,7 @@
           <t>https://finviz.com/news/142391/dont-make-this-common-investing-mistake-when-buying-sp-500-stocks-at-all-time-highs</t>
         </is>
       </c>
-      <c r="E206" s="3" t="n">
+      <c r="E206" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F206" t="inlineStr">
@@ -8081,7 +8081,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/trump-unprecedented-potentially-unconstitutional-deal-110000020.html</t>
         </is>
       </c>
-      <c r="E207" s="3" t="n">
+      <c r="E207" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F207" t="inlineStr">
@@ -8107,7 +8107,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-special-treatment-trump-110000802.html</t>
         </is>
       </c>
-      <c r="E208" s="3" t="n">
+      <c r="E208" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F208" t="inlineStr">
@@ -8133,7 +8133,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/meta-spends-more-guarding-mark-100300414.html</t>
         </is>
       </c>
-      <c r="E209" s="3" t="n">
+      <c r="E209" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F209" t="inlineStr">
@@ -8159,7 +8159,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/91630ab4-07a9-3a15-85c5-0f54a7bfd2f5/chipmakers-nvidia-and-amd-to.html</t>
         </is>
       </c>
-      <c r="E210" s="3" t="n">
+      <c r="E210" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F210" t="inlineStr">
@@ -8185,7 +8185,7 @@
           <t>https://finviz.com/news/142382/5-brilliant-quantum-computing-stocks-to-buy-right-now</t>
         </is>
       </c>
-      <c r="E211" s="3" t="n">
+      <c r="E211" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F211" t="inlineStr">
@@ -8244,7 +8244,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/race-sovereign-ai-intensifying-know-154054977.html</t>
         </is>
       </c>
-      <c r="E212" s="3" t="n">
+      <c r="E212" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F212" t="inlineStr">
@@ -8270,7 +8270,7 @@
           <t>https://finviz.com/news/142380/5-top-artificial-intelligence-stocks-to-buy-in-august</t>
         </is>
       </c>
-      <c r="E213" s="3" t="n">
+      <c r="E213" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F213" t="inlineStr">
@@ -8353,7 +8353,7 @@
           <t>https://finviz.com/news/142379/double-the-disruption-the-3-best-stocks-to-buy-now-to-profit-from-both-ai-and-quantum-computing</t>
         </is>
       </c>
-      <c r="E214" s="3" t="n">
+      <c r="E214" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F214" t="inlineStr">
@@ -8418,7 +8418,7 @@
           <t>https://finviz.com/news/142377/did-nvidia-make-a-mistake-by-selling-soundhound-ai-stock-the-answer-might-surprise-you</t>
         </is>
       </c>
-      <c r="E215" s="3" t="n">
+      <c r="E215" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F215" t="inlineStr">
@@ -8499,7 +8499,7 @@
           <t>https://finviz.com/news/142361/if-i-could-only-buy-and-hold-a-single-stock-this-would-be-it</t>
         </is>
       </c>
-      <c r="E216" s="3" t="n">
+      <c r="E216" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F216" t="inlineStr">
@@ -8566,7 +8566,7 @@
           <t>https://finviz.comhttps://www.digitimes.com/news/a20250814PD235/repon-ai-server-growth-demand-shipments.html</t>
         </is>
       </c>
-      <c r="E217" s="3" t="n">
+      <c r="E217" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F217" t="inlineStr">
@@ -8592,7 +8592,7 @@
           <t>https://finviz.comhttps://www.digitimes.com/news/a20250814VL206/nvidia-rubin-ai-chip-amd-launch.html</t>
         </is>
       </c>
-      <c r="E218" s="3" t="n">
+      <c r="E218" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F218" t="inlineStr">
@@ -8618,7 +8618,7 @@
           <t>https://finviz.com/news/142292/nvidia-nvda-stock-gets-bullish-call-amid-us-china-chip-agreement-reports</t>
         </is>
       </c>
-      <c r="E219" s="3" t="n">
+      <c r="E219" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F219" t="inlineStr">
@@ -8658,7 +8658,7 @@
           <t>https://finviz.com/news/142300/5-unstoppable-ten-titans-growth-stocks-to-buy-now-and-hold-through-at-least-2030</t>
         </is>
       </c>
-      <c r="E220" s="3" t="n">
+      <c r="E220" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F220" t="inlineStr">
@@ -8740,7 +8740,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-agree-15-export-220517787.html</t>
         </is>
       </c>
-      <c r="E221" s="3" t="n">
+      <c r="E221" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F221" t="inlineStr">
@@ -8766,7 +8766,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-scores-500-million-ipo-214706278.html</t>
         </is>
       </c>
-      <c r="E222" s="3" t="n">
+      <c r="E222" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F222" t="inlineStr">
@@ -8792,7 +8792,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/6dc7f034-8f61-3b3d-955d-3a50b01945af/trump-wants-to-make-intel.html</t>
         </is>
       </c>
-      <c r="E223" s="3" t="n">
+      <c r="E223" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F223" t="inlineStr">
@@ -8818,7 +8818,7 @@
           <t>https://finviz.comhttps://www.investors.com/research/ibd-stock-analysis/micron-stock-ai-data-centers-space-exploration?mod=IBD_FV</t>
         </is>
       </c>
-      <c r="E224" s="3" t="n">
+      <c r="E224" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F224" t="inlineStr">
@@ -8844,7 +8844,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/75569d9b-a755-3b40-9ffe-1dc6015936fc/dear-marvell-stock-fans%2C-mark.html</t>
         </is>
       </c>
-      <c r="E225" s="3" t="n">
+      <c r="E225" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F225" t="inlineStr">
@@ -8870,7 +8870,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/874808b0-c2be-37fa-8f9b-749d586597da/billionaire-fund-manager.html</t>
         </is>
       </c>
-      <c r="E226" s="3" t="n">
+      <c r="E226" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F226" t="inlineStr">
@@ -8896,7 +8896,7 @@
           <t>https://finviz.com/news/142198/jim-cramer-insists-there-are-no-backdoors-in-nvidia-corporation-nvdas-chips</t>
         </is>
       </c>
-      <c r="E227" s="3" t="n">
+      <c r="E227" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F227" t="inlineStr">
@@ -8940,7 +8940,7 @@
           <t>https://finviz.com/news/142196/if-youd-invested-500-in-the-trade-desk-stock-5-years-ago-heres-how-much-youd-have-today</t>
         </is>
       </c>
-      <c r="E228" s="3" t="n">
+      <c r="E228" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F228" t="inlineStr">
@@ -8999,7 +8999,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/intc-intel-jumps-reports-white-175929817.html</t>
         </is>
       </c>
-      <c r="E229" s="3" t="n">
+      <c r="E229" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F229" t="inlineStr">
@@ -9025,7 +9025,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/billionaire-family-offices-join-berkshire-173329643.html</t>
         </is>
       </c>
-      <c r="E230" s="3" t="n">
+      <c r="E230" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F230" t="inlineStr">
@@ -9051,7 +9051,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvda-chip-stocks-tumbles-tariff-173136118.html</t>
         </is>
       </c>
-      <c r="E231" s="3" t="n">
+      <c r="E231" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F231" t="inlineStr">
@@ -9077,7 +9077,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/3d8524f4-7f7e-33fb-afb8-e423bcd7c678/billionaire-george-soros.html</t>
         </is>
       </c>
-      <c r="E232" s="3" t="n">
+      <c r="E232" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F232" t="inlineStr">
@@ -9103,7 +9103,7 @@
           <t>https://finviz.com/news/142176/quantum-stocks-q2-2025-are-d-wave-ionq-rigetti-funding-the-future</t>
         </is>
       </c>
-      <c r="E233" s="3" t="n">
+      <c r="E233" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F233" t="inlineStr">
@@ -9153,7 +9153,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-price-targets-raised-165957508.html</t>
         </is>
       </c>
-      <c r="E234" s="3" t="n">
+      <c r="E234" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F234" t="inlineStr">
@@ -9179,7 +9179,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-ceo-jensen-huang-cashes-165832406.html</t>
         </is>
       </c>
-      <c r="E235" s="3" t="n">
+      <c r="E235" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F235" t="inlineStr">
@@ -9205,7 +9205,7 @@
           <t>https://finviz.com/news/142162/iren-limited-an-ai-crypto-and-cloud-computing-stock</t>
         </is>
       </c>
-      <c r="E236" s="3" t="n">
+      <c r="E236" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F236" t="inlineStr">
@@ -9255,7 +9255,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/trump-aides-create-loyalty-list-162746725.html</t>
         </is>
       </c>
-      <c r="E237" s="3" t="n">
+      <c r="E237" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F237" t="inlineStr">
@@ -9281,7 +9281,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/politics-beats-the-market-in-trumps-pay-for-play-chip-scheme-f57ef41d?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E238" s="3" t="n">
+      <c r="E238" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F238" t="inlineStr">
@@ -9307,7 +9307,7 @@
           <t>https://finviz.comhttps://www.wsj.com/tech/intels-move-toward-nationalization-wont-workat-least-for-the-long-haul-de403b16?mod=wsj_FV</t>
         </is>
       </c>
-      <c r="E239" s="3" t="n">
+      <c r="E239" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F239" t="inlineStr">
@@ -9333,7 +9333,7 @@
           <t>https://finviz.com/news/142097/the-zacks-analyst-blog-highlights-intel-nvidia-amd-and-cadence-design-systems</t>
         </is>
       </c>
-      <c r="E240" s="3" t="n">
+      <c r="E240" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F240" t="inlineStr">
@@ -9411,7 +9411,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/0a04f585-44f3-32cd-ac0a-41894f4d485f/china-is-pushing-back-against.html</t>
         </is>
       </c>
-      <c r="E241" s="3" t="n">
+      <c r="E241" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F241" t="inlineStr">
@@ -9437,7 +9437,7 @@
           <t>https://finviz.com/news/142031/what-amd-and-nvidia-shareholders-should-know-about-recent-china-updates</t>
         </is>
       </c>
-      <c r="E242" s="3" t="n">
+      <c r="E242" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F242" t="inlineStr">
@@ -9481,7 +9481,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/lee-ainslies-strategic-moves-closer-150531631.html</t>
         </is>
       </c>
-      <c r="E243" s="3" t="n">
+      <c r="E243" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F243" t="inlineStr">
@@ -9507,7 +9507,7 @@
           <t>https://finviz.com/news/142053/zacks-investment-ideas-feature-highlights-fabrinet-nvidia-and-amazon</t>
         </is>
       </c>
-      <c r="E244" s="3" t="n">
+      <c r="E244" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F244" t="inlineStr">
@@ -9573,7 +9573,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-slips-amid-chip-tariff.html</t>
         </is>
       </c>
-      <c r="E245" s="3" t="n">
+      <c r="E245" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F245" t="inlineStr">
@@ -9599,7 +9599,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/why-would-trump-and-intel-want-to-work-together-opening-bid-top-takeaway-143409334.html</t>
         </is>
       </c>
-      <c r="E246" s="3" t="n">
+      <c r="E246" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F246" t="inlineStr">
@@ -9625,7 +9625,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/trump-intel-stake-too-big-fail-b66594d9?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E247" s="3" t="n">
+      <c r="E247" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F247" t="inlineStr">
@@ -9651,7 +9651,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/bc-most-active-stocks-143017539.html</t>
         </is>
       </c>
-      <c r="E248" s="3" t="n">
+      <c r="E248" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F248" t="inlineStr">
@@ -9677,7 +9677,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/b679bc58-8e47-301a-a02f-a9a04f93cf32/trump-says-tariff-rate-on.html</t>
         </is>
       </c>
-      <c r="E249" s="3" t="n">
+      <c r="E249" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F249" t="inlineStr">
@@ -9703,7 +9703,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-stock-stutters.-big.html</t>
         </is>
       </c>
-      <c r="E250" s="3" t="n">
+      <c r="E250" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F250" t="inlineStr">
@@ -9729,7 +9729,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/dow-scales-record-high-hopes-134625792.html</t>
         </is>
       </c>
-      <c r="E251" s="3" t="n">
+      <c r="E251" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F251" t="inlineStr">
@@ -9755,7 +9755,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/best-semiconductor-etfs-2025-top-125500125.html</t>
         </is>
       </c>
-      <c r="E252" s="3" t="n">
+      <c r="E252" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F252" t="inlineStr">
@@ -9781,7 +9781,7 @@
           <t>https://finviz.comhttps://www.marketwatch.com/story/20-stocks-in-the-s-p-500-that-are-high-achievers-this-earnings-season-17b99522?mod=mw_FV</t>
         </is>
       </c>
-      <c r="E253" s="3" t="n">
+      <c r="E253" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F253" t="inlineStr">
@@ -9807,7 +9807,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/best-equal-weight-index-funds-212855779.html</t>
         </is>
       </c>
-      <c r="E254" s="3" t="n">
+      <c r="E254" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F254" t="inlineStr">
@@ -9833,7 +9833,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/proshares-launches-first-etf-target-123000712.html</t>
         </is>
       </c>
-      <c r="E255" s="3" t="n">
+      <c r="E255" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F255" t="inlineStr">
@@ -9859,7 +9859,7 @@
           <t>https://finviz.com/news/141764/could-buying-nvidia-today-set-you-up-for-life</t>
         </is>
       </c>
-      <c r="E256" s="3" t="n">
+      <c r="E256" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F256" t="inlineStr">
@@ -9920,7 +9920,7 @@
           <t>https://finviz.com/news/141745/what-amd-coreweave-and-nvidia-stock-investors-should-know-about-recent-updates</t>
         </is>
       </c>
-      <c r="E257" s="3" t="n">
+      <c r="E257" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F257" t="inlineStr">
@@ -9964,7 +9964,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/3-ai-chip-stocks-best-110017626.html</t>
         </is>
       </c>
-      <c r="E258" s="3" t="n">
+      <c r="E258" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F258" t="inlineStr">
@@ -9990,7 +9990,7 @@
           <t>https://finviz.com/news/141703/these-were-the-5-biggest-companies-in-2019-and-here-are-the-5-biggest-companies-now</t>
         </is>
       </c>
-      <c r="E259" s="3" t="n">
+      <c r="E259" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F259" t="inlineStr">
@@ -10086,7 +10086,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/analysis-trumps-attack-goldman-could-100301764.html</t>
         </is>
       </c>
-      <c r="E260" s="3" t="n">
+      <c r="E260" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F260" t="inlineStr">
@@ -10112,7 +10112,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/megacaps-keep-rising-heres-valuation-100019975.html</t>
         </is>
       </c>
-      <c r="E261" s="3" t="n">
+      <c r="E261" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F261" t="inlineStr">
@@ -10138,7 +10138,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/ai-exacerbates-tech-divide-smaller-093000902.html</t>
         </is>
       </c>
-      <c r="E262" s="3" t="n">
+      <c r="E262" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F262" t="inlineStr">
@@ -10164,7 +10164,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/coreweave-ipo-investors-sitting-big-092712253.html</t>
         </is>
       </c>
-      <c r="E263" s="3" t="n">
+      <c r="E263" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F263" t="inlineStr">
@@ -10190,7 +10190,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/taiwan-raises-2025-gdp-growth-091247191.html</t>
         </is>
       </c>
-      <c r="E264" s="3" t="n">
+      <c r="E264" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F264" t="inlineStr">
@@ -10216,7 +10216,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/nvidia-stock-price-soros-ai-aebccfaf?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E265" s="3" t="n">
+      <c r="E265" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F265" t="inlineStr">
@@ -10242,7 +10242,7 @@
           <t>https://finviz.com/news/141527/where-will-navitas-semiconductor-stock-be-in-3-years</t>
         </is>
       </c>
-      <c r="E266" s="3" t="n">
+      <c r="E266" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F266" t="inlineStr">
@@ -10339,7 +10339,7 @@
           <t>https://finviz.com/news/141519/should-you-buy-nvidia-stock-before-aug-27-wall-street-has-a-compelling-answer</t>
         </is>
       </c>
-      <c r="E267" s="3" t="n">
+      <c r="E267" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F267" t="inlineStr">
@@ -10402,7 +10402,7 @@
           <t>https://finviz.com/news/141515/nvidia-palantir-and-amd-have-a-nearly-13-billion-warning-for-wall-street-but-are-you-paying-attention</t>
         </is>
       </c>
-      <c r="E268" s="3" t="n">
+      <c r="E268" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F268" t="inlineStr">
@@ -10490,7 +10490,7 @@
           <t>https://finviz.com/news/141501/william-blair-maintains-outperform-rating-on-nvidia-nvda</t>
         </is>
       </c>
-      <c r="E269" s="3" t="n">
+      <c r="E269" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F269" t="inlineStr">
@@ -10531,7 +10531,7 @@
           <t>https://finviz.com/news/141486/jim-cramer-discusses-nvidia-return-to-china-market</t>
         </is>
       </c>
-      <c r="E270" s="3" t="n">
+      <c r="E270" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F270" t="inlineStr">
@@ -10573,7 +10573,7 @@
           <t>https://finviz.com/news/141475/dell-nvidia-elastic-partner-to-enhance-ai-data-platform</t>
         </is>
       </c>
-      <c r="E271" s="3" t="n">
+      <c r="E271" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F271" t="inlineStr">
@@ -10616,7 +10616,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/tech-energy-healthcare-stocks-markets-cf964dda?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E272" s="3" t="n">
+      <c r="E272" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F272" t="inlineStr">
@@ -10642,7 +10642,7 @@
           <t>https://finviz.comhttps://www.marketwatch.com/story/soros-appaloosa-boost-their-holdings-in-this-mag-7-stock-amid-ai-spending-boom-514807d8?mod=mw_FV</t>
         </is>
       </c>
-      <c r="E273" s="3" t="n">
+      <c r="E273" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F273" t="inlineStr">
@@ -10668,7 +10668,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/hedge-funds-shift-bets-double-233524300.html</t>
         </is>
       </c>
-      <c r="E274" s="3" t="n">
+      <c r="E274" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F274" t="inlineStr">
@@ -10694,7 +10694,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-growth-fund-inc-220600993.html</t>
         </is>
       </c>
-      <c r="E275" s="3" t="n">
+      <c r="E275" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F275" t="inlineStr">
@@ -10720,7 +10720,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-equity-fund-july-220600509.html</t>
         </is>
       </c>
-      <c r="E276" s="3" t="n">
+      <c r="E276" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F276" t="inlineStr">
@@ -10746,7 +10746,7 @@
           <t>https://finviz.comhttps://www.investors.com/news/technology/ai-stocks-score-price-target-hikes-strong-server-sales?mod=IBD_FV</t>
         </is>
       </c>
-      <c r="E277" s="3" t="n">
+      <c r="E277" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F277" t="inlineStr">
@@ -10772,7 +10772,7 @@
           <t>https://finviz.comhttps://www.youtube.com/watch?v=c7YoYkKtCfk</t>
         </is>
       </c>
-      <c r="E278" s="3" t="n">
+      <c r="E278" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F278" t="inlineStr">
@@ -10798,7 +10798,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/65c5a297-973e-3cab-8341-10bc5e0b35e7/strategy-pushed-%E2%80%98deceptive%E2%80%99.html</t>
         </is>
       </c>
-      <c r="E279" s="3" t="n">
+      <c r="E279" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F279" t="inlineStr">
@@ -10824,7 +10824,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/intel-stock-surges-on-report-trump-administration-mulls-taking-stake-in-company-204003673.html</t>
         </is>
       </c>
-      <c r="E280" s="3" t="n">
+      <c r="E280" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F280" t="inlineStr">
@@ -10850,7 +10850,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/us-weighs-taking-stake-intel-195356266.html</t>
         </is>
       </c>
-      <c r="E281" s="3" t="n">
+      <c r="E281" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F281" t="inlineStr">
@@ -10876,7 +10876,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-and.html</t>
         </is>
       </c>
-      <c r="E282" s="3" t="n">
+      <c r="E282" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F282" t="inlineStr">
@@ -10902,7 +10902,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/ken-fishers-strategic-moves-oracle-190218225.html</t>
         </is>
       </c>
-      <c r="E283" s="3" t="n">
+      <c r="E283" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F283" t="inlineStr">
@@ -10928,7 +10928,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/kevin-oleary-says-nvidia-amd-190100564.html</t>
         </is>
       </c>
-      <c r="E284" s="3" t="n">
+      <c r="E284" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F284" t="inlineStr">
@@ -10954,7 +10954,7 @@
           <t>https://finviz.com/news/141119/should-you-buy-intel-stock-after-president-trumps-ceo-praise</t>
         </is>
       </c>
-      <c r="E285" s="3" t="n">
+      <c r="E285" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F285" t="inlineStr">
@@ -11006,7 +11006,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-ai-rally-c963a7b1?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E286" s="3" t="n">
+      <c r="E286" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F286" t="inlineStr">
@@ -11032,7 +11032,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-market-8d1a1a8e?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E287" s="3" t="n">
+      <c r="E287" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F287" t="inlineStr">
@@ -11058,7 +11058,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-nasdaq.html</t>
         </is>
       </c>
-      <c r="E288" s="3" t="n">
+      <c r="E288" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F288" t="inlineStr">
@@ -11084,7 +11084,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/wedbush-nvidia-amd-china-ai-175410596.html</t>
         </is>
       </c>
-      <c r="E289" s="3" t="n">
+      <c r="E289" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F289" t="inlineStr">
@@ -11110,7 +11110,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-hits-6-8b-valuation-174027502.html</t>
         </is>
       </c>
-      <c r="E290" s="3" t="n">
+      <c r="E290" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F290" t="inlineStr">
@@ -11136,7 +11136,7 @@
           <t>https://finviz.com/news/141052/if-you-bought-100-shares-of-applied-digital-at-its-ipo-heres-how-much-money-youd-have-now</t>
         </is>
       </c>
-      <c r="E291" s="3" t="n">
+      <c r="E291" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F291" t="inlineStr">
@@ -11190,7 +11190,7 @@
           <t>https://finviz.com/news/141056/ciscos-q4-earnings-beat-estimates-revenues-rise-yy-shares-down</t>
         </is>
       </c>
-      <c r="E292" s="3" t="n">
+      <c r="E292" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F292" t="inlineStr">
@@ -11252,7 +11252,7 @@
           <t>https://finviz.com/news/140962/deeply-undervalued-micron-technologies-stock-isnt-pricing-in-ai</t>
         </is>
       </c>
-      <c r="E293" s="3" t="n">
+      <c r="E293" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F293" t="inlineStr">
@@ -11308,7 +11308,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down%3B.html</t>
         </is>
       </c>
-      <c r="E294" s="3" t="n">
+      <c r="E294" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F294" t="inlineStr">
@@ -11334,7 +11334,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/ai-startup-cohere-valued-6-160547472.html</t>
         </is>
       </c>
-      <c r="E295" s="3" t="n">
+      <c r="E295" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F295" t="inlineStr">
@@ -11360,7 +11360,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/chatgpt-everything-know-ai-powered-172758212.html</t>
         </is>
       </c>
-      <c r="E296" s="3" t="n">
+      <c r="E296" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F296" t="inlineStr">
@@ -11386,7 +11386,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/1d8b2777-f870-30ca-8bb3-1de5b2863222/nvidia-stock-edges-up..html</t>
         </is>
       </c>
-      <c r="E297" s="3" t="n">
+      <c r="E297" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F297" t="inlineStr">
@@ -11412,7 +11412,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/mizuho-raises-nvidia-amd-price-145813757.html</t>
         </is>
       </c>
-      <c r="E298" s="3" t="n">
+      <c r="E298" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F298" t="inlineStr">
@@ -11438,7 +11438,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down.html</t>
         </is>
       </c>
-      <c r="E299" s="3" t="n">
+      <c r="E299" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F299" t="inlineStr">
@@ -11464,7 +11464,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/ef1babbd-1d07-344e-8bc2-3141eea3690d/after-earnings%2C-pair-cisco.html</t>
         </is>
       </c>
-      <c r="E300" s="3" t="n">
+      <c r="E300" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F300" t="inlineStr">
@@ -11490,7 +11490,7 @@
           <t>https://finviz.comhttps://www.marketwatch.com/story/the-entire-stock-market-is-being-carried-by-these-four-ai-stocks-6e69fbbd?mod=mw_FV</t>
         </is>
       </c>
-      <c r="E301" s="3" t="n">
+      <c r="E301" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F301" t="inlineStr">
@@ -11500,6 +11500,3744 @@
       </c>
       <c r="G301" t="inlineStr"/>
       <c r="H301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45886.04166666666</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Better Technology Stock: Nvidia vs. Palantir</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142484/better-technology-stock-nvidia-vs-palantir</t>
+        </is>
+      </c>
+      <c r="E302" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Key Points
+Nvidia is now the most valuable publicly traded company in the world, and all signs point to another great earnings report this month.
+Palantir Technologies is the fastest-growing company in the S&amp;P 500.
+Semiconductor giant Nvidia (NASDAQ: NVDA) and artificial intelligence (AI) kingpin Palantir Technologies (NASDAQ: PLTR) are two of the most compelling technology stocks in the market. Nvidia harnessed demand for its graphics processing units (GPUs) to become the biggest company in the world, with a $4.4 trillion market capitalization. Palantir, meanwhile, is using its artificial intelligence platform to fundamentally change how governments and commercial businesses operate. The stock is up more than 500% in the last year and is the best-performing stock in the S&amp;P 500.
+In my view, you can't go wrong with either of these tech stocks. But in a one-on-one matchup, which comes out on top?
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+Let's look at both companies before rendering a verdict.
+Image source: Getty Images.
+Nvidia
+Nvidia's GPUs are the engine behind this mammoth company. While they used to be best known for providing the graphics in computers, now GPUs are commonly used by companies that are building massive data centers to run artificial intelligence-powered platforms, including large language models needed for generative AI.
+Nvidia has the lion's share of this business, with Jon Peddie Research estimating that it has roughly 92% of the market share. And as Nvidia is expecting spending on data centers to accelerate from $250 billion in 2023 to $1 trillion annually by 2028, there's a massive opportunity at hand.
+In addition, major tech companies like Microsoft, Alphabet, and Meta Platforms are spending heavily and are even increasing their capital expenditure spending on their data centers. That's why I'm expecting a solid earnings report from Nvidia when it reports its earnings for the current quarter, and why I'm expecting the stock to pop yet again after the numbers are released.
+Palantir Technologies
+Palantir got its start a little more than 20 years ago as a data mining company to provide real-time analytics and insights. As a government contractor, it's long been valued by the military for its analytic technology that helps commanders make real-time decisions in battle. To the public eye, Palantir largely flew under the radar for years until in 2011, when it was credited for helping U.S. forces find and eliminate Sept. 11 mastermind Osama bin Laden.
+Palantir works by drawing information from many sources, such as satellite imagery. By sifting through and digesting that information, it can perform instantaneous analysis that can help governments function. According to its CEO, Alex Karp, "Palantir was founded on the belief that the United States, its allies, and partners should harness the most advanced technical capabilities for their defense and prosperity."
+As its capabilities expanded through the launch of its generative AI-powered Artificial Intelligence Platform (AIP), Palantir is quickly bringing in additional non-military government contracts. It has new contracts with the Federal Aviation Administration, the Centers for Disease Control and Prevention, the State Department, and the Internal Revenue Service. In the company's just-released second quarter earnings report, U.S. government revenue increased 53% in the last year, reaching $426 million.
+Commercial revenue is growing even faster, up 93% in the second quarter on a year-over-year basis and reaching $306 million. Clients include Walgreens Boots Alliance, AT&amp;T, General Mills, United Airlines, and others, and Palantir is doing everything from making manufacturing more efficient to managing supply chains and helping companies scale.
+Palantir closed 157 deals in the second quarter valued at more than $1 million, with 66 of them more than $5 million and 42 of them at least $10 million. As more companies bring Palantir's platform online and share how they are improving their businesses, Palantir's platform will become a must-have for many institutions.
+The verdict
+I'm not gonna lie. This is a tough one. I love both of these companies, and I think both are destined to increase.
+But if I have to choose one, then the valuations of both companies will break the tie. At the time of this writing, Nvidia is richly valued both in its price-to-earnings (P/E) ratio of 59 and its forward P/E of 42, but Palantir comes in at an unhealthy 623 and 288, respectively.
+The price-to-sales ratio, which compares market capitalization to revenue, is arguably an even more accurate measurement as both of these companies are pouring profits back into the business. And Nvidia is by far the strongest there, too.
+PLTR PS Ratio data by YCharts
+So, my winner in this hypothetical battle is Nvidia by a nose. But both stocks are great ones to have, and they'll both anchor my portfolio for the foreseeable future.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $668,155!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,106,071!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,070% — a market-crushing outperformance compared to 184% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Patrick Sanders has positions in Nvidia and Palantir Technologies. The Motley Fool has positions in and recommends Alphabet, Meta Platforms, Microsoft, Nvidia, and Palantir Technologies. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Key Points Nvidia is now the most valuable publicly traded company in the world, and all signs point to another great earnings report this month. Palantir Technologies is the fastest growing company in the S&amp;P 500. Semiconductor giant Nvidia (NASDAQ: NVDA) and artificial intelligence (AI) kingpin Palantir Technologies (NASDAQ: PLTR) are two of the most compelling technology stocks in the market. Nvidia harnessed demand for its graphics processing units (GPUs) to become the biggest company in the world, with a $4.4 trillion market capitalization. Palantir, meanwhile, is using its artificial intelligence platform to fundamentally change how governments and commercial businesses operate. The stock is up more than 500% in the last year and is the best performing stock in the S&amp;P 500. In my view, you can't go wrong with either of these tech stocks. But in a one on one matchup, which comes out on top? Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More Let's look at both companies before rendering a verdict. Image source: Getty Images. Nvidia Nvidia's GPUs are the engine behind this mammoth company. While they used to be best known for providing the graphics in computers, now GPUs are commonly used by companies that are building massive data centers to run artificial intelligence powered platforms, including large language models needed for generative AI. Nvidia has the lion's share of this business, with Jon Peddie Research estimating that it has roughly 92% of the market share. And as Nvidia is expecting spending on data centers to accelerate from $250 billion in 2023 to $1 trillion annually by 2028, there's a massive opportunity at hand. In addition, major tech companies like Microsoft, Alphabet, and Meta Platforms are spending heavily and are even increasing their capital expenditure spending on their data centers. That's why I'm expecting a solid earnings report from Nvidia when it reports its earnings for the current quarter, and why I'm expecting the stock to pop yet again after the numbers are released. Palantir Technologies Palantir got its start a little more than 20 years ago as a data mining company to provide real time analytics and insights. As a government contractor, it's long been valued by the military for its analytic technology that helps commanders make real time decisions in battle. To the public eye, Palantir largely flew under the radar for years until in 2011, when it was credited for helping U.S. forces find and eliminate Sept. 11 mastermind Osama bin Laden. Palantir works by drawing information from many sources, such as satellite imagery. By sifting through and digesting that information, it can perform instantaneous analysis that can help governments function. According to its CEO, Alex Karp, "Palantir was founded on the belief that the United States, its allies, and partners should harness the most advanced technical capabilities for their defense and prosperity." As its capabilities expanded through the launch of its generative AI powered Artificial Intelligence Platform (AIP), Palantir is quickly bringing in additional non military government contracts. It has new contracts with the Federal Aviation Administration, the Centers for Disease Control and Prevention, the State Department, and the Internal Revenue Service. In the company's just released second quarter earnings report, U.S. government revenue increased 53% in the last year, reaching $426 million. Commercial revenue is growing even faster, up 93% in the second quarter on a year over year basis and reaching $306 million. Clients include Walgreens Boots Alliance, AT&amp;T, General Mills, United Airlines, and others, and Palantir is doing everything from making manufacturing more efficient to managing supply chains and helping companies scale. Palantir closed 157 deals in the second quarter valued at more than $1 million, with 66 of them more than $5 million and 42 of them at least $10 million. As more companies bring Palantir's platform online and share how they are improving their businesses, Palantir's platform will become a must have for many institutions. The verdict I'm not gonna lie. This is a tough one. I love both of these companies, and I think both are destined to increase. But if I have to choose one, then the valuations of both companies will break the tie. At the time of this writing, Nvidia is richly valued both in its price to earnings (P/E) ratio of 59 and its forward P/E of 42, but Palantir comes in at an unhealthy 623 and 288, respectively. The price to sales ratio, which compares market capitalization to revenue, is arguably an even more accurate measurement as both of these companies are pouring profits back into the business. And Nvidia is by far the strongest there, too. PLTR PS Ratio data by YCharts So, my winner in this hypothetical battle is Nvidia by a nose. But both stocks are great ones to have, and they'll both anchor my portfolio for the foreseeable future. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $668,155! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,106,071! Now, its worth noting Stock Advisors total average return is 1,070% a market crushing outperformance compared to 184% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Patrick Sanders has positions in Nvidia and Palantir Technologies. The Motley Fool has positions in and recommends Alphabet, Meta Platforms, Microsoft, Nvidia, and Palantir Technologies. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45885.76041666666</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>5 Artificial Intelligence (AI) Stocks to Buy and Hold for the Next Decade</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142428/5-artificial-intelligence-ai-stocks-to-buy-and-hold-for-the-next-decade</t>
+        </is>
+      </c>
+      <c r="E303" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Key Points
+Nvidia and Taiwan Semiconductor are slated to profit from the huge AI computing power buildout.
+Meta Platforms and Alphabet are using AI to improve advertising.
+Amazon's cloud computing division is seeing strong AI demand.
+The best investing strategies involve buying great companies and holding them over long periods to let them be, which has yielded impressive returns if you picked the right businesses.
+Among the top performers over the past decade have been Nvidia (NASDAQ: NVDA), Taiwan Semiconductor Manufacturing (NYSE: TSM), Amazon (NASDAQ: AMZN), Meta Platforms (NASDAQ: META), and Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL). I removed Nvidia from the chart below because it's up over 30,000% in the past decade, which skews the graph, but the other four have also done phenomenally well.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+TSM data by YCharts.
+The "worst" performer of the remaining four has been Alphabet, with its stock rising nearly five times in value.
+These five stocks have had a strong run over the past decade, but I still believe they are excellent picks for the next decade, mainly due to the proliferation of artificial intelligence (AI). They are at the top of my list right now, and I think buying shares with the mindset of holding for the next decade is a wise investment strategy.
+Image source: Getty Images.
+Nvidia and Taiwan Semiconductor are providing AI computing power
+All five of these stocks are benefiting in various ways from the AI race.
+Nvidia makes graphics processing units (GPUs), which are currently the most popular computing hardware for running and training AI models. It owns this market, and its dominance has allowed it to become the world's largest company.
+There's still a huge AI computing demand that hasn't been met, which bodes well for Nvidia's future. Because of this, it remains one of the best stocks to buy and hold over the next decade.
+Taiwan Semiconductor (TSMC for short) is a manufacturer that produces chips for many of the major players in AI, including Nvidia. These companies don't have chip production capabilities, so they farm that work out to TSMC, which has earned its reputation for being the best foundry in the world through continuous innovation and impressive yields. There are few challengers to its supremacy, and this position will help it continue to be a market-crushing stock for the foreseeable future.
+Nvidia and Taiwan Semiconductor are seeing huge growth right now because they're providing the computing power necessary for AI. The next three are also benefiting and will likely see even more success over the next decade.
+More AI applications will rise over the next few years
+At first glance, Amazon doesn't seem like much of an AI company. However, it has large exposure through its cloud computing wing, Amazon Web Services (AWS), which is the largest cloud computing provider.
+It's seeing strong demand for increased computing capacity for AI workloads. With this demand expected to rapidly increase over the next decade, this bodes well for AWS, which makes up the majority of Amazon's profits, helping drive the stock to new heights.
+Meta Platforms is developing its own in-house generative AI model, Llama. It has several uses for it, but the biggest is maintaining its role at the top of the social media world.
+Meta owns two of the biggest social media platforms, Facebook and Instagram, which generate most of their money through ad revenue. The company has integrated AI tools into its ad services and has already seen an uptick in interaction and conversion rates. This effect will become even greater as generative AI technologies improve, making Meta a strong stock pick for the next decade.
+Lastly is Alphabet. Many think Alphabet will be displaced by AI because it gets the majority of its revenue through Google Search, which is seen as a target for AI disruption. However, that hasn't happened yet, and Google Search continues to get larger, with revenue rising 12% in the second quarter.
+Part of its success can be attributed to the rise of its Search Overviews, which are a hybrid between a traditional search engine and generative AI. This feature has become popular and could be enough to keep Google on top in search, allowing it to achieve new heights over the next decade.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $668,155!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,106,071!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,070% — a market-crushing outperformance compared to 184% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keithen Drury has positions in Alphabet, Amazon, Meta Platforms, Nvidia, and Taiwan Semiconductor Manufacturing. The Motley Fool has positions in and recommends Alphabet, Amazon, Meta Platforms, Nvidia, and Taiwan Semiconductor Manufacturing. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Key Points Nvidia and Taiwan Semiconductor are slated to profit from the huge AI computing power buildout. Meta Platforms and Alphabet are using AI to improve advertising. Amazon's cloud computing division is seeing strong AI demand. The best investing strategies involve buying great companies and holding them over long periods to let them be, which has yielded impressive returns if you picked the right businesses. Among the top performers over the past decade have been Nvidia (NASDAQ: NVDA), Taiwan Semiconductor Manufacturing (NYSE: TSM), Amazon (NASDAQ: AMZN), Meta Platforms (NASDAQ: META), and Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL). I removed Nvidia from the chart below because it's up over 30,000% in the past decade, which skews the graph, but the other four have also done phenomenally well. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More TSM data by YCharts. The "worst" performer of the remaining four has been Alphabet, with its stock rising nearly five times in value. These five stocks have had a strong run over the past decade, but I still believe they are excellent picks for the next decade, mainly due to the proliferation of artificial intelligence (AI). They are at the top of my list right now, and I think buying shares with the mindset of holding for the next decade is a wise investment strategy. Image source: Getty Images. Nvidia and Taiwan Semiconductor are providing AI computing power All five of these stocks are benefiting in various ways from the AI race. Nvidia makes graphics processing units (GPUs), which are currently the most popular computing hardware for running and training AI models. It owns this market, and its dominance has allowed it to become the world's largest company. There's still a huge AI computing demand that hasn't been met, which bodes well for Nvidia's future. Because of this, it remains one of the best stocks to buy and hold over the next decade. Taiwan Semiconductor (TSMC for short) is a manufacturer that produces chips for many of the major players in AI, including Nvidia. These companies don't have chip production capabilities, so they farm that work out to TSMC, which has earned its reputation for being the best foundry in the world through continuous innovation and impressive yields. There are few challengers to its supremacy, and this position will help it continue to be a market crushing stock for the foreseeable future. Nvidia and Taiwan Semiconductor are seeing huge growth right now because they're providing the computing power necessary for AI. The next three are also benefiting and will likely see even more success over the next decade. More AI applications will rise over the next few years At first glance, Amazon doesn't seem like much of an AI company. However, it has large exposure through its cloud computing wing, Amazon Web Services (AWS), which is the largest cloud computing provider. It's seeing strong demand for increased computing capacity for AI workloads. With this demand expected to rapidly increase over the next decade, this bodes well for AWS, which makes up the majority of Amazon's profits, helping drive the stock to new heights. Meta Platforms is developing its own in house generative AI model, Llama. It has several uses for it, but the biggest is maintaining its role at the top of the social media world. Meta owns two of the biggest social media platforms, Facebook and Instagram, which generate most of their money through ad revenue. The company has integrated AI tools into its ad services and has already seen an uptick in interaction and conversion rates. This effect will become even greater as generative AI technologies improve, making Meta a strong stock pick for the next decade. Lastly is Alphabet. Many think Alphabet will be displaced by AI because it gets the majority of its revenue through Google Search, which is seen as a target for AI disruption. However, that hasn't happened yet, and Google Search continues to get larger, with revenue rising 12% in the second quarter. Part of its success can be attributed to the rise of its Search Overviews, which are a hybrid between a traditional search engine and generative AI. This feature has become popular and could be enough to keep Google on top in search, allowing it to achieve new heights over the next decade. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $668,155! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,106,071! Now, its worth noting Stock Advisors total average return is 1,070% a market crushing outperformance compared to 184% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keithen Drury has positions in Alphabet, Amazon, Meta Platforms, Nvidia, and Taiwan Semiconductor Manufacturing. The Motley Fool has positions in and recommends Alphabet, Amazon, Meta Platforms, Nvidia, and Taiwan Semiconductor Manufacturing. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45885.58333333334</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Retail trading trends: Top names investors are buying</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/retail-trading-trends-top-names-180016299.html</t>
+        </is>
+      </c>
+      <c r="E304" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45885.52152777778</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>The 7 Booming Industries You've Probably Never Thought About  But They're Making People Rich</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/7-booming-industries-youve-probably-163109255.html</t>
+        </is>
+      </c>
+      <c r="E305" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45885.29791666667</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>After Gaining $394 Billion in Market Cap in 3 Days, Is Apple Stock on Its Way to Joining Nvidia and Microsoft in the $4 Trillion Club?</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142393/after-gaining-394-billion-in-market-cap-in-3-days-is-apple-stock-on-its-way-to-joining-nvidia-and-microsoft-in-the-4-trillion-club</t>
+        </is>
+      </c>
+      <c r="E306" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Apple’s U.S. manufacturing investment could lower its tariff expense.
+The company’s results are improving, but growth is still sluggish.
+Apple needs to justify its lofty valuation with AI-related product upgrades that are well-received by its diverse user base.
+After closing at $202.69 per share on Aug. 5, Apple (NASDAQ: AAPL) stock soared a staggering 13% in just three days to finish Aug. 8 at $229.09 per share.
+The move pole-vaulted the tech giant's market cap to $3.404 trillion -- a whopping $394 billion gain. That's like creating a company the size of Home Depot out of thin air.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+After languishing for most of the year, let's determine if Apple has what it takes to join Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT) in the $4 trillion market cap club, and if the growth stock is a buy now.
+Image source: Getty Images.
+Apple's sudden pop came in response to its $100 billion manufacturing program. Announced last week, the program will create American jobs and onshore some of Apple's complex supply chain.
+Due to Apple CEO Tim Cook's visit to the White House and Apple's manufacturing commitment, President Trump said that Apple would be 100% exempt from a specific tariff on imported semiconductors. The potential for Apple to reduce its costly tariff expense, and maybe even get government support for its onshoring efforts, is undoubtedly a boon for the company's near-term prospects.
+Apple isn't the only mega-cap company that is trying to work with the current administration on tariffs. On Monday, reports indicated that Nvidia made a deal with President Trump, allowing the chipmaker to resume exporting its H20 chips in exchange for giving the U.S. government 15% of its revenue from China. The H20 is a scaled-down version of Nvidia's most advanced chips, which are custom-built for Chinese markets to comply with trade restrictions. The current administration intends to retain certain tariffs, but it also appears willing to negotiate deals with big businesses.
+Apple's manufacturing news is positive, based on the near-term impact of tariffs. The investment could help Apple reduce its sensitivity to trade tensions and geopolitical risk. However, it's unclear how it impacts Apple's long-term investment thesis. Apple has mastered the art of managing a global supply chain to achieve cost advantages and boost its profit margins. Onshoring some of its supply chain could lead to higher costs.
+However, Apple has yet to make a meaningful splash in artificial intelligence (AI) -- which is one of the main reasons why the tech giant has been lagging behind the performance of other, more defined AI winners like Nvidia and Microsoft.
+In Apple's defense, the company has built on Apple Intelligence and released a new design update called Liquid Glass. Overall, the market is not impressed with the company's AI efforts, considering how sluggish Apple's growth has been in recent years.
+Apple has heavily relied on its high-margin services segment and stock buybacks to drive earnings to offset weak results from its product segment. Apple's services, which include iCloud, Apple Music, and Apple TV+, have been the standout for years now. But Apple's bottom line depends more on key products, like iPhone, Mac, iPad, and wearables.
+Investors breathed a sigh of relief after Apple's latest quarter -- the third quarter of fiscal 2025 -- which showed a significant improvement in its product segment. Revenue grew 10% and diluted earnings per share (EPS) jumped 12% including double-digit growth in iPhone, Mac, and services. Despite the solid quarter, Apple's net income has slightly declined over the last three years, so its earnings are only up due to buybacks. But the stock price has gone up substantially, which has made Apple relatively expensive.
+Apple's results are headed in the right direction, but the valuation is far from cheap. In fact, Apple's forward price-to-earnings (P/E) ratio, which is the stock price divided by analyst consensus EPS estimates over the next 12 months, is higher than its five-year and 10-year median P/E ratios. Even if Apple performs as expected and the stock price doesn't move for a year, it will still be relatively expensive.
+AAPL PE Ratio data by YCharts.
+Apple is taking the right approach to integrating AI across its product suite. Apple's competitive advantages are its design, user-friendly products, seamless integration of software and hardware, and comprehensive product offerings for consumers and businesses. In other words, the everyday usefulness of Apple's AI features is the most important performance indicator.
+Investors who agree with Apple's deliberate approach to AI may still want to consider buying the stock now, despite the premium valuation. However, given how pricey Apple is, its road to $4 trillion in market cap will likely need to come from earnings growth rather than valuation expansion.
+With a market cap of $3.418 trillion at the time of this writing, Apple would have to jump 17% to cross $4 trillion. It could certainly grow earnings by that much in a year or two. And if investors like what the company is doing with AI, it could maintain its higher-than-historical valuation.
+All told, I expect Apple to cross $4 trillion in market cap by the end of 2026 -- but investors shouldn't expect the company to get there overnight -- even after adding $392 billion in market cap in just three days.
+Before you buy stock in Apple, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Apple wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Apple, Home Depot, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.
+| 1 hour | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Apples U.S. manufacturing investment could lower its tariff expense. The companys results are improving, but growth is still sluggish. Apple needs to justify its lofty valuation with AI related product upgrades that are well received by its diverse user base. After closing at $202.69 per share on Aug. 5, Apple (NASDAQ: AAPL) stock soared a staggering 13% in just three days to finish Aug. 8 at $229.09 per share. The move pole vaulted the tech giant's market cap to $3.404 trillion a whopping $394 billion gain. That's like creating a company the size of Home Depot out of thin air. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More After languishing for most of the year, let's determine if Apple has what it takes to join Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT) in the $4 trillion market cap club, and if the growth stock is a buy now. Image source: Getty Images. Apple's sudden pop came in response to its $100 billion manufacturing program. Announced last week, the program will create American jobs and onshore some of Apple's complex supply chain. Due to Apple CEO Tim Cook's visit to the White House and Apple's manufacturing commitment, President Trump said that Apple would be 100% exempt from a specific tariff on imported semiconductors. The potential for Apple to reduce its costly tariff expense, and maybe even get government support for its onshoring efforts, is undoubtedly a boon for the company's near term prospects. Apple isn't the only mega cap company that is trying to work with the current administration on tariffs. On Monday, reports indicated that Nvidia made a deal with President Trump, allowing the chipmaker to resume exporting its H20 chips in exchange for giving the U.S. government 15% of its revenue from China. The H20 is a scaled down version of Nvidia's most advanced chips, which are custom built for Chinese markets to comply with trade restrictions. The current administration intends to retain certain tariffs, but it also appears willing to negotiate deals with big businesses. Apple's manufacturing news is positive, based on the near term impact of tariffs. The investment could help Apple reduce its sensitivity to trade tensions and geopolitical risk. However, it's unclear how it impacts Apple's long term investment thesis. Apple has mastered the art of managing a global supply chain to achieve cost advantages and boost its profit margins. Onshoring some of its supply chain could lead to higher costs. However, Apple has yet to make a meaningful splash in artificial intelligence (AI) which is one of the main reasons why the tech giant has been lagging behind the performance of other, more defined AI winners like Nvidia and Microsoft. In Apple's defense, the company has built on Apple Intelligence and released a new design update called Liquid Glass. Overall, the market is not impressed with the company's AI efforts, considering how sluggish Apple's growth has been in recent years. Apple has heavily relied on its high margin services segment and stock buybacks to drive earnings to offset weak results from its product segment. Apple's services, which include iCloud, Apple Music, and Apple TV+, have been the standout for years now. But Apple's bottom line depends more on key products, like iPhone, Mac, iPad, and wearables. Investors breathed a sigh of relief after Apple's latest quarter the third quarter of fiscal 2025 which showed a significant improvement in its product segment. Revenue grew 10% and diluted earnings per share (EPS) jumped 12% including double digit growth in iPhone, Mac, and services. Despite the solid quarter, Apple's net income has slightly declined over the last three years, so its earnings are only up due to buybacks. But the stock price has gone up substantially, which has made Apple relatively expensive. Apple's results are headed in the right direction, but the valuation is far from cheap. In fact, Apple's forward price to earnings (P/E) ratio, which is the stock price divided by analyst consensus EPS estimates over the next 12 months, is higher than its five year and 10 year median P/E ratios. Even if Apple performs as expected and the stock price doesn't move for a year, it will still be relatively expensive. AAPL PE Ratio data by YCharts. Apple is taking the right approach to integrating AI across its product suite. Apple's competitive advantages are its design, user friendly products, seamless integration of software and hardware, and comprehensive product offerings for consumers and businesses. In other words, the everyday usefulness of Apple's AI features is the most important performance indicator. Investors who agree with Apple's deliberate approach to AI may still want to consider buying the stock now, despite the premium valuation. However, given how pricey Apple is, its road to $4 trillion in market cap will likely need to come from earnings growth rather than valuation expansion. With a market cap of $3.418 trillion at the time of this writing, Apple would have to jump 17% to cross $4 trillion. It could certainly grow earnings by that much in a year or two. And if investors like what the company is doing with AI, it could maintain its higher than historical valuation. All told, I expect Apple to cross $4 trillion in market cap by the end of 2026 but investors shouldn't expect the company to get there overnight even after adding $392 billion in market cap in just three days. Before you buy stock in Apple, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Apple wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Apple, Home Depot, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. 1 hour Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45885.29513888889</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Don't Make This Common Investing Mistake When Buying S&amp;P 500 Stocks at All-Time Highs</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142391/dont-make-this-common-investing-mistake-when-buying-sp-500-stocks-at-all-time-highs</t>
+        </is>
+      </c>
+      <c r="E307" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Key Points
+Buying stocks at all-time highs goes against the instinct to get a good value.
+Over the long term, earnings drive stock prices higher or lower.
+Nvidia and Microsoft are examples of companies with stock prices that have gone up because the fundamentals have improved.
+At the time of this writing, the S&amp;P 500 (SNPINDEX: ^GSPC) is less than half a percentage point off its all-time high. With a 9.7% year-to-date gain, the index is on track to have another solid year, despite a brutal sell-off earlier this spring.
+The S&amp;P 500 is now up over threefold in the last decade and more than 50% in the last three years -- which may make some investors hesitant to buy stocks at all-time highs. Here's the best way to approach investing in the stock market at elevated levels, including a major mistake worth avoiding.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Stocks aren't like consumer goods
+One of the most common mistakes when investing in a stock after a major run-up is assuming it's expensive, just because its price is higher.
+Stocks represent partial ownership in businesses and aren't commodities or household goods. If the cost of a Toyota Camry suddenly jumped to double that of the Honda Accord, then Camry sales would likely plummet, as many buyers would view the Camry as overpriced.
+Stocks don't work like that. They aren't products with set specifications and design elements, but evolve as the business evolves. Sometimes, a business can reinvent itself, leading its stock price to surge for all the right reasons. Two examples of this dynamic hiding in plain sight are Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT).
+Transformational growth
+Nvidia was founded in the early 1990s to create 3D graphics for the gaming and multimedia markets. Recently, the company's data center segment has surpassed its gaming and professional visualization segment.
+In Nvidia's most recent quarter -- the first quarter fiscal 2026 -- data center revenue made up 88.7% of total revenue. The company may have started as a gaming company, but it's something entirely different today.
+Valuing Nvidia based on what it was rather than where it's going would have made the stock look expensive at any point over the last few years. So far, Nvidia has backed up the torrid ascent of its stock price with earnings growth, and there's reason to believe that can continue.
+Microsoft hasn't undergone as dramatic a transformation as Nvidia. The core applications that make up the Microsoft 365 software suite are nothing new, and Microsoft's cloud computing platform Azure has been a major player in the space for over a decade. However, the company's revenue growth rate and profit margin are on another level -- which is driving its surging stock price.
+Microsoft is achieving these incredible results largely due to growing demand for Azure and the company's integration of artificial intelligence (AI) across its business, from legacy software to cloud, Azure OpenAI, gaming, electronics, and more. It has leveraged AI to enhance its products and services, and that's driving margin growth.
+Like Nvidia, Microsoft is a good example of a stock at an all-time high because the underlying business is doing well and is expected to continue doing well.
+Balancing quality and valuations
+When a major index like the S&amp;P 500 is near an all-time high and coming off an extended period of outsized gains, the market is viewed as expensive. However, it doesn't mean that all stocks are overvalued.
+There are plenty of S&amp;P 500 components at multiyear lows, and there are many that may have run up too far, too fast, to where their valuations are getting separated from fundamentals. The key is to stick with the companies that can justify their valuations because they have proven business models, impeccable growth prospects, or a combination of the two.
+Buying stocks like Nvidia and Microsoft after their massive gains isn't a bad idea, but only if you believe the results are here to stay and can be built upon.
+Nvidia and Microsoft make up a combined 14.6% of the S&amp;P 500. Throw in the rest of the "Ten Titans" -- Apple, Amazon, Alphabet, Meta Platforms, Broadcom, Tesla, Oracle, and Netflix -- and that's 39% of the index. Investing in the S&amp;P 500 at an all-time high inherently means that you believe the companies leading the index are still good buys.
+The higher the valuation of a stock or exchange-traded fund (ETF), the more conviction you need to justify paying a premium. If there's a terrific company on sale, you don't need that much to go right to make a solid investment case.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Key Points Buying stocks at all time highs goes against the instinct to get a good value. Over the long term, earnings drive stock prices higher or lower. Nvidia and Microsoft are examples of companies with stock prices that have gone up because the fundamentals have improved. At the time of this writing, the S&amp;P 500 (SNPINDEX: ^GSPC) is less than half a percentage point off its all time high. With a 9.7% year to date gain, the index is on track to have another solid year, despite a brutal sell off earlier this spring. The S&amp;P 500 is now up over threefold in the last decade and more than 50% in the last three years which may make some investors hesitant to buy stocks at all time highs. Here's the best way to approach investing in the stock market at elevated levels, including a major mistake worth avoiding. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Stocks aren't like consumer goods One of the most common mistakes when investing in a stock after a major run up is assuming it's expensive, just because its price is higher. Stocks represent partial ownership in businesses and aren't commodities or household goods. If the cost of a Toyota Camry suddenly jumped to double that of the Honda Accord, then Camry sales would likely plummet, as many buyers would view the Camry as overpriced. Stocks don't work like that. They aren't products with set specifications and design elements, but evolve as the business evolves. Sometimes, a business can reinvent itself, leading its stock price to surge for all the right reasons. Two examples of this dynamic hiding in plain sight are Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT). Transformational growth Nvidia was founded in the early 1990s to create 3D graphics for the gaming and multimedia markets. Recently, the company's data center segment has surpassed its gaming and professional visualization segment. In Nvidia's most recent quarter the first quarter fiscal 2026 data center revenue made up 88.7% of total revenue. The company may have started as a gaming company, but it's something entirely different today. Valuing Nvidia based on what it was rather than where it's going would have made the stock look expensive at any point over the last few years. So far, Nvidia has backed up the torrid ascent of its stock price with earnings growth, and there's reason to believe that can continue. Microsoft hasn't undergone as dramatic a transformation as Nvidia. The core applications that make up the Microsoft 365 software suite are nothing new, and Microsoft's cloud computing platform Azure has been a major player in the space for over a decade. However, the company's revenue growth rate and profit margin are on another level which is driving its surging stock price. Microsoft is achieving these incredible results largely due to growing demand for Azure and the company's integration of artificial intelligence (AI) across its business, from legacy software to cloud, Azure OpenAI, gaming, electronics, and more. It has leveraged AI to enhance its products and services, and that's driving margin growth. Like Nvidia, Microsoft is a good example of a stock at an all time high because the underlying business is doing well and is expected to continue doing well. Balancing quality and valuations When a major index like the S&amp;P 500 is near an all time high and coming off an extended period of outsized gains, the market is viewed as expensive. However, it doesn't mean that all stocks are overvalued. There are plenty of S&amp;P 500 components at multiyear lows, and there are many that may have run up too far, too fast, to where their valuations are getting separated from fundamentals. The key is to stick with the companies that can justify their valuations because they have proven business models, impeccable growth prospects, or a combination of the two. Buying stocks like Nvidia and Microsoft after their massive gains isn't a bad idea, but only if you believe the results are here to stay and can be built upon. Nvidia and Microsoft make up a combined 14.6% of the S&amp;P 500. Throw in the rest of the "Ten Titans" Apple, Amazon, Alphabet, Meta Platforms, Broadcom, Tesla, Oracle, and Netflix and that's 39% of the index. Investing in the S&amp;P 500 at an all time high inherently means that you believe the companies leading the index are still good buys. The higher the valuation of a stock or exchange traded fund (ETF), the more conviction you need to justify paying a premium. If there's a terrific company on sale, you don't need that much to go right to make a solid investment case. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45885.29166666666</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Trumps unprecedented, potentially unconstitutional deal with Nvidia and AMD, explained: Alexander Hamilton would approve</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/trump-unprecedented-potentially-unconstitutional-deal-110000020.html</t>
+        </is>
+      </c>
+      <c r="E308" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45885.29166666666</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Nvidia and AMDs special treatment from Trump is shaking up an already tangled global chip supply chain</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-special-treatment-trump-110000802.html</t>
+        </is>
+      </c>
+      <c r="E309" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45885.25208333333</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Meta spends more guarding Mark Zuckerberg than Apple, Nvidia, Microsoft, Amazon, and Alphabet do for their own CEOscombined</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/meta-spends-more-guarding-mark-100300414.html</t>
+        </is>
+      </c>
+      <c r="E310" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45885.24513888889</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Chipmakers Nvidia and AMD to pay 15% of China revenue to US government</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/91630ab4-07a9-3a15-85c5-0f54a7bfd2f5/chipmakers-nvidia-and-amd-to.html</t>
+        </is>
+      </c>
+      <c r="E311" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45885.21319444444</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>5 Brilliant Quantum Computing Stocks to Buy Right Now</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142382/5-brilliant-quantum-computing-stocks-to-buy-right-now</t>
+        </is>
+      </c>
+      <c r="E312" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Key Points
+Some of the legacy tech giants are participating in quantum computing.
+That is one great way to bridge the gap between AI and quantum technology.
+But quantum computing pure plays could provide massive upside if they work out.
+Quantum computing isn't an easy area to invest in right now. Most companies agree that 2030 will be a turning point for the industry and commercially viable quantum computers will be available then. That's still a ways off, and investors need to be careful not to get in too early; otherwise, there could be a significant opportunity cost that would be incurred by investing in quantum computing instead of other possible areas.
+Still, I think there could be a huge opportunity if you invest in the right quantum computing stocks right now. I've got five stocks that can be purchased in a group that ensures investors get exposure to quantum computing as well as current market trends, and I think it's highly likely that this cohort outperforms the market over the next few years.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Legacy tech players
+Quantum computing isn't an industry reserved for start-ups; some of the biggest names in tech are also investing in this technology. Two of the biggest are Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) and Microsoft (NASDAQ: MSFT). Both of these companies are developing their own quantum computing chip in-house, which could result in massive profits down the road if each develops a viable quantum computing solution.
+Both companies will use quantum computing for themselves, but will also offer it to clients through their respective cloud computing services. Right now, the big growth drivers for cloud computing are the migration of traditional workloads and artificial intelligence, but quantum computing could provide another growth driver. Microsoft's CEO stated that he believes quantum computing will be the next accelerator in the cloud, which could mean further growth for both Alphabet and Microsoft.
+Another legacy tech player that will benefit is Nvidia (NASDAQ: NVDA). While Nvidia isn't directly developing quantum processing units, it's helping quantum computing players take a hybrid computing approach between traditional and quantum computing methods. It's also developing a quantum-focused version of its CUDA software, which helped it establish dominance in the traditional computing landscape.
+All three of these companies are excelling in the AI-driven market, but also have long-term investments ongoing in the quantum world. By investing in these three today, investors can ensure they have exposure to both current and emerging trends. But there are also a few pure plays that look intriguing.
+Quantum computing pure plays
+I also like adding picks like IonQ (NYSE: IONQ) and D-Wave Quantum (NYSE: QBTS) into this basket, because it gives investors the massive upside of a pure-play quantum computing company. These two aren't very big companies, but if they make quantum computing viable, they could turn into huge winners for investors.
+While some may argue these two are due to be outspent and outclassed by competitors like Alphabet and Microsoft, they are actually taking a different approach to quantum computing entirely.
+Most quantum computing competitors like Alphabet and Microsoft are using a superconducting approach for their chips. However, IonQ is using a trapped ion technique, and D-Wave is using a quantum annealing approach. All three of these approaches have their use cases, but it will be some time before investors know which is the best.
+By having exposure to all three, investors have the best chance to make a profit in this emerging industry. Although we're still a few years out from quantum computing relevance, I think owning a basket of legacy and emerging players is a smart way to ensure investors make a great profit.
+Should you invest $1,000 in IonQ right now?
+Before you buy stock in IonQ, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and IonQ wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keithen Drury has positions in Alphabet and Nvidia. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Key Points Some of the legacy tech giants are participating in quantum computing. That is one great way to bridge the gap between AI and quantum technology. But quantum computing pure plays could provide massive upside if they work out. Quantum computing isn't an easy area to invest in right now. Most companies agree that 2030 will be a turning point for the industry and commercially viable quantum computers will be available then. That's still a ways off, and investors need to be careful not to get in too early; otherwise, there could be a significant opportunity cost that would be incurred by investing in quantum computing instead of other possible areas. Still, I think there could be a huge opportunity if you invest in the right quantum computing stocks right now. I've got five stocks that can be purchased in a group that ensures investors get exposure to quantum computing as well as current market trends, and I think it's highly likely that this cohort outperforms the market over the next few years. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Legacy tech players Quantum computing isn't an industry reserved for start ups; some of the biggest names in tech are also investing in this technology. Two of the biggest are Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) and Microsoft (NASDAQ: MSFT). Both of these companies are developing their own quantum computing chip in house, which could result in massive profits down the road if each develops a viable quantum computing solution. Both companies will use quantum computing for themselves, but will also offer it to clients through their respective cloud computing services. Right now, the big growth drivers for cloud computing are the migration of traditional workloads and artificial intelligence, but quantum computing could provide another growth driver. Microsoft's CEO stated that he believes quantum computing will be the next accelerator in the cloud, which could mean further growth for both Alphabet and Microsoft. Another legacy tech player that will benefit is Nvidia (NASDAQ: NVDA). While Nvidia isn't directly developing quantum processing units, it's helping quantum computing players take a hybrid computing approach between traditional and quantum computing methods. It's also developing a quantum focused version of its CUDA software, which helped it establish dominance in the traditional computing landscape. All three of these companies are excelling in the AI driven market, but also have long term investments ongoing in the quantum world. By investing in these three today, investors can ensure they have exposure to both current and emerging trends. But there are also a few pure plays that look intriguing. Quantum computing pure plays I also like adding picks like IonQ (NYSE: IONQ) and D Wave Quantum (NYSE: QBTS) into this basket, because it gives investors the massive upside of a pure play quantum computing company. These two aren't very big companies, but if they make quantum computing viable, they could turn into huge winners for investors. While some may argue these two are due to be outspent and outclassed by competitors like Alphabet and Microsoft, they are actually taking a different approach to quantum computing entirely. Most quantum computing competitors like Alphabet and Microsoft are using a superconducting approach for their chips. However, IonQ is using a trapped ion technique, and D Wave is using a quantum annealing approach. All three of these approaches have their use cases, but it will be some time before investors know which is the best. By having exposure to all three, investors have the best chance to make a profit in this emerging industry. Although we're still a few years out from quantum computing relevance, I think owning a basket of legacy and emerging players is a smart way to ensure investors make a great profit. Should you invest $1,000 in IonQ right now? Before you buy stock in IonQ, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and IonQ wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keithen Drury has positions in Alphabet and Nvidia. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45885.20902777778</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>The race for sovereign AI is intensifying. Heres what you need to know</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/race-sovereign-ai-intensifying-know-154054977.html</t>
+        </is>
+      </c>
+      <c r="E313" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45885.20138888889</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>5 Top Artificial Intelligence Stocks to Buy in August</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142380/5-top-artificial-intelligence-stocks-to-buy-in-august</t>
+        </is>
+      </c>
+      <c r="E314" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Nvidia and Broadcom are AI infrastructure leaders.
+Palantir's AI platform is driving huge growth for the company.
+Alphabet and GitLab are two AI stocks that are still cheap.
+Artificial intelligence (AI) continues to be reshaping the world we live in, which can be both exciting and scary. It's also reshaping the stock market, and it is certainly an area you want to invest in.
+Let's look at the stocks of five AI leaders that would make top stock buys this month.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+Image source: Getty Images.
+Nvidia (NASDAQ: NVDA) remains the king of AI infrastructure. Its graphics processing units (GPUs) power most AI workloads worldwide, and in the first quarter, it commanded an astonishing 92% of the GPU market. What really sets it apart is its CUDA software platform, which it planted into universities and research labs years before AI went mainstream. That early push created a generation of developers trained on its tools and libraries built on top of its platform, building a moat that rivals struggle to cross.
+Nvidia has also accelerated its product cycle, planning new chip launches annually to stay ahead of the competition. Its growth opportunities also go beyond data centers, with the automotive market another big opportunity, thanks to the rise of self-driving and robotaxis.
+Nvidia's mix of market dominance, software moat, and expansion into new markets keeps it firmly at the center of AI.
+Palantir Technologies (NASDAQ: PLTR) started as a critical analytics partner to U.S. government agencies but is now making its mark in commercial markets. Its Artificial Intelligence Platform (AIP) integrates data from numerous sources into an "ontology," allowing AI models to produce clear, actionable results.
+AIP is essentially becoming an AI operating system, making it a vital platform as companies begin to use AI in their operations. The strength of AIP could be seen in its Q2 results, as the company's U.S. commercial revenue surged 93%, while its total deal value more than doubled and its customer base climbed 43%.
+Given the breadth of use cases across very different industries that AIP can handle, Palantir has a long runway of growth in front of it. The company has continued to see accelerating revenue growth, and the best part is that many of its customers are still in their early stages of usage.
+As an essential component of the emerging AI economy, Palantir has the potential to grow into one of the largest companies in the world.
+Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG) is proving that AI can strengthen its core businesses. Search has gained momentum with AI Overviews, which is now being used by over 2 billion people a month, helping drive a 12% year-over-year increase in search revenue last quarter. Google Cloud is another major beneficiary of AI, with its revenue jumping 32% and operating profit more than doubling in Q2, thanks to strong AI demand on its Vertex platform.
+Another area that is often overlooked is Alphabet's Tensor Processing Units (TPUs). As inference performance per dollar starts becoming one of the most important factors in running AI models, Alphabet has a nice advantage with its custom chips.
+In addition to search and cloud computing, Alphabet is also seeing solid contributions from its other businesses. YouTube ad revenue grew 13% last quarter, with Shorts leading the way. Meanwhile, Waymo is picking up steam, rolling out its robotaxi services to new cities across the U.S.
+From a valuation perspective, Alphabet is one of the most attractive AI stocks in the market, trading at a forward P/E just over 20. This makes it a must-own stock.
+Rather than competing directly with Nvidia with GPUs, chipmaker Broadcom (NASDAQ: AVGO) is playing to its strengths in AI networking and custom chip design. Its Ethernet switches and other networking components are critical for moving vast amounts of data between AI clusters. Demand here is booming, with its AI networking revenue up 70% in Q1.
+The real prize, though, may be its work on custom application-specific integrated circuits (ASICs). Broadcom helped develop Alphabet's TPUs and is now designing chips for multiple hyperscalers (companies with massive data centers), with management estimating its top three customers alone could represent a $60 billion to $90 billion opportunity in fiscal 2027.
+Its recent acquisition of VMware adds another growth lever, with its Cloud Foundation platform helping enterprises manage AI workloads across hybrid cloud environments. Between its leadership in data center networking components, custom chip expertise, and virtualization software, Broadcom is becoming one of the most important players in AI infrastructure.
+GitLab (NASDAQ: GTLB) is evolving from a code repository into a full-fledged AI-powered software development platform. Its GitLab 18 release brought more than 30 upgrades, including Duo Agent, which can automate testing, deployment, security, and monitoring. That's important, because developers spend only a fraction of their time writing code. Automating the rest of the workflow can dramatically increase productivity.
+GitLab has delivered steady 25%-plus revenue growth since going public, with Q1 sales rising 27% year over year. The value of its platform in an AI-driven development world opens the door to a possible shift from seat-based to consumption-based pricing, which could drive revenue even higher. With AI changing how software is built, GitLab's end-to-end approach positions it as a key player in enterprise software development.
+As investors worry about the impact of AI on software, GitLab's stock has fallen to a very attractive valuation of a forward price-to-sales (P/S) ratio of 7 times the 2025 analyst estimates.
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Geoffrey Seiler has positions in Alphabet and GitLab. The Motley Fool has positions in and recommends Alphabet, GitLab, Nvidia, and Palantir Technologies. The Motley Fool recommends Broadcom. The Motley Fool has a disclosure policy.
+| 1 hour | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Nvidia and Broadcom are AI infrastructure leaders. Palantir's AI platform is driving huge growth for the company. Alphabet and GitLab are two AI stocks that are still cheap. Artificial intelligence (AI) continues to be reshaping the world we live in, which can be both exciting and scary. It's also reshaping the stock market, and it is certainly an area you want to invest in. Let's look at the stocks of five AI leaders that would make top stock buys this month. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More Image source: Getty Images. Nvidia (NASDAQ: NVDA) remains the king of AI infrastructure. Its graphics processing units (GPUs) power most AI workloads worldwide, and in the first quarter, it commanded an astonishing 92% of the GPU market. What really sets it apart is its CUDA software platform, which it planted into universities and research labs years before AI went mainstream. That early push created a generation of developers trained on its tools and libraries built on top of its platform, building a moat that rivals struggle to cross. Nvidia has also accelerated its product cycle, planning new chip launches annually to stay ahead of the competition. Its growth opportunities also go beyond data centers, with the automotive market another big opportunity, thanks to the rise of self driving and robotaxis. Nvidia's mix of market dominance, software moat, and expansion into new markets keeps it firmly at the center of AI. Palantir Technologies (NASDAQ: PLTR) started as a critical analytics partner to U.S. government agencies but is now making its mark in commercial markets. Its Artificial Intelligence Platform (AIP) integrates data from numerous sources into an "ontology," allowing AI models to produce clear, actionable results. AIP is essentially becoming an AI operating system, making it a vital platform as companies begin to use AI in their operations. The strength of AIP could be seen in its Q2 results, as the company's U.S. commercial revenue surged 93%, while its total deal value more than doubled and its customer base climbed 43%. Given the breadth of use cases across very different industries that AIP can handle, Palantir has a long runway of growth in front of it. The company has continued to see accelerating revenue growth, and the best part is that many of its customers are still in their early stages of usage. As an essential component of the emerging AI economy, Palantir has the potential to grow into one of the largest companies in the world. Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG) is proving that AI can strengthen its core businesses. Search has gained momentum with AI Overviews, which is now being used by over 2 billion people a month, helping drive a 12% year over year increase in search revenue last quarter. Google Cloud is another major beneficiary of AI, with its revenue jumping 32% and operating profit more than doubling in Q2, thanks to strong AI demand on its Vertex platform. Another area that is often overlooked is Alphabet's Tensor Processing Units (TPUs). As inference performance per dollar starts becoming one of the most important factors in running AI models, Alphabet has a nice advantage with its custom chips. In addition to search and cloud computing, Alphabet is also seeing solid contributions from its other businesses. YouTube ad revenue grew 13% last quarter, with Shorts leading the way. Meanwhile, Waymo is picking up steam, rolling out its robotaxi services to new cities across the U.S. From a valuation perspective, Alphabet is one of the most attractive AI stocks in the market, trading at a forward P/E just over 20. This makes it a must own stock. Rather than competing directly with Nvidia with GPUs, chipmaker Broadcom (NASDAQ: AVGO) is playing to its strengths in AI networking and custom chip design. Its Ethernet switches and other networking components are critical for moving vast amounts of data between AI clusters. Demand here is booming, with its AI networking revenue up 70% in Q1. The real prize, though, may be its work on custom application specific integrated circuits (ASICs). Broadcom helped develop Alphabet's TPUs and is now designing chips for multiple hyperscalers (companies with massive data centers), with management estimating its top three customers alone could represent a $60 billion to $90 billion opportunity in fiscal 2027. Its recent acquisition of VMware adds another growth lever, with its Cloud Foundation platform helping enterprises manage AI workloads across hybrid cloud environments. Between its leadership in data center networking components, custom chip expertise, and virtualization software, Broadcom is becoming one of the most important players in AI infrastructure. GitLab (NASDAQ: GTLB) is evolving from a code repository into a full fledged AI powered software development platform. Its GitLab 18 release brought more than 30 upgrades, including Duo Agent, which can automate testing, deployment, security, and monitoring. That's important, because developers spend only a fraction of their time writing code. Automating the rest of the workflow can dramatically increase productivity. GitLab has delivered steady 25% plus revenue growth since going public, with Q1 sales rising 27% year over year. The value of its platform in an AI driven development world opens the door to a possible shift from seat based to consumption based pricing, which could drive revenue even higher. With AI changing how software is built, GitLab's end to end approach positions it as a key player in enterprise software development. As investors worry about the impact of AI on software, GitLab's stock has fallen to a very attractive valuation of a forward price to sales (P/S) ratio of 7 times the 2025 analyst estimates. Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Geoffrey Seiler has positions in Alphabet and GitLab. The Motley Fool has positions in and recommends Alphabet, GitLab, Nvidia, and Palantir Technologies. The Motley Fool recommends Broadcom. The Motley Fool has a disclosure policy. 1 hour Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45885.19722222222</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Double the Disruption: The 3 Best Stocks to Buy Now to Profit From Both AI and Quantum Computing</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142379/double-the-disruption-the-3-best-stocks-to-buy-now-to-profit-from-both-ai-and-quantum-computing</t>
+        </is>
+      </c>
+      <c r="E315" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Key Points
+Alphabet has multiple ways to profit from AI and has achieved two key quantum computing milestones.
+Microsoft has integrated AI throughout its software and might have developed the "transistor for the quantum age."
+Nvidia is a critical player in AI and is positioning itself to be a big winner in quantum computing.
+Disruption isn't a dirty word for investors. Sure, some companies can fade away as their businesses are rendered obsolete by new technologies. However, others flourish and make smart investors a lot of money over time.
+I believe we're currently in the early stages of two massive disruptions. Artificial intelligence (AI) holds the potential to transform our world in too many ways to count. Quantum computing could accelerate AI advances while also revolutionizing finance, healthcare, logistics, and more.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+Although these are distinct disruptive technologies, you don't have to invest in them separately. Here are my picks for the three best stocks to buy now to profit from both AI and quantum computing.
+Image source: Getty Images.
+1. Alphabet
+Google parent Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) has been a pioneer in AI for years. The company developed the "T" (transformers) in ChatGPT. Its 2014 acquisition of DeepMind was, in retrospect, a pivotal move. Today, Google Gemini Pro ranks among the world's most powerful large language models (LLMs).
+Alphabet has multiple ways to profit from AI. Google Cloud is the fastest-growing major cloud services provider thanks to a massive AI tailwind. Google Search and YouTube use AI to boost ad revenue. Waymo is a leader in autonomous ride-hailing (robotaxis).
+But the company is also a major player in quantum computing. Google Quantum AI (note that both disruptive technologies are in the unit's name) has already notched two key quantum computing milestones. Its Sycamore chip achieved quantum supremacy (solving a problem in relatively short order that would take the most powerful classical computer an exceptionally long time) in 2019. The unit made a giant leap in quantum error correction (reducing errors by increasing the cubits) in 2023.
+I think it's a good bet that Alphabet will be one of the biggest winners in both AI and quantum computing over the long run. But this stock isn't a highly risky bet, in my view. The company is on track to generate close to $400 billion in revenue and more than $100 billion in profits this year.
+2. Microsoft
+Microsoft (NASDAQ: MSFT) arguably struck one of the best deals in business history by partnering with ChatGPT creator OpenAI back in 2022. The longtime technology giant has integrated OpenAI's AI models throughout its software suite.
+Like Alphabet, Microsoft is poised to benefit as organizations build and deploy AI applications in the cloud. Its Azure is the second-largest cloud services platform, behind only Amazon Web Services (AWS).
+Also like Alphabet, Microsoft is investing heavily in quantum computing. Earlier this year, the company introduced its Majorana 1 quantum chip, which uses a new type of material called a topoconductor. Microsoft thinks that topoconductors will pave the way for highly scalable, powerful quantum computers.
+Microsoft technical fellow Chetan Nayak believes that topoconductors might be the "transistor for the quantum age." If he's right, the company that dominated the PC software market could also dominate the quantum computing market.
+3. Nvidia
+Which company is the most essential player in AI today? There's a strong argument that it's Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs) remain in a league of their own in powering AI systems.
+Nvidia's customers include Alphabet and Microsoft, both of which use its GPUs extensively in their cloud platforms. And while rivals are trying desperately to knock Nvidia off its perch, the company's fast-paced development of new AI chips seems likely to keep it on top for years to come.
+However, Nvidia isn't developing quantum computers. How is investing in it a smart way to profit from both AI and quantum computing? The company is trying to make it easier for others to advance their quantum computing efforts through its NVIDIA Accelerated Quantum Computing (NVAQC) Research Center. Nvidia is also pairing its GPUs with quantum chips for a hybrid quantum-classical computing approach.
+Back in the gold rush days, the providers of picks and shovels often made more money than the gold miners themselves. Nvidia is positioning itself to be the pick-and-shovel investment of the quantum computing era.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keith Speights has positions in Alphabet and Microsoft. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Key Points Alphabet has multiple ways to profit from AI and has achieved two key quantum computing milestones. Microsoft has integrated AI throughout its software and might have developed the "transistor for the quantum age." Nvidia is a critical player in AI and is positioning itself to be a big winner in quantum computing. Disruption isn't a dirty word for investors. Sure, some companies can fade away as their businesses are rendered obsolete by new technologies. However, others flourish and make smart investors a lot of money over time. I believe we're currently in the early stages of two massive disruptions. Artificial intelligence (AI) holds the potential to transform our world in too many ways to count. Quantum computing could accelerate AI advances while also revolutionizing finance, healthcare, logistics, and more. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More Although these are distinct disruptive technologies, you don't have to invest in them separately. Here are my picks for the three best stocks to buy now to profit from both AI and quantum computing. Image source: Getty Images. 1. Alphabet Google parent Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) has been a pioneer in AI for years. The company developed the "T" (transformers) in ChatGPT. Its 2014 acquisition of DeepMind was, in retrospect, a pivotal move. Today, Google Gemini Pro ranks among the world's most powerful large language models (LLMs). Alphabet has multiple ways to profit from AI. Google Cloud is the fastest growing major cloud services provider thanks to a massive AI tailwind. Google Search and YouTube use AI to boost ad revenue. Waymo is a leader in autonomous ride hailing (robotaxis). But the company is also a major player in quantum computing. Google Quantum AI (note that both disruptive technologies are in the unit's name) has already notched two key quantum computing milestones. Its Sycamore chip achieved quantum supremacy (solving a problem in relatively short order that would take the most powerful classical computer an exceptionally long time) in 2019. The unit made a giant leap in quantum error correction (reducing errors by increasing the cubits) in 2023. I think it's a good bet that Alphabet will be one of the biggest winners in both AI and quantum computing over the long run. But this stock isn't a highly risky bet, in my view. The company is on track to generate close to $400 billion in revenue and more than $100 billion in profits this year. 2. Microsoft Microsoft (NASDAQ: MSFT) arguably struck one of the best deals in business history by partnering with ChatGPT creator OpenAI back in 2022. The longtime technology giant has integrated OpenAI's AI models throughout its software suite. Like Alphabet, Microsoft is poised to benefit as organizations build and deploy AI applications in the cloud. Its Azure is the second largest cloud services platform, behind only Amazon Web Services (AWS). Also like Alphabet, Microsoft is investing heavily in quantum computing. Earlier this year, the company introduced its Majorana 1 quantum chip, which uses a new type of material called a topoconductor. Microsoft thinks that topoconductors will pave the way for highly scalable, powerful quantum computers. Microsoft technical fellow Chetan Nayak believes that topoconductors might be the "transistor for the quantum age." If he's right, the company that dominated the PC software market could also dominate the quantum computing market. 3. Nvidia Which company is the most essential player in AI today? There's a strong argument that it's Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs) remain in a league of their own in powering AI systems. Nvidia's customers include Alphabet and Microsoft, both of which use its GPUs extensively in their cloud platforms. And while rivals are trying desperately to knock Nvidia off its perch, the company's fast paced development of new AI chips seems likely to keep it on top for years to come. However, Nvidia isn't developing quantum computers. How is investing in it a smart way to profit from both AI and quantum computing? The company is trying to make it easier for others to advance their quantum computing efforts through its NVIDIA Accelerated Quantum Computing (NVAQC) Research Center. Nvidia is also pairing its GPUs with quantum chips for a hybrid quantum classical computing approach. Back in the gold rush days, the providers of picks and shovels often made more money than the gold miners themselves. Nvidia is positioning itself to be the pick and shovel investment of the quantum computing era. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keith Speights has positions in Alphabet and Microsoft. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45885.18333333333</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Did Nvidia Make a Mistake by Selling SoundHound AI Stock? The Answer Might Surprise You.</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142377/did-nvidia-make-a-mistake-by-selling-soundhound-ai-stock-the-answer-might-surprise-you</t>
+        </is>
+      </c>
+      <c r="E316" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+SoundHound AI stock is generating blistering revenue growth right now, as some of the world's biggest brands adopt its conversational artificial intelligence software.
+Nvidia used to be a SoundHound shareholder, but the chip giant sold its entire stake towards the end of 2024.
+SoundHound stock is soaring right now, but that doesn't mean Nvidia made the wrong move.
+Nvidia (NASDAQ: NVDA) has become the world's largest company on the back of surging demand for its data center chips, which are the gold standard for developing artificial intelligence (AI) models. The chip giant occasionally puts its vast financial resources to work by investing in other AI companies, and SoundHound AI (NASDAQ: SOUN) was one of them.
+SoundHound is a specialist in conversational AI technologies, and its customers include some of the world's biggest brands. Nvidia first revealed its stake in the company in a 13-F filing with the Securities and Exchange Commission in February 2024, but the chipmaker had sold its entire position by December.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+SoundHound's revenue tripled during its most recent quarter, and its stock is up by a whopping 40% in the past month alone. Did Nvidia make a mistake by dumping its position? Read on for the surprising answer.
+Image source: Getty Images.
+SoundHound's conversational AI applications are popular in a variety of industries, but they are experiencing particularly high demand in quick-service restaurant chains and with automotive brands that want to include a powerful AI assistant in their new vehicles.
+In the restaurant space, SoundHound's Voice AI technology can accept customer orders autonomously in-store, over the phone, and in the drive-thru. It can also answer queries from employees, whether they need help making menu items or need clarity on a particular store policy. Chains like Chipotle, Krispy Kreme, and Papa John's are just a few of SoundHound's customers.
+In the automotive industry, companies like Hyundai and Stellantis (Chrysler, Jeep, and Dodge) are using SoundHound's Chat AI software in their latest vehicles. It can give drivers information about the weather, stocks, and everything in between with a simple voice command, and manufacturers can customize its personality to suit their brand.
+Last August, SoundHound acquired another conversational AI specialist called Amelia. The joint companies recently launched a new platform called Amelia 7, which allows businesses to create custom AI agents that can assist customers with their inquiries or even help employees troubleshoot technical issues. Of course, these agents can be controlled entirely with voice commands.
+SoundHound generated a record $42.6 million in total revenue during the second quarter of 2025 (ended June 30), which was a blistering 217% increase from the year-ago period.
+The strong result gave management the confidence to increase its full-year revenue guidance for 2025 from $167 million to $169 million (at the midpoint of the forecast range), which would be a 99% increase compared to 2024. That would mark an acceleration from the 85% growth SoundHound generated last year, highlighting the significant momentum in its business.
+But that growth is coming at a significant cost, because SoundHound continues to burn truckloads of cash. It lost $74.7 million on a generally accepted accounting principles (GAAP) basis during the second quarter, which was twice as much as it lost in the year-ago period.
+SoundHound did suffer a one-off, $31 million hit to its bottom line from a liability associated with one of its acquisitions during the quarter, but even after stripping it out -- along with every other one-off and non-cash expense -- the company still lost $11.8 million.
+SoundHound has a solid balance sheet with $230 million in cash on hand and no debt, so it can sustain losses of that size for the foreseeable future. However, the company will eventually have to prioritize profitability, or else it might need to raise capital, which could dilute existing shareholders. Cost cuts would almost certainly dent SoundHound's revenue growth, which is something for investors to keep in mind.
+Nvidia never told investors why it sold SoundHound stock, but if I had to speculate, I think its valuation likely had something to do with the decision. Its price-to-sales (P/S) ratio is trading at an eye-popping level of 48.6, which is more than a 50% premium to Nvidia's P/S ratio of 29.9.
+It was even more expensive when Nvidia sold it toward the end of 2024, because its P/S ratio was hovering near 100.
+SOUN PS Ratio data by YCharts
+SoundHound will quickly grow into its current valuation if its revenue continues to increase at such a blistering pace, but the financial results of companies in the early stages of commercialization are notoriously unpredictable, so there's no guarantee it will. Moreover, Nvidia is one of the highest quality companies in the world with a track record of success that spans decades, a rock-solid balance sheet, and surging profits, so I don't think SoundHound deserves to trade at a premium to the chip giant.
+Nvidia held 1.73 million SoundHound shares, which would've been worth around $27.7 million at the current price of $16. Given the chip giant's market cap of $4.4 trillion, a total loss would've been a mere rounding error. However, holding a stock with such a steep valuation opens the door to substantial downside if the underlying company falters, so I don't think Nvidia made a mistake by closing its position.
+Before you buy stock in SoundHound AI, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and SoundHound AI wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Anthony Di Pizio has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Chipotle Mexican Grill and Nvidia. The Motley Fool recommends the following options: short September 2025 $60 calls on Chipotle Mexican Grill. The Motley Fool has a disclosure policy.
+| 1 hour | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>SoundHound AI stock is generating blistering revenue growth right now, as some of the world's biggest brands adopt its conversational artificial intelligence software. Nvidia used to be a SoundHound shareholder, but the chip giant sold its entire stake towards the end of 2024. SoundHound stock is soaring right now, but that doesn't mean Nvidia made the wrong move. Nvidia (NASDAQ: NVDA) has become the world's largest company on the back of surging demand for its data center chips, which are the gold standard for developing artificial intelligence (AI) models. The chip giant occasionally puts its vast financial resources to work by investing in other AI companies, and SoundHound AI (NASDAQ: SOUN) was one of them. SoundHound is a specialist in conversational AI technologies, and its customers include some of the world's biggest brands. Nvidia first revealed its stake in the company in a 13 F filing with the Securities and Exchange Commission in February 2024, but the chipmaker had sold its entire position by December. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue SoundHound's revenue tripled during its most recent quarter, and its stock is up by a whopping 40% in the past month alone. Did Nvidia make a mistake by dumping its position? Read on for the surprising answer. Image source: Getty Images. SoundHound's conversational AI applications are popular in a variety of industries, but they are experiencing particularly high demand in quick service restaurant chains and with automotive brands that want to include a powerful AI assistant in their new vehicles. In the restaurant space, SoundHound's Voice AI technology can accept customer orders autonomously in store, over the phone, and in the drive thru. It can also answer queries from employees, whether they need help making menu items or need clarity on a particular store policy. Chains like Chipotle, Krispy Kreme, and Papa John's are just a few of SoundHound's customers. In the automotive industry, companies like Hyundai and Stellantis (Chrysler, Jeep, and Dodge) are using SoundHound's Chat AI software in their latest vehicles. It can give drivers information about the weather, stocks, and everything in between with a simple voice command, and manufacturers can customize its personality to suit their brand. Last August, SoundHound acquired another conversational AI specialist called Amelia. The joint companies recently launched a new platform called Amelia 7, which allows businesses to create custom AI agents that can assist customers with their inquiries or even help employees troubleshoot technical issues. Of course, these agents can be controlled entirely with voice commands. SoundHound generated a record $42.6 million in total revenue during the second quarter of 2025 (ended June 30), which was a blistering 217% increase from the year ago period. The strong result gave management the confidence to increase its full year revenue guidance for 2025 from $167 million to $169 million (at the midpoint of the forecast range), which would be a 99% increase compared to 2024. That would mark an acceleration from the 85% growth SoundHound generated last year, highlighting the significant momentum in its business. But that growth is coming at a significant cost, because SoundHound continues to burn truckloads of cash. It lost $74.7 million on a generally accepted accounting principles (GAAP) basis during the second quarter, which was twice as much as it lost in the year ago period. SoundHound did suffer a one off, $31 million hit to its bottom line from a liability associated with one of its acquisitions during the quarter, but even after stripping it out along with every other one off and non cash expense the company still lost $11.8 million. SoundHound has a solid balance sheet with $230 million in cash on hand and no debt, so it can sustain losses of that size for the foreseeable future. However, the company will eventually have to prioritize profitability, or else it might need to raise capital, which could dilute existing shareholders. Cost cuts would almost certainly dent SoundHound's revenue growth, which is something for investors to keep in mind. Nvidia never told investors why it sold SoundHound stock, but if I had to speculate, I think its valuation likely had something to do with the decision. Its price to sales (P/S) ratio is trading at an eye popping level of 48.6, which is more than a 50% premium to Nvidia's P/S ratio of 29.9. It was even more expensive when Nvidia sold it toward the end of 2024, because its P/S ratio was hovering near 100. SOUN PS Ratio data by YCharts SoundHound will quickly grow into its current valuation if its revenue continues to increase at such a blistering pace, but the financial results of companies in the early stages of commercialization are notoriously unpredictable, so there's no guarantee it will. Moreover, Nvidia is one of the highest quality companies in the world with a track record of success that spans decades, a rock solid balance sheet, and surging profits, so I don't think SoundHound deserves to trade at a premium to the chip giant. Nvidia held 1.73 million SoundHound shares, which would've been worth around $27.7 million at the current price of $16. Given the chip giant's market cap of $4.4 trillion, a total loss would've been a mere rounding error. However, holding a stock with such a steep valuation opens the door to substantial downside if the underlying company falters, so I don't think Nvidia made a mistake by closing its position. Before you buy stock in SoundHound AI, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and SoundHound AI wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Anthony Di Pizio has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Chipotle Mexican Grill and Nvidia. The Motley Fool recommends the following options: short September 2025 $60 calls on Chipotle Mexican Grill. The Motley Fool has a disclosure policy. 1 hour Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45885.12638888889</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>If I Could Only Buy and Hold a Single Stock, This Would Be It</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142361/if-i-could-only-buy-and-hold-a-single-stock-this-would-be-it</t>
+        </is>
+      </c>
+      <c r="E317" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Key Points
+I'm a long-term buy-and-hold investor, and my portfolio is filled with dozens of growth stocks.
+If I had to pick just a single stock, it would have to be Nvidia.
+The company checks many of the boxes of a successful investment and trades for an attractive valuation.
+Let's address the elephant in the room: The idea of buying and holding just one stock is something I would never do, and frankly, the thought seems absurd to me. My portfolio is composed of dozens of stocks, as it provides me with a level of safety and diversification that lets me sleep at night. Even if one of my largest positions falls 30% or 40% (and they have), my entire portfolio only loses between 1% and 2%. I can't imagine a scenario where I would limit myself to one stock, and I recommend building a portfolio of 15 to 20 stocks at a minimum.
+That said, and purely as a thought exercise, if I were to hold only one stock, it would have to meet certain criteria. I would want a company that is an industry leader, with a large addressable market and a long track record of performance. I would want to own a company that's a proven leader -- a business fueled by innovation, strong secular tailwinds, and a history of financial success.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+If I could only buy and hold a single stock, Nvidia (NASDAQ: NVDA) would have to be it.
+Image source: Getty Images.
+Checks all the right boxes
+There's certainly a lot to like about Nvidia, and it checks all the right boxes. The company has long been a leader in the video game market, as its graphics processing units (GPUs) are the top choice among hardcore and casual gamers alike. Nvidia is the undisputed leader in the discrete desktop GPU space, controlling 92% of the market, according to data compiled by Jon Peddie Research.
+Nvidia was also able to capitalize on the advent of artificial intelligence (AI), as its GPUs are equally adept at ferrying data around the ether at lightning speeds. As a result, the company also leads the data center GPU space -- where most AI processing takes place -- with a dominant 92% of the market, according to IoT Analytics.
+AI has been the driving force behind Nvidia's performance over the past few years, but this wasn't simply luck. CEO Jensen Huang saw the writing on the wall back in 2013 and focused the company's research and development efforts on AI, which positioned Nvidia for future success.
+This spirit of innovation has kept the company well ahead of would-be rivals. In its fiscal 2025 (ended Jan. 26), Nvidia spent $13 billion on research and development (R&amp;D) -- roughly 10% of its total revenue -- to maintain its competitive advantage. The company continues to explore emerging opportunities, including quantum computing, agentic AI, robotics, automation, self-driving cars, and more.
+It's easy to see why Nvidia is investing heavily as it looks toward the future. The opportunity represented by AI alone is vast, but there's no consensus. Global management consulting firm McKinsey &amp; Company estimates that generative AI could add between $2.6 trillion and $4.4 trillion to the global economy over the coming decade. The estimate from Big Four accounting firm PwC is much higher, clocking in at $15.7 trillion between now and 2030.
+This helps to illustrate the size of the opportunity Nvidia has in its sights.
+The numbers are compelling
+Nvidia has already been reaping the rewards of the AI revolution, and it's difficult to overstate the scale of its success. The results of the past two fiscal years help provide context:
+- In fiscal 2024 (ended Jan. 28, 2024), Nvidia's record revenue of $60.9 billion climbed 126%, while its adjusted earnings per share (EPS) of $12.96 surged 288%.
+- In fiscal 2025 (ended Jan. 26, 2025), Nvidia's record revenue of $130.5 billion jumped 114%, while adjusted EPS of $2.99 soared 130%.
+In its 2026 first quarter, Nvidia's revenue of $44 billion climbed 69% year over year and 12% quarter over quarter. Earnings per share, adjusted for a one-time charge related to its chip sales to China, came in at $0.96, rising 62%. While that's notable in its own right, it becomes even more impressive when viewed against the backdrop of triple-digit comps.
+Management believes the company's growth streak will continue. For the second quarter, Nvidia is forecasting revenue of $45 billion, or growth of about 50%. However, given the company's history of issuing conservative guidance, the actual results will likely be higher.
+This history of financial success has propelled a meteoric rise in the stock price, which has gained 1,130% since early 2023, and has helped Nvidia become the world's first $4 trillion company, when measured by market cap.
+While the company's performance over the past few years has been nothing less than stunning, its track record is much longer. Over the past decade, Nvidia's stock has soared more than 30,000% (not a typo), driven higher by its consistently strong operational and financial results.
+There's also the matter of Nvidia's valuation. Despite the company's growth trajectory and history of success, the stock is selling for roughly 30 times next year's earnings, an attractive multiple given the magnitude of the opportunity.
+Taken together, its industry leadership, track record of innovations, visionary CEO, and large and growing market opportunity create a persuasive argument for owning Nvidia stock. Add to that the company's stunning financial performance and reasonable valuation, and it's easy to see why Nvidia would be the one stock to own if I could own just one.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Key Points I'm a long term buy and hold investor, and my portfolio is filled with dozens of growth stocks. If I had to pick just a single stock, it would have to be Nvidia. The company checks many of the boxes of a successful investment and trades for an attractive valuation. Let's address the elephant in the room: The idea of buying and holding just one stock is something I would never do, and frankly, the thought seems absurd to me. My portfolio is composed of dozens of stocks, as it provides me with a level of safety and diversification that lets me sleep at night. Even if one of my largest positions falls 30% or 40% (and they have), my entire portfolio only loses between 1% and 2%. I can't imagine a scenario where I would limit myself to one stock, and I recommend building a portfolio of 15 to 20 stocks at a minimum. That said, and purely as a thought exercise, if I were to hold only one stock, it would have to meet certain criteria. I would want a company that is an industry leader, with a large addressable market and a long track record of performance. I would want to own a company that's a proven leader a business fueled by innovation, strong secular tailwinds, and a history of financial success. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More If I could only buy and hold a single stock, Nvidia (NASDAQ: NVDA) would have to be it. Image source: Getty Images. Checks all the right boxes There's certainly a lot to like about Nvidia, and it checks all the right boxes. The company has long been a leader in the video game market, as its graphics processing units (GPUs) are the top choice among hardcore and casual gamers alike. Nvidia is the undisputed leader in the discrete desktop GPU space, controlling 92% of the market, according to data compiled by Jon Peddie Research. Nvidia was also able to capitalize on the advent of artificial intelligence (AI), as its GPUs are equally adept at ferrying data around the ether at lightning speeds. As a result, the company also leads the data center GPU space where most AI processing takes place with a dominant 92% of the market, according to IoT Analytics. AI has been the driving force behind Nvidia's performance over the past few years, but this wasn't simply luck. CEO Jensen Huang saw the writing on the wall back in 2013 and focused the company's research and development efforts on AI, which positioned Nvidia for future success. This spirit of innovation has kept the company well ahead of would be rivals. In its fiscal 2025 (ended Jan. 26), Nvidia spent $13 billion on research and development (R&amp;D) roughly 10% of its total revenue to maintain its competitive advantage. The company continues to explore emerging opportunities, including quantum computing, agentic AI, robotics, automation, self driving cars, and more. It's easy to see why Nvidia is investing heavily as it looks toward the future. The opportunity represented by AI alone is vast, but there's no consensus. Global management consulting firm McKinsey &amp; Company estimates that generative AI could add between $2.6 trillion and $4.4 trillion to the global economy over the coming decade. The estimate from Big Four accounting firm PwC is much higher, clocking in at $15.7 trillion between now and 2030. This helps to illustrate the size of the opportunity Nvidia has in its sights. The numbers are compelling Nvidia has already been reaping the rewards of the AI revolution, and it's difficult to overstate the scale of its success. The results of the past two fiscal years help provide context: In fiscal 2024 (ended Jan. 28, 2024), Nvidia's record revenue of $60.9 billion climbed 126%, while its adjusted earnings per share (EPS) of $12.96 surged 288%. In fiscal 2025 (ended Jan. 26, 2025), Nvidia's record revenue of $130.5 billion jumped 114%, while adjusted EPS of $2.99 soared 130%. In its 2026 first quarter, Nvidia's revenue of $44 billion climbed 69% year over year and 12% quarter over quarter. Earnings per share, adjusted for a one time charge related to its chip sales to China, came in at $0.96, rising 62%. While that's notable in its own right, it becomes even more impressive when viewed against the backdrop of triple digit comps. Management believes the company's growth streak will continue. For the second quarter, Nvidia is forecasting revenue of $45 billion, or growth of about 50%. However, given the company's history of issuing conservative guidance, the actual results will likely be higher. This history of financial success has propelled a meteoric rise in the stock price, which has gained 1,130% since early 2023, and has helped Nvidia become the world's first $4 trillion company, when measured by market cap. While the company's performance over the past few years has been nothing less than stunning, its track record is much longer. Over the past decade, Nvidia's stock has soared more than 30,000% (not a typo), driven higher by its consistently strong operational and financial results. There's also the matter of Nvidia's valuation. Despite the company's growth trajectory and history of success, the stock is selling for roughly 30 times next year's earnings, an attractive multiple given the magnitude of the opportunity. Taken together, its industry leadership, track record of innovations, visionary CEO, and large and growing market opportunity create a persuasive argument for owning Nvidia stock. Add to that the company's stunning financial performance and reasonable valuation, and it's easy to see why Nvidia would be the one stock to own if I could own just one. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45885.02361111111</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Repon expects AI server demand to drive growth in 2H25 despite currency and tax challenges</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.digitimes.com/news/a20250814PD235/repon-ai-server-growth-demand-shipments.html</t>
+        </is>
+      </c>
+      <c r="E318" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45885.02291666667</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Nvidia reportedly confirms Rubin AI chip launch timeline as AMD reveals 2026 server challenge</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.digitimes.com/news/a20250814VL206/nvidia-rubin-ai-chip-amd-launch.html</t>
+        </is>
+      </c>
+      <c r="E319" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45884.79583333333</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>NVIDIA (NVDA) Stock Gets Bullish Call Amid U.S.-China Chip Agreement Reports</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142292/nvidia-nvda-stock-gets-bullish-call-amid-us-china-chip-agreement-reports</t>
+        </is>
+      </c>
+      <c r="E320" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the AI Stocks Investors Are Watching Closely. On August 12, Bank of America reiterated the stock as “Buy.” The firm said that it is sticking with the stock after reports of a favorable deal for Nvidia to receive chip export licenses.
+“Busy period of interactions between the US Government (USG)/White House (WH) and major US chipmakers. The critical nature of semis is likely to enhance these interactions that will continue to be both positive and a headwind/source of volatility. Recent news involves: 15% potential tax/levy on sales of specific AI chips in return for China approvals: a net positive and we maintain Buys on NVDA, AMD.”
+Analysts on Wall Street currently have a consensus “Buy” rating on the stock. The average price target of $190 implies a 5.10% upside; however, the Street-high target of $250 implies an upside of 38%.
+NVIDIA Corporation (NASDAQ:NVDA) specializes in AI-driven solutions, offering platforms for data centers, self-driving cars, robotics, and cloud services.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 10 AI Stocks Investors Are Watching Closely and 10 AI Stocks Analysts Are Watching Closely.
+Disclosure: None.</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the AI Stocks Investors Are Watching Closely. On August 12, Bank of America reiterated the stock as Buy. The firm said that it is sticking with the stock after reports of a favorable deal for Nvidia to receive chip export licenses. Busy period of interactions between the US Government (USG)/White House (WH) and major US chipmakers. The critical nature of semis is likely to enhance these interactions that will continue to be both positive and a headwind/source of volatility. Recent news involves: 15% potential tax/levy on sales of specific AI chips in return for China approvals: a net positive and we maintain Buys on NVDA, AMD. Analysts on Wall Street currently have a consensus Buy rating on the stock. The average price target of $190 implies a 5.10% upside; however, the Street high target of $250 implies an upside of 38%. NVIDIA Corporation (NASDAQ:NVDA) specializes in AI driven solutions, offering platforms for data centers, self driving cars, robotics, and cloud services. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 10 AI Stocks Investors Are Watching Closely and 10 AI Stocks Analysts Are Watching Closely. Disclosure: None.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45884.79513888889</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>5 Unstoppable "Ten Titans" Growth Stocks to Buy Now and Hold Through at Least 2030</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142300/5-unstoppable-ten-titans-growth-stocks-to-buy-now-and-hold-through-at-least-2030</t>
+        </is>
+      </c>
+      <c r="E321" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+The "Ten Titans" offer a more comprehensive list of top growth stocks than the "Magnificent Seven."
+Nvidia and Broadcom provide the building blocks of AI infrastructure.
+Microsoft, Alphabet, and Oracle are three exciting plays in cloud computing.
+The "Ten Titans" are the largest growth-focused U.S. companies by market cap -- consisting of Nvidia (NASDAQ: NVDA), Microsoft (NASDAQ: MSFT), Apple, Amazon, Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG), Meta Platforms, Broadcom (NASDAQ: AVGO), Tesla, Oracle (NYSE: ORCL), and Netflix.
+Combined, they make up over 37% of the S&amp;P 500, showcasing the top-heavy nature of the index and how just a handful of companies can move the market.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+If I could only buy and hold half of the Ten Titans through 2030, I'd go with Nvidia, Broadcom, Microsoft, Oracle, and Alphabet. Here's what separates these growth stocks from the rest of the pack.
+Image source: Getty Images.
+Nvidia and Broadcom both play crucial roles in the buildout of artificial intelligence (AI).
+Nvidia's graphics processing units, CUDA software platform, and associated infrastructure provide a full-scale AI ecosystem for data centers. Orders continue to pour in for Nvidia's chips as big tech companies ramp up capital expenditures to support AI models.
+Broadcom makes application-specific integrated circuits, which are AI accelerators that can perform specific functions. The company's latest customer accelerator (XPU) is its 3.5D eXtreme Dimension System in Package, which drastically cuts down on power consumption and boosts efficiency between components -- all within a smaller package size. Broadcom offers compute, memory, network, and packaging capabilities, giving customers a vertically integrated solution for AI at scale.
+Broadcom has a highly differentiated networking and infrastructure software business. In addition to AI accelerators, its semiconductor segment also offers a variety of solutions for enterprise clients, like broadband, wireless, storage, and more.
+Microsoft, Alphabet, and Oracle offer three distinctly different ways to invest in cloud computing.
+Microsoft Azure is the No. 2 cloud player behind Amazon Web Services. Azure is Microsoft's fastest-growing segment -- capitalizing on AI demand through cloud offerings specifically geared toward handling AI workloads. But what separates Microsoft from other cloud plays is the strength of the rest of its business. Copilot for Azure, the Microsoft 365 software suite, and GitHub continue to grow their active user base. Microsoft's revenue growth has accelerated, and profit margins are at their highest level in over a decade -- driving Microsoft's surging stock price.
+Alphabet's Google Cloud doesn't have as much market share as Azure, but it is growing quickly and becoming more profitable. But unlike Microsoft, where cloud is the centerpiece of the investment thesis, Google Cloud doesn't contribute nearly as much to Alphabet's bottom line as other services -- namely Google Search and YouTube.
+Alphabet stock has roared higher in recent months, but it's still arguably the best value of the Ten Titans.
+TSLA PE Ratio (Forward) data by YCharts
+While Google Search could see disruption from rival information resources like ChatGPT, it's worth noting that Google Gemini has gained significant traction in recent quarters -- showing Alphabet's ability to adapt.
+Oracle Cloud Infrastructure (OCI) is arguably the most exciting play in cloud computing right now. OCI is thriving due to its flexible structure, which leans on Oracle's established database ecosystem. It is best paired with Oracle databases and applications, with certain services not available on other clouds.
+Instead of going toe-to-toe with the "big three" cloud providers, Oracle partners with them by combining its database services with the AWS, Azure, and Google Cloud infrastructure. All told, Oracle is a top play in cloud computing because it offers its own vertically integrated suite of solutions, but also stands to benefit from the overall growth of the industry through its partnerships.
+Nvidia, Broadcom, Microsoft, Alphabet, and Oracle have all been phenomenal stocks -- crushing the S&amp;P 500 over the last five years. With the exception of Alphabet, outsized gains have made valuations expensive based on their trailing and forward earnings estimates, which may deter some investors from approaching these names.
+However, folks who are looking for top companies to buy and hold through at least 2030 will care more about where a company will be years from now than the next few quarters. The advantage of a longer investment time horizon is that you can give a company time to grow into its valuation. Nvidia, Broadcom, and Oracle are some of the most expensive of the Ten Titans, but they also have the most attractive runways for growth. Meanwhile, Microsoft and Alphabet have more reasonable valuations and multiple levers to pull for growing earnings for years to come.
+There are valid cases for buying all of the Ten Titans, but Nvidia, Broadcom, Microsoft, Alphabet, and Oracle truly stand out as the best of the best for long-term investors.
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.
+| 1 hour | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>The "Ten Titans" offer a more comprehensive list of top growth stocks than the "Magnificent Seven." Nvidia and Broadcom provide the building blocks of AI infrastructure. Microsoft, Alphabet, and Oracle are three exciting plays in cloud computing. The "Ten Titans" are the largest growth focused U.S. companies by market cap consisting of Nvidia (NASDAQ: NVDA), Microsoft (NASDAQ: MSFT), Apple, Amazon, Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG), Meta Platforms, Broadcom (NASDAQ: AVGO), Tesla, Oracle (NYSE: ORCL), and Netflix. Combined, they make up over 37% of the S&amp;P 500, showcasing the top heavy nature of the index and how just a handful of companies can move the market. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue If I could only buy and hold half of the Ten Titans through 2030, I'd go with Nvidia, Broadcom, Microsoft, Oracle, and Alphabet. Here's what separates these growth stocks from the rest of the pack. Image source: Getty Images. Nvidia and Broadcom both play crucial roles in the buildout of artificial intelligence (AI). Nvidia's graphics processing units, CUDA software platform, and associated infrastructure provide a full scale AI ecosystem for data centers. Orders continue to pour in for Nvidia's chips as big tech companies ramp up capital expenditures to support AI models. Broadcom makes application specific integrated circuits, which are AI accelerators that can perform specific functions. The company's latest customer accelerator (XPU) is its 3.5D eXtreme Dimension System in Package, which drastically cuts down on power consumption and boosts efficiency between components all within a smaller package size. Broadcom offers compute, memory, network, and packaging capabilities, giving customers a vertically integrated solution for AI at scale. Broadcom has a highly differentiated networking and infrastructure software business. In addition to AI accelerators, its semiconductor segment also offers a variety of solutions for enterprise clients, like broadband, wireless, storage, and more. Microsoft, Alphabet, and Oracle offer three distinctly different ways to invest in cloud computing. Microsoft Azure is the No. 2 cloud player behind Amazon Web Services. Azure is Microsoft's fastest growing segment capitalizing on AI demand through cloud offerings specifically geared toward handling AI workloads. But what separates Microsoft from other cloud plays is the strength of the rest of its business. Copilot for Azure, the Microsoft 365 software suite, and GitHub continue to grow their active user base. Microsoft's revenue growth has accelerated, and profit margins are at their highest level in over a decade driving Microsoft's surging stock price. Alphabet's Google Cloud doesn't have as much market share as Azure, but it is growing quickly and becoming more profitable. But unlike Microsoft, where cloud is the centerpiece of the investment thesis, Google Cloud doesn't contribute nearly as much to Alphabet's bottom line as other services namely Google Search and YouTube. Alphabet stock has roared higher in recent months, but it's still arguably the best value of the Ten Titans. TSLA PE Ratio (Forward) data by YCharts While Google Search could see disruption from rival information resources like ChatGPT, it's worth noting that Google Gemini has gained significant traction in recent quarters showing Alphabet's ability to adapt. Oracle Cloud Infrastructure (OCI) is arguably the most exciting play in cloud computing right now. OCI is thriving due to its flexible structure, which leans on Oracle's established database ecosystem. It is best paired with Oracle databases and applications, with certain services not available on other clouds. Instead of going toe to toe with the "big three" cloud providers, Oracle partners with them by combining its database services with the AWS, Azure, and Google Cloud infrastructure. All told, Oracle is a top play in cloud computing because it offers its own vertically integrated suite of solutions, but also stands to benefit from the overall growth of the industry through its partnerships. Nvidia, Broadcom, Microsoft, Alphabet, and Oracle have all been phenomenal stocks crushing the S&amp;P 500 over the last five years. With the exception of Alphabet, outsized gains have made valuations expensive based on their trailing and forward earnings estimates, which may deter some investors from approaching these names. However, folks who are looking for top companies to buy and hold through at least 2030 will care more about where a company will be years from now than the next few quarters. The advantage of a longer investment time horizon is that you can give a company time to grow into its valuation. Nvidia, Broadcom, and Oracle are some of the most expensive of the Ten Titans, but they also have the most attractive runways for growth. Meanwhile, Microsoft and Alphabet have more reasonable valuations and multiple levers to pull for growing earnings for years to come. There are valid cases for buying all of the Ten Titans, but Nvidia, Broadcom, Microsoft, Alphabet, and Oracle truly stand out as the best of the best for long term investors. Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. 1 hour Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45884.75347222222</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Nvidia, AMD Agree to 15% Export Levy on China AI Chips</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-agree-15-export-220517787.html</t>
+        </is>
+      </c>
+      <c r="E322" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45884.74097222222</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Cohere Scores $500 Million as IPO Talk Heats Up</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-scores-500-million-ipo-214706278.html</t>
+        </is>
+      </c>
+      <c r="E323" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45884.67777777778</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Trump Wants To Make Intel Great Again. What That Means For TSMC.</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/6dc7f034-8f61-3b3d-955d-3a50b01945af/trump-wants-to-make-intel.html</t>
+        </is>
+      </c>
+      <c r="E324" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45884.66666666666</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Insatiable Demand For AI Data Centers - And Space - Fuels This Stock</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.investors.com/research/ibd-stock-analysis/micron-stock-ai-data-centers-space-exploration?mod=IBD_FV</t>
+        </is>
+      </c>
+      <c r="E325" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45884.61666666667</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Dear Marvell Stock Fans, Mark Your Calendars for August 28</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/75569d9b-a755-3b40-9ffe-1dc6015936fc/dear-marvell-stock-fans%2C-mark.html</t>
+        </is>
+      </c>
+      <c r="E326" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45884.61597222222</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Billionaire fund manager doubles down on Nvidia, partner in AI stack shift</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/874808b0-c2be-37fa-8f9b-749d586597da/billionaire-fund-manager.html</t>
+        </is>
+      </c>
+      <c r="E327" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45884.60555555556</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Jim Cramer Insists There Are No Backdoors In NVIDIA Corporation (NVDA)'s Chips</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142198/jim-cramer-insists-there-are-no-backdoors-in-nvidia-corporation-nvdas-chips</t>
+        </is>
+      </c>
+      <c r="E328" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>We recently published 10 Stocks Jim Cramer Discussed As He Questioned Official Data. NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed.
+The latest controversy surrounding NVIDIA Corporation (NASDAQ:NVDA) involves reports claiming that the Chinese government is asking local companies not to rely on the firm’s chips. These concerns stem from worries about potential backdoors and about becoming too reliant on American hardware. Cramer discussed the reports in detail:
+“[On reports of Chinese authorities looking to stop companies from buying the H20 AI GPUs] They can go open, they can have Jensen Huang go over there and have him rip open one of those things. There’s nothing. I mean, look you either trust Jensen or you don’t. I trust Jensen just because he has to give the government 15%. I mean he has said, listen we don’t have tracking. So, therefore, I am a believer in him. I don’t want to actually believe, believe it or not, the PRC. I actually don’t know if the PRC is all that reliable. Not like the BLS, I mean it’s different. BLS doesn’t have a chance, they’re very strapped, they’re tired, they’re poor, they’re huddled masses. . .but this, you know why this is not right? Because they don’t have anything that’s as good as the H20. If you wanna go do something that’s like on one of these versions of Intel, that got Pat Gelsinger fired. . . .
+“Yes you can [run inferences on it] and what I’m telling you is that the government was very hot to get these. So now the government’s not because they’re tracking, there is no tracking. There’s no tracking. We can believe their nonsense but there’s no tracking. I’ve heard all day, well because of the tracking. Okay so Jensen Huang is. therefore what? He’s clueless?
+Photo by
+Javier Esteban on
+Unsplash
+“[On The Information’s report saying Chinese big tech has been told by the government to not buy NVIDIA chips] I rely on The Information, you’re [David Faber] a legendary Wall Street funny man.They got you out of NVIDIA, as much as I got you into NVIDIA, they got you out of NVIDIA. Who has the cards? . . .I’m trying to get people to say, maybe before I sell NVIDIA because of all these different stories, maybe the stories maybe propaganda? I think we have every right to question, in a period where The Information has attacked NVIDIA twice. They’ll say we didn’t attack, we reported. Perhaps our reporting was not as strong. That’s okay. You can say whatever you want in this business and that’s exactly the problem.”
+While we acknowledge the potential of NVDA as an investment, our conviction lies in the belief that some AI stocks hold greater promise for delivering higher returns and have limited downside risk. If you are looking for an extremely cheap AI stock that is also a major beneficiary of Trump tariffs and onshoring, see our free report on the best short-term AI stock.
+READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>We recently published 10 Stocks Jim Cramer Discussed As He Questioned Official Data. NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed. The latest controversy surrounding NVIDIA Corporation (NASDAQ:NVDA) involves reports claiming that the Chinese government is asking local companies not to rely on the firms chips. These concerns stem from worries about potential backdoors and about becoming too reliant on American hardware. Cramer discussed the reports in detail: [On reports of Chinese authorities looking to stop companies from buying the H20 AI GPUs] They can go open, they can have Jensen Huang go over there and have him rip open one of those things. Theres nothing. I mean, look you either trust Jensen or you dont. I trust Jensen just because he has to give the government 15%. I mean he has said, listen we dont have tracking. So, therefore, I am a believer in him. I dont want to actually believe, believe it or not, the PRC. I actually dont know if the PRC is all that reliable. Not like the BLS, I mean its different. BLS doesnt have a chance, theyre very strapped, theyre tired, theyre poor, theyre huddled masses. . .but this, you know why this is not right? Because they dont have anything thats as good as the H20. If you wanna go do something thats like on one of these versions of Intel, that got Pat Gelsinger fired. . . . Yes you can [run inferences on it] and what Im telling you is that the government was very hot to get these. So now the governments not because theyre tracking, there is no tracking. Theres no tracking. We can believe their nonsense but theres no tracking. Ive heard all day, well because of the tracking. Okay so Jensen Huang is. therefore what? Hes clueless? Photo by Javier Esteban on Unsplash [On The Informations report saying Chinese big tech has been told by the government to not buy NVIDIA chips] I rely on The Information, youre [David Faber] a legendary Wall Street funny man.They got you out of NVIDIA, as much as I got you into NVIDIA, they got you out of NVIDIA. Who has the cards? . . .Im trying to get people to say, maybe before I sell NVIDIA because of all these different stories, maybe the stories maybe propaganda? I think we have every right to question, in a period where The Information has attacked NVIDIA twice. Theyll say we didnt attack, we reported. Perhaps our reporting was not as strong. Thats okay. You can say whatever you want in this business and thats exactly the problem. While we acknowledge the potential of NVDA as an investment, our conviction lies in the belief that some AI stocks hold greater promise for delivering higher returns and have limited downside risk. If you are looking for an extremely cheap AI stock that is also a major beneficiary of Trump tariffs and onshoring, see our free report on the best short term AI stock. READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45884.59097222222</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>If You'd Invested $500 in The Trade Desk Stock 5 Years Ago, Here's How Much You'd Have Today</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142196/if-youd-invested-500-in-the-trade-desk-stock-5-years-ago-heres-how-much-youd-have-today</t>
+        </is>
+      </c>
+      <c r="E329" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Key Points
+The Trade Desk's stock is pretty much back where it was five years ago.
+The business results are strong, but forward-looking guidance points to a modest slowdown.
+At 9 times sales, The Trade Desk trades at a fraction of its former nosebleed valuations while maintaining strong fundamentals.
+Digital advertising veteran The Trade Desk (NASDAQ: TTD) used to be hot stuff. In early December 2024, the stock had posted a market-stomping 156% gain in two years. The stock traded at market-darling valuation multiples such as 134 times free cash flow and 30 times sales. The Trade Desk made mighty Nvidia's (NASDAQ: NVDA) stock look affordable by comparison.
+But things have changed.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+The Trade Desk's recent earnings reports have been robust, but they were accompanied by a sobering market analysis and modest forward-looking guidance. The brutal market reaction wiped out several years of The Trade Desk's investor gains.
+So if you invested $500 in The Trade Desk five years ago, that position would be worth just $576 today:
+TTD Total Return Level data by YCharts
+The S&amp;P 500 (SNPINDEX: ^GSPC) market index more than doubled over the same period, in terms of total returns. That's an above-average compound annual growth rate (CAGR) of 15.6% versus The Trade Desk's anemic 2.9%.
+Image source: Getty Images.
+Silver lining of the reality check
+These days, you can buy The Trade Desk's stock at a less outrageous valuation of 33 times free cash flow and 9 times sales. If the stock price doubled today, the shares would still carry lower valuation multiples than Nvidia's 62 times free cash flow and 30 times sales.
+Mind you, The Trade Desk is still far from a deep-discount value stock. These multiples are appropriate for a fast-growing business addressing a large target market.
+And I would argue that The Trade Desk fits that description. Its sales have been soaring for years, and free cash flows are richer than ever:
+TTD Revenue (TTM) data by YCharts
+The company's near-term outlook has been less bullish in recent quarters, but management still expects roughly 14% sales growth in the third-quarter report. This growth story is far from over. The 2025 stock price cuts simply made this top-notch company more affordable.
+Should you invest $1,000 in The Trade Desk right now?
+Before you buy stock in The Trade Desk, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and The Trade Desk wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Anders Bylund has positions in Nvidia and The Trade Desk. The Motley Fool has positions in and recommends Nvidia and The Trade Desk. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Key Points The Trade Desk's stock is pretty much back where it was five years ago. The business results are strong, but forward looking guidance points to a modest slowdown. At 9 times sales, The Trade Desk trades at a fraction of its former nosebleed valuations while maintaining strong fundamentals. Digital advertising veteran The Trade Desk (NASDAQ: TTD) used to be hot stuff. In early December 2024, the stock had posted a market stomping 156% gain in two years. The stock traded at market darling valuation multiples such as 134 times free cash flow and 30 times sales. The Trade Desk made mighty Nvidia's (NASDAQ: NVDA) stock look affordable by comparison. But things have changed. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue The Trade Desk's recent earnings reports have been robust, but they were accompanied by a sobering market analysis and modest forward looking guidance. The brutal market reaction wiped out several years of The Trade Desk's investor gains. So if you invested $500 in The Trade Desk five years ago, that position would be worth just $576 today: TTD Total Return Level data by YCharts The S&amp;P 500 (SNPINDEX: ^GSPC) market index more than doubled over the same period, in terms of total returns. That's an above average compound annual growth rate (CAGR) of 15.6% versus The Trade Desk's anemic 2.9%. Image source: Getty Images. Silver lining of the reality check These days, you can buy The Trade Desk's stock at a less outrageous valuation of 33 times free cash flow and 9 times sales. If the stock price doubled today, the shares would still carry lower valuation multiples than Nvidia's 62 times free cash flow and 30 times sales. Mind you, The Trade Desk is still far from a deep discount value stock. These multiples are appropriate for a fast growing business addressing a large target market. And I would argue that The Trade Desk fits that description. Its sales have been soaring for years, and free cash flows are richer than ever: TTD Revenue (TTM) data by YCharts The company's near term outlook has been less bullish in recent quarters, but management still expects roughly 14% sales growth in the third quarter report. This growth story is far from over. The 2025 stock price cuts simply made this top notch company more affordable. Should you invest $1,000 in The Trade Desk right now? Before you buy stock in The Trade Desk, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and The Trade Desk wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Anders Bylund has positions in Nvidia and The Trade Desk. The Motley Fool has positions in and recommends Nvidia and The Trade Desk. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45884.58263888889</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>INTC: Intel Jumps on Reports of White House Investment in Ohio Factory</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/intc-intel-jumps-reports-white-175929817.html</t>
+        </is>
+      </c>
+      <c r="E330" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45884.56458333333</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Billionaire Family Offices Join Berkshires UnitedHealth Bet</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/billionaire-family-offices-join-berkshire-173329643.html</t>
+        </is>
+      </c>
+      <c r="E331" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45884.56319444445</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>NVDA: Chip Stocks Tumbles After Tariff Warning Triggers Sector Selloff</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvda-chip-stocks-tumbles-tariff-173136118.html</t>
+        </is>
+      </c>
+      <c r="E332" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45884.55347222222</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Billionaire George Soros supercharges Nvidia stake, loads up on AI plays</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/3d8524f4-7f7e-33fb-afb8-e423bcd7c678/billionaire-george-soros.html</t>
+        </is>
+      </c>
+      <c r="E333" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45884.54166666666</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Quantum Stocks Q2 2025: Are D-Wave, IonQ &amp; Rigetti Funding the Future?</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142176/quantum-stocks-q2-2025-are-d-wave-ionq-rigetti-funding-the-future</t>
+        </is>
+      </c>
+      <c r="E334" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>As second-quarter 2025 earnings rolled in, three pure-play quantum computing companies, D-Wave Quantum QBTS, Rigetti Computing RGTI and IonQ IONQ, offered a snapshot of an industry that moves at light speed but still sees profitability as a distant horizon. The trio’s results revealed a common storyline, strong sales, bigger losses and huge cash reserves to fund the next big step in quantum computing.
+D-Wave
+D-Wave Quantum’s second-quarter 2025 revenues rose 42% year over year, driven by Advantage2 quantum processing unit sales, including the system installed at Julich Supercomputing Center earlier this year. The company expanded its customer base with contracts from GE Vernova, Nikon and NTT DOCOMO, and strengthened global ties through partnerships in South Korea.
+Technological progress included an open-source PyTorch toolkit and quantum-assisted image generation demos. Collaborating with NASA’s Jet Propulsion Laboratory on advanced cryogenic packaging, D-Wave aims to accelerate its push toward a 100,000-qubit system, reinforcing its leadership in annealing quantum computing while broadening its international footprint.
+Financially, the company ended the quarter with a record $819.3 million in cash—an over 1,900% year-over-year increase driven by a $400 million at-the-market equity raise, warrant exercises and credit facility proceeds. Gross profit grew 42%, while adjusted EBITDA loss widened 44% year over year due to higher operating expenses from aggressive R&amp;D and market expansion efforts. With strong liquidity, an expanding enterprise pipeline and parallel development in both annealing and gate-model architectures, D-Wave signaled that it is prepared to invest heavily in scaling technology and pursuing strategic acquisitions, while maintaining its ambition to be the first independent public quantum computing firm to achieve sustained profitability.
+IonQ
+IonQ delivered a standout second-quarter 2025, with revenues coming in 15% above the top end of guidance, reflecting accelerating commercial traction across quantum computing and networking. The company’s momentum was underpinned by high-profile partnerships, including a landmark $22 million deal to build America’s first commercial quantum hub with utility leader EPB, and a 20x performance speed-up in quantum-accelerated drug development alongside AstraZeneca AZN, AWS and NVIDIA NVDA. However, the aggressive push into R&amp;D, strategic acquisitions and talent expansion incurred steep costs. IonQ reported a net loss of $177.5 million and an adjusted EBITDA loss of $36.5 million for the quarter.
+Despite being in the red, IonQ now commands one of the strongest balance sheets in the quantum sector, closing a $1 billion equity investment, priced at a premium that boosted its pro forma cash position to $1.6 billion as of July 2025. This war chest gives the company ample runway to execute on its roadmap, including integrating Oxford Ionics’ ion-trap-on-a-chip technology and scaling toward 800 logical qubits by 2027 and 80,000 by 2030. With acquisitions like Lightsynq and Capella expanding its reach into photonic interconnects and space-based quantum key distribution, IonQ is positioning itself to lead the next leap in computing power while fortifying its role in the future quantum Internet.
+Rigetti
+Rigetti Computing’s second-quarter 2025 revenues reflected sequential growth but declined year over year due to the expiration of the U.S. National Quantum Initiative and delays in its reauthorization. Gross margin narrowed to 31% from 64% a year earlier, primarily due to revenue mix and lower-margin development contracts. The company incurred an operating loss and a net loss in the quarter, the latter impacted by non-cash losses tied to changes in derivative warrant and earn-out liabilities.
+Management reiterated that hitting technology milestones remains central to its long-term profitability path, with Quantum Advantage targeted in roughly four years through scaling qubit counts, improving gate fidelity and advancing error correction.
+On a positive note, the company’s balance sheet is notably fortified, following the completion of a $350 million equity raise during the quarter, bringing total cash, cash equivalents and available-for-sale investments to $571.6 million as of June 30, 2025, with no debt. This sizable war chest provides ample runway to fund R&amp;D, scale commercial operations and potentially pursue strategic collaborations or acquisitions. Rigetti intends to leverage its proprietary chiplet-based superconducting qubit technology to reach a 100-plus qubit system with 99.5% median two-qubit gate fidelity by year-end 2025, an important step on the roadmap toward fault tolerance and eventual commercial-grade quantum computing profitability.
+Conclusion
+Taken together, revenues are rising and technology is advancing, but cash burn is heavy and profitability is far off for these three stocks. In this race, massive cash reserves are the fuel, and the first one to deliver scalable, commercially viable quantum systems will be the winner.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+AstraZeneca PLC (AZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report IonQ, Inc. (IONQ): Free Stock Analysis Report Rigetti Computing, Inc. (RGTI): Free Stock Analysis Report D-Wave Quantum Inc. (QBTS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>As second quarter 2025 earnings rolled in, three pure play quantum computing companies, D Wave Quantum QBTS, Rigetti Computing RGTI and IonQ IONQ, offered a snapshot of an industry that moves at light speed but still sees profitability as a distant horizon. The trios results revealed a common storyline, strong sales, bigger losses and huge cash reserves to fund the next big step in quantum computing. D Wave D Wave Quantums second quarter 2025 revenues rose 42% year over year, driven by Advantage2 quantum processing unit sales, including the system installed at Julich Supercomputing Center earlier this year. The company expanded its customer base with contracts from GE Vernova, Nikon and NTT DOCOMO, and strengthened global ties through partnerships in South Korea. Technological progress included an open source PyTorch toolkit and quantum assisted image generation demos. Collaborating with NASAs Jet Propulsion Laboratory on advanced cryogenic packaging, D Wave aims to accelerate its push toward a 100,000 qubit system, reinforcing its leadership in annealing quantum computing while broadening its international footprint. Financially, the company ended the quarter with a record $819.3 million in cashan over 1,900% year over year increase driven by a $400 million at the market equity raise, warrant exercises and credit facility proceeds. Gross profit grew 42%, while adjusted EBITDA loss widened 44% year over year due to higher operating expenses from aggressive R&amp;D and market expansion efforts. With strong liquidity, an expanding enterprise pipeline and parallel development in both annealing and gate model architectures, D Wave signaled that it is prepared to invest heavily in scaling technology and pursuing strategic acquisitions, while maintaining its ambition to be the first independent public quantum computing firm to achieve sustained profitability. IonQ IonQ delivered a standout second quarter 2025, with revenues coming in 15% above the top end of guidance, reflecting accelerating commercial traction across quantum computing and networking. The companys momentum was underpinned by high profile partnerships, including a landmark $22 million deal to build Americas first commercial quantum hub with utility leader EPB, and a 20x performance speed up in quantum accelerated drug development alongside AstraZeneca AZN, AWS and NVIDIA NVDA. However, the aggressive push into R&amp;D, strategic acquisitions and talent expansion incurred steep costs. IonQ reported a net loss of $177.5 million and an adjusted EBITDA loss of $36.5 million for the quarter. Despite being in the red, IonQ now commands one of the strongest balance sheets in the quantum sector, closing a $1 billion equity investment, priced at a premium that boosted its pro forma cash position to $1.6 billion as of July 2025. This war chest gives the company ample runway to execute on its roadmap, including integrating Oxford Ionics ion trap on a chip technology and scaling toward 800 logical qubits by 2027 and 80,000 by 2030. With acquisitions like Lightsynq and Capella expanding its reach into photonic interconnects and space based quantum key distribution, IonQ is positioning itself to lead the next leap in computing power while fortifying its role in the future quantum Internet. Rigetti Rigetti Computings second quarter 2025 revenues reflected sequential growth but declined year over year due to the expiration of the U.S. National Quantum Initiative and delays in its reauthorization. Gross margin narrowed to 31% from 64% a year earlier, primarily due to revenue mix and lower margin development contracts. The company incurred an operating loss and a net loss in the quarter, the latter impacted by non cash losses tied to changes in derivative warrant and earn out liabilities. Management reiterated that hitting technology milestones remains central to its long term profitability path, with Quantum Advantage targeted in roughly four years through scaling qubit counts, improving gate fidelity and advancing error correction. On a positive note, the companys balance sheet is notably fortified, following the completion of a $350 million equity raise during the quarter, bringing total cash, cash equivalents and available for sale investments to $571.6 million as of June 30, 2025, with no debt. This sizable war chest provides ample runway to fund R&amp;D, scale commercial operations and potentially pursue strategic collaborations or acquisitions. Rigetti intends to leverage its proprietary chiplet based superconducting qubit technology to reach a 100 plus qubit system with 99.5% median two qubit gate fidelity by year end 2025, an important step on the roadmap toward fault tolerance and eventual commercial grade quantum computing profitability. Conclusion Taken together, revenues are rising and technology is advancing, but cash burn is heavy and profitability is far off for these three stocks. In this race, massive cash reserves are the fuel, and the first one to deliver scalable, commercially viable quantum systems will be the winner. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report AstraZeneca PLC (AZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report IonQ, Inc. (IONQ): Free Stock Analysis Report Rigetti Computing, Inc. (RGTI): Free Stock Analysis Report D Wave Quantum Inc. (QBTS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45884.54097222222</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Nvidia, AMD Price Targets Raised As AI Demand Keeps Roaring</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-price-targets-raised-165957508.html</t>
+        </is>
+      </c>
+      <c r="E335" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>45884.54027777778</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Nvidia CEO Jensen Huang Cashes In as Stock Runs Hot</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-ceo-jensen-huang-cashes-165832406.html</t>
+        </is>
+      </c>
+      <c r="E336" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>45884.52013888889</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Iren Limited: An AI, Crypto and Cloud Computing Stock</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142162/iren-limited-an-ai-crypto-and-cloud-computing-stock</t>
+        </is>
+      </c>
+      <c r="E337" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Every so often, I come across a stock in my research that checks nearly every box I look for: innovation, growth, strong fundamentals, and technical momentum. Iren Limited (IREN) is one of those rare finds. The company sits at the intersection of three of the most exciting technology trends, artificial intelligence, cryptocurrency, and cloud computing, while also boasting a top Zacks Rank, a reasonable valuation, and strong price momentum.
+While 2025 has been volatile for the stock, IREN has proven resilient, climbing an impressive 93% year-to-date. The recent price action suggests a period of healthy consolidation, setting the stage for a potential breakout to new highs.
+Iren Limited operates next-generation, vertically integrated data centers built for AI, crypto mining, and high-performance cloud workloads entirely powered by renewable energy. Founded in 2018 and headquartered in Sydney, Iren operates large-scale, grid-connected facilities across North America, delivering scalable, energy efficient compute infrastructure in the rapidly growing AI and blockchain space.
+While stocks like Nvidia (NVDA) and Vertiv (VRT) are well known ways to invest in the AI space, these companies are mammoth compared to Iren. For investors looking to play the trend in a considerably smaller market cap than Nvidia and Vertiv, Iren Limited may be worth considering.
+Image Source: Zacks Investment ResearchShares of IREN Appear Fundamentally Robust
+Iren Limited has a lot going for it from a fundamental perspective. Over the past two months, analysts have made substantial upward revisions to the company’s earnings forecasts. Current quarter estimates have been raised by 31%, while FY25 projections have surged 134%, earning the stock a Zacks Rank #2 (Buy) rating.
+Revenue growth expectations are equally impressive. Sales are projected to soar 173% this year to roughly $515 million, and then climb another 86% next year to approach $960 million. This pace of expansion underscores the company’s ability to capitalize on its positioning in AI, crypto, and cloud computing.
+Even with such explosive growth on the horizon, IREN trades at a forward earnings multiple of just 16.6x, a valuation that looks very attractive given its momentum, earnings revisions, and sector tailwinds.
+Image Source: Zacks Investment ResearchIren Limited Stock Poised to Break Out
+The technical setup for IREN is extremely compelling. After a powerful rally off its April lows, climbing more than 250%, the stock has spent the past six weeks forming a large, orderly consolidation pattern. This kind of pause often serves as the launchpad for the next leg higher in a strong trend.
+Currently, shares are hovering just beneath a key resistance level around $19.15. A decisive move and close above that threshold would confirm a technical breakout, potentially triggering fresh momentum buying and fueling another major bull run. With the stock’s strong underlying trend and favorable fundamental backdrop, a breakout could set the stage for significant upside in the weeks ahead.
+Image Source: TradingViewShould Investors Buy Shares in IREN?
+In a market where giants like Nvidia and Vertiv dominate the AI and data center headlines, Iren Limited offers a smaller, faster-growing player with explosive upside potential. Its unique combination of renewable powered, high-performance compute infrastructure positions it to capture growth across AI, crypto, and cloud computing without the valuation premium of its larger peers.
+With upward trending earnings revisions, massive projected revenue growth, a reasonable valuation, and a textbook technical setup on the verge of a breakout, IREN is emerging as a high conviction idea for growth-oriented investors. If the stock can push through resistance, the next leg higher could be substantial.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+NVIDIA Corporation (NVDA): Free Stock Analysis Report Vertiv Holdings Co. (VRT): Free Stock Analysis Report IREN Limited (IREN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Every so often, I come across a stock in my research that checks nearly every box I look for: innovation, growth, strong fundamentals, and technical momentum. Iren Limited (IREN) is one of those rare finds. The company sits at the intersection of three of the most exciting technology trends, artificial intelligence, cryptocurrency, and cloud computing, while also boasting a top Zacks Rank, a reasonable valuation, and strong price momentum. While 2025 has been volatile for the stock, IREN has proven resilient, climbing an impressive 93% year to date. The recent price action suggests a period of healthy consolidation, setting the stage for a potential breakout to new highs. Iren Limited operates next generation, vertically integrated data centers built for AI, crypto mining, and high performance cloud workloads entirely powered by renewable energy. Founded in 2018 and headquartered in Sydney, Iren operates large scale, grid connected facilities across North America, delivering scalable, energy efficient compute infrastructure in the rapidly growing AI and blockchain space. While stocks like Nvidia (NVDA) and Vertiv (VRT) are well known ways to invest in the AI space, these companies are mammoth compared to Iren. For investors looking to play the trend in a considerably smaller market cap than Nvidia and Vertiv, Iren Limited may be worth considering. Image Source: Zacks Investment ResearchShares of IREN Appear Fundamentally Robust Iren Limited has a lot going for it from a fundamental perspective. Over the past two months, analysts have made substantial upward revisions to the companys earnings forecasts. Current quarter estimates have been raised by 31%, while FY25 projections have surged 134%, earning the stock a Zacks Rank #2 (Buy) rating. Revenue growth expectations are equally impressive. Sales are projected to soar 173% this year to roughly $515 million, and then climb another 86% next year to approach $960 million. This pace of expansion underscores the companys ability to capitalize on its positioning in AI, crypto, and cloud computing. Even with such explosive growth on the horizon, IREN trades at a forward earnings multiple of just 16.6x, a valuation that looks very attractive given its momentum, earnings revisions, and sector tailwinds. Image Source: Zacks Investment ResearchIren Limited Stock Poised to Break Out The technical setup for IREN is extremely compelling. After a powerful rally off its April lows, climbing more than 250%, the stock has spent the past six weeks forming a large, orderly consolidation pattern. This kind of pause often serves as the launchpad for the next leg higher in a strong trend. Currently, shares are hovering just beneath a key resistance level around $19.15. A decisive move and close above that threshold would confirm a technical breakout, potentially triggering fresh momentum buying and fueling another major bull run. With the stocks strong underlying trend and favorable fundamental backdrop, a breakout could set the stage for significant upside in the weeks ahead. Image Source: TradingViewShould Investors Buy Shares in IREN? In a market where giants like Nvidia and Vertiv dominate the AI and data center headlines, Iren Limited offers a smaller, faster growing player with explosive upside potential. Its unique combination of renewable powered, high performance compute infrastructure positions it to capture growth across AI, crypto, and cloud computing without the valuation premium of its larger peers. With upward trending earnings revisions, massive projected revenue growth, a reasonable valuation, and a textbook technical setup on the verge of a breakout, IREN is emerging as a high conviction idea for growth oriented investors. If the stock can push through resistance, the next leg higher could be substantial. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report NVIDIA Corporation (NVDA): Free Stock Analysis Report Vertiv Holdings Co. (VRT): Free Stock Analysis Report IREN Limited (IREN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>45884.51875</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Trump aides create loyalty list ranking corporations by support</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/trump-aides-create-loyalty-list-162746725.html</t>
+        </is>
+      </c>
+      <c r="E338" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>45884.50347222222</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Politics Beats the Market in Trump's Pay-for-Play Chip Scheme</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/politics-beats-the-market-in-trumps-pay-for-play-chip-scheme-f57ef41d?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E339" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45884.50347222222</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Intel's Move Toward Nationalization Won't Work-at Least for the Long Haul</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.wsj.com/tech/intels-move-toward-nationalization-wont-workat-least-for-the-long-haul-de403b16?mod=wsj_FV</t>
+        </is>
+      </c>
+      <c r="E340" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45884.48611111111</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>The Zacks Analyst Blog Highlights Intel, NVIDIA, AMD and Cadence Design Systems</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142097/the-zacks-analyst-blog-highlights-intel-nvidia-amd-and-cadence-design-systems</t>
+        </is>
+      </c>
+      <c r="E341" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Chicago, IL – August 15, 2025 – Zacks.com announces the list of stocks featured in the Analyst Blog. Every day the Zacks Equity Research analysts discuss the latest news and events impacting stocks and the financial markets. Stocks recently featured in the blog include: Intel Corp. INTC, NVIDIA Corp. NVDA, Advanced Micro Devices, Inc. AMD and Cadence Design Systems, Inc. CDNS.
+Here are highlights from Thursday’s Analyst Blog:
+Intel Corp. has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corp. and Advanced Micro Devices, Inc. in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trump's inconsistent stance on Intel CEO has drawn investors' interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Let's see –
+Last month, Cadence Design Systems, Inc. acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intel's current CEO, Lip-Bu Tan, was leading Cadence.
+Trump learned of Cotton's letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cotton's letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals.
+In reaction, Trump commended Tan's achievements, referring to his success and ascent as an "amazing story." Trump also endorsed Tan's leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Let's not forget, Tan is a well-known venture capitalist, respected for his expertise in the semiconductor industry.
+Intel's business has been struggling for quite some time. Despite Tan's initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year-ago levels.
+Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. It's worse than the $2.8 billion loss that the segment posted a year ago.
+Intel's gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short-term investments accounted for only $21.2 billion.
+However, under Tan's strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio.
+Intel is planning to provide a full-stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node.
+While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the company's business. In time, the semiconductor giant has the potential to regain its former glory.
+Trump's support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intel's price-to-book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future.
+However, new investors should remain passive and watch for meaningful progress. This is because it's too early to predict the potential success of Tan's initiatives, and Intel's financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of today's Zacks Rank #1 (Strong Buy) stocks here.
+Free: Instant Access to Zacks' Market-Crushing Strategies
+Since 2000, our top stock-picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year.
+Today you can tap into those powerful strategies – and the high-potential stocks they uncover – free. No strings attached.
+Get all the details here &gt;&gt;
+Media Contact
+Zacks Investment Research
+800-767-3771 ext. 9339
+https://www.zacks.com
+Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit https://www.zacks.com/performance for information about the performance numbers displayed in this press release.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+This article originally published on Zacks Investment Research (zacks.com).
+| 1 hour | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Chicago, IL August 15, 2025 Zacks.com announces the list of stocks featured in the Analyst Blog. Every day the Zacks Equity Research analysts discuss the latest news and events impacting stocks and the financial markets. Stocks recently featured in the blog include: Intel Corp. INTC, NVIDIA Corp. NVDA, Advanced Micro Devices, Inc. AMD and Cadence Design Systems, Inc. CDNS. Here are highlights from Thursdays Analyst Blog: Intel Corp. has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corp. and Advanced Micro Devices, Inc. in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trump's inconsistent stance on Intel CEO has drawn investors' interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Let's see Last month, Cadence Design Systems, Inc. acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intel's current CEO, Lip Bu Tan, was leading Cadence. Trump learned of Cotton's letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cotton's letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals. In reaction, Trump commended Tan's achievements, referring to his success and ascent as an "amazing story." Trump also endorsed Tan's leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Let's not forget, Tan is a well known venture capitalist, respected for his expertise in the semiconductor industry. Intel's business has been struggling for quite some time. Despite Tan's initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year ago levels. Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. It's worse than the $2.8 billion loss that the segment posted a year ago. Intel's gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short term investments accounted for only $21.2 billion. However, under Tan's strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio. Intel is planning to provide a full stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node. While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the company's business. In time, the semiconductor giant has the potential to regain its former glory. Trump's support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intel's price to book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future. However, new investors should remain passive and watch for meaningful progress. This is because it's too early to predict the potential success of Tan's initiatives, and Intel's financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of today's Zacks Rank #1 (Strong Buy) stocks here. Free: Instant Access to Zacks' Market Crushing Strategies Since 2000, our top stock picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year. Today you can tap into those powerful strategies and the high potential stocks they uncover free. No strings attached. Get all the details here &gt;&gt; Media Contact Zacks Investment Research 800 767 3771 ext. 9339 Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit for information about the performance numbers displayed in this press release. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report This article originally published on Zacks Investment Research (zacks.com). 1 hour Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45884.47916666666</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>China is Pushing Back Against Biggest Firms Using Nvidia Chips Despite Trump Clearing H20 AI Chips for Export</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/0a04f585-44f3-32cd-ac0a-41894f4d485f/china-is-pushing-back-against.html</t>
+        </is>
+      </c>
+      <c r="E342" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45884.46944444445</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>What AMD and Nvidia Shareholders Should Know About Recent China Updates</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142031/what-amd-and-nvidia-shareholders-should-know-about-recent-china-updates</t>
+        </is>
+      </c>
+      <c r="E343" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA) and Advanced Micro Devices (NASDAQ: AMD). To learn more, check out the short video, consider subscribing, and click the special offer link below.
+*Stock prices used were the after-market prices of Aug. 12, 2025. The video was published on Aug. 12, 2025.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Jose Najarro has positions in Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA) and Advanced Micro Devices (NASDAQ: AMD). To learn more, check out the short video, consider subscribing, and click the special offer link below. Stock prices used were the after market prices of Aug. 12, 2025. The video was published on Aug. 12, 2025. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Jose Najarro has positions in Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45884.46180555555</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Lee Ainslie's Strategic Moves: A Closer Look at The Walt Disney Co's 2.81% Portfolio Impact</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/lee-ainslies-strategic-moves-closer-150531631.html</t>
+        </is>
+      </c>
+      <c r="E344" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45884.45763888889</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Zacks Investment Ideas feature highlights: Fabrinet, Nvidia and Amazon</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142053/zacks-investment-ideas-feature-highlights-fabrinet-nvidia-and-amazon</t>
+        </is>
+      </c>
+      <c r="E345" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>For Immediate Release
+Chicago, IL – August 15, 2025– Today, Zacks Investment Ideas feature highlights Fabrinet FN, Nvidia NVDA and Amazon AMZN.
+Buy This Soaring Tech Stock Before Earnings for AI Growth
+Fabrinet stock has skyrocketed 95% since early April to trade at all-time highs heading into its fourth-quarter fiscal 2025 earnings release on Monday, August 18.
+FN helps big tech companies, including Nvidia, by making small, precision parts used across AI data centers, telecom, and beyond. Artificial intelligence powerhouse Nvidia is one of Fabrinet's largest clients, and it's growing its relationship with Amazon.
+The leading provider of advanced optical packaging tripled the Tech sector over the last 15 years as Wall Street gravitated toward Fabrinet's steady top-line growth in a critical, behind-the-scenes industry.
+The Bull Case for Under-the-Radar Tech Stock FN
+Fabrinet's portfolio enables other tech companies to make the small, complex parts they need for their products. In technical terms, FN is a leader in advanced optical packaging and precision optical, electro-mechanical, and electronic manufacturing services for original equipment manufacturers of complex products.
+More broadly, FN is a behind-the-scenes technology standout growing more critical by the day as AI hyperscalers and others race to build more data centers. For instance, some of Fabrinet's technologies play critical roles in sending information at lightning speeds in data centers, enabling AI programs to run smoothly.
+The company said earlier this year that demand for its datacenter interconnect products is strong and it's confident in the long-term upside across Fabrinet's datacom segment. FN averaged 13% revenue growth in the past five years. More importantly, its GAAP earnings exploded to the tune of 28% average expansion in the last four years.
+Nvidia is one of Fabrinet's largest clients, with the graphics chip powerhouse reportedly accounting for roughly 35% of Fabrinet's FY24 revenue. Fabrinet manufactures critical optical components and networking cables for NVIDIA's AI data center operations, including high-speed transceivers and interconnects used in AI clusters.
+Networking equipment giant Cisco Systems and optical components standout Lumentum are two of FN's other most important clients. On top of all that, Fabrinet and Amazon entered into an agreement in March for Amazon to buy warrants to purchase up to 381,922 shares of Fabrinet at $208.4826 per share. The deal incentivizes Fabrinet to deepen its role within Amazon's supply chain to help support the growth of AMZN's AI infrastructure.
+Fabrinet's direct connection to Nvidia and Amazon should help support long-term growth as both companies fuel the AI arms race. Plus, Fabrinet is a well-run company with a stellar balance sheet, holding more cash and equivalents ($951 million) than total liabilities ($712 million).
+Looking ahead, Fabrinet is projected to grow its FY25 (period ending in June 2025) revenue by 18% and 17% in FY26, reaching $3.95 billion—up from $2.88 billion in FY24.
+The company's consensus earnings estimates have jumped since its Q3 FY25 release, helping FN earn a Zacks Rank #2 (Buy). Fabrinet is expected to grow its adjusted earnings by 15% in FY25 and 18% in FY26.
+Buy Tech Stock FN Before Earnings, Or Wait for a Pullback?
+Fabrinet stock more than tripled the Zacks Tech sector over the last 15 years, soaring 2,660%. This run includes a 1,650% charge over the past 10 years to blow away Tech's 375% and Amazon's 745%.
+The stock has soared alongside the market, charging nearly 100% higher off its April lows to trade right near its recent peaks. The run took Fabrinet from some of its most oversold RSI levels over the past decade to some of its most overbought.
+FN appears rather overheated in the short run and due to possibly test its 21-week moving average. The stock is also trading at an all-time high at 32X forward 12-month earnings.
+This backdrop means that some investors might want to wait for Fabrinet's next pullback before they buy the behind-the-scenes AI stock. Others could decide to dive in as the bulls drive the stock market higher, and buy more FN stock the next time it fades.
+Free: Instant Access to Zacks' Market-Crushing Strategies
+Since 2000, our top stock-picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year.
+Today you can tap into those powerful strategies – and the high-potential stocks they uncover – free. No strings attached.
+Get all the details here &gt;&gt;
+Media Contact
+Zacks Investment Research
+800-767-3771 ext. 9339
+[email protected]
+https://www.zacks.com
+Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit https://www.zacks.com/performancefor information about the performance numbers displayed in this press release.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Amazon.com, Inc. (AMZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Fabrinet (FN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>For Immediate Release Chicago, IL August 15, 2025 Today, Zacks Investment Ideas feature highlights Fabrinet FN, Nvidia NVDA and Amazon AMZN. Buy This Soaring Tech Stock Before Earnings for AI Growth Fabrinet stock has skyrocketed 95% since early April to trade at all time highs heading into its fourth quarter fiscal 2025 earnings release on Monday, August 18. FN helps big tech companies, including Nvidia, by making small, precision parts used across AI data centers, telecom, and beyond. Artificial intelligence powerhouse Nvidia is one of Fabrinet's largest clients, and it's growing its relationship with Amazon. The leading provider of advanced optical packaging tripled the Tech sector over the last 15 years as Wall Street gravitated toward Fabrinet's steady top line growth in a critical, behind the scenes industry. The Bull Case for Under the Radar Tech Stock FN Fabrinet's portfolio enables other tech companies to make the small, complex parts they need for their products. In technical terms, FN is a leader in advanced optical packaging and precision optical, electro mechanical, and electronic manufacturing services for original equipment manufacturers of complex products. More broadly, FN is a behind the scenes technology standout growing more critical by the day as AI hyperscalers and others race to build more data centers. For instance, some of Fabrinet's technologies play critical roles in sending information at lightning speeds in data centers, enabling AI programs to run smoothly. The company said earlier this year that demand for its datacenter interconnect products is strong and it's confident in the long term upside across Fabrinet's datacom segment. FN averaged 13% revenue growth in the past five years. More importantly, its GAAP earnings exploded to the tune of 28% average expansion in the last four years. Nvidia is one of Fabrinet's largest clients, with the graphics chip powerhouse reportedly accounting for roughly 35% of Fabrinet's FY24 revenue. Fabrinet manufactures critical optical components and networking cables for NVIDIA's AI data center operations, including high speed transceivers and interconnects used in AI clusters. Networking equipment giant Cisco Systems and optical components standout Lumentum are two of FN's other most important clients. On top of all that, Fabrinet and Amazon entered into an agreement in March for Amazon to buy warrants to purchase up to 381,922 shares of Fabrinet at $208.4826 per share. The deal incentivizes Fabrinet to deepen its role within Amazon's supply chain to help support the growth of AMZN's AI infrastructure. Fabrinet's direct connection to Nvidia and Amazon should help support long term growth as both companies fuel the AI arms race. Plus, Fabrinet is a well run company with a stellar balance sheet, holding more cash and equivalents ($951 million) than total liabilities ($712 million). Looking ahead, Fabrinet is projected to grow its FY25 (period ending in June 2025) revenue by 18% and 17% in FY26, reaching $3.95 billionup from $2.88 billion in FY24. The company's consensus earnings estimates have jumped since its Q3 FY25 release, helping FN earn a Zacks Rank #2 (Buy). Fabrinet is expected to grow its adjusted earnings by 15% in FY25 and 18% in FY26. Buy Tech Stock FN Before Earnings, Or Wait for a Pullback? Fabrinet stock more than tripled the Zacks Tech sector over the last 15 years, soaring 2,660%. This run includes a 1,650% charge over the past 10 years to blow away Tech's 375% and Amazon's 745%. The stock has soared alongside the market, charging nearly 100% higher off its April lows to trade right near its recent peaks. The run took Fabrinet from some of its most oversold RSI levels over the past decade to some of its most overbought. FN appears rather overheated in the short run and due to possibly test its 21 week moving average. The stock is also trading at an all time high at 32X forward 12 month earnings. This backdrop means that some investors might want to wait for Fabrinet's next pullback before they buy the behind the scenes AI stock. Others could decide to dive in as the bulls drive the stock market higher, and buy more FN stock the next time it fades. Free: Instant Access to Zacks' Market Crushing Strategies Since 2000, our top stock picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year. Today you can tap into those powerful strategies and the high potential stocks they uncover free. No strings attached. Get all the details here &gt;&gt; Media Contact Zacks Investment Research 800 767 3771 ext. 9339 [email protected] Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit information about the performance numbers displayed in this press release. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report Amazon.com, Inc. (AMZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Fabrinet (FN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45884.45763888889</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Nvidia Slips Amid Chip Tariff Talk. Big Funds Are Piling Into the Stock.</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-slips-amid-chip-tariff.html</t>
+        </is>
+      </c>
+      <c r="E346" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45884.44027777778</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Why would Trump and Intel want to work together: Opening Bid top takeaway</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/why-would-trump-and-intel-want-to-work-together-opening-bid-top-takeaway-143409334.html</t>
+        </is>
+      </c>
+      <c r="E347" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45884.43958333333</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>A Trump Intel Stake Could Make National Security the New 'Too Big to Fail'</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/trump-intel-stake-too-big-fail-b66594d9?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E348" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45884.4375</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>BC-Most Active Stocks</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/bc-most-active-stocks-143017539.html</t>
+        </is>
+      </c>
+      <c r="E349" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45884.43680555555</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Trump Says Tariff Rate on Semiconductors Could Reach 300%. Nvidia and AMD Stocks Fall.</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/b679bc58-8e47-301a-a02f-a9a04f93cf32/trump-says-tariff-rate-on.html</t>
+        </is>
+      </c>
+      <c r="E350" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45884.4125</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Stutters. Big Funds Are Piling Into the AI Chip Maker.</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-stock-stutters.-big.html</t>
+        </is>
+      </c>
+      <c r="E351" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45884.40694444445</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Dow scales record high on hopes of Fed rate cuts, trade deals</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/dow-scales-record-high-hopes-134625792.html</t>
+        </is>
+      </c>
+      <c r="E352" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45884.37152777778</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Best semiconductor ETFs in 2025: Top chip companies for your portfolio</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/best-semiconductor-etfs-2025-top-125500125.html</t>
+        </is>
+      </c>
+      <c r="E353" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45884.36944444444</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>20 stocks in the S&amp;P 500 that are high achievers this earnings season</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.marketwatch.com/story/20-stocks-in-the-s-p-500-that-are-high-achievers-this-earnings-season-17b99522?mod=mw_FV</t>
+        </is>
+      </c>
+      <c r="E354" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45884.36805555555</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Best equal-weight index funds</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/best-equal-weight-index-funds-212855779.html</t>
+        </is>
+      </c>
+      <c r="E355" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45884.35416666666</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>ProShares Launches First ETF to Target 2x Daily Returns of Nasdaq-100 Top 30 Index</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/proshares-launches-first-etf-target-123000712.html</t>
+        </is>
+      </c>
+      <c r="E356" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45884.34722222222</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Could Buying Nvidia Today Set You Up for Life?</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141764/could-buying-nvidia-today-set-you-up-for-life</t>
+        </is>
+      </c>
+      <c r="E357" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Key Points
+Nvidia is riding a massive wave of AI success.
+With its massive lead and a $2 trillion AI data center market still developing, there's likely more gains ahead for Nvidia's stock.
+But don't expect the same returns that Nvidia had over the past few years.
+The artificial intelligence (AI) boom that has occurred over the past few years has elevated chip designer Nvidia (NASDAQ: NVDA) from a good investment into an amazing one, as its share price spiked over 900%.
+With gains of that magnitude, it's logical to wonder whether Nvidia stock can keep the momentum going and set investors up for life, or if the stock has run its course. Here's why Nvidia is a hands-down fantastic stock to own, but why it's also unlikely to set you up for life at this point.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Nvidia still has room to run
+Many technology companies are chasing after AI glory right now, but Nvidia is one of the only companies that can benefit no matter who wins the AI race. Nvidia's processors lead the pack in AI data center market share -- with up to 95% by some estimates. This means that as large tech companies invest hundreds of billions of dollars into building AI data centers, Nvidia's processors are almost always chosen to go in them.
+That's resulted in mammoth-sized revenue gains for the company, including a 126% and 114% increase over the past two years. And there could be more growth on the way. Tech giants aren't finished investing in their AI infrastructure, and an estimated $2 trillion could be spent on AI data centers over the next four years.
+Nvidia is also expanding into related markets, including enterprise AI software, and could benefit from the burgeoning autonomous vehicle market, both of which could help extend its growth runway. Given the continued and large investments in AI by major tech companies and Nvidia's lead in providing semiconductors to them all, there isn't currently much to worry about concerning Nvidia's core business.
+But duplicating Nvidia's recent gains will be nearly impossible
+While Nvidia certainly has more room to continue selling its processors to tech companies as they build their AI infrastructure, at some point, this initial surge in spending will subside. We're already a few years into companies creating chatbots, AI agents, and other cloud-based AI tools. Like any new major tech trend, there's typically a first wave of big investments before an eventual tapering off.
+While no one knows when that will happen or to what extent, it likely means that Nvidia's astronomical gains over the past few years won't be replicated. The likelihood that Nvidia could continue doubling its sales for several more consecutive years at this point is unrealistic, given that its fiscal 2025 revenue was nearly $131 billion.
+For example, analysts' consensus estimate for Nvidia's sales growth for 2026 is 54% to $250 billion and 25% growth in 2027. That's still a very impressive revenue increase, but it's not anywhere near the recent growth Nvidia has experienced.
+It's also important to point out that Nvidia's rapid stock-price growth over the past few years means that its shares are likely priced for perfection. A sales or earnings miss at this point, even if it's not technically a bad quarter, could cause the stock to fall based on sky-high expectations.
+Nvidia probably won't set you up for life, but don't ignore it
+While Nvidia isn't likely to set you up for life if you buy the stock now, ignoring this AI leader would be a mistake. The company is still in a leading position in AI processors at a time when AI is still in the early innings.
+That's why buying the stock could still be a wise move. Just don't expect another 900% share-price gain over the next three years.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Chris Neiger has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Key Points Nvidia is riding a massive wave of AI success. With its massive lead and a $2 trillion AI data center market still developing, there's likely more gains ahead for Nvidia's stock. But don't expect the same returns that Nvidia had over the past few years. The artificial intelligence (AI) boom that has occurred over the past few years has elevated chip designer Nvidia (NASDAQ: NVDA) from a good investment into an amazing one, as its share price spiked over 900%. With gains of that magnitude, it's logical to wonder whether Nvidia stock can keep the momentum going and set investors up for life, or if the stock has run its course. Here's why Nvidia is a hands down fantastic stock to own, but why it's also unlikely to set you up for life at this point. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Nvidia still has room to run Many technology companies are chasing after AI glory right now, but Nvidia is one of the only companies that can benefit no matter who wins the AI race. Nvidia's processors lead the pack in AI data center market share with up to 95% by some estimates. This means that as large tech companies invest hundreds of billions of dollars into building AI data centers, Nvidia's processors are almost always chosen to go in them. That's resulted in mammoth sized revenue gains for the company, including a 126% and 114% increase over the past two years. And there could be more growth on the way. Tech giants aren't finished investing in their AI infrastructure, and an estimated $2 trillion could be spent on AI data centers over the next four years. Nvidia is also expanding into related markets, including enterprise AI software, and could benefit from the burgeoning autonomous vehicle market, both of which could help extend its growth runway. Given the continued and large investments in AI by major tech companies and Nvidia's lead in providing semiconductors to them all, there isn't currently much to worry about concerning Nvidia's core business. But duplicating Nvidia's recent gains will be nearly impossible While Nvidia certainly has more room to continue selling its processors to tech companies as they build their AI infrastructure, at some point, this initial surge in spending will subside. We're already a few years into companies creating chatbots, AI agents, and other cloud based AI tools. Like any new major tech trend, there's typically a first wave of big investments before an eventual tapering off. While no one knows when that will happen or to what extent, it likely means that Nvidia's astronomical gains over the past few years won't be replicated. The likelihood that Nvidia could continue doubling its sales for several more consecutive years at this point is unrealistic, given that its fiscal 2025 revenue was nearly $131 billion. For example, analysts' consensus estimate for Nvidia's sales growth for 2026 is 54% to $250 billion and 25% growth in 2027. That's still a very impressive revenue increase, but it's not anywhere near the recent growth Nvidia has experienced. It's also important to point out that Nvidia's rapid stock price growth over the past few years means that its shares are likely priced for perfection. A sales or earnings miss at this point, even if it's not technically a bad quarter, could cause the stock to fall based on sky high expectations. Nvidia probably won't set you up for life, but don't ignore it While Nvidia isn't likely to set you up for life if you buy the stock now, ignoring this AI leader would be a mistake. The company is still in a leading position in AI processors at a time when AI is still in the early innings. That's why buying the stock could still be a wise move. Just don't expect another 900% share price gain over the next three years. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Chris Neiger has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45884.33333333334</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>What AMD, CoreWeave, and Nvidia Stock Investors Should Know About Recent Updates</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141745/what-amd-coreweave-and-nvidia-stock-investors-should-know-about-recent-updates</t>
+        </is>
+      </c>
+      <c r="E358" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA), Advanced Micro Devices (NASDAQ: AMD), and CoreWeave (NASDAQ: CRWV). To learn more, check out the short video, consider subscribing, and click the special offer link below.
+*Stock prices used were the after-market prices of Aug. 13, 2025. The video was published on Aug. 13, 2025.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Jose Najarro has positions in Advanced Micro Devices, CoreWeave, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices and Nvidia. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA), Advanced Micro Devices (NASDAQ: AMD), and CoreWeave (NASDAQ: CRWV). To learn more, check out the short video, consider subscribing, and click the special offer link below. Stock prices used were the after market prices of Aug. 13, 2025. The video was published on Aug. 13, 2025. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Jose Najarro has positions in Advanced Micro Devices, CoreWeave, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices and Nvidia. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45884.29166666666</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>3 AI chip stocks that are best positioned right now</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/3-ai-chip-stocks-best-110017626.html</t>
+        </is>
+      </c>
+      <c r="E359" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45884.29166666666</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>These Were the 5 Biggest Companies in 2019, and Here Are the 5 Biggest Companies Now</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141703/these-were-the-5-biggest-companies-in-2019-and-here-are-the-5-biggest-companies-now</t>
+        </is>
+      </c>
+      <c r="E360" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Key Points
+The largest companies in 2019 represented a motley mix of tech, consumer, and financials.
+Four out of the five biggest companies today, though, are all tech giants.
+This shift reflects the changing global landscape and companies making breakthroughs.
+Businesses evolve with global trends, technological advancements, and shifts in consumer preferences. The change is sometimes so rapid that it takes only a few years for emerging companies to become global titans.
+That's what happened between 2019 and now. While some corporate giants have retained their positions as the largest companies, one company that wasn't even in the top 20 in 2019 has catapulted to the top spot today.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+The five biggest companies in 2019
+| Company |
+Market capitalization (03/31/2019) |
+|
+Microsoft (NASDAQ: MSFT)
+|
+$905 billion |
+|
+Apple (NASDAQ: AAPL)
+|
+$896 billion |
+|
+Amazon (NASDAQ: AMZN)
+|
+$875 billion |
+|
+Alphabet (NASDAQ: GOOG)(NASDAQ: GOOGL)
+|
+$817 billion |
+|
+Berkshire Hathaway (NYSE: BRK.A)(NYSE: BRK.B)
+|
+$494 billion |
+Data source: PricewaterhouseCoopers (PwC) global top 100 companies report, 2019.
+Tech evidently ruled in 2019, but the tech supremacy that the world has witnessed since has been nothing short of spectacular. Artificial intelligence (AI) has rocked the world, with one company absolutely crushing it.
+The five biggest companies in 2025
+| Company |
+Market capitalization (08/13/2025) |
+|
+Nvidia (NASDAQ: NVDA)
+|
+$4.43 trillion |
+| Microsoft |
+$3.89 trillion |
+| Apple |
+$3.46 trillion |
+| Alphabet |
+$2.44 trillion |
+| Amazon |
+$2.39 trillion |
+Data source: Yahoo! Finance.
+Apple's flagship iPhones, high-margin services segment, and diversification into wearables have added tremendous value to its business since 2019.
+Amazon's growth since 2019, meanwhile, has been driven by its leadership in e-commerce and aggressive expansion of cloud services through Amazon Web Services (AWS). AWS is the world's largest cloud computing platform today.
+Cloud has also been a key growth driver for Alphabet and Microsoft since 2019. Yet, none of these companies have achieved what Nvidia has in six years.
+NVDA Market Cap data by YCharts
+Nvidia's unstoppable growth in AI has pushed its market cap by 4,000% since 2019 to over $4 trillion. That makes Nvidia the world's most valuable company today.
+In the world of investing, tracking the largest companies isn't just about market capitalization, though. It reveals the dynamic forces shaping global markets, and which companies are positioning themselves to stay relevant in the long run.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Neha Chamaria has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Berkshire Hathaway, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Key Points The largest companies in 2019 represented a motley mix of tech, consumer, and financials. Four out of the five biggest companies today, though, are all tech giants. This shift reflects the changing global landscape and companies making breakthroughs. Businesses evolve with global trends, technological advancements, and shifts in consumer preferences. The change is sometimes so rapid that it takes only a few years for emerging companies to become global titans. That's what happened between 2019 and now. While some corporate giants have retained their positions as the largest companies, one company that wasn't even in the top 20 in 2019 has catapulted to the top spot today. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. The five biggest companies in 2019 Company Market capitalization (03/31/2019) Microsoft (NASDAQ: MSFT) $905 billion Apple (NASDAQ: AAPL) $896 billion Amazon (NASDAQ: AMZN) $875 billion Alphabet (NASDAQ: GOOG)(NASDAQ: GOOGL) $817 billion Berkshire Hathaway (NYSE: BRK.A)(NYSE: BRK.B) $494 billion Data source: PricewaterhouseCoopers (PwC) global top 100 companies report, 2019. Tech evidently ruled in 2019, but the tech supremacy that the world has witnessed since has been nothing short of spectacular. Artificial intelligence (AI) has rocked the world, with one company absolutely crushing it. The five biggest companies in 2025 Company Market capitalization (08/13/2025) Nvidia (NASDAQ: NVDA) $4.43 trillion Microsoft $3.89 trillion Apple $3.46 trillion Alphabet $2.44 trillion Amazon $2.39 trillion Data source: Yahoo! Finance. Apple's flagship iPhones, high margin services segment, and diversification into wearables have added tremendous value to its business since 2019. Amazon's growth since 2019, meanwhile, has been driven by its leadership in e commerce and aggressive expansion of cloud services through Amazon Web Services (AWS). AWS is the world's largest cloud computing platform today. Cloud has also been a key growth driver for Alphabet and Microsoft since 2019. Yet, none of these companies have achieved what Nvidia has in six years. NVDA Market Cap data by YCharts Nvidia's unstoppable growth in AI has pushed its market cap by 4,000% since 2019 to over $4 trillion. That makes Nvidia the world's most valuable company today. In the world of investing, tracking the largest companies isn't just about market capitalization, though. It reveals the dynamic forces shaping global markets, and which companies are positioning themselves to stay relevant in the long run. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Neha Chamaria has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Berkshire Hathaway, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45884.25208333333</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Analysis-Trump's attack on Goldman could prompt watering down of Wall Street's independent analysis</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/analysis-trumps-attack-goldman-could-100301764.html</t>
+        </is>
+      </c>
+      <c r="E361" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45884.25</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Can megacaps keep rising? Here's what valuation metrics tell us</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr"/>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/megacaps-keep-rising-heres-valuation-100019975.html</t>
+        </is>
+      </c>
+      <c r="E362" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45884.22916666666</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>AI Exacerbates Tech Divide With Smaller Stocks Languishing</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr"/>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/ai-exacerbates-tech-divide-smaller-093000902.html</t>
+        </is>
+      </c>
+      <c r="E363" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45884.22708333333</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>CoreWeave IPO Investors Sitting on Big Gains Get Chance to Sell</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr"/>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/coreweave-ipo-investors-sitting-big-092712253.html</t>
+        </is>
+      </c>
+      <c r="E364" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45884.21666666667</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Taiwan raises 2025 GDP growth forecast, cautious about 2026 outlook on US tariffs</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/taiwan-raises-2025-gdp-growth-091247191.html</t>
+        </is>
+      </c>
+      <c r="E365" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45884.21458333333</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Wavers. Big Funds Are Piling Into the AI Chip Maker.</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/nvidia-stock-price-soros-ai-aebccfaf?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E366" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45884.17291666667</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Where Will Navitas Semiconductor Stock Be in 3 Years?</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr"/>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141527/where-will-navitas-semiconductor-stock-be-in-3-years</t>
+        </is>
+      </c>
+      <c r="E367" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Key Points
+Navitas’ stock trades about 70% below its all-time high.
+It faces challenging macro headwinds.
+Its stock looks expensive relative to its growth potential.
+Navitas Semiconductor (NASDAQ: NVTS), a producer of gallium nitride (GaN) and silicon carbide (SiC) chips, took its investors on a wild ride after it went public by merging with a special purpose acquisition company (SPAC) on Oct. 21, 2021. Its stock opened at $13, soared to a record high of $22.19 a month later, but sank to an all-time low of $1.52 on April 4, 2025. Like many other SPAC-backed start-ups, Navitas disappointed its investors by missing its own growth forecasts and racking up steep losses.
+Today, Navitas' stock trades just above $7 a share. It bounced back as its new AI data center partnership with Nvidia (NASDAQ: NVDA) attracted a stampede of bulls and squeezed out the bears. But could Navitas' stock generate even bigger gains and set fresh highs over the next three years?
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+What happened over the past three years?
+GaN and SiC power chips are faster, more power-efficient, and can operate at higher temperatures and voltages than traditional silicon chips. That makes them well-suited for mobile fast chargers, electric vehicle (EV) chargers, laptop adapters, data center power supplies, solar inverters, industrial motor drives, and energy storage solutions.
+Navitas generates most of its revenue from its GaNFast Power ICs, which bundle together switching, sensing, control, and security features on a single chip. It expanded into the SiC market through its acquisition of GeneSiC, which mainly supplies SiC power chips for the EV and data center markets, in 2022. Its major customers now include Dell Technologies (NYSE: DELL), which uses GaN/SiC chips in its laptop chargers; the Chinese automaker Changan, which uses its GaN ICs in its on-board EV chargers; and Nvidia, which selected its 800 V HVDC architecture to support its AI workloads at its data centers earlier this year.
+Navitas is a fabless chipmaker that outsources its manufacturing to third-party foundries. That capital-light model enables it to focus on developing new chips instead of spending a lot of money on upgrading its plants. That sets it apart from Wolfspeed (NYSE: WOLF), the SiC and GaN chipmaker, which filed for bankruptcy this June after failing to balance the costs of running its own foundries with its soaring debt levels.
+Before Navitas went public, it claimed it would grow its annual revenue from $12 million in 2020 to $308 million in 2024. It also expected to achieve a positive adjusted earnings before interest, taxes, depreciation, and amortization (EBITDA) by 2023. But here's what actually happened over the past three years.
+|
+Metric
+|
+2022
+|
+2023
+|
+2024
+|
+|
+Revenue
+|
+$37.9 million
+|
+$79.5 million
+|
+$83.3 million
+|
+|
+Revenue Growth
+|
+60%
+|
+109%
+|
+5%
+|
+|
+Adjusted EBITDA
+|
+($32.9 million)
+|
+($19.3 million)
+|
+($27.8 million)
+|
+Data source: Navitas, Marketscreener.
+In 2024, Navitas' growth stalled out as the macro headwinds disrupted its orders from its EV, solar, and industrial customers. It also ended a key distribution deal for its SiC products, and it generated more sales from its lower-margin GaN chips instead of its higher-margin SiC chips. That pressure, along with its rising R&amp;D expenses, caused it to remain deeply unprofitable on a generally accepted accounting principles (GAAP) basis as its adjusted EBITDA stayed negative.
+What will happen to Navitas over the next three years?
+Over the next few years, Navitas' data center deal with Nvidia -- which will be ramped up in 2026 and expanded in 2027 -- could significantly boost its revenue. It should also benefit from the growing adoption of GaN and SiC chips in EV chargers, laptop chargers, and other electronic devices. However, the tariffs against China and its intentional retreat from its lower-margin (but higher revenue) mobile markets could offset those tailwinds and throttle its overall growth.
+Based on those expectations, analysts expect Navitas' revenue to grow at a CAGR of 7% from 2024 to 2027 -- but its adjusted EBITDA should stay negative by the final year. And with an enterprise value of $1.27 billion, it still looks expensive at 26 times this year's sales.
+Navitas' valuations are likely being inflated by its deal with Nvidia. Expectations for lower interest rates are amplifying those gains by driving more investors toward speculative stocks again. Those higher valuations could cap its gains over the next three years.
+If Navitas matches analysts' expectations, grows its revenue by another 7% in 2028, and trades at a more reasonable 10 times its forward sales, its stock price would actually decline 7% to roughly $6.10 and reduce its enterprise value to $1.1 billion. Therefore, its stock could underperform the market until it stabilizes its core businesses. But over the long term, Navitas could still be a good long-term play on GaN and SiC chips as they displace traditional silicon chips.
+Should you invest $1,000 in Navitas Semiconductor right now?
+Before you buy stock in Navitas Semiconductor, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Navitas Semiconductor wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Leo Sun has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool recommends Wolfspeed. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Key Points Navitas stock trades about 70% below its all time high. It faces challenging macro headwinds. Its stock looks expensive relative to its growth potential. Navitas Semiconductor (NASDAQ: NVTS), a producer of gallium nitride (GaN) and silicon carbide (SiC) chips, took its investors on a wild ride after it went public by merging with a special purpose acquisition company (SPAC) on Oct. 21, 2021. Its stock opened at $13, soared to a record high of $22.19 a month later, but sank to an all time low of $1.52 on April 4, 2025. Like many other SPAC backed start ups, Navitas disappointed its investors by missing its own growth forecasts and racking up steep losses. Today, Navitas' stock trades just above $7 a share. It bounced back as its new AI data center partnership with Nvidia (NASDAQ: NVDA) attracted a stampede of bulls and squeezed out the bears. But could Navitas' stock generate even bigger gains and set fresh highs over the next three years? Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. What happened over the past three years? GaN and SiC power chips are faster, more power efficient, and can operate at higher temperatures and voltages than traditional silicon chips. That makes them well suited for mobile fast chargers, electric vehicle (EV) chargers, laptop adapters, data center power supplies, solar inverters, industrial motor drives, and energy storage solutions. Navitas generates most of its revenue from its GaNFast Power ICs, which bundle together switching, sensing, control, and security features on a single chip. It expanded into the SiC market through its acquisition of GeneSiC, which mainly supplies SiC power chips for the EV and data center markets, in 2022. Its major customers now include Dell Technologies (NYSE: DELL), which uses GaN/SiC chips in its laptop chargers; the Chinese automaker Changan, which uses its GaN ICs in its on board EV chargers; and Nvidia, which selected its 800 V HVDC architecture to support its AI workloads at its data centers earlier this year. Navitas is a fabless chipmaker that outsources its manufacturing to third party foundries. That capital light model enables it to focus on developing new chips instead of spending a lot of money on upgrading its plants. That sets it apart from Wolfspeed (NYSE: WOLF), the SiC and GaN chipmaker, which filed for bankruptcy this June after failing to balance the costs of running its own foundries with its soaring debt levels. Before Navitas went public, it claimed it would grow its annual revenue from $12 million in 2020 to $308 million in 2024. It also expected to achieve a positive adjusted earnings before interest, taxes, depreciation, and amortization (EBITDA) by 2023. But here's what actually happened over the past three years. Metric 2022 2023 2024 Revenue $37.9 million $79.5 million $83.3 million Revenue Growth 60% 109% 5% Adjusted EBITDA ($32.9 million) ($19.3 million) ($27.8 million) Data source: Navitas, Marketscreener. In 2024, Navitas' growth stalled out as the macro headwinds disrupted its orders from its EV, solar, and industrial customers. It also ended a key distribution deal for its SiC products, and it generated more sales from its lower margin GaN chips instead of its higher margin SiC chips. That pressure, along with its rising R&amp;D expenses, caused it to remain deeply unprofitable on a generally accepted accounting principles (GAAP) basis as its adjusted EBITDA stayed negative. What will happen to Navitas over the next three years? Over the next few years, Navitas' data center deal with Nvidia which will be ramped up in 2026 and expanded in 2027 could significantly boost its revenue. It should also benefit from the growing adoption of GaN and SiC chips in EV chargers, laptop chargers, and other electronic devices. However, the tariffs against China and its intentional retreat from its lower margin (but higher revenue) mobile markets could offset those tailwinds and throttle its overall growth. Based on those expectations, analysts expect Navitas' revenue to grow at a CAGR of 7% from 2024 to 2027 but its adjusted EBITDA should stay negative by the final year. And with an enterprise value of $1.27 billion, it still looks expensive at 26 times this year's sales. Navitas' valuations are likely being inflated by its deal with Nvidia. Expectations for lower interest rates are amplifying those gains by driving more investors toward speculative stocks again. Those higher valuations could cap its gains over the next three years. If Navitas matches analysts' expectations, grows its revenue by another 7% in 2028, and trades at a more reasonable 10 times its forward sales, its stock price would actually decline 7% to roughly $6.10 and reduce its enterprise value to $1.1 billion. Therefore, its stock could underperform the market until it stabilizes its core businesses. But over the long term, Navitas could still be a good long term play on GaN and SiC chips as they displace traditional silicon chips. Should you invest $1,000 in Navitas Semiconductor right now? Before you buy stock in Navitas Semiconductor, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Navitas Semiconductor wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Leo Sun has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool recommends Wolfspeed. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45884.15069444444</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Should You Buy Nvidia Stock Before Aug. 27? Wall Street Has a Compelling Answer</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr"/>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141519/should-you-buy-nvidia-stock-before-aug-27-wall-street-has-a-compelling-answer</t>
+        </is>
+      </c>
+      <c r="E368" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Key Points
+Investors will be on the edge of their seats when Nvidia releases its quarterly financial report later this month.
+Despite being the world's largest company, Wall Street is becoming even more bullish on the chipmaker.
+Nvidia's Blackwell processor and the resumption of sales to China could spark the stock's next run higher.
+The most profound change in the tech landscape in recent memory comes courtesy of advancements in artificial intelligence (AI). These next-generation algorithms are being applied to a dizzying number of new use cases, but they require an extraordinary amount of computational horsepower.
+Arguably, the biggest beneficiary of this secular tailwind has been Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs), which were pioneered to create lifelike images in video games, proved equally adept at providing the lightning-fast speeds necessary for AI training and inference. The explosive demand for Nvidia's AI chips has fueled the company's meteoric rise. Since the dawn of AI in early 2023, Nvidia stock has climbed a heady 1,140% (as of this writing), turning the company into the de facto poster child for AI.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Nvidia has a lot riding on its second quarter financial results, which are scheduled to be released after the market closes on Aug. 27. Heading into this critical report, let's look at recent developments, what Wall Street is saying, and what investors can expect.
+Image source: Getty Images.
+Paint by numbers
+After two consecutive years of triple-digit revenue and profit growth, Nvidia's growth rate has inevitably slowed, but the results are impressive nonetheless.
+In the company's fiscal 2026 first quarter (ended April 27), the results were enviable by any standard. Nvidia delivered record revenue of $44.1 billion, up 69% year over year, while its adjusted earnings per share (EPS) of $0.81 climbed 33%.
+The profit picture requires context, however. Early in Q1, the Trump Administration issued a moratorium on H20 chip sales to China (which has since been lifted). Nvidia took a $4.5 billion charge for the affected inventory. If not for this one-time charge, adjusted EPS of $0.96 would have jumped 62%. The profits in accordance with generally accepted accounting principles (GAAP) were also solidt, increasing 27% to $0.76.
+Estimates vary regarding the impact of resuming chip sales to China. Stifel analyst Ruben Roy cited pent-up demand fueling $19.5 billion in H20 chip sales this year. Analysts' consensus estimates had previously pegged Nvidia's fiscal 2026 revenue at $201 billion, so resuming sales to China could potentially boost revenue by 10%, though the final tally will depend on the availability of manufacturing capacity.
+The biggest growth driver for Nvidia is sales of the company's AI-centric Blackwell architecture. In the first quarter, CFO Colette Kress noted that the Blackwell ramp had expanded to "all customer categories," making it "the fastest ramp in company history."
+Nvidia's strong record of innovation has kept the company at the forefront of the AI revolution, and it appears that won't be changing anytime soon.
+What Wall Street is saying right now
+Ahead of Nvidia's important report later this month, Wall Street is increasingly bullish. Analysts' consensus estimates are calling for revenue of $45.75 billion, or growth of about 53%, resulting in EPS of $1.00, an increase of 47%. Nvidia has a remarkable track record of consistently beating its own expectations and those of Wall Street, so the consensus could well be conservative.
+Of the 65 analysts who offered an opinion in August, 89% rate Nvidia stock a buy or strong buy, and only one recommends selling. The average price target of $187 suggests modest upside of about 3%.
+One of the more bullish takes comes courtesy of Loop Capital analyst John Donovan. He maintained a buy rating on the stock and recently increased his price target to $250, or potential upside for investors of 38%. The analyst cites channel checks with cloud providers, which suggest an ongoing surge in demand. He goes on to suggest that the market for data center GPUs could soar to $2 trillion by 2028. As the industry leader, Nvidia is well-positioned to benefit from the trend.
+Finally, there's the subject of valuation. Nvidia stock is currently selling for roughly 31 times next year's earnings. While that's a slight premium, it's worth considering the context. Nvidia's revenue has soared 832% over the past five years (as of this writing), while its net income has risen 1,310%. This has fueled a stock price surge of 1,490%. The ability to consistently generate market beating returns, particularly gains of that magnitude, is rare. This helps to illustrate why Nvidia is deserving of a premium.
+Wall Street's position is clear. Nvidia stock is a buy. We'll know more after the company reports its Q2 results after the market close on Wednesday, Aug. 27.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Key Points Investors will be on the edge of their seats when Nvidia releases its quarterly financial report later this month. Despite being the world's largest company, Wall Street is becoming even more bullish on the chipmaker. Nvidia's Blackwell processor and the resumption of sales to China could spark the stock's next run higher. The most profound change in the tech landscape in recent memory comes courtesy of advancements in artificial intelligence (AI). These next generation algorithms are being applied to a dizzying number of new use cases, but they require an extraordinary amount of computational horsepower. Arguably, the biggest beneficiary of this secular tailwind has been Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs), which were pioneered to create lifelike images in video games, proved equally adept at providing the lightning fast speeds necessary for AI training and inference. The explosive demand for Nvidia's AI chips has fueled the company's meteoric rise. Since the dawn of AI in early 2023, Nvidia stock has climbed a heady 1,140% (as of this writing), turning the company into the de facto poster child for AI. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Nvidia has a lot riding on its second quarter financial results, which are scheduled to be released after the market closes on Aug. 27. Heading into this critical report, let's look at recent developments, what Wall Street is saying, and what investors can expect. Image source: Getty Images. Paint by numbers After two consecutive years of triple digit revenue and profit growth, Nvidia's growth rate has inevitably slowed, but the results are impressive nonetheless. In the company's fiscal 2026 first quarter (ended April 27), the results were enviable by any standard. Nvidia delivered record revenue of $44.1 billion, up 69% year over year, while its adjusted earnings per share (EPS) of $0.81 climbed 33%. The profit picture requires context, however. Early in Q1, the Trump Administration issued a moratorium on H20 chip sales to China (which has since been lifted). Nvidia took a $4.5 billion charge for the affected inventory. If not for this one time charge, adjusted EPS of $0.96 would have jumped 62%. The profits in accordance with generally accepted accounting principles (GAAP) were also solidt, increasing 27% to $0.76. Estimates vary regarding the impact of resuming chip sales to China. Stifel analyst Ruben Roy cited pent up demand fueling $19.5 billion in H20 chip sales this year. Analysts' consensus estimates had previously pegged Nvidia's fiscal 2026 revenue at $201 billion, so resuming sales to China could potentially boost revenue by 10%, though the final tally will depend on the availability of manufacturing capacity. The biggest growth driver for Nvidia is sales of the company's AI centric Blackwell architecture. In the first quarter, CFO Colette Kress noted that the Blackwell ramp had expanded to "all customer categories," making it "the fastest ramp in company history." Nvidia's strong record of innovation has kept the company at the forefront of the AI revolution, and it appears that won't be changing anytime soon. What Wall Street is saying right now Ahead of Nvidia's important report later this month, Wall Street is increasingly bullish. Analysts' consensus estimates are calling for revenue of $45.75 billion, or growth of about 53%, resulting in EPS of $1.00, an increase of 47%. Nvidia has a remarkable track record of consistently beating its own expectations and those of Wall Street, so the consensus could well be conservative. Of the 65 analysts who offered an opinion in August, 89% rate Nvidia stock a buy or strong buy, and only one recommends selling. The average price target of $187 suggests modest upside of about 3%. One of the more bullish takes comes courtesy of Loop Capital analyst John Donovan. He maintained a buy rating on the stock and recently increased his price target to $250, or potential upside for investors of 38%. The analyst cites channel checks with cloud providers, which suggest an ongoing surge in demand. He goes on to suggest that the market for data center GPUs could soar to $2 trillion by 2028. As the industry leader, Nvidia is well positioned to benefit from the trend. Finally, there's the subject of valuation. Nvidia stock is currently selling for roughly 31 times next year's earnings. While that's a slight premium, it's worth considering the context. Nvidia's revenue has soared 832% over the past five years (as of this writing), while its net income has risen 1,310%. This has fueled a stock price surge of 1,490%. The ability to consistently generate market beating returns, particularly gains of that magnitude, is rare. This helps to illustrate why Nvidia is deserving of a premium. Wall Street's position is clear. Nvidia stock is a buy. We'll know more after the company reports its Q2 results after the market close on Wednesday, Aug. 27. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45884.12916666667</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Nvidia, Palantir, and AMD Have a Nearly $13 Billion Warning for Wall Street -- but Are You Paying Attention?</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr"/>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141515/nvidia-palantir-and-amd-have-a-nearly-13-billion-warning-for-wall-street-but-are-you-paying-attention</t>
+        </is>
+      </c>
+      <c r="E369" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Competitive advantages, along with insatiable demand for artificial intelligence (AI) hardware and software, have sent shares of Nvidia, Palantir Technologies, and Advanced Micro Devices soaring.
+On a combined basis, insiders at Nvidia, Palantir, and AMD have made just four purchases of their respective company's stock spanning five years.
+Historical precedent poses a big problem for some of Wall Street's hottest AI stocks.
+Roughly 30 years ago, the advent and proliferation of the internet began positively altering the growth arc for corporate America. The internet offered businesses new ways to interact with prospective and existing clients, as well as market their products. For decades, investors have been waiting for the next technological leap forward, and the artificial intelligence (AI) revolution looks to be it.
+The combination of increased productivity and consumption-side effects associated with the rise of AI is expected to increase global gross domestic product by $15.7 trillion come 2030, according to analysts at PwC. This sky-high addressable market is the primary reason we've witnessed Wall Street's AI darlings -- Nvidia (NASDAQ: NVDA), Palantir Technologies (NASDAQ: PLTR), and Advanced Micro Devices (NASDAQ: AMD), which is commonly known as "AMD" -- soar since 2023 began.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Nvidia's Hopper (H100) and Blackwell graphics processing units (GPUs) account for the bulk of the GPUs deployed in AI-accelerated data centers. Meanwhile, production for AMD's Instinct series AI-accelerating chips is expanding, with the expectation that it'll carve out a healthy share of the AI-GPU market for enterprise data centers.
+As for Palantir, its AI- and machine learning-powered software-as-a-service Gotham and Foundry platforms offer sustainable moats. Federal governments turn to Gotham for military mission planning and execution, along with data collection and analysis. Meanwhile, Foundry is a subscription-driven platform for businesses looking to make sense of their big data and streamline/automate their operations.
+While their respective share price appreciation indicates everything is going great for Nvidia, Palantir, and AMD, all three companies have, collectively, offered up a nearly $13 billion warning to Wall Street. The real question is: Are you, or any other investors, heeding this warning?
+There are a number of potential headwinds that can come into play for AI stocks over the coming quarters and years, some of which I'll touch on a bit later. However, one of the more front-and-center concerns has to do with the how corporate insiders have approached their company's stock.
+Here's the good news: Thanks to required Form 4 filings with the Securities and Exchange Commission, investors have the ability to track the purchasing and selling activity of executives and board members. This activity details the buying and selling of common stock, as well as options activity.
+When it comes to Nvidia, Palantir, and AMD, there's been a very clear trend over the last five years (note: Palantir's initial public offering was Sept. 30, 2020): insider selling.
+Over the trailing-five-year period, net selling activity has totaled:
+Collectively, the insiders of these three highly influential AI businesses have sold north of $12.9 billion worth of their common stock over the trailing half-decade.
+However, insider selling isn't as cut-and-dried as it might appear on the surface. This is to say there are a lot of reasons insiders might sell their company's stock -- and they're not all nefarious.
+For instance, most executives receive stock-based compensation and/or options. Options are required to be exercised within a certain time frame, otherwise they expire worthless. With some executives receiving the lion's share of their compensation in stock or options, they have to sell their company's stock to cover their federal and/or state tax bill. The key point here is that not all insider selling is necessarily bad.
+But at the same time, there's only one reason executives and board members purchase their company's stock: they expect it to head higher. Over the trailing five-year period, executives and board members have made exactly one purchase at Nvidia, one purchase at Palantir, and two purchases at AMD.
+The takeaway here is simple: if insiders at Nvidia, Palantir, and AMD aren't willing to purchase their own company's stock, why should everyday investors believe these three stocks still offer significant upside?
+Image source: Getty Images.
+Unfortunately, this nearly $13 billion warning isn't the only worry for investors. Historical precedent is a multipronged headwind that has the potential to meaningfully drag down AI stock valuations.
+To preface the following discussion, history is never guaranteed to repeat on Wall Street. If there was an indicator that concretely guaranteed short-term directional moves in stocks, you can rest assured that everyone would be using it by now.
+Nevertheless, there are historical events and metrics that have flawlessly correlated with directional moves for the S&amp;P 500 and Wall Street's other major indexes in the past. It's these correlations that suggest Nvidia, Palantir, and AMD could be in a world of trouble.
+For example, every game-changing innovation since (and including) the advent of the internet in the mid-1990s has endured a bubble-bursting event fairly early in its expansion. This long line of hyped innovations navigating their way through bubbles signals that investors consistently overestimate the utility and early stage adoption of new technologies.
+Although spending on AI infrastructure has been robust, as Nvidia's and AMD's operating results suggest, most businesses have yet to optimize their AI solutions or generate a positive return on their AI investments. It's unlikely that artificial intelligence will avoid the fate of previous next-big-thing trends.
+The other area where historical precedent comes into play is valuations. Though AMD's valuation isn't egregiously high, the same can't be said for Nvidia or Palantir, which are butting heads with history.
+Before the bursting of the dot-com bubble a quarter of a century ago, businesses on the leading edge of the internet revolution consistently peaked at around 30 to 40 times trailing-12-month sales. As of this writing on Aug. 12, Nvidia is tipping the scales at a price-to-sales (P/S) ratio of nearly 31, while Palantir's P/S ratio is 137, which is the highest I've ever witnessed for a megacap company in 27 years of investing.
+While both companies offer competitive advantages that are worthy of valuation premiums, history is quite clear that extended premiums of this magnitude aren't sustainable over the long run.
+Between persistent insider selling, a virtual lack of insider buying, and mounting historical headwinds, the risk-versus-reward pendulum for Nvidia, Palantir, and AMD has undeniably swung toward "risk."
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Sean Williams has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Advanced Micro Devices, Nvidia, and Palantir Technologies. The Motley Fool has a disclosure policy.
+| 1 hour | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Competitive advantages, along with insatiable demand for artificial intelligence (AI) hardware and software, have sent shares of Nvidia, Palantir Technologies, and Advanced Micro Devices soaring. On a combined basis, insiders at Nvidia, Palantir, and AMD have made just four purchases of their respective company's stock spanning five years. Historical precedent poses a big problem for some of Wall Street's hottest AI stocks. Roughly 30 years ago, the advent and proliferation of the internet began positively altering the growth arc for corporate America. The internet offered businesses new ways to interact with prospective and existing clients, as well as market their products. For decades, investors have been waiting for the next technological leap forward, and the artificial intelligence (AI) revolution looks to be it. The combination of increased productivity and consumption side effects associated with the rise of AI is expected to increase global gross domestic product by $15.7 trillion come 2030, according to analysts at PwC. This sky high addressable market is the primary reason we've witnessed Wall Street's AI darlings Nvidia (NASDAQ: NVDA), Palantir Technologies (NASDAQ: PLTR), and Advanced Micro Devices (NASDAQ: AMD), which is commonly known as "AMD" soar since 2023 began. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Nvidia's Hopper (H100) and Blackwell graphics processing units (GPUs) account for the bulk of the GPUs deployed in AI accelerated data centers. Meanwhile, production for AMD's Instinct series AI accelerating chips is expanding, with the expectation that it'll carve out a healthy share of the AI GPU market for enterprise data centers. As for Palantir, its AI and machine learning powered software as a service Gotham and Foundry platforms offer sustainable moats. Federal governments turn to Gotham for military mission planning and execution, along with data collection and analysis. Meanwhile, Foundry is a subscription driven platform for businesses looking to make sense of their big data and streamline/automate their operations. While their respective share price appreciation indicates everything is going great for Nvidia, Palantir, and AMD, all three companies have, collectively, offered up a nearly $13 billion warning to Wall Street. The real question is: Are you, or any other investors, heeding this warning? There are a number of potential headwinds that can come into play for AI stocks over the coming quarters and years, some of which I'll touch on a bit later. However, one of the more front and center concerns has to do with the how corporate insiders have approached their company's stock. Here's the good news: Thanks to required Form 4 filings with the Securities and Exchange Commission, investors have the ability to track the purchasing and selling activity of executives and board members. This activity details the buying and selling of common stock, as well as options activity. When it comes to Nvidia, Palantir, and AMD, there's been a very clear trend over the last five years (note: Palantir's initial public offering was Sept. 30, 2020): insider selling. Over the trailing five year period, net selling activity has totaled: Collectively, the insiders of these three highly influential AI businesses have sold north of $12.9 billion worth of their common stock over the trailing half decade. However, insider selling isn't as cut and dried as it might appear on the surface. This is to say there are a lot of reasons insiders might sell their company's stock and they're not all nefarious. For instance, most executives receive stock based compensation and/or options. Options are required to be exercised within a certain time frame, otherwise they expire worthless. With some executives receiving the lion's share of their compensation in stock or options, they have to sell their company's stock to cover their federal and/or state tax bill. The key point here is that not all insider selling is necessarily bad. But at the same time, there's only one reason executives and board members purchase their company's stock: they expect it to head higher. Over the trailing five year period, executives and board members have made exactly one purchase at Nvidia, one purchase at Palantir, and two purchases at AMD. The takeaway here is simple: if insiders at Nvidia, Palantir, and AMD aren't willing to purchase their own company's stock, why should everyday investors believe these three stocks still offer significant upside? Image source: Getty Images. Unfortunately, this nearly $13 billion warning isn't the only worry for investors. Historical precedent is a multipronged headwind that has the potential to meaningfully drag down AI stock valuations. To preface the following discussion, history is never guaranteed to repeat on Wall Street. If there was an indicator that concretely guaranteed short term directional moves in stocks, you can rest assured that everyone would be using it by now. Nevertheless, there are historical events and metrics that have flawlessly correlated with directional moves for the S&amp;P 500 and Wall Street's other major indexes in the past. It's these correlations that suggest Nvidia, Palantir, and AMD could be in a world of trouble. For example, every game changing innovation since (and including) the advent of the internet in the mid 1990s has endured a bubble bursting event fairly early in its expansion. This long line of hyped innovations navigating their way through bubbles signals that investors consistently overestimate the utility and early stage adoption of new technologies. Although spending on AI infrastructure has been robust, as Nvidia's and AMD's operating results suggest, most businesses have yet to optimize their AI solutions or generate a positive return on their AI investments. It's unlikely that artificial intelligence will avoid the fate of previous next big thing trends. The other area where historical precedent comes into play is valuations. Though AMD's valuation isn't egregiously high, the same can't be said for Nvidia or Palantir, which are butting heads with history. Before the bursting of the dot com bubble a quarter of a century ago, businesses on the leading edge of the internet revolution consistently peaked at around 30 to 40 times trailing 12 month sales. As of this writing on Aug. 12, Nvidia is tipping the scales at a price to sales (P/S) ratio of nearly 31, while Palantir's P/S ratio is 137, which is the highest I've ever witnessed for a megacap company in 27 years of investing. While both companies offer competitive advantages that are worthy of valuation premiums, history is quite clear that extended premiums of this magnitude aren't sustainable over the long run. Between persistent insider selling, a virtual lack of insider buying, and mounting historical headwinds, the risk versus reward pendulum for Nvidia, Palantir, and AMD has undeniably swung toward "risk." Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Sean Williams has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Advanced Micro Devices, Nvidia, and Palantir Technologies. The Motley Fool has a disclosure policy. 1 hour Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45884.12638888889</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>William Blair Maintains Outperform Rating on Nvidia (NVDA)</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr"/>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141501/william-blair-maintains-outperform-rating-on-nvidia-nvda</t>
+        </is>
+      </c>
+      <c r="E370" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the 11 Best Revenue Growth Stocks to Buy Now. On July 15, William Blair reiterated an Outperform rating on NVIDIA Corporation (NASDAQ:NVDA) while noting that the company could see potential earnings upside from renewed access to the China market.
+William Blair sees an opportunity for NVIDIA Corporation (NASDAQ:NVDA) to increase its EPS for fiscal year 2026 by an additional $0.30. This is based on the idea that the company will see about $20 billion in revenue from China for the full year.
+In the first quarter, NVIDIA Corporation (NASDAQ:NVDA) made $5.5 billion in revenue from the China market. William Blair expects another $14.5 billion in revenue from China, concentrated in the second half of fiscal 2026.
+The investment firm also highlighted potential gross margin tailwinds in the second half as NVIDIA Corporation (NASDAQ:NVDA) might sell H20 chips that were previously written off with a low cost of goods sold. This could help the company achieve its target of a mid-70% gross margin on a non-GAAP basis.
+NVIDIA Corporation (NASDAQ:NVDA) is an American multinational technology company that is known for its graphics processing units (GPUs), AI hardware and software, and high-performance computing (HPC) solutions.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you’re looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 12 Best Performing AI Stocks So Far in 2025 and 14 Best Aggressive Growth Stocks to Buy According to Analysts.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the 11 Best Revenue Growth Stocks to Buy Now. On July 15, William Blair reiterated an Outperform rating on NVIDIA Corporation (NASDAQ:NVDA) while noting that the company could see potential earnings upside from renewed access to the China market. William Blair sees an opportunity for NVIDIA Corporation (NASDAQ:NVDA) to increase its EPS for fiscal year 2026 by an additional $0.30. This is based on the idea that the company will see about $20 billion in revenue from China for the full year. In the first quarter, NVIDIA Corporation (NASDAQ:NVDA) made $5.5 billion in revenue from the China market. William Blair expects another $14.5 billion in revenue from China, concentrated in the second half of fiscal 2026. The investment firm also highlighted potential gross margin tailwinds in the second half as NVIDIA Corporation (NASDAQ:NVDA) might sell H20 chips that were previously written off with a low cost of goods sold. This could help the company achieve its target of a mid 70% gross margin on a non GAAP basis. NVIDIA Corporation (NASDAQ:NVDA) is an American multinational technology company that is known for its graphics processing units (GPUs), AI hardware and software, and high performance computing (HPC) solutions. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If youre looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 12 Best Performing AI Stocks So Far in 2025 and 14 Best Aggressive Growth Stocks to Buy According to Analysts. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45884.12013888889</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Jim Cramer Discusses NVIDIA Return to China Market</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr"/>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141486/jim-cramer-discusses-nvidia-return-to-china-market</t>
+        </is>
+      </c>
+      <c r="E371" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed. Cramer discussed the company’s business with China during the episode. He said:
+“This morning, we learned that the US government is planning to take a 15% cut on all the AI chips that these two companies are currently selling to China. For NVIDIA, that means a 15% cut on the H20, which was their cutting-edge chip for AI a few years ago, something they were previously banned from selling in the PRC. The president then said that NVIDIA might be getting approval to sell a next-generation chip to the Chinese, something, wow, more like their current version, Blackwell, except it won’t have as much computing power. We didn’t expect that Blackwell could be allowed in China. This was a big deal that the market completely just ignored. That was a mistake. President had asked for 20% cut of revenues, but NVIDIA CEO Jensen Huang bargained him down to 15%. That was good…
+The cost of shareholders for the NVIDIA deal, as we told investing club members today, NVIDIA was selling about $8 billion worth of chips to China every quarter prior to the previous export restriction. A 15% haircut would equate to a little more than $1 billion per quarter or about $5 billion per year. Hey, that’s a big number for most companies, but not for NVIDIA. They were desperate to get this China business back by any means necessary…
+From the perspective of big business, this is a great deal. Under the previous export controls, NVIDIA and AMD couldn’t sell these ships to China at all. If they can get that business back in exchange for a 15% cut, that’s a win for their shareholders.”
+NVDA Headquarters Courtesy of NVIDIA
+NVIDIA Corporation (NASDAQ:NVDA) designs GPUs, AI platforms, cloud services, and software for gaming, professional visualization, data centers, automotive, and robotics applications.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed. Cramer discussed the companys business with China during the episode. He said: This morning, we learned that the US government is planning to take a 15% cut on all the AI chips that these two companies are currently selling to China. For NVIDIA, that means a 15% cut on the H20, which was their cutting edge chip for AI a few years ago, something they were previously banned from selling in the PRC. The president then said that NVIDIA might be getting approval to sell a next generation chip to the Chinese, something, wow, more like their current version, Blackwell, except it wont have as much computing power. We didnt expect that Blackwell could be allowed in China. This was a big deal that the market completely just ignored. That was a mistake. President had asked for 20% cut of revenues, but NVIDIA CEO Jensen Huang bargained him down to 15%. That was good The cost of shareholders for the NVIDIA deal, as we told investing club members today, NVIDIA was selling about $8 billion worth of chips to China every quarter prior to the previous export restriction. A 15% haircut would equate to a little more than $1 billion per quarter or about $5 billion per year. Hey, thats a big number for most companies, but not for NVIDIA. They were desperate to get this China business back by any means necessary From the perspective of big business, this is a great deal. Under the previous export controls, NVIDIA and AMD couldnt sell these ships to China at all. If they can get that business back in exchange for a 15% cut, thats a win for their shareholders. NVDA Headquarters Courtesy of NVIDIA NVIDIA Corporation (NASDAQ:NVDA) designs GPUs, AI platforms, cloud services, and software for gaming, professional visualization, data centers, automotive, and robotics applications. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45884.11875</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Dell, NVIDIA, Elastic Partner to Enhance AI Data Platform</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr"/>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141475/dell-nvidia-elastic-partner-to-enhance-ai-data-platform</t>
+        </is>
+      </c>
+      <c r="E372" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the best high-volume stocks to invest in. On August 12, Dell Technologies Inc. (NYSE:DELL) announced a partnership with NVIDIA and Elastic (NYSE:ESTC) to enhance its AI Data Platform, which is designed to help enterprises build and scale AI workloads.
+The platform is intended to accelerate workflows and break down data silos and integrates Dell PowerEdge R7725 servers, which are equipped with Nvidia’s RTX PRO 6000 Blackwell Server Edition GPUs for high-performance AI workloads. This hardware will become globally available later in the year. The collaboration also brings in Elastic’s Elasticsearch technology to enable natural language and vector search capabilities.
+A close-up of a colorful high-end graphics card being plugged in to a gaming computer.
+Furthermore, Nvidia’s Omniverse libraries and AI models will be used to streamline searches within large 3D asset libraries. Vrashank Jain, a product director at Dell, noted that this collaboration will provide a shortcut to greater AI-based efficiency that companies crave.
+NVIDIA Corporation (NASDAQ:NVDA) is a computing infrastructure company that provides graphics and compute &amp; networking solutions internationally
+Dell Technologies Inc. (NYSE:DELL) designs, develops, manufactures, markets, sells, and supports various comprehensive and integrated solutions, products, and services internationally.
+Elastic (NYSE:ESTC) is a search AI company that provides software platforms to run in hybrid, public, or private clouds and multi-cloud environments internationally.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you’re looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the best high volume stocks to invest in. On August 12, Dell Technologies Inc. (NYSE:DELL) announced a partnership with NVIDIA and Elastic (NYSE:ESTC) to enhance its AI Data Platform, which is designed to help enterprises build and scale AI workloads. The platform is intended to accelerate workflows and break down data silos and integrates Dell PowerEdge R7725 servers, which are equipped with Nvidias RTX PRO 6000 Blackwell Server Edition GPUs for high performance AI workloads. This hardware will become globally available later in the year. The collaboration also brings in Elastics Elasticsearch technology to enable natural language and vector search capabilities. A close up of a colorful high end graphics card being plugged in to a gaming computer. Furthermore, Nvidias Omniverse libraries and AI models will be used to streamline searches within large 3D asset libraries. Vrashank Jain, a product director at Dell, noted that this collaboration will provide a shortcut to greater AI based efficiency that companies crave. NVIDIA Corporation (NASDAQ:NVDA) is a computing infrastructure company that provides graphics and compute &amp; networking solutions internationally Dell Technologies Inc. (NYSE:DELL) designs, develops, manufactures, markets, sells, and supports various comprehensive and integrated solutions, products, and services internationally. Elastic (NYSE:ESTC) is a search AI company that provides software platforms to run in hybrid, public, or private clouds and multi cloud environments internationally. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If youre looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45884.0625</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>As Tech Stocks Rally, Risk Rises. Why Energy and Healthcare Could Be Options.</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr"/>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/tech-energy-healthcare-stocks-markets-cf964dda?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E373" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45883.84652777778</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Soros, Appaloosa boost their Nvidia stake. They also bought this beaten-down stock, and it's rallying.</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.marketwatch.com/story/soros-appaloosa-boost-their-holdings-in-this-mag-7-stock-amid-ai-spending-boom-514807d8?mod=mw_FV</t>
+        </is>
+      </c>
+      <c r="E374" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45883.81597222222</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Hedge funds shift bets to double down on Big Tech amid AI boom</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr"/>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/hedge-funds-shift-bets-double-233524300.html</t>
+        </is>
+      </c>
+      <c r="E375" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45883.75416666667</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Liberty All-Star® Growth Fund, Inc. July 2025 Monthly Update</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr"/>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-growth-fund-inc-220600993.html</t>
+        </is>
+      </c>
+      <c r="E376" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45883.75416666667</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Liberty All-Star® Equity Fund July 2025 Monthly Update</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-equity-fund-july-220600509.html</t>
+        </is>
+      </c>
+      <c r="E377" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr"/>
+      <c r="H377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>45883.72083333333</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Nvidia, AMD, Other AI Stocks Score Price-Target Hikes Amid Strong AI Server Demand</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.investors.com/news/technology/ai-stocks-score-price-target-hikes-strong-server-sales?mod=IBD_FV</t>
+        </is>
+      </c>
+      <c r="E378" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45883.70763888889</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Nvidia's one of the cheaper AI names out there, says Bernstein's Stacy Rasgon</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr"/>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.youtube.com/watch?v=c7YoYkKtCfk</t>
+        </is>
+      </c>
+      <c r="E379" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>45883.69444444445</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Strategy Pushed Deceptive Comparison to Apple and NVIDIA, Wall Street Veteran Says</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr"/>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/65c5a297-973e-3cab-8341-10bc5e0b35e7/strategy-pushed-%E2%80%98deceptive%E2%80%99.html</t>
+        </is>
+      </c>
+      <c r="E380" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>45883.69444444445</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Intel stock surges on report Trump administration mulls taking stake in company</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr"/>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/intel-stock-surges-on-report-trump-administration-mulls-taking-stake-in-company-204003673.html</t>
+        </is>
+      </c>
+      <c r="E381" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr"/>
+      <c r="H381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>45883.66180555556</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Trump weighs taking stake in Intel, Bloomberg News reports</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr"/>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/us-weighs-taking-stake-intel-195356266.html</t>
+        </is>
+      </c>
+      <c r="E382" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>45883.63541666666</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Dow And Nasdaq Edge Lower As AI Stock Coherent Hits 3 Sell Signals; 3 Growth Stocks Set Up Entries (Live)</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr"/>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-and.html</t>
+        </is>
+      </c>
+      <c r="E383" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45883.62638888889</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Ken Fisher's Strategic Moves: Oracle Corp Sees Significant Reduction</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr"/>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/ken-fishers-strategic-moves-oracle-190218225.html</t>
+        </is>
+      </c>
+      <c r="E384" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr"/>
+      <c r="H384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>45883.62569444445</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Kevin O'Leary Says Nvidia, AMD Still Win Under Trump China Plan Despite 15% 'Form Of Blackmail' Levy</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr"/>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/kevin-oleary-says-nvidia-amd-190100564.html</t>
+        </is>
+      </c>
+      <c r="E385" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr"/>
+      <c r="H385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>45883.625</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Should You Buy Intel Stock After President Trump's CEO Praise?</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141119/should-you-buy-intel-stock-after-president-trumps-ceo-praise</t>
+        </is>
+      </c>
+      <c r="E386" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Intel Corporation INTC has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corporation NVDA and Advanced Micro Devices, Inc. AMD in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trump’s inconsistent stance on Intel CEO has drawn investors’ interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Let’s see –
+Trump’s Admiration for Tan – What it Means for INTC Investors
+Last month, Cadence Design Systems, Inc. CDNS acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intel’s current CEO, Lip-Bu Tan, was leading Cadence.
+Trump learned of Cotton’s letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cotton’s letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals.
+In reaction, Trump commended Tan's achievements, referring to his success and ascent as an “amazing story.” Trump also endorsed Tan’s leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Let’s not forget, Tan is a well-known venture capitalist, respected for his expertise in the semiconductor industry.
+Is a Turnaround for Intel Probable Soon?
+Intel’s business has been struggling for quite some time. Despite Tan’s initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year-ago levels.
+Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. It’s worse than the $2.8 billion loss that the segment posted a year ago.
+Intel’s gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short-term investments accounted for only $21.2 billion.
+However, under Tan’s strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio.
+Intel is planning to provide a full-stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node.
+While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the company’s business. In time, the semiconductor giant has the potential to regain its former glory.
+Should You Buy INTC Stock Now or Wait a While?
+Trump’s support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intel’s price-to-book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future.
+Image Source: Zacks Investment Research
+However, new investors should remain passive and watch for meaningful progress. This is because it’s too early to predict the potential success of Tan’s initiatives, and Intel’s financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of today’s Zacks Rank #1 (Strong Buy) stocks here.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Intel Corporation (INTC): Free Stock Analysis Report Advanced Micro Devices, Inc. (AMD): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Cadence Design Systems, Inc. (CDNS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Intel Corporation INTC has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corporation NVDA and Advanced Micro Devices, Inc. AMD in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trumps inconsistent stance on Intel CEO has drawn investors interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Lets see Trumps Admiration for Tan What it Means for INTC Investors Last month, Cadence Design Systems, Inc. CDNS acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intels current CEO, Lip Bu Tan, was leading Cadence. Trump learned of Cottons letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cottons letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals. In reaction, Trump commended Tan's achievements, referring to his success and ascent as an amazing story. Trump also endorsed Tans leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Lets not forget, Tan is a well known venture capitalist, respected for his expertise in the semiconductor industry. Is a Turnaround for Intel Probable Soon? Intels business has been struggling for quite some time. Despite Tans initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year ago levels. Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. Its worse than the $2.8 billion loss that the segment posted a year ago. Intels gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short term investments accounted for only $21.2 billion. However, under Tans strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio. Intel is planning to provide a full stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node. While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the companys business. In time, the semiconductor giant has the potential to regain its former glory. Should You Buy INTC Stock Now or Wait a While? Trumps support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intels price to book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future. Image Source: Zacks Investment Research However, new investors should remain passive and watch for meaningful progress. This is because its too early to predict the potential success of Tans initiatives, and Intels financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of todays Zacks Rank #1 (Strong Buy) stocks here. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report Intel Corporation (INTC): Free Stock Analysis Report Advanced Micro Devices, Inc. (AMD): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Cadence Design Systems, Inc. (CDNS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>45883.62152777778</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Big Tech's AI Rally Remains Strong. The Economy Can Chug Along Even Without It.</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-ai-rally-c963a7b1?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E387" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>45883.5875</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Money Is Rotating Away From Big Tech Stocks. It's a Good Sign.</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr"/>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-market-8d1a1a8e?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E388" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45883.58472222222</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Nasdaq Edges Up; AI Stock Coherent Hits 3 Sell Signals As Coach Parent Tapestry Tests 50-Day (Live)</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr"/>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-nasdaq.html</t>
+        </is>
+      </c>
+      <c r="E389" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45883.57916666667</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Wedbush: Nvidia, AMD China AI Deal a 'Bullish Catalyst' for Big Tech</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr"/>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/wedbush-nvidia-amd-china-ai-175410596.html</t>
+        </is>
+      </c>
+      <c r="E390" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr"/>
+      <c r="H390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45883.56944444445</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Cohere hits a $6.8B valuation as investors AMD, Nvidia, and Salesforce double down</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr"/>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-hits-6-8b-valuation-174027502.html</t>
+        </is>
+      </c>
+      <c r="E391" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45883.56597222222</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>If You Bought 100 Shares of Applied Digital at Its IPO, Here's How Much Money You'd Have Now</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141052/if-you-bought-100-shares-of-applied-digital-at-its-ipo-heres-how-much-money-youd-have-now</t>
+        </is>
+      </c>
+      <c r="E392" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Key Points
+Applied Digital had its initial public offering in April 2022 and was initially focused on blockchain and cryptocurrency mining operations.
+The company's strengths in processing hardware allowed it to easily pivot into the AI data center space.
+Applied Digital has delivered strong post-IPO gains, and the company recently scored some big wins.
+Applied Digital (NASDAQ: APLD) stock had its initial public offering (IPO) in April 2022, although the company was known as Applied Blockchain at the time of its public debut. The company's share price has seen some big swings in the intervening years, but it has also delivered big wins for patient investors.
+Applied Digital stock closed out its first day of trading after its IPO priced at $4.85 per share. A purchase of 100 shares at that price would have been equivalent to an investment of $485.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Compared to Applied Digital's stock price at market close on the day of its public debut, the company's share price is now up roughly 205%. That means that an investor who purchased 100 shares of the company's stock at its IPO would now be sitting on a position worth roughly $1,480. Read on for a closer look at the data center specialist's big performance drivers across the stretch and what's on the horizon for the business.
+How did Applied Digital stock deliver big gains -- and what comes next?
+Applied Digital got its start as a company that was focused on blockchain and cryptocurrency mining operations. Luckily for the company, the key graphics processing unit (GPU) hardware that is useful for mining cryptocurrencies is also at the heart of processing for artificial intelligence (AI) model training.
+With the AI revolution gaining steam in recent years, Applied Digital stock has seen a strong uptick in bullish momentum. Applied Digital stock also saw big gains in November 2024 in conjunction with news that Nvidia had taken an investment position in the company. While the company's share price has seen high levels of volatility since its public debut, shares are up roughly 282% over the last year of trading.
+Applied Digital stock has recently seen big gains thanks to news that CoreWeave has opted to exercise an option that it had to expand data center licensing through the company. With CoreWeave ramping up its data center utilization, Applied Digital's growth outlook has become much stronger.
+Should you invest $1,000 in Applied Digital right now?
+Before you buy stock in Applied Digital, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Applied Digital wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keith Noonan has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Key Points Applied Digital had its initial public offering in April 2022 and was initially focused on blockchain and cryptocurrency mining operations. The company's strengths in processing hardware allowed it to easily pivot into the AI data center space. Applied Digital has delivered strong post IPO gains, and the company recently scored some big wins. Applied Digital (NASDAQ: APLD) stock had its initial public offering (IPO) in April 2022, although the company was known as Applied Blockchain at the time of its public debut. The company's share price has seen some big swings in the intervening years, but it has also delivered big wins for patient investors. Applied Digital stock closed out its first day of trading after its IPO priced at $4.85 per share. A purchase of 100 shares at that price would have been equivalent to an investment of $485. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Compared to Applied Digital's stock price at market close on the day of its public debut, the company's share price is now up roughly 205%. That means that an investor who purchased 100 shares of the company's stock at its IPO would now be sitting on a position worth roughly $1,480. Read on for a closer look at the data center specialist's big performance drivers across the stretch and what's on the horizon for the business. How did Applied Digital stock deliver big gains and what comes next? Applied Digital got its start as a company that was focused on blockchain and cryptocurrency mining operations. Luckily for the company, the key graphics processing unit (GPU) hardware that is useful for mining cryptocurrencies is also at the heart of processing for artificial intelligence (AI) model training. With the AI revolution gaining steam in recent years, Applied Digital stock has seen a strong uptick in bullish momentum. Applied Digital stock also saw big gains in November 2024 in conjunction with news that Nvidia had taken an investment position in the company. While the company's share price has seen high levels of volatility since its public debut, shares are up roughly 282% over the last year of trading. Applied Digital stock has recently seen big gains thanks to news that CoreWeave has opted to exercise an option that it had to expand data center licensing through the company. With CoreWeave ramping up its data center utilization, Applied Digital's growth outlook has become much stronger. Should you invest $1,000 in Applied Digital right now? Before you buy stock in Applied Digital, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Applied Digital wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keith Noonan has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45883.54166666666</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Cisco's Q4 Earnings Beat Estimates, Revenues Rise Y/Y, Shares Down</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141056/ciscos-q4-earnings-beat-estimates-revenues-rise-yy-shares-down</t>
+        </is>
+      </c>
+      <c r="E393" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Cisco Systems CSCO reported fourth-quarter fiscal 2025 non-GAAP earnings of 99 cents per share, beating the Zacks Consensus Estimate by 2.06%. The figure increased 13.8% year over year.
+Revenues of $14.67 billion surpassed the Zacks Consensus Estimate by 0.47%. The top line increased 7.6% year over year. Total Annual Recurring Revenues (ARR) were $31.1 billion, up 5% with product ARR growth of 8%.
+Cisco shares were down 0.63% at the time of writing this article. In the year-to-date (YTD) period, CSCO shares have appreciated 18.9%, outperforming the Zacks Computer &amp; Technology sector’s return of 14.6% but underperforming peers, including Broadcom AVGO and Arista Networks ANET. YTD, Broadcom and Arista Networks have returned 32.9% and 24.8%, respectively.
+Arista Networks reported strong second-quarter 2025 earnings of 73 cents per share, beating the Zacks Consensus Estimate by 12.3%. Broadcom is set to report third-quarter fiscal 2025 results on Sept. 4, with revenues expected to grow 21% year over year to $15.8 billion.
+Cisco Systems, Inc. Price, Consensus and EPS Surprise
+Cisco Systems, Inc. price-consensus-eps-surprise-chart | Cisco Systems, Inc. Quote
+CSCO’s Q4 Top-Line Details
+Revenues from Networking in the fourth quarter of fiscal 2025 were $7.63 billion, up 12% on a year-over-year basis. Security revenues were $1.95 billion, up 9% year over year. Collaboration revenues were $1.04 billion, up 2% year over year. Observability revenues were $259 million, up 4% year over year.
+Total Product revenues in the fourth quarter of fiscal 2025 were $10.89 billion, comprising 74.2% of Cisco’s total revenues. On a year-over-year basis, product revenues increased 10%. Service Revenues were $3.79 billion, comprising 25.8% of Cisco’s total revenues and flat on a year-over-year basis.
+Region-wise, the Americas’ revenues increased 9% year over year to $8.82 billion. EMEA (Europe, Middle East and Africa) revenues climbed 4% year over year to $3.65 billion. APJC (Asia Pacific Japan China) revenues climbed 7% year over year to $2.21 billion.
+In the fourth quarter of fiscal 2025, AI Infrastructure orders from webscale customers exceeded $800 million, bringing the total revenues to $2 billion in fiscal 2025, double the management’s original expectation.
+Cisco is benefiting from its partnership with NVIDIA NVDA. Integration of Cisco Nexus switches with NVIDIA's Spectrum-X architecture is offering low latency, high-speed networking for AI clusters driving enterprise AI orders. The Cisco Secure AI factory with NVIDIA provides a trusted blueprint for building secure AI-ready data centers for enterprises, sovereign cloud providers and newly emerging Neocloud providers.
+CSCO’s Q4 Operating Details
+Fourth-quarter fiscal 2025 non-GAAP gross margin was 68.4%, which expanded 40 basis points (bps) year over year. On a non-GAAP basis, the product gross margin increased 160 bps on a year-over-year basis to 50.1%. Service gross margin decreased 120 bps to 18.3%.
+In the fourth quarter of fiscal 2025, Cisco reported total non-GAAP operating expenses of $5 billion, up 3.6% year over year. As a percentage of revenues, operating expenses declined 130 bps.
+Consequently, CSCO reported a non-GAAP operating income of $5.03 billion, up 13.3% year over year. Operating margin expanded 170 bps year over year to 34.3%.
+CSCO’s Balance Sheet Details
+As of July 26, 2025, cash and cash equivalents and investments totaled $16.1 billion, which increased from $15.6 billion as of April 26, 2025.
+Total debt was $28.1 billion as of July 26, 2025, compared with $29.2 billion as of April 26, 2025.
+The remaining performance obligations (RPO) at the end of the fourth quarter of fiscal 2025 were $43.5 billion, up 6%, with 50% of the amount to be recognized as revenues over the following 12 months. Product RPO was up 8%, and services RPO was up 5%.
+In the fourth quarter of fiscal 2025, CSCO returned $2.9 billion to stockholders through share buybacks ($1.3 billion) and dividends ($1.6 billion).
+CSCO Offers Positive Guidance
+For the first quarter of fiscal 2026, Cisco expects non-GAAP earnings between 97 cents per share and 99 cents per share.
+Revenues are expected to be in the range of $14.65 billion-$14.85 billion.
+Non-GAAP gross margins are expected to be between 67.5% and 68.5%. Non-GAAP operating margin is anticipated to be between 33% and 34%.
+For fiscal 2026, Cisco expects non-GAAP earnings between $4 per share and $4.06 per share. This Zacks Rank #2 (Buy) company expects revenues between $59 billion and $60 billion. You can see the complete list of today’s Zacks #1 Rank (Strong Buy) stocks here.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Cisco Systems, Inc. (CSCO): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Broadcom Inc. (AVGO): Free Stock Analysis Report Arista Networks, Inc. (ANET): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Cisco Systems CSCO reported fourth quarter fiscal 2025 non GAAP earnings of 99 cents per share, beating the Zacks Consensus Estimate by 2.06%. The figure increased 13.8% year over year. Revenues of $14.67 billion surpassed the Zacks Consensus Estimate by 0.47%. The top line increased 7.6% year over year. Total Annual Recurring Revenues (ARR) were $31.1 billion, up 5% with product ARR growth of 8%. Cisco shares were down 0.63% at the time of writing this article. In the year to date (YTD) period, CSCO shares have appreciated 18.9%, outperforming the Zacks Computer &amp; Technology sectors return of 14.6% but underperforming peers, including Broadcom AVGO and Arista Networks ANET. YTD, Broadcom and Arista Networks have returned 32.9% and 24.8%, respectively. Arista Networks reported strong second quarter 2025 earnings of 73 cents per share, beating the Zacks Consensus Estimate by 12.3%. Broadcom is set to report third quarter fiscal 2025 results on Sept. 4, with revenues expected to grow 21% year over year to $15.8 billion. Cisco Systems, Inc. Price, Consensus and EPS Surprise Cisco Systems, Inc. price consensus eps surprise chart Cisco Systems, Inc. Quote CSCOs Q4 Top Line Details Revenues from Networking in the fourth quarter of fiscal 2025 were $7.63 billion, up 12% on a year over year basis. Security revenues were $1.95 billion, up 9% year over year. Collaboration revenues were $1.04 billion, up 2% year over year. Observability revenues were $259 million, up 4% year over year. Total Product revenues in the fourth quarter of fiscal 2025 were $10.89 billion, comprising 74.2% of Ciscos total revenues. On a year over year basis, product revenues increased 10%. Service Revenues were $3.79 billion, comprising 25.8% of Ciscos total revenues and flat on a year over year basis. Region wise, the Americas revenues increased 9% year over year to $8.82 billion. EMEA (Europe, Middle East and Africa) revenues climbed 4% year over year to $3.65 billion. APJC (Asia Pacific Japan China) revenues climbed 7% year over year to $2.21 billion. In the fourth quarter of fiscal 2025, AI Infrastructure orders from webscale customers exceeded $800 million, bringing the total revenues to $2 billion in fiscal 2025, double the managements original expectation. Cisco is benefiting from its partnership with NVIDIA NVDA. Integration of Cisco Nexus switches with NVIDIA's Spectrum X architecture is offering low latency, high speed networking for AI clusters driving enterprise AI orders. The Cisco Secure AI factory with NVIDIA provides a trusted blueprint for building secure AI ready data centers for enterprises, sovereign cloud providers and newly emerging Neocloud providers. CSCOs Q4 Operating Details Fourth quarter fiscal 2025 non GAAP gross margin was 68.4%, which expanded 40 basis points (bps) year over year. On a non GAAP basis, the product gross margin increased 160 bps on a year over year basis to 50.1%. Service gross margin decreased 120 bps to 18.3%. In the fourth quarter of fiscal 2025, Cisco reported total non GAAP operating expenses of $5 billion, up 3.6% year over year. As a percentage of revenues, operating expenses declined 130 bps. Consequently, CSCO reported a non GAAP operating income of $5.03 billion, up 13.3% year over year. Operating margin expanded 170 bps year over year to 34.3%. CSCOs Balance Sheet Details As of July 26, 2025, cash and cash equivalents and investments totaled $16.1 billion, which increased from $15.6 billion as of April 26, 2025. Total debt was $28.1 billion as of July 26, 2025, compared with $29.2 billion as of April 26, 2025. The remaining performance obligations (RPO) at the end of the fourth quarter of fiscal 2025 were $43.5 billion, up 6%, with 50% of the amount to be recognized as revenues over the following 12 months. Product RPO was up 8%, and services RPO was up 5%. In the fourth quarter of fiscal 2025, CSCO returned $2.9 billion to stockholders through share buybacks ($1.3 billion) and dividends ($1.6 billion). CSCO Offers Positive Guidance For the first quarter of fiscal 2026, Cisco expects non GAAP earnings between 97 cents per share and 99 cents per share. Revenues are expected to be in the range of $14.65 billion $14.85 billion. Non GAAP gross margins are expected to be between 67.5% and 68.5%. Non GAAP operating margin is anticipated to be between 33% and 34%. For fiscal 2026, Cisco expects non GAAP earnings between $4 per share and $4.06 per share. This Zacks Rank #2 (Buy) company expects revenues between $59 billion and $60 billion. You can see the complete list of todays Zacks #1 Rank (Strong Buy) stocks here. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report Cisco Systems, Inc. (CSCO): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Broadcom Inc. (AVGO): Free Stock Analysis Report Arista Networks, Inc. (ANET): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45883.52777777778</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Deeply Undervalued, Micron Technologies Stock Isn't Pricing in AI</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/140962/deeply-undervalued-micron-technologies-stock-isnt-pricing-in-ai</t>
+        </is>
+      </c>
+      <c r="E394" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Micron Technologies' (NASDAQ: MU) stock is in rebound mode as of mid-August and will likely continue higher because its market has yet to price in the long-term impact of AI. AI is a memory-intensive technology, and its needs are expected to grow exponentially with each upcoming generation.
+Not only is Micron’s technology in demand from both leading GPU manufacturers, but the market dynamic is set up for accelerated demand in 2026.
+Advanced Micro Devices (NASDAQ: AMD) AI-focused GPUs have significantly more memory than NVIDIA’s (NASDAQ: NVDA) designs and are expected to begin gaining share in 2026. AMD’s new, rack-scale capability will underpin the share gains and, by extension, demand for Micron HBM4 technology.
+The estimates regarding the GPU market and outlook vary from source to source, but they generally agree that GPU needs will grow at a solid, double-digit CAGR for the next five to ten years.
+Regarding Micron and its value, assuming the 15 times P/E valuation it is running in mid-August is fair value, the stock presents a deep value to long-term buy-and-hold investors.
+The consensus forecast reported by MarketBeat puts this stock at only 8x earnings within two years, suggesting the potential for a nearly triple-digit stock price increase. Assuming the long-term forecasts are too low, and they are, the value deepens.
+Micron’s Growth Outlook Underpinned by AI… and Market Normalization
+Not only is AI underpinning Micron’s long-term outlook, but normalization within legacy end markets is also in play. While YOY contraction persisted in some segments in FQ3, all produced sequential strength and are expected to return to growth in Q4 or early in the subsequent fiscal year.
+This provides a solid foundation for the DRAM business, which includes the data center (more than 50% of the revenue in Q3) and HBM markets. HBM sales grew more than 50% sequentially in Q3 from Q2, driving the data center business to more than double, and the guidance was also strong.
+The company forecasts another high 30% growth pace and is expected to outpace its target by the analysts.
+The analysts' trends are robust, including numerous revenue and earnings forecast adjustments that forecast Micron's strength. MarketBeat reveals that 21 of 23 analysts issuing revenue and earnings forecasts, or more than 90%, have lifted their quarterly forecasts, setting a high expectation bar.
+The consensus as of mid-August is significantly higher than the company’s guidance, with the revision trend leading to an above-consensus result. A consensus-beating result is a bullish market catalyst and likely to send the stock higher.
+The stock price outlook is equally robust. MarketBeat tracks 26 analysts with current ratings, most of which were refreshed following the FQ3 release. The trends include upgrades, firming sentiment, and price target revisions that lead to the high-end range.
+The consensus forecasts a 15% upside that may be achieved before the upcoming FQ4 release, while the high-end range adds 35%. At the same time, commentaries focused on volume and pricing strength, a favorable demand/inventory environment, and an expectation for sustained improvement.
+Micron Stock Is Poised to Move Higher
+Micron’s stock price action in mid-August confirms the rebound and uptrend that began in April and gained momentum with the Q3 release. The August action has the market poised to set a new long-term high, opening the door to another sustained updraft in the stock price.
+The market could rise by as much as $20 in the near term and over $60 in the longer term, matching the rallies that preceded the breakout. Micron’s stock price is headed to the $150 to $190 range in this scenario, enough to push the market to record high levels at the top of the analysts' range.
+Before you make your next trade, you'll want to hear this.
+MarketBeat keeps track of Wall Street's top-rated and best performing research analysts and the stocks they recommend to their clients on a daily basis.
+Our team has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and none of the big name stocks were on the list.
+They believe these five stocks are the five best companies for investors to buy now...
+See The Five Stocks Here
+The article "Deeply Undervalued, Micron Technologies Stock Isn’t Pricing in AI" first appeared on MarketBeat.</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Micron Technologies' (NASDAQ: MU) stock is in rebound mode as of mid August and will likely continue higher because its market has yet to price in the long term impact of AI. AI is a memory intensive technology, and its needs are expected to grow exponentially with each upcoming generation. Not only is Microns technology in demand from both leading GPU manufacturers, but the market dynamic is set up for accelerated demand in 2026. Advanced Micro Devices (NASDAQ: AMD) AI focused GPUs have significantly more memory than NVIDIAs (NASDAQ: NVDA) designs and are expected to begin gaining share in 2026. AMDs new, rack scale capability will underpin the share gains and, by extension, demand for Micron HBM4 technology. The estimates regarding the GPU market and outlook vary from source to source, but they generally agree that GPU needs will grow at a solid, double digit CAGR for the next five to ten years. Regarding Micron and its value, assuming the 15 times P/E valuation it is running in mid August is fair value, the stock presents a deep value to long term buy and hold investors. The consensus forecast reported by MarketBeat puts this stock at only 8x earnings within two years, suggesting the potential for a nearly triple digit stock price increase. Assuming the long term forecasts are too low, and they are, the value deepens. Microns Growth Outlook Underpinned by AI and Market Normalization Not only is AI underpinning Microns long term outlook, but normalization within legacy end markets is also in play. While YOY contraction persisted in some segments in FQ3, all produced sequential strength and are expected to return to growth in Q4 or early in the subsequent fiscal year. This provides a solid foundation for the DRAM business, which includes the data center (more than 50% of the revenue in Q3) and HBM markets. HBM sales grew more than 50% sequentially in Q3 from Q2, driving the data center business to more than double, and the guidance was also strong. The company forecasts another high 30% growth pace and is expected to outpace its target by the analysts. The analysts' trends are robust, including numerous revenue and earnings forecast adjustments that forecast Micron's strength. MarketBeat reveals that 21 of 23 analysts issuing revenue and earnings forecasts, or more than 90%, have lifted their quarterly forecasts, setting a high expectation bar. The consensus as of mid August is significantly higher than the companys guidance, with the revision trend leading to an above consensus result. A consensus beating result is a bullish market catalyst and likely to send the stock higher. The stock price outlook is equally robust. MarketBeat tracks 26 analysts with current ratings, most of which were refreshed following the FQ3 release. The trends include upgrades, firming sentiment, and price target revisions that lead to the high end range. The consensus forecasts a 15% upside that may be achieved before the upcoming FQ4 release, while the high end range adds 35%. At the same time, commentaries focused on volume and pricing strength, a favorable demand/inventory environment, and an expectation for sustained improvement. Micron Stock Is Poised to Move Higher Microns stock price action in mid August confirms the rebound and uptrend that began in April and gained momentum with the Q3 release. The August action has the market poised to set a new long term high, opening the door to another sustained updraft in the stock price. The market could rise by as much as $20 in the near term and over $60 in the longer term, matching the rallies that preceded the breakout. Microns stock price is headed to the $150 to $190 range in this scenario, enough to push the market to record high levels at the top of the analysts' range. Before you make your next trade, you'll want to hear this. MarketBeat keeps track of Wall Street's top rated and best performing research analysts and the stocks they recommend to their clients on a daily basis. Our team has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and none of the big name stocks were on the list. They believe these five stocks are the five best companies for investors to buy now... See The Five Stocks Here The article "Deeply Undervalued, Micron Technologies Stock Isnt Pricing in AI" first appeared on MarketBeat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45883.51944444444</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Dow Down; AI Stock Coherent Delivers 3 Sell Signals; Coach Owner Tapestry Gets Support At Key Level (Live)</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down%3B.html</t>
+        </is>
+      </c>
+      <c r="E395" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr"/>
+      <c r="H395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45883.50347222222</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>AI startup Cohere valued at $6.8 billion in latest fundraise, appoints new executives</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr"/>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/ai-startup-cohere-valued-6-160547472.html</t>
+        </is>
+      </c>
+      <c r="E396" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45883.49305555555</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>ChatGPT: Everything you need to know about the AI-powered chatbot</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/chatgpt-everything-know-ai-powered-172758212.html</t>
+        </is>
+      </c>
+      <c r="E397" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>45883.47708333333</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Edges Up. Foxconn Has Good News on AI Server Demand.</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/1d8b2777-f870-30ca-8bb3-1de5b2863222/nvidia-stock-edges-up..html</t>
+        </is>
+      </c>
+      <c r="E398" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>45883.45694444444</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Mizuho Raises Nvidia and AMD Price Targets To $205 On AI-Server Boom</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/mizuho-raises-nvidia-amd-price-145813757.html</t>
+        </is>
+      </c>
+      <c r="E399" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45883.45277777778</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Dow Down Mildly On Hot PPI Inflation; AI Stock Coherent Dives After Quarterly Update (Live Coverage)</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down.html</t>
+        </is>
+      </c>
+      <c r="E400" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45883.45138888889</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>After Earnings, Pair Cisco with This Other Chip Stock for Maximum Results</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/ef1babbd-1d07-344e-8bc2-3141eea3690d/after-earnings%2C-pair-cisco.html</t>
+        </is>
+      </c>
+      <c r="E401" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/finviz_data.xlsx
+++ b/finviz_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H401"/>
+  <dimension ref="A1:H501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11516,7 +11516,7 @@
           <t>https://finviz.com/news/142484/better-technology-stock-nvidia-vs-palantir</t>
         </is>
       </c>
-      <c r="E302" s="3" t="n">
+      <c r="E302" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="F302" t="inlineStr">
@@ -11581,7 +11581,7 @@
           <t>https://finviz.com/news/142428/5-artificial-intelligence-ai-stocks-to-buy-and-hold-for-the-next-decade</t>
         </is>
       </c>
-      <c r="E303" s="3" t="n">
+      <c r="E303" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F303" t="inlineStr">
@@ -11646,7 +11646,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/retail-trading-trends-top-names-180016299.html</t>
         </is>
       </c>
-      <c r="E304" s="3" t="n">
+      <c r="E304" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F304" t="inlineStr">
@@ -11672,7 +11672,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/7-booming-industries-youve-probably-163109255.html</t>
         </is>
       </c>
-      <c r="E305" s="3" t="n">
+      <c r="E305" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F305" t="inlineStr">
@@ -11698,7 +11698,7 @@
           <t>https://finviz.com/news/142393/after-gaining-394-billion-in-market-cap-in-3-days-is-apple-stock-on-its-way-to-joining-nvidia-and-microsoft-in-the-4-trillion-club</t>
         </is>
       </c>
-      <c r="E306" s="3" t="n">
+      <c r="E306" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F306" t="inlineStr">
@@ -11779,7 +11779,7 @@
           <t>https://finviz.com/news/142391/dont-make-this-common-investing-mistake-when-buying-sp-500-stocks-at-all-time-highs</t>
         </is>
       </c>
-      <c r="E307" s="3" t="n">
+      <c r="E307" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F307" t="inlineStr">
@@ -11845,7 +11845,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/trump-unprecedented-potentially-unconstitutional-deal-110000020.html</t>
         </is>
       </c>
-      <c r="E308" s="3" t="n">
+      <c r="E308" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F308" t="inlineStr">
@@ -11871,7 +11871,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-special-treatment-trump-110000802.html</t>
         </is>
       </c>
-      <c r="E309" s="3" t="n">
+      <c r="E309" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F309" t="inlineStr">
@@ -11897,7 +11897,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/meta-spends-more-guarding-mark-100300414.html</t>
         </is>
       </c>
-      <c r="E310" s="3" t="n">
+      <c r="E310" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F310" t="inlineStr">
@@ -11923,7 +11923,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/91630ab4-07a9-3a15-85c5-0f54a7bfd2f5/chipmakers-nvidia-and-amd-to.html</t>
         </is>
       </c>
-      <c r="E311" s="3" t="n">
+      <c r="E311" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F311" t="inlineStr">
@@ -11949,7 +11949,7 @@
           <t>https://finviz.com/news/142382/5-brilliant-quantum-computing-stocks-to-buy-right-now</t>
         </is>
       </c>
-      <c r="E312" s="3" t="n">
+      <c r="E312" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F312" t="inlineStr">
@@ -12008,7 +12008,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/race-sovereign-ai-intensifying-know-154054977.html</t>
         </is>
       </c>
-      <c r="E313" s="3" t="n">
+      <c r="E313" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F313" t="inlineStr">
@@ -12034,7 +12034,7 @@
           <t>https://finviz.com/news/142380/5-top-artificial-intelligence-stocks-to-buy-in-august</t>
         </is>
       </c>
-      <c r="E314" s="3" t="n">
+      <c r="E314" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F314" t="inlineStr">
@@ -12117,7 +12117,7 @@
           <t>https://finviz.com/news/142379/double-the-disruption-the-3-best-stocks-to-buy-now-to-profit-from-both-ai-and-quantum-computing</t>
         </is>
       </c>
-      <c r="E315" s="3" t="n">
+      <c r="E315" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F315" t="inlineStr">
@@ -12182,7 +12182,7 @@
           <t>https://finviz.com/news/142377/did-nvidia-make-a-mistake-by-selling-soundhound-ai-stock-the-answer-might-surprise-you</t>
         </is>
       </c>
-      <c r="E316" s="3" t="n">
+      <c r="E316" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F316" t="inlineStr">
@@ -12263,7 +12263,7 @@
           <t>https://finviz.com/news/142361/if-i-could-only-buy-and-hold-a-single-stock-this-would-be-it</t>
         </is>
       </c>
-      <c r="E317" s="3" t="n">
+      <c r="E317" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F317" t="inlineStr">
@@ -12330,7 +12330,7 @@
           <t>https://finviz.comhttps://www.digitimes.com/news/a20250814PD235/repon-ai-server-growth-demand-shipments.html</t>
         </is>
       </c>
-      <c r="E318" s="3" t="n">
+      <c r="E318" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F318" t="inlineStr">
@@ -12356,7 +12356,7 @@
           <t>https://finviz.comhttps://www.digitimes.com/news/a20250814VL206/nvidia-rubin-ai-chip-amd-launch.html</t>
         </is>
       </c>
-      <c r="E319" s="3" t="n">
+      <c r="E319" s="2" t="n">
         <v>45885</v>
       </c>
       <c r="F319" t="inlineStr">
@@ -12382,7 +12382,7 @@
           <t>https://finviz.com/news/142292/nvidia-nvda-stock-gets-bullish-call-amid-us-china-chip-agreement-reports</t>
         </is>
       </c>
-      <c r="E320" s="3" t="n">
+      <c r="E320" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F320" t="inlineStr">
@@ -12422,7 +12422,7 @@
           <t>https://finviz.com/news/142300/5-unstoppable-ten-titans-growth-stocks-to-buy-now-and-hold-through-at-least-2030</t>
         </is>
       </c>
-      <c r="E321" s="3" t="n">
+      <c r="E321" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F321" t="inlineStr">
@@ -12504,7 +12504,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-agree-15-export-220517787.html</t>
         </is>
       </c>
-      <c r="E322" s="3" t="n">
+      <c r="E322" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F322" t="inlineStr">
@@ -12530,7 +12530,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-scores-500-million-ipo-214706278.html</t>
         </is>
       </c>
-      <c r="E323" s="3" t="n">
+      <c r="E323" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F323" t="inlineStr">
@@ -12556,7 +12556,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/6dc7f034-8f61-3b3d-955d-3a50b01945af/trump-wants-to-make-intel.html</t>
         </is>
       </c>
-      <c r="E324" s="3" t="n">
+      <c r="E324" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F324" t="inlineStr">
@@ -12582,7 +12582,7 @@
           <t>https://finviz.comhttps://www.investors.com/research/ibd-stock-analysis/micron-stock-ai-data-centers-space-exploration?mod=IBD_FV</t>
         </is>
       </c>
-      <c r="E325" s="3" t="n">
+      <c r="E325" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F325" t="inlineStr">
@@ -12608,7 +12608,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/75569d9b-a755-3b40-9ffe-1dc6015936fc/dear-marvell-stock-fans%2C-mark.html</t>
         </is>
       </c>
-      <c r="E326" s="3" t="n">
+      <c r="E326" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F326" t="inlineStr">
@@ -12634,7 +12634,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/874808b0-c2be-37fa-8f9b-749d586597da/billionaire-fund-manager.html</t>
         </is>
       </c>
-      <c r="E327" s="3" t="n">
+      <c r="E327" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F327" t="inlineStr">
@@ -12660,7 +12660,7 @@
           <t>https://finviz.com/news/142198/jim-cramer-insists-there-are-no-backdoors-in-nvidia-corporation-nvdas-chips</t>
         </is>
       </c>
-      <c r="E328" s="3" t="n">
+      <c r="E328" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F328" t="inlineStr">
@@ -12704,7 +12704,7 @@
           <t>https://finviz.com/news/142196/if-youd-invested-500-in-the-trade-desk-stock-5-years-ago-heres-how-much-youd-have-today</t>
         </is>
       </c>
-      <c r="E329" s="3" t="n">
+      <c r="E329" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F329" t="inlineStr">
@@ -12763,7 +12763,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/intc-intel-jumps-reports-white-175929817.html</t>
         </is>
       </c>
-      <c r="E330" s="3" t="n">
+      <c r="E330" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F330" t="inlineStr">
@@ -12789,7 +12789,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/billionaire-family-offices-join-berkshire-173329643.html</t>
         </is>
       </c>
-      <c r="E331" s="3" t="n">
+      <c r="E331" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F331" t="inlineStr">
@@ -12815,7 +12815,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvda-chip-stocks-tumbles-tariff-173136118.html</t>
         </is>
       </c>
-      <c r="E332" s="3" t="n">
+      <c r="E332" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F332" t="inlineStr">
@@ -12841,7 +12841,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/3d8524f4-7f7e-33fb-afb8-e423bcd7c678/billionaire-george-soros.html</t>
         </is>
       </c>
-      <c r="E333" s="3" t="n">
+      <c r="E333" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F333" t="inlineStr">
@@ -12867,7 +12867,7 @@
           <t>https://finviz.com/news/142176/quantum-stocks-q2-2025-are-d-wave-ionq-rigetti-funding-the-future</t>
         </is>
       </c>
-      <c r="E334" s="3" t="n">
+      <c r="E334" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F334" t="inlineStr">
@@ -12917,7 +12917,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-price-targets-raised-165957508.html</t>
         </is>
       </c>
-      <c r="E335" s="3" t="n">
+      <c r="E335" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F335" t="inlineStr">
@@ -12943,7 +12943,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-ceo-jensen-huang-cashes-165832406.html</t>
         </is>
       </c>
-      <c r="E336" s="3" t="n">
+      <c r="E336" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F336" t="inlineStr">
@@ -12969,7 +12969,7 @@
           <t>https://finviz.com/news/142162/iren-limited-an-ai-crypto-and-cloud-computing-stock</t>
         </is>
       </c>
-      <c r="E337" s="3" t="n">
+      <c r="E337" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F337" t="inlineStr">
@@ -13019,7 +13019,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/trump-aides-create-loyalty-list-162746725.html</t>
         </is>
       </c>
-      <c r="E338" s="3" t="n">
+      <c r="E338" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F338" t="inlineStr">
@@ -13045,7 +13045,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/politics-beats-the-market-in-trumps-pay-for-play-chip-scheme-f57ef41d?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E339" s="3" t="n">
+      <c r="E339" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F339" t="inlineStr">
@@ -13071,7 +13071,7 @@
           <t>https://finviz.comhttps://www.wsj.com/tech/intels-move-toward-nationalization-wont-workat-least-for-the-long-haul-de403b16?mod=wsj_FV</t>
         </is>
       </c>
-      <c r="E340" s="3" t="n">
+      <c r="E340" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F340" t="inlineStr">
@@ -13097,7 +13097,7 @@
           <t>https://finviz.com/news/142097/the-zacks-analyst-blog-highlights-intel-nvidia-amd-and-cadence-design-systems</t>
         </is>
       </c>
-      <c r="E341" s="3" t="n">
+      <c r="E341" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F341" t="inlineStr">
@@ -13175,7 +13175,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/0a04f585-44f3-32cd-ac0a-41894f4d485f/china-is-pushing-back-against.html</t>
         </is>
       </c>
-      <c r="E342" s="3" t="n">
+      <c r="E342" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F342" t="inlineStr">
@@ -13201,7 +13201,7 @@
           <t>https://finviz.com/news/142031/what-amd-and-nvidia-shareholders-should-know-about-recent-china-updates</t>
         </is>
       </c>
-      <c r="E343" s="3" t="n">
+      <c r="E343" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F343" t="inlineStr">
@@ -13245,7 +13245,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/lee-ainslies-strategic-moves-closer-150531631.html</t>
         </is>
       </c>
-      <c r="E344" s="3" t="n">
+      <c r="E344" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F344" t="inlineStr">
@@ -13271,7 +13271,7 @@
           <t>https://finviz.com/news/142053/zacks-investment-ideas-feature-highlights-fabrinet-nvidia-and-amazon</t>
         </is>
       </c>
-      <c r="E345" s="3" t="n">
+      <c r="E345" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F345" t="inlineStr">
@@ -13337,7 +13337,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-slips-amid-chip-tariff.html</t>
         </is>
       </c>
-      <c r="E346" s="3" t="n">
+      <c r="E346" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F346" t="inlineStr">
@@ -13363,7 +13363,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/why-would-trump-and-intel-want-to-work-together-opening-bid-top-takeaway-143409334.html</t>
         </is>
       </c>
-      <c r="E347" s="3" t="n">
+      <c r="E347" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F347" t="inlineStr">
@@ -13389,7 +13389,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/trump-intel-stake-too-big-fail-b66594d9?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E348" s="3" t="n">
+      <c r="E348" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F348" t="inlineStr">
@@ -13415,7 +13415,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/bc-most-active-stocks-143017539.html</t>
         </is>
       </c>
-      <c r="E349" s="3" t="n">
+      <c r="E349" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F349" t="inlineStr">
@@ -13441,7 +13441,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/b679bc58-8e47-301a-a02f-a9a04f93cf32/trump-says-tariff-rate-on.html</t>
         </is>
       </c>
-      <c r="E350" s="3" t="n">
+      <c r="E350" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F350" t="inlineStr">
@@ -13467,7 +13467,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-stock-stutters.-big.html</t>
         </is>
       </c>
-      <c r="E351" s="3" t="n">
+      <c r="E351" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F351" t="inlineStr">
@@ -13493,7 +13493,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/dow-scales-record-high-hopes-134625792.html</t>
         </is>
       </c>
-      <c r="E352" s="3" t="n">
+      <c r="E352" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F352" t="inlineStr">
@@ -13519,7 +13519,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/best-semiconductor-etfs-2025-top-125500125.html</t>
         </is>
       </c>
-      <c r="E353" s="3" t="n">
+      <c r="E353" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F353" t="inlineStr">
@@ -13545,7 +13545,7 @@
           <t>https://finviz.comhttps://www.marketwatch.com/story/20-stocks-in-the-s-p-500-that-are-high-achievers-this-earnings-season-17b99522?mod=mw_FV</t>
         </is>
       </c>
-      <c r="E354" s="3" t="n">
+      <c r="E354" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F354" t="inlineStr">
@@ -13571,7 +13571,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/best-equal-weight-index-funds-212855779.html</t>
         </is>
       </c>
-      <c r="E355" s="3" t="n">
+      <c r="E355" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F355" t="inlineStr">
@@ -13597,7 +13597,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/proshares-launches-first-etf-target-123000712.html</t>
         </is>
       </c>
-      <c r="E356" s="3" t="n">
+      <c r="E356" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F356" t="inlineStr">
@@ -13623,7 +13623,7 @@
           <t>https://finviz.com/news/141764/could-buying-nvidia-today-set-you-up-for-life</t>
         </is>
       </c>
-      <c r="E357" s="3" t="n">
+      <c r="E357" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F357" t="inlineStr">
@@ -13684,7 +13684,7 @@
           <t>https://finviz.com/news/141745/what-amd-coreweave-and-nvidia-stock-investors-should-know-about-recent-updates</t>
         </is>
       </c>
-      <c r="E358" s="3" t="n">
+      <c r="E358" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F358" t="inlineStr">
@@ -13728,7 +13728,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/3-ai-chip-stocks-best-110017626.html</t>
         </is>
       </c>
-      <c r="E359" s="3" t="n">
+      <c r="E359" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F359" t="inlineStr">
@@ -13754,7 +13754,7 @@
           <t>https://finviz.com/news/141703/these-were-the-5-biggest-companies-in-2019-and-here-are-the-5-biggest-companies-now</t>
         </is>
       </c>
-      <c r="E360" s="3" t="n">
+      <c r="E360" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F360" t="inlineStr">
@@ -13850,7 +13850,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/analysis-trumps-attack-goldman-could-100301764.html</t>
         </is>
       </c>
-      <c r="E361" s="3" t="n">
+      <c r="E361" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F361" t="inlineStr">
@@ -13876,7 +13876,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/megacaps-keep-rising-heres-valuation-100019975.html</t>
         </is>
       </c>
-      <c r="E362" s="3" t="n">
+      <c r="E362" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F362" t="inlineStr">
@@ -13902,7 +13902,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/ai-exacerbates-tech-divide-smaller-093000902.html</t>
         </is>
       </c>
-      <c r="E363" s="3" t="n">
+      <c r="E363" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F363" t="inlineStr">
@@ -13928,7 +13928,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/coreweave-ipo-investors-sitting-big-092712253.html</t>
         </is>
       </c>
-      <c r="E364" s="3" t="n">
+      <c r="E364" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F364" t="inlineStr">
@@ -13954,7 +13954,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/taiwan-raises-2025-gdp-growth-091247191.html</t>
         </is>
       </c>
-      <c r="E365" s="3" t="n">
+      <c r="E365" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F365" t="inlineStr">
@@ -13980,7 +13980,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/nvidia-stock-price-soros-ai-aebccfaf?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E366" s="3" t="n">
+      <c r="E366" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F366" t="inlineStr">
@@ -14006,7 +14006,7 @@
           <t>https://finviz.com/news/141527/where-will-navitas-semiconductor-stock-be-in-3-years</t>
         </is>
       </c>
-      <c r="E367" s="3" t="n">
+      <c r="E367" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F367" t="inlineStr">
@@ -14103,7 +14103,7 @@
           <t>https://finviz.com/news/141519/should-you-buy-nvidia-stock-before-aug-27-wall-street-has-a-compelling-answer</t>
         </is>
       </c>
-      <c r="E368" s="3" t="n">
+      <c r="E368" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F368" t="inlineStr">
@@ -14166,7 +14166,7 @@
           <t>https://finviz.com/news/141515/nvidia-palantir-and-amd-have-a-nearly-13-billion-warning-for-wall-street-but-are-you-paying-attention</t>
         </is>
       </c>
-      <c r="E369" s="3" t="n">
+      <c r="E369" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F369" t="inlineStr">
@@ -14254,7 +14254,7 @@
           <t>https://finviz.com/news/141501/william-blair-maintains-outperform-rating-on-nvidia-nvda</t>
         </is>
       </c>
-      <c r="E370" s="3" t="n">
+      <c r="E370" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F370" t="inlineStr">
@@ -14295,7 +14295,7 @@
           <t>https://finviz.com/news/141486/jim-cramer-discusses-nvidia-return-to-china-market</t>
         </is>
       </c>
-      <c r="E371" s="3" t="n">
+      <c r="E371" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F371" t="inlineStr">
@@ -14337,7 +14337,7 @@
           <t>https://finviz.com/news/141475/dell-nvidia-elastic-partner-to-enhance-ai-data-platform</t>
         </is>
       </c>
-      <c r="E372" s="3" t="n">
+      <c r="E372" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F372" t="inlineStr">
@@ -14380,7 +14380,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/tech-energy-healthcare-stocks-markets-cf964dda?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E373" s="3" t="n">
+      <c r="E373" s="2" t="n">
         <v>45884</v>
       </c>
       <c r="F373" t="inlineStr">
@@ -14406,7 +14406,7 @@
           <t>https://finviz.comhttps://www.marketwatch.com/story/soros-appaloosa-boost-their-holdings-in-this-mag-7-stock-amid-ai-spending-boom-514807d8?mod=mw_FV</t>
         </is>
       </c>
-      <c r="E374" s="3" t="n">
+      <c r="E374" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F374" t="inlineStr">
@@ -14432,7 +14432,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/hedge-funds-shift-bets-double-233524300.html</t>
         </is>
       </c>
-      <c r="E375" s="3" t="n">
+      <c r="E375" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F375" t="inlineStr">
@@ -14458,7 +14458,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-growth-fund-inc-220600993.html</t>
         </is>
       </c>
-      <c r="E376" s="3" t="n">
+      <c r="E376" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F376" t="inlineStr">
@@ -14484,7 +14484,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-equity-fund-july-220600509.html</t>
         </is>
       </c>
-      <c r="E377" s="3" t="n">
+      <c r="E377" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F377" t="inlineStr">
@@ -14510,7 +14510,7 @@
           <t>https://finviz.comhttps://www.investors.com/news/technology/ai-stocks-score-price-target-hikes-strong-server-sales?mod=IBD_FV</t>
         </is>
       </c>
-      <c r="E378" s="3" t="n">
+      <c r="E378" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F378" t="inlineStr">
@@ -14536,7 +14536,7 @@
           <t>https://finviz.comhttps://www.youtube.com/watch?v=c7YoYkKtCfk</t>
         </is>
       </c>
-      <c r="E379" s="3" t="n">
+      <c r="E379" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F379" t="inlineStr">
@@ -14562,7 +14562,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/65c5a297-973e-3cab-8341-10bc5e0b35e7/strategy-pushed-%E2%80%98deceptive%E2%80%99.html</t>
         </is>
       </c>
-      <c r="E380" s="3" t="n">
+      <c r="E380" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F380" t="inlineStr">
@@ -14588,7 +14588,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/intel-stock-surges-on-report-trump-administration-mulls-taking-stake-in-company-204003673.html</t>
         </is>
       </c>
-      <c r="E381" s="3" t="n">
+      <c r="E381" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F381" t="inlineStr">
@@ -14614,7 +14614,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/us-weighs-taking-stake-intel-195356266.html</t>
         </is>
       </c>
-      <c r="E382" s="3" t="n">
+      <c r="E382" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F382" t="inlineStr">
@@ -14640,7 +14640,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-and.html</t>
         </is>
       </c>
-      <c r="E383" s="3" t="n">
+      <c r="E383" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F383" t="inlineStr">
@@ -14666,7 +14666,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/ken-fishers-strategic-moves-oracle-190218225.html</t>
         </is>
       </c>
-      <c r="E384" s="3" t="n">
+      <c r="E384" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F384" t="inlineStr">
@@ -14692,7 +14692,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/kevin-oleary-says-nvidia-amd-190100564.html</t>
         </is>
       </c>
-      <c r="E385" s="3" t="n">
+      <c r="E385" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F385" t="inlineStr">
@@ -14718,7 +14718,7 @@
           <t>https://finviz.com/news/141119/should-you-buy-intel-stock-after-president-trumps-ceo-praise</t>
         </is>
       </c>
-      <c r="E386" s="3" t="n">
+      <c r="E386" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F386" t="inlineStr">
@@ -14770,7 +14770,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-ai-rally-c963a7b1?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E387" s="3" t="n">
+      <c r="E387" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F387" t="inlineStr">
@@ -14796,7 +14796,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-market-8d1a1a8e?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E388" s="3" t="n">
+      <c r="E388" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F388" t="inlineStr">
@@ -14822,7 +14822,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-nasdaq.html</t>
         </is>
       </c>
-      <c r="E389" s="3" t="n">
+      <c r="E389" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F389" t="inlineStr">
@@ -14848,7 +14848,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/wedbush-nvidia-amd-china-ai-175410596.html</t>
         </is>
       </c>
-      <c r="E390" s="3" t="n">
+      <c r="E390" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F390" t="inlineStr">
@@ -14874,7 +14874,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-hits-6-8b-valuation-174027502.html</t>
         </is>
       </c>
-      <c r="E391" s="3" t="n">
+      <c r="E391" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F391" t="inlineStr">
@@ -14900,7 +14900,7 @@
           <t>https://finviz.com/news/141052/if-you-bought-100-shares-of-applied-digital-at-its-ipo-heres-how-much-money-youd-have-now</t>
         </is>
       </c>
-      <c r="E392" s="3" t="n">
+      <c r="E392" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F392" t="inlineStr">
@@ -14954,7 +14954,7 @@
           <t>https://finviz.com/news/141056/ciscos-q4-earnings-beat-estimates-revenues-rise-yy-shares-down</t>
         </is>
       </c>
-      <c r="E393" s="3" t="n">
+      <c r="E393" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F393" t="inlineStr">
@@ -15016,7 +15016,7 @@
           <t>https://finviz.com/news/140962/deeply-undervalued-micron-technologies-stock-isnt-pricing-in-ai</t>
         </is>
       </c>
-      <c r="E394" s="3" t="n">
+      <c r="E394" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F394" t="inlineStr">
@@ -15072,7 +15072,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down%3B.html</t>
         </is>
       </c>
-      <c r="E395" s="3" t="n">
+      <c r="E395" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F395" t="inlineStr">
@@ -15098,7 +15098,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/ai-startup-cohere-valued-6-160547472.html</t>
         </is>
       </c>
-      <c r="E396" s="3" t="n">
+      <c r="E396" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F396" t="inlineStr">
@@ -15124,7 +15124,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/chatgpt-everything-know-ai-powered-172758212.html</t>
         </is>
       </c>
-      <c r="E397" s="3" t="n">
+      <c r="E397" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F397" t="inlineStr">
@@ -15150,7 +15150,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/1d8b2777-f870-30ca-8bb3-1de5b2863222/nvidia-stock-edges-up..html</t>
         </is>
       </c>
-      <c r="E398" s="3" t="n">
+      <c r="E398" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F398" t="inlineStr">
@@ -15176,7 +15176,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/mizuho-raises-nvidia-amd-price-145813757.html</t>
         </is>
       </c>
-      <c r="E399" s="3" t="n">
+      <c r="E399" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F399" t="inlineStr">
@@ -15202,7 +15202,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down.html</t>
         </is>
       </c>
-      <c r="E400" s="3" t="n">
+      <c r="E400" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F400" t="inlineStr">
@@ -15228,7 +15228,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/ef1babbd-1d07-344e-8bc2-3141eea3690d/after-earnings%2C-pair-cisco.html</t>
         </is>
       </c>
-      <c r="E401" s="3" t="n">
+      <c r="E401" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="F401" t="inlineStr">
@@ -15238,6 +15238,3928 @@
       </c>
       <c r="G401" t="inlineStr"/>
       <c r="H401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45886.31597222222</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Powell's Jackson Hole speech, Walmart earnings: What to watch this week</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/powells-jackson-hole-speech-walmart-earnings-what-to-watch-this-week-113502376.html</t>
+        </is>
+      </c>
+      <c r="E402" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45886.27152777778</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Meet the Marvelous Vanguard ETF With 57.7% of Its Portfolio Invested in the "Magnificent Seven" Stocks</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr"/>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142568/meet-the-marvelous-vanguard-etf-with-577-of-its-portfolio-invested-in-the-magnificent-seven-stocks</t>
+        </is>
+      </c>
+      <c r="E403" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+The "Magnificent Seven" is a collection of companies operating at the forefront of growth industries like AI.
+These stocks routinely beat the S&amp;P 500, so investors who don't own them have likely underperformed the market.
+Vanguard Mega Cap Growth ETF offers a simple way to buy those seven stocks, with a splash of diversification.
+The term "Magnificent Seven" was first used by Wall Street analysts in 2023 to describe a group of seven companies that operate at the cutting edge of the technology industry. They are worth a combined $19.7 trillion, but their incredible size isn't the only reason they earned the nickname.
+Since the artificial intelligence (AI) revolution started gathering momentum at the start of 2023, the Magnificent Seven stocks have delivered a median return of 163%, which is more than twice the 67% gain in the benchmark S&amp;P 500 index over the same period.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+In other words, investors who don't own the Magnificent Seven stocks are likely underperforming the broader market. Fortunately, there is a simple way to buy them all right now, with a splash of diversification from some of America's other stock market giants.
+The Vanguard Mega Cap Growth ETF (NYSEMKT: MGK) is an exchange-traded fund (ETF) that invests exclusively in America's largest companies. It holds a portfolio of just 69 stocks, but it's highly concentrated with the Magnificent Seven representing 57.7% of its entire value.
+Image source: Getty Images.
+The companies in the Magnificent Seven operate very different businesses, but they have one thing in common: They are betting big on AI right now:
+Although the Magnificent Seven stocks represent 57.7% of the Vanguard ETF's portfolio by value, the other 42.3% includes several non-technology heavyweights like Eli Lilly, Visa, Mastercard, Costco, McDonald's, Boeing, and more. In other words, the ETF does offer some diversification.
+The Vanguard Mega Cap Growth ETF shouldn't be treated as a complete portfolio on its own, because its high degree of exposure to themes like AI can create significant risks. The Magnificent Seven stocks would likely underperform the broader market for a period of time if AI fails to live up to expectations, which would weigh on the ETF.
+But the ETF could supercharge a diversified portfolio of other funds and individual stocks. It has delivered a compound annual return of 13.5% since it was established in 2007, comfortably beating the average annual gain of 10.1% in the S&amp;P 500 over the same period.
+Had you invested $20,000 in the S&amp;P 500 in 2007, it would be worth $113,032 today. But had you invested $10,000 in the S&amp;P and the other $10,000 in the Vanguard ETF, your $20,000 would have grown to $154,222 instead. This strategy also would have smoothed out some of the volatility the Vanguard ETF experienced along the way as a result of its concentrated holdings.
+Cathie Wood's Ark Investment Management predicts that AI will create a $13 trillion opportunity in the software industry by 2030, and on the hardware side, Nvidia CEO Jensen Huang says annual data center spending could top $1 trillion by 2028. Those forecasts suggest the AI revolution is still in the very early stages, so investors who don't have exposure to the Magnificent Seven stocks might want to consider buying this Vanguard ETF today.
+Before you buy stock in Vanguard World Fund - Vanguard Mega Cap Growth ETF, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Vanguard World Fund - Vanguard Mega Cap Growth ETF wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $668,155!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,106,071!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,070% — a market-crushing outperformance compared to 184% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Anthony Di Pizio has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Costco Wholesale, Mastercard, Meta Platforms, Microsoft, Nvidia, Tesla, and Visa. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.
+| 13 min | |
+| 39 min | |
+| 1 hour | |
+| 1 hour | |
+| 2 hours | |
+| 2 hours | |
+| 3 hours | |
+| 3 hours | |
+| 4 hours | |
+| 4 hours | |
+| 4 hours | |
+| 4 hours | |
+| 5 hours | |
+| 6 hours | |
+| 6 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>The "Magnificent Seven" is a collection of companies operating at the forefront of growth industries like AI. These stocks routinely beat the S&amp;P 500, so investors who don't own them have likely underperformed the market. Vanguard Mega Cap Growth ETF offers a simple way to buy those seven stocks, with a splash of diversification. The term "Magnificent Seven" was first used by Wall Street analysts in 2023 to describe a group of seven companies that operate at the cutting edge of the technology industry. They are worth a combined $19.7 trillion, but their incredible size isn't the only reason they earned the nickname. Since the artificial intelligence (AI) revolution started gathering momentum at the start of 2023, the Magnificent Seven stocks have delivered a median return of 163%, which is more than twice the 67% gain in the benchmark S&amp;P 500 index over the same period. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue In other words, investors who don't own the Magnificent Seven stocks are likely underperforming the broader market. Fortunately, there is a simple way to buy them all right now, with a splash of diversification from some of America's other stock market giants. The Vanguard Mega Cap Growth ETF (NYSEMKT: MGK) is an exchange traded fund (ETF) that invests exclusively in America's largest companies. It holds a portfolio of just 69 stocks, but it's highly concentrated with the Magnificent Seven representing 57.7% of its entire value. Image source: Getty Images. The companies in the Magnificent Seven operate very different businesses, but they have one thing in common: They are betting big on AI right now: Although the Magnificent Seven stocks represent 57.7% of the Vanguard ETF's portfolio by value, the other 42.3% includes several non technology heavyweights like Eli Lilly, Visa, Mastercard, Costco, McDonald's, Boeing, and more. In other words, the ETF does offer some diversification. The Vanguard Mega Cap Growth ETF shouldn't be treated as a complete portfolio on its own, because its high degree of exposure to themes like AI can create significant risks. The Magnificent Seven stocks would likely underperform the broader market for a period of time if AI fails to live up to expectations, which would weigh on the ETF. But the ETF could supercharge a diversified portfolio of other funds and individual stocks. It has delivered a compound annual return of 13.5% since it was established in 2007, comfortably beating the average annual gain of 10.1% in the S&amp;P 500 over the same period. Had you invested $20,000 in the S&amp;P 500 in 2007, it would be worth $113,032 today. But had you invested $10,000 in the S&amp;P and the other $10,000 in the Vanguard ETF, your $20,000 would have grown to $154,222 instead. This strategy also would have smoothed out some of the volatility the Vanguard ETF experienced along the way as a result of its concentrated holdings. Cathie Wood's Ark Investment Management predicts that AI will create a $13 trillion opportunity in the software industry by 2030, and on the hardware side, Nvidia CEO Jensen Huang says annual data center spending could top $1 trillion by 2028. Those forecasts suggest the AI revolution is still in the very early stages, so investors who don't have exposure to the Magnificent Seven stocks might want to consider buying this Vanguard ETF today. Before you buy stock in Vanguard World Fund Vanguard Mega Cap Growth ETF, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Vanguard World Fund Vanguard Mega Cap Growth ETF wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $668,155! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,106,071! Now, its worth noting Stock Advisors total average return is 1,070% a market crushing outperformance compared to 184% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Anthony Di Pizio has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Costco Wholesale, Mastercard, Meta Platforms, Microsoft, Nvidia, Tesla, and Visa. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. 13 min 39 min 1 hour 1 hour 2 hours 2 hours 3 hours 3 hours 4 hours 4 hours 4 hours 4 hours 5 hours 6 hours 6 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45886.25763888889</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Should You Buy Nvidia Stock Before Aug. 27?</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr"/>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142566/should-you-buy-nvidia-stock-before-aug-27</t>
+        </is>
+      </c>
+      <c r="E404" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Key Points
+Nvidia has the majority share of the lucrative GPU market.
+Major computing companies will continue to buy Nvidia's products.
+Nvidia reports earnings on Aug. 27.
+Nividia (NASDAQ: NVDA) appears set for a big month. The semiconductor company, whose graphics processing units (GPUs) power data centers and large language models to make artificial intelligence (AI) and machine learning (ML) possible, is reporting its second-quarter fiscal 2026 earnings results after the closing bell on Aug. 27.
+Investors should be pleased to know that all signs point to another solid earnings report. Particularly when it's not hindered by tariff fears, Nvidia has a history of seeing its stock jump following a positive report.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+Let's take a closer look at what is to be expected from Nvidia -- and why investors who have the stock will likely be richer afterward.
+Why you should expect a solid earnings report
+Nvidia has an overwhelming market share in the GPU market, with recent estimates indicating that it has a 92% piece of the business. These GPUs are designed to work collectively, so when a data center customer buys hundreds and links them together, they can work faster and more powerfully, running top-of-the-line platforms with generative AI.
+Some of Nvidia's biggest customers have already announced plans to increase their data center spending even more. Meta Platforms is adding $30 billion this year to its capital expenditures (capex) to a level between $66 billion and $72 billion. Alphabet says it will increase its capex guidance for 2025 from $75 billion to $85 billion. And Microsoft says that it will increase its spending in 2026, although it won't be as rapid as it was for the 2025 fiscal year, which ended June 30, 2025.
+Analysts surveyed at Yahoo! Finance forecast Nvidia revenue in Q2 to be $45.75 billion (at the midpoint) versus $30.04 billion a year ago, and earnings per share (EPS) of $1.00 versus $0.68 in the same quarter a year ago. That represents a 52% gain on revenue and a 47% improvement in EPS if the forecasts are correct.
+In addition, investors hope to get more details from Nvidia about a reported deal it made with the White House to allow it to sell its valuable H20 AI chips in China. The company was forced to take a $4.5 billion charge against earnings in Q1 because it was blocked from selling the high-performance chips. The company recently announced that the Trump administration agreed to let it restart sales. The deal would allow Nvidia and Advanced Micro Devices to sell their chips in China, with 15% of the revenue going to the U.S. government. But no additional details on how the deal would work have been released since. Nvidia is likely to get questions from analysts about the deal and how it might affect guidance for the rest of the 2026 fiscal year.
+How Nvidia stock moves after earnings
+To get a better idea of what to expect from the post-report market, it pays to see what the stock did following the last several earnings reports.
+| Period |
+Revenue |
+Revenue Growth (YOY) |
+EPS |
+EPS Growth (YOY) |
+90-Day Stock Performance* |
+| Q1 2026 |
+$44.1 billion |
+69% |
+$0.76 |
+27% |
+23.9%* |
+| Q4 2025 |
+$39.3 billion |
+78% |
+$0.89 |
+82% |
+(7.1%) |
+| Q3 2025 |
+$35.1 billion |
+94% |
+$0.78 |
+111% |
+(13.2%) |
+| Q2 2025 |
+$30.0 billion |
+122% |
+$0.67 |
+168% |
+16.1% |
+Source: Nvidia. Note: Q1 2026 was released May 28, 2025; Q4 2025 was released Feb. 26, 2025; Q3 2025 was released Nov. 20, 2024; Q2 2025 was released Aug. 28, 2024. * Stock performance is for the 90 days following the report's release, except Q1 2026, which is performance only through Aug. 13, 2025. YOY = Year over year.
+Two things stand out here: First, Nvidia is remarkably consistent in adding roughly $5 billion in new revenue each quarter. While the year-over-year increase in growth is reduced, that's only because each quarter Nvidia faces more challenging comparable numbers. That's not a serious problem to have, so if I see a report that says "Nvidia's growth is slowing," that's not something I'm going to stress about as an investor.
+Second, Nvidia's post-market performance appears to be solid. There are two quarters in the last calendar year where the stock dropped, but that was entirely because of the tariff and trade war battles being fought between Washington and the rest of the world. The demand for Nvidia chips isn't going away, and as long as the government doesn't interfere, Nvidia's performance should be solid. That's why the company's news that it will be allowed to sell its H20 chips in China -- followed by the separate White House statement -- is so important to Nvidia stock, and it's one of the reasons why Nvidia currently has a market capitalization of $4.4 trillion.
+I am confident that Nvidia will have a solid quarter, particularly with major tech companies increasing their capex spending and expanding their data centers. And now that the H20 sales to China appear to have a green light, we should expect a more-than-respectable report from Nvidia on Aug. 27. I recommend buying the shares before the report date and holding them for a long time.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $668,155!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,106,071!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,070% — a market-crushing outperformance compared to 184% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Patrick Sanders has positions in Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices, Alphabet, Meta Platforms, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Key Points Nvidia has the majority share of the lucrative GPU market. Major computing companies will continue to buy Nvidia's products. Nvidia reports earnings on Aug. 27. Nividia (NASDAQ: NVDA) appears set for a big month. The semiconductor company, whose graphics processing units (GPUs) power data centers and large language models to make artificial intelligence (AI) and machine learning (ML) possible, is reporting its second quarter fiscal 2026 earnings results after the closing bell on Aug. 27. Investors should be pleased to know that all signs point to another solid earnings report. Particularly when it's not hindered by tariff fears, Nvidia has a history of seeing its stock jump following a positive report. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More Let's take a closer look at what is to be expected from Nvidia and why investors who have the stock will likely be richer afterward. Why you should expect a solid earnings report Nvidia has an overwhelming market share in the GPU market, with recent estimates indicating that it has a 92% piece of the business. These GPUs are designed to work collectively, so when a data center customer buys hundreds and links them together, they can work faster and more powerfully, running top of the line platforms with generative AI. Some of Nvidia's biggest customers have already announced plans to increase their data center spending even more. Meta Platforms is adding $30 billion this year to its capital expenditures (capex) to a level between $66 billion and $72 billion. Alphabet says it will increase its capex guidance for 2025 from $75 billion to $85 billion. And Microsoft says that it will increase its spending in 2026, although it won't be as rapid as it was for the 2025 fiscal year, which ended June 30, 2025. Analysts surveyed at Yahoo! Finance forecast Nvidia revenue in Q2 to be $45.75 billion (at the midpoint) versus $30.04 billion a year ago, and earnings per share (EPS) of $1.00 versus $0.68 in the same quarter a year ago. That represents a 52% gain on revenue and a 47% improvement in EPS if the forecasts are correct. In addition, investors hope to get more details from Nvidia about a reported deal it made with the White House to allow it to sell its valuable H20 AI chips in China. The company was forced to take a $4.5 billion charge against earnings in Q1 because it was blocked from selling the high performance chips. The company recently announced that the Trump administration agreed to let it restart sales. The deal would allow Nvidia and Advanced Micro Devices to sell their chips in China, with 15% of the revenue going to the U.S. government. But no additional details on how the deal would work have been released since. Nvidia is likely to get questions from analysts about the deal and how it might affect guidance for the rest of the 2026 fiscal year. How Nvidia stock moves after earnings To get a better idea of what to expect from the post report market, it pays to see what the stock did following the last several earnings reports. Period Revenue Revenue Growth (YOY) EPS EPS Growth (YOY) 90 Day Stock Performance Q1 2026 $44.1 billion 69% $0.76 27% 23.9% Q4 2025 $39.3 billion 78% $0.89 82% (7.1%) Q3 2025 $35.1 billion 94% $0.78 111% (13.2%) Q2 2025 $30.0 billion 122% $0.67 168% 16.1% Source: Nvidia. Note: Q1 2026 was released May 28, 2025; Q4 2025 was released Feb. 26, 2025; Q3 2025 was released Nov. 20, 2024; Q2 2025 was released Aug. 28, 2024. Stock performance is for the 90 days following the report's release, except Q1 2026, which is performance only through Aug. 13, 2025. YOY = Year over year. Two things stand out here: First, Nvidia is remarkably consistent in adding roughly $5 billion in new revenue each quarter. While the year over year increase in growth is reduced, that's only because each quarter Nvidia faces more challenging comparable numbers. That's not a serious problem to have, so if I see a report that says "Nvidia's growth is slowing," that's not something I'm going to stress about as an investor. Second, Nvidia's post market performance appears to be solid. There are two quarters in the last calendar year where the stock dropped, but that was entirely because of the tariff and trade war battles being fought between Washington and the rest of the world. The demand for Nvidia chips isn't going away, and as long as the government doesn't interfere, Nvidia's performance should be solid. That's why the company's news that it will be allowed to sell its H20 chips in China followed by the separate White House statement is so important to Nvidia stock, and it's one of the reasons why Nvidia currently has a market capitalization of $4.4 trillion. I am confident that Nvidia will have a solid quarter, particularly with major tech companies increasing their capex spending and expanding their data centers. And now that the H20 sales to China appear to have a green light, we should expect a more than respectable report from Nvidia on Aug. 27. I recommend buying the shares before the report date and holding them for a long time. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $668,155! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,106,071! Now, its worth noting Stock Advisors total average return is 1,070% a market crushing outperformance compared to 184% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Patrick Sanders has positions in Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices, Alphabet, Meta Platforms, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45886.20833333334</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>1 Unstoppable Artificial Intelligence (AI) Stock to Buy Before Aug. 27</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142560/1-unstoppable-artificial-intelligence-ai-stock-to-buy-before-aug-27</t>
+        </is>
+      </c>
+      <c r="E405" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Key Points
+Nvidia (NASDAQ: NVDA) has been one of the must-own artificial intelligence (AI) stocks since the arms race kicked off in 2023. It produced incredible returns in both 2023 and 2024, although 2025 has been a bit of a "slow" year for Nvidia's stock, rising around 35% so far.
+However, all of that could change on Aug. 27 when Nvidia reports Q2 results. There is going to be some interesting commentary made regarding exports to China that could send shares soaring, especially with news of Nvidia paying a 15% export tax on its products. Still, the return of the Chinese markets for Nvidia cannot be understated, and I think it will be a massive catalyst for the stock following the results.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Nvidia's domestic demand is growing
+Nvidia makes graphics processing units (GPUs), which are the most popular computing units for performing difficult tasks, such as engineering simulations, mining cryptocurrency, and training AI models. Nvidia's dominance in the data center market share is incredible, with many estimates setting its market share at 90% or greater.
+The data center market has been booming thanks to rising demand from AI hyperscalers, like Meta Platforms (NASDAQ: META) and Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL). During each company's Q2 earnings call, each told investors to expect capital expenditure growth for 2026, mainly focused on data center buildout. These data centers are being filled with high-powered computing units, with many of them coming from Nvidia.
+With this outlook rising, it bodes well for Nvidia's stock in the near and short-term, encouraging investors that domestic GPU demand is still strong.
+But it's also looking strong overseas.
+A unique deal to gain access to China could mean huge growth for Nvidia
+In April, the Trump administration revoked Nvidia's export license for H20 chips, which were specifically designed to meet export restrictions to China. That caused Nvidia to miss out on $2.5 billion in revenue for Q1, but also required Nvidia to pull revenue guidance from H20 chips for Q2. Still, management projected 50% revenue growth to $45 billion for Q2, but that figure would have been 77% to $53 billion if projected H20 sales were included.
+However, it seems like China's market is back in play with Nvidia's export license set to be approved, and the company likely needs to pay a 15% export tax on the GPUs it sells. This would eat into the margins Nvidia has on these chips, but some sales are better than no sales. Nvidia is well positioned to profit from the increased business in China, which will provide a boost for Nvidia.
+We'll have to see what CEO Jensen Huang says regarding the progress of these deals and how they affect the company moving forward. Nvidia's Q3 has already started, so it won't be able to enjoy a full quarter of H20 sales, but it could still be a positive benefit to the company in the back half of the quarter.
+Nvidia has two positive growth catalysts going for it right now, and none working against it. This could cause management to guide for revenue reacceleration, which would likely send shares soaring. Additionally, Nvidia's stock may not be cheap, but it's still valued at a lower level than it was at this point last year.
+NVDA PE Ratio (Forward) data by YCharts
+This could open up the door to the stock popping following its earnings announcement, and buying shares today ensures that you get in on that action. However, I still think there's an excellent long-term investing opportunity here, and even if you wait until after the earnings announcement, Nvidia will likely maintain its status as one of the top stocks to buy.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $668,155!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,106,071!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,070% — a market-crushing outperformance compared to 184% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keithen Drury has positions in Alphabet, Meta Platforms, and Nvidia. The Motley Fool has positions in and recommends Alphabet, Meta Platforms, and Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Key Points Nvidia (NASDAQ: NVDA) has been one of the must own artificial intelligence (AI) stocks since the arms race kicked off in 2023. It produced incredible returns in both 2023 and 2024, although 2025 has been a bit of a "slow" year for Nvidia's stock, rising around 35% so far. However, all of that could change on Aug. 27 when Nvidia reports Q2 results. There is going to be some interesting commentary made regarding exports to China that could send shares soaring, especially with news of Nvidia paying a 15% export tax on its products. Still, the return of the Chinese markets for Nvidia cannot be understated, and I think it will be a massive catalyst for the stock following the results. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Nvidia's domestic demand is growing Nvidia makes graphics processing units (GPUs), which are the most popular computing units for performing difficult tasks, such as engineering simulations, mining cryptocurrency, and training AI models. Nvidia's dominance in the data center market share is incredible, with many estimates setting its market share at 90% or greater. The data center market has been booming thanks to rising demand from AI hyperscalers, like Meta Platforms (NASDAQ: META) and Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL). During each company's Q2 earnings call, each told investors to expect capital expenditure growth for 2026, mainly focused on data center buildout. These data centers are being filled with high powered computing units, with many of them coming from Nvidia. With this outlook rising, it bodes well for Nvidia's stock in the near and short term, encouraging investors that domestic GPU demand is still strong. But it's also looking strong overseas. A unique deal to gain access to China could mean huge growth for Nvidia In April, the Trump administration revoked Nvidia's export license for H20 chips, which were specifically designed to meet export restrictions to China. That caused Nvidia to miss out on $2.5 billion in revenue for Q1, but also required Nvidia to pull revenue guidance from H20 chips for Q2. Still, management projected 50% revenue growth to $45 billion for Q2, but that figure would have been 77% to $53 billion if projected H20 sales were included. However, it seems like China's market is back in play with Nvidia's export license set to be approved, and the company likely needs to pay a 15% export tax on the GPUs it sells. This would eat into the margins Nvidia has on these chips, but some sales are better than no sales. Nvidia is well positioned to profit from the increased business in China, which will provide a boost for Nvidia. We'll have to see what CEO Jensen Huang says regarding the progress of these deals and how they affect the company moving forward. Nvidia's Q3 has already started, so it won't be able to enjoy a full quarter of H20 sales, but it could still be a positive benefit to the company in the back half of the quarter. Nvidia has two positive growth catalysts going for it right now, and none working against it. This could cause management to guide for revenue reacceleration, which would likely send shares soaring. Additionally, Nvidia's stock may not be cheap, but it's still valued at a lower level than it was at this point last year. NVDA PE Ratio (Forward) data by YCharts This could open up the door to the stock popping following its earnings announcement, and buying shares today ensures that you get in on that action. However, I still think there's an excellent long term investing opportunity here, and even if you wait until after the earnings announcement, Nvidia will likely maintain its status as one of the top stocks to buy. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $668,155! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,106,071! Now, its worth noting Stock Advisors total average return is 1,070% a market crushing outperformance compared to 184% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keithen Drury has positions in Alphabet, Meta Platforms, and Nvidia. The Motley Fool has positions in and recommends Alphabet, Meta Platforms, and Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45886.16666666666</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Stock-Split Watch: Is Nvidia Next?</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142547/stock-split-watch-is-nvidia-next</t>
+        </is>
+      </c>
+      <c r="E406" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>Key Points
+Now the largest stock in the world by market cap, Nvidia has gone on several epic runs.
+Stock splits can be used to make stocks feel more attainable.
+Nvidia's stock seems to have no limit.
+The artificial intelligence (AI) chip leader Nvidia (NASDAQ: NVDA), which is now the largest company by market cap in the world, has yet to find a limit to how high its stock can go. Even after some challenges earlier in the year, the stock price is still up about 32% year to date (as of Aug. 12). It's also up over 67% in the past year and roughly 1,479% in the past five years.
+Stocks that go on big, extended runs tend to be prime candidates for forward stock splits, and Nvidia has conducted stock splits before. Will another happen in the near future?
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+Why would companies do stock splits?
+Forward stock splits and reverse stock splits are tools publicly traded companies can use to manage their stock prices or share counts for various reasons (both good and bad). However, stock splits do not change the market cap of a company, and therefore, they do not change an investor's equity position.
+Image source: Getty Images.
+Stock splits bring down the share price of a company and proportionally increase the number of shares outstanding. They are typically used by companies that have seen their stock go on a big run and now trade in the hundreds or thousands of dollars per share. Lowering the stock price can make shares feel more attainable to investors, while increasing the share count can boost liquidity.
+For instance, let's say an investor owns 10 shares of a stock valued at $40 per share for a total equity position of $400. If the company conducts a two-for-one stock split, the investor will receive two shares for every one they own, meaning the investor would now have 20 shares. The $400 equity position doesn't change, and the share price declines to $20 per share.
+A reverse stock split does the opposite in that it raises the stock price and lowers the share count. A company may want to increase its stock price to put it in a similar range to peer companies.
+Another common scenario for a reverse stock split is if a company is at risk of not being in compliance with the New York Stock Exchange (NYSE) or Nasdaq. Both exchanges require that stocks trade for at least $1 per share for 30 consecutive trading days. So if a stock has fallen below $1 and is struggling, but a company thinks it can turn it around and wants to stay on a major exchange, then a reverse stock split can buy it some time.
+Is Nvidia on stock-split watch?
+Nvidia is certainly no stranger to stock splits. It has conducted six previous ones, the latest in 2024. Previous splits have resulted in the stock soaring time and again. Nvidia conducted a stock split in 2021 when the share price rose to $740, and again last year when shares zoomed to $1,200. Given Nvidia's popularity, management likely wants the stock to feel attainable for everyone from the largest hedge fund to the smallest retail investor.
+As of this writing, Nvidia trades at around $182 per share. It's arguably one of the most liquid stocks in the world, given how many index funds and exchange-traded funds own the broader benchmark S&amp;P 500 index. Nvidia faces absolutely no threat of being out of compliance with any of the Nasdaq's rules.
+I could see the company one day doing another stock split, but with a $4.45 trillion market cap, it's going to take longer than it did for Nvidia to appreciate like it has because of its sheer size. So I don't see any stock split on the horizon.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $668,155!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,106,071!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,070% — a market-crushing outperformance compared to 184% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Bram Berkowitz has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool recommends Nasdaq. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Key Points Now the largest stock in the world by market cap, Nvidia has gone on several epic runs. Stock splits can be used to make stocks feel more attainable. Nvidia's stock seems to have no limit. The artificial intelligence (AI) chip leader Nvidia (NASDAQ: NVDA), which is now the largest company by market cap in the world, has yet to find a limit to how high its stock can go. Even after some challenges earlier in the year, the stock price is still up about 32% year to date (as of Aug. 12). It's also up over 67% in the past year and roughly 1,479% in the past five years. Stocks that go on big, extended runs tend to be prime candidates for forward stock splits, and Nvidia has conducted stock splits before. Will another happen in the near future? Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More Why would companies do stock splits? Forward stock splits and reverse stock splits are tools publicly traded companies can use to manage their stock prices or share counts for various reasons (both good and bad). However, stock splits do not change the market cap of a company, and therefore, they do not change an investor's equity position. Image source: Getty Images. Stock splits bring down the share price of a company and proportionally increase the number of shares outstanding. They are typically used by companies that have seen their stock go on a big run and now trade in the hundreds or thousands of dollars per share. Lowering the stock price can make shares feel more attainable to investors, while increasing the share count can boost liquidity. For instance, let's say an investor owns 10 shares of a stock valued at $40 per share for a total equity position of $400. If the company conducts a two for one stock split, the investor will receive two shares for every one they own, meaning the investor would now have 20 shares. The $400 equity position doesn't change, and the share price declines to $20 per share. A reverse stock split does the opposite in that it raises the stock price and lowers the share count. A company may want to increase its stock price to put it in a similar range to peer companies. Another common scenario for a reverse stock split is if a company is at risk of not being in compliance with the New York Stock Exchange (NYSE) or Nasdaq. Both exchanges require that stocks trade for at least $1 per share for 30 consecutive trading days. So if a stock has fallen below $1 and is struggling, but a company thinks it can turn it around and wants to stay on a major exchange, then a reverse stock split can buy it some time. Is Nvidia on stock split watch? Nvidia is certainly no stranger to stock splits. It has conducted six previous ones, the latest in 2024. Previous splits have resulted in the stock soaring time and again. Nvidia conducted a stock split in 2021 when the share price rose to $740, and again last year when shares zoomed to $1,200. Given Nvidia's popularity, management likely wants the stock to feel attainable for everyone from the largest hedge fund to the smallest retail investor. As of this writing, Nvidia trades at around $182 per share. It's arguably one of the most liquid stocks in the world, given how many index funds and exchange traded funds own the broader benchmark S&amp;P 500 index. Nvidia faces absolutely no threat of being out of compliance with any of the Nasdaq's rules. I could see the company one day doing another stock split, but with a $4.45 trillion market cap, it's going to take longer than it did for Nvidia to appreciate like it has because of its sheer size. So I don't see any stock split on the horizon. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $668,155! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,106,071! Now, its worth noting Stock Advisors total average return is 1,070% a market crushing outperformance compared to 184% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Bram Berkowitz has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool recommends Nasdaq. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>45886.16319444445</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Investors Just Got Good News From President Trump and Wall Street</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142546/nvidia-stock-investors-just-got-good-news-from-president-trump-and-wall-street</t>
+        </is>
+      </c>
+      <c r="E407" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>Key Points
+President Trump agreed to let Nvidia sell downgraded Hopper GPUs in China for a 15% revenue cut, and he is open to a similar arrangement with Blackwell GPUs.
+Hyperscalers are spending more on AI infrastructure in 2025 than Wall Street expected, and AI spending in data centers is forecast to grow at 26% annually through 2030.
+Wall Street estimates Nvidia’s adjusted earnings will grow at 43% annually through fiscal 2027, which makes the current valuation of 57 times adjusted earnings look fair.
+Nvidia (NASDAQ: NVDA) stock has rocketed 35% year to date, and that momentum could continue in the coming months. Shareholders just received good news from President Donald Trump regarding export restrictions. They also got good news from Wall Street about how much money hyperscale cloud companies are spending on artificial intelligence (AI) infrastructure.
+Here's what investors should know.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Official White House photo by Joyce N. Boghosian.
+President Trump will let Nvidia sell more chips in China
+Since 2022, the U.S. government has progressively tightened export controls on AI technologies to keep sophisticated semiconductors and equipment away from the Chinese government and military. For Nvidia, one of the most jarring blows came earlier this year when the Trump administration banned the sale of its H20 GPUs in China.
+Nvidia took a $4.5 billion charge in the first quarter associated with excess inventory, and CFO Collette Kress warned, "Losing access to the China AI accelerator market, which we believe will grow to nearly $50 billion, would have a material adverse impact on our business going forward and benefit our foreign competitors worldwide."
+However, President Trump recently reached an agreement with CEO Jensen Huang that will let Nvidia sell H20 GPUs in China in exchange for 15% of the revenue generated from the sales going to the U.S. government. Put differently, Nvidia will pay the U.S. government for access to China. Of course, that raises an important question: What happened to the national security issues that made export restrictions necessary in the first place? Regardless, this development is still positive for Nvidia shareholders.
+Better yet, President Trump is reportedly open to a similar arrangement with Nvidia Blackwell GPUs. The company would have to build a scaled-back version of the chip, just as the H20 GPU is a scaled-back chip based on the Hopper architecture. But the Trump administration seems willing to let Nvidia operate in China for the foreseeable future, and that's good news for shareholders because China is the second-largest AI market in the world.
+Wall Street analysts anticipate more heavy spending on AI infrastructure
+Hyperscalers are companies with enormous data center footprints. Amazon, Microsoft, and Alphabet are the three most prominent, but the list also includes Meta Platforms, Oracle, CoreWeave, Apple, and several other companies that provide cloud computing services on a large scale.
+Investors closely track hyperscalers' capital expenditures because they have large budgets and their spending decisions provide insight into future trends. With June-quarter financial results now finalized, capital spending among the 11 largest hyperscalers is on track to reach $445 billion this year, up 56% from last year, according to Morgan Stanley.
+That is encouraging news for Nvidia shareholders. Before the June quarter, capital spending among the 11 largest hyperscalers was projected to increase 44% to $410 billion in 2025. In other words, the companies with the largest data center footprints are spending more than Wall Street expected, and most of that money is going toward AI infrastructure.
+Looking ahead, Bank of America estimates spending on data center AI systems will grow at 26% annually through 2030, with nearly 90% of the total sum going toward AI accelerators and networking hardware. Nvidia has a leadership position in both markets. It accounts for about 80% of AI accelerator sales and over 50% of generative AI networking equipment sales. So the company is well-positioned for future sales growth.
+Here's the bottom line: Nvidia may have opportunities in China that the market previously discounted, and capital spending among hyperscalers is tracking ahead of what Wall Street anticipated. As a result, several analysts have raised their earnings forecasts for Nvidia. The consensus estimate now says its adjusted earnings will grow at 43% annually through the fiscal year ending in January 2027. That makes the current valuation of 57 times adjusted earnings look reasonable.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $668,155!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,106,071!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,070% — a market-crushing outperformance compared to 184% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Bank of America is an advertising partner of Motley Fool Money. Trevor Jennewine has positions in Amazon and Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Nvidia, and Oracle. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>Key Points President Trump agreed to let Nvidia sell downgraded Hopper GPUs in China for a 15% revenue cut, and he is open to a similar arrangement with Blackwell GPUs. Hyperscalers are spending more on AI infrastructure in 2025 than Wall Street expected, and AI spending in data centers is forecast to grow at 26% annually through 2030. Wall Street estimates Nvidias adjusted earnings will grow at 43% annually through fiscal 2027, which makes the current valuation of 57 times adjusted earnings look fair. Nvidia (NASDAQ: NVDA) stock has rocketed 35% year to date, and that momentum could continue in the coming months. Shareholders just received good news from President Donald Trump regarding export restrictions. They also got good news from Wall Street about how much money hyperscale cloud companies are spending on artificial intelligence (AI) infrastructure. Here's what investors should know. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Official White House photo by Joyce N. Boghosian. President Trump will let Nvidia sell more chips in China Since 2022, the U.S. government has progressively tightened export controls on AI technologies to keep sophisticated semiconductors and equipment away from the Chinese government and military. For Nvidia, one of the most jarring blows came earlier this year when the Trump administration banned the sale of its H20 GPUs in China. Nvidia took a $4.5 billion charge in the first quarter associated with excess inventory, and CFO Collette Kress warned, "Losing access to the China AI accelerator market, which we believe will grow to nearly $50 billion, would have a material adverse impact on our business going forward and benefit our foreign competitors worldwide." However, President Trump recently reached an agreement with CEO Jensen Huang that will let Nvidia sell H20 GPUs in China in exchange for 15% of the revenue generated from the sales going to the U.S. government. Put differently, Nvidia will pay the U.S. government for access to China. Of course, that raises an important question: What happened to the national security issues that made export restrictions necessary in the first place? Regardless, this development is still positive for Nvidia shareholders. Better yet, President Trump is reportedly open to a similar arrangement with Nvidia Blackwell GPUs. The company would have to build a scaled back version of the chip, just as the H20 GPU is a scaled back chip based on the Hopper architecture. But the Trump administration seems willing to let Nvidia operate in China for the foreseeable future, and that's good news for shareholders because China is the second largest AI market in the world. Wall Street analysts anticipate more heavy spending on AI infrastructure Hyperscalers are companies with enormous data center footprints. Amazon, Microsoft, and Alphabet are the three most prominent, but the list also includes Meta Platforms, Oracle, CoreWeave, Apple, and several other companies that provide cloud computing services on a large scale. Investors closely track hyperscalers' capital expenditures because they have large budgets and their spending decisions provide insight into future trends. With June quarter financial results now finalized, capital spending among the 11 largest hyperscalers is on track to reach $445 billion this year, up 56% from last year, according to Morgan Stanley. That is encouraging news for Nvidia shareholders. Before the June quarter, capital spending among the 11 largest hyperscalers was projected to increase 44% to $410 billion in 2025. In other words, the companies with the largest data center footprints are spending more than Wall Street expected, and most of that money is going toward AI infrastructure. Looking ahead, Bank of America estimates spending on data center AI systems will grow at 26% annually through 2030, with nearly 90% of the total sum going toward AI accelerators and networking hardware. Nvidia has a leadership position in both markets. It accounts for about 80% of AI accelerator sales and over 50% of generative AI networking equipment sales. So the company is well positioned for future sales growth. Here's the bottom line: Nvidia may have opportunities in China that the market previously discounted, and capital spending among hyperscalers is tracking ahead of what Wall Street anticipated. As a result, several analysts have raised their earnings forecasts for Nvidia. The consensus estimate now says its adjusted earnings will grow at 43% annually through the fiscal year ending in January 2027. That makes the current valuation of 57 times adjusted earnings look reasonable. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $668,155! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,106,071! Now, its worth noting Stock Advisors total average return is 1,070% a market crushing outperformance compared to 184% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Bank of America is an advertising partner of Motley Fool Money. Trevor Jennewine has positions in Amazon and Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Nvidia, and Oracle. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>45886.04166666666</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Better Technology Stock: Nvidia vs. Palantir</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr"/>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142484/better-technology-stock-nvidia-vs-palantir</t>
+        </is>
+      </c>
+      <c r="E408" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>Key Points
+Nvidia is now the most valuable publicly traded company in the world, and all signs point to another great earnings report this month.
+Palantir Technologies is the fastest-growing company in the S&amp;P 500.
+Semiconductor giant Nvidia (NASDAQ: NVDA) and artificial intelligence (AI) kingpin Palantir Technologies (NASDAQ: PLTR) are two of the most compelling technology stocks in the market. Nvidia harnessed demand for its graphics processing units (GPUs) to become the biggest company in the world, with a $4.4 trillion market capitalization. Palantir, meanwhile, is using its artificial intelligence platform to fundamentally change how governments and commercial businesses operate. The stock is up more than 500% in the last year and is the best-performing stock in the S&amp;P 500.
+In my view, you can't go wrong with either of these tech stocks. But in a one-on-one matchup, which comes out on top?
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+Let's look at both companies before rendering a verdict.
+Image source: Getty Images.
+Nvidia
+Nvidia's GPUs are the engine behind this mammoth company. While they used to be best known for providing the graphics in computers, now GPUs are commonly used by companies that are building massive data centers to run artificial intelligence-powered platforms, including large language models needed for generative AI.
+Nvidia has the lion's share of this business, with Jon Peddie Research estimating that it has roughly 92% of the market share. And as Nvidia is expecting spending on data centers to accelerate from $250 billion in 2023 to $1 trillion annually by 2028, there's a massive opportunity at hand.
+In addition, major tech companies like Microsoft, Alphabet, and Meta Platforms are spending heavily and are even increasing their capital expenditure spending on their data centers. That's why I'm expecting a solid earnings report from Nvidia when it reports its earnings for the current quarter, and why I'm expecting the stock to pop yet again after the numbers are released.
+Palantir Technologies
+Palantir got its start a little more than 20 years ago as a data mining company to provide real-time analytics and insights. As a government contractor, it's long been valued by the military for its analytic technology that helps commanders make real-time decisions in battle. To the public eye, Palantir largely flew under the radar for years until in 2011, when it was credited for helping U.S. forces find and eliminate Sept. 11 mastermind Osama bin Laden.
+Palantir works by drawing information from many sources, such as satellite imagery. By sifting through and digesting that information, it can perform instantaneous analysis that can help governments function. According to its CEO, Alex Karp, "Palantir was founded on the belief that the United States, its allies, and partners should harness the most advanced technical capabilities for their defense and prosperity."
+As its capabilities expanded through the launch of its generative AI-powered Artificial Intelligence Platform (AIP), Palantir is quickly bringing in additional non-military government contracts. It has new contracts with the Federal Aviation Administration, the Centers for Disease Control and Prevention, the State Department, and the Internal Revenue Service. In the company's just-released second quarter earnings report, U.S. government revenue increased 53% in the last year, reaching $426 million.
+Commercial revenue is growing even faster, up 93% in the second quarter on a year-over-year basis and reaching $306 million. Clients include Walgreens Boots Alliance, AT&amp;T, General Mills, United Airlines, and others, and Palantir is doing everything from making manufacturing more efficient to managing supply chains and helping companies scale.
+Palantir closed 157 deals in the second quarter valued at more than $1 million, with 66 of them more than $5 million and 42 of them at least $10 million. As more companies bring Palantir's platform online and share how they are improving their businesses, Palantir's platform will become a must-have for many institutions.
+The verdict
+I'm not gonna lie. This is a tough one. I love both of these companies, and I think both are destined to increase.
+But if I have to choose one, then the valuations of both companies will break the tie. At the time of this writing, Nvidia is richly valued both in its price-to-earnings (P/E) ratio of 59 and its forward P/E of 42, but Palantir comes in at an unhealthy 623 and 288, respectively.
+The price-to-sales ratio, which compares market capitalization to revenue, is arguably an even more accurate measurement as both of these companies are pouring profits back into the business. And Nvidia is by far the strongest there, too.
+PLTR PS Ratio data by YCharts
+So, my winner in this hypothetical battle is Nvidia by a nose. But both stocks are great ones to have, and they'll both anchor my portfolio for the foreseeable future.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $668,155!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,106,071!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,070% — a market-crushing outperformance compared to 184% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Patrick Sanders has positions in Nvidia and Palantir Technologies. The Motley Fool has positions in and recommends Alphabet, Meta Platforms, Microsoft, Nvidia, and Palantir Technologies. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>Key Points Nvidia is now the most valuable publicly traded company in the world, and all signs point to another great earnings report this month. Palantir Technologies is the fastest growing company in the S&amp;P 500. Semiconductor giant Nvidia (NASDAQ: NVDA) and artificial intelligence (AI) kingpin Palantir Technologies (NASDAQ: PLTR) are two of the most compelling technology stocks in the market. Nvidia harnessed demand for its graphics processing units (GPUs) to become the biggest company in the world, with a $4.4 trillion market capitalization. Palantir, meanwhile, is using its artificial intelligence platform to fundamentally change how governments and commercial businesses operate. The stock is up more than 500% in the last year and is the best performing stock in the S&amp;P 500. In my view, you can't go wrong with either of these tech stocks. But in a one on one matchup, which comes out on top? Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More Let's look at both companies before rendering a verdict. Image source: Getty Images. Nvidia Nvidia's GPUs are the engine behind this mammoth company. While they used to be best known for providing the graphics in computers, now GPUs are commonly used by companies that are building massive data centers to run artificial intelligence powered platforms, including large language models needed for generative AI. Nvidia has the lion's share of this business, with Jon Peddie Research estimating that it has roughly 92% of the market share. And as Nvidia is expecting spending on data centers to accelerate from $250 billion in 2023 to $1 trillion annually by 2028, there's a massive opportunity at hand. In addition, major tech companies like Microsoft, Alphabet, and Meta Platforms are spending heavily and are even increasing their capital expenditure spending on their data centers. That's why I'm expecting a solid earnings report from Nvidia when it reports its earnings for the current quarter, and why I'm expecting the stock to pop yet again after the numbers are released. Palantir Technologies Palantir got its start a little more than 20 years ago as a data mining company to provide real time analytics and insights. As a government contractor, it's long been valued by the military for its analytic technology that helps commanders make real time decisions in battle. To the public eye, Palantir largely flew under the radar for years until in 2011, when it was credited for helping U.S. forces find and eliminate Sept. 11 mastermind Osama bin Laden. Palantir works by drawing information from many sources, such as satellite imagery. By sifting through and digesting that information, it can perform instantaneous analysis that can help governments function. According to its CEO, Alex Karp, "Palantir was founded on the belief that the United States, its allies, and partners should harness the most advanced technical capabilities for their defense and prosperity." As its capabilities expanded through the launch of its generative AI powered Artificial Intelligence Platform (AIP), Palantir is quickly bringing in additional non military government contracts. It has new contracts with the Federal Aviation Administration, the Centers for Disease Control and Prevention, the State Department, and the Internal Revenue Service. In the company's just released second quarter earnings report, U.S. government revenue increased 53% in the last year, reaching $426 million. Commercial revenue is growing even faster, up 93% in the second quarter on a year over year basis and reaching $306 million. Clients include Walgreens Boots Alliance, AT&amp;T, General Mills, United Airlines, and others, and Palantir is doing everything from making manufacturing more efficient to managing supply chains and helping companies scale. Palantir closed 157 deals in the second quarter valued at more than $1 million, with 66 of them more than $5 million and 42 of them at least $10 million. As more companies bring Palantir's platform online and share how they are improving their businesses, Palantir's platform will become a must have for many institutions. The verdict I'm not gonna lie. This is a tough one. I love both of these companies, and I think both are destined to increase. But if I have to choose one, then the valuations of both companies will break the tie. At the time of this writing, Nvidia is richly valued both in its price to earnings (P/E) ratio of 59 and its forward P/E of 42, but Palantir comes in at an unhealthy 623 and 288, respectively. The price to sales ratio, which compares market capitalization to revenue, is arguably an even more accurate measurement as both of these companies are pouring profits back into the business. And Nvidia is by far the strongest there, too. PLTR PS Ratio data by YCharts So, my winner in this hypothetical battle is Nvidia by a nose. But both stocks are great ones to have, and they'll both anchor my portfolio for the foreseeable future. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $668,155! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,106,071! Now, its worth noting Stock Advisors total average return is 1,070% a market crushing outperformance compared to 184% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Patrick Sanders has positions in Nvidia and Palantir Technologies. The Motley Fool has positions in and recommends Alphabet, Meta Platforms, Microsoft, Nvidia, and Palantir Technologies. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>45885.76041666666</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>5 Artificial Intelligence (AI) Stocks to Buy and Hold for the Next Decade</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142428/5-artificial-intelligence-ai-stocks-to-buy-and-hold-for-the-next-decade</t>
+        </is>
+      </c>
+      <c r="E409" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>Key Points
+Nvidia and Taiwan Semiconductor are slated to profit from the huge AI computing power buildout.
+Meta Platforms and Alphabet are using AI to improve advertising.
+Amazon's cloud computing division is seeing strong AI demand.
+The best investing strategies involve buying great companies and holding them over long periods to let them be, which has yielded impressive returns if you picked the right businesses.
+Among the top performers over the past decade have been Nvidia (NASDAQ: NVDA), Taiwan Semiconductor Manufacturing (NYSE: TSM), Amazon (NASDAQ: AMZN), Meta Platforms (NASDAQ: META), and Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL). I removed Nvidia from the chart below because it's up over 30,000% in the past decade, which skews the graph, but the other four have also done phenomenally well.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+TSM data by YCharts.
+The "worst" performer of the remaining four has been Alphabet, with its stock rising nearly five times in value.
+These five stocks have had a strong run over the past decade, but I still believe they are excellent picks for the next decade, mainly due to the proliferation of artificial intelligence (AI). They are at the top of my list right now, and I think buying shares with the mindset of holding for the next decade is a wise investment strategy.
+Image source: Getty Images.
+Nvidia and Taiwan Semiconductor are providing AI computing power
+All five of these stocks are benefiting in various ways from the AI race.
+Nvidia makes graphics processing units (GPUs), which are currently the most popular computing hardware for running and training AI models. It owns this market, and its dominance has allowed it to become the world's largest company.
+There's still a huge AI computing demand that hasn't been met, which bodes well for Nvidia's future. Because of this, it remains one of the best stocks to buy and hold over the next decade.
+Taiwan Semiconductor (TSMC for short) is a manufacturer that produces chips for many of the major players in AI, including Nvidia. These companies don't have chip production capabilities, so they farm that work out to TSMC, which has earned its reputation for being the best foundry in the world through continuous innovation and impressive yields. There are few challengers to its supremacy, and this position will help it continue to be a market-crushing stock for the foreseeable future.
+Nvidia and Taiwan Semiconductor are seeing huge growth right now because they're providing the computing power necessary for AI. The next three are also benefiting and will likely see even more success over the next decade.
+More AI applications will rise over the next few years
+At first glance, Amazon doesn't seem like much of an AI company. However, it has large exposure through its cloud computing wing, Amazon Web Services (AWS), which is the largest cloud computing provider.
+It's seeing strong demand for increased computing capacity for AI workloads. With this demand expected to rapidly increase over the next decade, this bodes well for AWS, which makes up the majority of Amazon's profits, helping drive the stock to new heights.
+Meta Platforms is developing its own in-house generative AI model, Llama. It has several uses for it, but the biggest is maintaining its role at the top of the social media world.
+Meta owns two of the biggest social media platforms, Facebook and Instagram, which generate most of their money through ad revenue. The company has integrated AI tools into its ad services and has already seen an uptick in interaction and conversion rates. This effect will become even greater as generative AI technologies improve, making Meta a strong stock pick for the next decade.
+Lastly is Alphabet. Many think Alphabet will be displaced by AI because it gets the majority of its revenue through Google Search, which is seen as a target for AI disruption. However, that hasn't happened yet, and Google Search continues to get larger, with revenue rising 12% in the second quarter.
+Part of its success can be attributed to the rise of its Search Overviews, which are a hybrid between a traditional search engine and generative AI. This feature has become popular and could be enough to keep Google on top in search, allowing it to achieve new heights over the next decade.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $668,155!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,106,071!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,070% — a market-crushing outperformance compared to 184% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keithen Drury has positions in Alphabet, Amazon, Meta Platforms, Nvidia, and Taiwan Semiconductor Manufacturing. The Motley Fool has positions in and recommends Alphabet, Amazon, Meta Platforms, Nvidia, and Taiwan Semiconductor Manufacturing. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>Key Points Nvidia and Taiwan Semiconductor are slated to profit from the huge AI computing power buildout. Meta Platforms and Alphabet are using AI to improve advertising. Amazon's cloud computing division is seeing strong AI demand. The best investing strategies involve buying great companies and holding them over long periods to let them be, which has yielded impressive returns if you picked the right businesses. Among the top performers over the past decade have been Nvidia (NASDAQ: NVDA), Taiwan Semiconductor Manufacturing (NYSE: TSM), Amazon (NASDAQ: AMZN), Meta Platforms (NASDAQ: META), and Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL). I removed Nvidia from the chart below because it's up over 30,000% in the past decade, which skews the graph, but the other four have also done phenomenally well. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More TSM data by YCharts. The "worst" performer of the remaining four has been Alphabet, with its stock rising nearly five times in value. These five stocks have had a strong run over the past decade, but I still believe they are excellent picks for the next decade, mainly due to the proliferation of artificial intelligence (AI). They are at the top of my list right now, and I think buying shares with the mindset of holding for the next decade is a wise investment strategy. Image source: Getty Images. Nvidia and Taiwan Semiconductor are providing AI computing power All five of these stocks are benefiting in various ways from the AI race. Nvidia makes graphics processing units (GPUs), which are currently the most popular computing hardware for running and training AI models. It owns this market, and its dominance has allowed it to become the world's largest company. There's still a huge AI computing demand that hasn't been met, which bodes well for Nvidia's future. Because of this, it remains one of the best stocks to buy and hold over the next decade. Taiwan Semiconductor (TSMC for short) is a manufacturer that produces chips for many of the major players in AI, including Nvidia. These companies don't have chip production capabilities, so they farm that work out to TSMC, which has earned its reputation for being the best foundry in the world through continuous innovation and impressive yields. There are few challengers to its supremacy, and this position will help it continue to be a market crushing stock for the foreseeable future. Nvidia and Taiwan Semiconductor are seeing huge growth right now because they're providing the computing power necessary for AI. The next three are also benefiting and will likely see even more success over the next decade. More AI applications will rise over the next few years At first glance, Amazon doesn't seem like much of an AI company. However, it has large exposure through its cloud computing wing, Amazon Web Services (AWS), which is the largest cloud computing provider. It's seeing strong demand for increased computing capacity for AI workloads. With this demand expected to rapidly increase over the next decade, this bodes well for AWS, which makes up the majority of Amazon's profits, helping drive the stock to new heights. Meta Platforms is developing its own in house generative AI model, Llama. It has several uses for it, but the biggest is maintaining its role at the top of the social media world. Meta owns two of the biggest social media platforms, Facebook and Instagram, which generate most of their money through ad revenue. The company has integrated AI tools into its ad services and has already seen an uptick in interaction and conversion rates. This effect will become even greater as generative AI technologies improve, making Meta a strong stock pick for the next decade. Lastly is Alphabet. Many think Alphabet will be displaced by AI because it gets the majority of its revenue through Google Search, which is seen as a target for AI disruption. However, that hasn't happened yet, and Google Search continues to get larger, with revenue rising 12% in the second quarter. Part of its success can be attributed to the rise of its Search Overviews, which are a hybrid between a traditional search engine and generative AI. This feature has become popular and could be enough to keep Google on top in search, allowing it to achieve new heights over the next decade. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $668,155! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,106,071! Now, its worth noting Stock Advisors total average return is 1,070% a market crushing outperformance compared to 184% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keithen Drury has positions in Alphabet, Amazon, Meta Platforms, Nvidia, and Taiwan Semiconductor Manufacturing. The Motley Fool has positions in and recommends Alphabet, Amazon, Meta Platforms, Nvidia, and Taiwan Semiconductor Manufacturing. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>45885.58333333334</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Retail trading trends: Top names investors are buying</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/retail-trading-trends-top-names-180016299.html</t>
+        </is>
+      </c>
+      <c r="E410" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>45885.52152777778</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>The 7 Booming Industries You've Probably Never Thought About  But They're Making People Rich</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/7-booming-industries-youve-probably-163109255.html</t>
+        </is>
+      </c>
+      <c r="E411" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>45885.29791666667</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>After Gaining $394 Billion in Market Cap in 3 Days, Is Apple Stock on Its Way to Joining Nvidia and Microsoft in the $4 Trillion Club?</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142393/after-gaining-394-billion-in-market-cap-in-3-days-is-apple-stock-on-its-way-to-joining-nvidia-and-microsoft-in-the-4-trillion-club</t>
+        </is>
+      </c>
+      <c r="E412" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Key Points
+Apple’s U.S. manufacturing investment could lower its tariff expense.
+The company’s results are improving, but growth is still sluggish.
+Apple needs to justify its lofty valuation with AI-related product upgrades that are well-received by its diverse user base.
+After closing at $202.69 per share on Aug. 5, Apple (NASDAQ: AAPL) stock soared a staggering 13% in just three days to finish Aug. 8 at $229.09 per share.
+The move pole-vaulted the tech giant's market cap to $3.404 trillion -- a whopping $394 billion gain. That's like creating a company the size of Home Depot out of thin air.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+After languishing for most of the year, let's determine if Apple has what it takes to join Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT) in the $4 trillion market cap club, and if the growth stock is a buy now.
+Image source: Getty Images.
+Apple's massive news
+Apple's sudden pop came in response to its $100 billion manufacturing program. Announced last week, the program will create American jobs and onshore some of Apple's complex supply chain.
+Due to Apple CEO Tim Cook's visit to the White House and Apple's manufacturing commitment, President Trump said that Apple would be 100% exempt from a specific tariff on imported semiconductors. The potential for Apple to reduce its costly tariff expense, and maybe even get government support for its onshoring efforts, is undoubtedly a boon for the company's near-term prospects.
+Apple isn't the only mega-cap company that is trying to work with the current administration on tariffs. On Monday, reports indicated that Nvidia made a deal with President Trump, allowing the chipmaker to resume exporting its H20 chips in exchange for giving the U.S. government 15% of its revenue from China. The H20 is a scaled-down version of Nvidia's most advanced chips, which are custom-built for Chinese markets to comply with trade restrictions. The current administration intends to retain certain tariffs, but it also appears willing to negotiate deals with big businesses.
+Apple's manufacturing news is positive, based on the near-term impact of tariffs. The investment could help Apple reduce its sensitivity to trade tensions and geopolitical risk. However, it's unclear how it impacts Apple's long-term investment thesis. Apple has mastered the art of managing a global supply chain to achieve cost advantages and boost its profit margins. Onshoring some of its supply chain could lead to higher costs.
+However, Apple has yet to make a meaningful splash in artificial intelligence (AI) -- which is one of the main reasons why the tech giant has been lagging behind the performance of other, more defined AI winners like Nvidia and Microsoft.
+In Apple's defense, the company has built on Apple Intelligence and released a new design update called Liquid Glass. Overall, the market is not impressed with the company's AI efforts, considering how sluggish Apple's growth has been in recent years.
+Apple's earnings growth doesn't justify its lofty valuation
+Apple has heavily relied on its high-margin services segment and stock buybacks to drive earnings to offset weak results from its product segment. Apple's services, which include iCloud, Apple Music, and Apple TV+, have been the standout for years now. But Apple's bottom line depends more on key products, like iPhone, Mac, iPad, and wearables.
+Investors breathed a sigh of relief after Apple's latest quarter -- the third quarter of fiscal 2025 -- which showed a significant improvement in its product segment. Revenue grew 10% and diluted earnings per share (EPS) jumped 12% including double-digit growth in iPhone, Mac, and services. Despite the solid quarter, Apple's net income has slightly declined over the last three years, so its earnings are only up due to buybacks. But the stock price has gone up substantially, which has made Apple relatively expensive.
+AAPL data by YCharts.
+Apple's results are headed in the right direction, but the valuation is far from cheap. In fact, Apple's forward price-to-earnings (P/E) ratio, which is the stock price divided by analyst consensus EPS estimates over the next 12 months, is higher than its five-year and 10-year median P/E ratios. Even if Apple performs as expected and the stock price doesn't move for a year, it will still be relatively expensive.
+AAPL PE Ratio data by YCharts.
+Apple has to earn $4 trillion the hard way
+Apple is taking the right approach to integrating AI across its product suite. Apple's competitive advantages are its design, user-friendly products, seamless integration of software and hardware, and comprehensive product offerings for consumers and businesses. In other words, the everyday usefulness of Apple's AI features is the most important performance indicator.
+Investors who agree with Apple's deliberate approach to AI may still want to consider buying the stock now, despite the premium valuation. However, given how pricey Apple is, its road to $4 trillion in market cap will likely need to come from earnings growth rather than valuation expansion.
+With a market cap of $3.418 trillion at the time of this writing, Apple would have to jump 17% to cross $4 trillion. It could certainly grow earnings by that much in a year or two. And if investors like what the company is doing with AI, it could maintain its higher-than-historical valuation.
+All told, I expect Apple to cross $4 trillion in market cap by the end of 2026 -- but investors shouldn't expect the company to get there overnight -- even after adding $392 billion in market cap in just three days.
+Should you invest $1,000 in Apple right now?
+Before you buy stock in Apple, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Apple wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Apple, Home Depot, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>Key Points Apples U.S. manufacturing investment could lower its tariff expense. The companys results are improving, but growth is still sluggish. Apple needs to justify its lofty valuation with AI related product upgrades that are well received by its diverse user base. After closing at $202.69 per share on Aug. 5, Apple (NASDAQ: AAPL) stock soared a staggering 13% in just three days to finish Aug. 8 at $229.09 per share. The move pole vaulted the tech giant's market cap to $3.404 trillion a whopping $394 billion gain. That's like creating a company the size of Home Depot out of thin air. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More After languishing for most of the year, let's determine if Apple has what it takes to join Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT) in the $4 trillion market cap club, and if the growth stock is a buy now. Image source: Getty Images. Apple's massive news Apple's sudden pop came in response to its $100 billion manufacturing program. Announced last week, the program will create American jobs and onshore some of Apple's complex supply chain. Due to Apple CEO Tim Cook's visit to the White House and Apple's manufacturing commitment, President Trump said that Apple would be 100% exempt from a specific tariff on imported semiconductors. The potential for Apple to reduce its costly tariff expense, and maybe even get government support for its onshoring efforts, is undoubtedly a boon for the company's near term prospects. Apple isn't the only mega cap company that is trying to work with the current administration on tariffs. On Monday, reports indicated that Nvidia made a deal with President Trump, allowing the chipmaker to resume exporting its H20 chips in exchange for giving the U.S. government 15% of its revenue from China. The H20 is a scaled down version of Nvidia's most advanced chips, which are custom built for Chinese markets to comply with trade restrictions. The current administration intends to retain certain tariffs, but it also appears willing to negotiate deals with big businesses. Apple's manufacturing news is positive, based on the near term impact of tariffs. The investment could help Apple reduce its sensitivity to trade tensions and geopolitical risk. However, it's unclear how it impacts Apple's long term investment thesis. Apple has mastered the art of managing a global supply chain to achieve cost advantages and boost its profit margins. Onshoring some of its supply chain could lead to higher costs. However, Apple has yet to make a meaningful splash in artificial intelligence (AI) which is one of the main reasons why the tech giant has been lagging behind the performance of other, more defined AI winners like Nvidia and Microsoft. In Apple's defense, the company has built on Apple Intelligence and released a new design update called Liquid Glass. Overall, the market is not impressed with the company's AI efforts, considering how sluggish Apple's growth has been in recent years. Apple's earnings growth doesn't justify its lofty valuation Apple has heavily relied on its high margin services segment and stock buybacks to drive earnings to offset weak results from its product segment. Apple's services, which include iCloud, Apple Music, and Apple TV+, have been the standout for years now. But Apple's bottom line depends more on key products, like iPhone, Mac, iPad, and wearables. Investors breathed a sigh of relief after Apple's latest quarter the third quarter of fiscal 2025 which showed a significant improvement in its product segment. Revenue grew 10% and diluted earnings per share (EPS) jumped 12% including double digit growth in iPhone, Mac, and services. Despite the solid quarter, Apple's net income has slightly declined over the last three years, so its earnings are only up due to buybacks. But the stock price has gone up substantially, which has made Apple relatively expensive. AAPL data by YCharts. Apple's results are headed in the right direction, but the valuation is far from cheap. In fact, Apple's forward price to earnings (P/E) ratio, which is the stock price divided by analyst consensus EPS estimates over the next 12 months, is higher than its five year and 10 year median P/E ratios. Even if Apple performs as expected and the stock price doesn't move for a year, it will still be relatively expensive. AAPL PE Ratio data by YCharts. Apple has to earn $4 trillion the hard way Apple is taking the right approach to integrating AI across its product suite. Apple's competitive advantages are its design, user friendly products, seamless integration of software and hardware, and comprehensive product offerings for consumers and businesses. In other words, the everyday usefulness of Apple's AI features is the most important performance indicator. Investors who agree with Apple's deliberate approach to AI may still want to consider buying the stock now, despite the premium valuation. However, given how pricey Apple is, its road to $4 trillion in market cap will likely need to come from earnings growth rather than valuation expansion. With a market cap of $3.418 trillion at the time of this writing, Apple would have to jump 17% to cross $4 trillion. It could certainly grow earnings by that much in a year or two. And if investors like what the company is doing with AI, it could maintain its higher than historical valuation. All told, I expect Apple to cross $4 trillion in market cap by the end of 2026 but investors shouldn't expect the company to get there overnight even after adding $392 billion in market cap in just three days. Should you invest $1,000 in Apple right now? Before you buy stock in Apple, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Apple wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Apple, Home Depot, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>45885.29513888889</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Don't Make This Common Investing Mistake When Buying S&amp;P 500 Stocks at All-Time Highs</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142391/dont-make-this-common-investing-mistake-when-buying-sp-500-stocks-at-all-time-highs</t>
+        </is>
+      </c>
+      <c r="E413" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Key Points
+Buying stocks at all-time highs goes against the instinct to get a good value.
+Over the long term, earnings drive stock prices higher or lower.
+Nvidia and Microsoft are examples of companies with stock prices that have gone up because the fundamentals have improved.
+At the time of this writing, the S&amp;P 500 (SNPINDEX: ^GSPC) is less than half a percentage point off its all-time high. With a 9.7% year-to-date gain, the index is on track to have another solid year, despite a brutal sell-off earlier this spring.
+The S&amp;P 500 is now up over threefold in the last decade and more than 50% in the last three years -- which may make some investors hesitant to buy stocks at all-time highs. Here's the best way to approach investing in the stock market at elevated levels, including a major mistake worth avoiding.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Stocks aren't like consumer goods
+One of the most common mistakes when investing in a stock after a major run-up is assuming it's expensive, just because its price is higher.
+Stocks represent partial ownership in businesses and aren't commodities or household goods. If the cost of a Toyota Camry suddenly jumped to double that of the Honda Accord, then Camry sales would likely plummet, as many buyers would view the Camry as overpriced.
+Stocks don't work like that. They aren't products with set specifications and design elements, but evolve as the business evolves. Sometimes, a business can reinvent itself, leading its stock price to surge for all the right reasons. Two examples of this dynamic hiding in plain sight are Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT).
+Transformational growth
+Nvidia was founded in the early 1990s to create 3D graphics for the gaming and multimedia markets. Recently, the company's data center segment has surpassed its gaming and professional visualization segment.
+In Nvidia's most recent quarter -- the first quarter fiscal 2026 -- data center revenue made up 88.7% of total revenue. The company may have started as a gaming company, but it's something entirely different today.
+Valuing Nvidia based on what it was rather than where it's going would have made the stock look expensive at any point over the last few years. So far, Nvidia has backed up the torrid ascent of its stock price with earnings growth, and there's reason to believe that can continue.
+Microsoft hasn't undergone as dramatic a transformation as Nvidia. The core applications that make up the Microsoft 365 software suite are nothing new, and Microsoft's cloud computing platform Azure has been a major player in the space for over a decade. However, the company's revenue growth rate and profit margin are on another level -- which is driving its surging stock price.
+Microsoft is achieving these incredible results largely due to growing demand for Azure and the company's integration of artificial intelligence (AI) across its business, from legacy software to cloud, Azure OpenAI, gaming, electronics, and more. It has leveraged AI to enhance its products and services, and that's driving margin growth.
+Like Nvidia, Microsoft is a good example of a stock at an all-time high because the underlying business is doing well and is expected to continue doing well.
+Balancing quality and valuations
+When a major index like the S&amp;P 500 is near an all-time high and coming off an extended period of outsized gains, the market is viewed as expensive. However, it doesn't mean that all stocks are overvalued.
+There are plenty of S&amp;P 500 components at multiyear lows, and there are many that may have run up too far, too fast, to where their valuations are getting separated from fundamentals. The key is to stick with the companies that can justify their valuations because they have proven business models, impeccable growth prospects, or a combination of the two.
+Buying stocks like Nvidia and Microsoft after their massive gains isn't a bad idea, but only if you believe the results are here to stay and can be built upon.
+Nvidia and Microsoft make up a combined 14.6% of the S&amp;P 500. Throw in the rest of the "Ten Titans" -- Apple, Amazon, Alphabet, Meta Platforms, Broadcom, Tesla, Oracle, and Netflix -- and that's 39% of the index. Investing in the S&amp;P 500 at an all-time high inherently means that you believe the companies leading the index are still good buys.
+The higher the valuation of a stock or exchange-traded fund (ETF), the more conviction you need to justify paying a premium. If there's a terrific company on sale, you don't need that much to go right to make a solid investment case.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>Key Points Buying stocks at all time highs goes against the instinct to get a good value. Over the long term, earnings drive stock prices higher or lower. Nvidia and Microsoft are examples of companies with stock prices that have gone up because the fundamentals have improved. At the time of this writing, the S&amp;P 500 (SNPINDEX: ^GSPC) is less than half a percentage point off its all time high. With a 9.7% year to date gain, the index is on track to have another solid year, despite a brutal sell off earlier this spring. The S&amp;P 500 is now up over threefold in the last decade and more than 50% in the last three years which may make some investors hesitant to buy stocks at all time highs. Here's the best way to approach investing in the stock market at elevated levels, including a major mistake worth avoiding. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Stocks aren't like consumer goods One of the most common mistakes when investing in a stock after a major run up is assuming it's expensive, just because its price is higher. Stocks represent partial ownership in businesses and aren't commodities or household goods. If the cost of a Toyota Camry suddenly jumped to double that of the Honda Accord, then Camry sales would likely plummet, as many buyers would view the Camry as overpriced. Stocks don't work like that. They aren't products with set specifications and design elements, but evolve as the business evolves. Sometimes, a business can reinvent itself, leading its stock price to surge for all the right reasons. Two examples of this dynamic hiding in plain sight are Nvidia (NASDAQ: NVDA) and Microsoft (NASDAQ: MSFT). Transformational growth Nvidia was founded in the early 1990s to create 3D graphics for the gaming and multimedia markets. Recently, the company's data center segment has surpassed its gaming and professional visualization segment. In Nvidia's most recent quarter the first quarter fiscal 2026 data center revenue made up 88.7% of total revenue. The company may have started as a gaming company, but it's something entirely different today. Valuing Nvidia based on what it was rather than where it's going would have made the stock look expensive at any point over the last few years. So far, Nvidia has backed up the torrid ascent of its stock price with earnings growth, and there's reason to believe that can continue. Microsoft hasn't undergone as dramatic a transformation as Nvidia. The core applications that make up the Microsoft 365 software suite are nothing new, and Microsoft's cloud computing platform Azure has been a major player in the space for over a decade. However, the company's revenue growth rate and profit margin are on another level which is driving its surging stock price. Microsoft is achieving these incredible results largely due to growing demand for Azure and the company's integration of artificial intelligence (AI) across its business, from legacy software to cloud, Azure OpenAI, gaming, electronics, and more. It has leveraged AI to enhance its products and services, and that's driving margin growth. Like Nvidia, Microsoft is a good example of a stock at an all time high because the underlying business is doing well and is expected to continue doing well. Balancing quality and valuations When a major index like the S&amp;P 500 is near an all time high and coming off an extended period of outsized gains, the market is viewed as expensive. However, it doesn't mean that all stocks are overvalued. There are plenty of S&amp;P 500 components at multiyear lows, and there are many that may have run up too far, too fast, to where their valuations are getting separated from fundamentals. The key is to stick with the companies that can justify their valuations because they have proven business models, impeccable growth prospects, or a combination of the two. Buying stocks like Nvidia and Microsoft after their massive gains isn't a bad idea, but only if you believe the results are here to stay and can be built upon. Nvidia and Microsoft make up a combined 14.6% of the S&amp;P 500. Throw in the rest of the "Ten Titans" Apple, Amazon, Alphabet, Meta Platforms, Broadcom, Tesla, Oracle, and Netflix and that's 39% of the index. Investing in the S&amp;P 500 at an all time high inherently means that you believe the companies leading the index are still good buys. The higher the valuation of a stock or exchange traded fund (ETF), the more conviction you need to justify paying a premium. If there's a terrific company on sale, you don't need that much to go right to make a solid investment case. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>45885.29166666666</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Trumps unprecedented, potentially unconstitutional deal with Nvidia and AMD, explained: Alexander Hamilton would approve</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/trump-unprecedented-potentially-unconstitutional-deal-110000020.html</t>
+        </is>
+      </c>
+      <c r="E414" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>45885.29166666666</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Nvidia and AMDs special treatment from Trump is shaking up an already tangled global chip supply chain</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-special-treatment-trump-110000802.html</t>
+        </is>
+      </c>
+      <c r="E415" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr"/>
+      <c r="H415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>45885.25208333333</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Meta spends more guarding Mark Zuckerberg than Apple, Nvidia, Microsoft, Amazon, and Alphabet do for their own CEOscombined</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/meta-spends-more-guarding-mark-100300414.html</t>
+        </is>
+      </c>
+      <c r="E416" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>45885.24513888889</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Chipmakers Nvidia and AMD to pay 15% of China revenue to US government</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/91630ab4-07a9-3a15-85c5-0f54a7bfd2f5/chipmakers-nvidia-and-amd-to.html</t>
+        </is>
+      </c>
+      <c r="E417" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>45885.21319444444</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>5 Brilliant Quantum Computing Stocks to Buy Right Now</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142382/5-brilliant-quantum-computing-stocks-to-buy-right-now</t>
+        </is>
+      </c>
+      <c r="E418" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Key Points
+Some of the legacy tech giants are participating in quantum computing.
+That is one great way to bridge the gap between AI and quantum technology.
+But quantum computing pure plays could provide massive upside if they work out.
+Quantum computing isn't an easy area to invest in right now. Most companies agree that 2030 will be a turning point for the industry and commercially viable quantum computers will be available then. That's still a ways off, and investors need to be careful not to get in too early; otherwise, there could be a significant opportunity cost that would be incurred by investing in quantum computing instead of other possible areas.
+Still, I think there could be a huge opportunity if you invest in the right quantum computing stocks right now. I've got five stocks that can be purchased in a group that ensures investors get exposure to quantum computing as well as current market trends, and I think it's highly likely that this cohort outperforms the market over the next few years.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Legacy tech players
+Quantum computing isn't an industry reserved for start-ups; some of the biggest names in tech are also investing in this technology. Two of the biggest are Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) and Microsoft (NASDAQ: MSFT). Both of these companies are developing their own quantum computing chip in-house, which could result in massive profits down the road if each develops a viable quantum computing solution.
+Both companies will use quantum computing for themselves, but will also offer it to clients through their respective cloud computing services. Right now, the big growth drivers for cloud computing are the migration of traditional workloads and artificial intelligence, but quantum computing could provide another growth driver. Microsoft's CEO stated that he believes quantum computing will be the next accelerator in the cloud, which could mean further growth for both Alphabet and Microsoft.
+Another legacy tech player that will benefit is Nvidia (NASDAQ: NVDA). While Nvidia isn't directly developing quantum processing units, it's helping quantum computing players take a hybrid computing approach between traditional and quantum computing methods. It's also developing a quantum-focused version of its CUDA software, which helped it establish dominance in the traditional computing landscape.
+All three of these companies are excelling in the AI-driven market, but also have long-term investments ongoing in the quantum world. By investing in these three today, investors can ensure they have exposure to both current and emerging trends. But there are also a few pure plays that look intriguing.
+Quantum computing pure plays
+I also like adding picks like IonQ (NYSE: IONQ) and D-Wave Quantum (NYSE: QBTS) into this basket, because it gives investors the massive upside of a pure-play quantum computing company. These two aren't very big companies, but if they make quantum computing viable, they could turn into huge winners for investors.
+While some may argue these two are due to be outspent and outclassed by competitors like Alphabet and Microsoft, they are actually taking a different approach to quantum computing entirely.
+Most quantum computing competitors like Alphabet and Microsoft are using a superconducting approach for their chips. However, IonQ is using a trapped ion technique, and D-Wave is using a quantum annealing approach. All three of these approaches have their use cases, but it will be some time before investors know which is the best.
+By having exposure to all three, investors have the best chance to make a profit in this emerging industry. Although we're still a few years out from quantum computing relevance, I think owning a basket of legacy and emerging players is a smart way to ensure investors make a great profit.
+Should you invest $1,000 in IonQ right now?
+Before you buy stock in IonQ, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and IonQ wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keithen Drury has positions in Alphabet and Nvidia. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Key Points Some of the legacy tech giants are participating in quantum computing. That is one great way to bridge the gap between AI and quantum technology. But quantum computing pure plays could provide massive upside if they work out. Quantum computing isn't an easy area to invest in right now. Most companies agree that 2030 will be a turning point for the industry and commercially viable quantum computers will be available then. That's still a ways off, and investors need to be careful not to get in too early; otherwise, there could be a significant opportunity cost that would be incurred by investing in quantum computing instead of other possible areas. Still, I think there could be a huge opportunity if you invest in the right quantum computing stocks right now. I've got five stocks that can be purchased in a group that ensures investors get exposure to quantum computing as well as current market trends, and I think it's highly likely that this cohort outperforms the market over the next few years. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Legacy tech players Quantum computing isn't an industry reserved for start ups; some of the biggest names in tech are also investing in this technology. Two of the biggest are Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) and Microsoft (NASDAQ: MSFT). Both of these companies are developing their own quantum computing chip in house, which could result in massive profits down the road if each develops a viable quantum computing solution. Both companies will use quantum computing for themselves, but will also offer it to clients through their respective cloud computing services. Right now, the big growth drivers for cloud computing are the migration of traditional workloads and artificial intelligence, but quantum computing could provide another growth driver. Microsoft's CEO stated that he believes quantum computing will be the next accelerator in the cloud, which could mean further growth for both Alphabet and Microsoft. Another legacy tech player that will benefit is Nvidia (NASDAQ: NVDA). While Nvidia isn't directly developing quantum processing units, it's helping quantum computing players take a hybrid computing approach between traditional and quantum computing methods. It's also developing a quantum focused version of its CUDA software, which helped it establish dominance in the traditional computing landscape. All three of these companies are excelling in the AI driven market, but also have long term investments ongoing in the quantum world. By investing in these three today, investors can ensure they have exposure to both current and emerging trends. But there are also a few pure plays that look intriguing. Quantum computing pure plays I also like adding picks like IonQ (NYSE: IONQ) and D Wave Quantum (NYSE: QBTS) into this basket, because it gives investors the massive upside of a pure play quantum computing company. These two aren't very big companies, but if they make quantum computing viable, they could turn into huge winners for investors. While some may argue these two are due to be outspent and outclassed by competitors like Alphabet and Microsoft, they are actually taking a different approach to quantum computing entirely. Most quantum computing competitors like Alphabet and Microsoft are using a superconducting approach for their chips. However, IonQ is using a trapped ion technique, and D Wave is using a quantum annealing approach. All three of these approaches have their use cases, but it will be some time before investors know which is the best. By having exposure to all three, investors have the best chance to make a profit in this emerging industry. Although we're still a few years out from quantum computing relevance, I think owning a basket of legacy and emerging players is a smart way to ensure investors make a great profit. Should you invest $1,000 in IonQ right now? Before you buy stock in IonQ, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and IonQ wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keithen Drury has positions in Alphabet and Nvidia. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>45885.20902777778</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>The race for sovereign AI is intensifying. Heres what you need to know</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr"/>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/race-sovereign-ai-intensifying-know-154054977.html</t>
+        </is>
+      </c>
+      <c r="E419" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr"/>
+      <c r="H419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>45885.20138888889</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>5 Top Artificial Intelligence Stocks to Buy in August</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142380/5-top-artificial-intelligence-stocks-to-buy-in-august</t>
+        </is>
+      </c>
+      <c r="E420" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Nvidia and Broadcom are AI infrastructure leaders.
+Palantir's AI platform is driving huge growth for the company.
+Alphabet and GitLab are two AI stocks that are still cheap.
+Artificial intelligence (AI) continues to be reshaping the world we live in, which can be both exciting and scary. It's also reshaping the stock market, and it is certainly an area you want to invest in.
+Let's look at the stocks of five AI leaders that would make top stock buys this month.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+Image source: Getty Images.
+Nvidia (NASDAQ: NVDA) remains the king of AI infrastructure. Its graphics processing units (GPUs) power most AI workloads worldwide, and in the first quarter, it commanded an astonishing 92% of the GPU market. What really sets it apart is its CUDA software platform, which it planted into universities and research labs years before AI went mainstream. That early push created a generation of developers trained on its tools and libraries built on top of its platform, building a moat that rivals struggle to cross.
+Nvidia has also accelerated its product cycle, planning new chip launches annually to stay ahead of the competition. Its growth opportunities also go beyond data centers, with the automotive market another big opportunity, thanks to the rise of self-driving and robotaxis.
+Nvidia's mix of market dominance, software moat, and expansion into new markets keeps it firmly at the center of AI.
+Palantir Technologies (NASDAQ: PLTR) started as a critical analytics partner to U.S. government agencies but is now making its mark in commercial markets. Its Artificial Intelligence Platform (AIP) integrates data from numerous sources into an "ontology," allowing AI models to produce clear, actionable results.
+AIP is essentially becoming an AI operating system, making it a vital platform as companies begin to use AI in their operations. The strength of AIP could be seen in its Q2 results, as the company's U.S. commercial revenue surged 93%, while its total deal value more than doubled and its customer base climbed 43%.
+Given the breadth of use cases across very different industries that AIP can handle, Palantir has a long runway of growth in front of it. The company has continued to see accelerating revenue growth, and the best part is that many of its customers are still in their early stages of usage.
+As an essential component of the emerging AI economy, Palantir has the potential to grow into one of the largest companies in the world.
+Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG) is proving that AI can strengthen its core businesses. Search has gained momentum with AI Overviews, which is now being used by over 2 billion people a month, helping drive a 12% year-over-year increase in search revenue last quarter. Google Cloud is another major beneficiary of AI, with its revenue jumping 32% and operating profit more than doubling in Q2, thanks to strong AI demand on its Vertex platform.
+Another area that is often overlooked is Alphabet's Tensor Processing Units (TPUs). As inference performance per dollar starts becoming one of the most important factors in running AI models, Alphabet has a nice advantage with its custom chips.
+In addition to search and cloud computing, Alphabet is also seeing solid contributions from its other businesses. YouTube ad revenue grew 13% last quarter, with Shorts leading the way. Meanwhile, Waymo is picking up steam, rolling out its robotaxi services to new cities across the U.S.
+From a valuation perspective, Alphabet is one of the most attractive AI stocks in the market, trading at a forward P/E just over 20. This makes it a must-own stock.
+Rather than competing directly with Nvidia with GPUs, chipmaker Broadcom (NASDAQ: AVGO) is playing to its strengths in AI networking and custom chip design. Its Ethernet switches and other networking components are critical for moving vast amounts of data between AI clusters. Demand here is booming, with its AI networking revenue up 70% in Q1.
+The real prize, though, may be its work on custom application-specific integrated circuits (ASICs). Broadcom helped develop Alphabet's TPUs and is now designing chips for multiple hyperscalers (companies with massive data centers), with management estimating its top three customers alone could represent a $60 billion to $90 billion opportunity in fiscal 2027.
+Its recent acquisition of VMware adds another growth lever, with its Cloud Foundation platform helping enterprises manage AI workloads across hybrid cloud environments. Between its leadership in data center networking components, custom chip expertise, and virtualization software, Broadcom is becoming one of the most important players in AI infrastructure.
+GitLab (NASDAQ: GTLB) is evolving from a code repository into a full-fledged AI-powered software development platform. Its GitLab 18 release brought more than 30 upgrades, including Duo Agent, which can automate testing, deployment, security, and monitoring. That's important, because developers spend only a fraction of their time writing code. Automating the rest of the workflow can dramatically increase productivity.
+GitLab has delivered steady 25%-plus revenue growth since going public, with Q1 sales rising 27% year over year. The value of its platform in an AI-driven development world opens the door to a possible shift from seat-based to consumption-based pricing, which could drive revenue even higher. With AI changing how software is built, GitLab's end-to-end approach positions it as a key player in enterprise software development.
+As investors worry about the impact of AI on software, GitLab's stock has fallen to a very attractive valuation of a forward price-to-sales (P/S) ratio of 7 times the 2025 analyst estimates.
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Geoffrey Seiler has positions in Alphabet and GitLab. The Motley Fool has positions in and recommends Alphabet, GitLab, Nvidia, and Palantir Technologies. The Motley Fool recommends Broadcom. The Motley Fool has a disclosure policy.
+| 39 min | |
+| 1 hour | |
+| 1 hour | |
+| 2 hours | |
+| 2 hours | |
+| 3 hours | |
+| 3 hours | |
+| 4 hours | |
+| 4 hours | |
+| 4 hours | |
+| 7 hours | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Nvidia and Broadcom are AI infrastructure leaders. Palantir's AI platform is driving huge growth for the company. Alphabet and GitLab are two AI stocks that are still cheap. Artificial intelligence (AI) continues to be reshaping the world we live in, which can be both exciting and scary. It's also reshaping the stock market, and it is certainly an area you want to invest in. Let's look at the stocks of five AI leaders that would make top stock buys this month. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More Image source: Getty Images. Nvidia (NASDAQ: NVDA) remains the king of AI infrastructure. Its graphics processing units (GPUs) power most AI workloads worldwide, and in the first quarter, it commanded an astonishing 92% of the GPU market. What really sets it apart is its CUDA software platform, which it planted into universities and research labs years before AI went mainstream. That early push created a generation of developers trained on its tools and libraries built on top of its platform, building a moat that rivals struggle to cross. Nvidia has also accelerated its product cycle, planning new chip launches annually to stay ahead of the competition. Its growth opportunities also go beyond data centers, with the automotive market another big opportunity, thanks to the rise of self driving and robotaxis. Nvidia's mix of market dominance, software moat, and expansion into new markets keeps it firmly at the center of AI. Palantir Technologies (NASDAQ: PLTR) started as a critical analytics partner to U.S. government agencies but is now making its mark in commercial markets. Its Artificial Intelligence Platform (AIP) integrates data from numerous sources into an "ontology," allowing AI models to produce clear, actionable results. AIP is essentially becoming an AI operating system, making it a vital platform as companies begin to use AI in their operations. The strength of AIP could be seen in its Q2 results, as the company's U.S. commercial revenue surged 93%, while its total deal value more than doubled and its customer base climbed 43%. Given the breadth of use cases across very different industries that AIP can handle, Palantir has a long runway of growth in front of it. The company has continued to see accelerating revenue growth, and the best part is that many of its customers are still in their early stages of usage. As an essential component of the emerging AI economy, Palantir has the potential to grow into one of the largest companies in the world. Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG) is proving that AI can strengthen its core businesses. Search has gained momentum with AI Overviews, which is now being used by over 2 billion people a month, helping drive a 12% year over year increase in search revenue last quarter. Google Cloud is another major beneficiary of AI, with its revenue jumping 32% and operating profit more than doubling in Q2, thanks to strong AI demand on its Vertex platform. Another area that is often overlooked is Alphabet's Tensor Processing Units (TPUs). As inference performance per dollar starts becoming one of the most important factors in running AI models, Alphabet has a nice advantage with its custom chips. In addition to search and cloud computing, Alphabet is also seeing solid contributions from its other businesses. YouTube ad revenue grew 13% last quarter, with Shorts leading the way. Meanwhile, Waymo is picking up steam, rolling out its robotaxi services to new cities across the U.S. From a valuation perspective, Alphabet is one of the most attractive AI stocks in the market, trading at a forward P/E just over 20. This makes it a must own stock. Rather than competing directly with Nvidia with GPUs, chipmaker Broadcom (NASDAQ: AVGO) is playing to its strengths in AI networking and custom chip design. Its Ethernet switches and other networking components are critical for moving vast amounts of data between AI clusters. Demand here is booming, with its AI networking revenue up 70% in Q1. The real prize, though, may be its work on custom application specific integrated circuits (ASICs). Broadcom helped develop Alphabet's TPUs and is now designing chips for multiple hyperscalers (companies with massive data centers), with management estimating its top three customers alone could represent a $60 billion to $90 billion opportunity in fiscal 2027. Its recent acquisition of VMware adds another growth lever, with its Cloud Foundation platform helping enterprises manage AI workloads across hybrid cloud environments. Between its leadership in data center networking components, custom chip expertise, and virtualization software, Broadcom is becoming one of the most important players in AI infrastructure. GitLab (NASDAQ: GTLB) is evolving from a code repository into a full fledged AI powered software development platform. Its GitLab 18 release brought more than 30 upgrades, including Duo Agent, which can automate testing, deployment, security, and monitoring. That's important, because developers spend only a fraction of their time writing code. Automating the rest of the workflow can dramatically increase productivity. GitLab has delivered steady 25% plus revenue growth since going public, with Q1 sales rising 27% year over year. The value of its platform in an AI driven development world opens the door to a possible shift from seat based to consumption based pricing, which could drive revenue even higher. With AI changing how software is built, GitLab's end to end approach positions it as a key player in enterprise software development. As investors worry about the impact of AI on software, GitLab's stock has fallen to a very attractive valuation of a forward price to sales (P/S) ratio of 7 times the 2025 analyst estimates. Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Geoffrey Seiler has positions in Alphabet and GitLab. The Motley Fool has positions in and recommends Alphabet, GitLab, Nvidia, and Palantir Technologies. The Motley Fool recommends Broadcom. The Motley Fool has a disclosure policy. 39 min 1 hour 1 hour 2 hours 2 hours 3 hours 3 hours 4 hours 4 hours 4 hours 7 hours Aug 16 Aug 16 Aug 16 Aug 16 Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>45885.19722222222</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Double the Disruption: The 3 Best Stocks to Buy Now to Profit From Both AI and Quantum Computing</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142379/double-the-disruption-the-3-best-stocks-to-buy-now-to-profit-from-both-ai-and-quantum-computing</t>
+        </is>
+      </c>
+      <c r="E421" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Key Points
+Alphabet has multiple ways to profit from AI and has achieved two key quantum computing milestones.
+Microsoft has integrated AI throughout its software and might have developed the "transistor for the quantum age."
+Nvidia is a critical player in AI and is positioning itself to be a big winner in quantum computing.
+Disruption isn't a dirty word for investors. Sure, some companies can fade away as their businesses are rendered obsolete by new technologies. However, others flourish and make smart investors a lot of money over time.
+I believe we're currently in the early stages of two massive disruptions. Artificial intelligence (AI) holds the potential to transform our world in too many ways to count. Quantum computing could accelerate AI advances while also revolutionizing finance, healthcare, logistics, and more.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+Although these are distinct disruptive technologies, you don't have to invest in them separately. Here are my picks for the three best stocks to buy now to profit from both AI and quantum computing.
+Image source: Getty Images.
+1. Alphabet
+Google parent Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) has been a pioneer in AI for years. The company developed the "T" (transformers) in ChatGPT. Its 2014 acquisition of DeepMind was, in retrospect, a pivotal move. Today, Google Gemini Pro ranks among the world's most powerful large language models (LLMs).
+Alphabet has multiple ways to profit from AI. Google Cloud is the fastest-growing major cloud services provider thanks to a massive AI tailwind. Google Search and YouTube use AI to boost ad revenue. Waymo is a leader in autonomous ride-hailing (robotaxis).
+But the company is also a major player in quantum computing. Google Quantum AI (note that both disruptive technologies are in the unit's name) has already notched two key quantum computing milestones. Its Sycamore chip achieved quantum supremacy (solving a problem in relatively short order that would take the most powerful classical computer an exceptionally long time) in 2019. The unit made a giant leap in quantum error correction (reducing errors by increasing the cubits) in 2023.
+I think it's a good bet that Alphabet will be one of the biggest winners in both AI and quantum computing over the long run. But this stock isn't a highly risky bet, in my view. The company is on track to generate close to $400 billion in revenue and more than $100 billion in profits this year.
+2. Microsoft
+Microsoft (NASDAQ: MSFT) arguably struck one of the best deals in business history by partnering with ChatGPT creator OpenAI back in 2022. The longtime technology giant has integrated OpenAI's AI models throughout its software suite.
+Like Alphabet, Microsoft is poised to benefit as organizations build and deploy AI applications in the cloud. Its Azure is the second-largest cloud services platform, behind only Amazon Web Services (AWS).
+Also like Alphabet, Microsoft is investing heavily in quantum computing. Earlier this year, the company introduced its Majorana 1 quantum chip, which uses a new type of material called a topoconductor. Microsoft thinks that topoconductors will pave the way for highly scalable, powerful quantum computers.
+Microsoft technical fellow Chetan Nayak believes that topoconductors might be the "transistor for the quantum age." If he's right, the company that dominated the PC software market could also dominate the quantum computing market.
+3. Nvidia
+Which company is the most essential player in AI today? There's a strong argument that it's Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs) remain in a league of their own in powering AI systems.
+Nvidia's customers include Alphabet and Microsoft, both of which use its GPUs extensively in their cloud platforms. And while rivals are trying desperately to knock Nvidia off its perch, the company's fast-paced development of new AI chips seems likely to keep it on top for years to come.
+However, Nvidia isn't developing quantum computers. How is investing in it a smart way to profit from both AI and quantum computing? The company is trying to make it easier for others to advance their quantum computing efforts through its NVIDIA Accelerated Quantum Computing (NVAQC) Research Center. Nvidia is also pairing its GPUs with quantum chips for a hybrid quantum-classical computing approach.
+Back in the gold rush days, the providers of picks and shovels often made more money than the gold miners themselves. Nvidia is positioning itself to be the pick-and-shovel investment of the quantum computing era.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keith Speights has positions in Alphabet and Microsoft. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Key Points Alphabet has multiple ways to profit from AI and has achieved two key quantum computing milestones. Microsoft has integrated AI throughout its software and might have developed the "transistor for the quantum age." Nvidia is a critical player in AI and is positioning itself to be a big winner in quantum computing. Disruption isn't a dirty word for investors. Sure, some companies can fade away as their businesses are rendered obsolete by new technologies. However, others flourish and make smart investors a lot of money over time. I believe we're currently in the early stages of two massive disruptions. Artificial intelligence (AI) holds the potential to transform our world in too many ways to count. Quantum computing could accelerate AI advances while also revolutionizing finance, healthcare, logistics, and more. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More Although these are distinct disruptive technologies, you don't have to invest in them separately. Here are my picks for the three best stocks to buy now to profit from both AI and quantum computing. Image source: Getty Images. 1. Alphabet Google parent Alphabet (NASDAQ: GOOG) (NASDAQ: GOOGL) has been a pioneer in AI for years. The company developed the "T" (transformers) in ChatGPT. Its 2014 acquisition of DeepMind was, in retrospect, a pivotal move. Today, Google Gemini Pro ranks among the world's most powerful large language models (LLMs). Alphabet has multiple ways to profit from AI. Google Cloud is the fastest growing major cloud services provider thanks to a massive AI tailwind. Google Search and YouTube use AI to boost ad revenue. Waymo is a leader in autonomous ride hailing (robotaxis). But the company is also a major player in quantum computing. Google Quantum AI (note that both disruptive technologies are in the unit's name) has already notched two key quantum computing milestones. Its Sycamore chip achieved quantum supremacy (solving a problem in relatively short order that would take the most powerful classical computer an exceptionally long time) in 2019. The unit made a giant leap in quantum error correction (reducing errors by increasing the cubits) in 2023. I think it's a good bet that Alphabet will be one of the biggest winners in both AI and quantum computing over the long run. But this stock isn't a highly risky bet, in my view. The company is on track to generate close to $400 billion in revenue and more than $100 billion in profits this year. 2. Microsoft Microsoft (NASDAQ: MSFT) arguably struck one of the best deals in business history by partnering with ChatGPT creator OpenAI back in 2022. The longtime technology giant has integrated OpenAI's AI models throughout its software suite. Like Alphabet, Microsoft is poised to benefit as organizations build and deploy AI applications in the cloud. Its Azure is the second largest cloud services platform, behind only Amazon Web Services (AWS). Also like Alphabet, Microsoft is investing heavily in quantum computing. Earlier this year, the company introduced its Majorana 1 quantum chip, which uses a new type of material called a topoconductor. Microsoft thinks that topoconductors will pave the way for highly scalable, powerful quantum computers. Microsoft technical fellow Chetan Nayak believes that topoconductors might be the "transistor for the quantum age." If he's right, the company that dominated the PC software market could also dominate the quantum computing market. 3. Nvidia Which company is the most essential player in AI today? There's a strong argument that it's Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs) remain in a league of their own in powering AI systems. Nvidia's customers include Alphabet and Microsoft, both of which use its GPUs extensively in their cloud platforms. And while rivals are trying desperately to knock Nvidia off its perch, the company's fast paced development of new AI chips seems likely to keep it on top for years to come. However, Nvidia isn't developing quantum computers. How is investing in it a smart way to profit from both AI and quantum computing? The company is trying to make it easier for others to advance their quantum computing efforts through its NVIDIA Accelerated Quantum Computing (NVAQC) Research Center. Nvidia is also pairing its GPUs with quantum chips for a hybrid quantum classical computing approach. Back in the gold rush days, the providers of picks and shovels often made more money than the gold miners themselves. Nvidia is positioning itself to be the pick and shovel investment of the quantum computing era. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keith Speights has positions in Alphabet and Microsoft. The Motley Fool has positions in and recommends Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>45885.18333333333</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Did Nvidia Make a Mistake by Selling SoundHound AI Stock? The Answer Might Surprise You.</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142377/did-nvidia-make-a-mistake-by-selling-soundhound-ai-stock-the-answer-might-surprise-you</t>
+        </is>
+      </c>
+      <c r="E422" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>Key Points
+SoundHound AI stock is generating blistering revenue growth right now, as some of the world's biggest brands adopt its conversational artificial intelligence software.
+Nvidia used to be a SoundHound shareholder, but the chip giant sold its entire stake towards the end of 2024.
+SoundHound stock is soaring right now, but that doesn't mean Nvidia made the wrong move.
+Nvidia (NASDAQ: NVDA) has become the world's largest company on the back of surging demand for its data center chips, which are the gold standard for developing artificial intelligence (AI) models. The chip giant occasionally puts its vast financial resources to work by investing in other AI companies, and SoundHound AI (NASDAQ: SOUN) was one of them.
+SoundHound is a specialist in conversational AI technologies, and its customers include some of the world's biggest brands. Nvidia first revealed its stake in the company in a 13-F filing with the Securities and Exchange Commission in February 2024, but the chipmaker had sold its entire position by December.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+SoundHound's revenue tripled during its most recent quarter, and its stock is up by a whopping 40% in the past month alone. Did Nvidia make a mistake by dumping its position? Read on for the surprising answer.
+Image source: Getty Images.
+A leader in conversational AI
+SoundHound's conversational AI applications are popular in a variety of industries, but they are experiencing particularly high demand in quick-service restaurant chains and with automotive brands that want to include a powerful AI assistant in their new vehicles.
+In the restaurant space, SoundHound's Voice AI technology can accept customer orders autonomously in-store, over the phone, and in the drive-thru. It can also answer queries from employees, whether they need help making menu items or need clarity on a particular store policy. Chains like Chipotle, Krispy Kreme, and Papa John's are just a few of SoundHound's customers.
+In the automotive industry, companies like Hyundai and Stellantis (Chrysler, Jeep, and Dodge) are using SoundHound's Chat AI software in their latest vehicles. It can give drivers information about the weather, stocks, and everything in between with a simple voice command, and manufacturers can customize its personality to suit their brand.
+Last August, SoundHound acquired another conversational AI specialist called Amelia. The joint companies recently launched a new platform called Amelia 7, which allows businesses to create custom AI agents that can assist customers with their inquiries or even help employees troubleshoot technical issues. Of course, these agents can be controlled entirely with voice commands.
+SoundHound's revenue is absolutely skyrocketing
+SoundHound generated a record $42.6 million in total revenue during the second quarter of 2025 (ended June 30), which was a blistering 217% increase from the year-ago period.
+The strong result gave management the confidence to increase its full-year revenue guidance for 2025 from $167 million to $169 million (at the midpoint of the forecast range), which would be a 99% increase compared to 2024. That would mark an acceleration from the 85% growth SoundHound generated last year, highlighting the significant momentum in its business.
+But that growth is coming at a significant cost, because SoundHound continues to burn truckloads of cash. It lost $74.7 million on a generally accepted accounting principles (GAAP) basis during the second quarter, which was twice as much as it lost in the year-ago period.
+SoundHound did suffer a one-off, $31 million hit to its bottom line from a liability associated with one of its acquisitions during the quarter, but even after stripping it out -- along with every other one-off and non-cash expense -- the company still lost $11.8 million.
+SoundHound has a solid balance sheet with $230 million in cash on hand and no debt, so it can sustain losses of that size for the foreseeable future. However, the company will eventually have to prioritize profitability, or else it might need to raise capital, which could dilute existing shareholders. Cost cuts would almost certainly dent SoundHound's revenue growth, which is something for investors to keep in mind.
+Here's why Nvidia didn't make a mistake by selling SoundHound stock
+Nvidia never told investors why it sold SoundHound stock, but if I had to speculate, I think its valuation likely had something to do with the decision. Its price-to-sales (P/S) ratio is trading at an eye-popping level of 48.6, which is more than a 50% premium to Nvidia's P/S ratio of 29.9.
+It was even more expensive when Nvidia sold it toward the end of 2024, because its P/S ratio was hovering near 100.
+SOUN PS Ratio data by YCharts
+SoundHound will quickly grow into its current valuation if its revenue continues to increase at such a blistering pace, but the financial results of companies in the early stages of commercialization are notoriously unpredictable, so there's no guarantee it will. Moreover, Nvidia is one of the highest quality companies in the world with a track record of success that spans decades, a rock-solid balance sheet, and surging profits, so I don't think SoundHound deserves to trade at a premium to the chip giant.
+Nvidia held 1.73 million SoundHound shares, which would've been worth around $27.7 million at the current price of $16. Given the chip giant's market cap of $4.4 trillion, a total loss would've been a mere rounding error. However, holding a stock with such a steep valuation opens the door to substantial downside if the underlying company falters, so I don't think Nvidia made a mistake by closing its position.
+Should you invest $1,000 in SoundHound AI right now?
+Before you buy stock in SoundHound AI, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and SoundHound AI wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Anthony Di Pizio has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Chipotle Mexican Grill and Nvidia. The Motley Fool recommends the following options: short September 2025 $60 calls on Chipotle Mexican Grill. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Key Points SoundHound AI stock is generating blistering revenue growth right now, as some of the world's biggest brands adopt its conversational artificial intelligence software. Nvidia used to be a SoundHound shareholder, but the chip giant sold its entire stake towards the end of 2024. SoundHound stock is soaring right now, but that doesn't mean Nvidia made the wrong move. Nvidia (NASDAQ: NVDA) has become the world's largest company on the back of surging demand for its data center chips, which are the gold standard for developing artificial intelligence (AI) models. The chip giant occasionally puts its vast financial resources to work by investing in other AI companies, and SoundHound AI (NASDAQ: SOUN) was one of them. SoundHound is a specialist in conversational AI technologies, and its customers include some of the world's biggest brands. Nvidia first revealed its stake in the company in a 13 F filing with the Securities and Exchange Commission in February 2024, but the chipmaker had sold its entire position by December. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue SoundHound's revenue tripled during its most recent quarter, and its stock is up by a whopping 40% in the past month alone. Did Nvidia make a mistake by dumping its position? Read on for the surprising answer. Image source: Getty Images. A leader in conversational AI SoundHound's conversational AI applications are popular in a variety of industries, but they are experiencing particularly high demand in quick service restaurant chains and with automotive brands that want to include a powerful AI assistant in their new vehicles. In the restaurant space, SoundHound's Voice AI technology can accept customer orders autonomously in store, over the phone, and in the drive thru. It can also answer queries from employees, whether they need help making menu items or need clarity on a particular store policy. Chains like Chipotle, Krispy Kreme, and Papa John's are just a few of SoundHound's customers. In the automotive industry, companies like Hyundai and Stellantis (Chrysler, Jeep, and Dodge) are using SoundHound's Chat AI software in their latest vehicles. It can give drivers information about the weather, stocks, and everything in between with a simple voice command, and manufacturers can customize its personality to suit their brand. Last August, SoundHound acquired another conversational AI specialist called Amelia. The joint companies recently launched a new platform called Amelia 7, which allows businesses to create custom AI agents that can assist customers with their inquiries or even help employees troubleshoot technical issues. Of course, these agents can be controlled entirely with voice commands. SoundHound's revenue is absolutely skyrocketing SoundHound generated a record $42.6 million in total revenue during the second quarter of 2025 (ended June 30), which was a blistering 217% increase from the year ago period. The strong result gave management the confidence to increase its full year revenue guidance for 2025 from $167 million to $169 million (at the midpoint of the forecast range), which would be a 99% increase compared to 2024. That would mark an acceleration from the 85% growth SoundHound generated last year, highlighting the significant momentum in its business. But that growth is coming at a significant cost, because SoundHound continues to burn truckloads of cash. It lost $74.7 million on a generally accepted accounting principles (GAAP) basis during the second quarter, which was twice as much as it lost in the year ago period. SoundHound did suffer a one off, $31 million hit to its bottom line from a liability associated with one of its acquisitions during the quarter, but even after stripping it out along with every other one off and non cash expense the company still lost $11.8 million. SoundHound has a solid balance sheet with $230 million in cash on hand and no debt, so it can sustain losses of that size for the foreseeable future. However, the company will eventually have to prioritize profitability, or else it might need to raise capital, which could dilute existing shareholders. Cost cuts would almost certainly dent SoundHound's revenue growth, which is something for investors to keep in mind. Here's why Nvidia didn't make a mistake by selling SoundHound stock Nvidia never told investors why it sold SoundHound stock, but if I had to speculate, I think its valuation likely had something to do with the decision. Its price to sales (P/S) ratio is trading at an eye popping level of 48.6, which is more than a 50% premium to Nvidia's P/S ratio of 29.9. It was even more expensive when Nvidia sold it toward the end of 2024, because its P/S ratio was hovering near 100. SOUN PS Ratio data by YCharts SoundHound will quickly grow into its current valuation if its revenue continues to increase at such a blistering pace, but the financial results of companies in the early stages of commercialization are notoriously unpredictable, so there's no guarantee it will. Moreover, Nvidia is one of the highest quality companies in the world with a track record of success that spans decades, a rock solid balance sheet, and surging profits, so I don't think SoundHound deserves to trade at a premium to the chip giant. Nvidia held 1.73 million SoundHound shares, which would've been worth around $27.7 million at the current price of $16. Given the chip giant's market cap of $4.4 trillion, a total loss would've been a mere rounding error. However, holding a stock with such a steep valuation opens the door to substantial downside if the underlying company falters, so I don't think Nvidia made a mistake by closing its position. Should you invest $1,000 in SoundHound AI right now? Before you buy stock in SoundHound AI, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and SoundHound AI wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Anthony Di Pizio has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Chipotle Mexican Grill and Nvidia. The Motley Fool recommends the following options: short September 2025 $60 calls on Chipotle Mexican Grill. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>45885.12638888889</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>If I Could Only Buy and Hold a Single Stock, This Would Be It</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142361/if-i-could-only-buy-and-hold-a-single-stock-this-would-be-it</t>
+        </is>
+      </c>
+      <c r="E423" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Key Points
+I'm a long-term buy-and-hold investor, and my portfolio is filled with dozens of growth stocks.
+If I had to pick just a single stock, it would have to be Nvidia.
+The company checks many of the boxes of a successful investment and trades for an attractive valuation.
+Let's address the elephant in the room: The idea of buying and holding just one stock is something I would never do, and frankly, the thought seems absurd to me. My portfolio is composed of dozens of stocks, as it provides me with a level of safety and diversification that lets me sleep at night. Even if one of my largest positions falls 30% or 40% (and they have), my entire portfolio only loses between 1% and 2%. I can't imagine a scenario where I would limit myself to one stock, and I recommend building a portfolio of 15 to 20 stocks at a minimum.
+That said, and purely as a thought exercise, if I were to hold only one stock, it would have to meet certain criteria. I would want a company that is an industry leader, with a large addressable market and a long track record of performance. I would want to own a company that's a proven leader -- a business fueled by innovation, strong secular tailwinds, and a history of financial success.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+If I could only buy and hold a single stock, Nvidia (NASDAQ: NVDA) would have to be it.
+Image source: Getty Images.
+Checks all the right boxes
+There's certainly a lot to like about Nvidia, and it checks all the right boxes. The company has long been a leader in the video game market, as its graphics processing units (GPUs) are the top choice among hardcore and casual gamers alike. Nvidia is the undisputed leader in the discrete desktop GPU space, controlling 92% of the market, according to data compiled by Jon Peddie Research.
+Nvidia was also able to capitalize on the advent of artificial intelligence (AI), as its GPUs are equally adept at ferrying data around the ether at lightning speeds. As a result, the company also leads the data center GPU space -- where most AI processing takes place -- with a dominant 92% of the market, according to IoT Analytics.
+AI has been the driving force behind Nvidia's performance over the past few years, but this wasn't simply luck. CEO Jensen Huang saw the writing on the wall back in 2013 and focused the company's research and development efforts on AI, which positioned Nvidia for future success.
+This spirit of innovation has kept the company well ahead of would-be rivals. In its fiscal 2025 (ended Jan. 26), Nvidia spent $13 billion on research and development (R&amp;D) -- roughly 10% of its total revenue -- to maintain its competitive advantage. The company continues to explore emerging opportunities, including quantum computing, agentic AI, robotics, automation, self-driving cars, and more.
+It's easy to see why Nvidia is investing heavily as it looks toward the future. The opportunity represented by AI alone is vast, but there's no consensus. Global management consulting firm McKinsey &amp; Company estimates that generative AI could add between $2.6 trillion and $4.4 trillion to the global economy over the coming decade. The estimate from Big Four accounting firm PwC is much higher, clocking in at $15.7 trillion between now and 2030.
+This helps to illustrate the size of the opportunity Nvidia has in its sights.
+The numbers are compelling
+Nvidia has already been reaping the rewards of the AI revolution, and it's difficult to overstate the scale of its success. The results of the past two fiscal years help provide context:
+- In fiscal 2024 (ended Jan. 28, 2024), Nvidia's record revenue of $60.9 billion climbed 126%, while its adjusted earnings per share (EPS) of $12.96 surged 288%.
+- In fiscal 2025 (ended Jan. 26, 2025), Nvidia's record revenue of $130.5 billion jumped 114%, while adjusted EPS of $2.99 soared 130%.
+In its 2026 first quarter, Nvidia's revenue of $44 billion climbed 69% year over year and 12% quarter over quarter. Earnings per share, adjusted for a one-time charge related to its chip sales to China, came in at $0.96, rising 62%. While that's notable in its own right, it becomes even more impressive when viewed against the backdrop of triple-digit comps.
+Management believes the company's growth streak will continue. For the second quarter, Nvidia is forecasting revenue of $45 billion, or growth of about 50%. However, given the company's history of issuing conservative guidance, the actual results will likely be higher.
+This history of financial success has propelled a meteoric rise in the stock price, which has gained 1,130% since early 2023, and has helped Nvidia become the world's first $4 trillion company, when measured by market cap.
+While the company's performance over the past few years has been nothing less than stunning, its track record is much longer. Over the past decade, Nvidia's stock has soared more than 30,000% (not a typo), driven higher by its consistently strong operational and financial results.
+There's also the matter of Nvidia's valuation. Despite the company's growth trajectory and history of success, the stock is selling for roughly 30 times next year's earnings, an attractive multiple given the magnitude of the opportunity.
+Taken together, its industry leadership, track record of innovations, visionary CEO, and large and growing market opportunity create a persuasive argument for owning Nvidia stock. Add to that the company's stunning financial performance and reasonable valuation, and it's easy to see why Nvidia would be the one stock to own if I could own just one.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Key Points I'm a long term buy and hold investor, and my portfolio is filled with dozens of growth stocks. If I had to pick just a single stock, it would have to be Nvidia. The company checks many of the boxes of a successful investment and trades for an attractive valuation. Let's address the elephant in the room: The idea of buying and holding just one stock is something I would never do, and frankly, the thought seems absurd to me. My portfolio is composed of dozens of stocks, as it provides me with a level of safety and diversification that lets me sleep at night. Even if one of my largest positions falls 30% or 40% (and they have), my entire portfolio only loses between 1% and 2%. I can't imagine a scenario where I would limit myself to one stock, and I recommend building a portfolio of 15 to 20 stocks at a minimum. That said, and purely as a thought exercise, if I were to hold only one stock, it would have to meet certain criteria. I would want a company that is an industry leader, with a large addressable market and a long track record of performance. I would want to own a company that's a proven leader a business fueled by innovation, strong secular tailwinds, and a history of financial success. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More If I could only buy and hold a single stock, Nvidia (NASDAQ: NVDA) would have to be it. Image source: Getty Images. Checks all the right boxes There's certainly a lot to like about Nvidia, and it checks all the right boxes. The company has long been a leader in the video game market, as its graphics processing units (GPUs) are the top choice among hardcore and casual gamers alike. Nvidia is the undisputed leader in the discrete desktop GPU space, controlling 92% of the market, according to data compiled by Jon Peddie Research. Nvidia was also able to capitalize on the advent of artificial intelligence (AI), as its GPUs are equally adept at ferrying data around the ether at lightning speeds. As a result, the company also leads the data center GPU space where most AI processing takes place with a dominant 92% of the market, according to IoT Analytics. AI has been the driving force behind Nvidia's performance over the past few years, but this wasn't simply luck. CEO Jensen Huang saw the writing on the wall back in 2013 and focused the company's research and development efforts on AI, which positioned Nvidia for future success. This spirit of innovation has kept the company well ahead of would be rivals. In its fiscal 2025 (ended Jan. 26), Nvidia spent $13 billion on research and development (R&amp;D) roughly 10% of its total revenue to maintain its competitive advantage. The company continues to explore emerging opportunities, including quantum computing, agentic AI, robotics, automation, self driving cars, and more. It's easy to see why Nvidia is investing heavily as it looks toward the future. The opportunity represented by AI alone is vast, but there's no consensus. Global management consulting firm McKinsey &amp; Company estimates that generative AI could add between $2.6 trillion and $4.4 trillion to the global economy over the coming decade. The estimate from Big Four accounting firm PwC is much higher, clocking in at $15.7 trillion between now and 2030. This helps to illustrate the size of the opportunity Nvidia has in its sights. The numbers are compelling Nvidia has already been reaping the rewards of the AI revolution, and it's difficult to overstate the scale of its success. The results of the past two fiscal years help provide context: In fiscal 2024 (ended Jan. 28, 2024), Nvidia's record revenue of $60.9 billion climbed 126%, while its adjusted earnings per share (EPS) of $12.96 surged 288%. In fiscal 2025 (ended Jan. 26, 2025), Nvidia's record revenue of $130.5 billion jumped 114%, while adjusted EPS of $2.99 soared 130%. In its 2026 first quarter, Nvidia's revenue of $44 billion climbed 69% year over year and 12% quarter over quarter. Earnings per share, adjusted for a one time charge related to its chip sales to China, came in at $0.96, rising 62%. While that's notable in its own right, it becomes even more impressive when viewed against the backdrop of triple digit comps. Management believes the company's growth streak will continue. For the second quarter, Nvidia is forecasting revenue of $45 billion, or growth of about 50%. However, given the company's history of issuing conservative guidance, the actual results will likely be higher. This history of financial success has propelled a meteoric rise in the stock price, which has gained 1,130% since early 2023, and has helped Nvidia become the world's first $4 trillion company, when measured by market cap. While the company's performance over the past few years has been nothing less than stunning, its track record is much longer. Over the past decade, Nvidia's stock has soared more than 30,000% (not a typo), driven higher by its consistently strong operational and financial results. There's also the matter of Nvidia's valuation. Despite the company's growth trajectory and history of success, the stock is selling for roughly 30 times next year's earnings, an attractive multiple given the magnitude of the opportunity. Taken together, its industry leadership, track record of innovations, visionary CEO, and large and growing market opportunity create a persuasive argument for owning Nvidia stock. Add to that the company's stunning financial performance and reasonable valuation, and it's easy to see why Nvidia would be the one stock to own if I could own just one. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>45885.02361111111</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Repon expects AI server demand to drive growth in 2H25 despite currency and tax challenges</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.digitimes.com/news/a20250814PD235/repon-ai-server-growth-demand-shipments.html</t>
+        </is>
+      </c>
+      <c r="E424" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr"/>
+      <c r="H424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>45885.02291666667</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Nvidia reportedly confirms Rubin AI chip launch timeline as AMD reveals 2026 server challenge</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.digitimes.com/news/a20250814VL206/nvidia-rubin-ai-chip-amd-launch.html</t>
+        </is>
+      </c>
+      <c r="E425" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr"/>
+      <c r="H425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>45884.79583333333</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>NVIDIA (NVDA) Stock Gets Bullish Call Amid U.S.-China Chip Agreement Reports</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142292/nvidia-nvda-stock-gets-bullish-call-amid-us-china-chip-agreement-reports</t>
+        </is>
+      </c>
+      <c r="E426" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the AI Stocks Investors Are Watching Closely. On August 12, Bank of America reiterated the stock as “Buy.” The firm said that it is sticking with the stock after reports of a favorable deal for Nvidia to receive chip export licenses.
+“Busy period of interactions between the US Government (USG)/White House (WH) and major US chipmakers. The critical nature of semis is likely to enhance these interactions that will continue to be both positive and a headwind/source of volatility. Recent news involves: 15% potential tax/levy on sales of specific AI chips in return for China approvals: a net positive and we maintain Buys on NVDA, AMD.”
+Analysts on Wall Street currently have a consensus “Buy” rating on the stock. The average price target of $190 implies a 5.10% upside; however, the Street-high target of $250 implies an upside of 38%.
+NVIDIA Corporation (NASDAQ:NVDA) specializes in AI-driven solutions, offering platforms for data centers, self-driving cars, robotics, and cloud services.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 10 AI Stocks Investors Are Watching Closely and 10 AI Stocks Analysts Are Watching Closely.
+Disclosure: None.</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the AI Stocks Investors Are Watching Closely. On August 12, Bank of America reiterated the stock as Buy. The firm said that it is sticking with the stock after reports of a favorable deal for Nvidia to receive chip export licenses. Busy period of interactions between the US Government (USG)/White House (WH) and major US chipmakers. The critical nature of semis is likely to enhance these interactions that will continue to be both positive and a headwind/source of volatility. Recent news involves: 15% potential tax/levy on sales of specific AI chips in return for China approvals: a net positive and we maintain Buys on NVDA, AMD. Analysts on Wall Street currently have a consensus Buy rating on the stock. The average price target of $190 implies a 5.10% upside; however, the Street high target of $250 implies an upside of 38%. NVIDIA Corporation (NASDAQ:NVDA) specializes in AI driven solutions, offering platforms for data centers, self driving cars, robotics, and cloud services. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 10 AI Stocks Investors Are Watching Closely and 10 AI Stocks Analysts Are Watching Closely. Disclosure: None.</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>45884.79513888889</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>5 Unstoppable "Ten Titans" Growth Stocks to Buy Now and Hold Through at Least 2030</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142300/5-unstoppable-ten-titans-growth-stocks-to-buy-now-and-hold-through-at-least-2030</t>
+        </is>
+      </c>
+      <c r="E427" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+The "Ten Titans" offer a more comprehensive list of top growth stocks than the "Magnificent Seven."
+Nvidia and Broadcom provide the building blocks of AI infrastructure.
+Microsoft, Alphabet, and Oracle are three exciting plays in cloud computing.
+The "Ten Titans" are the largest growth-focused U.S. companies by market cap -- consisting of Nvidia (NASDAQ: NVDA), Microsoft (NASDAQ: MSFT), Apple, Amazon, Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG), Meta Platforms, Broadcom (NASDAQ: AVGO), Tesla, Oracle (NYSE: ORCL), and Netflix.
+Combined, they make up over 37% of the S&amp;P 500, showcasing the top-heavy nature of the index and how just a handful of companies can move the market.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+If I could only buy and hold half of the Ten Titans through 2030, I'd go with Nvidia, Broadcom, Microsoft, Oracle, and Alphabet. Here's what separates these growth stocks from the rest of the pack.
+Image source: Getty Images.
+Nvidia and Broadcom both play crucial roles in the buildout of artificial intelligence (AI).
+Nvidia's graphics processing units, CUDA software platform, and associated infrastructure provide a full-scale AI ecosystem for data centers. Orders continue to pour in for Nvidia's chips as big tech companies ramp up capital expenditures to support AI models.
+Broadcom makes application-specific integrated circuits, which are AI accelerators that can perform specific functions. The company's latest customer accelerator (XPU) is its 3.5D eXtreme Dimension System in Package, which drastically cuts down on power consumption and boosts efficiency between components -- all within a smaller package size. Broadcom offers compute, memory, network, and packaging capabilities, giving customers a vertically integrated solution for AI at scale.
+Broadcom has a highly differentiated networking and infrastructure software business. In addition to AI accelerators, its semiconductor segment also offers a variety of solutions for enterprise clients, like broadband, wireless, storage, and more.
+Microsoft, Alphabet, and Oracle offer three distinctly different ways to invest in cloud computing.
+Microsoft Azure is the No. 2 cloud player behind Amazon Web Services. Azure is Microsoft's fastest-growing segment -- capitalizing on AI demand through cloud offerings specifically geared toward handling AI workloads. But what separates Microsoft from other cloud plays is the strength of the rest of its business. Copilot for Azure, the Microsoft 365 software suite, and GitHub continue to grow their active user base. Microsoft's revenue growth has accelerated, and profit margins are at their highest level in over a decade -- driving Microsoft's surging stock price.
+Alphabet's Google Cloud doesn't have as much market share as Azure, but it is growing quickly and becoming more profitable. But unlike Microsoft, where cloud is the centerpiece of the investment thesis, Google Cloud doesn't contribute nearly as much to Alphabet's bottom line as other services -- namely Google Search and YouTube.
+Alphabet stock has roared higher in recent months, but it's still arguably the best value of the Ten Titans.
+TSLA PE Ratio (Forward) data by YCharts
+While Google Search could see disruption from rival information resources like ChatGPT, it's worth noting that Google Gemini has gained significant traction in recent quarters -- showing Alphabet's ability to adapt.
+Oracle Cloud Infrastructure (OCI) is arguably the most exciting play in cloud computing right now. OCI is thriving due to its flexible structure, which leans on Oracle's established database ecosystem. It is best paired with Oracle databases and applications, with certain services not available on other clouds.
+Instead of going toe-to-toe with the "big three" cloud providers, Oracle partners with them by combining its database services with the AWS, Azure, and Google Cloud infrastructure. All told, Oracle is a top play in cloud computing because it offers its own vertically integrated suite of solutions, but also stands to benefit from the overall growth of the industry through its partnerships.
+Nvidia, Broadcom, Microsoft, Alphabet, and Oracle have all been phenomenal stocks -- crushing the S&amp;P 500 over the last five years. With the exception of Alphabet, outsized gains have made valuations expensive based on their trailing and forward earnings estimates, which may deter some investors from approaching these names.
+However, folks who are looking for top companies to buy and hold through at least 2030 will care more about where a company will be years from now than the next few quarters. The advantage of a longer investment time horizon is that you can give a company time to grow into its valuation. Nvidia, Broadcom, and Oracle are some of the most expensive of the Ten Titans, but they also have the most attractive runways for growth. Meanwhile, Microsoft and Alphabet have more reasonable valuations and multiple levers to pull for growing earnings for years to come.
+There are valid cases for buying all of the Ten Titans, but Nvidia, Broadcom, Microsoft, Alphabet, and Oracle truly stand out as the best of the best for long-term investors.
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.
+| 39 min | |
+| 1 hour | |
+| 2 hours | |
+| 2 hours | |
+| 3 hours | |
+| 4 hours | |
+| 4 hours | |
+| 4 hours | |
+| 7 hours | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>The "Ten Titans" offer a more comprehensive list of top growth stocks than the "Magnificent Seven." Nvidia and Broadcom provide the building blocks of AI infrastructure. Microsoft, Alphabet, and Oracle are three exciting plays in cloud computing. The "Ten Titans" are the largest growth focused U.S. companies by market cap consisting of Nvidia (NASDAQ: NVDA), Microsoft (NASDAQ: MSFT), Apple, Amazon, Alphabet (NASDAQ: GOOGL) (NASDAQ: GOOG), Meta Platforms, Broadcom (NASDAQ: AVGO), Tesla, Oracle (NYSE: ORCL), and Netflix. Combined, they make up over 37% of the S&amp;P 500, showcasing the top heavy nature of the index and how just a handful of companies can move the market. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue If I could only buy and hold half of the Ten Titans through 2030, I'd go with Nvidia, Broadcom, Microsoft, Oracle, and Alphabet. Here's what separates these growth stocks from the rest of the pack. Image source: Getty Images. Nvidia and Broadcom both play crucial roles in the buildout of artificial intelligence (AI). Nvidia's graphics processing units, CUDA software platform, and associated infrastructure provide a full scale AI ecosystem for data centers. Orders continue to pour in for Nvidia's chips as big tech companies ramp up capital expenditures to support AI models. Broadcom makes application specific integrated circuits, which are AI accelerators that can perform specific functions. The company's latest customer accelerator (XPU) is its 3.5D eXtreme Dimension System in Package, which drastically cuts down on power consumption and boosts efficiency between components all within a smaller package size. Broadcom offers compute, memory, network, and packaging capabilities, giving customers a vertically integrated solution for AI at scale. Broadcom has a highly differentiated networking and infrastructure software business. In addition to AI accelerators, its semiconductor segment also offers a variety of solutions for enterprise clients, like broadband, wireless, storage, and more. Microsoft, Alphabet, and Oracle offer three distinctly different ways to invest in cloud computing. Microsoft Azure is the No. 2 cloud player behind Amazon Web Services. Azure is Microsoft's fastest growing segment capitalizing on AI demand through cloud offerings specifically geared toward handling AI workloads. But what separates Microsoft from other cloud plays is the strength of the rest of its business. Copilot for Azure, the Microsoft 365 software suite, and GitHub continue to grow their active user base. Microsoft's revenue growth has accelerated, and profit margins are at their highest level in over a decade driving Microsoft's surging stock price. Alphabet's Google Cloud doesn't have as much market share as Azure, but it is growing quickly and becoming more profitable. But unlike Microsoft, where cloud is the centerpiece of the investment thesis, Google Cloud doesn't contribute nearly as much to Alphabet's bottom line as other services namely Google Search and YouTube. Alphabet stock has roared higher in recent months, but it's still arguably the best value of the Ten Titans. TSLA PE Ratio (Forward) data by YCharts While Google Search could see disruption from rival information resources like ChatGPT, it's worth noting that Google Gemini has gained significant traction in recent quarters showing Alphabet's ability to adapt. Oracle Cloud Infrastructure (OCI) is arguably the most exciting play in cloud computing right now. OCI is thriving due to its flexible structure, which leans on Oracle's established database ecosystem. It is best paired with Oracle databases and applications, with certain services not available on other clouds. Instead of going toe to toe with the "big three" cloud providers, Oracle partners with them by combining its database services with the AWS, Azure, and Google Cloud infrastructure. All told, Oracle is a top play in cloud computing because it offers its own vertically integrated suite of solutions, but also stands to benefit from the overall growth of the industry through its partnerships. Nvidia, Broadcom, Microsoft, Alphabet, and Oracle have all been phenomenal stocks crushing the S&amp;P 500 over the last five years. With the exception of Alphabet, outsized gains have made valuations expensive based on their trailing and forward earnings estimates, which may deter some investors from approaching these names. However, folks who are looking for top companies to buy and hold through at least 2030 will care more about where a company will be years from now than the next few quarters. The advantage of a longer investment time horizon is that you can give a company time to grow into its valuation. Nvidia, Broadcom, and Oracle are some of the most expensive of the Ten Titans, but they also have the most attractive runways for growth. Meanwhile, Microsoft and Alphabet have more reasonable valuations and multiple levers to pull for growing earnings for years to come. There are valid cases for buying all of the Ten Titans, but Nvidia, Broadcom, Microsoft, Alphabet, and Oracle truly stand out as the best of the best for long term investors. Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Daniel Foelber has positions in Nvidia. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Meta Platforms, Microsoft, Netflix, Nvidia, Oracle, and Tesla. The Motley Fool recommends Broadcom and recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. 39 min 1 hour 2 hours 2 hours 3 hours 4 hours 4 hours 4 hours 7 hours Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>45884.75347222222</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Nvidia, AMD Agree to 15% Export Levy on China AI Chips</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-agree-15-export-220517787.html</t>
+        </is>
+      </c>
+      <c r="E428" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>45884.74097222222</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Cohere Scores $500 Million as IPO Talk Heats Up</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-scores-500-million-ipo-214706278.html</t>
+        </is>
+      </c>
+      <c r="E429" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>45884.67777777778</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Trump Wants To Make Intel Great Again. What That Means For TSMC.</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/6dc7f034-8f61-3b3d-955d-3a50b01945af/trump-wants-to-make-intel.html</t>
+        </is>
+      </c>
+      <c r="E430" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr"/>
+      <c r="H430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>45884.66666666666</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Insatiable Demand For AI Data Centers - And Space - Fuels This Stock</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.investors.com/research/ibd-stock-analysis/micron-stock-ai-data-centers-space-exploration?mod=IBD_FV</t>
+        </is>
+      </c>
+      <c r="E431" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>45884.61666666667</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Dear Marvell Stock Fans, Mark Your Calendars for August 28</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr"/>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/75569d9b-a755-3b40-9ffe-1dc6015936fc/dear-marvell-stock-fans%2C-mark.html</t>
+        </is>
+      </c>
+      <c r="E432" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr"/>
+      <c r="H432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>45884.61597222222</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Billionaire fund manager doubles down on Nvidia, partner in AI stack shift</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/874808b0-c2be-37fa-8f9b-749d586597da/billionaire-fund-manager.html</t>
+        </is>
+      </c>
+      <c r="E433" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>45884.60555555556</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Jim Cramer Insists There Are No Backdoors In NVIDIA Corporation (NVDA)'s Chips</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142198/jim-cramer-insists-there-are-no-backdoors-in-nvidia-corporation-nvdas-chips</t>
+        </is>
+      </c>
+      <c r="E434" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>We recently published 10 Stocks Jim Cramer Discussed As He Questioned Official Data. NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed.
+The latest controversy surrounding NVIDIA Corporation (NASDAQ:NVDA) involves reports claiming that the Chinese government is asking local companies not to rely on the firm’s chips. These concerns stem from worries about potential backdoors and about becoming too reliant on American hardware. Cramer discussed the reports in detail:
+“[On reports of Chinese authorities looking to stop companies from buying the H20 AI GPUs] They can go open, they can have Jensen Huang go over there and have him rip open one of those things. There’s nothing. I mean, look you either trust Jensen or you don’t. I trust Jensen just because he has to give the government 15%. I mean he has said, listen we don’t have tracking. So, therefore, I am a believer in him. I don’t want to actually believe, believe it or not, the PRC. I actually don’t know if the PRC is all that reliable. Not like the BLS, I mean it’s different. BLS doesn’t have a chance, they’re very strapped, they’re tired, they’re poor, they’re huddled masses. . .but this, you know why this is not right? Because they don’t have anything that’s as good as the H20. If you wanna go do something that’s like on one of these versions of Intel, that got Pat Gelsinger fired. . . .
+“Yes you can [run inferences on it] and what I’m telling you is that the government was very hot to get these. So now the government’s not because they’re tracking, there is no tracking. There’s no tracking. We can believe their nonsense but there’s no tracking. I’ve heard all day, well because of the tracking. Okay so Jensen Huang is. therefore what? He’s clueless?
+Photo by
+Javier Esteban on
+Unsplash
+“[On The Information’s report saying Chinese big tech has been told by the government to not buy NVIDIA chips] I rely on The Information, you’re [David Faber] a legendary Wall Street funny man.They got you out of NVIDIA, as much as I got you into NVIDIA, they got you out of NVIDIA. Who has the cards? . . .I’m trying to get people to say, maybe before I sell NVIDIA because of all these different stories, maybe the stories maybe propaganda? I think we have every right to question, in a period where The Information has attacked NVIDIA twice. They’ll say we didn’t attack, we reported. Perhaps our reporting was not as strong. That’s okay. You can say whatever you want in this business and that’s exactly the problem.”
+While we acknowledge the potential of NVDA as an investment, our conviction lies in the belief that some AI stocks hold greater promise for delivering higher returns and have limited downside risk. If you are looking for an extremely cheap AI stock that is also a major beneficiary of Trump tariffs and onshoring, see our free report on the best short-term AI stock.
+READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>We recently published 10 Stocks Jim Cramer Discussed As He Questioned Official Data. NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed. The latest controversy surrounding NVIDIA Corporation (NASDAQ:NVDA) involves reports claiming that the Chinese government is asking local companies not to rely on the firms chips. These concerns stem from worries about potential backdoors and about becoming too reliant on American hardware. Cramer discussed the reports in detail: [On reports of Chinese authorities looking to stop companies from buying the H20 AI GPUs] They can go open, they can have Jensen Huang go over there and have him rip open one of those things. Theres nothing. I mean, look you either trust Jensen or you dont. I trust Jensen just because he has to give the government 15%. I mean he has said, listen we dont have tracking. So, therefore, I am a believer in him. I dont want to actually believe, believe it or not, the PRC. I actually dont know if the PRC is all that reliable. Not like the BLS, I mean its different. BLS doesnt have a chance, theyre very strapped, theyre tired, theyre poor, theyre huddled masses. . .but this, you know why this is not right? Because they dont have anything thats as good as the H20. If you wanna go do something thats like on one of these versions of Intel, that got Pat Gelsinger fired. . . . Yes you can [run inferences on it] and what Im telling you is that the government was very hot to get these. So now the governments not because theyre tracking, there is no tracking. Theres no tracking. We can believe their nonsense but theres no tracking. Ive heard all day, well because of the tracking. Okay so Jensen Huang is. therefore what? Hes clueless? Photo by Javier Esteban on Unsplash [On The Informations report saying Chinese big tech has been told by the government to not buy NVIDIA chips] I rely on The Information, youre [David Faber] a legendary Wall Street funny man.They got you out of NVIDIA, as much as I got you into NVIDIA, they got you out of NVIDIA. Who has the cards? . . .Im trying to get people to say, maybe before I sell NVIDIA because of all these different stories, maybe the stories maybe propaganda? I think we have every right to question, in a period where The Information has attacked NVIDIA twice. Theyll say we didnt attack, we reported. Perhaps our reporting was not as strong. Thats okay. You can say whatever you want in this business and thats exactly the problem. While we acknowledge the potential of NVDA as an investment, our conviction lies in the belief that some AI stocks hold greater promise for delivering higher returns and have limited downside risk. If you are looking for an extremely cheap AI stock that is also a major beneficiary of Trump tariffs and onshoring, see our free report on the best short term AI stock. READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>45884.59097222222</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>If You'd Invested $500 in The Trade Desk Stock 5 Years Ago, Here's How Much You'd Have Today</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142196/if-youd-invested-500-in-the-trade-desk-stock-5-years-ago-heres-how-much-youd-have-today</t>
+        </is>
+      </c>
+      <c r="E435" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>Key Points
+The Trade Desk's stock is pretty much back where it was five years ago.
+The business results are strong, but forward-looking guidance points to a modest slowdown.
+At 9 times sales, The Trade Desk trades at a fraction of its former nosebleed valuations while maintaining strong fundamentals.
+Digital advertising veteran The Trade Desk (NASDAQ: TTD) used to be hot stuff. In early December 2024, the stock had posted a market-stomping 156% gain in two years. The stock traded at market-darling valuation multiples such as 134 times free cash flow and 30 times sales. The Trade Desk made mighty Nvidia's (NASDAQ: NVDA) stock look affordable by comparison.
+But things have changed.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+The Trade Desk's recent earnings reports have been robust, but they were accompanied by a sobering market analysis and modest forward-looking guidance. The brutal market reaction wiped out several years of The Trade Desk's investor gains.
+So if you invested $500 in The Trade Desk five years ago, that position would be worth just $576 today:
+TTD Total Return Level data by YCharts
+The S&amp;P 500 (SNPINDEX: ^GSPC) market index more than doubled over the same period, in terms of total returns. That's an above-average compound annual growth rate (CAGR) of 15.6% versus The Trade Desk's anemic 2.9%.
+Image source: Getty Images.
+Silver lining of the reality check
+These days, you can buy The Trade Desk's stock at a less outrageous valuation of 33 times free cash flow and 9 times sales. If the stock price doubled today, the shares would still carry lower valuation multiples than Nvidia's 62 times free cash flow and 30 times sales.
+Mind you, The Trade Desk is still far from a deep-discount value stock. These multiples are appropriate for a fast-growing business addressing a large target market.
+And I would argue that The Trade Desk fits that description. Its sales have been soaring for years, and free cash flows are richer than ever:
+TTD Revenue (TTM) data by YCharts
+The company's near-term outlook has been less bullish in recent quarters, but management still expects roughly 14% sales growth in the third-quarter report. This growth story is far from over. The 2025 stock price cuts simply made this top-notch company more affordable.
+Should you invest $1,000 in The Trade Desk right now?
+Before you buy stock in The Trade Desk, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and The Trade Desk wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Anders Bylund has positions in Nvidia and The Trade Desk. The Motley Fool has positions in and recommends Nvidia and The Trade Desk. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>Key Points The Trade Desk's stock is pretty much back where it was five years ago. The business results are strong, but forward looking guidance points to a modest slowdown. At 9 times sales, The Trade Desk trades at a fraction of its former nosebleed valuations while maintaining strong fundamentals. Digital advertising veteran The Trade Desk (NASDAQ: TTD) used to be hot stuff. In early December 2024, the stock had posted a market stomping 156% gain in two years. The stock traded at market darling valuation multiples such as 134 times free cash flow and 30 times sales. The Trade Desk made mighty Nvidia's (NASDAQ: NVDA) stock look affordable by comparison. But things have changed. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue The Trade Desk's recent earnings reports have been robust, but they were accompanied by a sobering market analysis and modest forward looking guidance. The brutal market reaction wiped out several years of The Trade Desk's investor gains. So if you invested $500 in The Trade Desk five years ago, that position would be worth just $576 today: TTD Total Return Level data by YCharts The S&amp;P 500 (SNPINDEX: ^GSPC) market index more than doubled over the same period, in terms of total returns. That's an above average compound annual growth rate (CAGR) of 15.6% versus The Trade Desk's anemic 2.9%. Image source: Getty Images. Silver lining of the reality check These days, you can buy The Trade Desk's stock at a less outrageous valuation of 33 times free cash flow and 9 times sales. If the stock price doubled today, the shares would still carry lower valuation multiples than Nvidia's 62 times free cash flow and 30 times sales. Mind you, The Trade Desk is still far from a deep discount value stock. These multiples are appropriate for a fast growing business addressing a large target market. And I would argue that The Trade Desk fits that description. Its sales have been soaring for years, and free cash flows are richer than ever: TTD Revenue (TTM) data by YCharts The company's near term outlook has been less bullish in recent quarters, but management still expects roughly 14% sales growth in the third quarter report. This growth story is far from over. The 2025 stock price cuts simply made this top notch company more affordable. Should you invest $1,000 in The Trade Desk right now? Before you buy stock in The Trade Desk, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and The Trade Desk wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Anders Bylund has positions in Nvidia and The Trade Desk. The Motley Fool has positions in and recommends Nvidia and The Trade Desk. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>45884.58263888889</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>INTC: Intel Jumps on Reports of White House Investment in Ohio Factory</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/intc-intel-jumps-reports-white-175929817.html</t>
+        </is>
+      </c>
+      <c r="E436" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr"/>
+      <c r="H436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>45884.56458333333</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Billionaire Family Offices Join Berkshires UnitedHealth Bet</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/billionaire-family-offices-join-berkshire-173329643.html</t>
+        </is>
+      </c>
+      <c r="E437" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>45884.56319444445</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>NVDA: Chip Stocks Tumbles After Tariff Warning Triggers Sector Selloff</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvda-chip-stocks-tumbles-tariff-173136118.html</t>
+        </is>
+      </c>
+      <c r="E438" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>45884.55347222222</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Billionaire George Soros supercharges Nvidia stake, loads up on AI plays</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/3d8524f4-7f7e-33fb-afb8-e423bcd7c678/billionaire-george-soros.html</t>
+        </is>
+      </c>
+      <c r="E439" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>45884.54166666666</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Quantum Stocks Q2 2025: Are D-Wave, IonQ &amp; Rigetti Funding the Future?</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142176/quantum-stocks-q2-2025-are-d-wave-ionq-rigetti-funding-the-future</t>
+        </is>
+      </c>
+      <c r="E440" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>As second-quarter 2025 earnings rolled in, three pure-play quantum computing companies, D-Wave Quantum QBTS, Rigetti Computing RGTI and IonQ IONQ, offered a snapshot of an industry that moves at light speed but still sees profitability as a distant horizon. The trio’s results revealed a common storyline, strong sales, bigger losses and huge cash reserves to fund the next big step in quantum computing.
+D-Wave
+D-Wave Quantum’s second-quarter 2025 revenues rose 42% year over year, driven by Advantage2 quantum processing unit sales, including the system installed at Julich Supercomputing Center earlier this year. The company expanded its customer base with contracts from GE Vernova, Nikon and NTT DOCOMO, and strengthened global ties through partnerships in South Korea.
+Technological progress included an open-source PyTorch toolkit and quantum-assisted image generation demos. Collaborating with NASA’s Jet Propulsion Laboratory on advanced cryogenic packaging, D-Wave aims to accelerate its push toward a 100,000-qubit system, reinforcing its leadership in annealing quantum computing while broadening its international footprint.
+Financially, the company ended the quarter with a record $819.3 million in cash—an over 1,900% year-over-year increase driven by a $400 million at-the-market equity raise, warrant exercises and credit facility proceeds. Gross profit grew 42%, while adjusted EBITDA loss widened 44% year over year due to higher operating expenses from aggressive R&amp;D and market expansion efforts. With strong liquidity, an expanding enterprise pipeline and parallel development in both annealing and gate-model architectures, D-Wave signaled that it is prepared to invest heavily in scaling technology and pursuing strategic acquisitions, while maintaining its ambition to be the first independent public quantum computing firm to achieve sustained profitability.
+IonQ
+IonQ delivered a standout second-quarter 2025, with revenues coming in 15% above the top end of guidance, reflecting accelerating commercial traction across quantum computing and networking. The company’s momentum was underpinned by high-profile partnerships, including a landmark $22 million deal to build America’s first commercial quantum hub with utility leader EPB, and a 20x performance speed-up in quantum-accelerated drug development alongside AstraZeneca AZN, AWS and NVIDIA NVDA. However, the aggressive push into R&amp;D, strategic acquisitions and talent expansion incurred steep costs. IonQ reported a net loss of $177.5 million and an adjusted EBITDA loss of $36.5 million for the quarter.
+Despite being in the red, IonQ now commands one of the strongest balance sheets in the quantum sector, closing a $1 billion equity investment, priced at a premium that boosted its pro forma cash position to $1.6 billion as of July 2025. This war chest gives the company ample runway to execute on its roadmap, including integrating Oxford Ionics’ ion-trap-on-a-chip technology and scaling toward 800 logical qubits by 2027 and 80,000 by 2030. With acquisitions like Lightsynq and Capella expanding its reach into photonic interconnects and space-based quantum key distribution, IonQ is positioning itself to lead the next leap in computing power while fortifying its role in the future quantum Internet.
+Rigetti
+Rigetti Computing’s second-quarter 2025 revenues reflected sequential growth but declined year over year due to the expiration of the U.S. National Quantum Initiative and delays in its reauthorization. Gross margin narrowed to 31% from 64% a year earlier, primarily due to revenue mix and lower-margin development contracts. The company incurred an operating loss and a net loss in the quarter, the latter impacted by non-cash losses tied to changes in derivative warrant and earn-out liabilities.
+Management reiterated that hitting technology milestones remains central to its long-term profitability path, with Quantum Advantage targeted in roughly four years through scaling qubit counts, improving gate fidelity and advancing error correction.
+On a positive note, the company’s balance sheet is notably fortified, following the completion of a $350 million equity raise during the quarter, bringing total cash, cash equivalents and available-for-sale investments to $571.6 million as of June 30, 2025, with no debt. This sizable war chest provides ample runway to fund R&amp;D, scale commercial operations and potentially pursue strategic collaborations or acquisitions. Rigetti intends to leverage its proprietary chiplet-based superconducting qubit technology to reach a 100-plus qubit system with 99.5% median two-qubit gate fidelity by year-end 2025, an important step on the roadmap toward fault tolerance and eventual commercial-grade quantum computing profitability.
+Conclusion
+Taken together, revenues are rising and technology is advancing, but cash burn is heavy and profitability is far off for these three stocks. In this race, massive cash reserves are the fuel, and the first one to deliver scalable, commercially viable quantum systems will be the winner.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+AstraZeneca PLC (AZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report IonQ, Inc. (IONQ): Free Stock Analysis Report Rigetti Computing, Inc. (RGTI): Free Stock Analysis Report D-Wave Quantum Inc. (QBTS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>As second quarter 2025 earnings rolled in, three pure play quantum computing companies, D Wave Quantum QBTS, Rigetti Computing RGTI and IonQ IONQ, offered a snapshot of an industry that moves at light speed but still sees profitability as a distant horizon. The trios results revealed a common storyline, strong sales, bigger losses and huge cash reserves to fund the next big step in quantum computing. D Wave D Wave Quantums second quarter 2025 revenues rose 42% year over year, driven by Advantage2 quantum processing unit sales, including the system installed at Julich Supercomputing Center earlier this year. The company expanded its customer base with contracts from GE Vernova, Nikon and NTT DOCOMO, and strengthened global ties through partnerships in South Korea. Technological progress included an open source PyTorch toolkit and quantum assisted image generation demos. Collaborating with NASAs Jet Propulsion Laboratory on advanced cryogenic packaging, D Wave aims to accelerate its push toward a 100,000 qubit system, reinforcing its leadership in annealing quantum computing while broadening its international footprint. Financially, the company ended the quarter with a record $819.3 million in cashan over 1,900% year over year increase driven by a $400 million at the market equity raise, warrant exercises and credit facility proceeds. Gross profit grew 42%, while adjusted EBITDA loss widened 44% year over year due to higher operating expenses from aggressive R&amp;D and market expansion efforts. With strong liquidity, an expanding enterprise pipeline and parallel development in both annealing and gate model architectures, D Wave signaled that it is prepared to invest heavily in scaling technology and pursuing strategic acquisitions, while maintaining its ambition to be the first independent public quantum computing firm to achieve sustained profitability. IonQ IonQ delivered a standout second quarter 2025, with revenues coming in 15% above the top end of guidance, reflecting accelerating commercial traction across quantum computing and networking. The companys momentum was underpinned by high profile partnerships, including a landmark $22 million deal to build Americas first commercial quantum hub with utility leader EPB, and a 20x performance speed up in quantum accelerated drug development alongside AstraZeneca AZN, AWS and NVIDIA NVDA. However, the aggressive push into R&amp;D, strategic acquisitions and talent expansion incurred steep costs. IonQ reported a net loss of $177.5 million and an adjusted EBITDA loss of $36.5 million for the quarter. Despite being in the red, IonQ now commands one of the strongest balance sheets in the quantum sector, closing a $1 billion equity investment, priced at a premium that boosted its pro forma cash position to $1.6 billion as of July 2025. This war chest gives the company ample runway to execute on its roadmap, including integrating Oxford Ionics ion trap on a chip technology and scaling toward 800 logical qubits by 2027 and 80,000 by 2030. With acquisitions like Lightsynq and Capella expanding its reach into photonic interconnects and space based quantum key distribution, IonQ is positioning itself to lead the next leap in computing power while fortifying its role in the future quantum Internet. Rigetti Rigetti Computings second quarter 2025 revenues reflected sequential growth but declined year over year due to the expiration of the U.S. National Quantum Initiative and delays in its reauthorization. Gross margin narrowed to 31% from 64% a year earlier, primarily due to revenue mix and lower margin development contracts. The company incurred an operating loss and a net loss in the quarter, the latter impacted by non cash losses tied to changes in derivative warrant and earn out liabilities. Management reiterated that hitting technology milestones remains central to its long term profitability path, with Quantum Advantage targeted in roughly four years through scaling qubit counts, improving gate fidelity and advancing error correction. On a positive note, the companys balance sheet is notably fortified, following the completion of a $350 million equity raise during the quarter, bringing total cash, cash equivalents and available for sale investments to $571.6 million as of June 30, 2025, with no debt. This sizable war chest provides ample runway to fund R&amp;D, scale commercial operations and potentially pursue strategic collaborations or acquisitions. Rigetti intends to leverage its proprietary chiplet based superconducting qubit technology to reach a 100 plus qubit system with 99.5% median two qubit gate fidelity by year end 2025, an important step on the roadmap toward fault tolerance and eventual commercial grade quantum computing profitability. Conclusion Taken together, revenues are rising and technology is advancing, but cash burn is heavy and profitability is far off for these three stocks. In this race, massive cash reserves are the fuel, and the first one to deliver scalable, commercially viable quantum systems will be the winner. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report AstraZeneca PLC (AZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report IonQ, Inc. (IONQ): Free Stock Analysis Report Rigetti Computing, Inc. (RGTI): Free Stock Analysis Report D Wave Quantum Inc. (QBTS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>45884.54097222222</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Nvidia, AMD Price Targets Raised As AI Demand Keeps Roaring</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-amd-price-targets-raised-165957508.html</t>
+        </is>
+      </c>
+      <c r="E441" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>45884.54027777778</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Nvidia CEO Jensen Huang Cashes In as Stock Runs Hot</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-ceo-jensen-huang-cashes-165832406.html</t>
+        </is>
+      </c>
+      <c r="E442" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>45884.52013888889</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Iren Limited: An AI, Crypto and Cloud Computing Stock</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142162/iren-limited-an-ai-crypto-and-cloud-computing-stock</t>
+        </is>
+      </c>
+      <c r="E443" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>Every so often, I come across a stock in my research that checks nearly every box I look for: innovation, growth, strong fundamentals, and technical momentum. Iren Limited (IREN) is one of those rare finds. The company sits at the intersection of three of the most exciting technology trends, artificial intelligence, cryptocurrency, and cloud computing, while also boasting a top Zacks Rank, a reasonable valuation, and strong price momentum.
+While 2025 has been volatile for the stock, IREN has proven resilient, climbing an impressive 93% year-to-date. The recent price action suggests a period of healthy consolidation, setting the stage for a potential breakout to new highs.
+Iren Limited operates next-generation, vertically integrated data centers built for AI, crypto mining, and high-performance cloud workloads entirely powered by renewable energy. Founded in 2018 and headquartered in Sydney, Iren operates large-scale, grid-connected facilities across North America, delivering scalable, energy efficient compute infrastructure in the rapidly growing AI and blockchain space.
+While stocks like Nvidia (NVDA) and Vertiv (VRT) are well known ways to invest in the AI space, these companies are mammoth compared to Iren. For investors looking to play the trend in a considerably smaller market cap than Nvidia and Vertiv, Iren Limited may be worth considering.
+Image Source: Zacks Investment ResearchShares of IREN Appear Fundamentally Robust
+Iren Limited has a lot going for it from a fundamental perspective. Over the past two months, analysts have made substantial upward revisions to the company’s earnings forecasts. Current quarter estimates have been raised by 31%, while FY25 projections have surged 134%, earning the stock a Zacks Rank #2 (Buy) rating.
+Revenue growth expectations are equally impressive. Sales are projected to soar 173% this year to roughly $515 million, and then climb another 86% next year to approach $960 million. This pace of expansion underscores the company’s ability to capitalize on its positioning in AI, crypto, and cloud computing.
+Even with such explosive growth on the horizon, IREN trades at a forward earnings multiple of just 16.6x, a valuation that looks very attractive given its momentum, earnings revisions, and sector tailwinds.
+Image Source: Zacks Investment ResearchIren Limited Stock Poised to Break Out
+The technical setup for IREN is extremely compelling. After a powerful rally off its April lows, climbing more than 250%, the stock has spent the past six weeks forming a large, orderly consolidation pattern. This kind of pause often serves as the launchpad for the next leg higher in a strong trend.
+Currently, shares are hovering just beneath a key resistance level around $19.15. A decisive move and close above that threshold would confirm a technical breakout, potentially triggering fresh momentum buying and fueling another major bull run. With the stock’s strong underlying trend and favorable fundamental backdrop, a breakout could set the stage for significant upside in the weeks ahead.
+Image Source: TradingViewShould Investors Buy Shares in IREN?
+In a market where giants like Nvidia and Vertiv dominate the AI and data center headlines, Iren Limited offers a smaller, faster-growing player with explosive upside potential. Its unique combination of renewable powered, high-performance compute infrastructure positions it to capture growth across AI, crypto, and cloud computing without the valuation premium of its larger peers.
+With upward trending earnings revisions, massive projected revenue growth, a reasonable valuation, and a textbook technical setup on the verge of a breakout, IREN is emerging as a high conviction idea for growth-oriented investors. If the stock can push through resistance, the next leg higher could be substantial.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+NVIDIA Corporation (NVDA): Free Stock Analysis Report Vertiv Holdings Co. (VRT): Free Stock Analysis Report IREN Limited (IREN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>Every so often, I come across a stock in my research that checks nearly every box I look for: innovation, growth, strong fundamentals, and technical momentum. Iren Limited (IREN) is one of those rare finds. The company sits at the intersection of three of the most exciting technology trends, artificial intelligence, cryptocurrency, and cloud computing, while also boasting a top Zacks Rank, a reasonable valuation, and strong price momentum. While 2025 has been volatile for the stock, IREN has proven resilient, climbing an impressive 93% year to date. The recent price action suggests a period of healthy consolidation, setting the stage for a potential breakout to new highs. Iren Limited operates next generation, vertically integrated data centers built for AI, crypto mining, and high performance cloud workloads entirely powered by renewable energy. Founded in 2018 and headquartered in Sydney, Iren operates large scale, grid connected facilities across North America, delivering scalable, energy efficient compute infrastructure in the rapidly growing AI and blockchain space. While stocks like Nvidia (NVDA) and Vertiv (VRT) are well known ways to invest in the AI space, these companies are mammoth compared to Iren. For investors looking to play the trend in a considerably smaller market cap than Nvidia and Vertiv, Iren Limited may be worth considering. Image Source: Zacks Investment ResearchShares of IREN Appear Fundamentally Robust Iren Limited has a lot going for it from a fundamental perspective. Over the past two months, analysts have made substantial upward revisions to the companys earnings forecasts. Current quarter estimates have been raised by 31%, while FY25 projections have surged 134%, earning the stock a Zacks Rank #2 (Buy) rating. Revenue growth expectations are equally impressive. Sales are projected to soar 173% this year to roughly $515 million, and then climb another 86% next year to approach $960 million. This pace of expansion underscores the companys ability to capitalize on its positioning in AI, crypto, and cloud computing. Even with such explosive growth on the horizon, IREN trades at a forward earnings multiple of just 16.6x, a valuation that looks very attractive given its momentum, earnings revisions, and sector tailwinds. Image Source: Zacks Investment ResearchIren Limited Stock Poised to Break Out The technical setup for IREN is extremely compelling. After a powerful rally off its April lows, climbing more than 250%, the stock has spent the past six weeks forming a large, orderly consolidation pattern. This kind of pause often serves as the launchpad for the next leg higher in a strong trend. Currently, shares are hovering just beneath a key resistance level around $19.15. A decisive move and close above that threshold would confirm a technical breakout, potentially triggering fresh momentum buying and fueling another major bull run. With the stocks strong underlying trend and favorable fundamental backdrop, a breakout could set the stage for significant upside in the weeks ahead. Image Source: TradingViewShould Investors Buy Shares in IREN? In a market where giants like Nvidia and Vertiv dominate the AI and data center headlines, Iren Limited offers a smaller, faster growing player with explosive upside potential. Its unique combination of renewable powered, high performance compute infrastructure positions it to capture growth across AI, crypto, and cloud computing without the valuation premium of its larger peers. With upward trending earnings revisions, massive projected revenue growth, a reasonable valuation, and a textbook technical setup on the verge of a breakout, IREN is emerging as a high conviction idea for growth oriented investors. If the stock can push through resistance, the next leg higher could be substantial. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report NVIDIA Corporation (NVDA): Free Stock Analysis Report Vertiv Holdings Co. (VRT): Free Stock Analysis Report IREN Limited (IREN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>45884.51875</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Trump aides create loyalty list ranking corporations by support</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/trump-aides-create-loyalty-list-162746725.html</t>
+        </is>
+      </c>
+      <c r="E444" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>45884.50347222222</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Politics Beats the Market in Trump's Pay-for-Play Chip Scheme</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr"/>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/politics-beats-the-market-in-trumps-pay-for-play-chip-scheme-f57ef41d?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E445" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr"/>
+      <c r="H445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>45884.50347222222</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Intel's Move Toward Nationalization Won't Work-at Least for the Long Haul</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.wsj.com/tech/intels-move-toward-nationalization-wont-workat-least-for-the-long-haul-de403b16?mod=wsj_FV</t>
+        </is>
+      </c>
+      <c r="E446" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>45884.48611111111</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>The Zacks Analyst Blog Highlights Intel, NVIDIA, AMD and Cadence Design Systems</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142097/the-zacks-analyst-blog-highlights-intel-nvidia-amd-and-cadence-design-systems</t>
+        </is>
+      </c>
+      <c r="E447" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Chicago, IL – August 15, 2025 – Zacks.com announces the list of stocks featured in the Analyst Blog. Every day the Zacks Equity Research analysts discuss the latest news and events impacting stocks and the financial markets. Stocks recently featured in the blog include: Intel Corp. INTC, NVIDIA Corp. NVDA, Advanced Micro Devices, Inc. AMD and Cadence Design Systems, Inc. CDNS.
+Here are highlights from Thursday’s Analyst Blog:
+Intel Corp. has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corp. and Advanced Micro Devices, Inc. in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trump's inconsistent stance on Intel CEO has drawn investors' interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Let's see –
+Last month, Cadence Design Systems, Inc. acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intel's current CEO, Lip-Bu Tan, was leading Cadence.
+Trump learned of Cotton's letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cotton's letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals.
+In reaction, Trump commended Tan's achievements, referring to his success and ascent as an "amazing story." Trump also endorsed Tan's leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Let's not forget, Tan is a well-known venture capitalist, respected for his expertise in the semiconductor industry.
+Intel's business has been struggling for quite some time. Despite Tan's initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year-ago levels.
+Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. It's worse than the $2.8 billion loss that the segment posted a year ago.
+Intel's gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short-term investments accounted for only $21.2 billion.
+However, under Tan's strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio.
+Intel is planning to provide a full-stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node.
+While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the company's business. In time, the semiconductor giant has the potential to regain its former glory.
+Trump's support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intel's price-to-book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future.
+However, new investors should remain passive and watch for meaningful progress. This is because it's too early to predict the potential success of Tan's initiatives, and Intel's financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of today's Zacks Rank #1 (Strong Buy) stocks here.
+Free: Instant Access to Zacks' Market-Crushing Strategies
+Since 2000, our top stock-picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year.
+Today you can tap into those powerful strategies – and the high-potential stocks they uncover – free. No strings attached.
+Get all the details here &gt;&gt;
+Media Contact
+Zacks Investment Research
+800-767-3771 ext. 9339
+https://www.zacks.com
+Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit https://www.zacks.com/performance for information about the performance numbers displayed in this press release.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+This article originally published on Zacks Investment Research (zacks.com).
+| 40 min | |
+| 1 hour | |
+| 2 hours | |
+| 3 hours | |
+| 4 hours | |
+| 4 hours | |
+| 7 hours | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>Chicago, IL August 15, 2025 Zacks.com announces the list of stocks featured in the Analyst Blog. Every day the Zacks Equity Research analysts discuss the latest news and events impacting stocks and the financial markets. Stocks recently featured in the blog include: Intel Corp. INTC, NVIDIA Corp. NVDA, Advanced Micro Devices, Inc. AMD and Cadence Design Systems, Inc. CDNS. Here are highlights from Thursdays Analyst Blog: Intel Corp. has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corp. and Advanced Micro Devices, Inc. in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trump's inconsistent stance on Intel CEO has drawn investors' interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Let's see Last month, Cadence Design Systems, Inc. acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intel's current CEO, Lip Bu Tan, was leading Cadence. Trump learned of Cotton's letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cotton's letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals. In reaction, Trump commended Tan's achievements, referring to his success and ascent as an "amazing story." Trump also endorsed Tan's leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Let's not forget, Tan is a well known venture capitalist, respected for his expertise in the semiconductor industry. Intel's business has been struggling for quite some time. Despite Tan's initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year ago levels. Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. It's worse than the $2.8 billion loss that the segment posted a year ago. Intel's gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short term investments accounted for only $21.2 billion. However, under Tan's strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio. Intel is planning to provide a full stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node. While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the company's business. In time, the semiconductor giant has the potential to regain its former glory. Trump's support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intel's price to book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future. However, new investors should remain passive and watch for meaningful progress. This is because it's too early to predict the potential success of Tan's initiatives, and Intel's financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of today's Zacks Rank #1 (Strong Buy) stocks here. Free: Instant Access to Zacks' Market Crushing Strategies Since 2000, our top stock picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year. Today you can tap into those powerful strategies and the high potential stocks they uncover free. No strings attached. Get all the details here &gt;&gt; Media Contact Zacks Investment Research 800 767 3771 ext. 9339 Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit for information about the performance numbers displayed in this press release. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report This article originally published on Zacks Investment Research (zacks.com). 40 min 1 hour 2 hours 3 hours 4 hours 4 hours 7 hours Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>45884.47916666666</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>China is Pushing Back Against Biggest Firms Using Nvidia Chips Despite Trump Clearing H20 AI Chips for Export</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/0a04f585-44f3-32cd-ac0a-41894f4d485f/china-is-pushing-back-against.html</t>
+        </is>
+      </c>
+      <c r="E448" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr"/>
+      <c r="H448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>45884.46944444445</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>What AMD and Nvidia Shareholders Should Know About Recent China Updates</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142031/what-amd-and-nvidia-shareholders-should-know-about-recent-china-updates</t>
+        </is>
+      </c>
+      <c r="E449" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA) and Advanced Micro Devices (NASDAQ: AMD). To learn more, check out the short video, consider subscribing, and click the special offer link below.
+*Stock prices used were the after-market prices of Aug. 12, 2025. The video was published on Aug. 12, 2025.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $663,630!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,115,695!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,071% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Jose Najarro has positions in Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA) and Advanced Micro Devices (NASDAQ: AMD). To learn more, check out the short video, consider subscribing, and click the special offer link below. Stock prices used were the after market prices of Aug. 12, 2025. The video was published on Aug. 12, 2025. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $663,630! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,115,695! Now, its worth noting Stock Advisors total average return is 1,071% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Jose Najarro has positions in Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices, Alphabet, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>45884.46180555555</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Lee Ainslie's Strategic Moves: A Closer Look at The Walt Disney Co's 2.81% Portfolio Impact</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/lee-ainslies-strategic-moves-closer-150531631.html</t>
+        </is>
+      </c>
+      <c r="E450" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr"/>
+      <c r="H450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>45884.45763888889</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Zacks Investment Ideas feature highlights: Fabrinet, Nvidia and Amazon</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr"/>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/142053/zacks-investment-ideas-feature-highlights-fabrinet-nvidia-and-amazon</t>
+        </is>
+      </c>
+      <c r="E451" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>For Immediate Release
+Chicago, IL – August 15, 2025– Today, Zacks Investment Ideas feature highlights Fabrinet FN, Nvidia NVDA and Amazon AMZN.
+Buy This Soaring Tech Stock Before Earnings for AI Growth
+Fabrinet stock has skyrocketed 95% since early April to trade at all-time highs heading into its fourth-quarter fiscal 2025 earnings release on Monday, August 18.
+FN helps big tech companies, including Nvidia, by making small, precision parts used across AI data centers, telecom, and beyond. Artificial intelligence powerhouse Nvidia is one of Fabrinet's largest clients, and it's growing its relationship with Amazon.
+The leading provider of advanced optical packaging tripled the Tech sector over the last 15 years as Wall Street gravitated toward Fabrinet's steady top-line growth in a critical, behind-the-scenes industry.
+The Bull Case for Under-the-Radar Tech Stock FN
+Fabrinet's portfolio enables other tech companies to make the small, complex parts they need for their products. In technical terms, FN is a leader in advanced optical packaging and precision optical, electro-mechanical, and electronic manufacturing services for original equipment manufacturers of complex products.
+More broadly, FN is a behind-the-scenes technology standout growing more critical by the day as AI hyperscalers and others race to build more data centers. For instance, some of Fabrinet's technologies play critical roles in sending information at lightning speeds in data centers, enabling AI programs to run smoothly.
+The company said earlier this year that demand for its datacenter interconnect products is strong and it's confident in the long-term upside across Fabrinet's datacom segment. FN averaged 13% revenue growth in the past five years. More importantly, its GAAP earnings exploded to the tune of 28% average expansion in the last four years.
+Nvidia is one of Fabrinet's largest clients, with the graphics chip powerhouse reportedly accounting for roughly 35% of Fabrinet's FY24 revenue. Fabrinet manufactures critical optical components and networking cables for NVIDIA's AI data center operations, including high-speed transceivers and interconnects used in AI clusters.
+Networking equipment giant Cisco Systems and optical components standout Lumentum are two of FN's other most important clients. On top of all that, Fabrinet and Amazon entered into an agreement in March for Amazon to buy warrants to purchase up to 381,922 shares of Fabrinet at $208.4826 per share. The deal incentivizes Fabrinet to deepen its role within Amazon's supply chain to help support the growth of AMZN's AI infrastructure.
+Fabrinet's direct connection to Nvidia and Amazon should help support long-term growth as both companies fuel the AI arms race. Plus, Fabrinet is a well-run company with a stellar balance sheet, holding more cash and equivalents ($951 million) than total liabilities ($712 million).
+Looking ahead, Fabrinet is projected to grow its FY25 (period ending in June 2025) revenue by 18% and 17% in FY26, reaching $3.95 billion—up from $2.88 billion in FY24.
+The company's consensus earnings estimates have jumped since its Q3 FY25 release, helping FN earn a Zacks Rank #2 (Buy). Fabrinet is expected to grow its adjusted earnings by 15% in FY25 and 18% in FY26.
+Buy Tech Stock FN Before Earnings, Or Wait for a Pullback?
+Fabrinet stock more than tripled the Zacks Tech sector over the last 15 years, soaring 2,660%. This run includes a 1,650% charge over the past 10 years to blow away Tech's 375% and Amazon's 745%.
+The stock has soared alongside the market, charging nearly 100% higher off its April lows to trade right near its recent peaks. The run took Fabrinet from some of its most oversold RSI levels over the past decade to some of its most overbought.
+FN appears rather overheated in the short run and due to possibly test its 21-week moving average. The stock is also trading at an all-time high at 32X forward 12-month earnings.
+This backdrop means that some investors might want to wait for Fabrinet's next pullback before they buy the behind-the-scenes AI stock. Others could decide to dive in as the bulls drive the stock market higher, and buy more FN stock the next time it fades.
+Free: Instant Access to Zacks' Market-Crushing Strategies
+Since 2000, our top stock-picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year.
+Today you can tap into those powerful strategies – and the high-potential stocks they uncover – free. No strings attached.
+Get all the details here &gt;&gt;
+Media Contact
+Zacks Investment Research
+800-767-3771 ext. 9339
+[email protected]
+https://www.zacks.com
+Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit https://www.zacks.com/performancefor information about the performance numbers displayed in this press release.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Amazon.com, Inc. (AMZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Fabrinet (FN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>For Immediate Release Chicago, IL August 15, 2025 Today, Zacks Investment Ideas feature highlights Fabrinet FN, Nvidia NVDA and Amazon AMZN. Buy This Soaring Tech Stock Before Earnings for AI Growth Fabrinet stock has skyrocketed 95% since early April to trade at all time highs heading into its fourth quarter fiscal 2025 earnings release on Monday, August 18. FN helps big tech companies, including Nvidia, by making small, precision parts used across AI data centers, telecom, and beyond. Artificial intelligence powerhouse Nvidia is one of Fabrinet's largest clients, and it's growing its relationship with Amazon. The leading provider of advanced optical packaging tripled the Tech sector over the last 15 years as Wall Street gravitated toward Fabrinet's steady top line growth in a critical, behind the scenes industry. The Bull Case for Under the Radar Tech Stock FN Fabrinet's portfolio enables other tech companies to make the small, complex parts they need for their products. In technical terms, FN is a leader in advanced optical packaging and precision optical, electro mechanical, and electronic manufacturing services for original equipment manufacturers of complex products. More broadly, FN is a behind the scenes technology standout growing more critical by the day as AI hyperscalers and others race to build more data centers. For instance, some of Fabrinet's technologies play critical roles in sending information at lightning speeds in data centers, enabling AI programs to run smoothly. The company said earlier this year that demand for its datacenter interconnect products is strong and it's confident in the long term upside across Fabrinet's datacom segment. FN averaged 13% revenue growth in the past five years. More importantly, its GAAP earnings exploded to the tune of 28% average expansion in the last four years. Nvidia is one of Fabrinet's largest clients, with the graphics chip powerhouse reportedly accounting for roughly 35% of Fabrinet's FY24 revenue. Fabrinet manufactures critical optical components and networking cables for NVIDIA's AI data center operations, including high speed transceivers and interconnects used in AI clusters. Networking equipment giant Cisco Systems and optical components standout Lumentum are two of FN's other most important clients. On top of all that, Fabrinet and Amazon entered into an agreement in March for Amazon to buy warrants to purchase up to 381,922 shares of Fabrinet at $208.4826 per share. The deal incentivizes Fabrinet to deepen its role within Amazon's supply chain to help support the growth of AMZN's AI infrastructure. Fabrinet's direct connection to Nvidia and Amazon should help support long term growth as both companies fuel the AI arms race. Plus, Fabrinet is a well run company with a stellar balance sheet, holding more cash and equivalents ($951 million) than total liabilities ($712 million). Looking ahead, Fabrinet is projected to grow its FY25 (period ending in June 2025) revenue by 18% and 17% in FY26, reaching $3.95 billionup from $2.88 billion in FY24. The company's consensus earnings estimates have jumped since its Q3 FY25 release, helping FN earn a Zacks Rank #2 (Buy). Fabrinet is expected to grow its adjusted earnings by 15% in FY25 and 18% in FY26. Buy Tech Stock FN Before Earnings, Or Wait for a Pullback? Fabrinet stock more than tripled the Zacks Tech sector over the last 15 years, soaring 2,660%. This run includes a 1,650% charge over the past 10 years to blow away Tech's 375% and Amazon's 745%. The stock has soared alongside the market, charging nearly 100% higher off its April lows to trade right near its recent peaks. The run took Fabrinet from some of its most oversold RSI levels over the past decade to some of its most overbought. FN appears rather overheated in the short run and due to possibly test its 21 week moving average. The stock is also trading at an all time high at 32X forward 12 month earnings. This backdrop means that some investors might want to wait for Fabrinet's next pullback before they buy the behind the scenes AI stock. Others could decide to dive in as the bulls drive the stock market higher, and buy more FN stock the next time it fades. Free: Instant Access to Zacks' Market Crushing Strategies Since 2000, our top stock picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year. Today you can tap into those powerful strategies and the high potential stocks they uncover free. No strings attached. Get all the details here &gt;&gt; Media Contact Zacks Investment Research 800 767 3771 ext. 9339 [email protected] Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit information about the performance numbers displayed in this press release. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report Amazon.com, Inc. (AMZN): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Fabrinet (FN): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>45884.45763888889</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Nvidia Slips Amid Chip Tariff Talk. Big Funds Are Piling Into the Stock.</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr"/>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-slips-amid-chip-tariff.html</t>
+        </is>
+      </c>
+      <c r="E452" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr"/>
+      <c r="H452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>45884.44027777778</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Why would Trump and Intel want to work together: Opening Bid top takeaway</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr"/>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/why-would-trump-and-intel-want-to-work-together-opening-bid-top-takeaway-143409334.html</t>
+        </is>
+      </c>
+      <c r="E453" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr"/>
+      <c r="H453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>45884.43958333333</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>A Trump Intel Stake Could Make National Security the New 'Too Big to Fail'</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/trump-intel-stake-too-big-fail-b66594d9?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E454" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr"/>
+      <c r="H454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>45884.4375</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>BC-Most Active Stocks</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr"/>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/bc-most-active-stocks-143017539.html</t>
+        </is>
+      </c>
+      <c r="E455" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr"/>
+      <c r="H455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>45884.43680555555</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Trump Says Tariff Rate on Semiconductors Could Reach 300%. Nvidia and AMD Stocks Fall.</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/b679bc58-8e47-301a-a02f-a9a04f93cf32/trump-says-tariff-rate-on.html</t>
+        </is>
+      </c>
+      <c r="E456" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr"/>
+      <c r="H456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>45884.4125</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Stutters. Big Funds Are Piling Into the AI Chip Maker.</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/5233e58f-567f-3b01-89c5-3b0b10aeea6b/nvidia-stock-stutters.-big.html</t>
+        </is>
+      </c>
+      <c r="E457" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr"/>
+      <c r="H457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>45884.40694444445</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Dow scales record high on hopes of Fed rate cuts, trade deals</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/dow-scales-record-high-hopes-134625792.html</t>
+        </is>
+      </c>
+      <c r="E458" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>45884.37152777778</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Best semiconductor ETFs in 2025: Top chip companies for your portfolio</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/best-semiconductor-etfs-2025-top-125500125.html</t>
+        </is>
+      </c>
+      <c r="E459" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>45884.36944444444</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>20 stocks in the S&amp;P 500 that are high achievers this earnings season</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.marketwatch.com/story/20-stocks-in-the-s-p-500-that-are-high-achievers-this-earnings-season-17b99522?mod=mw_FV</t>
+        </is>
+      </c>
+      <c r="E460" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr"/>
+      <c r="H460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>45884.36805555555</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Best equal-weight index funds</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/best-equal-weight-index-funds-212855779.html</t>
+        </is>
+      </c>
+      <c r="E461" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>45884.35416666666</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>ProShares Launches First ETF to Target 2x Daily Returns of Nasdaq-100 Top 30 Index</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/proshares-launches-first-etf-target-123000712.html</t>
+        </is>
+      </c>
+      <c r="E462" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>45884.34722222222</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Could Buying Nvidia Today Set You Up for Life?</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141764/could-buying-nvidia-today-set-you-up-for-life</t>
+        </is>
+      </c>
+      <c r="E463" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>Key Points
+Nvidia is riding a massive wave of AI success.
+With its massive lead and a $2 trillion AI data center market still developing, there's likely more gains ahead for Nvidia's stock.
+But don't expect the same returns that Nvidia had over the past few years.
+The artificial intelligence (AI) boom that has occurred over the past few years has elevated chip designer Nvidia (NASDAQ: NVDA) from a good investment into an amazing one, as its share price spiked over 900%.
+With gains of that magnitude, it's logical to wonder whether Nvidia stock can keep the momentum going and set investors up for life, or if the stock has run its course. Here's why Nvidia is a hands-down fantastic stock to own, but why it's also unlikely to set you up for life at this point.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Nvidia still has room to run
+Many technology companies are chasing after AI glory right now, but Nvidia is one of the only companies that can benefit no matter who wins the AI race. Nvidia's processors lead the pack in AI data center market share -- with up to 95% by some estimates. This means that as large tech companies invest hundreds of billions of dollars into building AI data centers, Nvidia's processors are almost always chosen to go in them.
+That's resulted in mammoth-sized revenue gains for the company, including a 126% and 114% increase over the past two years. And there could be more growth on the way. Tech giants aren't finished investing in their AI infrastructure, and an estimated $2 trillion could be spent on AI data centers over the next four years.
+Nvidia is also expanding into related markets, including enterprise AI software, and could benefit from the burgeoning autonomous vehicle market, both of which could help extend its growth runway. Given the continued and large investments in AI by major tech companies and Nvidia's lead in providing semiconductors to them all, there isn't currently much to worry about concerning Nvidia's core business.
+But duplicating Nvidia's recent gains will be nearly impossible
+While Nvidia certainly has more room to continue selling its processors to tech companies as they build their AI infrastructure, at some point, this initial surge in spending will subside. We're already a few years into companies creating chatbots, AI agents, and other cloud-based AI tools. Like any new major tech trend, there's typically a first wave of big investments before an eventual tapering off.
+While no one knows when that will happen or to what extent, it likely means that Nvidia's astronomical gains over the past few years won't be replicated. The likelihood that Nvidia could continue doubling its sales for several more consecutive years at this point is unrealistic, given that its fiscal 2025 revenue was nearly $131 billion.
+For example, analysts' consensus estimate for Nvidia's sales growth for 2026 is 54% to $250 billion and 25% growth in 2027. That's still a very impressive revenue increase, but it's not anywhere near the recent growth Nvidia has experienced.
+It's also important to point out that Nvidia's rapid stock-price growth over the past few years means that its shares are likely priced for perfection. A sales or earnings miss at this point, even if it's not technically a bad quarter, could cause the stock to fall based on sky-high expectations.
+Nvidia probably won't set you up for life, but don't ignore it
+While Nvidia isn't likely to set you up for life if you buy the stock now, ignoring this AI leader would be a mistake. The company is still in a leading position in AI processors at a time when AI is still in the early innings.
+That's why buying the stock could still be a wise move. Just don't expect another 900% share-price gain over the next three years.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Chris Neiger has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Key Points Nvidia is riding a massive wave of AI success. With its massive lead and a $2 trillion AI data center market still developing, there's likely more gains ahead for Nvidia's stock. But don't expect the same returns that Nvidia had over the past few years. The artificial intelligence (AI) boom that has occurred over the past few years has elevated chip designer Nvidia (NASDAQ: NVDA) from a good investment into an amazing one, as its share price spiked over 900%. With gains of that magnitude, it's logical to wonder whether Nvidia stock can keep the momentum going and set investors up for life, or if the stock has run its course. Here's why Nvidia is a hands down fantastic stock to own, but why it's also unlikely to set you up for life at this point. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Nvidia still has room to run Many technology companies are chasing after AI glory right now, but Nvidia is one of the only companies that can benefit no matter who wins the AI race. Nvidia's processors lead the pack in AI data center market share with up to 95% by some estimates. This means that as large tech companies invest hundreds of billions of dollars into building AI data centers, Nvidia's processors are almost always chosen to go in them. That's resulted in mammoth sized revenue gains for the company, including a 126% and 114% increase over the past two years. And there could be more growth on the way. Tech giants aren't finished investing in their AI infrastructure, and an estimated $2 trillion could be spent on AI data centers over the next four years. Nvidia is also expanding into related markets, including enterprise AI software, and could benefit from the burgeoning autonomous vehicle market, both of which could help extend its growth runway. Given the continued and large investments in AI by major tech companies and Nvidia's lead in providing semiconductors to them all, there isn't currently much to worry about concerning Nvidia's core business. But duplicating Nvidia's recent gains will be nearly impossible While Nvidia certainly has more room to continue selling its processors to tech companies as they build their AI infrastructure, at some point, this initial surge in spending will subside. We're already a few years into companies creating chatbots, AI agents, and other cloud based AI tools. Like any new major tech trend, there's typically a first wave of big investments before an eventual tapering off. While no one knows when that will happen or to what extent, it likely means that Nvidia's astronomical gains over the past few years won't be replicated. The likelihood that Nvidia could continue doubling its sales for several more consecutive years at this point is unrealistic, given that its fiscal 2025 revenue was nearly $131 billion. For example, analysts' consensus estimate for Nvidia's sales growth for 2026 is 54% to $250 billion and 25% growth in 2027. That's still a very impressive revenue increase, but it's not anywhere near the recent growth Nvidia has experienced. It's also important to point out that Nvidia's rapid stock price growth over the past few years means that its shares are likely priced for perfection. A sales or earnings miss at this point, even if it's not technically a bad quarter, could cause the stock to fall based on sky high expectations. Nvidia probably won't set you up for life, but don't ignore it While Nvidia isn't likely to set you up for life if you buy the stock now, ignoring this AI leader would be a mistake. The company is still in a leading position in AI processors at a time when AI is still in the early innings. That's why buying the stock could still be a wise move. Just don't expect another 900% share price gain over the next three years. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Chris Neiger has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>45884.33333333334</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>What AMD, CoreWeave, and Nvidia Stock Investors Should Know About Recent Updates</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141745/what-amd-coreweave-and-nvidia-stock-investors-should-know-about-recent-updates</t>
+        </is>
+      </c>
+      <c r="E464" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA), Advanced Micro Devices (NASDAQ: AMD), and CoreWeave (NASDAQ: CRWV). To learn more, check out the short video, consider subscribing, and click the special offer link below.
+*Stock prices used were the after-market prices of Aug. 13, 2025. The video was published on Aug. 13, 2025.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Jose Najarro has positions in Advanced Micro Devices, CoreWeave, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices and Nvidia. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA), Advanced Micro Devices (NASDAQ: AMD), and CoreWeave (NASDAQ: CRWV). To learn more, check out the short video, consider subscribing, and click the special offer link below. Stock prices used were the after market prices of Aug. 13, 2025. The video was published on Aug. 13, 2025. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Jose Najarro has positions in Advanced Micro Devices, CoreWeave, and Nvidia. The Motley Fool has positions in and recommends Advanced Micro Devices and Nvidia. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45884.29166666666</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>3 AI chip stocks that are best positioned right now</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/3-ai-chip-stocks-best-110017626.html</t>
+        </is>
+      </c>
+      <c r="E465" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr"/>
+      <c r="H465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45884.29166666666</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>These Were the 5 Biggest Companies in 2019, and Here Are the 5 Biggest Companies Now</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr"/>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141703/these-were-the-5-biggest-companies-in-2019-and-here-are-the-5-biggest-companies-now</t>
+        </is>
+      </c>
+      <c r="E466" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>Key Points
+The largest companies in 2019 represented a motley mix of tech, consumer, and financials.
+Four out of the five biggest companies today, though, are all tech giants.
+This shift reflects the changing global landscape and companies making breakthroughs.
+Businesses evolve with global trends, technological advancements, and shifts in consumer preferences. The change is sometimes so rapid that it takes only a few years for emerging companies to become global titans.
+That's what happened between 2019 and now. While some corporate giants have retained their positions as the largest companies, one company that wasn't even in the top 20 in 2019 has catapulted to the top spot today.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+The five biggest companies in 2019
+| Company |
+Market capitalization (03/31/2019) |
+|
+Microsoft (NASDAQ: MSFT)
+|
+$905 billion |
+|
+Apple (NASDAQ: AAPL)
+|
+$896 billion |
+|
+Amazon (NASDAQ: AMZN)
+|
+$875 billion |
+|
+Alphabet (NASDAQ: GOOG)(NASDAQ: GOOGL)
+|
+$817 billion |
+|
+Berkshire Hathaway (NYSE: BRK.A)(NYSE: BRK.B)
+|
+$494 billion |
+Data source: PricewaterhouseCoopers (PwC) global top 100 companies report, 2019.
+Tech evidently ruled in 2019, but the tech supremacy that the world has witnessed since has been nothing short of spectacular. Artificial intelligence (AI) has rocked the world, with one company absolutely crushing it.
+The five biggest companies in 2025
+| Company |
+Market capitalization (08/13/2025) |
+|
+Nvidia (NASDAQ: NVDA)
+|
+$4.43 trillion |
+| Microsoft |
+$3.89 trillion |
+| Apple |
+$3.46 trillion |
+| Alphabet |
+$2.44 trillion |
+| Amazon |
+$2.39 trillion |
+Data source: Yahoo! Finance.
+Apple's flagship iPhones, high-margin services segment, and diversification into wearables have added tremendous value to its business since 2019.
+Amazon's growth since 2019, meanwhile, has been driven by its leadership in e-commerce and aggressive expansion of cloud services through Amazon Web Services (AWS). AWS is the world's largest cloud computing platform today.
+Cloud has also been a key growth driver for Alphabet and Microsoft since 2019. Yet, none of these companies have achieved what Nvidia has in six years.
+NVDA Market Cap data by YCharts
+Nvidia's unstoppable growth in AI has pushed its market cap by 4,000% since 2019 to over $4 trillion. That makes Nvidia the world's most valuable company today.
+In the world of investing, tracking the largest companies isn't just about market capitalization, though. It reveals the dynamic forces shaping global markets, and which companies are positioning themselves to stay relevant in the long run.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Neha Chamaria has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Berkshire Hathaway, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>Key Points The largest companies in 2019 represented a motley mix of tech, consumer, and financials. Four out of the five biggest companies today, though, are all tech giants. This shift reflects the changing global landscape and companies making breakthroughs. Businesses evolve with global trends, technological advancements, and shifts in consumer preferences. The change is sometimes so rapid that it takes only a few years for emerging companies to become global titans. That's what happened between 2019 and now. While some corporate giants have retained their positions as the largest companies, one company that wasn't even in the top 20 in 2019 has catapulted to the top spot today. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. The five biggest companies in 2019 Company Market capitalization (03/31/2019) Microsoft (NASDAQ: MSFT) $905 billion Apple (NASDAQ: AAPL) $896 billion Amazon (NASDAQ: AMZN) $875 billion Alphabet (NASDAQ: GOOG)(NASDAQ: GOOGL) $817 billion Berkshire Hathaway (NYSE: BRK.A)(NYSE: BRK.B) $494 billion Data source: PricewaterhouseCoopers (PwC) global top 100 companies report, 2019. Tech evidently ruled in 2019, but the tech supremacy that the world has witnessed since has been nothing short of spectacular. Artificial intelligence (AI) has rocked the world, with one company absolutely crushing it. The five biggest companies in 2025 Company Market capitalization (08/13/2025) Nvidia (NASDAQ: NVDA) $4.43 trillion Microsoft $3.89 trillion Apple $3.46 trillion Alphabet $2.44 trillion Amazon $2.39 trillion Data source: Yahoo! Finance. Apple's flagship iPhones, high margin services segment, and diversification into wearables have added tremendous value to its business since 2019. Amazon's growth since 2019, meanwhile, has been driven by its leadership in e commerce and aggressive expansion of cloud services through Amazon Web Services (AWS). AWS is the world's largest cloud computing platform today. Cloud has also been a key growth driver for Alphabet and Microsoft since 2019. Yet, none of these companies have achieved what Nvidia has in six years. NVDA Market Cap data by YCharts Nvidia's unstoppable growth in AI has pushed its market cap by 4,000% since 2019 to over $4 trillion. That makes Nvidia the world's most valuable company today. In the world of investing, tracking the largest companies isn't just about market capitalization, though. It reveals the dynamic forces shaping global markets, and which companies are positioning themselves to stay relevant in the long run. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Neha Chamaria has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Alphabet, Amazon, Apple, Berkshire Hathaway, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>45884.25208333333</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Analysis-Trump's attack on Goldman could prompt watering down of Wall Street's independent analysis</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr"/>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/analysis-trumps-attack-goldman-could-100301764.html</t>
+        </is>
+      </c>
+      <c r="E467" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr"/>
+      <c r="H467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>45884.25</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Can megacaps keep rising? Here's what valuation metrics tell us</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/megacaps-keep-rising-heres-valuation-100019975.html</t>
+        </is>
+      </c>
+      <c r="E468" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr"/>
+      <c r="H468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>45884.22916666666</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>AI Exacerbates Tech Divide With Smaller Stocks Languishing</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/ai-exacerbates-tech-divide-smaller-093000902.html</t>
+        </is>
+      </c>
+      <c r="E469" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr"/>
+      <c r="H469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>45884.22708333333</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>CoreWeave IPO Investors Sitting on Big Gains Get Chance to Sell</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr"/>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/coreweave-ipo-investors-sitting-big-092712253.html</t>
+        </is>
+      </c>
+      <c r="E470" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr"/>
+      <c r="H470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>45884.21666666667</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Taiwan raises 2025 GDP growth forecast, cautious about 2026 outlook on US tariffs</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr"/>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/taiwan-raises-2025-gdp-growth-091247191.html</t>
+        </is>
+      </c>
+      <c r="E471" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr"/>
+      <c r="H471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>45884.21458333333</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Wavers. Big Funds Are Piling Into the AI Chip Maker.</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr"/>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/nvidia-stock-price-soros-ai-aebccfaf?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E472" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr"/>
+      <c r="H472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>45884.17291666667</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Where Will Navitas Semiconductor Stock Be in 3 Years?</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr"/>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141527/where-will-navitas-semiconductor-stock-be-in-3-years</t>
+        </is>
+      </c>
+      <c r="E473" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>Key Points
+Navitas’ stock trades about 70% below its all-time high.
+It faces challenging macro headwinds.
+Its stock looks expensive relative to its growth potential.
+Navitas Semiconductor (NASDAQ: NVTS), a producer of gallium nitride (GaN) and silicon carbide (SiC) chips, took its investors on a wild ride after it went public by merging with a special purpose acquisition company (SPAC) on Oct. 21, 2021. Its stock opened at $13, soared to a record high of $22.19 a month later, but sank to an all-time low of $1.52 on April 4, 2025. Like many other SPAC-backed start-ups, Navitas disappointed its investors by missing its own growth forecasts and racking up steep losses.
+Today, Navitas' stock trades just above $7 a share. It bounced back as its new AI data center partnership with Nvidia (NASDAQ: NVDA) attracted a stampede of bulls and squeezed out the bears. But could Navitas' stock generate even bigger gains and set fresh highs over the next three years?
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+What happened over the past three years?
+GaN and SiC power chips are faster, more power-efficient, and can operate at higher temperatures and voltages than traditional silicon chips. That makes them well-suited for mobile fast chargers, electric vehicle (EV) chargers, laptop adapters, data center power supplies, solar inverters, industrial motor drives, and energy storage solutions.
+Navitas generates most of its revenue from its GaNFast Power ICs, which bundle together switching, sensing, control, and security features on a single chip. It expanded into the SiC market through its acquisition of GeneSiC, which mainly supplies SiC power chips for the EV and data center markets, in 2022. Its major customers now include Dell Technologies (NYSE: DELL), which uses GaN/SiC chips in its laptop chargers; the Chinese automaker Changan, which uses its GaN ICs in its on-board EV chargers; and Nvidia, which selected its 800 V HVDC architecture to support its AI workloads at its data centers earlier this year.
+Navitas is a fabless chipmaker that outsources its manufacturing to third-party foundries. That capital-light model enables it to focus on developing new chips instead of spending a lot of money on upgrading its plants. That sets it apart from Wolfspeed (NYSE: WOLF), the SiC and GaN chipmaker, which filed for bankruptcy this June after failing to balance the costs of running its own foundries with its soaring debt levels.
+Before Navitas went public, it claimed it would grow its annual revenue from $12 million in 2020 to $308 million in 2024. It also expected to achieve a positive adjusted earnings before interest, taxes, depreciation, and amortization (EBITDA) by 2023. But here's what actually happened over the past three years.
+|
+Metric
+|
+2022
+|
+2023
+|
+2024
+|
+|
+Revenue
+|
+$37.9 million
+|
+$79.5 million
+|
+$83.3 million
+|
+|
+Revenue Growth
+|
+60%
+|
+109%
+|
+5%
+|
+|
+Adjusted EBITDA
+|
+($32.9 million)
+|
+($19.3 million)
+|
+($27.8 million)
+|
+Data source: Navitas, Marketscreener.
+In 2024, Navitas' growth stalled out as the macro headwinds disrupted its orders from its EV, solar, and industrial customers. It also ended a key distribution deal for its SiC products, and it generated more sales from its lower-margin GaN chips instead of its higher-margin SiC chips. That pressure, along with its rising R&amp;D expenses, caused it to remain deeply unprofitable on a generally accepted accounting principles (GAAP) basis as its adjusted EBITDA stayed negative.
+What will happen to Navitas over the next three years?
+Over the next few years, Navitas' data center deal with Nvidia -- which will be ramped up in 2026 and expanded in 2027 -- could significantly boost its revenue. It should also benefit from the growing adoption of GaN and SiC chips in EV chargers, laptop chargers, and other electronic devices. However, the tariffs against China and its intentional retreat from its lower-margin (but higher revenue) mobile markets could offset those tailwinds and throttle its overall growth.
+Based on those expectations, analysts expect Navitas' revenue to grow at a CAGR of 7% from 2024 to 2027 -- but its adjusted EBITDA should stay negative by the final year. And with an enterprise value of $1.27 billion, it still looks expensive at 26 times this year's sales.
+Navitas' valuations are likely being inflated by its deal with Nvidia. Expectations for lower interest rates are amplifying those gains by driving more investors toward speculative stocks again. Those higher valuations could cap its gains over the next three years.
+If Navitas matches analysts' expectations, grows its revenue by another 7% in 2028, and trades at a more reasonable 10 times its forward sales, its stock price would actually decline 7% to roughly $6.10 and reduce its enterprise value to $1.1 billion. Therefore, its stock could underperform the market until it stabilizes its core businesses. But over the long term, Navitas could still be a good long-term play on GaN and SiC chips as they displace traditional silicon chips.
+Should you invest $1,000 in Navitas Semiconductor right now?
+Before you buy stock in Navitas Semiconductor, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Navitas Semiconductor wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Leo Sun has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool recommends Wolfspeed. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Key Points Navitas stock trades about 70% below its all time high. It faces challenging macro headwinds. Its stock looks expensive relative to its growth potential. Navitas Semiconductor (NASDAQ: NVTS), a producer of gallium nitride (GaN) and silicon carbide (SiC) chips, took its investors on a wild ride after it went public by merging with a special purpose acquisition company (SPAC) on Oct. 21, 2021. Its stock opened at $13, soared to a record high of $22.19 a month later, but sank to an all time low of $1.52 on April 4, 2025. Like many other SPAC backed start ups, Navitas disappointed its investors by missing its own growth forecasts and racking up steep losses. Today, Navitas' stock trades just above $7 a share. It bounced back as its new AI data center partnership with Nvidia (NASDAQ: NVDA) attracted a stampede of bulls and squeezed out the bears. But could Navitas' stock generate even bigger gains and set fresh highs over the next three years? Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. What happened over the past three years? GaN and SiC power chips are faster, more power efficient, and can operate at higher temperatures and voltages than traditional silicon chips. That makes them well suited for mobile fast chargers, electric vehicle (EV) chargers, laptop adapters, data center power supplies, solar inverters, industrial motor drives, and energy storage solutions. Navitas generates most of its revenue from its GaNFast Power ICs, which bundle together switching, sensing, control, and security features on a single chip. It expanded into the SiC market through its acquisition of GeneSiC, which mainly supplies SiC power chips for the EV and data center markets, in 2022. Its major customers now include Dell Technologies (NYSE: DELL), which uses GaN/SiC chips in its laptop chargers; the Chinese automaker Changan, which uses its GaN ICs in its on board EV chargers; and Nvidia, which selected its 800 V HVDC architecture to support its AI workloads at its data centers earlier this year. Navitas is a fabless chipmaker that outsources its manufacturing to third party foundries. That capital light model enables it to focus on developing new chips instead of spending a lot of money on upgrading its plants. That sets it apart from Wolfspeed (NYSE: WOLF), the SiC and GaN chipmaker, which filed for bankruptcy this June after failing to balance the costs of running its own foundries with its soaring debt levels. Before Navitas went public, it claimed it would grow its annual revenue from $12 million in 2020 to $308 million in 2024. It also expected to achieve a positive adjusted earnings before interest, taxes, depreciation, and amortization (EBITDA) by 2023. But here's what actually happened over the past three years. Metric 2022 2023 2024 Revenue $37.9 million $79.5 million $83.3 million Revenue Growth 60% 109% 5% Adjusted EBITDA ($32.9 million) ($19.3 million) ($27.8 million) Data source: Navitas, Marketscreener. In 2024, Navitas' growth stalled out as the macro headwinds disrupted its orders from its EV, solar, and industrial customers. It also ended a key distribution deal for its SiC products, and it generated more sales from its lower margin GaN chips instead of its higher margin SiC chips. That pressure, along with its rising R&amp;D expenses, caused it to remain deeply unprofitable on a generally accepted accounting principles (GAAP) basis as its adjusted EBITDA stayed negative. What will happen to Navitas over the next three years? Over the next few years, Navitas' data center deal with Nvidia which will be ramped up in 2026 and expanded in 2027 could significantly boost its revenue. It should also benefit from the growing adoption of GaN and SiC chips in EV chargers, laptop chargers, and other electronic devices. However, the tariffs against China and its intentional retreat from its lower margin (but higher revenue) mobile markets could offset those tailwinds and throttle its overall growth. Based on those expectations, analysts expect Navitas' revenue to grow at a CAGR of 7% from 2024 to 2027 but its adjusted EBITDA should stay negative by the final year. And with an enterprise value of $1.27 billion, it still looks expensive at 26 times this year's sales. Navitas' valuations are likely being inflated by its deal with Nvidia. Expectations for lower interest rates are amplifying those gains by driving more investors toward speculative stocks again. Those higher valuations could cap its gains over the next three years. If Navitas matches analysts' expectations, grows its revenue by another 7% in 2028, and trades at a more reasonable 10 times its forward sales, its stock price would actually decline 7% to roughly $6.10 and reduce its enterprise value to $1.1 billion. Therefore, its stock could underperform the market until it stabilizes its core businesses. But over the long term, Navitas could still be a good long term play on GaN and SiC chips as they displace traditional silicon chips. Should you invest $1,000 in Navitas Semiconductor right now? Before you buy stock in Navitas Semiconductor, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Navitas Semiconductor wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Leo Sun has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool recommends Wolfspeed. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>45884.15069444444</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Should You Buy Nvidia Stock Before Aug. 27? Wall Street Has a Compelling Answer</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141519/should-you-buy-nvidia-stock-before-aug-27-wall-street-has-a-compelling-answer</t>
+        </is>
+      </c>
+      <c r="E474" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Key Points
+Investors will be on the edge of their seats when Nvidia releases its quarterly financial report later this month.
+Despite being the world's largest company, Wall Street is becoming even more bullish on the chipmaker.
+Nvidia's Blackwell processor and the resumption of sales to China could spark the stock's next run higher.
+The most profound change in the tech landscape in recent memory comes courtesy of advancements in artificial intelligence (AI). These next-generation algorithms are being applied to a dizzying number of new use cases, but they require an extraordinary amount of computational horsepower.
+Arguably, the biggest beneficiary of this secular tailwind has been Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs), which were pioneered to create lifelike images in video games, proved equally adept at providing the lightning-fast speeds necessary for AI training and inference. The explosive demand for Nvidia's AI chips has fueled the company's meteoric rise. Since the dawn of AI in early 2023, Nvidia stock has climbed a heady 1,140% (as of this writing), turning the company into the de facto poster child for AI.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Nvidia has a lot riding on its second quarter financial results, which are scheduled to be released after the market closes on Aug. 27. Heading into this critical report, let's look at recent developments, what Wall Street is saying, and what investors can expect.
+Image source: Getty Images.
+Paint by numbers
+After two consecutive years of triple-digit revenue and profit growth, Nvidia's growth rate has inevitably slowed, but the results are impressive nonetheless.
+In the company's fiscal 2026 first quarter (ended April 27), the results were enviable by any standard. Nvidia delivered record revenue of $44.1 billion, up 69% year over year, while its adjusted earnings per share (EPS) of $0.81 climbed 33%.
+The profit picture requires context, however. Early in Q1, the Trump Administration issued a moratorium on H20 chip sales to China (which has since been lifted). Nvidia took a $4.5 billion charge for the affected inventory. If not for this one-time charge, adjusted EPS of $0.96 would have jumped 62%. The profits in accordance with generally accepted accounting principles (GAAP) were also solidt, increasing 27% to $0.76.
+Estimates vary regarding the impact of resuming chip sales to China. Stifel analyst Ruben Roy cited pent-up demand fueling $19.5 billion in H20 chip sales this year. Analysts' consensus estimates had previously pegged Nvidia's fiscal 2026 revenue at $201 billion, so resuming sales to China could potentially boost revenue by 10%, though the final tally will depend on the availability of manufacturing capacity.
+The biggest growth driver for Nvidia is sales of the company's AI-centric Blackwell architecture. In the first quarter, CFO Colette Kress noted that the Blackwell ramp had expanded to "all customer categories," making it "the fastest ramp in company history."
+Nvidia's strong record of innovation has kept the company at the forefront of the AI revolution, and it appears that won't be changing anytime soon.
+What Wall Street is saying right now
+Ahead of Nvidia's important report later this month, Wall Street is increasingly bullish. Analysts' consensus estimates are calling for revenue of $45.75 billion, or growth of about 53%, resulting in EPS of $1.00, an increase of 47%. Nvidia has a remarkable track record of consistently beating its own expectations and those of Wall Street, so the consensus could well be conservative.
+Of the 65 analysts who offered an opinion in August, 89% rate Nvidia stock a buy or strong buy, and only one recommends selling. The average price target of $187 suggests modest upside of about 3%.
+One of the more bullish takes comes courtesy of Loop Capital analyst John Donovan. He maintained a buy rating on the stock and recently increased his price target to $250, or potential upside for investors of 38%. The analyst cites channel checks with cloud providers, which suggest an ongoing surge in demand. He goes on to suggest that the market for data center GPUs could soar to $2 trillion by 2028. As the industry leader, Nvidia is well-positioned to benefit from the trend.
+Finally, there's the subject of valuation. Nvidia stock is currently selling for roughly 31 times next year's earnings. While that's a slight premium, it's worth considering the context. Nvidia's revenue has soared 832% over the past five years (as of this writing), while its net income has risen 1,310%. This has fueled a stock price surge of 1,490%. The ability to consistently generate market beating returns, particularly gains of that magnitude, is rare. This helps to illustrate why Nvidia is deserving of a premium.
+Wall Street's position is clear. Nvidia stock is a buy. We'll know more after the company reports its Q2 results after the market close on Wednesday, Aug. 27.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Key Points Investors will be on the edge of their seats when Nvidia releases its quarterly financial report later this month. Despite being the world's largest company, Wall Street is becoming even more bullish on the chipmaker. Nvidia's Blackwell processor and the resumption of sales to China could spark the stock's next run higher. The most profound change in the tech landscape in recent memory comes courtesy of advancements in artificial intelligence (AI). These next generation algorithms are being applied to a dizzying number of new use cases, but they require an extraordinary amount of computational horsepower. Arguably, the biggest beneficiary of this secular tailwind has been Nvidia (NASDAQ: NVDA). The company's graphics processing units (GPUs), which were pioneered to create lifelike images in video games, proved equally adept at providing the lightning fast speeds necessary for AI training and inference. The explosive demand for Nvidia's AI chips has fueled the company's meteoric rise. Since the dawn of AI in early 2023, Nvidia stock has climbed a heady 1,140% (as of this writing), turning the company into the de facto poster child for AI. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Nvidia has a lot riding on its second quarter financial results, which are scheduled to be released after the market closes on Aug. 27. Heading into this critical report, let's look at recent developments, what Wall Street is saying, and what investors can expect. Image source: Getty Images. Paint by numbers After two consecutive years of triple digit revenue and profit growth, Nvidia's growth rate has inevitably slowed, but the results are impressive nonetheless. In the company's fiscal 2026 first quarter (ended April 27), the results were enviable by any standard. Nvidia delivered record revenue of $44.1 billion, up 69% year over year, while its adjusted earnings per share (EPS) of $0.81 climbed 33%. The profit picture requires context, however. Early in Q1, the Trump Administration issued a moratorium on H20 chip sales to China (which has since been lifted). Nvidia took a $4.5 billion charge for the affected inventory. If not for this one time charge, adjusted EPS of $0.96 would have jumped 62%. The profits in accordance with generally accepted accounting principles (GAAP) were also solidt, increasing 27% to $0.76. Estimates vary regarding the impact of resuming chip sales to China. Stifel analyst Ruben Roy cited pent up demand fueling $19.5 billion in H20 chip sales this year. Analysts' consensus estimates had previously pegged Nvidia's fiscal 2026 revenue at $201 billion, so resuming sales to China could potentially boost revenue by 10%, though the final tally will depend on the availability of manufacturing capacity. The biggest growth driver for Nvidia is sales of the company's AI centric Blackwell architecture. In the first quarter, CFO Colette Kress noted that the Blackwell ramp had expanded to "all customer categories," making it "the fastest ramp in company history." Nvidia's strong record of innovation has kept the company at the forefront of the AI revolution, and it appears that won't be changing anytime soon. What Wall Street is saying right now Ahead of Nvidia's important report later this month, Wall Street is increasingly bullish. Analysts' consensus estimates are calling for revenue of $45.75 billion, or growth of about 53%, resulting in EPS of $1.00, an increase of 47%. Nvidia has a remarkable track record of consistently beating its own expectations and those of Wall Street, so the consensus could well be conservative. Of the 65 analysts who offered an opinion in August, 89% rate Nvidia stock a buy or strong buy, and only one recommends selling. The average price target of $187 suggests modest upside of about 3%. One of the more bullish takes comes courtesy of Loop Capital analyst John Donovan. He maintained a buy rating on the stock and recently increased his price target to $250, or potential upside for investors of 38%. The analyst cites channel checks with cloud providers, which suggest an ongoing surge in demand. He goes on to suggest that the market for data center GPUs could soar to $2 trillion by 2028. As the industry leader, Nvidia is well positioned to benefit from the trend. Finally, there's the subject of valuation. Nvidia stock is currently selling for roughly 31 times next year's earnings. While that's a slight premium, it's worth considering the context. Nvidia's revenue has soared 832% over the past five years (as of this writing), while its net income has risen 1,310%. This has fueled a stock price surge of 1,490%. The ability to consistently generate market beating returns, particularly gains of that magnitude, is rare. This helps to illustrate why Nvidia is deserving of a premium. Wall Street's position is clear. Nvidia stock is a buy. We'll know more after the company reports its Q2 results after the market close on Wednesday, Aug. 27. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Danny Vena has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>45884.12916666667</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Nvidia, Palantir, and AMD Have a Nearly $13 Billion Warning for Wall Street -- but Are You Paying Attention?</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141515/nvidia-palantir-and-amd-have-a-nearly-13-billion-warning-for-wall-street-but-are-you-paying-attention</t>
+        </is>
+      </c>
+      <c r="E475" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Competitive advantages, along with insatiable demand for artificial intelligence (AI) hardware and software, have sent shares of Nvidia, Palantir Technologies, and Advanced Micro Devices soaring.
+On a combined basis, insiders at Nvidia, Palantir, and AMD have made just four purchases of their respective company's stock spanning five years.
+Historical precedent poses a big problem for some of Wall Street's hottest AI stocks.
+Roughly 30 years ago, the advent and proliferation of the internet began positively altering the growth arc for corporate America. The internet offered businesses new ways to interact with prospective and existing clients, as well as market their products. For decades, investors have been waiting for the next technological leap forward, and the artificial intelligence (AI) revolution looks to be it.
+The combination of increased productivity and consumption-side effects associated with the rise of AI is expected to increase global gross domestic product by $15.7 trillion come 2030, according to analysts at PwC. This sky-high addressable market is the primary reason we've witnessed Wall Street's AI darlings -- Nvidia (NASDAQ: NVDA), Palantir Technologies (NASDAQ: PLTR), and Advanced Micro Devices (NASDAQ: AMD), which is commonly known as "AMD" -- soar since 2023 began.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Nvidia's Hopper (H100) and Blackwell graphics processing units (GPUs) account for the bulk of the GPUs deployed in AI-accelerated data centers. Meanwhile, production for AMD's Instinct series AI-accelerating chips is expanding, with the expectation that it'll carve out a healthy share of the AI-GPU market for enterprise data centers.
+As for Palantir, its AI- and machine learning-powered software-as-a-service Gotham and Foundry platforms offer sustainable moats. Federal governments turn to Gotham for military mission planning and execution, along with data collection and analysis. Meanwhile, Foundry is a subscription-driven platform for businesses looking to make sense of their big data and streamline/automate their operations.
+While their respective share price appreciation indicates everything is going great for Nvidia, Palantir, and AMD, all three companies have, collectively, offered up a nearly $13 billion warning to Wall Street. The real question is: Are you, or any other investors, heeding this warning?
+There are a number of potential headwinds that can come into play for AI stocks over the coming quarters and years, some of which I'll touch on a bit later. However, one of the more front-and-center concerns has to do with the how corporate insiders have approached their company's stock.
+Here's the good news: Thanks to required Form 4 filings with the Securities and Exchange Commission, investors have the ability to track the purchasing and selling activity of executives and board members. This activity details the buying and selling of common stock, as well as options activity.
+When it comes to Nvidia, Palantir, and AMD, there's been a very clear trend over the last five years (note: Palantir's initial public offering was Sept. 30, 2020): insider selling.
+Over the trailing-five-year period, net selling activity has totaled:
+Collectively, the insiders of these three highly influential AI businesses have sold north of $12.9 billion worth of their common stock over the trailing half-decade.
+However, insider selling isn't as cut-and-dried as it might appear on the surface. This is to say there are a lot of reasons insiders might sell their company's stock -- and they're not all nefarious.
+For instance, most executives receive stock-based compensation and/or options. Options are required to be exercised within a certain time frame, otherwise they expire worthless. With some executives receiving the lion's share of their compensation in stock or options, they have to sell their company's stock to cover their federal and/or state tax bill. The key point here is that not all insider selling is necessarily bad.
+But at the same time, there's only one reason executives and board members purchase their company's stock: they expect it to head higher. Over the trailing five-year period, executives and board members have made exactly one purchase at Nvidia, one purchase at Palantir, and two purchases at AMD.
+The takeaway here is simple: if insiders at Nvidia, Palantir, and AMD aren't willing to purchase their own company's stock, why should everyday investors believe these three stocks still offer significant upside?
+Image source: Getty Images.
+Unfortunately, this nearly $13 billion warning isn't the only worry for investors. Historical precedent is a multipronged headwind that has the potential to meaningfully drag down AI stock valuations.
+To preface the following discussion, history is never guaranteed to repeat on Wall Street. If there was an indicator that concretely guaranteed short-term directional moves in stocks, you can rest assured that everyone would be using it by now.
+Nevertheless, there are historical events and metrics that have flawlessly correlated with directional moves for the S&amp;P 500 and Wall Street's other major indexes in the past. It's these correlations that suggest Nvidia, Palantir, and AMD could be in a world of trouble.
+For example, every game-changing innovation since (and including) the advent of the internet in the mid-1990s has endured a bubble-bursting event fairly early in its expansion. This long line of hyped innovations navigating their way through bubbles signals that investors consistently overestimate the utility and early stage adoption of new technologies.
+Although spending on AI infrastructure has been robust, as Nvidia's and AMD's operating results suggest, most businesses have yet to optimize their AI solutions or generate a positive return on their AI investments. It's unlikely that artificial intelligence will avoid the fate of previous next-big-thing trends.
+The other area where historical precedent comes into play is valuations. Though AMD's valuation isn't egregiously high, the same can't be said for Nvidia or Palantir, which are butting heads with history.
+Before the bursting of the dot-com bubble a quarter of a century ago, businesses on the leading edge of the internet revolution consistently peaked at around 30 to 40 times trailing-12-month sales. As of this writing on Aug. 12, Nvidia is tipping the scales at a price-to-sales (P/S) ratio of nearly 31, while Palantir's P/S ratio is 137, which is the highest I've ever witnessed for a megacap company in 27 years of investing.
+While both companies offer competitive advantages that are worthy of valuation premiums, history is quite clear that extended premiums of this magnitude aren't sustainable over the long run.
+Between persistent insider selling, a virtual lack of insider buying, and mounting historical headwinds, the risk-versus-reward pendulum for Nvidia, Palantir, and AMD has undeniably swung toward "risk."
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 13, 2025
+Sean Williams has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Advanced Micro Devices, Nvidia, and Palantir Technologies. The Motley Fool has a disclosure policy.
+| 40 min | |
+| 1 hour | |
+| 1 hour | |
+| 2 hours | |
+| 3 hours | |
+| 3 hours | |
+| 4 hours | |
+| 4 hours | |
+| 4 hours | |
+| 7 hours | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 | |
+| Aug-16 |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>Competitive advantages, along with insatiable demand for artificial intelligence (AI) hardware and software, have sent shares of Nvidia, Palantir Technologies, and Advanced Micro Devices soaring. On a combined basis, insiders at Nvidia, Palantir, and AMD have made just four purchases of their respective company's stock spanning five years. Historical precedent poses a big problem for some of Wall Street's hottest AI stocks. Roughly 30 years ago, the advent and proliferation of the internet began positively altering the growth arc for corporate America. The internet offered businesses new ways to interact with prospective and existing clients, as well as market their products. For decades, investors have been waiting for the next technological leap forward, and the artificial intelligence (AI) revolution looks to be it. The combination of increased productivity and consumption side effects associated with the rise of AI is expected to increase global gross domestic product by $15.7 trillion come 2030, according to analysts at PwC. This sky high addressable market is the primary reason we've witnessed Wall Street's AI darlings Nvidia (NASDAQ: NVDA), Palantir Technologies (NASDAQ: PLTR), and Advanced Micro Devices (NASDAQ: AMD), which is commonly known as "AMD" soar since 2023 began. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Nvidia's Hopper (H100) and Blackwell graphics processing units (GPUs) account for the bulk of the GPUs deployed in AI accelerated data centers. Meanwhile, production for AMD's Instinct series AI accelerating chips is expanding, with the expectation that it'll carve out a healthy share of the AI GPU market for enterprise data centers. As for Palantir, its AI and machine learning powered software as a service Gotham and Foundry platforms offer sustainable moats. Federal governments turn to Gotham for military mission planning and execution, along with data collection and analysis. Meanwhile, Foundry is a subscription driven platform for businesses looking to make sense of their big data and streamline/automate their operations. While their respective share price appreciation indicates everything is going great for Nvidia, Palantir, and AMD, all three companies have, collectively, offered up a nearly $13 billion warning to Wall Street. The real question is: Are you, or any other investors, heeding this warning? There are a number of potential headwinds that can come into play for AI stocks over the coming quarters and years, some of which I'll touch on a bit later. However, one of the more front and center concerns has to do with the how corporate insiders have approached their company's stock. Here's the good news: Thanks to required Form 4 filings with the Securities and Exchange Commission, investors have the ability to track the purchasing and selling activity of executives and board members. This activity details the buying and selling of common stock, as well as options activity. When it comes to Nvidia, Palantir, and AMD, there's been a very clear trend over the last five years (note: Palantir's initial public offering was Sept. 30, 2020): insider selling. Over the trailing five year period, net selling activity has totaled: Collectively, the insiders of these three highly influential AI businesses have sold north of $12.9 billion worth of their common stock over the trailing half decade. However, insider selling isn't as cut and dried as it might appear on the surface. This is to say there are a lot of reasons insiders might sell their company's stock and they're not all nefarious. For instance, most executives receive stock based compensation and/or options. Options are required to be exercised within a certain time frame, otherwise they expire worthless. With some executives receiving the lion's share of their compensation in stock or options, they have to sell their company's stock to cover their federal and/or state tax bill. The key point here is that not all insider selling is necessarily bad. But at the same time, there's only one reason executives and board members purchase their company's stock: they expect it to head higher. Over the trailing five year period, executives and board members have made exactly one purchase at Nvidia, one purchase at Palantir, and two purchases at AMD. The takeaway here is simple: if insiders at Nvidia, Palantir, and AMD aren't willing to purchase their own company's stock, why should everyday investors believe these three stocks still offer significant upside? Image source: Getty Images. Unfortunately, this nearly $13 billion warning isn't the only worry for investors. Historical precedent is a multipronged headwind that has the potential to meaningfully drag down AI stock valuations. To preface the following discussion, history is never guaranteed to repeat on Wall Street. If there was an indicator that concretely guaranteed short term directional moves in stocks, you can rest assured that everyone would be using it by now. Nevertheless, there are historical events and metrics that have flawlessly correlated with directional moves for the S&amp;P 500 and Wall Street's other major indexes in the past. It's these correlations that suggest Nvidia, Palantir, and AMD could be in a world of trouble. For example, every game changing innovation since (and including) the advent of the internet in the mid 1990s has endured a bubble bursting event fairly early in its expansion. This long line of hyped innovations navigating their way through bubbles signals that investors consistently overestimate the utility and early stage adoption of new technologies. Although spending on AI infrastructure has been robust, as Nvidia's and AMD's operating results suggest, most businesses have yet to optimize their AI solutions or generate a positive return on their AI investments. It's unlikely that artificial intelligence will avoid the fate of previous next big thing trends. The other area where historical precedent comes into play is valuations. Though AMD's valuation isn't egregiously high, the same can't be said for Nvidia or Palantir, which are butting heads with history. Before the bursting of the dot com bubble a quarter of a century ago, businesses on the leading edge of the internet revolution consistently peaked at around 30 to 40 times trailing 12 month sales. As of this writing on Aug. 12, Nvidia is tipping the scales at a price to sales (P/S) ratio of nearly 31, while Palantir's P/S ratio is 137, which is the highest I've ever witnessed for a megacap company in 27 years of investing. While both companies offer competitive advantages that are worthy of valuation premiums, history is quite clear that extended premiums of this magnitude aren't sustainable over the long run. Between persistent insider selling, a virtual lack of insider buying, and mounting historical headwinds, the risk versus reward pendulum for Nvidia, Palantir, and AMD has undeniably swung toward "risk." Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 13, 2025 Sean Williams has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Advanced Micro Devices, Nvidia, and Palantir Technologies. The Motley Fool has a disclosure policy. 40 min 1 hour 1 hour 2 hours 3 hours 3 hours 4 hours 4 hours 4 hours 7 hours Aug 16 Aug 16 Aug 16 Aug 16 Aug 16 Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>45884.12638888889</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>William Blair Maintains Outperform Rating on Nvidia (NVDA)</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141501/william-blair-maintains-outperform-rating-on-nvidia-nvda</t>
+        </is>
+      </c>
+      <c r="E476" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the 11 Best Revenue Growth Stocks to Buy Now. On July 15, William Blair reiterated an Outperform rating on NVIDIA Corporation (NASDAQ:NVDA) while noting that the company could see potential earnings upside from renewed access to the China market.
+William Blair sees an opportunity for NVIDIA Corporation (NASDAQ:NVDA) to increase its EPS for fiscal year 2026 by an additional $0.30. This is based on the idea that the company will see about $20 billion in revenue from China for the full year.
+In the first quarter, NVIDIA Corporation (NASDAQ:NVDA) made $5.5 billion in revenue from the China market. William Blair expects another $14.5 billion in revenue from China, concentrated in the second half of fiscal 2026.
+The investment firm also highlighted potential gross margin tailwinds in the second half as NVIDIA Corporation (NASDAQ:NVDA) might sell H20 chips that were previously written off with a low cost of goods sold. This could help the company achieve its target of a mid-70% gross margin on a non-GAAP basis.
+NVIDIA Corporation (NASDAQ:NVDA) is an American multinational technology company that is known for its graphics processing units (GPUs), AI hardware and software, and high-performance computing (HPC) solutions.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you’re looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 12 Best Performing AI Stocks So Far in 2025 and 14 Best Aggressive Growth Stocks to Buy According to Analysts.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the 11 Best Revenue Growth Stocks to Buy Now. On July 15, William Blair reiterated an Outperform rating on NVIDIA Corporation (NASDAQ:NVDA) while noting that the company could see potential earnings upside from renewed access to the China market. William Blair sees an opportunity for NVIDIA Corporation (NASDAQ:NVDA) to increase its EPS for fiscal year 2026 by an additional $0.30. This is based on the idea that the company will see about $20 billion in revenue from China for the full year. In the first quarter, NVIDIA Corporation (NASDAQ:NVDA) made $5.5 billion in revenue from the China market. William Blair expects another $14.5 billion in revenue from China, concentrated in the second half of fiscal 2026. The investment firm also highlighted potential gross margin tailwinds in the second half as NVIDIA Corporation (NASDAQ:NVDA) might sell H20 chips that were previously written off with a low cost of goods sold. This could help the company achieve its target of a mid 70% gross margin on a non GAAP basis. NVIDIA Corporation (NASDAQ:NVDA) is an American multinational technology company that is known for its graphics processing units (GPUs), AI hardware and software, and high performance computing (HPC) solutions. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If youre looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 12 Best Performing AI Stocks So Far in 2025 and 14 Best Aggressive Growth Stocks to Buy According to Analysts. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>45884.12013888889</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Jim Cramer Discusses NVIDIA Return to China Market</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141486/jim-cramer-discusses-nvidia-return-to-china-market</t>
+        </is>
+      </c>
+      <c r="E477" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed. Cramer discussed the company’s business with China during the episode. He said:
+“This morning, we learned that the US government is planning to take a 15% cut on all the AI chips that these two companies are currently selling to China. For NVIDIA, that means a 15% cut on the H20, which was their cutting-edge chip for AI a few years ago, something they were previously banned from selling in the PRC. The president then said that NVIDIA might be getting approval to sell a next-generation chip to the Chinese, something, wow, more like their current version, Blackwell, except it won’t have as much computing power. We didn’t expect that Blackwell could be allowed in China. This was a big deal that the market completely just ignored. That was a mistake. President had asked for 20% cut of revenues, but NVIDIA CEO Jensen Huang bargained him down to 15%. That was good…
+The cost of shareholders for the NVIDIA deal, as we told investing club members today, NVIDIA was selling about $8 billion worth of chips to China every quarter prior to the previous export restriction. A 15% haircut would equate to a little more than $1 billion per quarter or about $5 billion per year. Hey, that’s a big number for most companies, but not for NVIDIA. They were desperate to get this China business back by any means necessary…
+From the perspective of big business, this is a great deal. Under the previous export controls, NVIDIA and AMD couldn’t sell these ships to China at all. If they can get that business back in exchange for a 15% cut, that’s a win for their shareholders.”
+NVDA Headquarters Courtesy of NVIDIA
+NVIDIA Corporation (NASDAQ:NVDA) designs GPUs, AI platforms, cloud services, and software for gaming, professional visualization, data centers, automotive, and robotics applications.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the stocks Jim Cramer recently discussed. Cramer discussed the companys business with China during the episode. He said: This morning, we learned that the US government is planning to take a 15% cut on all the AI chips that these two companies are currently selling to China. For NVIDIA, that means a 15% cut on the H20, which was their cutting edge chip for AI a few years ago, something they were previously banned from selling in the PRC. The president then said that NVIDIA might be getting approval to sell a next generation chip to the Chinese, something, wow, more like their current version, Blackwell, except it wont have as much computing power. We didnt expect that Blackwell could be allowed in China. This was a big deal that the market completely just ignored. That was a mistake. President had asked for 20% cut of revenues, but NVIDIA CEO Jensen Huang bargained him down to 15%. That was good The cost of shareholders for the NVIDIA deal, as we told investing club members today, NVIDIA was selling about $8 billion worth of chips to China every quarter prior to the previous export restriction. A 15% haircut would equate to a little more than $1 billion per quarter or about $5 billion per year. Hey, thats a big number for most companies, but not for NVIDIA. They were desperate to get this China business back by any means necessary From the perspective of big business, this is a great deal. Under the previous export controls, NVIDIA and AMD couldnt sell these ships to China at all. If they can get that business back in exchange for a 15% cut, thats a win for their shareholders. NVDA Headquarters Courtesy of NVIDIA NVIDIA Corporation (NASDAQ:NVDA) designs GPUs, AI platforms, cloud services, and software for gaming, professional visualization, data centers, automotive, and robotics applications. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>45884.11875</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Dell, NVIDIA, Elastic Partner to Enhance AI Data Platform</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr"/>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141475/dell-nvidia-elastic-partner-to-enhance-ai-data-platform</t>
+        </is>
+      </c>
+      <c r="E478" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the best high-volume stocks to invest in. On August 12, Dell Technologies Inc. (NYSE:DELL) announced a partnership with NVIDIA and Elastic (NYSE:ESTC) to enhance its AI Data Platform, which is designed to help enterprises build and scale AI workloads.
+The platform is intended to accelerate workflows and break down data silos and integrates Dell PowerEdge R7725 servers, which are equipped with Nvidia’s RTX PRO 6000 Blackwell Server Edition GPUs for high-performance AI workloads. This hardware will become globally available later in the year. The collaboration also brings in Elastic’s Elasticsearch technology to enable natural language and vector search capabilities.
+A close-up of a colorful high-end graphics card being plugged in to a gaming computer.
+Furthermore, Nvidia’s Omniverse libraries and AI models will be used to streamline searches within large 3D asset libraries. Vrashank Jain, a product director at Dell, noted that this collaboration will provide a shortcut to greater AI-based efficiency that companies crave.
+NVIDIA Corporation (NASDAQ:NVDA) is a computing infrastructure company that provides graphics and compute &amp; networking solutions internationally
+Dell Technologies Inc. (NYSE:DELL) designs, develops, manufactures, markets, sells, and supports various comprehensive and integrated solutions, products, and services internationally.
+Elastic (NYSE:ESTC) is a search AI company that provides software platforms to run in hybrid, public, or private clouds and multi-cloud environments internationally.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you’re looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now.
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the best high volume stocks to invest in. On August 12, Dell Technologies Inc. (NYSE:DELL) announced a partnership with NVIDIA and Elastic (NYSE:ESTC) to enhance its AI Data Platform, which is designed to help enterprises build and scale AI workloads. The platform is intended to accelerate workflows and break down data silos and integrates Dell PowerEdge R7725 servers, which are equipped with Nvidias RTX PRO 6000 Blackwell Server Edition GPUs for high performance AI workloads. This hardware will become globally available later in the year. The collaboration also brings in Elastics Elasticsearch technology to enable natural language and vector search capabilities. A close up of a colorful high end graphics card being plugged in to a gaming computer. Furthermore, Nvidias Omniverse libraries and AI models will be used to streamline searches within large 3D asset libraries. Vrashank Jain, a product director at Dell, noted that this collaboration will provide a shortcut to greater AI based efficiency that companies crave. NVIDIA Corporation (NASDAQ:NVDA) is a computing infrastructure company that provides graphics and compute &amp; networking solutions internationally Dell Technologies Inc. (NYSE:DELL) designs, develops, manufactures, markets, sells, and supports various comprehensive and integrated solutions, products, and services internationally. Elastic (NYSE:ESTC) is a search AI company that provides software platforms to run in hybrid, public, or private clouds and multi cloud environments internationally. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If youre looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 30 Stocks That Should Double in 3 Years and 11 Hidden AI Stocks to Buy Right Now. Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>45884.0625</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>As Tech Stocks Rally, Risk Rises. Why Energy and Healthcare Could Be Options.</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr"/>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/tech-energy-healthcare-stocks-markets-cf964dda?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E479" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr"/>
+      <c r="H479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>45883.84652777778</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Soros, Appaloosa boost their Nvidia stake. They also bought this beaten-down stock, and it's rallying.</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.marketwatch.com/story/soros-appaloosa-boost-their-holdings-in-this-mag-7-stock-amid-ai-spending-boom-514807d8?mod=mw_FV</t>
+        </is>
+      </c>
+      <c r="E480" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr"/>
+      <c r="H480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>45883.81597222222</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Hedge funds shift bets to double down on Big Tech amid AI boom</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr"/>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/hedge-funds-shift-bets-double-233524300.html</t>
+        </is>
+      </c>
+      <c r="E481" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr"/>
+      <c r="H481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>45883.75416666667</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Liberty All-Star® Growth Fund, Inc. July 2025 Monthly Update</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-growth-fund-inc-220600993.html</t>
+        </is>
+      </c>
+      <c r="E482" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>45883.75416666667</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Liberty All-Star® Equity Fund July 2025 Monthly Update</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/liberty-star-equity-fund-july-220600509.html</t>
+        </is>
+      </c>
+      <c r="E483" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>45883.72083333333</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Nvidia, AMD, Other AI Stocks Score Price-Target Hikes Amid Strong AI Server Demand</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.investors.com/news/technology/ai-stocks-score-price-target-hikes-strong-server-sales?mod=IBD_FV</t>
+        </is>
+      </c>
+      <c r="E484" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>45883.70763888889</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Nvidia's one of the cheaper AI names out there, says Bernstein's Stacy Rasgon</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr"/>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.youtube.com/watch?v=c7YoYkKtCfk</t>
+        </is>
+      </c>
+      <c r="E485" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr"/>
+      <c r="H485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>45883.69444444445</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Strategy Pushed Deceptive Comparison to Apple and NVIDIA, Wall Street Veteran Says</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr"/>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/65c5a297-973e-3cab-8341-10bc5e0b35e7/strategy-pushed-%E2%80%98deceptive%E2%80%99.html</t>
+        </is>
+      </c>
+      <c r="E486" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr"/>
+      <c r="H486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>45883.69444444445</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Intel stock surges on report Trump administration mulls taking stake in company</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/intel-stock-surges-on-report-trump-administration-mulls-taking-stake-in-company-204003673.html</t>
+        </is>
+      </c>
+      <c r="E487" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr"/>
+      <c r="H487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>45883.66180555556</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Trump weighs taking stake in Intel, Bloomberg News reports</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/us-weighs-taking-stake-intel-195356266.html</t>
+        </is>
+      </c>
+      <c r="E488" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>45883.63541666666</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Dow And Nasdaq Edge Lower As AI Stock Coherent Hits 3 Sell Signals; 3 Growth Stocks Set Up Entries (Live)</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr"/>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-and.html</t>
+        </is>
+      </c>
+      <c r="E489" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr"/>
+      <c r="H489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>45883.62638888889</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Ken Fisher's Strategic Moves: Oracle Corp Sees Significant Reduction</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/ken-fishers-strategic-moves-oracle-190218225.html</t>
+        </is>
+      </c>
+      <c r="E490" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>45883.62569444445</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Kevin O'Leary Says Nvidia, AMD Still Win Under Trump China Plan Despite 15% 'Form Of Blackmail' Levy</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr"/>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/kevin-oleary-says-nvidia-amd-190100564.html</t>
+        </is>
+      </c>
+      <c r="E491" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>45883.625</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Should You Buy Intel Stock After President Trump's CEO Praise?</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141119/should-you-buy-intel-stock-after-president-trumps-ceo-praise</t>
+        </is>
+      </c>
+      <c r="E492" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>Intel Corporation INTC has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corporation NVDA and Advanced Micro Devices, Inc. AMD in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trump’s inconsistent stance on Intel CEO has drawn investors’ interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Let’s see –
+Trump’s Admiration for Tan – What it Means for INTC Investors
+Last month, Cadence Design Systems, Inc. CDNS acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intel’s current CEO, Lip-Bu Tan, was leading Cadence.
+Trump learned of Cotton’s letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cotton’s letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals.
+In reaction, Trump commended Tan's achievements, referring to his success and ascent as an “amazing story.” Trump also endorsed Tan’s leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Let’s not forget, Tan is a well-known venture capitalist, respected for his expertise in the semiconductor industry.
+Is a Turnaround for Intel Probable Soon?
+Intel’s business has been struggling for quite some time. Despite Tan’s initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year-ago levels.
+Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. It’s worse than the $2.8 billion loss that the segment posted a year ago.
+Intel’s gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short-term investments accounted for only $21.2 billion.
+However, under Tan’s strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio.
+Intel is planning to provide a full-stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node.
+While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the company’s business. In time, the semiconductor giant has the potential to regain its former glory.
+Should You Buy INTC Stock Now or Wait a While?
+Trump’s support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intel’s price-to-book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future.
+Image Source: Zacks Investment Research
+However, new investors should remain passive and watch for meaningful progress. This is because it’s too early to predict the potential success of Tan’s initiatives, and Intel’s financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of today’s Zacks Rank #1 (Strong Buy) stocks here.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Intel Corporation (INTC): Free Stock Analysis Report Advanced Micro Devices, Inc. (AMD): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Cadence Design Systems, Inc. (CDNS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>Intel Corporation INTC has laid out bold strategies for its turnaround as it faces stiff competition from the likes of NVIDIA Corporation NVDA and Advanced Micro Devices, Inc. AMD in the artificial intelligence (AI) data center market. Amid these developments, President Donald Trumps inconsistent stance on Intel CEO has drawn investors interest toward the semiconductor giant. Is it time for investors to adopt a bullish outlook on Intel stock? Lets see Trumps Admiration for Tan What it Means for INTC Investors Last month, Cadence Design Systems, Inc. CDNS acknowledged committing a crime by unlawfully exporting semiconductor design tools to a manufacturer in China that has connections to the Chinese military. Cadence agreed to pay $140 million for violating U.S. export controls. On Aug. 8, Republican Senator Tom Cotton noted that when these transfers took place, Intels current CEO, Lip Bu Tan, was leading Cadence. Trump learned of Cottons letter shortly afterward and urged Tan to step down immediately. However, on Aug. 7, Tan responded to Cottons letter, calling it misinformation, and reaffirmed his commitment to U.S. security interests. He met with Trump at the White House, where he verified that Intel's investments are in harmony with the President's expressed goals. In reaction, Trump commended Tan's achievements, referring to his success and ascent as an amazing story. Trump also endorsed Tans leadership role at Intel. This is positive news for Intel investors. If Tan had to resign, it could have caused further turmoil at Intel during a critical period. Lets not forget, Tan is a well known venture capitalist, respected for his expertise in the semiconductor industry. Is a Turnaround for Intel Probable Soon? Intels business has been struggling for quite some time. Despite Tans initial initiatives to restore stability at Intel, the company reported total revenues of $12.9 billion for the second quarter, almost flat with the year ago levels. Its revenues from subsidiaries such as Altera and Mobileye may have increased, but its product revenues fell 1% to $11.8 billion in the second quarter. Revenues from the foundry business rose. However, the segment reported an operating loss of $3.2 billion in the second quarter. Its worse than the $2.8 billion loss that the segment posted a year ago. Intels gross margin remained under pressure as it reported $4.5 billion in capital expenditure (capex) to scale its foundry business. It ended the quarter with $50.7 billion in debt. On the other hand, cash and short term investments accounted for only $21.2 billion. However, under Tans strong leadership, Intel is exploring strategies to cut costs and enhance profit margins. Tan is optimizing the management team and reducing the workforce to lower operating expenses. Additionally, Tan is scaling back capital expenditures, having already canceled fabrication facilities in Germany and Poland, and plans to slow down the construction of a new plant in Ohio. Intel is planning to provide a full stack AI solution, including graphics processing units (GPUs) and central processing units (CPUs). Intel is embracing its new 18A process at its manufacturing facilities, which will serve a minimum of three generations of its clients. Additionally, the company is securing a major customer for its 14A node. While all these ambitious initiatives may not lead to a quick turnaround for Intel, as shown by the latest quarterly results, they will eventually have a positive effect on the companys business. In time, the semiconductor giant has the potential to regain its former glory. Should You Buy INTC Stock Now or Wait a While? Trumps support for Tan and his efforts to improve operations, provide a competitive AI platform, and divest assets should motivate stakeholders to remain invested in Intel stock. Furthermore, Intels price to book (P/B) ratio is slightly above 0.9, indicating that the stock has a limited risk of decline and potential for gains in the future. Image Source: Zacks Investment Research However, new investors should remain passive and watch for meaningful progress. This is because its too early to predict the potential success of Tans initiatives, and Intels financials merely show improvement. For now, Intel has a Zacks Rank #3 (Hold). You can see the complete list of todays Zacks Rank #1 (Strong Buy) stocks here. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report Intel Corporation (INTC): Free Stock Analysis Report Advanced Micro Devices, Inc. (AMD): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Cadence Design Systems, Inc. (CDNS): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>45883.62152777778</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Big Tech's AI Rally Remains Strong. The Economy Can Chug Along Even Without It.</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-ai-rally-c963a7b1?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E493" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr"/>
+      <c r="H493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>45883.5875</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Money Is Rotating Away From Big Tech Stocks. It's a Good Sign.</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/big-tech-stocks-market-8d1a1a8e?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E494" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45883.58472222222</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Nasdaq Edges Up; AI Stock Coherent Hits 3 Sell Signals As Coach Parent Tapestry Tests 50-Day (Live)</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr"/>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-nasdaq.html</t>
+        </is>
+      </c>
+      <c r="E495" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr"/>
+      <c r="H495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45883.57916666667</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Wedbush: Nvidia, AMD China AI Deal a 'Bullish Catalyst' for Big Tech</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr"/>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/wedbush-nvidia-amd-china-ai-175410596.html</t>
+        </is>
+      </c>
+      <c r="E496" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45883.56944444445</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Cohere hits a $6.8B valuation as investors AMD, Nvidia, and Salesforce double down</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr"/>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/cohere-hits-6-8b-valuation-174027502.html</t>
+        </is>
+      </c>
+      <c r="E497" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr"/>
+      <c r="H497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45883.56597222222</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>If You Bought 100 Shares of Applied Digital at Its IPO, Here's How Much Money You'd Have Now</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr"/>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141052/if-you-bought-100-shares-of-applied-digital-at-its-ipo-heres-how-much-money-youd-have-now</t>
+        </is>
+      </c>
+      <c r="E498" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>Key Points
+Applied Digital had its initial public offering in April 2022 and was initially focused on blockchain and cryptocurrency mining operations.
+The company's strengths in processing hardware allowed it to easily pivot into the AI data center space.
+Applied Digital has delivered strong post-IPO gains, and the company recently scored some big wins.
+Applied Digital (NASDAQ: APLD) stock had its initial public offering (IPO) in April 2022, although the company was known as Applied Blockchain at the time of its public debut. The company's share price has seen some big swings in the intervening years, but it has also delivered big wins for patient investors.
+Applied Digital stock closed out its first day of trading after its IPO priced at $4.85 per share. A purchase of 100 shares at that price would have been equivalent to an investment of $485.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Compared to Applied Digital's stock price at market close on the day of its public debut, the company's share price is now up roughly 205%. That means that an investor who purchased 100 shares of the company's stock at its IPO would now be sitting on a position worth roughly $1,480. Read on for a closer look at the data center specialist's big performance drivers across the stretch and what's on the horizon for the business.
+How did Applied Digital stock deliver big gains -- and what comes next?
+Applied Digital got its start as a company that was focused on blockchain and cryptocurrency mining operations. Luckily for the company, the key graphics processing unit (GPU) hardware that is useful for mining cryptocurrencies is also at the heart of processing for artificial intelligence (AI) model training.
+With the AI revolution gaining steam in recent years, Applied Digital stock has seen a strong uptick in bullish momentum. Applied Digital stock also saw big gains in November 2024 in conjunction with news that Nvidia had taken an investment position in the company. While the company's share price has seen high levels of volatility since its public debut, shares are up roughly 282% over the last year of trading.
+Applied Digital stock has recently seen big gains thanks to news that CoreWeave has opted to exercise an option that it had to expand data center licensing through the company. With CoreWeave ramping up its data center utilization, Applied Digital's growth outlook has become much stronger.
+Should you invest $1,000 in Applied Digital right now?
+Before you buy stock in Applied Digital, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Applied Digital wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $649,544!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,113,059!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,062% — a market-crushing outperformance compared to 185% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 13, 2025
+Keith Noonan has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>Key Points Applied Digital had its initial public offering in April 2022 and was initially focused on blockchain and cryptocurrency mining operations. The company's strengths in processing hardware allowed it to easily pivot into the AI data center space. Applied Digital has delivered strong post IPO gains, and the company recently scored some big wins. Applied Digital (NASDAQ: APLD) stock had its initial public offering (IPO) in April 2022, although the company was known as Applied Blockchain at the time of its public debut. The company's share price has seen some big swings in the intervening years, but it has also delivered big wins for patient investors. Applied Digital stock closed out its first day of trading after its IPO priced at $4.85 per share. A purchase of 100 shares at that price would have been equivalent to an investment of $485. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Compared to Applied Digital's stock price at market close on the day of its public debut, the company's share price is now up roughly 205%. That means that an investor who purchased 100 shares of the company's stock at its IPO would now be sitting on a position worth roughly $1,480. Read on for a closer look at the data center specialist's big performance drivers across the stretch and what's on the horizon for the business. How did Applied Digital stock deliver big gains and what comes next? Applied Digital got its start as a company that was focused on blockchain and cryptocurrency mining operations. Luckily for the company, the key graphics processing unit (GPU) hardware that is useful for mining cryptocurrencies is also at the heart of processing for artificial intelligence (AI) model training. With the AI revolution gaining steam in recent years, Applied Digital stock has seen a strong uptick in bullish momentum. Applied Digital stock also saw big gains in November 2024 in conjunction with news that Nvidia had taken an investment position in the company. While the company's share price has seen high levels of volatility since its public debut, shares are up roughly 282% over the last year of trading. Applied Digital stock has recently seen big gains thanks to news that CoreWeave has opted to exercise an option that it had to expand data center licensing through the company. With CoreWeave ramping up its data center utilization, Applied Digital's growth outlook has become much stronger. Should you invest $1,000 in Applied Digital right now? Before you buy stock in Applied Digital, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Applied Digital wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $649,544! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,113,059! Now, its worth noting Stock Advisors total average return is 1,062% a market crushing outperformance compared to 185% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 13, 2025 Keith Noonan has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45883.54166666666</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Cisco's Q4 Earnings Beat Estimates, Revenues Rise Y/Y, Shares Down</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/141056/ciscos-q4-earnings-beat-estimates-revenues-rise-yy-shares-down</t>
+        </is>
+      </c>
+      <c r="E499" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>Cisco Systems CSCO reported fourth-quarter fiscal 2025 non-GAAP earnings of 99 cents per share, beating the Zacks Consensus Estimate by 2.06%. The figure increased 13.8% year over year.
+Revenues of $14.67 billion surpassed the Zacks Consensus Estimate by 0.47%. The top line increased 7.6% year over year. Total Annual Recurring Revenues (ARR) were $31.1 billion, up 5% with product ARR growth of 8%.
+Cisco shares were down 0.63% at the time of writing this article. In the year-to-date (YTD) period, CSCO shares have appreciated 18.9%, outperforming the Zacks Computer &amp; Technology sector’s return of 14.6% but underperforming peers, including Broadcom AVGO and Arista Networks ANET. YTD, Broadcom and Arista Networks have returned 32.9% and 24.8%, respectively.
+Arista Networks reported strong second-quarter 2025 earnings of 73 cents per share, beating the Zacks Consensus Estimate by 12.3%. Broadcom is set to report third-quarter fiscal 2025 results on Sept. 4, with revenues expected to grow 21% year over year to $15.8 billion.
+Cisco Systems, Inc. Price, Consensus and EPS Surprise
+Cisco Systems, Inc. price-consensus-eps-surprise-chart | Cisco Systems, Inc. Quote
+CSCO’s Q4 Top-Line Details
+Revenues from Networking in the fourth quarter of fiscal 2025 were $7.63 billion, up 12% on a year-over-year basis. Security revenues were $1.95 billion, up 9% year over year. Collaboration revenues were $1.04 billion, up 2% year over year. Observability revenues were $259 million, up 4% year over year.
+Total Product revenues in the fourth quarter of fiscal 2025 were $10.89 billion, comprising 74.2% of Cisco’s total revenues. On a year-over-year basis, product revenues increased 10%. Service Revenues were $3.79 billion, comprising 25.8% of Cisco’s total revenues and flat on a year-over-year basis.
+Region-wise, the Americas’ revenues increased 9% year over year to $8.82 billion. EMEA (Europe, Middle East and Africa) revenues climbed 4% year over year to $3.65 billion. APJC (Asia Pacific Japan China) revenues climbed 7% year over year to $2.21 billion.
+In the fourth quarter of fiscal 2025, AI Infrastructure orders from webscale customers exceeded $800 million, bringing the total revenues to $2 billion in fiscal 2025, double the management’s original expectation.
+Cisco is benefiting from its partnership with NVIDIA NVDA. Integration of Cisco Nexus switches with NVIDIA's Spectrum-X architecture is offering low latency, high-speed networking for AI clusters driving enterprise AI orders. The Cisco Secure AI factory with NVIDIA provides a trusted blueprint for building secure AI-ready data centers for enterprises, sovereign cloud providers and newly emerging Neocloud providers.
+CSCO’s Q4 Operating Details
+Fourth-quarter fiscal 2025 non-GAAP gross margin was 68.4%, which expanded 40 basis points (bps) year over year. On a non-GAAP basis, the product gross margin increased 160 bps on a year-over-year basis to 50.1%. Service gross margin decreased 120 bps to 18.3%.
+In the fourth quarter of fiscal 2025, Cisco reported total non-GAAP operating expenses of $5 billion, up 3.6% year over year. As a percentage of revenues, operating expenses declined 130 bps.
+Consequently, CSCO reported a non-GAAP operating income of $5.03 billion, up 13.3% year over year. Operating margin expanded 170 bps year over year to 34.3%.
+CSCO’s Balance Sheet Details
+As of July 26, 2025, cash and cash equivalents and investments totaled $16.1 billion, which increased from $15.6 billion as of April 26, 2025.
+Total debt was $28.1 billion as of July 26, 2025, compared with $29.2 billion as of April 26, 2025.
+The remaining performance obligations (RPO) at the end of the fourth quarter of fiscal 2025 were $43.5 billion, up 6%, with 50% of the amount to be recognized as revenues over the following 12 months. Product RPO was up 8%, and services RPO was up 5%.
+In the fourth quarter of fiscal 2025, CSCO returned $2.9 billion to stockholders through share buybacks ($1.3 billion) and dividends ($1.6 billion).
+CSCO Offers Positive Guidance
+For the first quarter of fiscal 2026, Cisco expects non-GAAP earnings between 97 cents per share and 99 cents per share.
+Revenues are expected to be in the range of $14.65 billion-$14.85 billion.
+Non-GAAP gross margins are expected to be between 67.5% and 68.5%. Non-GAAP operating margin is anticipated to be between 33% and 34%.
+For fiscal 2026, Cisco expects non-GAAP earnings between $4 per share and $4.06 per share. This Zacks Rank #2 (Buy) company expects revenues between $59 billion and $60 billion. You can see the complete list of today’s Zacks #1 Rank (Strong Buy) stocks here.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Cisco Systems, Inc. (CSCO): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Broadcom Inc. (AVGO): Free Stock Analysis Report Arista Networks, Inc. (ANET): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>Cisco Systems CSCO reported fourth quarter fiscal 2025 non GAAP earnings of 99 cents per share, beating the Zacks Consensus Estimate by 2.06%. The figure increased 13.8% year over year. Revenues of $14.67 billion surpassed the Zacks Consensus Estimate by 0.47%. The top line increased 7.6% year over year. Total Annual Recurring Revenues (ARR) were $31.1 billion, up 5% with product ARR growth of 8%. Cisco shares were down 0.63% at the time of writing this article. In the year to date (YTD) period, CSCO shares have appreciated 18.9%, outperforming the Zacks Computer &amp; Technology sectors return of 14.6% but underperforming peers, including Broadcom AVGO and Arista Networks ANET. YTD, Broadcom and Arista Networks have returned 32.9% and 24.8%, respectively. Arista Networks reported strong second quarter 2025 earnings of 73 cents per share, beating the Zacks Consensus Estimate by 12.3%. Broadcom is set to report third quarter fiscal 2025 results on Sept. 4, with revenues expected to grow 21% year over year to $15.8 billion. Cisco Systems, Inc. Price, Consensus and EPS Surprise Cisco Systems, Inc. price consensus eps surprise chart Cisco Systems, Inc. Quote CSCOs Q4 Top Line Details Revenues from Networking in the fourth quarter of fiscal 2025 were $7.63 billion, up 12% on a year over year basis. Security revenues were $1.95 billion, up 9% year over year. Collaboration revenues were $1.04 billion, up 2% year over year. Observability revenues were $259 million, up 4% year over year. Total Product revenues in the fourth quarter of fiscal 2025 were $10.89 billion, comprising 74.2% of Ciscos total revenues. On a year over year basis, product revenues increased 10%. Service Revenues were $3.79 billion, comprising 25.8% of Ciscos total revenues and flat on a year over year basis. Region wise, the Americas revenues increased 9% year over year to $8.82 billion. EMEA (Europe, Middle East and Africa) revenues climbed 4% year over year to $3.65 billion. APJC (Asia Pacific Japan China) revenues climbed 7% year over year to $2.21 billion. In the fourth quarter of fiscal 2025, AI Infrastructure orders from webscale customers exceeded $800 million, bringing the total revenues to $2 billion in fiscal 2025, double the managements original expectation. Cisco is benefiting from its partnership with NVIDIA NVDA. Integration of Cisco Nexus switches with NVIDIA's Spectrum X architecture is offering low latency, high speed networking for AI clusters driving enterprise AI orders. The Cisco Secure AI factory with NVIDIA provides a trusted blueprint for building secure AI ready data centers for enterprises, sovereign cloud providers and newly emerging Neocloud providers. CSCOs Q4 Operating Details Fourth quarter fiscal 2025 non GAAP gross margin was 68.4%, which expanded 40 basis points (bps) year over year. On a non GAAP basis, the product gross margin increased 160 bps on a year over year basis to 50.1%. Service gross margin decreased 120 bps to 18.3%. In the fourth quarter of fiscal 2025, Cisco reported total non GAAP operating expenses of $5 billion, up 3.6% year over year. As a percentage of revenues, operating expenses declined 130 bps. Consequently, CSCO reported a non GAAP operating income of $5.03 billion, up 13.3% year over year. Operating margin expanded 170 bps year over year to 34.3%. CSCOs Balance Sheet Details As of July 26, 2025, cash and cash equivalents and investments totaled $16.1 billion, which increased from $15.6 billion as of April 26, 2025. Total debt was $28.1 billion as of July 26, 2025, compared with $29.2 billion as of April 26, 2025. The remaining performance obligations (RPO) at the end of the fourth quarter of fiscal 2025 were $43.5 billion, up 6%, with 50% of the amount to be recognized as revenues over the following 12 months. Product RPO was up 8%, and services RPO was up 5%. In the fourth quarter of fiscal 2025, CSCO returned $2.9 billion to stockholders through share buybacks ($1.3 billion) and dividends ($1.6 billion). CSCO Offers Positive Guidance For the first quarter of fiscal 2026, Cisco expects non GAAP earnings between 97 cents per share and 99 cents per share. Revenues are expected to be in the range of $14.65 billion $14.85 billion. Non GAAP gross margins are expected to be between 67.5% and 68.5%. Non GAAP operating margin is anticipated to be between 33% and 34%. For fiscal 2026, Cisco expects non GAAP earnings between $4 per share and $4.06 per share. This Zacks Rank #2 (Buy) company expects revenues between $59 billion and $60 billion. You can see the complete list of todays Zacks #1 Rank (Strong Buy) stocks here. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report Cisco Systems, Inc. (CSCO): Free Stock Analysis Report NVIDIA Corporation (NVDA): Free Stock Analysis Report Broadcom Inc. (AVGO): Free Stock Analysis Report Arista Networks, Inc. (ANET): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45883.52777777778</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Deeply Undervalued, Micron Technologies Stock Isn't Pricing in AI</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr"/>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/140962/deeply-undervalued-micron-technologies-stock-isnt-pricing-in-ai</t>
+        </is>
+      </c>
+      <c r="E500" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>Micron Technologies' (NASDAQ: MU) stock is in rebound mode as of mid-August and will likely continue higher because its market has yet to price in the long-term impact of AI. AI is a memory-intensive technology, and its needs are expected to grow exponentially with each upcoming generation.
+Not only is Micron’s technology in demand from both leading GPU manufacturers, but the market dynamic is set up for accelerated demand in 2026.
+Advanced Micro Devices (NASDAQ: AMD) AI-focused GPUs have significantly more memory than NVIDIA’s (NASDAQ: NVDA) designs and are expected to begin gaining share in 2026. AMD’s new, rack-scale capability will underpin the share gains and, by extension, demand for Micron HBM4 technology.
+The estimates regarding the GPU market and outlook vary from source to source, but they generally agree that GPU needs will grow at a solid, double-digit CAGR for the next five to ten years.
+Regarding Micron and its value, assuming the 15 times P/E valuation it is running in mid-August is fair value, the stock presents a deep value to long-term buy-and-hold investors.
+The consensus forecast reported by MarketBeat puts this stock at only 8x earnings within two years, suggesting the potential for a nearly triple-digit stock price increase. Assuming the long-term forecasts are too low, and they are, the value deepens.
+Micron’s Growth Outlook Underpinned by AI… and Market Normalization
+Not only is AI underpinning Micron’s long-term outlook, but normalization within legacy end markets is also in play. While YOY contraction persisted in some segments in FQ3, all produced sequential strength and are expected to return to growth in Q4 or early in the subsequent fiscal year.
+This provides a solid foundation for the DRAM business, which includes the data center (more than 50% of the revenue in Q3) and HBM markets. HBM sales grew more than 50% sequentially in Q3 from Q2, driving the data center business to more than double, and the guidance was also strong.
+The company forecasts another high 30% growth pace and is expected to outpace its target by the analysts.
+The analysts' trends are robust, including numerous revenue and earnings forecast adjustments that forecast Micron's strength. MarketBeat reveals that 21 of 23 analysts issuing revenue and earnings forecasts, or more than 90%, have lifted their quarterly forecasts, setting a high expectation bar.
+The consensus as of mid-August is significantly higher than the company’s guidance, with the revision trend leading to an above-consensus result. A consensus-beating result is a bullish market catalyst and likely to send the stock higher.
+The stock price outlook is equally robust. MarketBeat tracks 26 analysts with current ratings, most of which were refreshed following the FQ3 release. The trends include upgrades, firming sentiment, and price target revisions that lead to the high-end range.
+The consensus forecasts a 15% upside that may be achieved before the upcoming FQ4 release, while the high-end range adds 35%. At the same time, commentaries focused on volume and pricing strength, a favorable demand/inventory environment, and an expectation for sustained improvement.
+Micron Stock Is Poised to Move Higher
+Micron’s stock price action in mid-August confirms the rebound and uptrend that began in April and gained momentum with the Q3 release. The August action has the market poised to set a new long-term high, opening the door to another sustained updraft in the stock price.
+The market could rise by as much as $20 in the near term and over $60 in the longer term, matching the rallies that preceded the breakout. Micron’s stock price is headed to the $150 to $190 range in this scenario, enough to push the market to record high levels at the top of the analysts' range.
+Before you make your next trade, you'll want to hear this.
+MarketBeat keeps track of Wall Street's top-rated and best performing research analysts and the stocks they recommend to their clients on a daily basis.
+Our team has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and none of the big name stocks were on the list.
+They believe these five stocks are the five best companies for investors to buy now...
+See The Five Stocks Here
+The article "Deeply Undervalued, Micron Technologies Stock Isn’t Pricing in AI" first appeared on MarketBeat.</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>Micron Technologies' (NASDAQ: MU) stock is in rebound mode as of mid August and will likely continue higher because its market has yet to price in the long term impact of AI. AI is a memory intensive technology, and its needs are expected to grow exponentially with each upcoming generation. Not only is Microns technology in demand from both leading GPU manufacturers, but the market dynamic is set up for accelerated demand in 2026. Advanced Micro Devices (NASDAQ: AMD) AI focused GPUs have significantly more memory than NVIDIAs (NASDAQ: NVDA) designs and are expected to begin gaining share in 2026. AMDs new, rack scale capability will underpin the share gains and, by extension, demand for Micron HBM4 technology. The estimates regarding the GPU market and outlook vary from source to source, but they generally agree that GPU needs will grow at a solid, double digit CAGR for the next five to ten years. Regarding Micron and its value, assuming the 15 times P/E valuation it is running in mid August is fair value, the stock presents a deep value to long term buy and hold investors. The consensus forecast reported by MarketBeat puts this stock at only 8x earnings within two years, suggesting the potential for a nearly triple digit stock price increase. Assuming the long term forecasts are too low, and they are, the value deepens. Microns Growth Outlook Underpinned by AI and Market Normalization Not only is AI underpinning Microns long term outlook, but normalization within legacy end markets is also in play. While YOY contraction persisted in some segments in FQ3, all produced sequential strength and are expected to return to growth in Q4 or early in the subsequent fiscal year. This provides a solid foundation for the DRAM business, which includes the data center (more than 50% of the revenue in Q3) and HBM markets. HBM sales grew more than 50% sequentially in Q3 from Q2, driving the data center business to more than double, and the guidance was also strong. The company forecasts another high 30% growth pace and is expected to outpace its target by the analysts. The analysts' trends are robust, including numerous revenue and earnings forecast adjustments that forecast Micron's strength. MarketBeat reveals that 21 of 23 analysts issuing revenue and earnings forecasts, or more than 90%, have lifted their quarterly forecasts, setting a high expectation bar. The consensus as of mid August is significantly higher than the companys guidance, with the revision trend leading to an above consensus result. A consensus beating result is a bullish market catalyst and likely to send the stock higher. The stock price outlook is equally robust. MarketBeat tracks 26 analysts with current ratings, most of which were refreshed following the FQ3 release. The trends include upgrades, firming sentiment, and price target revisions that lead to the high end range. The consensus forecasts a 15% upside that may be achieved before the upcoming FQ4 release, while the high end range adds 35%. At the same time, commentaries focused on volume and pricing strength, a favorable demand/inventory environment, and an expectation for sustained improvement. Micron Stock Is Poised to Move Higher Microns stock price action in mid August confirms the rebound and uptrend that began in April and gained momentum with the Q3 release. The August action has the market poised to set a new long term high, opening the door to another sustained updraft in the stock price. The market could rise by as much as $20 in the near term and over $60 in the longer term, matching the rallies that preceded the breakout. Microns stock price is headed to the $150 to $190 range in this scenario, enough to push the market to record high levels at the top of the analysts' range. Before you make your next trade, you'll want to hear this. MarketBeat keeps track of Wall Street's top rated and best performing research analysts and the stocks they recommend to their clients on a daily basis. Our team has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and none of the big name stocks were on the list. They believe these five stocks are the five best companies for investors to buy now... See The Five Stocks Here The article "Deeply Undervalued, Micron Technologies Stock Isnt Pricing in AI" first appeared on MarketBeat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45883.51944444444</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Stock Market Today: Dow Down; AI Stock Coherent Delivers 3 Sell Signals; Coach Owner Tapestry Gets Support At Key Level (Live)</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr"/>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/36087ff9-fb9e-3e36-b7a8-503812d7e13a/stock-market-today%3A-dow-down%3B.html</t>
+        </is>
+      </c>
+      <c r="E501" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr"/>
+      <c r="H501" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/finviz_data.xlsx
+++ b/finviz_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/asian-shares-mostly-higher-mixed-045707285.html</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>45890</v>
       </c>
       <c r="F2" t="inlineStr">
@@ -523,7 +523,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/beijing-turns-against-nvidia-ai-001506966.html</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F3" t="inlineStr">
@@ -549,7 +549,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/060a3933-0230-3635-abf3-15f5b541b766/nvidia%E2%80%99s-china-deal.html</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,7 +575,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/oracle-rides-major-deals-openai-015102267.html</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F5" t="inlineStr">
@@ -601,7 +601,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/pension-funds-missing-tech-rally-000136304.html</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F6" t="inlineStr">
@@ -627,7 +627,7 @@
           <t>https://finviz.com/news/145764/analyst-joseph-moore-lifts-nvidia-nvda-price-target-before-earnings-report</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F7" t="inlineStr">
@@ -672,7 +672,7 @@
           <t>https://finviz.comhttps://www.digitimes.com/news/a20250819PD211/samsung-nvidia-blackwell-chips-hbm3e.html</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F8" t="inlineStr">
@@ -698,7 +698,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/4aab6516-917c-398c-a1b2-7a8acb447ad7/ready-to-buy-the-dip%3F-5.html</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F9" t="inlineStr">
@@ -724,7 +724,7 @@
           <t>https://finviz.com/news/145792/is-intels-revival-ahead-after-softbanks-2-billion-investment</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F10" t="inlineStr">
@@ -794,7 +794,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-stock-falls-despite-bullish-214249914.html</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F11" t="inlineStr">
@@ -820,7 +820,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/treasury-secretary-signals-bold-intel-213555928.html</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F12" t="inlineStr">
@@ -846,7 +846,7 @@
           <t>https://finviz.comhttps://www.marketwatch.com/story/as-nasdaq-stumbles-again-investors-start-to-wonder-have-big-tech-stocks-finally-peaked-50c590dc?mod=mw_FV</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F13" t="inlineStr">
@@ -872,7 +872,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-backed-fieldai-bags-405-211359630.html</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F14" t="inlineStr">
@@ -898,7 +898,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/7c02daab-e220-38d6-9fb1-c9a6ae6ee9b8/heard-on-the-street-recap%3A-ai.html</t>
         </is>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F15" t="inlineStr">
@@ -924,7 +924,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/31988b57-dc34-361e-a30e-82d4fac14045/nvidia-vs.-amd%3A-the-charts.html</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F16" t="inlineStr">
@@ -950,7 +950,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/ai-stocks-nvidia-credo-6b25e669?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F17" t="inlineStr">
@@ -976,7 +976,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/asian-markets-waver-japan-exports-075505193.html</t>
         </is>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F18" t="inlineStr">
@@ -1002,7 +1002,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/0bc8b285-5458-373a-acaa-4afe61a0a317/mit-report-on-gen-ai.html</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F19" t="inlineStr">
@@ -1028,7 +1028,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/6f76afa9-7842-3614-8fde-4a40d3990c51/nvidia%2C-tesla-stocks-on-tron%3A.html</t>
         </is>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F20" t="inlineStr">
@@ -1054,7 +1054,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/34db8282-9a6d-3d33-90d7-981796b6f2ab/palantir-falls-for-sixth.html</t>
         </is>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F21" t="inlineStr">
@@ -1080,7 +1080,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/analysis-us-tech-stock-stumble-195516795.html</t>
         </is>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F22" t="inlineStr">
@@ -1106,7 +1106,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/nvidia-hertz-abercrombie-fitch-trending-195410830.html</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F23" t="inlineStr">
@@ -1132,7 +1132,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/live/stock-market-today-nasdaq-leads-market-decline-as-tech-stocks-get-hammered-for-second-day-230802628.html</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F24" t="inlineStr">
@@ -1158,7 +1158,7 @@
           <t>https://finviz.com/news/145646/renaissance-hedge-fund-adds-nvidia-follows-buffett-into-unh</t>
         </is>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F25" t="inlineStr">
@@ -1214,7 +1214,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/tech-chip-stock-sell-off-continues-as-ai-bubble-fears-mount-184837135.html</t>
         </is>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F26" t="inlineStr">
@@ -1240,7 +1240,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/9b6c7e21-4efd-3493-96ea-0e8f69fbd4d9/these-stocks-are-moving-the.html</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F27" t="inlineStr">
@@ -1266,7 +1266,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/nvidia-stock-amd-technical-analysis-bb253717?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F28" t="inlineStr">
@@ -1292,7 +1292,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/f96ee43c-f8af-36df-b7a9-70b9b3d6fa48/how-trump-is-turning.html</t>
         </is>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F29" t="inlineStr">
@@ -1318,7 +1318,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/e8ca7c15-707e-3584-a3c6-ccb42cc0fb40/nvidia-breaks-key-level-as-ai.html</t>
         </is>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F30" t="inlineStr">
@@ -1344,7 +1344,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/nvidia-leads-big-tech-losses-171004667.html</t>
         </is>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F31" t="inlineStr">
@@ -1370,7 +1370,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/9ba6559b-29ea-3364-9273-fa80755cf393/why-mit-study-on-enterprise.html</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F32" t="inlineStr">
@@ -1396,7 +1396,7 @@
           <t>https://finviz.com/news/145608/time-for-a-sector-rotation-away-from-tech-etfs-in-focus</t>
         </is>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F33" t="inlineStr">
@@ -1451,7 +1451,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/90676886-e631-31c9-8dfe-7f6e5f34e1cd/tech-stocks-are-under.html</t>
         </is>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F34" t="inlineStr">
@@ -1477,7 +1477,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nasdaq-slides-again-ai-jitters-164433602.html</t>
         </is>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F35" t="inlineStr">
@@ -1503,7 +1503,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/b2012254-16b8-30f8-a779-cc700fd365e2/tech%2C-media-%26-telecom.html</t>
         </is>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F36" t="inlineStr">
@@ -1529,7 +1529,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/palantir-sinks-lower-chip-stocks-161247488.html</t>
         </is>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F37" t="inlineStr">
@@ -1555,7 +1555,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/c243edfc-5996-3f93-b5f7-4f2257e58f99/palantir-stock-drops-20%25-in-a.html</t>
         </is>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F38" t="inlineStr">
@@ -1581,7 +1581,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/f04cbce4-02f4-3629-bf2a-b3010d5dc613/top-stock-movers-now%3A-target%2C.html</t>
         </is>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F39" t="inlineStr">
@@ -1607,7 +1607,7 @@
           <t>https://finviz.com/news/145462/intel-investors-just-got-amazing-news</t>
         </is>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F40" t="inlineStr">
@@ -1651,7 +1651,7 @@
           <t>https://finviz.comhttps://www.investors.com/news/technology/nvidia-stock-sinks-on-fears-of-ai-bubble-ai-winter?mod=IBD_FV</t>
         </is>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F41" t="inlineStr">
@@ -1677,7 +1677,7 @@
           <t>https://finviz.com/news/145456/what-nvidia-marvell-and-coreweave-stock-investors-should-know-about-recent-updates</t>
         </is>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F42" t="inlineStr">
@@ -1721,7 +1721,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/why-this-is-a-must-watch-in-nvidias-earnings-report-150728435.html</t>
         </is>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F43" t="inlineStr">
@@ -1747,7 +1747,7 @@
           <t>https://finviz.comhttps://www.barrons.com/livecoverage/stock-market-news-today-082025/card/what-s-really-happening-in-the-stock-market-today-wLFpTVsG4cffuLffu7gg?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F44" t="inlineStr">
@@ -1773,7 +1773,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/wedbush-nvidia-earnings-could-next-145513821.html</t>
         </is>
       </c>
-      <c r="E45" s="3" t="n">
+      <c r="E45" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F45" t="inlineStr">
@@ -1799,7 +1799,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/why-targets-new-ceo-wont-have-a-honeymoon-period-opening-bid-top-takeaway-144725734.html</t>
         </is>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F46" t="inlineStr">
@@ -1825,7 +1825,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/intel-talks-large-investors-equity-143856653.html</t>
         </is>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F47" t="inlineStr">
@@ -1851,7 +1851,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/big-investors-ditch-tech-ahead-143349441.html</t>
         </is>
       </c>
-      <c r="E48" s="3" t="n">
+      <c r="E48" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F48" t="inlineStr">
@@ -1877,7 +1877,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/bc-most-active-stocks-143018859.html</t>
         </is>
       </c>
-      <c r="E49" s="3" t="n">
+      <c r="E49" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F49" t="inlineStr">
@@ -1903,7 +1903,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/trump-intel-stake-tech-stocks-655dc2f6?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="E50" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F50" t="inlineStr">
@@ -1929,7 +1929,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/ec7e667d-8c5d-3f4b-abee-13715f8389d1/nvidia-stock-slumps-again..html</t>
         </is>
       </c>
-      <c r="E51" s="3" t="n">
+      <c r="E51" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F51" t="inlineStr">
@@ -1955,7 +1955,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/robotics-startup-fieldai-raises-314-140757889.html</t>
         </is>
       </c>
-      <c r="E52" s="3" t="n">
+      <c r="E52" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F52" t="inlineStr">
@@ -1981,7 +1981,7 @@
           <t>https://finviz.com/news/145416/snowflake-rises-24-year-to-date-buy-sell-or-hold-the-stock</t>
         </is>
       </c>
-      <c r="E53" s="3" t="n">
+      <c r="E53" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F53" t="inlineStr">
@@ -2054,7 +2054,7 @@
           <t>https://finviz.com/news/145397/nvidia-nvda-reports-next-week-wall-street-expects-earnings-growth</t>
         </is>
       </c>
-      <c r="E54" s="3" t="n">
+      <c r="E54" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F54" t="inlineStr">
@@ -2119,7 +2119,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/trump-admin-weighs-stake-intel-135931191.html</t>
         </is>
       </c>
-      <c r="E55" s="3" t="n">
+      <c r="E55" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F55" t="inlineStr">
@@ -2145,7 +2145,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/tech-sell-off-big-tech-135659692.html</t>
         </is>
       </c>
-      <c r="E56" s="3" t="n">
+      <c r="E56" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F56" t="inlineStr">
@@ -2171,7 +2171,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/nvidia-earnings-one-analyst-watching-135648845.html</t>
         </is>
       </c>
-      <c r="E57" s="3" t="n">
+      <c r="E57" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F57" t="inlineStr">
@@ -2197,7 +2197,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/trump-trade-softbank-makes-intel-135542166.html</t>
         </is>
       </c>
-      <c r="E58" s="3" t="n">
+      <c r="E58" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F58" t="inlineStr">
@@ -2223,7 +2223,7 @@
           <t>https://finviz.com/news/145305/stock-market-news-for-aug-20-2025</t>
         </is>
       </c>
-      <c r="E59" s="3" t="n">
+      <c r="E59" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F59" t="inlineStr">
@@ -2272,7 +2272,7 @@
           <t>https://finviz.com/news/145285/micron-trades-near-52-week-high-is-the-stock-still-worth-buying</t>
         </is>
       </c>
-      <c r="E60" s="3" t="n">
+      <c r="E60" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F60" t="inlineStr">
@@ -2325,7 +2325,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvda-nvidia-gets-price-target-121846018.html</t>
         </is>
       </c>
-      <c r="E61" s="3" t="n">
+      <c r="E61" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F61" t="inlineStr">
@@ -2351,7 +2351,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/ai-weekly-openai-cashes-deepseek-120542397.html</t>
         </is>
       </c>
-      <c r="E62" s="3" t="n">
+      <c r="E62" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F62" t="inlineStr">
@@ -2377,7 +2377,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/trump-thinks-owning-piece-intel-120335489.html</t>
         </is>
       </c>
-      <c r="E63" s="3" t="n">
+      <c r="E63" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F63" t="inlineStr">
@@ -2403,7 +2403,7 @@
           <t>https://finviz.com/news/145091/the-best-stocks-to-invest-1000-in-right-now</t>
         </is>
       </c>
-      <c r="E64" s="3" t="n">
+      <c r="E64" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F64" t="inlineStr">
@@ -2480,7 +2480,7 @@
           <t>https://finviz.com/news/145036/prediction-nvidia-stock-will-jump-higher-after-aug-27</t>
         </is>
       </c>
-      <c r="E65" s="3" t="n">
+      <c r="E65" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F65" t="inlineStr">
@@ -2541,7 +2541,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-strategic-advantage-ai-robotics-112635165.html</t>
         </is>
       </c>
-      <c r="E66" s="3" t="n">
+      <c r="E66" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F66" t="inlineStr">
@@ -2567,7 +2567,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-could-guide-below-consensus-112428264.html</t>
         </is>
       </c>
-      <c r="E67" s="3" t="n">
+      <c r="E67" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F67" t="inlineStr">
@@ -2593,7 +2593,7 @@
           <t>https://finviz.com/news/145112/buy-and-hold-3-ai-focused-data-center-cloud-infrastructure-developers</t>
         </is>
       </c>
-      <c r="E68" s="3" t="n">
+      <c r="E68" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F68" t="inlineStr">
@@ -2673,7 +2673,7 @@
           <t>https://finviz.com/news/144988/the-case-for-buying-nvidia-stock-ahead-of-the-robotics-surge</t>
         </is>
       </c>
-      <c r="E69" s="3" t="n">
+      <c r="E69" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F69" t="inlineStr">
@@ -2727,7 +2727,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/52622020-d366-38b8-98ec-25446a57bf01/nvidia-reportedly-developing.html</t>
         </is>
       </c>
-      <c r="E70" s="3" t="n">
+      <c r="E70" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F70" t="inlineStr">
@@ -2753,7 +2753,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/tech-stocks-selloff-ai-trade-things-to-know-today-c1e82878?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E71" s="3" t="n">
+      <c r="E71" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F71" t="inlineStr">
@@ -2779,7 +2779,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/wall-st-futures-slip-tech-103423256.html</t>
         </is>
       </c>
-      <c r="E72" s="3" t="n">
+      <c r="E72" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F72" t="inlineStr">
@@ -2805,7 +2805,7 @@
           <t>https://finviz.com/news/144953/meet-the-monster-stock-thats-crushing-nvidia-and-palantir-on-the-market</t>
         </is>
       </c>
-      <c r="E73" s="3" t="n">
+      <c r="E73" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F73" t="inlineStr">
@@ -2884,7 +2884,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/intels-advantages-from-a-trump-deal-could-be-worth-as-much-as-the-money-100123639.html</t>
         </is>
       </c>
-      <c r="E74" s="3" t="n">
+      <c r="E74" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F74" t="inlineStr">
@@ -2910,7 +2910,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/video/nvidia-semiconductors-still-lead-winners-100000372.html</t>
         </is>
       </c>
-      <c r="E75" s="3" t="n">
+      <c r="E75" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F75" t="inlineStr">
@@ -2936,7 +2936,7 @@
           <t>https://finviz.comhttps://www.barrons.com/articles/nvidia-stock-price-ai-chips-amd-3f3fb7a0?mod=bar_FV</t>
         </is>
       </c>
-      <c r="E76" s="3" t="n">
+      <c r="E76" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F76" t="inlineStr">
@@ -2962,7 +2962,7 @@
           <t>https://finviz.com/news/144844/the-ai-boom-continues-3-top-ai-stocks-to-buy-for-the-rest-of-2025</t>
         </is>
       </c>
-      <c r="E77" s="3" t="n">
+      <c r="E77" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F77" t="inlineStr">
@@ -3041,7 +3041,7 @@
           <t>https://finviz.com/news/144892/the-zacks-analyst-blog-highlights-ionq-microsoft-amazoncom-alphabet-and-nvidia</t>
         </is>
       </c>
-      <c r="E78" s="3" t="n">
+      <c r="E78" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F78" t="inlineStr">
@@ -3116,7 +3116,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/m/6167ab00-1543-3d0c-a3ba-7f3d867bcbe4/corporate-america-is-silent.html</t>
         </is>
       </c>
-      <c r="E79" s="3" t="n">
+      <c r="E79" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F79" t="inlineStr">
@@ -3142,7 +3142,7 @@
           <t>https://finviz.com/news/144840/1-no-brainer-artificial-intelligence-ai-etf-to-buy-with-60-during-the-nasdaq-bull-market</t>
         </is>
       </c>
-      <c r="E80" s="3" t="n">
+      <c r="E80" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F80" t="inlineStr">
@@ -3215,7 +3215,7 @@
           <t>https://finviz.com/news/144842/zackscom-featured-highlights-nvidia-vertiv-holdings-and-mastercard</t>
         </is>
       </c>
-      <c r="E81" s="3" t="n">
+      <c r="E81" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F81" t="inlineStr">
@@ -3301,7 +3301,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/us-tech-stocks-hit-concerns-013856176.html</t>
         </is>
       </c>
-      <c r="E82" s="3" t="n">
+      <c r="E82" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F82" t="inlineStr">
@@ -3327,7 +3327,7 @@
           <t>https://finviz.com/news/144817/more-than-95-of-nvidias-43-billion-investment-portfolio-has-been-put-to-work-in-these-2-scorching-hot-artificial-intelligence-ai-stocks</t>
         </is>
       </c>
-      <c r="E83" s="3" t="n">
+      <c r="E83" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F83" t="inlineStr">
@@ -3410,7 +3410,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/former-nokia-ceo-joining-finnish-070600728.html</t>
         </is>
       </c>
-      <c r="E84" s="3" t="n">
+      <c r="E84" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F84" t="inlineStr">
@@ -3436,7 +3436,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/asian-shares-retreat-tracking-tech-044822554.html</t>
         </is>
       </c>
-      <c r="E85" s="3" t="n">
+      <c r="E85" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F85" t="inlineStr">
@@ -3462,7 +3462,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/morning-bid-tech-wrecks-party-043513679.html</t>
         </is>
       </c>
-      <c r="E86" s="3" t="n">
+      <c r="E86" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F86" t="inlineStr">
@@ -3488,7 +3488,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/thai-data-center-capacity-may-041147405.html</t>
         </is>
       </c>
-      <c r="E87" s="3" t="n">
+      <c r="E87" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="F87" t="inlineStr">
@@ -3514,7 +3514,7 @@
           <t>https://finviz.comhttps://www.digitimes.com/news/a20250820PD210/nvidia-tsmc-ai-chip-cowos-hbm4.html</t>
         </is>
       </c>
-      <c r="E88" s="3" t="n">
+      <c r="E88" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="F88" t="inlineStr">
@@ -3540,7 +3540,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/asia-shares-slip-dollar-steadies-020022659.html</t>
         </is>
       </c>
-      <c r="E89" s="3" t="n">
+      <c r="E89" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="F89" t="inlineStr">
@@ -3566,7 +3566,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/live/stock-market-today-dow-sp-500-nasdaq-futures-trade-flat-after-bruising-day-for-tech-230802289.html</t>
         </is>
       </c>
-      <c r="E90" s="3" t="n">
+      <c r="E90" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="F90" t="inlineStr">
@@ -3592,7 +3592,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/live/stock-market-today-dow-sp-500-nasdaq-futures-slide-after-bruising-day-for-tech-230802068.html</t>
         </is>
       </c>
-      <c r="E91" s="3" t="n">
+      <c r="E91" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="F91" t="inlineStr">
@@ -3618,7 +3618,7 @@
           <t>https://finviz.comhttps://www.digitimes.com/news/a20250819PD230/hbm3e-samsung-demand-nvidia-hbm4.html</t>
         </is>
       </c>
-      <c r="E92" s="3" t="n">
+      <c r="E92" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="F92" t="inlineStr">
@@ -3644,7 +3644,7 @@
           <t>https://finviz.comhttps://www.digitimes.com/news/a20250819PD238/ai-chip-chips-cambricon-nvidia-government.html</t>
         </is>
       </c>
-      <c r="E93" s="3" t="n">
+      <c r="E93" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="F93" t="inlineStr">
@@ -3670,7 +3670,7 @@
           <t>https://finviz.comhttps://www.youtube.com/watch?v=6ws87YBL20U</t>
         </is>
       </c>
-      <c r="E94" s="3" t="n">
+      <c r="E94" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="F94" t="inlineStr">
@@ -3696,7 +3696,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-preps-blackwell-based-ai-214920970.html</t>
         </is>
       </c>
-      <c r="E95" s="3" t="n">
+      <c r="E95" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="F95" t="inlineStr">
@@ -3722,7 +3722,7 @@
           <t>https://finviz.com/news/144681/4-traits-outperforming-stocks-possess</t>
         </is>
       </c>
-      <c r="E96" s="3" t="n">
+      <c r="E96" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="F96" t="inlineStr">
@@ -3775,7 +3775,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/deepseek-pushes-v3-1-nvidia-214715665.html</t>
         </is>
       </c>
-      <c r="E97" s="3" t="n">
+      <c r="E97" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="F97" t="inlineStr">
@@ -3801,7 +3801,7 @@
           <t>https://finviz.com/news/144671/nvidia-nvda-sees-a-more-significant-dip-than-broader-market-some-facts-to-know</t>
         </is>
       </c>
-      <c r="E98" s="3" t="n">
+      <c r="E98" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="F98" t="inlineStr">
@@ -3849,7 +3849,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-drops-blackwell-gpus-geforce-213722521.html</t>
         </is>
       </c>
-      <c r="E99" s="3" t="n">
+      <c r="E99" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="F99" t="inlineStr">
@@ -3875,7 +3875,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/astera-amd-lead-tech-selloff-213720123.html</t>
         </is>
       </c>
-      <c r="E100" s="3" t="n">
+      <c r="E100" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="F100" t="inlineStr">
@@ -3901,7 +3901,7 @@
           <t>https://finviz.comhttps://finance.yahoo.com/news/trading-day-tech-down-notch-210207231.html</t>
         </is>
       </c>
-      <c r="E101" s="3" t="n">
+      <c r="E101" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="F101" t="inlineStr">
@@ -3911,6 +3911,3708 @@
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45890.34305555555</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>The Week Ahead: GDP Update, Nvidia Earnings to Stir the Pot</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/146134/the-week-ahead-gdp-update-nvidia-earnings-to-stir-the-pot</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>As August comes to a close, investors can expect one last slew of pertinent economic data and another round of earnings reports. After last week's solid output, the momentum will carry over with results from Abercrombie &amp; Fitch (ANF), Alibaba (BABA), Bath &amp; Body Works (BBWI), Best Buy (BBY), Dell Technologies (DELL), DICK's Sporting Goods (DKS), Dollar General (DG), Five Below (FIVE), Gap (GAP), Kohl's (KSS), NVIDIA (NVDA), Ulta Beauty (ULTA), and Urban Outfitters (URBN), among others.
+Below is the schedule of key market events for the week ahead. All economic dates are tentative and subject to change.
+The week starts quietly on Monday, Aug. 25, with only new home sales data on the calendar.
+Activity picks up on Tuesday, Aug. 26, with July durable goods orders information and August U.S. consumer confidence data set to make headlines.
+Action calms down on Wednesday, Aug. 27, with no notable economic data scheduled for release.
+But, volume picks up on Thursday, Aug. 28, with several noteworthy announcements, including the release of July initial and continuing jobless claims, pending home sales, and the latest GDP update.
+The ball keeps rolling on Friday, Aug. 29, highlighted by Core PCE and PCE index readings, personal income and spending for July, July retail and wholesale inventories, and the Chicago Business Barometer.</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>As August comes to a close, investors can expect one last slew of pertinent economic data and another round of earnings reports. After last week's solid output, the momentum will carry over with results from Abercrombie &amp; Fitch (ANF), Alibaba (BABA), Bath &amp; Body Works (BBWI), Best Buy (BBY), Dell Technologies (DELL), DICK's Sporting Goods (DKS), Dollar General (DG), Five Below (FIVE), Gap (GAP), Kohl's (KSS), NVIDIA (NVDA), Ulta Beauty (ULTA), and Urban Outfitters (URBN), among others. Below is the schedule of key market events for the week ahead. All economic dates are tentative and subject to change. The week starts quietly on Monday, Aug. 25, with only new home sales data on the calendar. Activity picks up on Tuesday, Aug. 26, with July durable goods orders information and August U.S. consumer confidence data set to make headlines. Action calms down on Wednesday, Aug. 27, with no notable economic data scheduled for release. But, volume picks up on Thursday, Aug. 28, with several noteworthy announcements, including the release of July initial and continuing jobless claims, pending home sales, and the latest GDP update. The ball keeps rolling on Friday, Aug. 29, highlighted by Core PCE and PCE index readings, personal income and spending for July, July retail and wholesale inventories, and the Chicago Business Barometer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45890.33611111111</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ASML Has Entered Buy Territory, But Only For Patient Investors</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/146122/asml-has-entered-buy-territory-but-only-for-patient-investors</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>There are a few players in the technology sector who have a near monopoly in their businesses, and investors can use that to their advantage when planning for the next outsized upside play in their portfolios. Knowing what to look for comes into play for the savvy ones, and those who can connect the dots will likely land on the right side of history in this artificial intelligence gold rush.
+And that is exactly where shares of ASML Holding (NASDAQ: ASML) come into play in this current setup, not only due to their discounted valuations but also because of the moats the underlying business holds across the entire industry, something investors will likely want to have their portfolios exposed to in the coming months.
+For that reason, taking a second look at this stock is justified.
+As it turns out, today’s industry setup is driven mostly by popularity and hyper earnings per share (EPS) growth, which leaves other worthy names behind in the dust to fall into lower prices for reasons that have nothing to do with the underlying fundamentals or business quality, and that is where the opportunity shows up for those willing to be patient.
+Why ASML Should Be Part of an AI Portfolio
+This company holds a near monopoly in extreme ultraviolet (EUV) lithography equipment, which is an absolute necessity when making chips and semiconductors in the five-nanometer segment and below.
+Those chips have enabled some of the biggest names to reach their current positions.
+This means there wouldn’t be an NVIDIA Co. (NASDAQ: NVIDIA) or Intel Corp. (NASDAQ: INTC) without this nanometer lithography technology, and that is why ASML should be a stock taken more and more seriously by investors in today’s market, yet it isn’t.
+It isn’t often that the market offers these sorts of setups, which are purely made from a lack of exposure and popularity and even fear rather than actual fundamentals. Aside from lagging behind in terms of attention and popularity, the fear factor in ASML comes from being directly exposed to China, Asia’s dominant power.
+Fear Has Driven ASML Into a Historical Discount
+Now that the stock trades at only 76% of its 52-week high levels, investors need to understand why this is the case. The truth is, ASML is based in Europe. This nation is capturing a larger share of China’s growth engine by providing technology in exchange for cheap goods and services.
+That said, the market today punishes anything exposed to China, creating an undervaluation gap driven entirely by emotion. All told, ASML stock’s valuation multiples today show a massive valuation gap compared to their historical levels, and that’s where investors can lock in their upside potential.
+With a forward price-to-earnings (P/E) ratio of 27.8x today, ASML stock trades well below the historical 40.0x valuation multiple, meaning an upside gap now exists and has to be closed under the right conditions.
+These conditions won’t be coming from the company itself, but rather in sentiment.
+Investors saw this in any Chinese stock during 2022 and 2025, as they became the most hated and least trusted in the entire market. This was until some of the biggest investors in the United States started to buy them and reiterated their underlying fundamentals, creating a bigger trust base for retail investors to consider them for themselves.
+Which means the ASML story will look a lot like that. Investors are still very early in considering this company, as no major investor or institution is discussing it, despite its crucial role in the chipmaking and semiconductor industry.
+There is one sign to be taken home as a confirmation of this potential future, though, and that is another less popular valuation multiple. With a 14.6x price-to-book (P/B) multiple, ASML contrasts itself from the discounted P/E multiple and now commands a premium compared to the rest of the computer sector and its average 9.1x P/B valuation.
+This means that savvy market operators are choosing the one multiple that few other investors ever check to gain some exposure at a premium in ASML stock, a premium for a reason. This divergence (discounted P/E and premium P/B) typically comes right before a major move in the stock, hence why investors are early.
+Suppose they are willing to endure the criticism of China, volatility, and holding a stock that everyone else has discarded. In that case, these patient investors may see outsized returns in the future when holding ASML stock for themselves.
+Before you make your next trade, you'll want to hear this.
+MarketBeat keeps track of Wall Street's top-rated and best performing research analysts and the stocks they recommend to their clients on a daily basis.
+Our team has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and none of the big name stocks were on the list.
+They believe these five stocks are the five best companies for investors to buy now...
+See The Five Stocks Here
+The article "ASML Has Entered Buy Territory, But Only For Patient Investors" first appeared on MarketBeat.</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>There are a few players in the technology sector who have a near monopoly in their businesses, and investors can use that to their advantage when planning for the next outsized upside play in their portfolios. Knowing what to look for comes into play for the savvy ones, and those who can connect the dots will likely land on the right side of history in this artificial intelligence gold rush. And that is exactly where shares of ASML Holding (NASDAQ: ASML) come into play in this current setup, not only due to their discounted valuations but also because of the moats the underlying business holds across the entire industry, something investors will likely want to have their portfolios exposed to in the coming months. For that reason, taking a second look at this stock is justified. As it turns out, todays industry setup is driven mostly by popularity and hyper earnings per share (EPS) growth, which leaves other worthy names behind in the dust to fall into lower prices for reasons that have nothing to do with the underlying fundamentals or business quality, and that is where the opportunity shows up for those willing to be patient. Why ASML Should Be Part of an AI Portfolio This company holds a near monopoly in extreme ultraviolet (EUV) lithography equipment, which is an absolute necessity when making chips and semiconductors in the five nanometer segment and below. Those chips have enabled some of the biggest names to reach their current positions. This means there wouldnt be an NVIDIA Co. (NASDAQ: NVIDIA) or Intel Corp. (NASDAQ: INTC) without this nanometer lithography technology, and that is why ASML should be a stock taken more and more seriously by investors in todays market, yet it isnt. It isnt often that the market offers these sorts of setups, which are purely made from a lack of exposure and popularity and even fear rather than actual fundamentals. Aside from lagging behind in terms of attention and popularity, the fear factor in ASML comes from being directly exposed to China, Asias dominant power. Fear Has Driven ASML Into a Historical Discount Now that the stock trades at only 76% of its 52 week high levels, investors need to understand why this is the case. The truth is, ASML is based in Europe. This nation is capturing a larger share of Chinas growth engine by providing technology in exchange for cheap goods and services. That said, the market today punishes anything exposed to China, creating an undervaluation gap driven entirely by emotion. All told, ASML stocks valuation multiples today show a massive valuation gap compared to their historical levels, and thats where investors can lock in their upside potential. With a forward price to earnings (P/E) ratio of 27.8x today, ASML stock trades well below the historical 40.0x valuation multiple, meaning an upside gap now exists and has to be closed under the right conditions. These conditions wont be coming from the company itself, but rather in sentiment. Investors saw this in any Chinese stock during 2022 and 2025, as they became the most hated and least trusted in the entire market. This was until some of the biggest investors in the United States started to buy them and reiterated their underlying fundamentals, creating a bigger trust base for retail investors to consider them for themselves. Which means the ASML story will look a lot like that. Investors are still very early in considering this company, as no major investor or institution is discussing it, despite its crucial role in the chipmaking and semiconductor industry. There is one sign to be taken home as a confirmation of this potential future, though, and that is another less popular valuation multiple. With a 14.6x price to book (P/B) multiple, ASML contrasts itself from the discounted P/E multiple and now commands a premium compared to the rest of the computer sector and its average 9.1x P/B valuation. This means that savvy market operators are choosing the one multiple that few other investors ever check to gain some exposure at a premium in ASML stock, a premium for a reason. This divergence (discounted P/E and premium P/B) typically comes right before a major move in the stock, hence why investors are early. Suppose they are willing to endure the criticism of China, volatility, and holding a stock that everyone else has discarded. In that case, these patient investors may see outsized returns in the future when holding ASML stock for themselves. Before you make your next trade, you'll want to hear this. MarketBeat keeps track of Wall Street's top rated and best performing research analysts and the stocks they recommend to their clients on a daily basis. Our team has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and none of the big name stocks were on the list. They believe these five stocks are the five best companies for investors to buy now... See The Five Stocks Here The article "ASML Has Entered Buy Territory, But Only For Patient Investors" first appeared on MarketBeat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45890.33402777778</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Tesla Gigafactory Hit by Fire, Report Says. It's More Bad Luck for the Site After Arson Attack.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/tesla-stock-gigafactory-fire-musk-2bba06c7?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45890.32222222222</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Is Rising-and the AI Trade Has a Fighting Chance</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/nvidia-stock-price-ai-bubble-b4dd712d?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45890.28958333333</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Tech selloff eases as focus turns to Jackson Hole: Yahoo Finance</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/wall-street-trump-nvidia-tesla-205438087.html</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45890.28055555555</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Morning Bid: Tech fright calms but Fed pressure grows</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/morning-bid-tech-fright-calms-104419685.html</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45890.27291666667</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Meta Freezes Artificial Intelligence Hiring: Report. It isn't the End for the AI Trade.</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/meta-stock-ai-trade-bubble-e4e9f0fb?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45890.27083333334</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>AI Fatigue Hits Tech Biggies: Inverse ETFs in Focus</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/146065/ai-fatigue-hits-tech-biggies-inverse-etfs-in-focus</t>
+        </is>
+      </c>
+      <c r="E109" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Short sellers are wagering against top AI stocks currently, which has earned them billions. On Wednesday, the Nasdaq Composite fell 0.7%, capping a two-day decline of 1.5% as concerns about the sustainability of the AI boom made the rounds.
+According to data from S3 Partners, short sellers amassed $5.6 billion on wagers against AI-linked companies in just two trading sessions.
+Among the Magnificent Seven, Meta META has been the hardest hit, down 4% over the past five sessions. NVIDIA NVDA slipped 3.8%, while Microsoft MSFT and Apple AAPL fell nearly 3% each. Alphabet GOOG also fell about 1%. Short bets against these five giants alone led to $2.8 billion in profits for investors over the past two days.
+Beyond Big Tech, losses were steeper. Advanced Micro Devices AMD slid more than 10% in the last week, while Broadcom AVGO and Micron MU each fell over 5%. AI data center operator CoreWeave CRWV — seen as an AI “pure play” — nosedived 24% in the same period.
+Meta has made huge investments in AI. Despite this, short sellers increased positions worth $4.7 billion over the past week, reaping $1.1 billion in profits in just two days. Meanwhile, Palantir PLTR, which had surged more than 150% since April, has now fallen over 15% in its longest losing streak since March. Investors shorting Palantir have gained more than $1 billion.
+The recent downturn has been fueled by shifting sentiment. On Monday, researchers for MIT’s Project NANDA released a report saying 95% of companies it studied are getting no return on AI. The findings of the report were first detailed by Fortune, as quoted on Yahoo Finance.
+Moreover, OpenAI CEO Sam Altman recently indicated that the industry may be in a bubble reminiscent of the dot-com crash. DA Davidson analyst Gil Luria compared the selloff to a pendulum swing, indicating that AI still has “limited applications” outside of chatbots and search. This has tempered enthusiasm among investors, as quoted on Yahoo Finance.
+AI bulls like Wedbush’s Dan Ives remain optimistic. He described the current pullback as temporary and said AI will continue to drive markets higher. He added that “the tech bull cycle will be well intact at least for another 2-3 years given the trillions being spent on AI.”
+Still, if you are of the view that the AI stock valuations are too stretched, you can play inverse tech-based exchange-traded funds (ETFs) at the current level.
+These ETFs include the likes of ProShares UltraPro Short QQQ SQQQ, Direxion Daily Technology Bear 3X Shares TECS, MicroSectors Solactive FANG &amp; Innovation -3X Inverse Leveraged ETN BERZ and ProShares UltraShort QQQ QID, which have gained materially. SQQQ, TECS, BERZ and QID gained 1.8%, 1.8%, 4% and 1.2%, respectively, on Aug. 21, 2025.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+This article originally published on Zacks Investment Research (zacks.com).
+| 1 min | |
+| 4 min | |
+| 5 min | |
+| 6 min | |
+| 9 min | |
+| 9 min |
+Palantir, Shopify Peer Attracting Eyeballs - And Top Funds. Here's Why.
+PLTR
+Investor's Business Daily
+|
+| 10 min | |
+| 11 min | |
+| 11 min | |
+| 14 min | |
+| 31 min | |
+| 31 min | |
+| 45 min | |
+| 45 min |
+AI Replacing Jobs? CEOs Sound The Alarm For White-Collar Workers
+GOOG META
+Investor's Business Daily
+|
+| 1 hour |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Short sellers are wagering against top AI stocks currently, which has earned them billions. On Wednesday, the Nasdaq Composite fell 0.7%, capping a two day decline of 1.5% as concerns about the sustainability of the AI boom made the rounds. According to data from S3 Partners, short sellers amassed $5.6 billion on wagers against AI linked companies in just two trading sessions. Among the Magnificent Seven, Meta META has been the hardest hit, down 4% over the past five sessions. NVIDIA NVDA slipped 3.8%, while Microsoft MSFT and Apple AAPL fell nearly 3% each. Alphabet GOOG also fell about 1%. Short bets against these five giants alone led to $2.8 billion in profits for investors over the past two days. Beyond Big Tech, losses were steeper. Advanced Micro Devices AMD slid more than 10% in the last week, while Broadcom AVGO and Micron MU each fell over 5%. AI data center operator CoreWeave CRWV seen as an AI pure play nosedived 24% in the same period. Meta has made huge investments in AI. Despite this, short sellers increased positions worth $4.7 billion over the past week, reaping $1.1 billion in profits in just two days. Meanwhile, Palantir PLTR, which had surged more than 150% since April, has now fallen over 15% in its longest losing streak since March. Investors shorting Palantir have gained more than $1 billion. The recent downturn has been fueled by shifting sentiment. On Monday, researchers for MITs Project NANDA released a report saying 95% of companies it studied are getting no return on AI. The findings of the report were first detailed by Fortune, as quoted on Yahoo Finance. Moreover, OpenAI CEO Sam Altman recently indicated that the industry may be in a bubble reminiscent of the dot com crash. DA Davidson analyst Gil Luria compared the selloff to a pendulum swing, indicating that AI still has limited applications outside of chatbots and search. This has tempered enthusiasm among investors, as quoted on Yahoo Finance. AI bulls like Wedbushs Dan Ives remain optimistic. He described the current pullback as temporary and said AI will continue to drive markets higher. He added that the tech bull cycle will be well intact at least for another 2 3 years given the trillions being spent on AI. Still, if you are of the view that the AI stock valuations are too stretched, you can play inverse tech based exchange traded funds (ETFs) at the current level. These ETFs include the likes of ProShares UltraPro Short QQQ SQQQ, Direxion Daily Technology Bear 3X Shares TECS, MicroSectors Solactive FANG &amp; Innovation 3X Inverse Leveraged ETN BERZ and ProShares UltraShort QQQ QID, which have gained materially. SQQQ, TECS, BERZ and QID gained 1.8%, 1.8%, 4% and 1.2%, respectively, on Aug. 21, 2025. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report This article originally published on Zacks Investment Research (zacks.com). 1 min 4 min 5 min 6 min 9 min 9 min Palantir, Shopify Peer Attracting Eyeballs And Top Funds. Here's Why. PLTR Investor's Business Daily 10 min 11 min 11 min 14 min 31 min 31 min 45 min 45 min AI Replacing Jobs? CEOs Sound The Alarm For White Collar Workers GOOG META Investor's Business Daily 1 hour Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45890.26875</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Wall St futures slip ahead of Walmart's results, Fed meet</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/wall-st-futures-slip-ahead-102750635.html</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45890.26666666667</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Mark Zuckerberg freezes AI hiring amid bubble fears</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/79f1e00d-00e1-3d56-8635-9ca06d3441fc/mark-zuckerberg-freezes-ai.html</t>
+        </is>
+      </c>
+      <c r="E111" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45890.25347222222</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Here's Why I'm Not Buying the Dip in Nvidia's Stock</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145999/heres-why-im-not-buying-the-dip-in-nvidias-stock</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Key Points
+Nvidia's results are exceptional, but today's price assumes current margins persist and strong growth continues.
+Customer concentration and intensifying competition pose serious risks to the chipmaker.
+There's a real risk that investors buying the stock today may be doing so at a time when the AI chip cycle is peaking in terms of profit margins.
+Nvidia (NASDAQ: NVDA), the godfather of artificial intelligence (AI) chips, just posted extraordinary quarterly results. Revenue was about $44.1 billion in its first quarter of fiscal 2026, a period that ends on April 27. Spotlighting the company's breakneck pace, this top-line figure was up 12% from the prior quarter and 69% year over year. Nvidia's data center segment, which is home to its AI products, did roughly $39.1 billion in revenue, up 10% sequentially and 73% year over year.
+Still, I'm not buying the growth stock, even after a recent pullback in the share price over the last week. My decision to stay on the sidelines during this dip has nothing to do with business performance. It's because I believe today's results are going to make for extremely tough comparisons in future periods, and this will be challenging in the context of the stock's premium valuation. When expectations get stretched, even a modest slowdown can sting.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+Image source: Getty Images.
+Valuation leaves little room for error
+Run the math on today's output. Annualizing the quarter's $44.1 billion in revenue implies about a $176 billion run rate. Free cash flow was about $26.1 billion in the quarter, which annualizes to just over $100 billion. Those are staggering figures. They also set a very high bar, especially for a company in a cyclical industry. In addition, for the stock to work from here, investors are effectively assuming that low- to mid-70% gross margins can be sustained, that demand stays broad across customers, and that the product mix remains rich as volumes scale.
+Furthermore, capital returns are hardly material for investors. Nvidia repurchased about $14.1 billion of stock in the quarter and paid roughly $244 million in dividends. These figures are small relative to the company's market capitalization of more than $4.2 trillion as of this writing, and they hardly bolster the bull case for the stock.
+When the company's top-line growth finally does start to slow and when margins begin normalizing, the stock will have two things working against it: a frothy valuation and comparisons that resemble peak-cycle economics. With a price-to-earnings ratio of 57 as of this writing, the set of assumptions behind today's price leaves very little wiggle room. Investors are effectively paying up for a future that looks a lot like the present: continued double-digit capital expenditure growth from customers, resilient pricing and product mix, a somewhat fair global trade environment, and competitors that are far behind the curve. Of course, it's possible that the future really is this rosy. But given the stock's valuation and the high bar the company is creating for itself, this is also the kind of setup where even small deviations matter. If growth slows from today's pace, or if margins move down from the low 70s, the market may no longer want to pay such a premium multiple for the stock, and shares could fall significantly.
+Business risks
+Though my main concerns are about valuation and tough comparisons, there are some legitimate business-specific risks to keep in mind, too.
+First, there is customer concentration. One direct customer, for instance, represented about 16% of total revenue in fiscal Q1. Another accounted for 14%. Therefore, if these hyperscalers pause to digest capacity or simply slow their investments, it could materially affect Nvidia's growth trajectory and ultimately investor sentiment.
+Another key concern is the threat of competition. While the company clearly dominates the AI chip space today, history is littered with examples of competition making inroads on leaders in different chip types over time. To conclude that it's different this time dangerously ignores past precedent. Over time, competition will probably make reasonable alternatives to Nvidia's chips -- and given the high margins Nvidia sells its most in-demand chips at, there's a lot of room for competition to undercut on pricing. Nvidia customers, therefore, might eventually be willing to embrace some alternative products from competitors, even if they are inferior, as long as they can get them at significantly lower prices.
+With all of this said, shares would need to fall a lot further for me to be interested. My cautious approach could mean I miss out if I'm underestimating the durability of this growth cycle. But that's fine with me. I believe there are more attractive investments with better risk-to-reward profiles to consider buying than this Wall Street darling.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $654,781!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,076,588!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,055% — a market-crushing outperformance compared to 183% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 18, 2025
+Daniel Sparks and his clients have no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Key Points Nvidia's results are exceptional, but today's price assumes current margins persist and strong growth continues. Customer concentration and intensifying competition pose serious risks to the chipmaker. There's a real risk that investors buying the stock today may be doing so at a time when the AI chip cycle is peaking in terms of profit margins. Nvidia (NASDAQ: NVDA), the godfather of artificial intelligence (AI) chips, just posted extraordinary quarterly results. Revenue was about $44.1 billion in its first quarter of fiscal 2026, a period that ends on April 27. Spotlighting the company's breakneck pace, this top line figure was up 12% from the prior quarter and 69% year over year. Nvidia's data center segment, which is home to its AI products, did roughly $39.1 billion in revenue, up 10% sequentially and 73% year over year. Still, I'm not buying the growth stock, even after a recent pullback in the share price over the last week. My decision to stay on the sidelines during this dip has nothing to do with business performance. It's because I believe today's results are going to make for extremely tough comparisons in future periods, and this will be challenging in the context of the stock's premium valuation. When expectations get stretched, even a modest slowdown can sting. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More Image source: Getty Images. Valuation leaves little room for error Run the math on today's output. Annualizing the quarter's $44.1 billion in revenue implies about a $176 billion run rate. Free cash flow was about $26.1 billion in the quarter, which annualizes to just over $100 billion. Those are staggering figures. They also set a very high bar, especially for a company in a cyclical industry. In addition, for the stock to work from here, investors are effectively assuming that low to mid 70% gross margins can be sustained, that demand stays broad across customers, and that the product mix remains rich as volumes scale. Furthermore, capital returns are hardly material for investors. Nvidia repurchased about $14.1 billion of stock in the quarter and paid roughly $244 million in dividends. These figures are small relative to the company's market capitalization of more than $4.2 trillion as of this writing, and they hardly bolster the bull case for the stock. When the company's top line growth finally does start to slow and when margins begin normalizing, the stock will have two things working against it: a frothy valuation and comparisons that resemble peak cycle economics. With a price to earnings ratio of 57 as of this writing, the set of assumptions behind today's price leaves very little wiggle room. Investors are effectively paying up for a future that looks a lot like the present: continued double digit capital expenditure growth from customers, resilient pricing and product mix, a somewhat fair global trade environment, and competitors that are far behind the curve. Of course, it's possible that the future really is this rosy. But given the stock's valuation and the high bar the company is creating for itself, this is also the kind of setup where even small deviations matter. If growth slows from today's pace, or if margins move down from the low 70s, the market may no longer want to pay such a premium multiple for the stock, and shares could fall significantly. Business risks Though my main concerns are about valuation and tough comparisons, there are some legitimate business specific risks to keep in mind, too. First, there is customer concentration. One direct customer, for instance, represented about 16% of total revenue in fiscal Q1. Another accounted for 14%. Therefore, if these hyperscalers pause to digest capacity or simply slow their investments, it could materially affect Nvidia's growth trajectory and ultimately investor sentiment. Another key concern is the threat of competition. While the company clearly dominates the AI chip space today, history is littered with examples of competition making inroads on leaders in different chip types over time. To conclude that it's different this time dangerously ignores past precedent. Over time, competition will probably make reasonable alternatives to Nvidia's chips and given the high margins Nvidia sells its most in demand chips at, there's a lot of room for competition to undercut on pricing. Nvidia customers, therefore, might eventually be willing to embrace some alternative products from competitors, even if they are inferior, as long as they can get them at significantly lower prices. With all of this said, shares would need to fall a lot further for me to be interested. My cautious approach could mean I miss out if I'm underestimating the durability of this growth cycle. But that's fine with me. I believe there are more attractive investments with better risk to reward profiles to consider buying than this Wall Street darling. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $654,781! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,076,588! Now, its worth noting Stock Advisors total average return is 1,055% a market crushing outperformance compared to 183% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 18, 2025 Daniel Sparks and his clients have no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45890.25069444445</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>The Zacks Analyst Blog Highlights Vertiv, Arista Networks, Astera Labs, NVIDIA, Ballard Power Systems and Intel</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/146040/the-zacks-analyst-blog-highlights-vertiv-arista-networks-astera-labs-nvidia-ballard-power-systems-and-intel</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Chicago, IL – August 21, 2025 – Zacks.com announces the list of stocks featured in the Analyst Blog. Every day the Zacks Equity Research analysts discuss the latest news and events impacting stocks and the financial markets. Stocks recently featured in the blog include: Vertiv Holdings Co. VRT, Arista Networks Inc. ANET, Astera Labs Inc. ALAB, NVIDIA Corp. NVDA, Ballard Power Systems Inc. BLDP and Intel Corp. INTC.
+The artificial intelligence (AI) saga, supported by the massive growth of cloud computing and data centers, is yet to fully unfold. The demand for data center capacity surged to manage and store the vast amount of cloud computing-based data.
+The AI infrastructure space remains rock solid supported by an extremely bullish demand scenario. According to a report by Bloomberg Intelligence, “The generative AI market is poised to explode, growing to $1.3 trillion over the next 10 years from a market size of just $40 billion in 2022.”
+In order to reap the benefit of this enormous opportunity, we recommend investors buy at this stage three large AI-powered data center and cloud infrastructure developers and hold for the long term. These companies are: Vertiv Holdings Co., Arista Networks Inc. and Astera Labs Inc. Each of our picks currently carries either a Zacks Rank #1 (Strong Buy) or 2 (Buy). You can see the complete list of today’s Zacks #1 Rank (Strong Buy) stocks here.
+Vertiv Holdings
+Zacks Rank #1 Vertiv Holdings is a leading global provider of critical digital infrastructure and services for data centers, communication networks, and commercial and industrial environments. Its portfolio mainly consists of power, cooling, and IT infrastructure solutions and services, particularly the AI-enabled infrastructure.
+Vertiv is benefiting from an extensive product portfolio, which spans thermal systems, liquid cooling, UPS, switchgear, busbar and modular solutions. CEO Giordano Albertazzi said, "Our 35% sales growth and robust orders momentum reflect both strong market demand and expanded capabilities to serve customers' increasingly complex infrastructure needs."
+Buoyed by unprecedented data center growth, VRT is strategically expanding capacity to accelerate its AI-enabled pipeline. Vertiv’s partnership with NVIDIA Corp. is a key catalyst. VRT aims to stay one GPU generation ahead of NVIDIA, enabling efficient, scalable power solutions for next-generation AI data centers.
+As hyperscalers and enterprises increasingly scale AI deployments to support high-performance data centers, Vertiv’s solutions are gaining traction. Apart from NVIDIA, Vertiv has a rich partner base, which includes Ballard Power Systems Inc., Compass Datacenters, Intel Corp., ZincFive and Tecogen.
+For 2025, the Zacks Consensus Estimate currently shows revenues of $9.97 billion, suggesting an improvement of 24.5% year over year and earnings per share of $3.82, indicating an increase of 34% year over year. The Zacks Consensus Estimate for current-year earnings has improved 7.3% over the last 30 days.
+For 2026, the Zacks Consensus Estimate currently shows revenues of $11.55 billion, suggesting an improvement of 15.8% year over year and earnings per share of $4.85, indicating an increase of 26.9% year over year. The Zacks Consensus Estimate for current-year earnings has improved 10.5% over the last 30 days.
+Arista Networks
+Zacks Rank #2 Arista Networks is engaged in providing cloud networking solutions for data centers and cloud computing environments. ANET offers 10/25/40/50/100 Gigabit Ethernet switches and routers optimized for next-generation data center networks.
+Arista Networks is well-positioned with the right network architecture for client-to-campus data center cloud and AI networking backed by three guiding principles. These include the best-in-class, highly proactive products with resilience, zero-touch automation and telemetry with predictive client-to-cloud one-click operations with granular visibility and prescriptive insights for deeper AI algorithms.
+ANET’s EOS Smart AI Suite and Arista AVA (Autonomous Virtual Assist) enhance AI job monitoring, deep-dive analytics, and proactive performance issue resolution. Arista AVA offers augmentation of pervasive visibility, continuous threat detection, and enforcement. Its AI suite also focuses on network security and optimization.
+ANET’s AI-powered cloud networking solutions provide predictable performance and programmability, enabling seamless integration with third-party applications for network management, automation and orchestration.
+The Arista 2.0 strategy is resonating well with customers with its modern networking platforms being foundational for transformation from silos to centers of data. The versatility of ANET’s unified software stack across various use cases, including WAN routing and campus and data center infrastructure, sets it apart from other competitors in the industry.
+ANET should benefit from its software-driven, data-centric approach that helps customers build their cloud architecture. Diversification across its top verticals and product lines, along with an improved market demand supported by a flexible business model augurs well for long-term growth.
+For 2025, the Zacks Consensus Estimate currently shows revenues of $8.73 billion, suggesting an improvement of 24.6% year over year and earnings per share of $2.81, indicating an increase of 23.8% year over year. The Zacks Consensus Estimate for current-year earnings has improved 9.8% over the last 30 days.
+For 2026, the Zacks Consensus Estimate currently shows revenues of $10.28 billion, suggesting an improvement of 17.8% year over year and earnings per share of $3.18, indicating an increase of 12.9% year over year. The Zacks Consensus Estimate for current-year earnings has improved 8.2% over the last 30 days.
+Astera Labs
+Zacks Rank #1 Astera Labs is a developer of connectivity solutions for cloud computing and AI applications. Its key offerings include an Intelligent Connectivity Platform that has both hardware (like chips and modules) and software (COSMOS) designed to enhance connectivity in AI and cloud environments.
+Astera Labs has emerged as a key player in next-generation data center connectivity, with a full-stack portfolio spanning PCIe 6.0 and Ultra Accelerator (UA) Link for scale up, Ethernet for scale out and CXL for memory. The company is uniquely positioned to gain from the AI Infrastructure 2.0 transition thanks to an innovative portfolio. ALAB expects Scale-up connectivity for rack-scale AI infrastructure alone to add close to $5 billion of market opportunity by 2030.
+Astera Labs is benefiting from strong demand for Aries, Taurus and Scorpio product families, all expected to drive growth in the third quarter of 2025. ALAB expects accelerated shipments of Scorpio P-Series switches and Aries 6 retimers on a customized rack-scale AI platform based on market-leading GPUs to boost top-line growth. Scorpio revenues are expected to account for more than 10% of total revenues in 2025, while becoming the largest product line for Astera Labs over the next several years.
+In the second quarter of 2025, ALAB achieved a significant milestone with the volume production of its PCIe 6 product portfolio for customized rack-scale AI systems. Scorpio Fabric switches won multiple design wins in the reported quarter. ALAB continues to see strong demand for Scorpio P-Series and X-Series PCIe Fabric Switches. The company expects Scorpio X-Series to begin shipping for customized scale-up architectures in late 2025, with a shift to high-volume production over the course of 2026.
+Continued deployment of AI and general-purpose systems at leading hyperscaler customers is benefiting the Taurus system. Meanwhile, Leo remains in pre-production shipments as customers scale their development rack clusters to qualify new systems, taking advantage of recently introduced CXL-enabled data center CPU platforms.
+UA Link offers a significant growth opportunity for Astera Labs. UA Link combines the memory semantics of PCIe and the fast speed of Ethernet, but is devoid of the software complexity and performance limitations of Ethernet. ALAB expects proliferation of UA Link in 2027 and beyond to represent a significant key catalyst over the long term.
+For 2025, the Zacks Consensus Estimate currently shows revenues of $757.66 million, suggesting an improvement of 91.2% year over year and earnings per share of $1.58, indicating an increase of 88.1% year over year. The Zacks Consensus Estimate for current-year earnings has improved 17% over the last 30 days.
+For 2026, the Zacks Consensus Estimate currently shows revenues of $984.46 million, suggesting an improvement of 29.9% year over year and earnings per share of $1.97, indicating an increase of 24.1% year over year. The Zacks Consensus Estimate for current-year earnings has improved 15.9% over the last 30 days.
+Since 2000, our top stock-picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year.
+Today you can access their live picks without cost or obligation.
+See Stocks Free &gt;&gt;
+Zacks Investment Research
+800-767-3771 ext. 9339
+https://www.zacks.com
+Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit https://www.zacks.com/performance for information about the performance numbers displayed in this press release.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+This article originally published on Zacks Investment Research (zacks.com).
+| 1 min | |
+| 12 min | |
+| 15 min | |
+| 32 min | |
+| 51 min | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 2 hours | |
+| 2 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Chicago, IL August 21, 2025 Zacks.com announces the list of stocks featured in the Analyst Blog. Every day the Zacks Equity Research analysts discuss the latest news and events impacting stocks and the financial markets. Stocks recently featured in the blog include: Vertiv Holdings Co. VRT, Arista Networks Inc. ANET, Astera Labs Inc. ALAB, NVIDIA Corp. NVDA, Ballard Power Systems Inc. BLDP and Intel Corp. INTC. The artificial intelligence (AI) saga, supported by the massive growth of cloud computing and data centers, is yet to fully unfold. The demand for data center capacity surged to manage and store the vast amount of cloud computing based data. The AI infrastructure space remains rock solid supported by an extremely bullish demand scenario. According to a report by Bloomberg Intelligence, The generative AI market is poised to explode, growing to $1.3 trillion over the next 10 years from a market size of just $40 billion in 2022. In order to reap the benefit of this enormous opportunity, we recommend investors buy at this stage three large AI powered data center and cloud infrastructure developers and hold for the long term. These companies are: Vertiv Holdings Co., Arista Networks Inc. and Astera Labs Inc. Each of our picks currently carries either a Zacks Rank #1 (Strong Buy) or 2 (Buy). You can see the complete list of todays Zacks #1 Rank (Strong Buy) stocks here. Vertiv Holdings Zacks Rank #1 Vertiv Holdings is a leading global provider of critical digital infrastructure and services for data centers, communication networks, and commercial and industrial environments. Its portfolio mainly consists of power, cooling, and IT infrastructure solutions and services, particularly the AI enabled infrastructure. Vertiv is benefiting from an extensive product portfolio, which spans thermal systems, liquid cooling, UPS, switchgear, busbar and modular solutions. CEO Giordano Albertazzi said, "Our 35% sales growth and robust orders momentum reflect both strong market demand and expanded capabilities to serve customers' increasingly complex infrastructure needs." Buoyed by unprecedented data center growth, VRT is strategically expanding capacity to accelerate its AI enabled pipeline. Vertivs partnership with NVIDIA Corp. is a key catalyst. VRT aims to stay one GPU generation ahead of NVIDIA, enabling efficient, scalable power solutions for next generation AI data centers. As hyperscalers and enterprises increasingly scale AI deployments to support high performance data centers, Vertivs solutions are gaining traction. Apart from NVIDIA, Vertiv has a rich partner base, which includes Ballard Power Systems Inc., Compass Datacenters, Intel Corp., ZincFive and Tecogen. For 2025, the Zacks Consensus Estimate currently shows revenues of $9.97 billion, suggesting an improvement of 24.5% year over year and earnings per share of $3.82, indicating an increase of 34% year over year. The Zacks Consensus Estimate for current year earnings has improved 7.3% over the last 30 days. For 2026, the Zacks Consensus Estimate currently shows revenues of $11.55 billion, suggesting an improvement of 15.8% year over year and earnings per share of $4.85, indicating an increase of 26.9% year over year. The Zacks Consensus Estimate for current year earnings has improved 10.5% over the last 30 days. Arista Networks Zacks Rank #2 Arista Networks is engaged in providing cloud networking solutions for data centers and cloud computing environments. ANET offers 10/25/40/50/100 Gigabit Ethernet switches and routers optimized for next generation data center networks. Arista Networks is well positioned with the right network architecture for client to campus data center cloud and AI networking backed by three guiding principles. These include the best in class, highly proactive products with resilience, zero touch automation and telemetry with predictive client to cloud one click operations with granular visibility and prescriptive insights for deeper AI algorithms. ANETs EOS Smart AI Suite and Arista AVA (Autonomous Virtual Assist) enhance AI job monitoring, deep dive analytics, and proactive performance issue resolution. Arista AVA offers augmentation of pervasive visibility, continuous threat detection, and enforcement. Its AI suite also focuses on network security and optimization. ANETs AI powered cloud networking solutions provide predictable performance and programmability, enabling seamless integration with third party applications for network management, automation and orchestration. The Arista 2.0 strategy is resonating well with customers with its modern networking platforms being foundational for transformation from silos to centers of data. The versatility of ANETs unified software stack across various use cases, including WAN routing and campus and data center infrastructure, sets it apart from other competitors in the industry. ANET should benefit from its software driven, data centric approach that helps customers build their cloud architecture. Diversification across its top verticals and product lines, along with an improved market demand supported by a flexible business model augurs well for long term growth. For 2025, the Zacks Consensus Estimate currently shows revenues of $8.73 billion, suggesting an improvement of 24.6% year over year and earnings per share of $2.81, indicating an increase of 23.8% year over year. The Zacks Consensus Estimate for current year earnings has improved 9.8% over the last 30 days. For 2026, the Zacks Consensus Estimate currently shows revenues of $10.28 billion, suggesting an improvement of 17.8% year over year and earnings per share of $3.18, indicating an increase of 12.9% year over year. The Zacks Consensus Estimate for current year earnings has improved 8.2% over the last 30 days. Astera Labs Zacks Rank #1 Astera Labs is a developer of connectivity solutions for cloud computing and AI applications. Its key offerings include an Intelligent Connectivity Platform that has both hardware (like chips and modules) and software (COSMOS) designed to enhance connectivity in AI and cloud environments. Astera Labs has emerged as a key player in next generation data center connectivity, with a full stack portfolio spanning PCIe 6.0 and Ultra Accelerator (UA) Link for scale up, Ethernet for scale out and CXL for memory. The company is uniquely positioned to gain from the AI Infrastructure 2.0 transition thanks to an innovative portfolio. ALAB expects Scale up connectivity for rack scale AI infrastructure alone to add close to $5 billion of market opportunity by 2030. Astera Labs is benefiting from strong demand for Aries, Taurus and Scorpio product families, all expected to drive growth in the third quarter of 2025. ALAB expects accelerated shipments of Scorpio P Series switches and Aries 6 retimers on a customized rack scale AI platform based on market leading GPUs to boost top line growth. Scorpio revenues are expected to account for more than 10% of total revenues in 2025, while becoming the largest product line for Astera Labs over the next several years. In the second quarter of 2025, ALAB achieved a significant milestone with the volume production of its PCIe 6 product portfolio for customized rack scale AI systems. Scorpio Fabric switches won multiple design wins in the reported quarter. ALAB continues to see strong demand for Scorpio P Series and X Series PCIe Fabric Switches. The company expects Scorpio X Series to begin shipping for customized scale up architectures in late 2025, with a shift to high volume production over the course of 2026. Continued deployment of AI and general purpose systems at leading hyperscaler customers is benefiting the Taurus system. Meanwhile, Leo remains in pre production shipments as customers scale their development rack clusters to qualify new systems, taking advantage of recently introduced CXL enabled data center CPU platforms. UA Link offers a significant growth opportunity for Astera Labs. UA Link combines the memory semantics of PCIe and the fast speed of Ethernet, but is devoid of the software complexity and performance limitations of Ethernet. ALAB expects proliferation of UA Link in 2027 and beyond to represent a significant key catalyst over the long term. For 2025, the Zacks Consensus Estimate currently shows revenues of $757.66 million, suggesting an improvement of 91.2% year over year and earnings per share of $1.58, indicating an increase of 88.1% year over year. The Zacks Consensus Estimate for current year earnings has improved 17% over the last 30 days. For 2026, the Zacks Consensus Estimate currently shows revenues of $984.46 million, suggesting an improvement of 29.9% year over year and earnings per share of $1.97, indicating an increase of 24.1% year over year. The Zacks Consensus Estimate for current year earnings has improved 15.9% over the last 30 days. Since 2000, our top stock picking strategies have blown away the S&amp;P's +7.7% average gain per year. Amazingly, they soared with average gains of +48.4%, +50.2% and +56.7% per year. Today you can access their live picks without cost or obligation. See Stocks Free &gt;&gt; Zacks Investment Research 800 767 3771 ext. 9339 Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit for information about the performance numbers displayed in this press release. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report This article originally published on Zacks Investment Research (zacks.com). 1 min 12 min 15 min 32 min 51 min 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour 2 hours 2 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45890.25</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>The tech trade hits pause ahead of Nvidia earnings</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/the-tech-trade-hits-pause-ahead-of-nvidia-earnings-100053109.html</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45890.23958333334</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Prediction: This Artificial Intelligence (AI) Stock Will Outperform Nvidia by 2030</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145993/prediction-this-artificial-intelligence-ai-stock-will-outperform-nvidia-by-2030</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Nvidia is running away with the AI chip market, but its smaller peer is gradually gaining and has more catalysts than the world's largest company.
+Opportunities in PCs, servers, and gaming consoles can help this chip designer outperform Nvidia through 2030.
+The robust earnings growth that this company is expected to deliver should translate into healthy upside over the next five years.
+Nvidia's (NASDAQ: NVDA) pioneering role in the artificial intelligence (AI) hardware market helped it become the world's most valuable company. It now has a market cap of $4.2 trillion, and it has delivered incredible returns of more than 1,310% in the past five years.
+Investors may be wondering if Nvidia is capable of delivering more gains over the next five years considering its expensive valuation and market cap. But there is another semiconductor stock that's benefiting from the adoption of AI on multiple fronts and has the ability to deliver bigger gains than Nvidia by 2030.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Let's take a closer look at that company.
+Image source: Getty Images
+Advanced Micro Devices (NASDAQ: AMD) remained in the shadow of Nvidia in the past five years. The stock has registered much smaller gains of 99% as compared to its bigger rival, and that's not surprising because it has failed to capitalize on the AI data center boom. AMD reportedly controlled just 4% of the market for data-center graphics processing units (GPUs) last year, way behind Nvidia's 92% share.
+But it won't be right to gauge AMD's AI potential based on just its data center business. The company also sells processors and GPUs that are used in personal computers, gaming consoles, and industrial applications such as robotics and factory automation. It is more diversified than Nvidia because it also sells server processors that are deployed in data centers.
+These markets are likely to help AMD register robust growth over the next five years. A closer look at the company's recent results for the second quarter of 2025 tells us that it is already making the most of these markets.
+Overall revenue increased by a healthy 32% year over year in the second quarter to a record $7.7 billion. It is expecting another jump of 28% in the current quarter.
+The secular growth opportunity in each of the markets for AI personal computers, server central processing units (CPUs), and gaming markets are three key factors that should enable AMD to sustain momentum through 2030. For instance, revenue in the AI personal computer market is expected to jump by a multiple of four and a half by 2030 as compared to last year, according to a third-party report.
+AMD has been grabbing a bigger slice of the PC processor market. At the end of the second quarter, it controlled 23.9% of the client CPU market, an increase of 2.8 percentage points from the prior-year period. Its revenue share increased by almost 10 points to 27.8%.
+The strong demand for AMD's recently released AI-focused PC processors has been instrumental in helping it increase its share. Also, the faster growth in its revenue share suggests that it is enjoying strong pricing power. The company's focus on launching AI-capable PC processors could help it land a bigger share of the client CPU market in the future.
+A similar story is likely to unfold in the server processor space, where its Epyc chips are being used for tackling AI workloads in data centers. Management said on the company's recent earnings conference call that the adoption of its Epyc processors improved thanks to Alphabet's Google and Oracle.
+AMD says that its Epyc server chips are ideal for running AI inference applications in the cloud. Given that AMD already established a strong customer base for its AI server processors and GPUs, including the likes of Microsoft, Meta Platforms, Amazon, and others, its data center business seems poised for outstanding growth over the next five years.
+Moreover, investors shouldn't forget that AMD's growth is likely to be supercharged by the launch of the next-generation gaming consoles from Microsoft and Sony. The consoles from these companies are expected to arrive in the next three years, as per various estimates. AMD is once again going to design the semi-custom chips powering these consoles.
+The company historically witnesses a big jump in sales and earnings when new consoles are launched, and a similar story could unfold in the next five years.
+Analysts are forecasting healthy growth in AMD's earnings through 2027 following an estimated jump of 18% this year to $3.91 per share.
+AMD EPS Estimates for Current Fiscal Year data by YCharts; EPS = earnings per share.
+It can sustain this healthy momentum in the three years beyond 2027. Assuming that the company can increase its earnings at a conservative annual rate of 15% in 2028, 2029, and 2030, its bottom line could jump to $11.30 per share after five years. The stock has a five-year forward earnings multiple of 31, which is a slight discount to the tech-laden Nasdaq-100 index's average earnings multiple of 33.6.
+If AMD trades at even 30 times earnings after five years, its stock price could hit $339 based on its projected earnings in 2030. That points toward potential gains of 109% from current levels and is higher than what Nvidia may deliver over the same period.
+Before you buy stock in Advanced Micro Devices, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Advanced Micro Devices wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $654,781!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,076,588!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,055% — a market-crushing outperformance compared to 183% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 18, 2025
+Harsh Chauhan has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Advanced Micro Devices, Alphabet, Amazon, Meta Platforms, Microsoft, Nvidia, and Oracle. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.
+| 1 min | |
+| 12 min | |
+| 15 min | |
+| 32 min | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 2 hours | |
+| 2 hours | |
+| 2 hours | |
+| 2 hours | |
+| 2 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Nvidia is running away with the AI chip market, but its smaller peer is gradually gaining and has more catalysts than the world's largest company. Opportunities in PCs, servers, and gaming consoles can help this chip designer outperform Nvidia through 2030. The robust earnings growth that this company is expected to deliver should translate into healthy upside over the next five years. Nvidia's (NASDAQ: NVDA) pioneering role in the artificial intelligence (AI) hardware market helped it become the world's most valuable company. It now has a market cap of $4.2 trillion, and it has delivered incredible returns of more than 1,310% in the past five years. Investors may be wondering if Nvidia is capable of delivering more gains over the next five years considering its expensive valuation and market cap. But there is another semiconductor stock that's benefiting from the adoption of AI on multiple fronts and has the ability to deliver bigger gains than Nvidia by 2030. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Let's take a closer look at that company. Image source: Getty Images Advanced Micro Devices (NASDAQ: AMD) remained in the shadow of Nvidia in the past five years. The stock has registered much smaller gains of 99% as compared to its bigger rival, and that's not surprising because it has failed to capitalize on the AI data center boom. AMD reportedly controlled just 4% of the market for data center graphics processing units (GPUs) last year, way behind Nvidia's 92% share. But it won't be right to gauge AMD's AI potential based on just its data center business. The company also sells processors and GPUs that are used in personal computers, gaming consoles, and industrial applications such as robotics and factory automation. It is more diversified than Nvidia because it also sells server processors that are deployed in data centers. These markets are likely to help AMD register robust growth over the next five years. A closer look at the company's recent results for the second quarter of 2025 tells us that it is already making the most of these markets. Overall revenue increased by a healthy 32% year over year in the second quarter to a record $7.7 billion. It is expecting another jump of 28% in the current quarter. The secular growth opportunity in each of the markets for AI personal computers, server central processing units (CPUs), and gaming markets are three key factors that should enable AMD to sustain momentum through 2030. For instance, revenue in the AI personal computer market is expected to jump by a multiple of four and a half by 2030 as compared to last year, according to a third party report. AMD has been grabbing a bigger slice of the PC processor market. At the end of the second quarter, it controlled 23.9% of the client CPU market, an increase of 2.8 percentage points from the prior year period. Its revenue share increased by almost 10 points to 27.8%. The strong demand for AMD's recently released AI focused PC processors has been instrumental in helping it increase its share. Also, the faster growth in its revenue share suggests that it is enjoying strong pricing power. The company's focus on launching AI capable PC processors could help it land a bigger share of the client CPU market in the future. A similar story is likely to unfold in the server processor space, where its Epyc chips are being used for tackling AI workloads in data centers. Management said on the company's recent earnings conference call that the adoption of its Epyc processors improved thanks to Alphabet's Google and Oracle. AMD says that its Epyc server chips are ideal for running AI inference applications in the cloud. Given that AMD already established a strong customer base for its AI server processors and GPUs, including the likes of Microsoft, Meta Platforms, Amazon, and others, its data center business seems poised for outstanding growth over the next five years. Moreover, investors shouldn't forget that AMD's growth is likely to be supercharged by the launch of the next generation gaming consoles from Microsoft and Sony. The consoles from these companies are expected to arrive in the next three years, as per various estimates. AMD is once again going to design the semi custom chips powering these consoles. The company historically witnesses a big jump in sales and earnings when new consoles are launched, and a similar story could unfold in the next five years. Analysts are forecasting healthy growth in AMD's earnings through 2027 following an estimated jump of 18% this year to $3.91 per share. AMD EPS Estimates for Current Fiscal Year data by YCharts; EPS = earnings per share. It can sustain this healthy momentum in the three years beyond 2027. Assuming that the company can increase its earnings at a conservative annual rate of 15% in 2028, 2029, and 2030, its bottom line could jump to $11.30 per share after five years. The stock has a five year forward earnings multiple of 31, which is a slight discount to the tech laden Nasdaq 100 index's average earnings multiple of 33.6. If AMD trades at even 30 times earnings after five years, its stock price could hit $339 based on its projected earnings in 2030. That points toward potential gains of 109% from current levels and is higher than what Nvidia may deliver over the same period. Before you buy stock in Advanced Micro Devices, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Advanced Micro Devices wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $654,781! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,076,588! Now, its worth noting Stock Advisors total average return is 1,055% a market crushing outperformance compared to 183% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 18, 2025 Harsh Chauhan has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Advanced Micro Devices, Alphabet, Amazon, Meta Platforms, Microsoft, Nvidia, and Oracle. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. 1 min 12 min 15 min 32 min 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour 2 hours 2 hours 2 hours 2 hours 2 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45890.2375</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Nvidia Stock on Course for 2 Week Losing Streak. What Wall Street Thinks AI Bubble Fears.</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/nvidia-stock-ai-bubble-b4dd712d?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45890.23194444444</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>These Stocks Are Moving the Most Today: Palantir, Nvidia, Walmart, First Solar, Coty, Nordson, and More</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/stock-movers-33e0dd5d?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45890.23125</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>The Zacks Analyst Blog Highlights Invesco QQQ Trust, Palantir, NVIDIA, Home Depot, S&amp;P 500 Pure Value Invesco ETF and Morningstar Dividend Leaders ETF</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/146005/the-zacks-analyst-blog-highlights-invesco-qqq-trust-palantir-nvidia-home-depot-sp-500-pure-value-invesco-etf-and-morningstar-dividend-leaders-etf</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Chicago, IL – August 21, 2025 – Zacks.com announces the list of stocks featured in the Analyst Blog. Every day the Zacks Equity Research analysts discuss the latest news and events impacting stocks and the financial markets. Stocks recently featured in the blog include: Invesco QQQ Trust QQQ, Palantir PLTR, NVIDIA NVDA, Home Depot HD, S&amp;P 500 Pure Value Invesco ETF RPV and Morningstar Dividend Leaders ETF FDL.
+U.S. stocks slipped on Aug. 19, 2025 following a sharp decline in tech shares. The tech-heavy Nasdaq-100-based exchange-traded fund Invesco QQQ Trust lost 1.4% on Aug. 19, 2025. The pressure came after weakness in stocks like Palantir and NVIDIA weighed on the broader market on Tuesday. PLTR shares slumped 9.4% and NVIDIA shares retreated about 3% on Aug. 19, 2025.
+Palantir shares surged more than 150% from their April low heading into its second-quarter earnings, when the company reported quarterly revenue above $1 billion for the first time. However, data from Barchart showed that Tuesday’s decline marked the stock’s longest losing streak since March, as quoted on Yahoo Finance.
+Investor enthusiasm for Big Tech appears to be fading, with other sectors beginning to show renewed strength. The broader market rally is starting to show signs of rotation beyond Big Tech, the Yahoo Finance article indicated.
+Home Depot added some optimism after reporting earnings that showed a boost in U.S. sales, pushing its stock price higher. The HD stock advanced 3.2% on Aug. 19, 2025.
+OpenAI CEO Sam Altman has recently suggested that the artificial intelligence (AI) industry is currently experiencing a bubble fear, as quoted on CNBC. He indicated that while AI represents one of the most significant technological shifts in decades, the AI euphoria has led to overinflated expectations from investors.
+Altman sees similarities between the current environment to the dot-com boom of the late 1990s, which was hit hard when many Internet companies failed to materialize the euphoria into profits.
+The concerns intensified earlier this year when the “Magnificent Seven” had fallen from grace due to the rise of cheaper-cost AI companies (e.g., DeepSeek) and individual Big Tech companies’ ability to handle broader macro uncertainty.
+The AI development at Big Tech has raised questions among some investors about whether current spending levels in AI are sustainable. Despite ChatGPT-Fame OpenAI’s huge success and its annual recurring revenue projection to top $20 billion this year, the company remains unprofitable.
+Most AI biggies have exposure to the Nasdaq-100-based ETF Invesco QQQ Trust, Series 1. The P/E ratio of QQQ stands at 59.27X. The 10-year range of the P/E ratio is 19.7X to 59.46X. The median P/E of the past 10 years is 25.8X. This shows the overvaluation concerns associated with QQQ.
+However, the price-to-book (P/B) ratio of QQQ is currently 3.6X, which is the lowest value considering the past 10-year range. The 10-year median P/B is 6.03X, per Gurufocus.com.
+Hence, the sudden crash of AI euphoria (if there is any) may not hurt QQQ that hard. Still, investors should be mindful of relentless AI investing going forward. Their portfolio may need diversification at the current juncture.
+This is a safe sector as it is non-cyclical in nature. The consumer staples sector tends to do well even amid economic growth slowdown and high inflation. Since consumers have to buy staples products even if they cut back on their discretionary spending, big manufacturers of food and beverages normally have the power to pass on the increase in costs to customers. This puts focus on iShares U.S. Consumer Staples ETF (read: Invest Like Warren Buffett With These ETFs).
+Value stocks normally offer investors stability due to lower valuations and steady dividends. They can outperform during periods of market rotation away from high-growth sectors. In a volatile market, dividend ETFs normally come to rescue.
+The hunt for dividends in the equity market is always on, irrespective of how it is behaving. Probably this is why, S&amp;P 500 Pure Value Invesco ETF and Morningstar Dividend Leaders ETF have hit a one-month high lately.
+Zacks' exclusive Fund Newsletter delivers actionable information, top news and analysis, as well as top-performing ETFs, straight to your inbox every week.
+Don’t miss out on this valuable resource. It’s free!
+Get it now &gt;&gt;
+Zacks Investment Research
+800-767-3771 ext. 9339
+https://www.zacks.com
+Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit https://www.zacks.com/performance for information about the performance numbers displayed in this press release.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+This article originally published on Zacks Investment Research (zacks.com).
+| 1 min | |
+| 10 min |
+Palantir, Shopify Peer Attracting Eyeballs - And Top Funds. Here's Why.
+PLTR
+Investor's Business Daily
+|
+| 10 min | |
+| 11 min | |
+| 12 min | |
+| 15 min | |
+| 16 min | |
+| 32 min | |
+| 46 min | |
+| 1 hour |
+Walmart reports solid second-quarter sales and profits despite a challenging tariff environment
+HD
+Associated Press Finance
+|
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Chicago, IL August 21, 2025 Zacks.com announces the list of stocks featured in the Analyst Blog. Every day the Zacks Equity Research analysts discuss the latest news and events impacting stocks and the financial markets. Stocks recently featured in the blog include: Invesco QQQ Trust QQQ, Palantir PLTR, NVIDIA NVDA, Home Depot HD, S&amp;P 500 Pure Value Invesco ETF RPV and Morningstar Dividend Leaders ETF FDL. U.S. stocks slipped on Aug. 19, 2025 following a sharp decline in tech shares. The tech heavy Nasdaq 100 based exchange traded fund Invesco QQQ Trust lost 1.4% on Aug. 19, 2025. The pressure came after weakness in stocks like Palantir and NVIDIA weighed on the broader market on Tuesday. PLTR shares slumped 9.4% and NVIDIA shares retreated about 3% on Aug. 19, 2025. Palantir shares surged more than 150% from their April low heading into its second quarter earnings, when the company reported quarterly revenue above $1 billion for the first time. However, data from Barchart showed that Tuesdays decline marked the stocks longest losing streak since March, as quoted on Yahoo Finance. Investor enthusiasm for Big Tech appears to be fading, with other sectors beginning to show renewed strength. The broader market rally is starting to show signs of rotation beyond Big Tech, the Yahoo Finance article indicated. Home Depot added some optimism after reporting earnings that showed a boost in U.S. sales, pushing its stock price higher. The HD stock advanced 3.2% on Aug. 19, 2025. OpenAI CEO Sam Altman has recently suggested that the artificial intelligence (AI) industry is currently experiencing a bubble fear, as quoted on CNBC. He indicated that while AI represents one of the most significant technological shifts in decades, the AI euphoria has led to overinflated expectations from investors. Altman sees similarities between the current environment to the dot com boom of the late 1990s, which was hit hard when many Internet companies failed to materialize the euphoria into profits. The concerns intensified earlier this year when the Magnificent Seven had fallen from grace due to the rise of cheaper cost AI companies (e.g., DeepSeek) and individual Big Tech companies ability to handle broader macro uncertainty. The AI development at Big Tech has raised questions among some investors about whether current spending levels in AI are sustainable. Despite ChatGPT Fame OpenAIs huge success and its annual recurring revenue projection to top $20 billion this year, the company remains unprofitable. Most AI biggies have exposure to the Nasdaq 100 based ETF Invesco QQQ Trust, Series 1. The P/E ratio of QQQ stands at 59.27X. The 10 year range of the P/E ratio is 19.7X to 59.46X. The median P/E of the past 10 years is 25.8X. This shows the overvaluation concerns associated with QQQ. However, the price to book (P/B) ratio of QQQ is currently 3.6X, which is the lowest value considering the past 10 year range. The 10 year median P/B is 6.03X, per Gurufocus.com. Hence, the sudden crash of AI euphoria (if there is any) may not hurt QQQ that hard. Still, investors should be mindful of relentless AI investing going forward. Their portfolio may need diversification at the current juncture. This is a safe sector as it is non cyclical in nature. The consumer staples sector tends to do well even amid economic growth slowdown and high inflation. Since consumers have to buy staples products even if they cut back on their discretionary spending, big manufacturers of food and beverages normally have the power to pass on the increase in costs to customers. This puts focus on iShares U.S. Consumer Staples ETF (read: Invest Like Warren Buffett With These ETFs). Value stocks normally offer investors stability due to lower valuations and steady dividends. They can outperform during periods of market rotation away from high growth sectors. In a volatile market, dividend ETFs normally come to rescue. The hunt for dividends in the equity market is always on, irrespective of how it is behaving. Probably this is why, S&amp;P 500 Pure Value Invesco ETF and Morningstar Dividend Leaders ETF have hit a one month high lately. Zacks' exclusive Fund Newsletter delivers actionable information, top news and analysis, as well as top performing ETFs, straight to your inbox every week. Dont miss out on this valuable resource. Its free! Get it now &gt;&gt; Zacks Investment Research 800 767 3771 ext. 9339 Past performance is no guarantee of future results. Inherent in any investment is the potential for loss. This material is being provided for informational purposes only and nothing herein constitutes investment, legal, accounting or tax advice, or a recommendation to buy, sell or hold a security. No recommendation or advice is being given as to whether any investment is suitable for a particular investor. It should not be assumed that any investments in securities, companies, sectors or markets identified and described were or will be profitable. All information is current as of the date of herein and is subject to change without notice. Any views or opinions expressed may not reflect those of the firm as a whole. Zacks Investment Research does not engage in investment banking, market making or asset management activities of any securities. These returns are from hypothetical portfolios consisting of stocks with Zacks Rank = 1 that were rebalanced monthly with zero transaction costs. These are not the returns of actual portfolios of stocks. The S&amp;P 500 is an unmanaged index. Visit for information about the performance numbers displayed in this press release. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report This article originally published on Zacks Investment Research (zacks.com). 1 min 10 min Palantir, Shopify Peer Attracting Eyeballs And Top Funds. Here's Why. PLTR Investor's Business Daily 10 min 11 min 12 min 15 min 16 min 32 min 46 min 1 hour Walmart reports solid second quarter sales and profits despite a challenging tariff environment HD Associated Press Finance 1 hour 1 hour 1 hour 1 hour 1 hour Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45890.22916666666</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Goldman Traders Say Its Time to Buy the Dip in Momentum Stocks</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/goldman-traders-time-buy-dip-093000028.html</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45890.22916666666</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>CoreWeave vs. Nvidia: What's the Better Artificial Intelligence (AI) Stock to Buy?</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145981/coreweave-vs-nvidia-whats-the-better-artificial-intelligence-ai-stock-to-buy</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Key Points
+Nvidia is the leading artificial intelligence (AI) chipmaker, and it is evident through the company's impressive financials.
+CoreWeave rents out access to Nvidia's chips, and that has enabled it to generate incredibly strong revenue growth.
+When you think of top artificial intelligence (AI) stocks to own, Nvidia (NASDAQ: NVDA) inevitably is one of the first ones that probably comes to mind. In recent years, it generated mammoth, life-changing returns for investors. But it's also the most valuable company in the world today, with a valuation of nearly $4.3 trillion. Investors may be looking for similar stocks, but perhaps smaller ones, that may possess more upside.
+CoreWeave (NASDAQ: CRWV) is one option that may fit the bill. It rents out AI computing power, giving customers access to Nvidia's latest chips. It should benefit from Nvidia's continued growth and the growing demands of companies developing AI-powered products and services. And it's a much smaller company, at just a fraction of Nvidia's valuation. It's up big this year and coming off a stellar quarter.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Which of these AI stocks makes for the better buy right now?
+Image source: Getty Images.
+The case for Nvidia
+With Nvidia, you're investing in a high-powered business that continues to dominate the AI chip market, being the go-to option for many tech companies. In the trailing 12 months, the company has reported $148.5 billion in revenue, with profits totaling just under $77 billion. Those are incredibly impressive profit margins, which highlight just how much dominance the company has and the pricing power it possesses. And that's with export restrictions limiting its sales to China.
+Recently, however, Nvidia agreed to give the U.S. government a 15% cut of its AI chip sales to China in order to continue selling to that part of the world. By doing so, that could generate billions more in revenue for the chipmaker.
+While Nvidia is already flush with growth opportunities, it's a reminder to investors of just how much growth potential still exists for the company. Its high profit margins can ensure that its bottom line also rises at a fast rate, along with sales. And that means that although its price-to-earnings multiple of 57 may seem high right now, it should come down over time. A premium for such a high-powered business may easily be justifiable, given how important of a role Nvidia plays in the overall tech sector and AI-related development.
+The case for CoreWeave
+CoreWeave has been one of the hottest new stocks to own this year. It's up around 130% since going public back in March. But with a market cap of less than $34 billion, it's still only a small fraction of the size of Nvidia. And it has also been posting some incredible growth lately.
+In its most recent quarter, which ended on June 30, the company's revenue totaled $1.2 billion, which was more than three times the $395 million it reported in the same period last year. CEO Michael Intrator says that the company is "scaling rapidly as we look to meet the unprecedented demand for AI."
+CoreWeave projects full-year revenue growth of 174% this year, as it is proving to be one of the fastest-growing AI stocks to buy right now. For investors, it could possess a lot of upsides, as it benefits from strong demand for Nvidia's chips and the ongoing need for greater computing capabilities as a result of AI.
+CoreWeave looks promising, but Nvidia is still the better all-around investment
+Although it's an expensive stock, Nvidia can still potentially look cheap in the long run, given its earnings growth, and it's the stock I'd go with right now. CoreWeave isn't profitable, has a lot of debt, and its business depends on access to Nvidia's chips.
+A company that's dependent on a close relationship with another business isn't one that I'd feel too comfortable investing in. While the two companies are getting along well right now, the safer option for the long term is to invest in a business that has a strong competitive moat of its own and also has a strong bottom line, such as Nvidia.
+CoreWeave has been generating better returns, but given its lack of profitability and risk, it's not going to be a suitable option for most investors. With a much stronger business, Nvidia is still the better option for AI investors today.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $654,781!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,076,588!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,055% — a market-crushing outperformance compared to 183% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 18, 2025
+David Jagielski has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Key Points Nvidia is the leading artificial intelligence (AI) chipmaker, and it is evident through the company's impressive financials. CoreWeave rents out access to Nvidia's chips, and that has enabled it to generate incredibly strong revenue growth. When you think of top artificial intelligence (AI) stocks to own, Nvidia (NASDAQ: NVDA) inevitably is one of the first ones that probably comes to mind. In recent years, it generated mammoth, life changing returns for investors. But it's also the most valuable company in the world today, with a valuation of nearly $4.3 trillion. Investors may be looking for similar stocks, but perhaps smaller ones, that may possess more upside. CoreWeave (NASDAQ: CRWV) is one option that may fit the bill. It rents out AI computing power, giving customers access to Nvidia's latest chips. It should benefit from Nvidia's continued growth and the growing demands of companies developing AI powered products and services. And it's a much smaller company, at just a fraction of Nvidia's valuation. It's up big this year and coming off a stellar quarter. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Which of these AI stocks makes for the better buy right now? Image source: Getty Images. The case for Nvidia With Nvidia, you're investing in a high powered business that continues to dominate the AI chip market, being the go to option for many tech companies. In the trailing 12 months, the company has reported $148.5 billion in revenue, with profits totaling just under $77 billion. Those are incredibly impressive profit margins, which highlight just how much dominance the company has and the pricing power it possesses. And that's with export restrictions limiting its sales to China. Recently, however, Nvidia agreed to give the U.S. government a 15% cut of its AI chip sales to China in order to continue selling to that part of the world. By doing so, that could generate billions more in revenue for the chipmaker. While Nvidia is already flush with growth opportunities, it's a reminder to investors of just how much growth potential still exists for the company. Its high profit margins can ensure that its bottom line also rises at a fast rate, along with sales. And that means that although its price to earnings multiple of 57 may seem high right now, it should come down over time. A premium for such a high powered business may easily be justifiable, given how important of a role Nvidia plays in the overall tech sector and AI related development. The case for CoreWeave CoreWeave has been one of the hottest new stocks to own this year. It's up around 130% since going public back in March. But with a market cap of less than $34 billion, it's still only a small fraction of the size of Nvidia. And it has also been posting some incredible growth lately. In its most recent quarter, which ended on June 30, the company's revenue totaled $1.2 billion, which was more than three times the $395 million it reported in the same period last year. CEO Michael Intrator says that the company is "scaling rapidly as we look to meet the unprecedented demand for AI." CoreWeave projects full year revenue growth of 174% this year, as it is proving to be one of the fastest growing AI stocks to buy right now. For investors, it could possess a lot of upsides, as it benefits from strong demand for Nvidia's chips and the ongoing need for greater computing capabilities as a result of AI. CoreWeave looks promising, but Nvidia is still the better all around investment Although it's an expensive stock, Nvidia can still potentially look cheap in the long run, given its earnings growth, and it's the stock I'd go with right now. CoreWeave isn't profitable, has a lot of debt, and its business depends on access to Nvidia's chips. A company that's dependent on a close relationship with another business isn't one that I'd feel too comfortable investing in. While the two companies are getting along well right now, the safer option for the long term is to invest in a business that has a strong competitive moat of its own and also has a strong bottom line, such as Nvidia. CoreWeave has been generating better returns, but given its lack of profitability and risk, it's not going to be a suitable option for most investors. With a much stronger business, Nvidia is still the better option for AI investors today. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $654,781! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,076,588! Now, its worth noting Stock Advisors total average return is 1,055% a market crushing outperformance compared to 183% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 18, 2025 David Jagielski has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45890.21875</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Prediction: This Supercharged Artificial Intelligence (AI) Stock Will Be Worth More Than Apple and Microsoft Combined by 2030</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145963/prediction-this-supercharged-artificial-intelligence-ai-stock-will-be-worth-more-than-apple-and-microsoft-combined-by-2030</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Key Points
+Apple (NASDAQ: AAPL) and Microsoft (NASDAQ: MSFT) are the second- and third-largest companies on the market right now, with valuations of $3.9 trillion and $3.4 trillion, respectively. That means a company would need to be worth $7.3 trillion by 2030 to be worth more than the combined value of these two companies right now.
+There are only a handful of potential companies that could do that, with the chief suspect being Nvidia (NASDAQ: NVDA), currently the world's largest company. I think that a $7.3 trillion market cap is achievable for Nvidia by 2030. Here's how it will achieve it.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+The AI hyperscalers are increasing their guidance for 2026 expenses
+Nvidia is thriving in the world of artificial intelligence (AI). Its graphics processing units (GPUs) have become the computing hardware of choice for many AI hyperscalers due to their strong ecosystem and fantastic computing power. GPUs can process multiple calculations in parallel, making them suited for any workload that needs a lot of processing power. Historically, GPUs were used for gaming graphics, engineering simulations, and cryptocurrency mining, but their biggest use case by far is AI.
+As a bullish sign for Nvidia, the AI hyperscalers aren't slowing down their spending. During its Q2 conference call, Alphabet told investors it is raising its 2025 capital expenditure projection from $75 billion to $85 billion, and also commented that 2026 will see a further increase in capital expenditures. Meta Platforms commented that it will see "significant capital expenditures dollar growth in 2026" for building out its computing capacity to meet demand.
+Nvidia will be a huge beneficiary from these hyperscalers' increasing demand, but Nvidia doesn't expect it to stop in 2026.
+A third-party projection cited by Nvidia during its 2025 GTC event stated that global data center capital expenditures in 2024 were around $400 billion. That number is expected to increase to $1 trillion by 2028. That's huge growth, but will it be enough to propel Nvidia past the $7.3 trillion mark by 2030?
+Nvidia will rapidly grow over the next few years
+If global data center capital expenditures increase at that rate, it would have a compounded annual growth rate (CAGR) of about 26%. Because Nvidia's business is heavily tied to the data center industry, we'll use that as its base growth rate figure.
+Over the past 12 months, Nvidia has generated $149 billion in revenue, with a mid-50% profit margin (it dipped a bit during its last quarter due to an inventory write-down it had to take on H20 chips that were meant for China but could no longer be sold at that time due to export restrictions).
+NVDA Revenue (TTM) data by YCharts
+Should Nvidia achieve that CAGR over the next three and a half years, Nvidia's revenue and profits would be $335 billion and $184 billion, respectively. If we give it a forward price-to-earnings (P/E) multiple of 40 (it's currently 42), that would give Nvidia a market cap of $7.36 trillion by 2028.
+The original projection was for Nvidia to reach a market cap of $7.3 trillion by 2030, and this projection exceeded that level by 2028. That leaves plenty of room for Nvidia to underperform this guidance and still achieve this lofty goal.
+Nvidia is expected to remain dominant for some time, and with all the massive data center capital expenditures ongoing, Nvidia's stock will be a must-own for investors.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $654,781!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,076,588!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,055% — a market-crushing outperformance compared to 183% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 18, 2025
+Keithen Drury has positions in Alphabet, Meta Platforms, and Nvidia. The Motley Fool has positions in and recommends Alphabet, Apple, Meta Platforms, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Key Points Apple (NASDAQ: AAPL) and Microsoft (NASDAQ: MSFT) are the second and third largest companies on the market right now, with valuations of $3.9 trillion and $3.4 trillion, respectively. That means a company would need to be worth $7.3 trillion by 2030 to be worth more than the combined value of these two companies right now. There are only a handful of potential companies that could do that, with the chief suspect being Nvidia (NASDAQ: NVDA), currently the world's largest company. I think that a $7.3 trillion market cap is achievable for Nvidia by 2030. Here's how it will achieve it. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. The AI hyperscalers are increasing their guidance for 2026 expenses Nvidia is thriving in the world of artificial intelligence (AI). Its graphics processing units (GPUs) have become the computing hardware of choice for many AI hyperscalers due to their strong ecosystem and fantastic computing power. GPUs can process multiple calculations in parallel, making them suited for any workload that needs a lot of processing power. Historically, GPUs were used for gaming graphics, engineering simulations, and cryptocurrency mining, but their biggest use case by far is AI. As a bullish sign for Nvidia, the AI hyperscalers aren't slowing down their spending. During its Q2 conference call, Alphabet told investors it is raising its 2025 capital expenditure projection from $75 billion to $85 billion, and also commented that 2026 will see a further increase in capital expenditures. Meta Platforms commented that it will see "significant capital expenditures dollar growth in 2026" for building out its computing capacity to meet demand. Nvidia will be a huge beneficiary from these hyperscalers' increasing demand, but Nvidia doesn't expect it to stop in 2026. A third party projection cited by Nvidia during its 2025 GTC event stated that global data center capital expenditures in 2024 were around $400 billion. That number is expected to increase to $1 trillion by 2028. That's huge growth, but will it be enough to propel Nvidia past the $7.3 trillion mark by 2030? Nvidia will rapidly grow over the next few years If global data center capital expenditures increase at that rate, it would have a compounded annual growth rate (CAGR) of about 26%. Because Nvidia's business is heavily tied to the data center industry, we'll use that as its base growth rate figure. Over the past 12 months, Nvidia has generated $149 billion in revenue, with a mid 50% profit margin (it dipped a bit during its last quarter due to an inventory write down it had to take on H20 chips that were meant for China but could no longer be sold at that time due to export restrictions). NVDA Revenue (TTM) data by YCharts Should Nvidia achieve that CAGR over the next three and a half years, Nvidia's revenue and profits would be $335 billion and $184 billion, respectively. If we give it a forward price to earnings (P/E) multiple of 40 (it's currently 42), that would give Nvidia a market cap of $7.36 trillion by 2028. The original projection was for Nvidia to reach a market cap of $7.3 trillion by 2030, and this projection exceeded that level by 2028. That leaves plenty of room for Nvidia to underperform this guidance and still achieve this lofty goal. Nvidia is expected to remain dominant for some time, and with all the massive data center capital expenditures ongoing, Nvidia's stock will be a must own for investors. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $654,781! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,076,588! Now, its worth noting Stock Advisors total average return is 1,055% a market crushing outperformance compared to 183% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 18, 2025 Keithen Drury has positions in Alphabet, Meta Platforms, and Nvidia. The Motley Fool has positions in and recommends Alphabet, Apple, Meta Platforms, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45890.21805555555</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>FieldAI secures $405m for robotics intelligence expansion</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/a1240f96-57d1-3f34-a410-d1cf4140b1d1/fieldai-secures-%24405m-for.html</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45890.20833333334</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>3 Reasons I'm Buying Nvidia's Stock Like There's No Tomorrow</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145961/3-reasons-im-buying-nvidias-stock-like-theres-no-tomorrow</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Key Points
+Next year's data center buildouts will reach record levels.
+Nvidia's H20 chips bound for China will boost revenue
+The stock isn't as expensive as some think.
+Nvidia (NASDAQ: NVDA) is the world's largest company, which may give some investors pause before investing in it. A common mindset is: "If it's already the biggest company in the world, can it get any bigger?" From my analysis, yes, it can get much bigger, and it will continue to be a winning investment from here.
+I have three reasons Nvidia is still an excellent buy at its current price tag, and investors could be glad they picked up shares three years down the road.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Nvidia headquarters. Image source: Getty Images.
+1. Data center capital expenditures are still rising
+Nvidia's primary products, graphics processing units (GPUs), have been in huge demand thanks to the AI race. They have become the computing unit of choice for training and running these models, and that dominance doesn't look to be faltering.
+GPUs can process multiple calculations in parallel, leading to impressive performance. And they can be connected in clusters within a data center to create unparalleled computing power for AI applications.
+Luckily for investors, Nvidia's largest clients are starting to offer guidance for 2026 capital expenditures (capex). A high percentage of this revenue will be used for data centers, with a hefty chunk going toward filing them with Nvidia GPUs. Even though 2025 was a record-setting year for capex, 2026 is expected to exceed these levels.
+The company also expects this to continue rising through at least 2028. During its 2025 GTC event, management cited a third-party projection that estimated global data center capex at $400 billion during 2024. That's expected to rise to $1 trillion by 2028, which will be a huge growth boost for Nvidia.
+This primary growth engine for the company is far from done, which bodes well for its future.
+2. Nvidia's China business will return shortly
+In April, the Trump administration revoked Nvidia's export license for its H20 chips, which were specifically designed to meet prior export regulations. This created a significant hole in the company's business, but that hole could be plugged shortly.
+It reapplied for its export license with assurances from the government that it will be approved. However, there's one concession that the company may need to make.
+The government plans to charge Nvidia a 15% export tax on these GPUs, which will eat into its profit margins. Even so, these chip sales to China will be a huge boost to its business, even if they aren't as profitable as they once were.
+In the second quarter, its projected revenue growth would have been 77% instead of the guidance figure of 50% if H20 chip sales were allowed. This boost could be coming as soon as the third quarter, providing another crucial growth lever.
+3. The stock isn't as expensive as it seems
+Nvidia's rise hasn't been all business-related. Its stock has easily become the most popular in the market, which has caused its valuation to skyrocket. At 42 times forward earnings, it is far from cheap.
+NVDA PE Ratio (Forward) data by YCharts; PE = price to earnings.
+However, the company's growth is more than enough to offset that. If Wall Street analysts' projections for $5.91 in earnings per share (EPS) in fiscal 2027 (ending January 2027) turn out to be right, that indicates the stock trades for 31 times 2027 earnings, which is a far more reasonable price tag.
+However, the average analyst only expects 27% revenue growth in fiscal 2027. If Nvidia outperforms projections (as it has often done), its profits could grow far quicker, leading to a cheaper stock price.
+Its growth and size are hard to reconcile, which could make its future difficult to predict. But the company's China business is returning, and domestic AI demand is driving huge data center buildouts. These two factors could easily cause Nvidia to exceed expectations, making it a winning stock pick over the next few years.
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $654,781!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,076,588!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,055% — a market-crushing outperformance compared to 183% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 18, 2025
+Keithen Drury has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Key Points Next year's data center buildouts will reach record levels. Nvidia's H20 chips bound for China will boost revenue The stock isn't as expensive as some think. Nvidia (NASDAQ: NVDA) is the world's largest company, which may give some investors pause before investing in it. A common mindset is: "If it's already the biggest company in the world, can it get any bigger?" From my analysis, yes, it can get much bigger, and it will continue to be a winning investment from here. I have three reasons Nvidia is still an excellent buy at its current price tag, and investors could be glad they picked up shares three years down the road. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Nvidia headquarters. Image source: Getty Images. 1. Data center capital expenditures are still rising Nvidia's primary products, graphics processing units (GPUs), have been in huge demand thanks to the AI race. They have become the computing unit of choice for training and running these models, and that dominance doesn't look to be faltering. GPUs can process multiple calculations in parallel, leading to impressive performance. And they can be connected in clusters within a data center to create unparalleled computing power for AI applications. Luckily for investors, Nvidia's largest clients are starting to offer guidance for 2026 capital expenditures (capex). A high percentage of this revenue will be used for data centers, with a hefty chunk going toward filing them with Nvidia GPUs. Even though 2025 was a record setting year for capex, 2026 is expected to exceed these levels. The company also expects this to continue rising through at least 2028. During its 2025 GTC event, management cited a third party projection that estimated global data center capex at $400 billion during 2024. That's expected to rise to $1 trillion by 2028, which will be a huge growth boost for Nvidia. This primary growth engine for the company is far from done, which bodes well for its future. 2. Nvidia's China business will return shortly In April, the Trump administration revoked Nvidia's export license for its H20 chips, which were specifically designed to meet prior export regulations. This created a significant hole in the company's business, but that hole could be plugged shortly. It reapplied for its export license with assurances from the government that it will be approved. However, there's one concession that the company may need to make. The government plans to charge Nvidia a 15% export tax on these GPUs, which will eat into its profit margins. Even so, these chip sales to China will be a huge boost to its business, even if they aren't as profitable as they once were. In the second quarter, its projected revenue growth would have been 77% instead of the guidance figure of 50% if H20 chip sales were allowed. This boost could be coming as soon as the third quarter, providing another crucial growth lever. 3. The stock isn't as expensive as it seems Nvidia's rise hasn't been all business related. Its stock has easily become the most popular in the market, which has caused its valuation to skyrocket. At 42 times forward earnings, it is far from cheap. NVDA PE Ratio (Forward) data by YCharts; PE = price to earnings. However, the company's growth is more than enough to offset that. If Wall Street analysts' projections for $5.91 in earnings per share (EPS) in fiscal 2027 (ending January 2027) turn out to be right, that indicates the stock trades for 31 times 2027 earnings, which is a far more reasonable price tag. However, the average analyst only expects 27% revenue growth in fiscal 2027. If Nvidia outperforms projections (as it has often done), its profits could grow far quicker, leading to a cheaper stock price. Its growth and size are hard to reconcile, which could make its future difficult to predict. But the company's China business is returning, and domestic AI demand is driving huge data center buildouts. These two factors could easily cause Nvidia to exceed expectations, making it a winning stock pick over the next few years. Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $654,781! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,076,588! Now, its worth noting Stock Advisors total average return is 1,055% a market crushing outperformance compared to 183% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 18, 2025 Keithen Drury has positions in Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool has a disclosure policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45890.20208333333</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Palantir Stock vs. Nvidia Stock: Smart Billionaires Buy One and Sell The Other (Hint: It May Surprise You)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145960/palantir-stock-vs-nvidia-stock-smart-billionaires-buy-one-and-sell-the-other-hint-it-may-surprise-you</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Hedge funds led by billionaires Israel Englander and Chris Rokos sold Nvidia and bought Palantir stock in the first quarter.
+Nvidia is the market leader in data center GPUs and generative AI networking gear, and the current stock price is reasonable.
+Palantir is a leader in decision intelligence and AI platforms, but it's also the most expensive stock in the S&amp;P 500 by a wide margin.
+Nvidia (NASDAQ: NVDA) shares are up 1,100% since January 2023, while Palantir Technologies (NASDAQ: PLTR) shares have advanced 2,360%. But the following hedge fund managers sold the former and bought the latter in the second quarter, a surprising move given that Wall Street analysts generally think Palantir is overvalued.
+Importantly, both hedge funds outperformed the S&amp;P 500 (SNPINDEX: ^GSPC) over the past three years, which makes Englander and Rokos good sources of inspiration for individual investors. Here's what you should know about Nvidia and Palantir.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Image source: Getty Images.
+Nvidia reported strong first-quarter financial results. Revenue rose 69% to $44 billion on robust demand for artificial intelligence (AI) infrastructure, and non-GAAP net income increased 33% to $0.81 per diluted share. Earnings would have grown faster had it not been for new export restrictions on China, but President Trump has since relaxed those restrictions.
+The investment thesis for Nvidia centers on its essential role in the AI market. The company is best known for its dominance in data center graphics processing units (GPUs), chips used to accelerate AI workloads. But the company is also the leader in generative AI networking gear, and it has a burgeoning cloud software and services business.
+Nvidia's competitive advantages lie in technical expertise and switching costs. Specifically, its computing systems consistently outperform rival systems at the MLPerf benchmarks, objective tests that measure AI technologies across training and inference. And its CUDA software is the industry's most comprehensive suite of development tools for AI applications, meaning programmers are unlikely to switch to alternative hardware.
+Grand View Research estimates that spending across AI hardware, software, and services will increase at 36% annually through 2030, and Nvidia is perhaps better positioned than any other company to capitalize on that explosive growth. Wall Street expects its earnings to increase at 30% annually over the next three years. That makes the current valuation of 57 times earnings look reasonable and leaves room for upside.
+So why did Englander and Rokos sell Nvidia? My guess is simple profit-taking. Regardless, readers should not assume the money managers have lost confidence in the chipmaker. Excluding options, Nvidia is still a top 10 holding in both hedge funds. I think patient investors can own this stock with confidence today.
+Palantir reported impressive second-quarter financial results. Its customer count increased 43% to 849 and the average spend per existing customer increased 28%. In turn, revenue rose 48% to $1 billion, the eighth straight acceleration, and non-GAAP net income jumped 77% to $0.16 per diluted share. Investors have reason to believe the company can keep its momentum.
+Palantir has a competitive advantage in its unique software architecture, which is built around an ontology, a framework that connects data to actions to improve decision-making. Users can query the ontology with analytical tools and machine learning (ML) models to surface insights that improve over time. Chief Technology Officer Shyam Sankar says ontology-based software gives the company a "unique moat and a massive lead" in the AI market.
+Indeed, Forrester Research recently recognized Palantir as a technology leader in AI/ML platforms. And the International Data Corporation has recognized its leadership in decision intelligence platforms. That leaves Palantir in a good position. Spending on AI platforms is forecast to increase at 39% annually through 2030, while spending on decision intelligence platforms is projected to increase at 15% annually.
+Nevertheless, Palantir has an absurdly rich valuation. The stock currently trades at 120 times sales, the highest multiple in the S&amp;P 500 by a wide margin. The next closest company is Nvidia at 29 times sales. That means Palantir stock could drop 75% and it would still be the most richly valued member of the S&amp;P 500.
+So why did Englander and Rokos buy the stock? I can only guess, but perhaps they hoped to turn a quick profit. That Palantir has returned 2,360% in less than three years makes the stock a tempting momentum play. Regardless, prospective investors should avoid Palantir until shares are more reasonably priced, or at least keep positions in the stock very small until the valuation drops out of the stratosphere.
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $654,781!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,076,588!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,055% — a market-crushing outperformance compared to 183% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 18, 2025
+Trevor Jennewine has positions in Nvidia and Palantir Technologies. The Motley Fool has positions in and recommends Nvidia and Palantir Technologies. The Motley Fool has a disclosure policy.
+| 2 min | |
+| 10 min |
+Palantir, Shopify Peer Attracting Eyeballs - And Top Funds. Here's Why.
+PLTR
+Investor's Business Daily
+|
+| 11 min | |
+| 12 min | |
+| 15 min | |
+| 32 min | |
+| 46 min | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 2 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Hedge funds led by billionaires Israel Englander and Chris Rokos sold Nvidia and bought Palantir stock in the first quarter. Nvidia is the market leader in data center GPUs and generative AI networking gear, and the current stock price is reasonable. Palantir is a leader in decision intelligence and AI platforms, but it's also the most expensive stock in the S&amp;P 500 by a wide margin. Nvidia (NASDAQ: NVDA) shares are up 1,100% since January 2023, while Palantir Technologies (NASDAQ: PLTR) shares have advanced 2,360%. But the following hedge fund managers sold the former and bought the latter in the second quarter, a surprising move given that Wall Street analysts generally think Palantir is overvalued. Importantly, both hedge funds outperformed the S&amp;P 500 (SNPINDEX: ^GSPC) over the past three years, which makes Englander and Rokos good sources of inspiration for individual investors. Here's what you should know about Nvidia and Palantir. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Image source: Getty Images. Nvidia reported strong first quarter financial results. Revenue rose 69% to $44 billion on robust demand for artificial intelligence (AI) infrastructure, and non GAAP net income increased 33% to $0.81 per diluted share. Earnings would have grown faster had it not been for new export restrictions on China, but President Trump has since relaxed those restrictions. The investment thesis for Nvidia centers on its essential role in the AI market. The company is best known for its dominance in data center graphics processing units (GPUs), chips used to accelerate AI workloads. But the company is also the leader in generative AI networking gear, and it has a burgeoning cloud software and services business. Nvidia's competitive advantages lie in technical expertise and switching costs. Specifically, its computing systems consistently outperform rival systems at the MLPerf benchmarks, objective tests that measure AI technologies across training and inference. And its CUDA software is the industry's most comprehensive suite of development tools for AI applications, meaning programmers are unlikely to switch to alternative hardware. Grand View Research estimates that spending across AI hardware, software, and services will increase at 36% annually through 2030, and Nvidia is perhaps better positioned than any other company to capitalize on that explosive growth. Wall Street expects its earnings to increase at 30% annually over the next three years. That makes the current valuation of 57 times earnings look reasonable and leaves room for upside. So why did Englander and Rokos sell Nvidia? My guess is simple profit taking. Regardless, readers should not assume the money managers have lost confidence in the chipmaker. Excluding options, Nvidia is still a top 10 holding in both hedge funds. I think patient investors can own this stock with confidence today. Palantir reported impressive second quarter financial results. Its customer count increased 43% to 849 and the average spend per existing customer increased 28%. In turn, revenue rose 48% to $1 billion, the eighth straight acceleration, and non GAAP net income jumped 77% to $0.16 per diluted share. Investors have reason to believe the company can keep its momentum. Palantir has a competitive advantage in its unique software architecture, which is built around an ontology, a framework that connects data to actions to improve decision making. Users can query the ontology with analytical tools and machine learning (ML) models to surface insights that improve over time. Chief Technology Officer Shyam Sankar says ontology based software gives the company a "unique moat and a massive lead" in the AI market. Indeed, Forrester Research recently recognized Palantir as a technology leader in AI/ML platforms. And the International Data Corporation has recognized its leadership in decision intelligence platforms. That leaves Palantir in a good position. Spending on AI platforms is forecast to increase at 39% annually through 2030, while spending on decision intelligence platforms is projected to increase at 15% annually. Nevertheless, Palantir has an absurdly rich valuation. The stock currently trades at 120 times sales, the highest multiple in the S&amp;P 500 by a wide margin. The next closest company is Nvidia at 29 times sales. That means Palantir stock could drop 75% and it would still be the most richly valued member of the S&amp;P 500. So why did Englander and Rokos buy the stock? I can only guess, but perhaps they hoped to turn a quick profit. That Palantir has returned 2,360% in less than three years makes the stock a tempting momentum play. Regardless, prospective investors should avoid Palantir until shares are more reasonably priced, or at least keep positions in the stock very small until the valuation drops out of the stratosphere. Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $654,781! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,076,588! Now, its worth noting Stock Advisors total average return is 1,055% a market crushing outperformance compared to 183% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 18, 2025 Trevor Jennewine has positions in Nvidia and Palantir Technologies. The Motley Fool has positions in and recommends Nvidia and Palantir Technologies. The Motley Fool has a disclosure policy. 2 min 10 min Palantir, Shopify Peer Attracting Eyeballs And Top Funds. Here's Why. PLTR Investor's Business Daily 11 min 12 min 15 min 32 min 46 min 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour 2 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45890.20069444444</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Markets mixed as investors await key Fed speech</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/asian-markets-creep-investors-await-025552918.html</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45890.18680555555</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Should You Buy Nvidia Stock Before Aug. 27?</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145954/should-you-buy-nvidia-stock-before-aug-27</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Nvidia recently became the world's first $4 trillion company on the back of surging demand for its data center chips.
+Many of Nvidia's top customers recently increased their data center spending forecasts, as they battle for supremacy in the artificial intelligence (AI) race.
+Nvidia will release its fiscal 2026 second-quarter financial results on Aug. 27, and they could be a catalyst for further upside in its stock.
+Nvidia (NASDAQ: NVDA) will release its financial results for its fiscal 2026 second quarter (ended July 30) on Aug. 27, which will give investors a valuable update on its booming data center business. This is where the company accounts for sales of its graphics processing units (GPUs), which are the most sought-after chips in the world for artificial intelligence (AI) development.
+Some of Nvidia's biggest customers recently announced increases to their planned capital expenditures (capex) for this calendar year, as they race to build more AI data centers to meet growing demand for computing capacity. This is likely to show up in the chip giant's financial results going forward, which could be a massive tailwind for its stock price.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Nvidia stock is already up 1,150% since the start of 2023, which is when the AI revolution really started gathering momentum. But it probably isn't too late to buy, because the upcoming earnings report on Aug. 27 could be a catalyst for further upside.
+Image source: Nvidia.
+Nvidia's latest Blackwell and Blackwell Ultra GPU architectures have reset the benchmark for the industry. The new Blackwell Ultra GB300 GPU can perform AI inference 50 times faster than Nvidia's previous flagship H100 chip, which is based on the older Hopper architecture. This makes the GB300 ideal for AI reasoning models like OpenAI's GPT-5, Anthropic's Claude 4, and Alphabet's Gemini 2.5.
+According to Nvidia CEO Jensen Huang, reasoning models consume between 100 times and 1,000 times more tokens (words, symbols, and punctuation) than traditional large language models (LLMs), because they spend more time "thinking" in the background to produce more accurate responses.
+This is driving incredible demand for the GB300, which will ship in commercial volumes during the second half of 2025. Since Nvidia's fiscal 2026 second quarter included July, investors might receive a detailed GB300 sales update on Aug. 27.
+What we know right now is that some of Nvidia's top customers are ramping up their data center spending:
+Nvidia's guidance suggests its Q2 revenue grew by 50% year over year, to $45 billion. Based on previous quarters, its data center business is likely to have accounted for almost 90% of that figure, thanks to surging GPU sales.
+Wall Street will be eyeing Nvidia's revenue guidance for the third quarter, which is currently underway, because it will reflect the level of demand for its Blackwell and Blackwell Ultra chips. Analysts are looking for a forecast of $52.5 billion (according to Yahoo! Finance), so anything above that will probably be very bullish for Nvidia stock.
+At the bottom line, Wall Street's consensus estimate suggests Nvidia delivered earnings of $1 per share during Q2. Earnings typically drive stock prices, so if the official number beats that on Aug. 27, it will be great news for shareholders.
+Nvidia stock is up 35% since it reported its financial results for the fiscal 2026 first quarter on May 28, which could be a sign of things to come if its Q2 report meets or exceeds expectations.
+The stock is trading at a price-to-earnings (P/E) ratio of 58.7 as I write this, which is a slight discount to its 10-year average of 60.1, so it's close to fair value. However, Wall Street thinks Nvidia will generate earnings of $4.33 per share during fiscal 2026 overall, placing its stock at a forward P/E ratio of just 42.
+That means Nvidia stock would have to climb by 43% over the next six months or so just to trade in line with its 10-year average P/E ratio of 60.1.
+NVDA PE Ratio data by YCharts
+Therefore, as long as Nvidia's financial results meet analysts' expectations, its stock could be destined for upside following its Aug. 27 report. Since we know many of the company's top customers have increased their capex forecasts, I think the risk that its Q2 results fall short of estimates is very low, so the stock could be a solid buy right now.
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $654,781!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,076,588!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,055% — a market-crushing outperformance compared to 183% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 18, 2025
+Anthony Di Pizio has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Alphabet, Amazon, Meta Platforms, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.
+| 2 min | |
+| 12 min | |
+| 15 min | |
+| 32 min | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 2 hours | |
+| 2 hours | |
+| 2 hours | |
+| 2 hours | |
+| 2 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Nvidia recently became the world's first $4 trillion company on the back of surging demand for its data center chips. Many of Nvidia's top customers recently increased their data center spending forecasts, as they battle for supremacy in the artificial intelligence (AI) race. Nvidia will release its fiscal 2026 second quarter financial results on Aug. 27, and they could be a catalyst for further upside in its stock. Nvidia (NASDAQ: NVDA) will release its financial results for its fiscal 2026 second quarter (ended July 30) on Aug. 27, which will give investors a valuable update on its booming data center business. This is where the company accounts for sales of its graphics processing units (GPUs), which are the most sought after chips in the world for artificial intelligence (AI) development. Some of Nvidia's biggest customers recently announced increases to their planned capital expenditures (capex) for this calendar year, as they race to build more AI data centers to meet growing demand for computing capacity. This is likely to show up in the chip giant's financial results going forward, which could be a massive tailwind for its stock price. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Nvidia stock is already up 1,150% since the start of 2023, which is when the AI revolution really started gathering momentum. But it probably isn't too late to buy, because the upcoming earnings report on Aug. 27 could be a catalyst for further upside. Image source: Nvidia. Nvidia's latest Blackwell and Blackwell Ultra GPU architectures have reset the benchmark for the industry. The new Blackwell Ultra GB300 GPU can perform AI inference 50 times faster than Nvidia's previous flagship H100 chip, which is based on the older Hopper architecture. This makes the GB300 ideal for AI reasoning models like OpenAI's GPT 5, Anthropic's Claude 4, and Alphabet's Gemini 2.5. According to Nvidia CEO Jensen Huang, reasoning models consume between 100 times and 1,000 times more tokens (words, symbols, and punctuation) than traditional large language models (LLMs), because they spend more time "thinking" in the background to produce more accurate responses. This is driving incredible demand for the GB300, which will ship in commercial volumes during the second half of 2025. Since Nvidia's fiscal 2026 second quarter included July, investors might receive a detailed GB300 sales update on Aug. 27. What we know right now is that some of Nvidia's top customers are ramping up their data center spending: Nvidia's guidance suggests its Q2 revenue grew by 50% year over year, to $45 billion. Based on previous quarters, its data center business is likely to have accounted for almost 90% of that figure, thanks to surging GPU sales. Wall Street will be eyeing Nvidia's revenue guidance for the third quarter, which is currently underway, because it will reflect the level of demand for its Blackwell and Blackwell Ultra chips. Analysts are looking for a forecast of $52.5 billion (according to Yahoo! Finance), so anything above that will probably be very bullish for Nvidia stock. At the bottom line, Wall Street's consensus estimate suggests Nvidia delivered earnings of $1 per share during Q2. Earnings typically drive stock prices, so if the official number beats that on Aug. 27, it will be great news for shareholders. Nvidia stock is up 35% since it reported its financial results for the fiscal 2026 first quarter on May 28, which could be a sign of things to come if its Q2 report meets or exceeds expectations. The stock is trading at a price to earnings (P/E) ratio of 58.7 as I write this, which is a slight discount to its 10 year average of 60.1, so it's close to fair value. However, Wall Street thinks Nvidia will generate earnings of $4.33 per share during fiscal 2026 overall, placing its stock at a forward P/E ratio of just 42. That means Nvidia stock would have to climb by 43% over the next six months or so just to trade in line with its 10 year average P/E ratio of 60.1. NVDA PE Ratio data by YCharts Therefore, as long as Nvidia's financial results meet analysts' expectations, its stock could be destined for upside following its Aug. 27 report. Since we know many of the company's top customers have increased their capex forecasts, I think the risk that its Q2 results fall short of estimates is very low, so the stock could be a solid buy right now. Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $654,781! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,076,588! Now, its worth noting Stock Advisors total average return is 1,055% a market crushing outperformance compared to 183% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 18, 2025 Anthony Di Pizio has no position in any of the stocks mentioned. The Motley Fool has positions in and recommends Alphabet, Amazon, Meta Platforms, Microsoft, and Nvidia. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. 2 min 12 min 15 min 32 min 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour 2 hours 2 hours 2 hours 2 hours 2 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45890.16458333333</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Markets Falter as Big Tech Slide Continues. Stock Futures Slip With Eyes on Fed Summit.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/e2ac3f5f-ce25-329b-a1ed-1d9bc1665f63/markets-falter-as-big-tech.html</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45890.16041666667</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Nvidia, Palantir, AMD, Meta Platforms, and Microsoft -- the Stock Market's Artificial Intelligence (AI) Titans -- Have a $23 Billion Warning for Wall Street</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145880/nvidia-palantir-amd-meta-platforms-and-microsoft-the-stock-markets-artificial-intelligence-ai-titans-have-a-23-billion-warning-for-wall-street</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+A mammoth estimated addressable market for artificial intelligence (AI) of $15.7 trillion by 2030 has sent Industry-leading AI stocks skyrocketing higher.
+Executives and board members for Nvidia, Palantir, Advanced Micro Devices, Meta Platforms, and Microsoft have been big-time sellers of their respective company's stock over the past five years.
+However, what may be even more worrisome is the lack of insider buying activity since mid-August 2020.
+Roughly 30 years ago, the advent and proliferation of the internet began positively altering the growth arc for corporate America. The internet gave businesses a new way to market their goods and services to consumers and expanded their reach beyond traditional brick-and-mortar stores.
+For three decades, investors have been waiting, sometimes impatiently, for the next-big-thing innovation to propel corporate growth to new heights. The evolution of artificial intelligence (AI) looks to be the answer.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+With AI, software and systems are empowered to make split-second decisions without the oversight of humans. This technology is a potential game-changer for multiple industries around the globe, which is likely why PwC's analysts estimated the global addressable opportunity for AI at a whopping $15.7 trillion come 2030 in Sizing the Prize.
+Image source: Getty Images.
+But while Wall Street's AI titans have thrived -- I'm talking about Nvidia (NASDAQ: NVDA), Palantir Technologies (NASDAQ: PLTR), Advanced Micro Devices (NASDAQ: AMD), Meta Platforms (NASDAQ: META), and Microsoft (NASDAQ: MSFT) -- they're all, collectively, offering up a greater than $23 billion warning to Wall Street.
+Before digging into this "warning" and looking to the future, it's important to first analyze the past and understand how the foundation to mammoth gains was laid for these five artificial intelligence giants.
+In one corner, Nvidia and AMD (as Advanced Micro Devices is more commonly known) have rocketed higher thanks to their AI-data center hardware. Nvidia's Hopper (H100) and Blackwell graphics processing units (GPUs) account for a sizable percentage of the AI-GPUs businesses have deployed in their high-compute data centers. No external competitors, including AMD, have come close to matching the compute capabilities of Nvidia's hardware, which has propelled Nvidia's pricing power and gross margin higher.
+Although AMD's Instinct series AI-accelerating chips are playing a very clear second fiddle to Nvidia, it's not struggling to find buyers for its hardware. AMD somewhat recently increased the price for its high-end Instinct MI350 AI-GPUs by a cool $10,000 to $25,000 because of strong demand and ongoing scarcity for AI hardware.
+The other three AI titans have made their respective marks via the practical application of AI solutions.
+Both of Palantir's core software-as-a-service platforms, Gotham and Foundry, heavily lean on AI and machine learning. Gotham is the tool federal governments use to plan and oversee military missions, as well as collect copious amounts of data. Meanwhile, Foundry is a subscription-driven platform for businesses looking to make sense of their data in order to streamline their operations.
+Meta Platforms has been incorporating AI solutions into its market-leading social media advertising platforms. Meta is the parent of Facebook, WhatsApp, Instagram, Threads, and Facebook Messenger, and its family of apps collectively averaged 3.48 billion users per day in June. By giving businesses access to generative AI solutions, they can better tailor their messages for users and improve ad click-through rates. In turn, Meta is commanding a higher price for ad placement on its apps.
+As for Microsoft, it's giving clients access to generative AI solutions, as well as tools within Azure to build and train large language models. Azure is the world's second largest cloud infrastructure service platform, and the incorporation of AI solutions has reaccelerated its already stunning year-over-year sales growth rate to nearly 40%.
+Image source: Getty Images.
+On the surface, little if anything has gone wrong for these five AI juggernauts. But if investors dig deeper, they'll find at least one reason to be concerned.
+Among the laundry list of data investors are privy to is insider trading activity. Every time a high-ranking executive, board member, or beneficial owner (e.g., an investor who owns 10% or more of a company's outstanding shares) purchases or sells stock in their company, that person is required to file Form 4 with the Securities and Exchange Commission (SEC) within two business days of the transaction.
+The insider trading activity filed with the SEC for these five AI titans over the trailing-five-year period (Aug. 15, 2020 – Aug. 15, 2025) tells quite the tale:
+Cumulatively, insiders of these five AI titans have disposed of a net of $23.35 billion worth of their respective stock over a five-year period (Note: Palantir went public in late September 2020).
+Something to keep in mind about these five AI juggernauts (and many of Wall Street's largest public companies, for that matter) is that executive compensation is often heavily weighted toward common stock, options, and other vesting awards. In other words, wages and salaries tend to make up a relatively small percentage of the compensation the executives at these companies receive.
+When insiders receive significant compensation in the form of options or common stock, they sometimes need to sell a portion of their holding to cover their federal and/or state tax liability. Likewise, options have a finite period of existence, and they need to be exercised before they expire. This can also lead to stock sales. Tax and options-based selling aren't reasons for investors to be concerned.
+But this selling activity may not all be benign, as evidenced by the lack of buying activity.
+Though there are numerous reasons for executives and board directors to sell stock, there's just one reason for them to be buyers: they believe their stock will increase in value. There's arguably no greater vote of confidence than seeing insiders put their own money to work in their respective company's stock.
+Here are the total number of purchases made by executives and directors over the trailing-five-year period:
+Executives and directors of these five companies have spent just $5.51 million, combined, purchasing their own company's stock over the trailing-five-year period.
+If the executives and directors who know their company inside and out aren't willing to purchase their own stock, why should investors feel confident that shares are going to head higher? The overwhelming insider selling we've witnessed from the stock market's AI titans serves as a very clear warning to Wall Street.
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $654,781!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,076,588!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,055% — a market-crushing outperformance compared to 183% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 18, 2025
+Sean Williams has positions in Meta Platforms. The Motley Fool has positions in and recommends Advanced Micro Devices, Meta Platforms, Microsoft, Nvidia, and Palantir Technologies. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy.
+| 2 min | |
+| 4 min | |
+| 10 min |
+Palantir, Shopify Peer Attracting Eyeballs - And Top Funds. Here's Why.
+PLTR
+Investor's Business Daily
+|
+| 11 min | |
+| 12 min | |
+| 15 min | |
+| 32 min | |
+| 46 min | |
+| 46 min | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>A mammoth estimated addressable market for artificial intelligence (AI) of $15.7 trillion by 2030 has sent Industry leading AI stocks skyrocketing higher. Executives and board members for Nvidia, Palantir, Advanced Micro Devices, Meta Platforms, and Microsoft have been big time sellers of their respective company's stock over the past five years. However, what may be even more worrisome is the lack of insider buying activity since mid August 2020. Roughly 30 years ago, the advent and proliferation of the internet began positively altering the growth arc for corporate America. The internet gave businesses a new way to market their goods and services to consumers and expanded their reach beyond traditional brick and mortar stores. For three decades, investors have been waiting, sometimes impatiently, for the next big thing innovation to propel corporate growth to new heights. The evolution of artificial intelligence (AI) looks to be the answer. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue With AI, software and systems are empowered to make split second decisions without the oversight of humans. This technology is a potential game changer for multiple industries around the globe, which is likely why PwC's analysts estimated the global addressable opportunity for AI at a whopping $15.7 trillion come 2030 in Sizing the Prize. Image source: Getty Images. But while Wall Street's AI titans have thrived I'm talking about Nvidia (NASDAQ: NVDA), Palantir Technologies (NASDAQ: PLTR), Advanced Micro Devices (NASDAQ: AMD), Meta Platforms (NASDAQ: META), and Microsoft (NASDAQ: MSFT) they're all, collectively, offering up a greater than $23 billion warning to Wall Street. Before digging into this "warning" and looking to the future, it's important to first analyze the past and understand how the foundation to mammoth gains was laid for these five artificial intelligence giants. In one corner, Nvidia and AMD (as Advanced Micro Devices is more commonly known) have rocketed higher thanks to their AI data center hardware. Nvidia's Hopper (H100) and Blackwell graphics processing units (GPUs) account for a sizable percentage of the AI GPUs businesses have deployed in their high compute data centers. No external competitors, including AMD, have come close to matching the compute capabilities of Nvidia's hardware, which has propelled Nvidia's pricing power and gross margin higher. Although AMD's Instinct series AI accelerating chips are playing a very clear second fiddle to Nvidia, it's not struggling to find buyers for its hardware. AMD somewhat recently increased the price for its high end Instinct MI350 AI GPUs by a cool $10,000 to $25,000 because of strong demand and ongoing scarcity for AI hardware. The other three AI titans have made their respective marks via the practical application of AI solutions. Both of Palantir's core software as a service platforms, Gotham and Foundry, heavily lean on AI and machine learning. Gotham is the tool federal governments use to plan and oversee military missions, as well as collect copious amounts of data. Meanwhile, Foundry is a subscription driven platform for businesses looking to make sense of their data in order to streamline their operations. Meta Platforms has been incorporating AI solutions into its market leading social media advertising platforms. Meta is the parent of Facebook, WhatsApp, Instagram, Threads, and Facebook Messenger, and its family of apps collectively averaged 3.48 billion users per day in June. By giving businesses access to generative AI solutions, they can better tailor their messages for users and improve ad click through rates. In turn, Meta is commanding a higher price for ad placement on its apps. As for Microsoft, it's giving clients access to generative AI solutions, as well as tools within Azure to build and train large language models. Azure is the world's second largest cloud infrastructure service platform, and the incorporation of AI solutions has reaccelerated its already stunning year over year sales growth rate to nearly 40%. Image source: Getty Images. On the surface, little if anything has gone wrong for these five AI juggernauts. But if investors dig deeper, they'll find at least one reason to be concerned. Among the laundry list of data investors are privy to is insider trading activity. Every time a high ranking executive, board member, or beneficial owner (e.g., an investor who owns 10% or more of a company's outstanding shares) purchases or sells stock in their company, that person is required to file Form 4 with the Securities and Exchange Commission (SEC) within two business days of the transaction. The insider trading activity filed with the SEC for these five AI titans over the trailing five year period (Aug. 15, 2020 Aug. 15, 2025) tells quite the tale: Cumulatively, insiders of these five AI titans have disposed of a net of $23.35 billion worth of their respective stock over a five year period (Note: Palantir went public in late September 2020). Something to keep in mind about these five AI juggernauts (and many of Wall Street's largest public companies, for that matter) is that executive compensation is often heavily weighted toward common stock, options, and other vesting awards. In other words, wages and salaries tend to make up a relatively small percentage of the compensation the executives at these companies receive. When insiders receive significant compensation in the form of options or common stock, they sometimes need to sell a portion of their holding to cover their federal and/or state tax liability. Likewise, options have a finite period of existence, and they need to be exercised before they expire. This can also lead to stock sales. Tax and options based selling aren't reasons for investors to be concerned. But this selling activity may not all be benign, as evidenced by the lack of buying activity. Though there are numerous reasons for executives and board directors to sell stock, there's just one reason for them to be buyers: they believe their stock will increase in value. There's arguably no greater vote of confidence than seeing insiders put their own money to work in their respective company's stock. Here are the total number of purchases made by executives and directors over the trailing five year period: Executives and directors of these five companies have spent just $5.51 million, combined, purchasing their own company's stock over the trailing five year period. If the executives and directors who know their company inside and out aren't willing to purchase their own stock, why should investors feel confident that shares are going to head higher? The overwhelming insider selling we've witnessed from the stock market's AI titans serves as a very clear warning to Wall Street. Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $654,781! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,076,588! Now, its worth noting Stock Advisors total average return is 1,055% a market crushing outperformance compared to 183% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 18, 2025 Sean Williams has positions in Meta Platforms. The Motley Fool has positions in and recommends Advanced Micro Devices, Meta Platforms, Microsoft, Nvidia, and Palantir Technologies. The Motley Fool recommends the following options: long January 2026 $395 calls on Microsoft and short January 2026 $405 calls on Microsoft. The Motley Fool has a disclosure policy. 2 min 4 min 10 min Palantir, Shopify Peer Attracting Eyeballs And Top Funds. Here's Why. PLTR Investor's Business Daily 11 min 12 min 15 min 32 min 46 min 46 min 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45890.12708333333</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Heard on the Street Wednesday Recap: AI Trade Down</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/05c1a54e-3d33-3d19-b370-76694f7898bf/heard-on-the-street-wednesday.html</t>
+        </is>
+      </c>
+      <c r="E129" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45890.12638888889</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Does Billionaire David Tepper Know Something Wall Street Doesn't? He Sold 100% of Appaloosa's Broadcom Stock and Piled Into This High-Profile Artificial Intelligence (AI) Chipmaker Instead</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145876/does-billionaire-david-tepper-know-something-wall-street-doesnt-he-sold-100-of-appaloosas-broadcom-stock-and-piled-into-this-high-profile-artificial-intelligence-ai-chipmaker-instead</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+In the second quarter, Appaloosa dumped 100% of its Broadcom stake, even after robust results and corresponding stock price gains.
+Despite holding dozens of stocks, Nvidia is now Tepper's seventh largest stock holding.
+Tepper has been known to pounce when an opportunity presents itself, which was likely what happened here.
+Billionaire David Tepper is something of an investing legend. The philanthropist and hedge fund manager runs Appaloosa Management, the hedge fund he founded, with $6.45 billion in assets under management. He cemented his name in the annals of Wall Street by predicting the housing market collapse and subsequent financial crisis in 2008. He bucked the trend, piling into bank stocks on the heels of the Great Recession and "banking" $7 billion in profits in the process, becoming the most successful hedge fund manager of the era.
+Some say Tepper is "arguably the greatest hedge fund manager of his generation." He "has consistently outperformed his industry peers and the broader global markets since inception," according to Tepper's Carnegie Mellon University bio.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More »
+With that as a backdrop, it's notable that Tepper sold 100% of Appaloosa's stake in Broadcom (NASDAQ: AVGO) in the second quarter, ended June 30, and is piling into this artificial intelligence (AI) chipmaker instead.
+Image source: Getty Images.
+Broadcom offers a range of technology solutions that have broad reach across the internet. Its semiconductor, software, and security products are staples in the mobile, broadband, cable, and data center industries. In fact, Broadcom says "99% of all internet traffic crosses through some type of Broadcom technology."
+However, it's the advent of AI that has been the company's biggest growth driver over the past few years. For example, in the second quarter, ended May 4, Broadcom delivered revenue of $15 billion, up 20% year over year, resulting in adjusted earnings per share (EPS) of $1.58, a 44% jump. Management noted that strong demand for AI fueled its surging growth, as AI revenue of $4.4 billion represented a 46% increase, extending a year-over-year growth streak that reaches back nine consecutive quarters. Within this category, custom AI accelerators grew by double digits, while AI networking solutions soared 70%.
+Tepper probably saw an opportunity when Broadcom stock slumped 28% in the first quarter, weighed down by broader economic concerns and tariff uncertainty. However, in Q2, Broadcom stock surged 64% as investors looked past those worries and focused on the future of AI. With everything going so well, why would Tepper sell? The move was probably related to the stock's valuation, as Broadcom ended the quarter with a forward price-to-earnings (P/E) ratio of 41.
+Given its performance, the stock is certainly worthy of a premium, but Tepper probably saw a more compelling opportunity in Nvidia (NASDAQ: NVDA). The hedge fund manager increased Appaloosa's stake in the chipmaker by 483%, amounting to 1.75 million shares and roughly 4.3% of its portfolio.
+After being a persistent seller of Nvidia over the past year, unloading 93% of his shares, Tepper appears to have had a change of heart.
+After all, Nvidia pioneered the graphics processing units (GPUs) that are the gold standard for AI. Most AI processing occurs in the data center, and Nvidia holds a dominant 92% share of the data center GPU market, according to IoT Analytics.
+If there was any question about the demand for AI chips, Nvidia helped dispel those concerns with its recent results. In its 2026 first quarter, the company generated revenue of $44 billion, an increase of 69% year over year and 12% sequentially. Adjusted for a one-time charge related to a moratorium on its H20 chip sales to China, EPS of $0.96 marked a 62% increase.
+Management believes these robust sales will continue. For the second quarter, Nvidia is guiding for revenue of $45 billion, which would represent year-over-year growth of about 50%. That's on top of 122% revenue growth in the prior-year quarter, making it all the more impressive.
+We don't know exactly when during the second quarter Tepper added to his stake, but a review of the stock chart might provide a clue. In early April, Nvidia stock plunged to its lowest price in nearly a year, and its valuation became downright intriguing. The stock was selling for less than 21 times forward earnings, marking its lowest valuation in more than a year.
+It turns out that Tepper probably didn't know something that Wall Street doesn't. He simply saw an opportunity that was simply too good to resist, and he pounced. Should investors follow suit?
+Nvidia has since recovered from its early April swoon, yet I would argue that the opportunity remains compelling. The company's AI-centric Blackwell processors are flying off the shelves, and the U.S. government has lifted its moratorium on sales of Nvidia's H20 chips to China. Furthermore, at 31 times next year's expected sales, Nvidia, while not as cheap as it was earlier this year, is a great picks-and-shovels way to play the AI revolution.
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $654,781!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,076,588!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,055% — a market-crushing outperformance compared to 183% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+*Stock Advisor returns as of August 18, 2025
+Danny Vena has positions in Broadcom and Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool recommends Broadcom. The Motley Fool has a disclosure policy.
+| 2 min | |
+| 12 min | |
+| 15 min | |
+| 32 min | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 2 hours | |
+| 2 hours | |
+| 2 hours | |
+| 2 hours | |
+| 2 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>In the second quarter, Appaloosa dumped 100% of its Broadcom stake, even after robust results and corresponding stock price gains. Despite holding dozens of stocks, Nvidia is now Tepper's seventh largest stock holding. Tepper has been known to pounce when an opportunity presents itself, which was likely what happened here. Billionaire David Tepper is something of an investing legend. The philanthropist and hedge fund manager runs Appaloosa Management, the hedge fund he founded, with $6.45 billion in assets under management. He cemented his name in the annals of Wall Street by predicting the housing market collapse and subsequent financial crisis in 2008. He bucked the trend, piling into bank stocks on the heels of the Great Recession and "banking" $7 billion in profits in the process, becoming the most successful hedge fund manager of the era. Some say Tepper is "arguably the greatest hedge fund manager of his generation." He "has consistently outperformed his industry peers and the broader global markets since inception," according to Tepper's Carnegie Mellon University bio. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Learn More With that as a backdrop, it's notable that Tepper sold 100% of Appaloosa's stake in Broadcom (NASDAQ: AVGO) in the second quarter, ended June 30, and is piling into this artificial intelligence (AI) chipmaker instead. Image source: Getty Images. Broadcom offers a range of technology solutions that have broad reach across the internet. Its semiconductor, software, and security products are staples in the mobile, broadband, cable, and data center industries. In fact, Broadcom says "99% of all internet traffic crosses through some type of Broadcom technology." However, it's the advent of AI that has been the company's biggest growth driver over the past few years. For example, in the second quarter, ended May 4, Broadcom delivered revenue of $15 billion, up 20% year over year, resulting in adjusted earnings per share (EPS) of $1.58, a 44% jump. Management noted that strong demand for AI fueled its surging growth, as AI revenue of $4.4 billion represented a 46% increase, extending a year over year growth streak that reaches back nine consecutive quarters. Within this category, custom AI accelerators grew by double digits, while AI networking solutions soared 70%. Tepper probably saw an opportunity when Broadcom stock slumped 28% in the first quarter, weighed down by broader economic concerns and tariff uncertainty. However, in Q2, Broadcom stock surged 64% as investors looked past those worries and focused on the future of AI. With everything going so well, why would Tepper sell? The move was probably related to the stock's valuation, as Broadcom ended the quarter with a forward price to earnings (P/E) ratio of 41. Given its performance, the stock is certainly worthy of a premium, but Tepper probably saw a more compelling opportunity in Nvidia (NASDAQ: NVDA). The hedge fund manager increased Appaloosa's stake in the chipmaker by 483%, amounting to 1.75 million shares and roughly 4.3% of its portfolio. After being a persistent seller of Nvidia over the past year, unloading 93% of his shares, Tepper appears to have had a change of heart. After all, Nvidia pioneered the graphics processing units (GPUs) that are the gold standard for AI. Most AI processing occurs in the data center, and Nvidia holds a dominant 92% share of the data center GPU market, according to IoT Analytics. If there was any question about the demand for AI chips, Nvidia helped dispel those concerns with its recent results. In its 2026 first quarter, the company generated revenue of $44 billion, an increase of 69% year over year and 12% sequentially. Adjusted for a one time charge related to a moratorium on its H20 chip sales to China, EPS of $0.96 marked a 62% increase. Management believes these robust sales will continue. For the second quarter, Nvidia is guiding for revenue of $45 billion, which would represent year over year growth of about 50%. That's on top of 122% revenue growth in the prior year quarter, making it all the more impressive. We don't know exactly when during the second quarter Tepper added to his stake, but a review of the stock chart might provide a clue. In early April, Nvidia stock plunged to its lowest price in nearly a year, and its valuation became downright intriguing. The stock was selling for less than 21 times forward earnings, marking its lowest valuation in more than a year. It turns out that Tepper probably didn't know something that Wall Street doesn't. He simply saw an opportunity that was simply too good to resist, and he pounced. Should investors follow suit? Nvidia has since recovered from its early April swoon, yet I would argue that the opportunity remains compelling. The company's AI centric Blackwell processors are flying off the shelves, and the U.S. government has lifted its moratorium on sales of Nvidia's H20 chips to China. Furthermore, at 31 times next year's expected sales, Nvidia, while not as cheap as it was earlier this year, is a great picks and shovels way to play the AI revolution. Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $654,781! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,076,588! Now, its worth noting Stock Advisors total average return is 1,055% a market crushing outperformance compared to 183% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. Stock Advisor returns as of August 18, 2025 Danny Vena has positions in Broadcom and Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool recommends Broadcom. The Motley Fool has a disclosure policy. 2 min 12 min 15 min 32 min 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour 2 hours 2 hours 2 hours 2 hours 2 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45890.125</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Short sellers reap over $5 billion on Big Tech bets as AI fears roil market</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/short-sellers-reap-over-5-billion-on-big-tech-bets-as-ai-fears-roil-market-100040412.html</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45890.03958333333</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Asian shares are mostly higher after a mixed finish on Wall Street</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/asian-shares-mostly-higher-mixed-045707518.html</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45889.93125</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>China turns against Nvidias AI chip after insulting Howard Lutnick remarks</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/beijing-turns-against-nvidia-ai-001506966.html</t>
+        </is>
+      </c>
+      <c r="E133" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45889.91875</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Nvidias China deal controversy puts US officials on their back feet</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/060a3933-0230-3635-abf3-15f5b541b766/nvidia%E2%80%99s-china-deal.html</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45889.91041666667</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Oracle Rides Major Deals With OpenAI, Nvidia to Turn Around Cloud Business</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/oracle-rides-major-deals-openai-015102267.html</t>
+        </is>
+      </c>
+      <c r="E135" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45889.83402777778</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Pension Funds Missing Tech Rally Turn to Completion Portfolios</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/pension-funds-missing-tech-rally-000136304.html</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45889.78680555556</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Analyst Joseph Moore Lifts Nvidia (NVDA) Price Target Before Earnings Report</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145764/analyst-joseph-moore-lifts-nvidia-nvda-price-target-before-earnings-report</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the AI Stocks Analysts Are Watching Closely. On August 18, Morgan Stanley reiterated the stock as “Overweight” and raised its price target on Nvidia to $206 per share from $200. The rating comes ahead of the chipmaker’s earnings print on August 27.
+“Expectations have risen ahead of Nvidia’s earnings, and we think rightfully so. We expect a strong quarter and outlook, but we’re a little measured on the current quarter — our optimism centers on what lies ahead.”
+-Analyst Joseph Moore .
+Moore highlighted strong demand from Nvidia’s customers beyond its “largest handful of spenders.”
+“Three months ago, our positive view on demand was more bullish than consensus, and our view that supply issues would get resolved were more bullish than consensus, but consensus has risen on both. But we remain more optimistic on prospects for growing share in 2025 and holding share at close to the current 85% in CY26, against both merchant and ASIC competition.”
+Stock market reports printed on a sheet of paper. Photo by RDNE Stock Project on Pexels
+Keeping this in mind, the firm has modeled $46.6 billion in revenue for July, up from $45.2 billion.
+“So how would we put this together around the quarter? We model $46.6bn in revenue for July, up from our prior $45.2bn, and $52.5bn in revenue for October vs our prior $51.3bn. We think investor expectations are moderately higher based on some of those supply inputs noted above, and we see the rationale for upside. But our assumption is that more of that comes in January; either way these figures represent numbers that are still undershipping end demand, and momentum should continue into next year, which is an important factor when thinking about a continued bid to the stock. Should China fully come back into the picture, that would be additive to our assumptions. As such, we are raising our 2026 estimates, from revenue/non-gaap EPS of $264.6bn/$6.28 to $273.2bn/$6.51. As far as our PT, we had assumed ~33x our MW CY25 EPS estimate of $6.02; we are maintaining that ~33x target multiple but on our now $6.25 in MW EPS that brings the PT to $206.”
+NVIDIA Corporation (NASDAQ:NVDA) specializes in AI-driven solutions, offering platforms for data centers, self-driving cars, robotics, and cloud services.
+While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump-era tariffs and the onshoring trend, see our free report on the best short-term AI stock.
+READ NEXT: 10 AI Stocks Analysts Are Watching Closely and 10 Trending AI Stocks in Focus This Week.
+Disclosure: None.</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation (NASDAQ:NVDA) is one of the AI Stocks Analysts Are Watching Closely. On August 18, Morgan Stanley reiterated the stock as Overweight and raised its price target on Nvidia to $206 per share from $200. The rating comes ahead of the chipmakers earnings print on August 27. Expectations have risen ahead of Nvidias earnings, and we think rightfully so. We expect a strong quarter and outlook, but were a little measured on the current quarter our optimism centers on what lies ahead. Analyst Joseph Moore . Moore highlighted strong demand from Nvidias customers beyond its largest handful of spenders. Three months ago, our positive view on demand was more bullish than consensus, and our view that supply issues would get resolved were more bullish than consensus, but consensus has risen on both. But we remain more optimistic on prospects for growing share in 2025 and holding share at close to the current 85% in CY26, against both merchant and ASIC competition. Stock market reports printed on a sheet of paper. Photo by RDNE Stock Project on Pexels Keeping this in mind, the firm has modeled $46.6 billion in revenue for July, up from $45.2 billion. So how would we put this together around the quarter? We model $46.6bn in revenue for July, up from our prior $45.2bn, and $52.5bn in revenue for October vs our prior $51.3bn. We think investor expectations are moderately higher based on some of those supply inputs noted above, and we see the rationale for upside. But our assumption is that more of that comes in January; either way these figures represent numbers that are still undershipping end demand, and momentum should continue into next year, which is an important factor when thinking about a continued bid to the stock. Should China fully come back into the picture, that would be additive to our assumptions. As such, we are raising our 2026 estimates, from revenue/non gaap EPS of $264.6bn/$6.28 to $273.2bn/$6.51. As far as our PT, we had assumed ~33x our MW CY25 EPS estimate of $6.02; we are maintaining that ~33x target multiple but on our now $6.25 in MW EPS that brings the PT to $206. NVIDIA Corporation (NASDAQ:NVDA) specializes in AI driven solutions, offering platforms for data centers, self driving cars, robotics, and cloud services. While we acknowledge the potential of NVDA as an investment, we believe certain AI stocks offer greater upside potential and carry less downside risk. If you're looking for an extremely undervalued AI stock that also stands to benefit significantly from Trump era tariffs and the onshoring trend, see our free report on the best short term AI stock. READ NEXT: 10 AI Stocks Analysts Are Watching Closely and 10 Trending AI Stocks in Focus This Week. Disclosure: None.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45889.78263888889</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Samsung could benefit from US approval of lower-spec Nvidia Blackwell chips for China</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.digitimes.com/news/a20250819PD211/samsung-nvidia-blackwell-chips-hbm3e.html</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45889.77083333334</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Ready to Buy the Dip? 5 Nasdaq-100 Stocks Down 10% or More</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/4aab6516-917c-398c-a1b2-7a8acb447ad7/ready-to-buy-the-dip%3F-5.html</t>
+        </is>
+      </c>
+      <c r="E139" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45889.75902777778</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Is Intel's Revival Ahead After SoftBank's $2 Billion Investment</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145792/is-intels-revival-ahead-after-softbanks-2-billion-investment</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Intel’s INTC revival as a leading chipmaker has gained traction following Tuesday’s announcement that SoftBank SFTBY had taken a nearly 2% stake in the company worth $2 billion.
+Furthermore, the Trump administration is reportedly considering a 10% stake in Intel, which could make the U.S. goverment the company’s largest shareholder in a broader effort to strengthen domestic chipmaking capabilities.
+To do so, the government would convert funds that Intel received through the CHIPS Act grants into equity, with Intel receiving roughly $11 billion in grants for commercial and military chip production.
+With SoftBank helping to lead the large stake investments in Intel, investors may be starting to believe that the chip giant’s revival is ahead. As one of the market’s top performers this month, Intel shares have surged +18% in August, to largely outpace the broader indexes, with Nvidia NVDA and other AI infrastructure-related stocks starting to lose some of their blazing steam.
+Known for its bold bets on tech and innovation, it’s noteworthy that Intel CEO Lip-Bu Tan has deep ties with SoftBank after previously serving on the multinational holding company's board of directors from 2020-2022.
+Intel and SoftBank also have collaboration efforts in Saimemory, a startup focused on stacked DRAM (Dynamic Random-Access Memory) chips for AI applications.
+Seeing Intel as a critical player in expanding AI chip production, SoftBank is heavily invested in artificial intelligence, having a $500 billion data center project, deemed “Stargate” with OpenAI and Oracle ORCL.
+This strategic move also positions SoftBank as a key influencer in global chip supply chains, becoming one of Intel’s largest shareholders and deepening its semiconductor portfolio as the majority owner of ARM Holdings ARM while holding stakes in Nvidia and Taiwan Semiconductor TSM as well.
+With SoftBank’s investment providing a financial lifeline, this will allow Intel financial flexibility to stabilize its operations after posting a $18.8 billion loss in 2024, the chipmaker's first unprofitable year since 1986. Attributing to last year’s loss, Intel’s foundry division has struggled to secure major clients after losing Nvidia as a customer to Taiwan Semiconductor.
+Without these large-scale customers or further outside investments, Intel may have to cancel or halt its mega semiconductor factory in Ohio (Ohio One). Notably, Ohio One is one of the most ambitious tech infrastructure projects in U.S. history, which is another reason the Trump administration has planned to assist Intel, seeing the mega-factory as a way to reduce the nation's reliance on foreign chipmakers.
+Showing signs that its revival may be ahead, Intel’s annual earnings are expected to swing back into the black in fiscal 2025 to $0.15 per share, compared to an adjusted loss of -$0.13 a share last year. Reassuringly, Intel’s FY26 EPS is projected to rebound to $0.68.
+On the top line, Intel’s total sales are currently slated to dip over 1% this year, but are projected to rebound and rise 4% in FY26 to $54.2 billion. However, FY26 sales projections would still be well away from Intel’s multi-year peaks of $79 billion in 2021.
+Regarding Intel’s financial health, the company has a solid balance sheet, having $192.52 billion in total assets at the end of Q2 compared to $86.76 billion in total liabilities. Plus, Intel has over $21 billion in cash &amp; equivalents as shown in the quarterly chart below.
+The price-to-sales ratio (P/S) may be a better way to track Intel's value to investors at the moment rather than the P/E ratio. In this regard, INTC does trade near the preferred level of less than 2X forward sales, with the S&amp;P 500 at 5.5X, and many chip peers such as Nvidia and Taiwan Semiconductor still trading at hefty premiums to these levels.
+SoftBank’s investment in Intel certainly signals confidence in the chip giant’s turnaround and future relevance. That said, after such a sharp rally this month, Intel stock lands a Zacks Rank #3 (Hold), although investors are starting to get more reassurance for what is hopefully a continued rebound at some point.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+This article originally published on Zacks Investment Research (zacks.com).
+| 2 min | |
+| 12 min | |
+| 15 min | |
+| 32 min | |
+| 51 min | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Intels INTC revival as a leading chipmaker has gained traction following Tuesdays announcement that SoftBank SFTBY had taken a nearly 2% stake in the company worth $2 billion. Furthermore, the Trump administration is reportedly considering a 10% stake in Intel, which could make the U.S. goverment the companys largest shareholder in a broader effort to strengthen domestic chipmaking capabilities. To do so, the government would convert funds that Intel received through the CHIPS Act grants into equity, with Intel receiving roughly $11 billion in grants for commercial and military chip production. With SoftBank helping to lead the large stake investments in Intel, investors may be starting to believe that the chip giants revival is ahead. As one of the markets top performers this month, Intel shares have surged +18% in August, to largely outpace the broader indexes, with Nvidia NVDA and other AI infrastructure related stocks starting to lose some of their blazing steam. Known for its bold bets on tech and innovation, its noteworthy that Intel CEO Lip Bu Tan has deep ties with SoftBank after previously serving on the multinational holding company's board of directors from 2020 2022. Intel and SoftBank also have collaboration efforts in Saimemory, a startup focused on stacked DRAM (Dynamic Random Access Memory) chips for AI applications. Seeing Intel as a critical player in expanding AI chip production, SoftBank is heavily invested in artificial intelligence, having a $500 billion data center project, deemed Stargate with OpenAI and Oracle ORCL. This strategic move also positions SoftBank as a key influencer in global chip supply chains, becoming one of Intels largest shareholders and deepening its semiconductor portfolio as the majority owner of ARM Holdings ARM while holding stakes in Nvidia and Taiwan Semiconductor TSM as well. With SoftBanks investment providing a financial lifeline, this will allow Intel financial flexibility to stabilize its operations after posting a $18.8 billion loss in 2024, the chipmaker's first unprofitable year since 1986. Attributing to last years loss, Intels foundry division has struggled to secure major clients after losing Nvidia as a customer to Taiwan Semiconductor. Without these large scale customers or further outside investments, Intel may have to cancel or halt its mega semiconductor factory in Ohio (Ohio One). Notably, Ohio One is one of the most ambitious tech infrastructure projects in U.S. history, which is another reason the Trump administration has planned to assist Intel, seeing the mega factory as a way to reduce the nation's reliance on foreign chipmakers. Showing signs that its revival may be ahead, Intels annual earnings are expected to swing back into the black in fiscal 2025 to $0.15 per share, compared to an adjusted loss of $0.13 a share last year. Reassuringly, Intels FY26 EPS is projected to rebound to $0.68. On the top line, Intels total sales are currently slated to dip over 1% this year, but are projected to rebound and rise 4% in FY26 to $54.2 billion. However, FY26 sales projections would still be well away from Intels multi year peaks of $79 billion in 2021. Regarding Intels financial health, the company has a solid balance sheet, having $192.52 billion in total assets at the end of Q2 compared to $86.76 billion in total liabilities. Plus, Intel has over $21 billion in cash &amp; equivalents as shown in the quarterly chart below. The price to sales ratio (P/S) may be a better way to track Intel's value to investors at the moment rather than the P/E ratio. In this regard, INTC does trade near the preferred level of less than 2X forward sales, with the S&amp;P 500 at 5.5X, and many chip peers such as Nvidia and Taiwan Semiconductor still trading at hefty premiums to these levels. SoftBanks investment in Intel certainly signals confidence in the chip giants turnaround and future relevance. That said, after such a sharp rally this month, Intel stock lands a Zacks Rank #3 (Hold), although investors are starting to get more reassurance for what is hopefully a continued rebound at some point. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report This article originally published on Zacks Investment Research (zacks.com). 2 min 12 min 15 min 32 min 51 min 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45889.7375</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Falls Despite Bullish Calls From KeyBanc and Susquehanna</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-stock-falls-despite-bullish-214249914.html</t>
+        </is>
+      </c>
+      <c r="E141" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45889.73263888889</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Treasury Secretary Signals Bold Intel Move as Washington Tightens Grip on Chip Race</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/treasury-secretary-signals-bold-intel-213555928.html</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45889.73194444444</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>As Nasdaq stumbles again, investors start to wonder: Have Big Tech stocks finally peaked?</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.marketwatch.com/story/as-nasdaq-stumbles-again-investors-start-to-wonder-have-big-tech-stocks-finally-peaked-50c590dc?mod=mw_FV</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45889.71736111111</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Nvidia-Backed FieldAI Bags $405 Million, Pushing Into General-Purpose Robotics</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nvidia-backed-fieldai-bags-405-211359630.html</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45889.70833333334</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Heard on the Street Recap: AI Trade Down</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/7c02daab-e220-38d6-9fb1-c9a6ae6ee9b8/heard-on-the-street-recap%3A-ai.html</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45889.70208333333</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Nvidia vs. AMD: The Charts Pick the Winning Stock</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/31988b57-dc34-361e-a30e-82d4fac14045/nvidia-vs.-amd%3A-the-charts.html</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45889.7</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Here's an AI Stock You've Never Heard Of. It's Riding Nvidia's Coattails.</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/ai-stocks-nvidia-credo-6b25e669?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45889.69791666666</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Stock markets diverge awaiting Fed signals as tech sell-off deepens</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/asian-markets-waver-japan-exports-075505193.html</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45889.69305555556</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>MIT Report On Gen AI Struggles Spooks Investors. Analyst Sees Opening For IBM And These Stocks.</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/0bc8b285-5458-373a-acaa-4afe61a0a317/mit-report-on-gen-ai.html</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45889.69027777778</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Nvidia, Tesla Stocks on Tron: xStocks Expand After Hitting Trading Milestone</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/6f76afa9-7842-3614-8fde-4a40d3990c51/nvidia%2C-tesla-stocks-on-tron%3A.html</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45889.67569444444</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Palantir Falls For Sixth Straight Session. Retreats 18% From All-Time High.</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/34db8282-9a6d-3d33-90d7-981796b6f2ab/palantir-falls-for-sixth.html</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45889.66319444445</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Analysis-US tech-stock stumble shows vulnerability in AI trade</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/analysis-us-tech-stock-stumble-195516795.html</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45889.6625</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Nvidia, Hertz, Abercrombie &amp; Fitch: Trending tickers</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/nvidia-hertz-abercrombie-fitch-trending-195410830.html</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45889.65208333333</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Stock market today: Nasdaq leads market decline as tech stocks get hammered for second day</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/live/stock-market-today-nasdaq-leads-market-decline-as-tech-stocks-get-hammered-for-second-day-230802628.html</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45889.63472222222</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Renaissance Hedge Fund Adds NVIDIA, Follows Buffett Into UNH</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145646/renaissance-hedge-fund-adds-nvidia-follows-buffett-into-unh</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Renaissance Technologies is often referred to as the most successful hedge fund of all time. From 1998 to 2021, the firm’s Medallion Fund generated annualized after-fees returns of 39%.
+Despite the company’s legendary leader, Jim Simons, having passed away in 2024, Renaissance’s quarterly moves continue to provide investors with an interesting perspective on the stock market. Below, we’ll detail the firm’s biggest moves and top holdings in Q2. Note that this holding data only goes through June 30.
+Palantir Remains No. 1 Holding Despite 17% Trim in Q2
+In Q1, Palantir Technologies (NASDAQ: PLTR) and Robinhood Markets (NASDAQ: HOOD) were both in the top five holdings in Renaissance's portfolio. Palantir continues to be the company’s largest holding. This comes even though Renaissance reduced its number of Palantir shares held by around 17% in Q2. Retaining its position as the portfolio’s top holding despite this is a testament to Palantir’s extremely impressive performance. The stock gained approximately 61% from March 31 to June 30.
+Overall, when it comes to Palantir, it appears that Renaissance still wants the stock in its portfolio, but it is persistently taking gains to invest in other opportunities. With shares up nearly 400% in the past 52 weeks and the stock trading at a forward price-to-earnings (P/E) ratio north of 200x, that logic certainly makes sense.
+Renaissance looks like it may now be taking a similar approach with Robinhood. The stock remains in the company's top five holdings, even though Renaissance reduced its number of shares by 31% in Q2. Robinhood also performed incredibly well in the quarter, up approximately 125%.
+That performance is likely what led the firm to reduce its shares of Robinhood by such a large amount. Notably, Robinhood reached its all-time high forward P/E of around 71x in early June. However, the stock has come down considerably, trading at a forward P/E of around 54x as of the Aug. 19 close.
+Great Minds Think Alike: Buffett and Renaissance Buy UNH
+Berkshire Hathaway's (NYSE: BRK.B) decision to buy UnitedHealth Group (NYSE: UNH) in Q2 drew significant attention as the stock fell by as much as 48% during the quarter. Renaissance made a similar move.
+UNH was the firm’s most notable new position, with the company buying approximately 1.35 million shares. That’s a much smaller buy compared to Berkshire’s purchase of more than five million shares.
+This makes sense considering the makeup of Renaissance’s portfolio. It contains thousands of different positions, compared to only around 40 for Berkshire. As of the Aug. 18 close, UNH trades only around 15% higher than its lowest level in Q2. This suggests that if investors want to follow along with Buffett and Renaissance’s strategy, they can likely still capture much of the potential value these institutions saw.
+Renaissance Moves Back Into NVIDIA in a Massive Way
+The most notable position that Renaissance added to in Q2 was chip-giant NVIDIA (NASDAQ: NVDA), moving to the second-largest holding in the portfolio. Renaissance’s shares of NVIDIA went from around 1.1 million in Q1 to 7.4 million in Q2, a massive 584% increase. Still, it is highly important to note that Renaissance’s positioning in NVIDIA tends to change dramatically from quarter to quarter. This strongly suggests that the firm is trading the stock rather than simply buying and holding it.
+NVIDIA’s average closing price in Q1 and Q2 was virtually unchanged at $126. The stock’s high and low closing prices during the quarter were also relatively similar. This indicates that price action alone wasn’t the main driver of the company’s decision to change its position so dramatically.
+One possible explanation for this move is that Renaissance reduced its NVIDIA exposure in Q1 on DeepSeek-related fears. They may have then judged these fears to be overblown and rebuilt their position in Q2. That is similar to how much of the market responded.
+Insights From Renaissance’s Q2 Moves
+Overall, Renaissance’s moves shed light on two notable strategies that investors might consider. First off, taking profits on huge winners over time and reinvesting into other names can be worthwhile. Additionally, when dominant players in a particular industry tank, selective dip-buying may be a good move.
+Before you make your next trade, you'll want to hear this.
+MarketBeat keeps track of Wall Street's top-rated and best performing research analysts and the stocks they recommend to their clients on a daily basis.
+Our team has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and none of the big name stocks were on the list.
+They believe these five stocks are the five best companies for investors to buy now...
+See The Five Stocks Here
+The article "Renaissance Hedge Fund Adds NVIDIA, Follows Buffett Into UNH" first appeared on MarketBeat.</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Renaissance Technologies is often referred to as the most successful hedge fund of all time. From 1998 to 2021, the firms Medallion Fund generated annualized after fees returns of 39%. Despite the companys legendary leader, Jim Simons, having passed away in 2024, Renaissances quarterly moves continue to provide investors with an interesting perspective on the stock market. Below, well detail the firms biggest moves and top holdings in Q2. Note that this holding data only goes through June 30. Palantir Remains No. 1 Holding Despite 17% Trim in Q2 In Q1, Palantir Technologies (NASDAQ: PLTR) and Robinhood Markets (NASDAQ: HOOD) were both in the top five holdings in Renaissance's portfolio. Palantir continues to be the companys largest holding. This comes even though Renaissance reduced its number of Palantir shares held by around 17% in Q2. Retaining its position as the portfolios top holding despite this is a testament to Palantirs extremely impressive performance. The stock gained approximately 61% from March 31 to June 30. Overall, when it comes to Palantir, it appears that Renaissance still wants the stock in its portfolio, but it is persistently taking gains to invest in other opportunities. With shares up nearly 400% in the past 52 weeks and the stock trading at a forward price to earnings (P/E) ratio north of 200x, that logic certainly makes sense. Renaissance looks like it may now be taking a similar approach with Robinhood. The stock remains in the company's top five holdings, even though Renaissance reduced its number of shares by 31% in Q2. Robinhood also performed incredibly well in the quarter, up approximately 125%. That performance is likely what led the firm to reduce its shares of Robinhood by such a large amount. Notably, Robinhood reached its all time high forward P/E of around 71x in early June. However, the stock has come down considerably, trading at a forward P/E of around 54x as of the Aug. 19 close. Great Minds Think Alike: Buffett and Renaissance Buy UNH Berkshire Hathaway's (NYSE: BRK.B) decision to buy UnitedHealth Group (NYSE: UNH) in Q2 drew significant attention as the stock fell by as much as 48% during the quarter. Renaissance made a similar move. UNH was the firms most notable new position, with the company buying approximately 1.35 million shares. Thats a much smaller buy compared to Berkshires purchase of more than five million shares. This makes sense considering the makeup of Renaissances portfolio. It contains thousands of different positions, compared to only around 40 for Berkshire. As of the Aug. 18 close, UNH trades only around 15% higher than its lowest level in Q2. This suggests that if investors want to follow along with Buffett and Renaissances strategy, they can likely still capture much of the potential value these institutions saw. Renaissance Moves Back Into NVIDIA in a Massive Way The most notable position that Renaissance added to in Q2 was chip giant NVIDIA (NASDAQ: NVDA), moving to the second largest holding in the portfolio. Renaissances shares of NVIDIA went from around 1.1 million in Q1 to 7.4 million in Q2, a massive 584% increase. Still, it is highly important to note that Renaissances positioning in NVIDIA tends to change dramatically from quarter to quarter. This strongly suggests that the firm is trading the stock rather than simply buying and holding it. NVIDIAs average closing price in Q1 and Q2 was virtually unchanged at $126. The stocks high and low closing prices during the quarter were also relatively similar. This indicates that price action alone wasnt the main driver of the companys decision to change its position so dramatically. One possible explanation for this move is that Renaissance reduced its NVIDIA exposure in Q1 on DeepSeek related fears. They may have then judged these fears to be overblown and rebuilt their position in Q2. That is similar to how much of the market responded. Insights From Renaissances Q2 Moves Overall, Renaissances moves shed light on two notable strategies that investors might consider. First off, taking profits on huge winners over time and reinvesting into other names can be worthwhile. Additionally, when dominant players in a particular industry tank, selective dip buying may be a good move. Before you make your next trade, you'll want to hear this. MarketBeat keeps track of Wall Street's top rated and best performing research analysts and the stocks they recommend to their clients on a daily basis. Our team has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and none of the big name stocks were on the list. They believe these five stocks are the five best companies for investors to buy now... See The Five Stocks Here The article "Renaissance Hedge Fund Adds NVIDIA, Follows Buffett Into UNH" first appeared on MarketBeat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45889.61666666667</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Tech, chip stock sell-off continues as AI bubble fears mount</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/tech-chip-stock-sell-off-continues-as-ai-bubble-fears-mount-184837135.html</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45889.61527777778</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>These Stocks Are Moving the Most Today: Target, Palantir, Intel, Nvidia, Dayforce, Hertz, James Hardie, and More</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/9b6c7e21-4efd-3493-96ea-0e8f69fbd4d9/these-stocks-are-moving-the.html</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45889.60694444444</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Nvidia Stock's Surge Looks Stretched. AMD Is Outperforming.</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/nvidia-stock-amd-technical-analysis-bb253717?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45889.60416666666</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>How Trump is turning Washington into a shareholder</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/f96ee43c-f8af-36df-b7a9-70b9b3d6fa48/how-trump-is-turning.html</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45889.56736111111</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Nvidia Breaks Key Level As AI Trade Loses Luster, Earnings Loom. Is Nvidia A Buy Or Sell?</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/e8ca7c15-707e-3584-a3c6-ccb42cc0fb40/nvidia-breaks-key-level-as-ai.html</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45889.54861111111</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Nvidia leads Big Tech losses, Target falls, Guess to go private</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/nvidia-leads-big-tech-losses-171004667.html</t>
+        </is>
+      </c>
+      <c r="E161" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45889.54444444444</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Why MIT Study On Enterprise Market Is Pressuring AI Stocks</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/9ba6559b-29ea-3364-9273-fa80755cf393/why-mit-study-on-enterprise.html</t>
+        </is>
+      </c>
+      <c r="E162" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45889.54166666666</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Time for a Sector Rotation Away from Tech? ETFs in Focus</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145608/time-for-a-sector-rotation-away-from-tech-etfs-in-focus</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>U.S. stocks slipped on Aug. 19, 2025 following a sharp decline in tech shares. The tech-heavy Nasdaq-100-based exchange-traded fund Invesco QQQ Trust QQQ lost 1.4% on Aug. 19, 2025. The pressure came after weakness in stocks like Palantir PLTR and NVIDIA NVDA weighed on the broader market on Tuesday. PLTR shares slumped 9.4% and NVIDIA shares retreated about 3% on Aug. 19, 2025.
+Palantir shares surged more than 150% from their April low heading into its second-quarter earnings, when the company reported quarterly revenue above $1 billion for the first time. However, data from Barchart showed that Tuesday’s decline marked the stock’s longest losing streak since March, as quoted on Yahoo Finance.
+Shift Away From Big Tech?
+Investor enthusiasm for Big Tech appears to be fading, with other sectors beginning to show renewed strength. The broader market rally is starting to show signs of rotation beyond Big Tech, the Yahoo Finance article indicated.
+Home Depot HD added some optimism after reporting earnings that showed a boost in U.S. sales, pushing its stock price higher. The HD stock advanced 3.2% on Aug. 19, 2025.
+Is AI Market Forming a Bubble?
+OpenAI CEO Sam Altman has recently suggested that the artificial intelligence (AI) industry is currently experiencing a bubble fear, as quoted on CNBC. He indicated that while AI represents one of the most significant technological shifts in decades, the AI euphoria has led to overinflated expectations from investors.
+Altman sees similarity between the current environment to the dot-com boom of the late 1990s, which was hit hard when many Internet companies failed to materialize the euphoria into profits.
+The concerns intensified earlier this year when the “Magnificent Seven” had fallen from grace due to the rise of cheaper-cost AI companies (e.g., DeepSeek) and individual Big Tech companies’ ability to handle broader macro uncertainty.
+The AI development at Big Tech has raised questions among some investors about whether current spending levels in AI are sustainable. Despite ChatGPT-Fame OpenAI’s huge success and its annual recurring revenue projection to top $20 billion this year, the company remains unprofitable.
+Nasdaq-100 ETF in Focus
+Most AI biggies have exposure to the Nasdaq-100-based ETF Invesco QQQ Trust, Series 1 (QQQ). The P/E ratio of QQQ stands at 59.27X. The 10-year range of the P/E ratio is 19.7X to 59.46X. The median P/E of the past 10 years is 25.8X. This shows the overvaluation concerns associated with QQQ.
+However, the price-to-book (P/B) ratio of QQQ is currently 3.6X, which is the lowest value considering the past 10-year range. The 10-year median P/B is 6.03X, per Gurufocus.com.
+Hence, the sudden crash of AI euphoria (if there is any) may not hurt QQQ that hard. Still, investors should be mindful of relentless AI investing going forward. Their portfolio may need diversification at the current juncture.
+Rely on Safe Sector Consumer Staples
+This is a safe sector as it is non-cyclical in nature. The consumer staples sector tends to do well even amid economic growth slowdown and high inflation. Since consumers have to buy staples products even if they cut back on their discretionary spending, big manufacturers of food and beverages normally have the power to pass on the increase in costs to customers. This puts focus on iShares U.S. Consumer Staples ETF (IYK) (read: Invest Like Warren Buffett With These ETFs).
+Value ETFs At a One-Month High
+Value stocks normally offer investors stability due to lower valuations and steady dividends. They can outperform during periods of market rotation away from high-growth sectors. In a volatile market, dividend ETFs normally come to rescue.
+The hunt for dividends in the equity market is always on, irrespective of how it is behaving. Probably this is why, S&amp;P 500 Pure Value Invesco ETF RPV and Morningstar Dividend Leaders ETF FDL have hit a one-month high lately.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+NVIDIA Corporation (NVDA): Free Stock Analysis Report The Home Depot, Inc. (HD): Free Stock Analysis Report Invesco QQQ (QQQ): ETF Research Reports First Trust Morningstar Dividend Leaders ETF (FDL): ETF Research Reports Invesco S&amp;P 500 Pure Value ETF (RPV): ETF Research Reports Palantir Technologies Inc. (PLTR): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>U.S. stocks slipped on Aug. 19, 2025 following a sharp decline in tech shares. The tech heavy Nasdaq 100 based exchange traded fund Invesco QQQ Trust QQQ lost 1.4% on Aug. 19, 2025. The pressure came after weakness in stocks like Palantir PLTR and NVIDIA NVDA weighed on the broader market on Tuesday. PLTR shares slumped 9.4% and NVIDIA shares retreated about 3% on Aug. 19, 2025. Palantir shares surged more than 150% from their April low heading into its second quarter earnings, when the company reported quarterly revenue above $1 billion for the first time. However, data from Barchart showed that Tuesdays decline marked the stocks longest losing streak since March, as quoted on Yahoo Finance. Shift Away From Big Tech? Investor enthusiasm for Big Tech appears to be fading, with other sectors beginning to show renewed strength. The broader market rally is starting to show signs of rotation beyond Big Tech, the Yahoo Finance article indicated. Home Depot HD added some optimism after reporting earnings that showed a boost in U.S. sales, pushing its stock price higher. The HD stock advanced 3.2% on Aug. 19, 2025. Is AI Market Forming a Bubble? OpenAI CEO Sam Altman has recently suggested that the artificial intelligence (AI) industry is currently experiencing a bubble fear, as quoted on CNBC. He indicated that while AI represents one of the most significant technological shifts in decades, the AI euphoria has led to overinflated expectations from investors. Altman sees similarity between the current environment to the dot com boom of the late 1990s, which was hit hard when many Internet companies failed to materialize the euphoria into profits. The concerns intensified earlier this year when the Magnificent Seven had fallen from grace due to the rise of cheaper cost AI companies (e.g., DeepSeek) and individual Big Tech companies ability to handle broader macro uncertainty. The AI development at Big Tech has raised questions among some investors about whether current spending levels in AI are sustainable. Despite ChatGPT Fame OpenAIs huge success and its annual recurring revenue projection to top $20 billion this year, the company remains unprofitable. Nasdaq 100 ETF in Focus Most AI biggies have exposure to the Nasdaq 100 based ETF Invesco QQQ Trust, Series 1 (QQQ). The P/E ratio of QQQ stands at 59.27X. The 10 year range of the P/E ratio is 19.7X to 59.46X. The median P/E of the past 10 years is 25.8X. This shows the overvaluation concerns associated with QQQ. However, the price to book (P/B) ratio of QQQ is currently 3.6X, which is the lowest value considering the past 10 year range. The 10 year median P/B is 6.03X, per Gurufocus.com. Hence, the sudden crash of AI euphoria (if there is any) may not hurt QQQ that hard. Still, investors should be mindful of relentless AI investing going forward. Their portfolio may need diversification at the current juncture. Rely on Safe Sector Consumer Staples This is a safe sector as it is non cyclical in nature. The consumer staples sector tends to do well even amid economic growth slowdown and high inflation. Since consumers have to buy staples products even if they cut back on their discretionary spending, big manufacturers of food and beverages normally have the power to pass on the increase in costs to customers. This puts focus on iShares U.S. Consumer Staples ETF (IYK) (read: Invest Like Warren Buffett With These ETFs). Value ETFs At a One Month High Value stocks normally offer investors stability due to lower valuations and steady dividends. They can outperform during periods of market rotation away from high growth sectors. In a volatile market, dividend ETFs normally come to rescue. The hunt for dividends in the equity market is always on, irrespective of how it is behaving. Probably this is why, S&amp;P 500 Pure Value Invesco ETF RPV and Morningstar Dividend Leaders ETF FDL have hit a one month high lately. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report NVIDIA Corporation (NVDA): Free Stock Analysis Report The Home Depot, Inc. (HD): Free Stock Analysis Report Invesco QQQ (QQQ): ETF Research Reports First Trust Morningstar Dividend Leaders ETF (FDL): ETF Research Reports Invesco S&amp;P 500 Pure Value ETF (RPV): ETF Research Reports Palantir Technologies Inc. (PLTR): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com). Zacks Investment Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45889.53958333333</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Tech Stocks Are Under Pressure. Why Some Wall Street Analysts Say That May Not Last</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/90676886-e631-31c9-8dfe-7f6e5f34e1cd/tech-stocks-are-under.html</t>
+        </is>
+      </c>
+      <c r="E164" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45889.53055555555</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Nasdaq slides again as AI jitters rattle tech investors</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/nasdaq-slides-again-ai-jitters-164433602.html</t>
+        </is>
+      </c>
+      <c r="E165" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45889.51736111111</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Tech, Media &amp; Telecom Roundup: Market Talk</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/b2012254-16b8-30f8-a779-cc700fd365e2/tech%2C-media-%26-telecom.html</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45889.50833333333</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Palantir sinks lower, chip stocks fall, Trump admin &amp; chipmakers</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/video/palantir-sinks-lower-chip-stocks-161247488.html</t>
+        </is>
+      </c>
+      <c r="E167" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45889.49444444444</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Palantir stock drops 20% in a week, amid over-valuation concerns</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/c243edfc-5996-3f93-b5f7-4f2257e58f99/palantir-stock-drops-20%25-in-a.html</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45889.48958333334</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Top Stock Movers Now: Target, La-Z-Boy, Hormel Foods, and More</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/f04cbce4-02f4-3629-bf2a-b3010d5dc613/top-stock-movers-now%3A-target%2C.html</t>
+        </is>
+      </c>
+      <c r="E169" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45889.4875</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Intel Investors Just Got Amazing News</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145462/intel-investors-just-got-amazing-news</t>
+        </is>
+      </c>
+      <c r="E170" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Intel (NASDAQ: INTC), Arm Holdings (NASDAQ: ARM), and other semiconductor companies. To learn more, check out the short video, consider subscribing, and click the special offer link below.
+*Stock prices used were the after-market prices of Aug. 18, 2025. The video was published on Aug. 18, 2025.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Should you invest $1,000 in Intel right now?
+Before you buy stock in Intel, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Intel wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $654,781!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,076,588!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,055% — a market-crushing outperformance compared to 183% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 18, 2025
+Jose Najarro has positions in Nvidia. The Motley Fool has positions in and recommends Intel and Nvidia. The Motley Fool recommends the following options: short August 2025 $24 calls on Intel. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Intel (NASDAQ: INTC), Arm Holdings (NASDAQ: ARM), and other semiconductor companies. To learn more, check out the short video, consider subscribing, and click the special offer link below. Stock prices used were the after market prices of Aug. 18, 2025. The video was published on Aug. 18, 2025. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Should you invest $1,000 in Intel right now? Before you buy stock in Intel, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Intel wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $654,781! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,076,588! Now, its worth noting Stock Advisors total average return is 1,055% a market crushing outperformance compared to 183% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 18, 2025 Jose Najarro has positions in Nvidia. The Motley Fool has positions in and recommends Intel and Nvidia. The Motley Fool recommends the following options: short August 2025 $24 calls on Intel. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45889.48263888889</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Sinks On Fears Of AI Bubble, AI Winter</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.investors.com/news/technology/nvidia-stock-sinks-on-fears-of-ai-bubble-ai-winter?mod=IBD_FV</t>
+        </is>
+      </c>
+      <c r="E171" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45889.48125</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>What Nvidia, Marvell, and CoreWeave Stock Investors Should Know About Recent Updates</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145456/what-nvidia-marvell-and-coreweave-stock-investors-should-know-about-recent-updates</t>
+        </is>
+      </c>
+      <c r="E172" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA), Marvell (NASDAQ: MRVL), and CoreWeave (NASDAQ: CRWV). To learn more, check out the short video, consider subscribing, and click the special offer link below.
+*Stock prices used were the after-market prices of Aug. 15, 2025. The video was published on Aug. 16, 2025.
+Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue »
+Should you invest $1,000 in Nvidia right now?
+Before you buy stock in Nvidia, consider this:
+The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now… and Nvidia wasn’t one of them. The 10 stocks that made the cut could produce monster returns in the coming years.
+Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, you’d have $654,781!* Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, you’d have $1,076,588!*
+Now, it’s worth noting Stock Advisor’s total average return is 1,055% — a market-crushing outperformance compared to 183% for the S&amp;P 500. Don’t miss out on the latest top 10 list, available when you join Stock Advisor.
+See the 10 stocks »
+*Stock Advisor returns as of August 18, 2025
+Jose Najarro has positions in CoreWeave, Marvell Technology, and Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool recommends Marvell Technology. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>In today's video, I discuss recent updates affecting Nvidia (NASDAQ: NVDA), Marvell (NASDAQ: MRVL), and CoreWeave (NASDAQ: CRWV). To learn more, check out the short video, consider subscribing, and click the special offer link below. Stock prices used were the after market prices of Aug. 15, 2025. The video was published on Aug. 16, 2025. Where to invest $1,000 right now? Our analyst team just revealed what they believe are the 10 best stocks to buy right now. Continue Should you invest $1,000 in Nvidia right now? Before you buy stock in Nvidia, consider this: The Motley Fool Stock Advisor analyst team just identified what they believe are the 10 best stocks for investors to buy now and Nvidia wasnt one of them. The 10 stocks that made the cut could produce monster returns in the coming years. Consider when Netflix made this list on December 17, 2004... if you invested $1,000 at the time of our recommendation, youd have $654,781! Or when Nvidia made this list on April 15, 2005... if you invested $1,000 at the time of our recommendation, youd have $1,076,588! Now, its worth noting Stock Advisors total average return is 1,055% a market crushing outperformance compared to 183% for the S&amp;P 500. Dont miss out on the latest top 10 list, available when you join Stock Advisor. See the 10 stocks Stock Advisor returns as of August 18, 2025 Jose Najarro has positions in CoreWeave, Marvell Technology, and Nvidia. The Motley Fool has positions in and recommends Nvidia. The Motley Fool recommends Marvell Technology. The Motley Fool has a disclosure policy. Jose Najarro is an affiliate of The Motley Fool and may be compensated for promoting its services. If you choose to subscribe through their link they will earn some extra money that supports their channel. Their opinions remain their own and are unaffected by The Motley Fool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45889.46319444444</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Why this is a must-watch in Nvidia's earnings report</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/why-this-is-a-must-watch-in-nvidias-earnings-report-150728435.html</t>
+        </is>
+      </c>
+      <c r="E173" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45889.45763888889</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>What's Really Happening in the Stock Market Today</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/livecoverage/stock-market-news-today-082025/card/what-s-really-happening-in-the-stock-market-today-wLFpTVsG4cffuLffu7gg?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E174" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45889.45486111111</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Wedbush: Nvidia Earnings Could Be the Next Big AI Catalyst</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/wedbush-nvidia-earnings-could-next-145513821.html</t>
+        </is>
+      </c>
+      <c r="E175" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45889.44930555556</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Why Target's new CEO won't have a honeymoon period: Opening Bid top takeaway</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/why-targets-new-ceo-wont-have-a-honeymoon-period-opening-bid-top-takeaway-144725734.html</t>
+        </is>
+      </c>
+      <c r="E176" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45889.44305555556</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Intel in talks with large investors for equity boost at discount, CNBC reports</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/intel-talks-large-investors-equity-143856653.html</t>
+        </is>
+      </c>
+      <c r="E177" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45889.43958333333</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Big investors ditch tech ahead of expected September stocks slump</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/big-investors-ditch-tech-ahead-143349441.html</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45889.4375</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>BC-Most Active Stocks</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/bc-most-active-stocks-143018859.html</t>
+        </is>
+      </c>
+      <c r="E179" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45889.43472222222</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Trump's Push for Intel Stake Raises Concerns for Tech Stocks</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://www.barrons.com/articles/trump-intel-stake-tech-stocks-655dc2f6?mod=bar_FV</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45889.42708333334</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Nvidia Stock Slumps Again. Whats Behind the Tumble.</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/m/ec7e667d-8c5d-3f4b-abee-13715f8389d1/nvidia-stock-slumps-again..html</t>
+        </is>
+      </c>
+      <c r="E181" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45889.42152777778</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Robotics startup FieldAI raises $314 million in new funding, sources say</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://finviz.comhttps://finance.yahoo.com/news/robotics-startup-fieldai-raises-314-140757889.html</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45889.42152777778</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Snowflake Rises 24% Year to Date: Buy, Sell or Hold the Stock?</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145416/snowflake-rises-24-year-to-date-buy-sell-or-hold-the-stock</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>|
+|||||
+|
+Snowflake SNOW shares have surged 24.7% year to date, outperforming the Zacks Computer and Technology sector’s appreciation of 13.8% and the Zacks Internet Software industry’s growth of 21.4%. The cloud data platform provider has demonstrated strong execution throughout 2025, driven by expanding AI capabilities and a rich partner base.
+Snowflake’s stock momentum reflects investor confidence in Snowflake's platform adoption and enterprise market penetration. As of April 30, 2025, SNOW had more than 11,500 customers, with more than 600 customers generating more than $1 million in annual product revenues. The platform’s appeal among large enterprises continues to grow, with 754 Fortune Global 2000 companies leveraging Snowflake's data cloud infrastructure for their mission-critical workloads.
+Snowflake shares are trading at a premium, as suggested by the Value Score of F. In terms of the 12-month price/sales (P/S), SNOW is trading at 12.69X, well above the industry’s 5.74X.
+With shares gaining momentum year to date and valuation metrics stretched, the key question is whether SNOW still offers compelling upside at current levels. Let’s take a closer look.
+Snowflake's AI capabilities have been noteworthy, with more than 5,200 accounts now using machine learning features weekly. The Cortex AI platform has evolved from experimental to production-ready infrastructure, featuring tools like Cortex AISQL that embed generative AI into SQL queries while delivering up to 60% cost savings.
+SNOW’s compute enhancements include Standard Warehouse Gen2 for faster analytics performance and Adaptive Compute for automated resource management, improving both speed and efficiency. The addition of Intelligence and Data Science Agent tools further democratizes AI access for business users and data professionals. Enhanced data ingestion through Openflow complements these compute improvements, addressing key bottlenecks that previously limited enterprise AI adoption.
+The platform's marketplace ecosystem reflects this AI-first shift, with 39% of customers maintaining data sharing relationships and listings growing 21% year over year to 3,098 during the first quarter of fiscal 2026. Strategic partnerships with content providers like USA TODAY and Stack Overflow create network effects around AI-ready datasets.
+The planned acquisition of Crunchy Data will add enterprise-grade PostgreSQL capabilities to the platform, expanding Snowflake's addressable market into transactional workloads. Together, these product initiatives are expected to encourage enterprises to consolidate more of their data infrastructure within Snowflake’s ecosystem.
+Snowflake maintains a strong partner ecosystem with Microsoft MSFT, Amazon AMZN, NVIDIA NVDA and major system integrators. The Microsoft alliance integrates OpenAI models into Cortex AI through Azure, extending features into Microsoft 365 and Teams. This collaboration positions Snowflake deeper within Microsoft’s enterprise productivity stack. The NVIDIA partnership combines Cortex AI with NVIDIA AI Enterprise, enabling customers to scale advanced AI applications. As GPU demand accelerates, alignment with NVIDIA strengthens Snowflake’s ability to deliver performance-driven workloads.
+Amazon Web Services remains a critical pillar, with Snowflake supporting more than 6,000 joint customers across industries. The Amazon collaboration expands to secure workloads on AWS GovCloud, reinforcing Snowflake’s cloud-native positioning as enterprises consolidate data platforms.
+Beyond core cloud partnerships, Snowflake is teaming with Acxiom to embed AI-powered marketing solutions directly into its environment, while customers like Canva highlight enterprise adoption.
+For the second quarter of fiscal 2026, Snowflake expects product revenues in the range of $1.03-$1.04 billion. The projection range indicates year-over-year growth of 25%.
+For fiscal 2026, Snowflake projects product revenues to grow 25% year over year to reach $4.32 billion.
+The Zacks Consensus Estimate for second-quarter fiscal 2026 revenues is currently pegged at $1.09 billion, indicating 24.91% year-over-year growth. The consensus mark for earnings is currently pegged at 26 cents per share, unchanged over the past 30 days. This suggests an increase of 44.44% year over year.
+Snowflake Inc. price-consensus-chart | Snowflake Inc. Quote
+The consensus estimates for SNOW’s fiscal 2026 revenues is pegged at $4.52 billion, indicating year-over-year growth of 24.57%. The consensus mark for earnings is pegged at $1.06 per share, unchanged over the past 30 days. This suggests an increase of 27.71% on a year-over-year basis.
+Snowflake’s AI-driven portfolio expansion, growing enterprise adoption and strong partner ecosystem have kept momentum steady through 2025. However, with shares already trading at a premium relative to the industry, the stock appears to be pricing in much of the near-term upside. Investors may prefer to monitor how AI adoption and the Crunchy Data integration translate into sustained top-line acceleration before considering fresh positions.
+SNOW currently carries a Zacks Rank #3 (Hold), suggesting that it may be wise to wait for a more favourable entry point in the stock. You can see the complete list of today’s Zacks #1 Rank (Strong Buy) stocks here.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+This article originally published on Zacks Investment Research (zacks.com).
+| 3 min | |
+| 13 min | |
+| 16 min | |
+| 17 min | |
+| 33 min | |
+| 47 min | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 1 hour | |
+| 2 hours | |
+| 2 hours |
+Join thousands of traders who make more informed decisions with our premium features. Real-time quotes, advanced visualizations, backtesting, and much more.
+Learn more about FINVIZ*Elite</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Snowflake SNOW shares have surged 24.7% year to date, outperforming the Zacks Computer and Technology sectors appreciation of 13.8% and the Zacks Internet Software industrys growth of 21.4%. The cloud data platform provider has demonstrated strong execution throughout 2025, driven by expanding AI capabilities and a rich partner base. Snowflakes stock momentum reflects investor confidence in Snowflake's platform adoption and enterprise market penetration. As of April 30, 2025, SNOW had more than 11,500 customers, with more than 600 customers generating more than $1 million in annual product revenues. The platforms appeal among large enterprises continues to grow, with 754 Fortune Global 2000 companies leveraging Snowflake's data cloud infrastructure for their mission critical workloads. Snowflake shares are trading at a premium, as suggested by the Value Score of F. In terms of the 12 month price/sales (P/S), SNOW is trading at 12.69X, well above the industrys 5.74X. With shares gaining momentum year to date and valuation metrics stretched, the key question is whether SNOW still offers compelling upside at current levels. Lets take a closer look. Snowflake's AI capabilities have been noteworthy, with more than 5,200 accounts now using machine learning features weekly. The Cortex AI platform has evolved from experimental to production ready infrastructure, featuring tools like Cortex AISQL that embed generative AI into SQL queries while delivering up to 60% cost savings. SNOWs compute enhancements include Standard Warehouse Gen2 for faster analytics performance and Adaptive Compute for automated resource management, improving both speed and efficiency. The addition of Intelligence and Data Science Agent tools further democratizes AI access for business users and data professionals. Enhanced data ingestion through Openflow complements these compute improvements, addressing key bottlenecks that previously limited enterprise AI adoption. The platform's marketplace ecosystem reflects this AI first shift, with 39% of customers maintaining data sharing relationships and listings growing 21% year over year to 3,098 during the first quarter of fiscal 2026. Strategic partnerships with content providers like USA TODAY and Stack Overflow create network effects around AI ready datasets. The planned acquisition of Crunchy Data will add enterprise grade PostgreSQL capabilities to the platform, expanding Snowflake's addressable market into transactional workloads. Together, these product initiatives are expected to encourage enterprises to consolidate more of their data infrastructure within Snowflakes ecosystem. Snowflake maintains a strong partner ecosystem with Microsoft MSFT, Amazon AMZN, NVIDIA NVDA and major system integrators. The Microsoft alliance integrates OpenAI models into Cortex AI through Azure, extending features into Microsoft 365 and Teams. This collaboration positions Snowflake deeper within Microsofts enterprise productivity stack. The NVIDIA partnership combines Cortex AI with NVIDIA AI Enterprise, enabling customers to scale advanced AI applications. As GPU demand accelerates, alignment with NVIDIA strengthens Snowflakes ability to deliver performance driven workloads. Amazon Web Services remains a critical pillar, with Snowflake supporting more than 6,000 joint customers across industries. The Amazon collaboration expands to secure workloads on AWS GovCloud, reinforcing Snowflakes cloud native positioning as enterprises consolidate data platforms. Beyond core cloud partnerships, Snowflake is teaming with Acxiom to embed AI powered marketing solutions directly into its environment, while customers like Canva highlight enterprise adoption. For the second quarter of fiscal 2026, Snowflake expects product revenues in the range of $1.03 $1.04 billion. The projection range indicates year over year growth of 25%. For fiscal 2026, Snowflake projects product revenues to grow 25% year over year to reach $4.32 billion. The Zacks Consensus Estimate for second quarter fiscal 2026 revenues is currently pegged at $1.09 billion, indicating 24.91% year over year growth. The consensus mark for earnings is currently pegged at 26 cents per share, unchanged over the past 30 days. This suggests an increase of 44.44% year over year. Snowflake Inc. price consensus chart Snowflake Inc. Quote The consensus estimates for SNOWs fiscal 2026 revenues is pegged at $4.52 billion, indicating year over year growth of 24.57%. The consensus mark for earnings is pegged at $1.06 per share, unchanged over the past 30 days. This suggests an increase of 27.71% on a year over year basis. Snowflakes AI driven portfolio expansion, growing enterprise adoption and strong partner ecosystem have kept momentum steady through 2025. However, with shares already trading at a premium relative to the industry, the stock appears to be pricing in much of the near term upside. Investors may prefer to monitor how AI adoption and the Crunchy Data integration translate into sustained top line acceleration before considering fresh positions. SNOW currently carries a Zacks Rank #3 (Hold), suggesting that it may be wise to wait for a more favourable entry point in the stock. You can see the complete list of todays Zacks #1 Rank (Strong Buy) stocks here. Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report This article originally published on Zacks Investment Research (zacks.com). 3 min 13 min 16 min 17 min 33 min 47 min 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour 1 hour 2 hours 2 hours Join thousands of traders who make more informed decisions with our premium features. Real time quotes, advanced visualizations, backtesting, and much more. Learn more about FINVIZ Elite</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45889.41666666666</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Nvidia (NVDA) Reports Next Week: Wall Street Expects Earnings Growth</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://finviz.com/news/145397/nvidia-nvda-reports-next-week-wall-street-expects-earnings-growth</t>
+        </is>
+      </c>
+      <c r="E184" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>nvidia</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Wall Street expects a year-over-year increase in earnings on higher revenues when Nvidia (NVDA) reports results for the quarter ended July 2025. While this widely-known consensus outlook is important in gauging the company's earnings picture, a powerful factor that could impact its near-term stock price is how the actual results compare to these estimates.
+The stock might move higher if these key numbers top expectations in the upcoming earnings report, which is expected to be released on August 27. On the other hand, if they miss, the stock may move lower.
+While the sustainability of the immediate price change and future earnings expectations will mostly depend on management's discussion of business conditions on the earnings call, it's worth handicapping the probability of a positive EPS surprise.
+Zacks Consensus Estimate
+This maker of graphics chips for gaming and artificial intelligence is expected to post quarterly earnings of $1.00 per share in its upcoming report, which represents a year-over-year change of +47.1%.
+Revenues are expected to be $45.91 billion, up 52.8% from the year-ago quarter.
+Estimate Revisions Trend
+The consensus EPS estimate for the quarter has been revised 0.49% higher over the last 30 days to the current level. This is essentially a reflection of how the covering analysts have collectively reassessed their initial estimates over this period.
+Investors should keep in mind that the direction of estimate revisions by each of the covering analysts may not always get reflected in the aggregate change.
+Price, Consensus and EPS Surprise
+Earnings Whisper
+Estimate revisions ahead of a company's earnings release offer clues to the business conditions for the period whose results are coming out. This insight is at the core of our proprietary surprise prediction model -- the Zacks Earnings ESP (Expected Surprise Prediction).
+The Zacks Earnings ESP compares the Most Accurate Estimate to the Zacks Consensus Estimate for the quarter; the Most Accurate Estimate is a more recent version of the Zacks Consensus EPS estimate. The idea here is that analysts revising their estimates right before an earnings release have the latest information, which could potentially be more accurate than what they and others contributing to the consensus had predicted earlier.
+Thus, a positive or negative Earnings ESP reading theoretically indicates the likely deviation of the actual earnings from the consensus estimate. However, the model's predictive power is significant for positive ESP readings only.
+A positive Earnings ESP is a strong predictor of an earnings beat, particularly when combined with a Zacks Rank #1 (Strong Buy), 2 (Buy) or 3 (Hold). Our research shows that stocks with this combination produce a positive surprise nearly 70% of the time, and a solid Zacks Rank actually increases the predictive power of Earnings ESP.
+Please note that a negative Earnings ESP reading is not indicative of an earnings miss. Our research shows that it is difficult to predict an earnings beat with any degree of confidence for stocks with negative Earnings ESP readings and/or Zacks Rank of 4 (Sell) or 5 (Strong Sell).
+How Have the Numbers Shaped Up for Nvidia?
+For Nvidia, the Most Accurate Estimate is higher than the Zacks Consensus Estimate, suggesting that analysts have recently become bullish on the company's earnings prospects. This has resulted in an Earnings ESP of +3.14%.
+On the other hand, the stock currently carries a Zacks Rank of #3.
+So, this combination indicates that Nvidia will most likely beat the consensus EPS estimate.
+Does Earnings Surprise History Hold Any Clue?
+Analysts often consider to what extent a company has been able to match consensus estimates in the past while calculating their estimates for its future earnings. So, it's worth taking a look at the surprise history for gauging its influence on the upcoming number.
+For the last reported quarter, it was expected that Nvidia would post earnings of $0.85 per share when it actually produced earnings of $0.81, delivering a surprise of -4.71%.
+Over the last four quarters, the company has beaten consensus EPS estimates three times.
+Bottom Line
+An earnings beat or miss may not be the sole basis for a stock moving higher or lower. Many stocks end up losing ground despite an earnings beat due to other factors that disappoint investors. Similarly, unforeseen catalysts help a number of stocks gain despite an earnings miss.
+That said, betting on stocks that are expected to beat earnings expectations does increase the odds of success. This is why it's worth checking a company's Earnings ESP and Zacks Rank ahead of its quarterly release. Make sure to utilize our Earnings ESP Filter to uncover the best stocks to buy or sell before they've reported.
+Nvidia appears a compelling earnings-beat candidate. However, investors should pay attention to other factors too for betting on this stock or staying away from it ahead of its earnings release.
+Stay on top of upcoming earnings announcements with the Zacks Earnings Calendar.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+NVIDIA Corporation (NVDA): Free Stock Analysis ReportThis article originally published on Zacks Investment Research (zacks.com).
+Zac